--- a/Entreprises_Complet.xlsx
+++ b/Entreprises_Complet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfial\Documents\00_Stage_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7B1BC5A9-ADAB-4040-B88C-7E00DF1BAC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA6DD6F-CECB-4D3A-804E-1B255FBD823C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Best Ent i" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Entreprises_Complet!$A$1:$CB$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Entreprises_Complet!$A$1:$CB$127</definedName>
     <definedName name="d" localSheetId="2">Entreprises_Complet!#REF!</definedName>
     <definedName name="d">Entreprises_Complet!#REF!</definedName>
   </definedNames>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="1275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="1275">
   <si>
     <t>Alimentaire</t>
   </si>
@@ -1230,9 +1230,6 @@
     <t>03 25 39 41 11</t>
   </si>
   <si>
-    <t>Cosmétiques</t>
-  </si>
-  <si>
     <t>COLGATE PALMOLIVE industriel</t>
   </si>
   <si>
@@ -1300,9 +1297,6 @@
   </si>
   <si>
     <t>03 26 79 72 72</t>
-  </si>
-  <si>
-    <t>BCM-alimentaire</t>
   </si>
   <si>
     <t>Pharmaceutique</t>
@@ -4023,6 +4017,12 @@
   </si>
   <si>
     <t xml:space="preserve">49.2727416824859,  4.003045026580413 </t>
+  </si>
+  <si>
+    <t>49.35053765521716, 4.16640323758108</t>
+  </si>
+  <si>
+    <t>BCM-Alimentaire</t>
   </si>
 </sst>
 </file>
@@ -14982,10 +14982,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AD1" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="AL1" sqref="AL1:AL1048576"/>
+      <selection pane="bottomLeft" activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15042,28 +15042,28 @@
         <v>340</v>
       </c>
       <c r="E1" s="94" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F1" s="94" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G1" s="94" t="s">
         <v>1054</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="H1" s="94" t="s">
         <v>1055</v>
       </c>
-      <c r="G1" s="94" t="s">
-        <v>1056</v>
-      </c>
-      <c r="H1" s="94" t="s">
-        <v>1057</v>
-      </c>
       <c r="I1" s="94" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J1" s="94" t="s">
+        <v>1049</v>
+      </c>
+      <c r="K1" s="94" t="s">
         <v>1050</v>
       </c>
-      <c r="J1" s="94" t="s">
+      <c r="L1" s="94" t="s">
         <v>1051</v>
-      </c>
-      <c r="K1" s="94" t="s">
-        <v>1052</v>
-      </c>
-      <c r="L1" s="94" t="s">
-        <v>1053</v>
       </c>
       <c r="M1" s="87" t="s">
         <v>287</v>
@@ -15141,7 +15141,7 @@
         <v>82</v>
       </c>
       <c r="AL1" s="66" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="AM1" s="66" t="s">
         <v>299</v>
@@ -15165,183 +15165,183 @@
         <v>264</v>
       </c>
       <c r="AT1" s="79" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AU1" s="71" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AV1" s="79" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AW1" s="71" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AX1" s="81" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AY1" s="81" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AZ1" s="81" t="s">
+        <v>1058</v>
+      </c>
+      <c r="BA1" s="81" t="s">
+        <v>1059</v>
+      </c>
+      <c r="BB1" s="81" t="s">
+        <v>1027</v>
+      </c>
+      <c r="BC1" s="81" t="s">
+        <v>1028</v>
+      </c>
+      <c r="BD1" s="81" t="s">
+        <v>1029</v>
+      </c>
+      <c r="BE1" s="81" t="s">
+        <v>1030</v>
+      </c>
+      <c r="BF1" s="81" t="s">
+        <v>1031</v>
+      </c>
+      <c r="BG1" s="81" t="s">
+        <v>1032</v>
+      </c>
+      <c r="BH1" s="81" t="s">
+        <v>1033</v>
+      </c>
+      <c r="BI1" s="81" t="s">
+        <v>1034</v>
+      </c>
+      <c r="BJ1" s="81" t="s">
+        <v>1035</v>
+      </c>
+      <c r="BK1" s="81" t="s">
+        <v>1036</v>
+      </c>
+      <c r="BL1" s="82" t="s">
         <v>1025</v>
       </c>
-      <c r="AU1" s="71" t="s">
-        <v>1028</v>
-      </c>
-      <c r="AV1" s="79" t="s">
-        <v>1023</v>
-      </c>
-      <c r="AW1" s="71" t="s">
-        <v>1026</v>
-      </c>
-      <c r="AX1" s="81" t="s">
-        <v>1062</v>
-      </c>
-      <c r="AY1" s="81" t="s">
-        <v>1063</v>
-      </c>
-      <c r="AZ1" s="81" t="s">
-        <v>1060</v>
-      </c>
-      <c r="BA1" s="81" t="s">
-        <v>1061</v>
-      </c>
-      <c r="BB1" s="81" t="s">
-        <v>1029</v>
-      </c>
-      <c r="BC1" s="81" t="s">
-        <v>1030</v>
-      </c>
-      <c r="BD1" s="81" t="s">
-        <v>1031</v>
-      </c>
-      <c r="BE1" s="81" t="s">
-        <v>1032</v>
-      </c>
-      <c r="BF1" s="81" t="s">
-        <v>1033</v>
-      </c>
-      <c r="BG1" s="81" t="s">
-        <v>1034</v>
-      </c>
-      <c r="BH1" s="81" t="s">
-        <v>1035</v>
-      </c>
-      <c r="BI1" s="81" t="s">
-        <v>1036</v>
-      </c>
-      <c r="BJ1" s="81" t="s">
-        <v>1037</v>
-      </c>
-      <c r="BK1" s="81" t="s">
-        <v>1038</v>
-      </c>
-      <c r="BL1" s="82" t="s">
-        <v>1027</v>
-      </c>
       <c r="BM1" s="82" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="BN1" s="82"/>
       <c r="BO1" s="82"/>
       <c r="BP1" s="83" t="s">
+        <v>1037</v>
+      </c>
+      <c r="BQ1" s="83" t="s">
+        <v>1038</v>
+      </c>
+      <c r="BR1" s="83" t="s">
         <v>1039</v>
       </c>
-      <c r="BQ1" s="83" t="s">
+      <c r="BS1" s="83" t="s">
         <v>1040</v>
       </c>
-      <c r="BR1" s="83" t="s">
+      <c r="BT1" s="83" t="s">
         <v>1041</v>
-      </c>
-      <c r="BS1" s="83" t="s">
-        <v>1042</v>
-      </c>
-      <c r="BT1" s="83" t="s">
-        <v>1043</v>
       </c>
       <c r="BU1" s="83"/>
       <c r="BV1" s="83"/>
       <c r="BW1" s="83" t="s">
+        <v>1042</v>
+      </c>
+      <c r="BX1" s="83" t="s">
+        <v>1043</v>
+      </c>
+      <c r="BY1" s="83" t="s">
         <v>1044</v>
       </c>
-      <c r="BX1" s="83" t="s">
+      <c r="BZ1" s="83" t="s">
         <v>1045</v>
       </c>
-      <c r="BY1" s="83" t="s">
+      <c r="CA1" s="83" t="s">
         <v>1046</v>
-      </c>
-      <c r="BZ1" s="83" t="s">
-        <v>1047</v>
-      </c>
-      <c r="CA1" s="83" t="s">
-        <v>1048</v>
       </c>
       <c r="CB1" s="69"/>
     </row>
     <row r="2" spans="1:80" s="18" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D2" s="86" t="str">
         <f t="shared" ref="D2:D33" si="0">IF(AX2&lt;&gt;0,"2020_A="&amp;AX2," ")&amp;IF(AY2&lt;&gt;0," ; 2020_i="&amp;AY2," ")&amp;IF(AZ2&lt;&gt;0,"2019_A="&amp;AZ2," ")&amp;IF(BA2&lt;&gt;0," ; 2019_i="&amp;BA2," ")&amp;IF(BB2&lt;&gt;0,"2018_A="&amp;BB2," ")&amp;IF(BC2&lt;&gt;0," ; 2018_i="&amp;BC2," ")&amp;IF(BD2&lt;&gt;0," ; 2017_A="&amp;BD2," ")&amp;IF(BE2&lt;&gt;0," ; 2017_i="&amp;BE2," ")&amp;IF(BF2&lt;&gt;0," ; 2016_A="&amp;BF2," ")&amp;IF(BG2&lt;&gt;0," ; 2016_i="&amp;BG2," ")&amp;IF(BH2&lt;&gt;0," ; 2015_A="&amp;BH2," ")&amp;IF(BI2&lt;&gt;0," ; 2015_i="&amp;BI2," ")&amp;IF(BJ2&lt;&gt;0," ; 2014_A="&amp;BJ2," ")&amp;IF(BK2&lt;&gt;0," ; 2014_i="&amp;BK2," ")</f>
         <v xml:space="preserve">2020_A=2 2019_A=4 2018_A=7  ; 2017_A=5 ; 2017_i=1 ; 2016_A=6 ; 2016_i=1 ; 2015_A=3  ; 2014_A=3 </v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="88" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="J2" s="62" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="K2" s="62" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="88" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="N2" s="62" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="O2" s="62" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="P2" s="153"/>
       <c r="Q2" s="62" t="s">
+        <v>1193</v>
+      </c>
+      <c r="R2" s="153" t="s">
+        <v>1194</v>
+      </c>
+      <c r="S2" s="153" t="s">
         <v>1195</v>
-      </c>
-      <c r="R2" s="153" t="s">
-        <v>1196</v>
-      </c>
-      <c r="S2" s="153" t="s">
-        <v>1197</v>
       </c>
       <c r="T2" s="153"/>
       <c r="U2" s="62" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="V2" s="62" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="W2" s="62" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="X2" s="153"/>
       <c r="Y2" s="153"/>
       <c r="Z2" s="62" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="AA2" s="62" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="AB2" s="153"/>
       <c r="AC2" s="62"/>
       <c r="AD2" s="62" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="AE2" s="62" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="AF2" s="153"/>
       <c r="AG2" s="62" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AH2" s="62" t="s">
         <v>196</v>
@@ -15353,13 +15353,13 @@
         <v>326888110</v>
       </c>
       <c r="AK2" s="75" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AL2" s="160" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="AM2" s="75" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AN2" s="156"/>
       <c r="AO2" s="157"/>
@@ -15496,71 +15496,71 @@
         <v>2020_A=1 2019_A=1 2018_A=2 ; 2018_i=1 ; 2017_A=1  ; 2016_A=2  ; 2015_A=1  ; 2014_A=2 ; 2014_i=1</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="89" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="T3" s="17"/>
       <c r="U3" s="17" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="W3" s="17" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="X3" s="17"/>
       <c r="Y3" s="17"/>
       <c r="Z3" s="17" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="AA3" s="17" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="AB3" s="17"/>
       <c r="AC3" s="17" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="AD3" s="17" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AE3" s="17" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="AF3" s="17"/>
       <c r="AG3" s="11" t="s">
@@ -15576,26 +15576,26 @@
         <v>326888410</v>
       </c>
       <c r="AK3" s="23" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="AL3" s="161" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="AM3" s="50"/>
       <c r="AN3" s="11" t="s">
         <v>339</v>
       </c>
       <c r="AO3" s="17" t="s">
+        <v>862</v>
+      </c>
+      <c r="AP3" s="17" t="s">
+        <v>863</v>
+      </c>
+      <c r="AQ3" s="11" t="s">
         <v>864</v>
       </c>
-      <c r="AP3" s="17" t="s">
+      <c r="AR3" s="23" t="s">
         <v>865</v>
-      </c>
-      <c r="AQ3" s="11" t="s">
-        <v>866</v>
-      </c>
-      <c r="AR3" s="23" t="s">
-        <v>867</v>
       </c>
       <c r="AS3" s="25"/>
       <c r="AT3" s="1">
@@ -15741,45 +15741,45 @@
         <v>291</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="P4" s="17"/>
       <c r="Q4" s="17" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="T4" s="17"/>
       <c r="U4" s="17" t="s">
         <v>293</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="X4" s="17"/>
       <c r="Y4" s="17" t="s">
         <v>272</v>
       </c>
       <c r="Z4" s="17" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="AA4" s="17" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="AB4" s="17"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="17" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="AE4" s="17" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="AF4" s="17"/>
       <c r="AG4" s="17" t="s">
@@ -15798,7 +15798,7 @@
         <v>285</v>
       </c>
       <c r="AL4" s="162" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="AM4" s="74"/>
       <c r="AN4" s="17"/>
@@ -15925,7 +15925,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D5" s="86" t="str">
         <f t="shared" si="0"/>
@@ -15936,53 +15936,53 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="89" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="N5" s="17" t="s">
+        <v>1242</v>
+      </c>
+      <c r="O5" s="17" t="s">
         <v>1244</v>
-      </c>
-      <c r="O5" s="17" t="s">
-        <v>1246</v>
       </c>
       <c r="P5" s="17"/>
       <c r="Q5" s="17" t="s">
+        <v>1190</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>1191</v>
+      </c>
+      <c r="S5" s="17" t="s">
         <v>1192</v>
-      </c>
-      <c r="R5" s="17" t="s">
-        <v>1193</v>
-      </c>
-      <c r="S5" s="17" t="s">
-        <v>1194</v>
       </c>
       <c r="T5" s="17"/>
       <c r="U5" s="17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="W5" s="17" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="X5" s="17"/>
       <c r="Y5" s="17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Z5" s="17" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AA5" s="17" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AB5" s="17"/>
       <c r="AC5" s="17"/>
@@ -16003,7 +16003,7 @@
         <v>227</v>
       </c>
       <c r="AL5" s="163" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="AM5" s="25" t="s">
         <v>224</v>
@@ -16155,51 +16155,51 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="89" t="s">
+        <v>515</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>1078</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q6" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="R6" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="O6" s="17" t="s">
-        <v>1080</v>
-      </c>
-      <c r="P6" s="17" t="s">
-        <v>557</v>
-      </c>
-      <c r="Q6" s="17" t="s">
-        <v>519</v>
-      </c>
-      <c r="R6" s="17" t="s">
-        <v>520</v>
-      </c>
       <c r="S6" s="17" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="T6" s="17"/>
       <c r="U6" s="17" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="W6" s="17" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17"/>
       <c r="Z6" s="17" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="AA6" s="17" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="AB6" s="17"/>
       <c r="AC6" s="17"/>
       <c r="AD6" s="17" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="AE6" s="17" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="AF6" s="17"/>
       <c r="AG6" s="11" t="s">
@@ -16218,24 +16218,24 @@
         <v>137</v>
       </c>
       <c r="AL6" s="163" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="AM6" s="23"/>
       <c r="AN6" s="11" t="s">
         <v>267</v>
       </c>
       <c r="AO6" s="17" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AP6" s="17"/>
       <c r="AQ6" s="11" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AR6" s="50" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AS6" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AT6" s="1">
         <f>RANK(BL6,$BL$2:$BL$121)+COUNTIF(BL$2:BL6,BL6)-1</f>
@@ -16352,10 +16352,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D7" s="11" t="str">
         <f t="shared" si="0"/>
@@ -16370,80 +16370,80 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="89" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="P7" s="15"/>
       <c r="Q7" s="17" t="s">
+        <v>1163</v>
+      </c>
+      <c r="R7" s="17" t="s">
+        <v>1164</v>
+      </c>
+      <c r="S7" s="17" t="s">
         <v>1165</v>
-      </c>
-      <c r="R7" s="17" t="s">
-        <v>1166</v>
-      </c>
-      <c r="S7" s="17" t="s">
-        <v>1167</v>
       </c>
       <c r="T7" s="15"/>
       <c r="U7" s="17" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="W7" s="17" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="17" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="AA7" s="17" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="AB7" s="15"/>
       <c r="AC7" s="17"/>
       <c r="AD7" s="17" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="AE7" s="17" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="AF7" s="15"/>
       <c r="AG7" s="17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AH7" s="17" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AI7" s="21">
         <v>2400</v>
       </c>
       <c r="AJ7" s="46" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AK7" s="23"/>
       <c r="AL7" s="23" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="AM7" s="23"/>
       <c r="AN7" s="30"/>
       <c r="AO7" s="17" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AP7" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="AQ7" s="48" t="s">
+        <v>708</v>
+      </c>
+      <c r="AR7" s="42" t="s">
         <v>711</v>
-      </c>
-      <c r="AQ7" s="48" t="s">
-        <v>710</v>
-      </c>
-      <c r="AR7" s="42" t="s">
-        <v>713</v>
       </c>
       <c r="AS7" s="26"/>
       <c r="AT7" s="1">
@@ -16564,80 +16564,80 @@
         <v>4</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="D8" s="114" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">    2018_A=1  ; 2017_A=1  ; 2016_A=1 ; 2016_i=1 ; 2015_A=2  ; 2014_A=1 </v>
       </c>
       <c r="E8" s="89" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="89" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="89" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="N8" s="17" t="s">
+        <v>1249</v>
+      </c>
+      <c r="O8" s="17" t="s">
         <v>1251</v>
-      </c>
-      <c r="O8" s="17" t="s">
-        <v>1253</v>
       </c>
       <c r="P8" s="17"/>
       <c r="Q8" s="17" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="T8" s="17"/>
       <c r="U8" s="17" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="W8" s="17" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="X8" s="17"/>
       <c r="Y8" s="17" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="Z8" s="17" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AA8" s="17" t="s">
         <v>1095</v>
-      </c>
-      <c r="AA8" s="17" t="s">
-        <v>1097</v>
       </c>
       <c r="AB8" s="17"/>
       <c r="AC8" s="17" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="AD8" s="17" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="AE8" s="17" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AF8" s="17"/>
       <c r="AG8" s="11" t="s">
@@ -16655,10 +16655,12 @@
       <c r="AK8" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="AL8" s="23"/>
+      <c r="AL8" s="23" t="s">
+        <v>1273</v>
+      </c>
       <c r="AM8" s="23"/>
       <c r="AN8" s="25" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AO8" s="17" t="s">
         <v>93</v>
@@ -16667,10 +16669,10 @@
         <v>94</v>
       </c>
       <c r="AQ8" s="25" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AR8" s="42" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AS8" s="25"/>
       <c r="AT8" s="1">
@@ -16786,43 +16788,43 @@
         <v>0</v>
       </c>
       <c r="B9" s="159" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D9" s="86" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">2020_A=1 2019_A=1 2018_A=1         </v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="G9" s="158" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="H9" s="142"/>
       <c r="I9" s="54" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="J9" s="54" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="K9" s="158" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="L9" s="142"/>
       <c r="M9" s="112" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="N9" s="54" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="O9" s="158" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="P9" s="138"/>
       <c r="Q9" s="54"/>
@@ -16961,10 +16963,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D10" s="86" t="str">
         <f t="shared" si="0"/>
@@ -16982,68 +16984,68 @@
         <v>272</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="O10" s="45" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="P10" s="15"/>
       <c r="Q10" s="17" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="R10" s="24" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="S10" s="45" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="T10" s="15"/>
       <c r="U10" s="15" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="V10" s="17" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="W10" s="45" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="X10" s="15"/>
       <c r="Y10" s="17" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="Z10" s="17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AA10" s="45" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AB10" s="15"/>
       <c r="AC10" s="17"/>
       <c r="AD10" s="17" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="AE10" s="45" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AF10" s="26"/>
       <c r="AG10" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AH10" s="17" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AI10" s="21">
         <v>2350</v>
       </c>
       <c r="AJ10" s="46" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AK10" s="23" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AL10" s="23"/>
       <c r="AM10" s="23" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AN10" s="47"/>
       <c r="AO10" s="26"/>
@@ -17180,33 +17182,33 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="89" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="P11" s="17"/>
       <c r="Q11" s="17" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="R11" s="17" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="T11" s="17"/>
       <c r="U11" s="17" t="s">
         <v>272</v>
       </c>
       <c r="V11" s="17" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="W11" s="17" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="X11" s="17"/>
       <c r="Y11" s="17"/>
@@ -17230,7 +17232,7 @@
         <v>129</v>
       </c>
       <c r="AK11" s="23" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AL11" s="23"/>
       <c r="AM11" s="23"/>
@@ -17248,7 +17250,7 @@
         <v>25</v>
       </c>
       <c r="AS11" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AT11" s="1">
         <f>RANK(BL11,$BL$2:$BL$121)+COUNTIF(BL$2:BL11,BL11)-1</f>
@@ -17375,33 +17377,33 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="89" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="P12" s="17"/>
       <c r="Q12" s="17" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="R12" s="136" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="S12" s="17" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="T12" s="17"/>
       <c r="U12" s="17" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="V12" s="17" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="W12" s="17" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
@@ -17429,7 +17431,7 @@
       </c>
       <c r="AL12" s="23"/>
       <c r="AM12" s="23" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AN12" s="25" t="s">
         <v>20</v>
@@ -17552,10 +17554,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D13" s="86" t="str">
         <f t="shared" si="0"/>
@@ -17570,33 +17572,33 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="89" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="P13" s="15"/>
       <c r="Q13" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="R13" s="24" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="T13" s="15"/>
       <c r="U13" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="V13" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="W13" s="17" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="X13" s="15"/>
       <c r="Y13" s="17"/>
@@ -17608,7 +17610,7 @@
       <c r="AE13" s="17"/>
       <c r="AF13" s="26"/>
       <c r="AG13" s="15" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AH13" s="17" t="s">
         <v>196</v>
@@ -17617,14 +17619,14 @@
         <v>51100</v>
       </c>
       <c r="AJ13" s="46" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AK13" s="23" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AL13" s="23"/>
       <c r="AM13" s="23" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AN13" s="47"/>
       <c r="AO13" s="26"/>
@@ -17739,10 +17741,10 @@
         <v>356</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D14" s="86" t="str">
         <f t="shared" si="0"/>
@@ -17761,26 +17763,26 @@
       <c r="O14" s="17"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="17" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="S14" s="17" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="T14" s="15"/>
       <c r="U14" s="17" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="W14" s="17" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="X14" s="15" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="Y14" s="15"/>
       <c r="Z14" s="15"/>
@@ -17791,7 +17793,7 @@
       <c r="AE14" s="17"/>
       <c r="AF14" s="15"/>
       <c r="AG14" s="17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AH14" s="17" t="s">
         <v>196</v>
@@ -17801,11 +17803,11 @@
       </c>
       <c r="AJ14" s="15"/>
       <c r="AK14" s="22" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AL14" s="22"/>
       <c r="AM14" s="23" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AN14" s="30"/>
       <c r="AO14" s="26"/>
@@ -17918,10 +17920,10 @@
         <v>354</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D15" s="86" t="str">
         <f t="shared" si="0"/>
@@ -17936,13 +17938,13 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="89" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="P15" s="15"/>
       <c r="Q15" s="17"/>
@@ -17953,10 +17955,10 @@
         <v>272</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="W15" s="17" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="X15" s="15"/>
       <c r="Y15" s="15"/>
@@ -17967,14 +17969,14 @@
         <v>272</v>
       </c>
       <c r="AD15" s="17" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="AE15" s="17" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AF15" s="15"/>
       <c r="AG15" s="17" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="AH15" s="17" t="s">
         <v>196</v>
@@ -17984,20 +17986,20 @@
       </c>
       <c r="AJ15" s="15"/>
       <c r="AK15" s="22" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AL15" s="22"/>
       <c r="AM15" s="23" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AN15" s="30"/>
       <c r="AO15" s="17" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="AP15" s="24"/>
       <c r="AQ15" s="26"/>
       <c r="AR15" s="42" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="AS15" s="26"/>
       <c r="AT15" s="1">
@@ -18104,13 +18106,13 @@
     </row>
     <row r="16" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>894</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>896</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>898</v>
       </c>
       <c r="D16" s="86" t="str">
         <f t="shared" si="0"/>
@@ -18125,23 +18127,23 @@
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
       <c r="M16" s="89" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>1141</v>
+      </c>
+      <c r="O16" s="17" t="s">
         <v>1142</v>
-      </c>
-      <c r="N16" s="17" t="s">
-        <v>1143</v>
-      </c>
-      <c r="O16" s="17" t="s">
-        <v>1144</v>
       </c>
       <c r="P16" s="17"/>
       <c r="Q16" s="17" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="S16" s="17" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="T16" s="17"/>
       <c r="U16" s="17"/>
@@ -18157,7 +18159,7 @@
       <c r="AE16" s="17"/>
       <c r="AF16" s="17"/>
       <c r="AG16" s="17" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="AH16" s="17" t="s">
         <v>196</v>
@@ -18167,25 +18169,25 @@
       </c>
       <c r="AJ16" s="28"/>
       <c r="AK16" s="22" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="AL16" s="22"/>
       <c r="AM16" s="23" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="AN16" s="15"/>
       <c r="AO16" s="17" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="AP16" s="24"/>
       <c r="AQ16" s="17" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="AR16" s="60" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="AS16" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AT16" s="1">
         <f>RANK(BL16,$BL$2:$BL$121)+COUNTIF(BL$2:BL16,BL16)-1</f>
@@ -18296,10 +18298,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="D17" s="86" t="str">
         <f t="shared" si="0"/>
@@ -18314,23 +18316,23 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="89" t="s">
+        <v>1239</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>1240</v>
+      </c>
+      <c r="O17" s="17" t="s">
         <v>1241</v>
-      </c>
-      <c r="N17" s="17" t="s">
-        <v>1242</v>
-      </c>
-      <c r="O17" s="17" t="s">
-        <v>1243</v>
       </c>
       <c r="P17" s="15"/>
       <c r="Q17" s="17" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="T17" s="15"/>
       <c r="U17" s="15"/>
@@ -18346,7 +18348,7 @@
       <c r="AE17" s="17"/>
       <c r="AF17" s="15"/>
       <c r="AG17" s="17" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="AH17" s="17" t="s">
         <v>196</v>
@@ -18355,14 +18357,14 @@
         <v>51680</v>
       </c>
       <c r="AJ17" s="28" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="AK17" s="22" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="AL17" s="22"/>
       <c r="AM17" s="23" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="AN17" s="30"/>
       <c r="AO17" s="26"/>
@@ -18475,10 +18477,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D18" s="86" t="str">
         <f t="shared" si="0"/>
@@ -18497,33 +18499,33 @@
       <c r="O18" s="17"/>
       <c r="P18" s="17"/>
       <c r="Q18" s="17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="R18" s="136" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="T18" s="17"/>
       <c r="U18" s="17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="V18" s="17" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="W18" s="17" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="X18" s="17"/>
       <c r="Y18" s="17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Z18" s="17" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AA18" s="17" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AB18" s="17"/>
       <c r="AC18" s="17"/>
@@ -18531,39 +18533,39 @@
       <c r="AE18" s="17"/>
       <c r="AF18" s="17"/>
       <c r="AG18" s="25" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AH18" s="17" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AI18" s="11">
         <v>51200</v>
       </c>
       <c r="AJ18" s="46" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AK18" s="52" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AL18" s="52"/>
       <c r="AM18" s="23" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AN18" s="17"/>
       <c r="AO18" s="17" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AP18" s="25" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AQ18" s="25" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AR18" s="23" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AS18" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AT18" s="1">
         <f>RANK(BL18,$BL$2:$BL$121)+COUNTIF(BL$2:BL18,BL18)-1</f>
@@ -18672,10 +18674,10 @@
         <v>356</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D19" s="86" t="str">
         <f t="shared" si="0"/>
@@ -18694,33 +18696,33 @@
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="17" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="R19" s="136" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="T19" s="17"/>
       <c r="U19" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="V19" s="17" t="s">
         <v>490</v>
       </c>
-      <c r="V19" s="17" t="s">
-        <v>492</v>
-      </c>
       <c r="W19" s="17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="X19" s="17"/>
       <c r="Y19" s="17" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="Z19" s="17" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AA19" s="17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AB19" s="17"/>
       <c r="AC19" s="17"/>
@@ -18728,19 +18730,19 @@
       <c r="AE19" s="17"/>
       <c r="AF19" s="17"/>
       <c r="AG19" s="25" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AH19" s="17" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AI19" s="11">
         <v>10380</v>
       </c>
       <c r="AJ19" s="46" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AK19" s="52" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AL19" s="52"/>
       <c r="AM19" s="25"/>
@@ -18860,7 +18862,7 @@
         <v>282</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="D20" s="86" t="str">
         <f t="shared" si="0"/>
@@ -18878,10 +18880,10 @@
         <v>281</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="O20" s="17" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="P20" s="15"/>
       <c r="Q20" s="17"/>
@@ -18901,34 +18903,34 @@
       <c r="AE20" s="17"/>
       <c r="AF20" s="15"/>
       <c r="AG20" s="11" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="AH20" s="17" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="AI20" s="21">
         <v>10000</v>
       </c>
       <c r="AJ20" s="28"/>
       <c r="AK20" s="56" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AL20" s="56"/>
       <c r="AM20" s="23" t="s">
+        <v>716</v>
+      </c>
+      <c r="AN20" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="AO20" s="17" t="s">
         <v>718</v>
       </c>
-      <c r="AN20" s="17" t="s">
-        <v>722</v>
-      </c>
-      <c r="AO20" s="17" t="s">
-        <v>720</v>
-      </c>
       <c r="AP20" s="17" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AQ20" s="17"/>
       <c r="AR20" s="23" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="AS20" s="25"/>
       <c r="AT20" s="1">
@@ -19037,7 +19039,7 @@
         <v>282</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D21" s="86" t="str">
         <f t="shared" si="0"/>
@@ -19052,13 +19054,13 @@
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
       <c r="M21" s="89" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="N21" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="O21" s="17" t="s">
         <v>1149</v>
-      </c>
-      <c r="O21" s="17" t="s">
-        <v>1151</v>
       </c>
       <c r="P21" s="15"/>
       <c r="Q21" s="17"/>
@@ -19078,32 +19080,32 @@
       <c r="AE21" s="17"/>
       <c r="AF21" s="15"/>
       <c r="AG21" s="11" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="AH21" s="17" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="AI21" s="21">
         <v>76100</v>
       </c>
       <c r="AJ21" s="28" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AK21" s="56" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="AL21" s="56"/>
       <c r="AM21" s="23" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AN21" s="17"/>
       <c r="AO21" s="17"/>
       <c r="AP21" s="17"/>
       <c r="AQ21" s="17" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AR21" s="23" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AS21" s="25"/>
       <c r="AT21" s="1">
@@ -19209,10 +19211,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D22" s="86" t="str">
         <f t="shared" si="0"/>
@@ -19227,13 +19229,13 @@
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
       <c r="M22" s="89" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="17"/>
@@ -19253,33 +19255,33 @@
       <c r="AE22" s="17"/>
       <c r="AF22" s="15"/>
       <c r="AG22" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AH22" s="17" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AI22" s="21">
         <v>89150</v>
       </c>
       <c r="AJ22" s="28" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AK22" s="56" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AL22" s="56"/>
       <c r="AM22" s="23" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AN22" s="30"/>
       <c r="AO22" s="17" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AP22" s="17" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AQ22" s="25" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AR22" s="23"/>
       <c r="AS22" s="25"/>
@@ -19383,13 +19385,13 @@
     </row>
     <row r="23" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>436</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>438</v>
       </c>
       <c r="D23" s="86" t="str">
         <f t="shared" si="0"/>
@@ -19408,13 +19410,13 @@
       <c r="O23" s="17"/>
       <c r="P23" s="15"/>
       <c r="Q23" s="17" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="S23" s="17" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
@@ -19429,13 +19431,13 @@
         <v>272</v>
       </c>
       <c r="AD23" s="17" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="AE23" s="17" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AF23" s="15" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AG23" s="17" t="s">
         <v>369</v>
@@ -19447,25 +19449,25 @@
         <v>51110</v>
       </c>
       <c r="AJ23" s="28" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AK23" s="23" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AL23" s="23"/>
       <c r="AM23" s="23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AN23" s="15"/>
       <c r="AO23" s="24" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="AP23" s="17" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="AQ23" s="26"/>
       <c r="AR23" s="42" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AS23" s="26"/>
       <c r="AT23" s="1">
@@ -19602,10 +19604,10 @@
         <v>272</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="W24" s="17" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="X24" s="17"/>
       <c r="Y24" s="17"/>
@@ -19616,13 +19618,13 @@
         <v>281</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="AE24" s="17" t="s">
         <v>328</v>
       </c>
       <c r="AF24" s="17" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AG24" s="11" t="s">
         <v>334</v>
@@ -19776,13 +19778,13 @@
       <c r="O25" s="17"/>
       <c r="P25" s="17"/>
       <c r="Q25" s="17" t="s">
+        <v>1166</v>
+      </c>
+      <c r="R25" s="17" t="s">
+        <v>1167</v>
+      </c>
+      <c r="S25" s="17" t="s">
         <v>1168</v>
-      </c>
-      <c r="R25" s="17" t="s">
-        <v>1169</v>
-      </c>
-      <c r="S25" s="17" t="s">
-        <v>1170</v>
       </c>
       <c r="T25" s="17"/>
       <c r="U25" s="17"/>
@@ -19925,10 +19927,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D26" s="86" t="str">
         <f t="shared" si="0"/>
@@ -19947,13 +19949,13 @@
       <c r="O26" s="17"/>
       <c r="P26" s="15"/>
       <c r="Q26" s="17" t="s">
+        <v>1170</v>
+      </c>
+      <c r="R26" s="17" t="s">
+        <v>1171</v>
+      </c>
+      <c r="S26" s="17" t="s">
         <v>1172</v>
-      </c>
-      <c r="R26" s="17" t="s">
-        <v>1173</v>
-      </c>
-      <c r="S26" s="17" t="s">
-        <v>1174</v>
       </c>
       <c r="T26" s="15"/>
       <c r="U26" s="17"/>
@@ -19969,32 +19971,32 @@
       <c r="AE26" s="17"/>
       <c r="AF26" s="15"/>
       <c r="AG26" s="11" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AH26" s="17" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="AI26" s="21">
         <v>8430</v>
       </c>
       <c r="AJ26" s="28" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AK26" s="56" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AL26" s="56"/>
       <c r="AM26" s="23" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AN26" s="30"/>
       <c r="AO26" s="17" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AP26" s="17"/>
       <c r="AQ26" s="17"/>
       <c r="AR26" s="23" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AS26" s="25"/>
       <c r="AT26" s="1">
@@ -20100,10 +20102,10 @@
         <v>354</v>
       </c>
       <c r="B27" s="141" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="C27" s="54" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="D27" s="86" t="str">
         <f t="shared" si="0"/>
@@ -20122,13 +20124,13 @@
       <c r="O27" s="54"/>
       <c r="P27" s="138"/>
       <c r="Q27" s="54" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="R27" s="54" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="S27" s="20" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="T27" s="138"/>
       <c r="U27" s="138"/>
@@ -20144,10 +20146,10 @@
       <c r="AE27" s="54"/>
       <c r="AF27" s="138"/>
       <c r="AG27" s="54" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="AH27" s="54" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="AI27" s="144">
         <v>45730</v>
@@ -20267,10 +20269,10 @@
         <v>356</v>
       </c>
       <c r="B28" s="141" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="D28" s="86" t="str">
         <f t="shared" si="0"/>
@@ -20289,13 +20291,13 @@
       <c r="O28" s="54"/>
       <c r="P28" s="54"/>
       <c r="Q28" s="54" t="s">
+        <v>1180</v>
+      </c>
+      <c r="R28" s="54" t="s">
+        <v>1181</v>
+      </c>
+      <c r="S28" s="20" t="s">
         <v>1182</v>
-      </c>
-      <c r="R28" s="54" t="s">
-        <v>1183</v>
-      </c>
-      <c r="S28" s="20" t="s">
-        <v>1184</v>
       </c>
       <c r="T28" s="54"/>
       <c r="U28" s="54"/>
@@ -20311,10 +20313,10 @@
       <c r="AE28" s="54"/>
       <c r="AF28" s="54"/>
       <c r="AG28" s="54" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="AH28" s="54" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="AI28" s="144">
         <v>8000</v>
@@ -20434,10 +20436,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D29" s="86" t="str">
         <f t="shared" si="0"/>
@@ -20456,13 +20458,13 @@
       <c r="O29" s="17"/>
       <c r="P29" s="17"/>
       <c r="Q29" s="17" t="s">
+        <v>1184</v>
+      </c>
+      <c r="R29" s="17" t="s">
+        <v>1185</v>
+      </c>
+      <c r="S29" s="17" t="s">
         <v>1186</v>
-      </c>
-      <c r="R29" s="17" t="s">
-        <v>1187</v>
-      </c>
-      <c r="S29" s="17" t="s">
-        <v>1188</v>
       </c>
       <c r="T29" s="17"/>
       <c r="U29" s="17"/>
@@ -20478,35 +20480,35 @@
       <c r="AE29" s="17"/>
       <c r="AF29" s="48"/>
       <c r="AG29" s="54" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="AH29" s="17" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AI29" s="21">
         <v>51500</v>
       </c>
       <c r="AJ29" s="46" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AK29" s="23" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AL29" s="23"/>
       <c r="AM29" s="23"/>
       <c r="AN29" s="45" t="s">
+        <v>600</v>
+      </c>
+      <c r="AO29" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="AP29" s="17" t="s">
         <v>602</v>
-      </c>
-      <c r="AO29" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="AP29" s="17" t="s">
-        <v>604</v>
       </c>
       <c r="AQ29" s="17"/>
       <c r="AR29" s="48"/>
       <c r="AS29" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AT29" s="1">
         <f>RANK(BL29,$BL$2:$BL$121)+COUNTIF(BL$2:BL29,BL29)-1</f>
@@ -20640,13 +20642,13 @@
         <v>281</v>
       </c>
       <c r="V30" s="17" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="W30" s="17" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="X30" s="17" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="Y30" s="17"/>
       <c r="Z30" s="17"/>
@@ -20679,13 +20681,13 @@
       </c>
       <c r="AP30" s="17"/>
       <c r="AQ30" s="11" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AR30" s="23" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AS30" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AT30" s="1">
         <f>RANK(BL30,$BL$2:$BL$121)+COUNTIF(BL$2:BL30,BL30)-1</f>
@@ -20793,7 +20795,7 @@
         <v>124</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D31" s="86" t="str">
         <f t="shared" si="0"/>
@@ -20819,10 +20821,10 @@
         <v>272</v>
       </c>
       <c r="V31" s="17" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="W31" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="X31" s="17"/>
       <c r="Y31" s="17"/>
@@ -20834,7 +20836,7 @@
       <c r="AE31" s="17"/>
       <c r="AF31" s="17"/>
       <c r="AG31" s="11" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AH31" s="11" t="s">
         <v>69</v>
@@ -20846,14 +20848,14 @@
         <v>122</v>
       </c>
       <c r="AK31" s="53" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AL31" s="53"/>
       <c r="AM31" s="23" t="s">
+        <v>545</v>
+      </c>
+      <c r="AN31" s="25" t="s">
         <v>547</v>
-      </c>
-      <c r="AN31" s="25" t="s">
-        <v>549</v>
       </c>
       <c r="AO31" s="17"/>
       <c r="AP31" s="17"/>
@@ -20964,7 +20966,7 @@
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D32" s="86" t="str">
         <f t="shared" si="0"/>
@@ -20990,10 +20992,10 @@
         <v>281</v>
       </c>
       <c r="V32" s="17" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="W32" s="17" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="X32" s="15"/>
       <c r="Y32" s="15"/>
@@ -21005,7 +21007,7 @@
       <c r="AE32" s="17"/>
       <c r="AF32" s="15"/>
       <c r="AG32" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AH32" s="17" t="s">
         <v>196</v>
@@ -21014,25 +21016,25 @@
         <v>51100</v>
       </c>
       <c r="AJ32" s="28" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AK32" s="23" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AL32" s="23"/>
       <c r="AM32" s="23" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AN32" s="30"/>
       <c r="AO32" s="15" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AP32" s="24"/>
       <c r="AQ32" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="AR32" s="23" t="s">
         <v>809</v>
-      </c>
-      <c r="AR32" s="23" t="s">
-        <v>811</v>
       </c>
       <c r="AS32" s="26"/>
       <c r="AT32" s="1">
@@ -21169,18 +21171,18 @@
       <c r="X33" s="17"/>
       <c r="Y33" s="17"/>
       <c r="Z33" s="17" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="AA33" s="17" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="AB33" s="17"/>
       <c r="AC33" s="17"/>
       <c r="AD33" s="17" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="AE33" s="17" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="AF33" s="17"/>
       <c r="AG33" s="11" t="s">
@@ -21322,7 +21324,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="77" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="D34" s="86" t="str">
         <f t="shared" ref="D34:D65" si="19">IF(AX34&lt;&gt;0,"2020_A="&amp;AX34," ")&amp;IF(AY34&lt;&gt;0," ; 2020_i="&amp;AY34," ")&amp;IF(AZ34&lt;&gt;0,"2019_A="&amp;AZ34," ")&amp;IF(BA34&lt;&gt;0," ; 2019_i="&amp;BA34," ")&amp;IF(BB34&lt;&gt;0,"2018_A="&amp;BB34," ")&amp;IF(BC34&lt;&gt;0," ; 2018_i="&amp;BC34," ")&amp;IF(BD34&lt;&gt;0," ; 2017_A="&amp;BD34," ")&amp;IF(BE34&lt;&gt;0," ; 2017_i="&amp;BE34," ")&amp;IF(BF34&lt;&gt;0," ; 2016_A="&amp;BF34," ")&amp;IF(BG34&lt;&gt;0," ; 2016_i="&amp;BG34," ")&amp;IF(BH34&lt;&gt;0," ; 2015_A="&amp;BH34," ")&amp;IF(BI34&lt;&gt;0," ; 2015_i="&amp;BI34," ")&amp;IF(BJ34&lt;&gt;0," ; 2014_A="&amp;BJ34," ")&amp;IF(BK34&lt;&gt;0," ; 2014_i="&amp;BK34," ")</f>
@@ -21349,41 +21351,41 @@
       <c r="W34" s="77"/>
       <c r="X34" s="99"/>
       <c r="Y34" s="77" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="Z34" s="77" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="AA34" s="77" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="AB34" s="99"/>
       <c r="AC34" s="77" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AD34" s="77" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="AE34" s="77" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="AF34" s="99"/>
       <c r="AG34" s="120" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="AH34" s="77" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="AI34" s="101">
         <v>10700</v>
       </c>
       <c r="AJ34" s="77" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="AK34" s="99"/>
       <c r="AL34" s="99"/>
       <c r="AM34" s="77" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="AN34" s="105"/>
       <c r="AO34" s="99"/>
@@ -21496,10 +21498,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="115" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C35" s="77" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="D35" s="86" t="str">
         <f t="shared" si="19"/>
@@ -21527,36 +21529,36 @@
       <c r="X35" s="99"/>
       <c r="Y35" s="99"/>
       <c r="Z35" s="77" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="AA35" s="77" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="AB35" s="99"/>
       <c r="AC35" s="77"/>
       <c r="AD35" s="77" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="AE35" s="77" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="AF35" s="99"/>
       <c r="AG35" s="120" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="AH35" s="77" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="AI35" s="101">
         <v>45550</v>
       </c>
       <c r="AJ35" s="77" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="AK35" s="99"/>
       <c r="AL35" s="99"/>
       <c r="AM35" s="77" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="AN35" s="105"/>
       <c r="AO35" s="99"/>
@@ -21669,10 +21671,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D36" s="86" t="str">
         <f t="shared" si="19"/>
@@ -21706,32 +21708,32 @@
         <v>272</v>
       </c>
       <c r="AD36" s="17" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="AE36" s="17" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AF36" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="AG36" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="AH36" s="17" t="s">
         <v>412</v>
-      </c>
-      <c r="AG36" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="AH36" s="17" t="s">
-        <v>414</v>
       </c>
       <c r="AI36" s="21">
         <v>8000</v>
       </c>
       <c r="AJ36" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AK36" s="22" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AL36" s="22"/>
       <c r="AM36" s="23" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AN36" s="30"/>
       <c r="AO36" s="26"/>
@@ -21879,10 +21881,10 @@
         <v>272</v>
       </c>
       <c r="AD37" s="17" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="AE37" s="17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AF37" s="15"/>
       <c r="AG37" s="17" t="s">
@@ -21910,7 +21912,7 @@
       <c r="AQ37" s="26"/>
       <c r="AR37" s="26"/>
       <c r="AS37" s="48" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="AT37" s="1">
         <f>RANK(BL37,$BL$2:$BL$121)+COUNTIF(BL$2:BL37,BL37)-1</f>
@@ -22012,13 +22014,13 @@
     </row>
     <row r="38" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B38" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>882</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>884</v>
       </c>
       <c r="D38" s="86" t="str">
         <f t="shared" si="19"/>
@@ -22052,42 +22054,42 @@
         <v>281</v>
       </c>
       <c r="AD38" s="17" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="AE38" s="17" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AF38" s="15" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AG38" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="AH38" s="17" t="s">
         <v>386</v>
-      </c>
-      <c r="AH38" s="17" t="s">
-        <v>387</v>
       </c>
       <c r="AI38" s="21">
         <v>51096</v>
       </c>
       <c r="AJ38" s="15"/>
       <c r="AK38" s="23" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="AL38" s="23"/>
       <c r="AM38" s="17"/>
       <c r="AN38" s="25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AO38" s="26"/>
       <c r="AP38" s="24"/>
       <c r="AQ38" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="AR38" s="42" t="s">
         <v>389</v>
       </c>
-      <c r="AR38" s="42" t="s">
-        <v>390</v>
-      </c>
       <c r="AS38" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AT38" s="1">
         <f>RANK(BL38,$BL$2:$BL$121)+COUNTIF(BL$2:BL38,BL38)-1</f>
@@ -22235,16 +22237,16 @@
         <v>281</v>
       </c>
       <c r="AD39" s="17" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="AE39" s="17" t="s">
         <v>326</v>
       </c>
       <c r="AF39" s="17" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AG39" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AH39" s="11" t="s">
         <v>190</v>
@@ -22256,29 +22258,29 @@
         <v>117</v>
       </c>
       <c r="AK39" s="23" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AL39" s="23"/>
       <c r="AM39" s="23" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AN39" s="25" t="s">
         <v>118</v>
       </c>
       <c r="AO39" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="AP39" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="AQ39" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="AP39" s="17" t="s">
+      <c r="AR39" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="AQ39" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="AR39" s="11" t="s">
-        <v>482</v>
-      </c>
       <c r="AS39" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AT39" s="1">
         <f>RANK(BL39,$BL$2:$BL$121)+COUNTIF(BL$2:BL39,BL39)-1</f>
@@ -22383,10 +22385,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D40" s="86" t="str">
         <f t="shared" si="19"/>
@@ -22420,16 +22422,16 @@
         <v>272</v>
       </c>
       <c r="AD40" s="17" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="AE40" s="17" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AF40" s="15" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AG40" s="17" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AH40" s="17" t="s">
         <v>219</v>
@@ -22441,11 +22443,11 @@
         <v>44</v>
       </c>
       <c r="AK40" s="22" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AL40" s="22"/>
       <c r="AM40" s="23" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AN40" s="30"/>
       <c r="AO40" s="26"/>
@@ -22453,7 +22455,7 @@
       <c r="AQ40" s="26"/>
       <c r="AR40" s="26"/>
       <c r="AS40" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AT40" s="1">
         <f>RANK(BL40,$BL$2:$BL$121)+COUNTIF(BL$2:BL40,BL40)-1</f>
@@ -22555,11 +22557,11 @@
     </row>
     <row r="41" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D41" s="86" t="str">
         <f t="shared" si="19"/>
@@ -22593,45 +22595,45 @@
         <v>281</v>
       </c>
       <c r="AD41" s="17" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="AE41" s="17" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AF41" s="15" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AG41" s="17" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AH41" s="17" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AI41" s="21">
         <v>51686</v>
       </c>
       <c r="AJ41" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AK41" s="22" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AL41" s="22"/>
       <c r="AM41" s="23" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AN41" s="17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AO41" s="17" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="AP41" s="24"/>
       <c r="AQ41" s="25" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AR41" s="42" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AS41" s="26"/>
       <c r="AT41" s="1">
@@ -22740,7 +22742,7 @@
         <v>282</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D42" s="86" t="str">
         <f t="shared" si="19"/>
@@ -22771,16 +22773,16 @@
       <c r="AA42" s="15"/>
       <c r="AB42" s="15"/>
       <c r="AC42" s="17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AD42" s="17" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="AE42" s="17" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AF42" s="15" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AG42" s="17" t="s">
         <v>314</v>
@@ -22802,7 +22804,7 @@
         <v>310</v>
       </c>
       <c r="AN42" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="AO42" s="17"/>
       <c r="AP42" s="17"/>
@@ -22811,7 +22813,7 @@
       </c>
       <c r="AR42" s="26"/>
       <c r="AS42" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AT42" s="1">
         <f>RANK(BL42,$BL$2:$BL$121)+COUNTIF(BL$2:BL42,BL42)-1</f>
@@ -22916,10 +22918,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D43" s="86" t="str">
         <f t="shared" si="19"/>
@@ -22953,32 +22955,32 @@
         <v>272</v>
       </c>
       <c r="AD43" s="17" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="AE43" s="17" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AF43" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="AG43" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="AG43" s="17" t="s">
-        <v>432</v>
-      </c>
       <c r="AH43" s="17" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AI43" s="21">
         <v>77440</v>
       </c>
       <c r="AJ43" s="28" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AK43" s="22" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AL43" s="22"/>
       <c r="AM43" s="23" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AN43" s="30"/>
       <c r="AO43" s="26"/>
@@ -23092,7 +23094,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="D44" s="86" t="str">
         <f t="shared" si="19"/>
@@ -23123,13 +23125,13 @@
       <c r="AA44" s="17"/>
       <c r="AB44" s="17"/>
       <c r="AC44" s="17" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AD44" s="17" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="AE44" s="17" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="AF44" s="17"/>
       <c r="AG44" s="11" t="s">
@@ -23303,17 +23305,17 @@
       <c r="AB45" s="30"/>
       <c r="AC45" s="17"/>
       <c r="AD45" s="17" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="AE45" s="17" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="AF45" s="30"/>
       <c r="AG45" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="AH45" s="17" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="AI45" s="21">
         <v>45110</v>
@@ -23322,7 +23324,7 @@
         <v>343</v>
       </c>
       <c r="AK45" s="58" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AL45" s="58"/>
       <c r="AM45" s="17"/>
@@ -23438,7 +23440,7 @@
         <v>100</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D46" s="86" t="str">
         <f t="shared" si="19"/>
@@ -24100,7 +24102,7 @@
         <v>114</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D50" s="86" t="str">
         <f t="shared" si="19"/>
@@ -24153,17 +24155,17 @@
       <c r="AM50" s="23"/>
       <c r="AN50" s="25"/>
       <c r="AO50" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AP50" s="17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AQ50" s="25"/>
       <c r="AR50" s="23" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AS50" s="25" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AT50" s="1">
         <f>RANK(BL50,$BL$2:$BL$121)+COUNTIF(BL$2:BL50,BL50)-1</f>
@@ -24324,16 +24326,16 @@
       </c>
       <c r="AN51" s="49"/>
       <c r="AO51" s="17" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="AP51" s="17" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AQ51" s="23" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="AR51" s="42" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AS51" s="26"/>
       <c r="AT51" s="1">
@@ -24437,7 +24439,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>38</v>
@@ -24492,7 +24494,7 @@
       <c r="AL52" s="23"/>
       <c r="AM52" s="23"/>
       <c r="AN52" s="25" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AO52" s="17"/>
       <c r="AP52" s="17"/>
@@ -24829,7 +24831,7 @@
       </c>
       <c r="AR54" s="11"/>
       <c r="AS54" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AT54" s="1">
         <f>RANK(BL54,$BL$2:$BL$121)+COUNTIF(BL$2:BL54,BL54)-1</f>
@@ -25155,19 +25157,19 @@
       <c r="AM56" s="23"/>
       <c r="AN56" s="25"/>
       <c r="AO56" s="17" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AP56" s="17" t="s">
+        <v>1256</v>
+      </c>
+      <c r="AQ56" s="11" t="s">
         <v>1257</v>
       </c>
-      <c r="AP56" s="17" t="s">
+      <c r="AR56" s="50" t="s">
         <v>1258</v>
       </c>
-      <c r="AQ56" s="11" t="s">
+      <c r="AS56" s="11" t="s">
         <v>1259</v>
-      </c>
-      <c r="AR56" s="50" t="s">
-        <v>1260</v>
-      </c>
-      <c r="AS56" s="11" t="s">
-        <v>1261</v>
       </c>
       <c r="AT56" s="1">
         <f>RANK(BL56,$BL$2:$BL$121)+COUNTIF(BL$2:BL56,BL56)-1</f>
@@ -25327,7 +25329,7 @@
         <v>243</v>
       </c>
       <c r="AP57" s="17" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AQ57" s="44" t="s">
         <v>55</v>
@@ -26157,7 +26159,7 @@
         <v>32</v>
       </c>
       <c r="AS62" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AT62" s="1">
         <f>RANK(BL62,$BL$2:$BL$121)+COUNTIF(BL$2:BL62,BL62)-1</f>
@@ -26314,7 +26316,7 @@
       </c>
       <c r="AL63" s="23"/>
       <c r="AM63" s="23" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AN63" s="25" t="s">
         <v>60</v>
@@ -26328,7 +26330,7 @@
         <v>62</v>
       </c>
       <c r="AS63" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AT63" s="1">
         <f>RANK(BL63,$BL$2:$BL$121)+COUNTIF(BL$2:BL63,BL63)-1</f>
@@ -26434,7 +26436,7 @@
         <v>84</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="D64" s="86" t="str">
         <f t="shared" si="19"/>
@@ -26489,7 +26491,7 @@
         <v>92</v>
       </c>
       <c r="AO64" s="17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AP64" s="17" t="s">
         <v>87</v>
@@ -26501,7 +26503,7 @@
         <v>88</v>
       </c>
       <c r="AS64" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AT64" s="1">
         <f>RANK(BL64,$BL$2:$BL$121)+COUNTIF(BL$2:BL64,BL64)-1</f>
@@ -26659,7 +26661,7 @@
       <c r="AL65" s="23"/>
       <c r="AM65" s="23"/>
       <c r="AN65" s="25" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AO65" s="17"/>
       <c r="AP65" s="17"/>
@@ -26823,17 +26825,17 @@
       <c r="AM66" s="23"/>
       <c r="AN66" s="25"/>
       <c r="AO66" s="17" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AP66" s="17" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AQ66" s="44" t="s">
         <v>225</v>
       </c>
       <c r="AR66" s="11"/>
       <c r="AS66" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AT66" s="1">
         <f>RANK(BL66,$BL$2:$BL$121)+COUNTIF(BL$2:BL66,BL66)-1</f>
@@ -26936,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C67" s="17" t="s">
         <v>66</v>
@@ -26986,11 +26988,11 @@
         <v>263</v>
       </c>
       <c r="AK67" s="23" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AL67" s="23"/>
       <c r="AM67" s="23" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AN67" s="25"/>
       <c r="AO67" s="17"/>
@@ -27487,11 +27489,11 @@
       </c>
       <c r="AN70" s="30"/>
       <c r="AO70" s="17" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="AP70" s="24"/>
       <c r="AQ70" s="17" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="AR70" s="26"/>
       <c r="AS70" s="26"/>
@@ -27759,10 +27761,10 @@
         <v>0</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D72" s="86" t="str">
         <f t="shared" si="38"/>
@@ -27797,33 +27799,33 @@
       <c r="AE72" s="17"/>
       <c r="AF72" s="48"/>
       <c r="AG72" s="54" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AH72" s="17" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AI72" s="21">
         <v>77510</v>
       </c>
       <c r="AJ72" s="46" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AK72" s="23" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AL72" s="23"/>
       <c r="AM72" s="23" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AN72" s="45"/>
       <c r="AO72" s="48" t="s">
+        <v>582</v>
+      </c>
+      <c r="AP72" s="17" t="s">
+        <v>583</v>
+      </c>
+      <c r="AQ72" s="17" t="s">
         <v>584</v>
-      </c>
-      <c r="AP72" s="17" t="s">
-        <v>585</v>
-      </c>
-      <c r="AQ72" s="17" t="s">
-        <v>586</v>
       </c>
       <c r="AR72" s="48"/>
       <c r="AS72" s="48"/>
@@ -27990,7 +27992,7 @@
         <v>164</v>
       </c>
       <c r="AQ73" s="44" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AR73" s="11"/>
       <c r="AS73" s="25"/>
@@ -28150,10 +28152,10 @@
       <c r="AL74" s="23"/>
       <c r="AM74" s="23"/>
       <c r="AN74" s="25" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AO74" s="17" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AP74" s="17" t="s">
         <v>105</v>
@@ -28269,7 +28271,7 @@
         <v>17</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D75" s="86" t="str">
         <f t="shared" si="38"/>
@@ -28304,7 +28306,7 @@
       <c r="AE75" s="17"/>
       <c r="AF75" s="15"/>
       <c r="AG75" s="11" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AH75" s="17" t="s">
         <v>196</v>
@@ -28313,21 +28315,21 @@
         <v>51100</v>
       </c>
       <c r="AJ75" s="28" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AK75" s="22" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AL75" s="22"/>
       <c r="AM75" s="23" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AN75" s="30"/>
       <c r="AO75" s="17" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AP75" s="17" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AQ75" s="26"/>
       <c r="AR75" s="26"/>
@@ -28436,7 +28438,7 @@
         <v>17</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D76" s="86" t="str">
         <f t="shared" si="38"/>
@@ -28471,37 +28473,37 @@
       <c r="AE76" s="17"/>
       <c r="AF76" s="15"/>
       <c r="AG76" s="11" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AH76" s="17" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AI76" s="21">
         <v>51200</v>
       </c>
       <c r="AJ76" s="28" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AK76" s="56" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AL76" s="56"/>
       <c r="AM76" s="23" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AN76" s="30"/>
       <c r="AO76" s="17" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AP76" s="48"/>
       <c r="AQ76" s="25" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AR76" s="23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AS76" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AT76" s="1">
         <f>RANK(BL76,$BL$2:$BL$121)+COUNTIF(BL$2:BL76,BL76)-1</f>
@@ -28607,7 +28609,7 @@
         <v>17</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D77" s="86" t="str">
         <f t="shared" si="38"/>
@@ -28642,7 +28644,7 @@
       <c r="AE77" s="17"/>
       <c r="AF77" s="15"/>
       <c r="AG77" s="11" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AH77" s="17" t="s">
         <v>329</v>
@@ -28651,25 +28653,25 @@
         <v>10110</v>
       </c>
       <c r="AJ77" s="28" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AK77" s="56" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AL77" s="56"/>
       <c r="AM77" s="23" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AN77" s="30"/>
       <c r="AO77" s="17" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AP77" s="48"/>
       <c r="AQ77" s="25" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AR77" s="23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AS77" s="25"/>
       <c r="AT77" s="1">
@@ -28776,7 +28778,7 @@
         <v>17</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D78" s="86" t="str">
         <f t="shared" si="38"/>
@@ -28811,36 +28813,36 @@
       <c r="AE78" s="17"/>
       <c r="AF78" s="15"/>
       <c r="AG78" s="11" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AH78" s="17" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AI78" s="21">
         <v>51530</v>
       </c>
       <c r="AJ78" s="28" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="AK78" s="56" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="AL78" s="56"/>
       <c r="AM78" s="23" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AN78" s="30"/>
       <c r="AO78" s="17" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="AP78" s="17" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AQ78" s="25" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="AR78" s="23" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AS78" s="25"/>
       <c r="AT78" s="1">
@@ -28944,10 +28946,10 @@
         <v>356</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D79" s="86" t="str">
         <f t="shared" si="38"/>
@@ -28982,30 +28984,30 @@
       <c r="AE79" s="17"/>
       <c r="AF79" s="15"/>
       <c r="AG79" s="11" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AH79" s="17" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AI79" s="21">
         <v>10800</v>
       </c>
       <c r="AJ79" s="28" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AK79" s="56" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AL79" s="56"/>
       <c r="AM79" s="23" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AN79" s="30"/>
       <c r="AO79" s="17"/>
       <c r="AP79" s="17"/>
       <c r="AQ79" s="25"/>
       <c r="AR79" s="23" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AS79" s="25"/>
       <c r="AT79" s="1">
@@ -29109,10 +29111,10 @@
         <v>356</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D80" s="86" t="str">
         <f t="shared" si="38"/>
@@ -29147,31 +29149,31 @@
       <c r="AE80" s="17"/>
       <c r="AF80" s="15"/>
       <c r="AG80" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AH80" s="17" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="AI80" s="21">
         <v>94200</v>
       </c>
       <c r="AJ80" s="28"/>
       <c r="AK80" s="56" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AL80" s="56"/>
       <c r="AM80" s="23" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AN80" s="30"/>
       <c r="AO80" s="17" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AP80" s="17" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="AQ80" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="AR80" s="23"/>
       <c r="AS80" s="25"/>
@@ -29276,10 +29278,10 @@
         <v>356</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D81" s="86" t="str">
         <f t="shared" si="38"/>
@@ -29314,23 +29316,23 @@
       <c r="AE81" s="17"/>
       <c r="AF81" s="15"/>
       <c r="AG81" s="11" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="AH81" s="17" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AI81" s="21">
         <v>2220</v>
       </c>
       <c r="AJ81" s="28" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="AK81" s="56" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="AL81" s="56"/>
       <c r="AM81" s="23" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="AN81" s="30"/>
       <c r="AO81" s="17"/>
@@ -29338,7 +29340,7 @@
       <c r="AQ81" s="11"/>
       <c r="AR81" s="23"/>
       <c r="AS81" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AT81" s="1">
         <f>RANK(BL81,$BL$2:$BL$121)+COUNTIF(BL$2:BL81,BL81)-1</f>
@@ -29444,7 +29446,7 @@
         <v>4</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D82" s="86" t="str">
         <f t="shared" si="38"/>
@@ -29479,38 +29481,38 @@
       <c r="AE82" s="17"/>
       <c r="AF82" s="15"/>
       <c r="AG82" s="11" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AH82" s="17" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="AI82" s="21">
         <v>51320</v>
       </c>
       <c r="AJ82" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="AK82" s="56" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AL82" s="56"/>
       <c r="AM82" s="23" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AN82" s="17" t="s">
+        <v>1260</v>
+      </c>
+      <c r="AO82" s="17" t="s">
+        <v>1261</v>
+      </c>
+      <c r="AP82" s="17" t="s">
         <v>1262</v>
       </c>
-      <c r="AO82" s="17" t="s">
+      <c r="AQ82" s="17" t="s">
         <v>1263</v>
       </c>
-      <c r="AP82" s="17" t="s">
+      <c r="AR82" s="23" t="s">
         <v>1264</v>
-      </c>
-      <c r="AQ82" s="17" t="s">
-        <v>1265</v>
-      </c>
-      <c r="AR82" s="23" t="s">
-        <v>1266</v>
       </c>
       <c r="AS82" s="25"/>
       <c r="AT82" s="1">
@@ -29614,10 +29616,10 @@
         <v>0</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D83" s="86" t="str">
         <f t="shared" si="38"/>
@@ -29652,36 +29654,36 @@
       <c r="AE83" s="17"/>
       <c r="AF83" s="15"/>
       <c r="AG83" s="11" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AH83" s="17" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="AI83" s="21">
         <v>2450</v>
       </c>
       <c r="AJ83" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AK83" s="56" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AL83" s="56"/>
       <c r="AM83" s="23" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AN83" s="30"/>
       <c r="AO83" s="17" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="AP83" s="17" t="s">
+        <v>684</v>
+      </c>
+      <c r="AQ83" s="17" t="s">
         <v>686</v>
       </c>
-      <c r="AQ83" s="17" t="s">
-        <v>688</v>
-      </c>
       <c r="AR83" s="23" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AS83" s="25"/>
       <c r="AT83" s="1">
@@ -29785,10 +29787,10 @@
         <v>0</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D84" s="86" t="str">
         <f t="shared" si="38"/>
@@ -29823,23 +29825,23 @@
       <c r="AE84" s="17"/>
       <c r="AF84" s="15"/>
       <c r="AG84" s="11" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AH84" s="17" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AI84" s="21">
         <v>25300</v>
       </c>
       <c r="AJ84" s="28" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="AK84" s="56" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AL84" s="56"/>
       <c r="AM84" s="23" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AN84" s="30"/>
       <c r="AO84" s="17"/>
@@ -29948,10 +29950,10 @@
         <v>0</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D85" s="86" t="str">
         <f t="shared" si="38"/>
@@ -29986,23 +29988,23 @@
       <c r="AE85" s="17"/>
       <c r="AF85" s="15"/>
       <c r="AG85" s="17" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="AH85" s="17" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="AI85" s="21">
         <v>10230</v>
       </c>
       <c r="AJ85" s="28" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="AK85" s="56" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="AL85" s="56"/>
       <c r="AM85" s="23" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="AN85" s="30"/>
       <c r="AO85" s="26"/>
@@ -30116,7 +30118,7 @@
         <v>15</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D86" s="86" t="str">
         <f t="shared" si="38"/>
@@ -30151,23 +30153,23 @@
       <c r="AE86" s="17"/>
       <c r="AF86" s="15"/>
       <c r="AG86" s="17" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="AH86" s="17" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="AI86" s="21">
         <v>51130</v>
       </c>
       <c r="AJ86" s="28" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="AK86" s="22" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AL86" s="22"/>
       <c r="AM86" s="23" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="AN86" s="26"/>
       <c r="AO86" s="17" t="s">
@@ -30318,23 +30320,23 @@
       <c r="AE87" s="17"/>
       <c r="AF87" s="15"/>
       <c r="AG87" s="17" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="AH87" s="17" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="AI87" s="21">
         <v>6823</v>
       </c>
       <c r="AJ87" s="28" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="AK87" s="22" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AL87" s="22"/>
       <c r="AM87" s="23" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="AN87" s="26"/>
       <c r="AO87" s="17" t="s">
@@ -30447,10 +30449,10 @@
         <v>0</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D88" s="86" t="str">
         <f t="shared" si="38"/>
@@ -30485,7 +30487,7 @@
       <c r="AE88" s="17"/>
       <c r="AF88" s="15"/>
       <c r="AG88" s="17" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="AH88" s="17" t="s">
         <v>196</v>
@@ -30497,7 +30499,7 @@
         <v>353</v>
       </c>
       <c r="AK88" s="22" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AL88" s="22"/>
       <c r="AM88" s="17"/>
@@ -30513,7 +30515,7 @@
         <v>352</v>
       </c>
       <c r="AS88" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AT88" s="1">
         <f>RANK(BL88,$BL$2:$BL$121)+COUNTIF(BL$2:BL88,BL88)-1</f>
@@ -30654,7 +30656,7 @@
       <c r="AE89" s="17"/>
       <c r="AF89" s="15"/>
       <c r="AG89" s="17" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AH89" s="17" t="s">
         <v>196</v>
@@ -30663,14 +30665,14 @@
         <v>51100</v>
       </c>
       <c r="AJ89" s="28" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AK89" s="22" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="AL89" s="22"/>
       <c r="AM89" s="23" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="AN89" s="30" t="s">
         <v>358</v>
@@ -30781,10 +30783,10 @@
         <v>356</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D90" s="86" t="str">
         <f t="shared" si="38"/>
@@ -30819,7 +30821,7 @@
       <c r="AE90" s="17"/>
       <c r="AF90" s="15"/>
       <c r="AG90" s="17" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="AH90" s="17" t="s">
         <v>284</v>
@@ -30828,14 +30830,14 @@
         <v>2000</v>
       </c>
       <c r="AJ90" s="28" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="AK90" s="22" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="AL90" s="22"/>
       <c r="AM90" s="23" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="AN90" s="30"/>
       <c r="AO90" s="26"/>
@@ -30944,10 +30946,10 @@
         <v>356</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D91" s="86" t="str">
         <f t="shared" si="38"/>
@@ -30982,21 +30984,21 @@
       <c r="AE91" s="17"/>
       <c r="AF91" s="15"/>
       <c r="AG91" s="17" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="AH91" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="AI91" s="21">
         <v>51370</v>
       </c>
       <c r="AJ91" s="15"/>
       <c r="AK91" s="22" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="AL91" s="22"/>
       <c r="AM91" s="23" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="AN91" s="30"/>
       <c r="AO91" s="17" t="s">
@@ -31010,7 +31012,7 @@
         <v>361</v>
       </c>
       <c r="AS91" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AT91" s="1">
         <f>RANK(BL91,$BL$2:$BL$121)+COUNTIF(BL$2:BL91,BL91)-1</f>
@@ -31116,7 +31118,7 @@
         <v>363</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D92" s="86" t="str">
         <f t="shared" si="38"/>
@@ -31151,7 +31153,7 @@
       <c r="AE92" s="17"/>
       <c r="AF92" s="15"/>
       <c r="AG92" s="17" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="AH92" s="17" t="s">
         <v>219</v>
@@ -31161,18 +31163,18 @@
       </c>
       <c r="AJ92" s="15"/>
       <c r="AK92" s="22" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="AL92" s="22"/>
       <c r="AM92" s="23" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="AN92" s="30"/>
       <c r="AO92" s="17" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="AP92" s="17" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="AQ92" s="30" t="s">
         <v>364</v>
@@ -31283,7 +31285,7 @@
         <v>363</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D93" s="86" t="str">
         <f t="shared" si="38"/>
@@ -31321,23 +31323,23 @@
         <v>366</v>
       </c>
       <c r="AH93" s="17" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="AI93" s="17">
         <v>51120</v>
       </c>
       <c r="AJ93" s="15"/>
       <c r="AK93" s="22" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="AL93" s="22"/>
       <c r="AM93" s="17"/>
       <c r="AN93" s="30"/>
       <c r="AO93" s="48" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="AP93" s="17" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="AQ93" s="30" t="s">
         <v>365</v>
@@ -31346,7 +31348,7 @@
         <v>367</v>
       </c>
       <c r="AS93" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AT93" s="1">
         <f>RANK(BL93,$BL$2:$BL$121)+COUNTIF(BL$2:BL93,BL93)-1</f>
@@ -31449,10 +31451,10 @@
         <v>356</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D94" s="86" t="str">
         <f t="shared" si="38"/>
@@ -31487,23 +31489,23 @@
       <c r="AE94" s="17"/>
       <c r="AF94" s="15"/>
       <c r="AG94" s="17" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="AH94" s="17" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="AI94" s="21">
         <v>51000</v>
       </c>
       <c r="AJ94" s="28" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="AK94" s="22" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="AL94" s="22"/>
       <c r="AM94" s="23" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="AN94" s="15"/>
       <c r="AO94" s="26"/>
@@ -31612,10 +31614,10 @@
         <v>356</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D95" s="86" t="str">
         <f t="shared" si="38"/>
@@ -31650,34 +31652,34 @@
       <c r="AE95" s="17"/>
       <c r="AF95" s="15"/>
       <c r="AG95" s="17" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="AH95" s="17" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="AI95" s="21">
         <v>60550</v>
       </c>
       <c r="AJ95" s="28" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="AK95" s="22" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="AL95" s="22"/>
       <c r="AM95" s="23" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="AN95" s="15"/>
       <c r="AO95" s="17" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="AP95" s="24"/>
       <c r="AQ95" s="48" t="s">
+        <v>794</v>
+      </c>
+      <c r="AR95" s="60" t="s">
         <v>796</v>
-      </c>
-      <c r="AR95" s="60" t="s">
-        <v>798</v>
       </c>
       <c r="AS95" s="26"/>
       <c r="AT95" s="1">
@@ -31778,13 +31780,13 @@
     </row>
     <row r="96" spans="1:80" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
-        <v>395</v>
+        <v>1274</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D96" s="86" t="str">
         <f t="shared" si="38"/>
@@ -31819,34 +31821,34 @@
       <c r="AE96" s="17"/>
       <c r="AF96" s="15"/>
       <c r="AG96" s="17" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="AH96" s="17" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="AI96" s="21">
         <v>94700</v>
       </c>
       <c r="AJ96" s="28" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AK96" s="22" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AL96" s="22"/>
       <c r="AM96" s="23" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="AN96" s="30"/>
       <c r="AO96" s="17" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="AP96" s="24"/>
       <c r="AQ96" s="17" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="AR96" s="60" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="AS96" s="26"/>
       <c r="AT96" s="1">
@@ -31947,13 +31949,13 @@
     </row>
     <row r="97" spans="1:80" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D97" s="86" t="str">
         <f t="shared" si="38"/>
@@ -31988,25 +31990,25 @@
       <c r="AE97" s="17"/>
       <c r="AF97" s="15"/>
       <c r="AG97" s="17" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="AH97" s="17" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="AI97" s="21">
         <v>10400</v>
       </c>
       <c r="AJ97" s="15"/>
       <c r="AK97" s="22" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="AL97" s="22"/>
       <c r="AM97" s="23" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AN97" s="26"/>
       <c r="AO97" s="17" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AP97" s="24"/>
       <c r="AQ97" s="30" t="s">
@@ -32112,13 +32114,13 @@
     </row>
     <row r="98" spans="1:80" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D98" s="86" t="str">
         <f t="shared" ref="D98:D127" si="57">IF(AX98&lt;&gt;0,"2020_A="&amp;AX98," ")&amp;IF(AY98&lt;&gt;0," ; 2020_i="&amp;AY98," ")&amp;IF(AZ98&lt;&gt;0,"2019_A="&amp;AZ98," ")&amp;IF(BA98&lt;&gt;0," ; 2019_i="&amp;BA98," ")&amp;IF(BB98&lt;&gt;0,"2018_A="&amp;BB98," ")&amp;IF(BC98&lt;&gt;0," ; 2018_i="&amp;BC98," ")&amp;IF(BD98&lt;&gt;0," ; 2017_A="&amp;BD98," ")&amp;IF(BE98&lt;&gt;0," ; 2017_i="&amp;BE98," ")&amp;IF(BF98&lt;&gt;0," ; 2016_A="&amp;BF98," ")&amp;IF(BG98&lt;&gt;0," ; 2016_i="&amp;BG98," ")&amp;IF(BH98&lt;&gt;0," ; 2015_A="&amp;BH98," ")&amp;IF(BI98&lt;&gt;0," ; 2015_i="&amp;BI98," ")&amp;IF(BJ98&lt;&gt;0," ; 2014_A="&amp;BJ98," ")&amp;IF(BK98&lt;&gt;0," ; 2014_i="&amp;BK98," ")</f>
@@ -32153,7 +32155,7 @@
       <c r="AE98" s="17"/>
       <c r="AF98" s="15"/>
       <c r="AG98" s="17" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="AH98" s="17" t="s">
         <v>276</v>
@@ -32162,30 +32164,30 @@
         <v>51110</v>
       </c>
       <c r="AJ98" s="28" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="AK98" s="22" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="AL98" s="22"/>
       <c r="AM98" s="23" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="AN98" s="26"/>
       <c r="AO98" s="17" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AP98" s="17" t="s">
+        <v>829</v>
+      </c>
+      <c r="AQ98" s="30" t="s">
+        <v>830</v>
+      </c>
+      <c r="AR98" s="23" t="s">
         <v>831</v>
       </c>
-      <c r="AQ98" s="30" t="s">
-        <v>832</v>
-      </c>
-      <c r="AR98" s="23" t="s">
-        <v>833</v>
-      </c>
       <c r="AS98" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AT98" s="1">
         <f>RANK(BL98,$BL$2:$BL$121)+COUNTIF(BL$2:BL98,BL98)-1</f>
@@ -32288,10 +32290,10 @@
         <v>273</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D99" s="86" t="str">
         <f t="shared" si="57"/>
@@ -32326,7 +32328,7 @@
       <c r="AE99" s="17"/>
       <c r="AF99" s="15"/>
       <c r="AG99" s="17" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AH99" s="17" t="s">
         <v>204</v>
@@ -32335,26 +32337,26 @@
         <v>51300</v>
       </c>
       <c r="AJ99" s="28" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AK99" s="22" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="AL99" s="22"/>
       <c r="AM99" s="23" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="AN99" s="26"/>
       <c r="AO99" s="17" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="AP99" s="17"/>
       <c r="AQ99" s="30" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="AR99" s="23"/>
       <c r="AS99" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AT99" s="1">
         <f>RANK(BL99,$BL$2:$BL$121)+COUNTIF(BL$2:BL99,BL99)-1</f>
@@ -32457,10 +32459,10 @@
         <v>273</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D100" s="86" t="str">
         <f t="shared" si="57"/>
@@ -32495,27 +32497,27 @@
       <c r="AE100" s="17"/>
       <c r="AF100" s="15"/>
       <c r="AG100" s="17" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="AH100" s="17" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="AI100" s="21">
         <v>77200</v>
       </c>
       <c r="AJ100" s="28" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="AK100" s="22" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="AL100" s="22"/>
       <c r="AM100" s="23" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="AN100" s="15"/>
       <c r="AO100" s="48" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AP100" s="24"/>
       <c r="AQ100" s="26"/>
@@ -32619,13 +32621,13 @@
     </row>
     <row r="101" spans="1:80" s="13" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
-        <v>371</v>
+        <v>273</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D101" s="86" t="str">
         <f t="shared" si="57"/>
@@ -32660,37 +32662,37 @@
       <c r="AE101" s="17"/>
       <c r="AF101" s="15"/>
       <c r="AG101" s="17" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="AH101" s="17" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AI101" s="21">
         <v>51689</v>
       </c>
       <c r="AJ101" s="28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AK101" s="22" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="AL101" s="22"/>
       <c r="AM101" s="23" t="s">
+        <v>850</v>
+      </c>
+      <c r="AN101" s="17" t="s">
+        <v>851</v>
+      </c>
+      <c r="AO101" s="17" t="s">
         <v>852</v>
-      </c>
-      <c r="AN101" s="17" t="s">
-        <v>853</v>
-      </c>
-      <c r="AO101" s="17" t="s">
-        <v>854</v>
       </c>
       <c r="AP101" s="24"/>
       <c r="AQ101" s="26"/>
       <c r="AR101" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AS101" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AT101" s="1">
         <f>RANK(BL101,$BL$2:$BL$121)+COUNTIF(BL$2:BL101,BL101)-1</f>
@@ -32790,13 +32792,13 @@
     </row>
     <row r="102" spans="1:80" s="27" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
-        <v>371</v>
+        <v>273</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D102" s="86" t="str">
         <f t="shared" si="57"/>
@@ -32831,34 +32833,34 @@
       <c r="AE102" s="17"/>
       <c r="AF102" s="15"/>
       <c r="AG102" s="17" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AH102" s="17" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AI102" s="21">
         <v>60310</v>
       </c>
       <c r="AJ102" s="28" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AK102" s="22" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="AL102" s="22"/>
       <c r="AM102" s="23" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="AN102" s="17"/>
       <c r="AO102" s="17" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="AP102" s="24"/>
       <c r="AQ102" s="48" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="AR102" s="23" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="AS102" s="25"/>
       <c r="AT102" s="1">
@@ -32959,13 +32961,13 @@
     </row>
     <row r="103" spans="1:80" s="26" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
-        <v>371</v>
+        <v>273</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D103" s="86" t="str">
         <f t="shared" si="57"/>
@@ -32992,30 +32994,30 @@
       <c r="AE103" s="17"/>
       <c r="AF103" s="15"/>
       <c r="AG103" s="17" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="AH103" s="17" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="AI103" s="21">
         <v>60610</v>
       </c>
       <c r="AJ103" s="28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AK103" s="22" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="AL103" s="22"/>
       <c r="AM103" s="23" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="AP103" s="24"/>
       <c r="AQ103" s="30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AR103" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AT103" s="1">
         <f>RANK(BL103,$BL$2:$BL$121)+COUNTIF(BL$2:BL103,BL103)-1</f>
@@ -33115,13 +33117,13 @@
     </row>
     <row r="104" spans="1:80" s="13" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
-        <v>371</v>
+        <v>273</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D104" s="86" t="str">
         <f t="shared" si="57"/>
@@ -33159,18 +33161,18 @@
         <v>13</v>
       </c>
       <c r="AH104" s="17" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="AI104" s="21">
         <v>45800</v>
       </c>
       <c r="AJ104" s="28"/>
       <c r="AK104" s="22" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="AL104" s="22"/>
       <c r="AM104" s="23" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="AN104" s="26"/>
       <c r="AO104" s="26"/>
@@ -33276,13 +33278,13 @@
     </row>
     <row r="105" spans="1:80" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D105" s="86" t="str">
         <f t="shared" si="57"/>
@@ -33309,7 +33311,7 @@
       <c r="AE105" s="17"/>
       <c r="AF105" s="15"/>
       <c r="AG105" s="17" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="AH105" s="17" t="s">
         <v>196</v>
@@ -33319,26 +33321,26 @@
       </c>
       <c r="AJ105" s="15"/>
       <c r="AK105" s="22" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="AL105" s="22"/>
       <c r="AM105" s="23" t="s">
+        <v>877</v>
+      </c>
+      <c r="AN105" s="17" t="s">
+        <v>881</v>
+      </c>
+      <c r="AO105" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="AP105" s="17" t="s">
         <v>879</v>
       </c>
-      <c r="AN105" s="17" t="s">
-        <v>883</v>
-      </c>
-      <c r="AO105" s="17" t="s">
-        <v>880</v>
-      </c>
-      <c r="AP105" s="17" t="s">
-        <v>881</v>
-      </c>
       <c r="AQ105" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="AR105" s="60" t="s">
         <v>383</v>
-      </c>
-      <c r="AR105" s="60" t="s">
-        <v>384</v>
       </c>
       <c r="AT105" s="1">
         <f>RANK(BL105,$BL$2:$BL$121)+COUNTIF(BL$2:BL105,BL105)-1</f>
@@ -33438,13 +33440,13 @@
     </row>
     <row r="106" spans="1:80" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D106" s="86" t="str">
         <f t="shared" si="57"/>
@@ -33479,7 +33481,7 @@
       <c r="AE106" s="17"/>
       <c r="AF106" s="15"/>
       <c r="AG106" s="17" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="AH106" s="17" t="s">
         <v>196</v>
@@ -33488,20 +33490,20 @@
         <v>51100</v>
       </c>
       <c r="AJ106" s="28" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="AK106" s="22" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="AL106" s="22"/>
       <c r="AM106" s="23" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="AN106" s="17"/>
       <c r="AO106" s="17"/>
       <c r="AP106" s="17"/>
       <c r="AQ106" s="17" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="AR106" s="60"/>
       <c r="AS106" s="26"/>
@@ -33603,13 +33605,13 @@
     </row>
     <row r="107" spans="1:80" s="7" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="A107" s="19" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D107" s="86" t="str">
         <f t="shared" si="57"/>
@@ -33644,7 +33646,7 @@
       <c r="AE107" s="17"/>
       <c r="AF107" s="17"/>
       <c r="AG107" s="17" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="AH107" s="17" t="s">
         <v>196</v>
@@ -33654,25 +33656,25 @@
       </c>
       <c r="AJ107" s="15"/>
       <c r="AK107" s="22" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="AL107" s="22"/>
       <c r="AM107" s="23" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="AN107" s="15"/>
       <c r="AO107" s="17" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="AP107" s="24"/>
       <c r="AQ107" s="17" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AR107" s="23" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="AS107" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AT107" s="1">
         <f>RANK(BL107,$BL$2:$BL$121)+COUNTIF(BL$2:BL107,BL107)-1</f>
@@ -33772,13 +33774,13 @@
     </row>
     <row r="108" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A108" s="19" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D108" s="86" t="str">
         <f t="shared" si="57"/>
@@ -33813,33 +33815,33 @@
       <c r="AE108" s="17"/>
       <c r="AF108" s="17"/>
       <c r="AG108" s="17" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="AH108" s="17" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="AI108" s="21">
         <v>68490</v>
       </c>
       <c r="AJ108" s="28" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="AK108" s="22" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="AL108" s="22"/>
       <c r="AM108" s="23" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="AN108" s="15"/>
       <c r="AO108" s="17" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="AP108" s="17" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="AQ108" s="29" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="AR108" s="23"/>
       <c r="AS108" s="25"/>
@@ -33941,13 +33943,13 @@
     </row>
     <row r="109" spans="1:80" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D109" s="86" t="str">
         <f t="shared" si="57"/>
@@ -33982,29 +33984,29 @@
       <c r="AE109" s="17"/>
       <c r="AF109" s="15"/>
       <c r="AG109" s="17" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="AH109" s="17" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="AI109" s="21">
         <v>51140</v>
       </c>
       <c r="AJ109" s="28" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="AK109" s="22" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="AL109" s="22"/>
       <c r="AM109" s="23" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="AN109" s="30"/>
       <c r="AO109" s="26"/>
       <c r="AP109" s="24"/>
       <c r="AQ109" s="29" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="AR109" s="26"/>
       <c r="AS109" s="26"/>
@@ -34106,13 +34108,13 @@
     </row>
     <row r="110" spans="1:80" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D110" s="86" t="str">
         <f t="shared" si="57"/>
@@ -34147,23 +34149,23 @@
       <c r="AE110" s="17"/>
       <c r="AF110" s="15"/>
       <c r="AG110" s="17" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="AH110" s="17" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="AI110" s="21">
         <v>51140</v>
       </c>
       <c r="AJ110" s="28" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="AK110" s="22" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="AL110" s="22"/>
       <c r="AM110" s="23" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="AN110" s="30"/>
       <c r="AO110" s="26"/>
@@ -34310,23 +34312,23 @@
       <c r="AE111" s="12"/>
       <c r="AF111" s="19"/>
       <c r="AG111" s="12" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="AH111" s="12" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="AI111" s="31">
         <v>8000</v>
       </c>
       <c r="AJ111" s="28" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="AK111" s="22" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="AL111" s="22"/>
       <c r="AM111" s="23" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="AN111" s="32"/>
       <c r="AO111" s="33"/>
@@ -34432,13 +34434,13 @@
     </row>
     <row r="112" spans="1:80" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>939</v>
+      </c>
+      <c r="C112" s="17" t="s">
         <v>371</v>
-      </c>
-      <c r="B112" s="12" t="s">
-        <v>941</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>372</v>
       </c>
       <c r="D112" s="86" t="str">
         <f t="shared" si="57"/>
@@ -34473,30 +34475,30 @@
       <c r="AE112" s="17"/>
       <c r="AF112" s="15"/>
       <c r="AG112" s="17" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="AH112" s="17" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="AI112" s="21">
         <v>60200</v>
       </c>
       <c r="AJ112" s="28" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="AK112" s="22" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="AL112" s="22"/>
       <c r="AM112" s="23" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="AN112" s="26"/>
       <c r="AO112" s="26"/>
       <c r="AP112" s="24"/>
       <c r="AQ112" s="26"/>
       <c r="AR112" s="23" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AS112" s="26"/>
       <c r="AT112" s="1">
@@ -34597,13 +34599,13 @@
     </row>
     <row r="113" spans="1:80" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
-        <v>371</v>
+        <v>273</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D113" s="86" t="str">
         <f t="shared" si="57"/>
@@ -34638,23 +34640,23 @@
       <c r="AE113" s="17"/>
       <c r="AF113" s="15"/>
       <c r="AG113" s="17" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="AH113" s="17" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="AI113" s="21">
         <v>60000</v>
       </c>
       <c r="AJ113" s="28" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="AK113" s="22" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="AL113" s="22"/>
       <c r="AM113" s="23" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="AN113" s="15"/>
       <c r="AO113" s="26"/>
@@ -34760,13 +34762,13 @@
     </row>
     <row r="114" spans="1:80" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
-        <v>371</v>
+        <v>273</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D114" s="86" t="str">
         <f t="shared" si="57"/>
@@ -34801,28 +34803,28 @@
       <c r="AE114" s="17"/>
       <c r="AF114" s="15"/>
       <c r="AG114" s="17" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AH114" s="17" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="AI114" s="21">
         <v>60000</v>
       </c>
       <c r="AJ114" s="28"/>
       <c r="AK114" s="22" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="AL114" s="22"/>
       <c r="AM114" s="23" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="AN114" s="15"/>
       <c r="AO114" s="26"/>
       <c r="AP114" s="24"/>
       <c r="AQ114" s="26"/>
       <c r="AR114" s="42" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="AS114" s="26"/>
       <c r="AT114" s="1">
@@ -34923,13 +34925,13 @@
     </row>
     <row r="115" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="s">
-        <v>371</v>
+        <v>273</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D115" s="86" t="str">
         <f t="shared" si="57"/>
@@ -34964,23 +34966,23 @@
       <c r="AE115" s="17"/>
       <c r="AF115" s="15"/>
       <c r="AG115" s="17" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="AH115" s="17" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="AI115" s="21">
         <v>8090</v>
       </c>
       <c r="AJ115" s="28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AK115" s="22" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="AL115" s="22"/>
       <c r="AM115" s="23" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="AN115" s="15"/>
       <c r="AO115" s="26"/>
@@ -35086,13 +35088,13 @@
     </row>
     <row r="116" spans="1:80" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D116" s="86" t="str">
         <f t="shared" si="57"/>
@@ -35127,23 +35129,23 @@
       <c r="AE116" s="17"/>
       <c r="AF116" s="15"/>
       <c r="AG116" s="17" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="AH116" s="17" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="AI116" s="21">
         <v>21000</v>
       </c>
       <c r="AJ116" s="28" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="AK116" s="22" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="AL116" s="22"/>
       <c r="AM116" s="23" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="AN116" s="32"/>
       <c r="AO116" s="26"/>
@@ -35249,13 +35251,13 @@
     </row>
     <row r="117" spans="1:80" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D117" s="86" t="str">
         <f t="shared" si="57"/>
@@ -35290,27 +35292,27 @@
       <c r="AE117" s="17"/>
       <c r="AF117" s="15"/>
       <c r="AG117" s="17" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="AH117" s="17" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="AI117" s="21">
         <v>60200</v>
       </c>
       <c r="AJ117" s="28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AK117" s="22" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="AL117" s="22"/>
       <c r="AM117" s="23" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="AN117" s="15"/>
       <c r="AO117" s="61" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="AP117" s="24"/>
       <c r="AQ117" s="26"/>
@@ -35414,13 +35416,13 @@
     </row>
     <row r="118" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D118" s="86" t="str">
         <f t="shared" si="57"/>
@@ -35455,23 +35457,23 @@
       <c r="AE118" s="17"/>
       <c r="AF118" s="15"/>
       <c r="AG118" s="17" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="AH118" s="17" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="AI118" s="21">
         <v>60200</v>
       </c>
       <c r="AJ118" s="28" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="AK118" s="22" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="AL118" s="22"/>
       <c r="AM118" s="23" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="AN118" s="15"/>
       <c r="AO118" s="61"/>
@@ -35577,13 +35579,13 @@
     </row>
     <row r="119" spans="1:80" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D119" s="86" t="str">
         <f t="shared" si="57"/>
@@ -35618,23 +35620,23 @@
       <c r="AE119" s="17"/>
       <c r="AF119" s="15"/>
       <c r="AG119" s="17" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="AH119" s="17" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="AI119" s="21">
         <v>60000</v>
       </c>
       <c r="AJ119" s="28" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="AK119" s="22" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="AL119" s="22"/>
       <c r="AM119" s="23" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="AN119" s="15"/>
       <c r="AO119" s="26"/>
@@ -35740,13 +35742,13 @@
     </row>
     <row r="120" spans="1:80" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D120" s="86" t="str">
         <f t="shared" si="57"/>
@@ -35781,7 +35783,7 @@
       <c r="AE120" s="17"/>
       <c r="AF120" s="15"/>
       <c r="AG120" s="17" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="AH120" s="17" t="s">
         <v>313</v>
@@ -35790,14 +35792,14 @@
         <v>67000</v>
       </c>
       <c r="AJ120" s="28" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="AK120" s="22" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="AL120" s="22"/>
       <c r="AM120" s="23" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="AN120" s="15"/>
       <c r="AO120" s="26"/>
@@ -35903,13 +35905,13 @@
     </row>
     <row r="121" spans="1:80" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D121" s="86" t="str">
         <f t="shared" si="57"/>
@@ -35944,23 +35946,23 @@
       <c r="AE121" s="17"/>
       <c r="AF121" s="15"/>
       <c r="AG121" s="17" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="AH121" s="17" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="AI121" s="21">
         <v>21121</v>
       </c>
       <c r="AJ121" s="28" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="AK121" s="22" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="AL121" s="22"/>
       <c r="AM121" s="23" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="AN121" s="15"/>
       <c r="AO121" s="26"/>
@@ -36066,13 +36068,13 @@
     </row>
     <row r="122" spans="1:80" ht="105" x14ac:dyDescent="0.25">
       <c r="A122" s="95" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B122" s="95" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C122" s="96" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D122" s="86" t="str">
         <f t="shared" si="57"/>
@@ -36107,23 +36109,23 @@
       <c r="AE122" s="96"/>
       <c r="AF122" s="98"/>
       <c r="AG122" s="96" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="AH122" s="96" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="AI122" s="100">
         <v>21800</v>
       </c>
       <c r="AJ122" s="102" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="AK122" s="103" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="AL122" s="103"/>
       <c r="AM122" s="104" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="AN122" s="126"/>
       <c r="AO122" s="84"/>
@@ -36219,13 +36221,13 @@
     </row>
     <row r="123" spans="1:80" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="116" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B123" s="116" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C123" s="117" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D123" s="86" t="str">
         <f t="shared" si="57"/>
@@ -36260,19 +36262,19 @@
       <c r="AE123" s="117"/>
       <c r="AF123" s="119"/>
       <c r="AG123" s="117" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="AH123" s="117" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="AI123" s="121">
         <v>21000</v>
       </c>
       <c r="AJ123" s="122" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="AK123" s="123" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="AL123" s="123"/>
       <c r="AM123" s="124"/>
@@ -36370,13 +36372,13 @@
     </row>
     <row r="124" spans="1:80" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="116" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B124" s="116" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C124" s="117" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D124" s="86" t="str">
         <f t="shared" si="57"/>
@@ -36411,23 +36413,23 @@
       <c r="AE124" s="117"/>
       <c r="AF124" s="119"/>
       <c r="AG124" s="117" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="AH124" s="117" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="AI124" s="121">
         <v>21300</v>
       </c>
       <c r="AJ124" s="122" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="AK124" s="123" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="AL124" s="123"/>
       <c r="AM124" s="124" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="AN124" s="125"/>
       <c r="AO124" s="7"/>
@@ -36523,13 +36525,13 @@
     </row>
     <row r="125" spans="1:80" ht="105" x14ac:dyDescent="0.25">
       <c r="A125" s="116" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B125" s="116" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C125" s="117" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D125" s="86" t="str">
         <f t="shared" si="57"/>
@@ -36564,23 +36566,23 @@
       <c r="AE125" s="117"/>
       <c r="AF125" s="119"/>
       <c r="AG125" s="117" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="AH125" s="117" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="AI125" s="121">
         <v>21800</v>
       </c>
       <c r="AJ125" s="122" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="AK125" s="123" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="AL125" s="123"/>
       <c r="AM125" s="124" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="AN125" s="125"/>
       <c r="AO125" s="7"/>
@@ -36676,13 +36678,13 @@
     </row>
     <row r="126" spans="1:80" s="139" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="116" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B126" s="116" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C126" s="117" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D126" s="86" t="str">
         <f t="shared" si="57"/>
@@ -36717,23 +36719,23 @@
       <c r="AE126" s="117"/>
       <c r="AF126" s="119"/>
       <c r="AG126" s="117" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="AH126" s="117" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AI126" s="121">
         <v>21600</v>
       </c>
       <c r="AJ126" s="122" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AK126" s="123" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="AL126" s="123"/>
       <c r="AM126" s="124" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="AN126" s="119"/>
       <c r="AO126" s="7"/>
@@ -36839,13 +36841,13 @@
     </row>
     <row r="127" spans="1:80" s="113" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="130" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B127" s="128" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="D127" s="86" t="str">
         <f t="shared" si="57"/>
@@ -36860,13 +36862,13 @@
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
       <c r="M127" s="113" t="s">
+        <v>1155</v>
+      </c>
+      <c r="N127" s="129" t="s">
+        <v>1156</v>
+      </c>
+      <c r="O127" s="113" t="s">
         <v>1157</v>
-      </c>
-      <c r="N127" s="129" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O127" s="113" t="s">
-        <v>1159</v>
       </c>
       <c r="P127" s="2"/>
       <c r="R127" s="134"/>
@@ -36885,23 +36887,23 @@
       <c r="AE127" s="8"/>
       <c r="AF127" s="2"/>
       <c r="AG127" s="131" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="AH127" s="113" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="AI127" s="132">
         <v>92390</v>
       </c>
       <c r="AJ127" s="122" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="AK127" s="123" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="AL127" s="123"/>
       <c r="AM127" s="124" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="AN127" s="5"/>
       <c r="AO127" s="2"/>
@@ -42116,7 +42118,7 @@
       <c r="CA273" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CB124" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:CB127" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CB127">
       <sortCondition ref="AT1:AT124"/>
     </sortState>
@@ -42222,9 +42224,10 @@
     <hyperlink ref="AR114" r:id="rId90" display="mailto:info@jnslabs.com" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
     <hyperlink ref="AR56" r:id="rId91" xr:uid="{120D4766-2804-834C-B350-0BE7FDA42D38}"/>
     <hyperlink ref="AK3" r:id="rId92" xr:uid="{6622BBA6-6FF8-4152-B86B-419D1D3F91A2}"/>
+    <hyperlink ref="AK8" r:id="rId93" xr:uid="{0F848F62-5219-486F-9238-C9D84E5FF433}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId93"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId94"/>
 </worksheet>
 </file>
 
@@ -42243,7 +42246,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="168" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B1" s="169"/>
       <c r="C1" s="169"/>
@@ -42260,14 +42263,14 @@
       <c r="F2" s="173"/>
       <c r="H2" s="76"/>
       <c r="I2" s="77" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="K2" s="78"/>
       <c r="L2" s="77" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="N2" s="164" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="O2" s="165"/>
       <c r="P2" s="165"/>
@@ -42329,7 +42332,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="168" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B1" s="169"/>
       <c r="C1" s="169"/>
@@ -42348,14 +42351,14 @@
       <c r="G2" s="80"/>
       <c r="H2" s="76"/>
       <c r="I2" s="77" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="K2" s="78"/>
       <c r="L2" s="77" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="N2" s="177" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="O2" s="178"/>
       <c r="P2" s="178"/>

--- a/Entreprises_Complet.xlsx
+++ b/Entreprises_Complet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfial\Documents\00_Stage_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AB21EAB-F4F3-4C11-8EC6-097EA68CF1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{238501FC-82FF-43E3-9686-A71A016A74B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="1282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="1297">
   <si>
     <t>Alimentaire</t>
   </si>
@@ -342,9 +342,6 @@
     <t>Mme. Audrey PINSON</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Cristal+Union/@49.3501882,4.1654591,15z/data=!4m2!3m1!1s0x0:0xcab7e4b779a378dd?sa=X&amp;ved=0ahUKEwjiiqGJ7dDaAhUIJ8AKHdPDC_sQ_BIIhgEwCg</t>
-  </si>
-  <si>
     <t>03 26 03 31 81</t>
   </si>
   <si>
@@ -450,9 +447,6 @@
     <t>03 25 37 79 37</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Millbaker/@48.5269,4.187395,15z/data=!4m2!3m1!1s0x0:0x72c8f25d5194ffd7?sa=X&amp;ved=0ahUKEwi31uqb6NXaAhXlCsAKHRqHCW8Q_BIIhgEwCg</t>
-  </si>
-  <si>
     <t>03 25 37 13 82</t>
   </si>
   <si>
@@ -481,9 +475,6 @@
   </si>
   <si>
     <t>vins</t>
-  </si>
-  <si>
-    <t>https://www.google.fr/maps/place/SOFRALAB/@49.057118,3.964323,15z/data=!4m2!3m1!1s0x0:0x45625101e2d27f36?sa=X&amp;ved=0ahUKEwil8s3U7NXaAhXKesAKHRFeCdUQ_BIIkwEwCg</t>
   </si>
   <si>
     <t>03 26 51 29 32</t>
@@ -775,9 +766,6 @@
     </r>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Champagne+Mo%C3%ABt+et+Chandon/@49.0429453,3.9592346,15z/data=!4m2!3m1!1s0x0:0xb5b942452cd16727?sa=X&amp;ved=0ahUKEwjuwrmnruzaAhUlDsAKHUGBABUQ_BIIuwEwCg</t>
-  </si>
-  <si>
     <t>https://www.google.fr/maps/place/5+Rue+Henri+Martin,+51200+%C3%89pernay/@49.03997,3.955612,18z/data=!3m1!4b1!4m8!1m2!2m1!1sCoop%C3%A9rative+R%C3%A9gionale+des+Vins+de+Champagne+5+rue+henri+martin!3m4!1s0x47e96b4f254c4b7f:0x2f30202f02c1afd2!8m2!3d49.0399682!4d3.956709</t>
   </si>
   <si>
@@ -958,9 +946,6 @@
   </si>
   <si>
     <t>Laon</t>
-  </si>
-  <si>
-    <t>https://goo.gl/maps/J7dmv6mseHS2</t>
   </si>
   <si>
     <t>03 23 24 06 00</t>
@@ -1269,9 +1254,6 @@
     <t xml:space="preserve">  katia.savary@univ-reims.fr</t>
   </si>
   <si>
-    <t>BCM-Médical</t>
-  </si>
-  <si>
     <t>1, rue du Marechal Juin</t>
   </si>
   <si>
@@ -1386,15 +1368,9 @@
     <t>Microbiologie des Agroressources</t>
   </si>
   <si>
-    <t>2-8 Chemin des Rouliers</t>
-  </si>
-  <si>
     <t>63R6+WG Reims</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/49%C2%B014'33.5%22N+4%C2%B003'41.6%22E/@49.2426467,4.0604572,280m/data=!3m2!1e3!4b1!4m9!1m2!2m1!1sUFR+de+Sciences+Exactes+et+Naturelles+B%C3%A2t.+18!3m5!1s0x0:0x0!7e2!8m2!3d49.2426448!4d4.0615503?hl=fr</t>
-  </si>
-  <si>
     <t>Compléments alimentaires</t>
   </si>
   <si>
@@ -1420,9 +1396,6 @@
   </si>
   <si>
     <t>Fermenteurs</t>
-  </si>
-  <si>
-    <t>Fermentations/ biocarburants</t>
   </si>
   <si>
     <t>A.R.D.</t>
@@ -1661,9 +1634,6 @@
     <t>03 26 55 18 27</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Oenologie+Conseil+Champagne+(O2C)/@49.056849,3.951088,15z/data=!4m5!3m4!1s0x0:0x7a5489cca896d9fa!8m2!3d49.056849!4d3.951088?hl=fr</t>
-  </si>
-  <si>
     <t>3X42+PC Épernay</t>
   </si>
   <si>
@@ -1688,9 +1658,6 @@
     <t>03 23 22 35 70</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Sensient+Dehydrated+Flavors/@49.5733946,3.825408,17z/data=!3m1!4b1!4m5!3m4!1s0x47e9b763bdfb4233:0x35ef0fd2ecd1637b!8m2!3d49.5733946!4d3.8275967?hl=fr</t>
-  </si>
-  <si>
     <t>HRFH+92 Marchais</t>
   </si>
   <si>
@@ -1739,9 +1706,6 @@
     <t>03 26 07 61 40</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Champagne+Louis+Roederer/@49.2627651,4.0370583,15z/data=!4m5!3m4!1s0x0:0x4b40bc8216bafddd!8m2!3d49.2627651!4d4.0370583?hl=fr</t>
-  </si>
-  <si>
     <t>727P+4R Reims</t>
   </si>
   <si>
@@ -1770,9 +1734,6 @@
   </si>
   <si>
     <t>Camille Lemaure-S2BC App - S1BC App/</t>
-  </si>
-  <si>
-    <t>Elchais (Ex. Sensient Dehydrated Flavors (Ex. SENSIENT NATURAL INGREDIENTS) )</t>
   </si>
   <si>
     <t>Manon Pellicier-S2BC App/</t>
@@ -2578,9 +2539,6 @@
     <t>Agence Nationale Sécurité Sanitaire Alimentaire Nationale</t>
   </si>
   <si>
-    <t>ANSES</t>
-  </si>
-  <si>
     <t>14, Rue Pierre et Marie Curie</t>
   </si>
   <si>
@@ -2890,9 +2848,6 @@
     <t>62J9+7G Reims</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/45+Rue+Cognacq-Jay,+51100+Reims/@49.2306683,4.0166504,17z/data=!3m1!4b1!4m5!3m4!1s0x47e9748a684111ed:0xbd17216af5735c30!8m2!3d49.2306683!4d4.0188391?hl=fr</t>
-  </si>
-  <si>
     <t>amarlier@chu-reims.fr  / sophie.gangloff@univ-reims.fr / halima.kerdjoudj@univ-reims.fr</t>
   </si>
   <si>
@@ -2909,12 +2864,6 @@
   </si>
   <si>
     <t xml:space="preserve">Laboratoire SIRMA    CNRS 3481  - Bâtiment 18 - UFR Sciences Exactes et Naturelles, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">URCA UMR -Stress Environnementaux et BIOsurveillance des milieux aquatiques (SEBIO) - Bâtiment 18 - UFR Sciences Exactes et Naturelles,  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fractionnement des Agroressources et Environnement (FARE) INRA URCA UMR A 614 - Bâtiment 18 - UFR Sciences Exactes et Naturelles, </t>
   </si>
   <si>
     <t>gilles.lemercier@univ-reims.fr</t>
@@ -3366,9 +3315,6 @@
     <t>2020_Autres cadres</t>
   </si>
   <si>
-    <t>Elvir SA</t>
-  </si>
-  <si>
     <t>Produits Laitiers</t>
   </si>
   <si>
@@ -3900,19 +3846,10 @@
     <t>Mélanie Ribeiro /</t>
   </si>
   <si>
-    <t>Bâtiment 1, Campus Moulin de la Housse, Chemin des Rouliers</t>
-  </si>
-  <si>
     <t>03.26.91.80.64</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/place/Universit%C3%A9+de+Reims+Champagne-Ardenne+UFR+Sciences+Exactes+et+Naturelles/@49.2433131,4.06021,17z/data=!3m1!4b1!4m5!3m4!1s0x47e975aac0bcf9bd:0x4daff33cc88dd9fd!8m2!3d49.2433131!4d4.0623987</t>
-  </si>
-  <si>
     <t>63V6+8X Reims</t>
-  </si>
-  <si>
-    <t>U.F.R. SCIENCES EXACTES ET NATURELLES, Laboratoire d'œnologie, Unité de recherche Vignes et Vins de Champagne (URVVC, EA 4707)</t>
   </si>
   <si>
     <t>Jougneau/</t>
@@ -4022,9 +3959,6 @@
     <t>49.35053765521716, 4.16640323758108</t>
   </si>
   <si>
-    <t>BCM-Alimentaire</t>
-  </si>
-  <si>
     <t>Lycée</t>
   </si>
   <si>
@@ -4044,6 +3978,117 @@
   </si>
   <si>
     <t>49.251337263741476, 4.027368906608117</t>
+  </si>
+  <si>
+    <t>2, route Neuve</t>
+  </si>
+  <si>
+    <t>Conde-sur-Vire</t>
+  </si>
+  <si>
+    <t>49.05048881292367, -1.036560977134678</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/delpharmreims/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/ldar02/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/moet-&amp;-chandon/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/sofralab/about/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/groupe-invivo/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/cristal-union/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>Elle et Vire</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/elle-&amp;-vire-groupe-savencia/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>49.57434425047919, 3.8268242220714193</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/elchais-food-solutions/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/vivescia/</t>
+  </si>
+  <si>
+    <t>49.23006737834464, 4.0719704417357</t>
+  </si>
+  <si>
+    <t>48.527425794529556, 4.186493777763515</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/millb%C3%A4ker-sas/</t>
+  </si>
+  <si>
+    <t>49.262947119069445, 4.037058297743871</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/champagne-louis-roederer/</t>
+  </si>
+  <si>
+    <t>49.24279144591055, 4.061544261781607</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/umr-fare-0a41241a5/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/school/universite-de-reims-champagne-ardenne/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>49.24244122593063, 4.061576448290053</t>
+  </si>
+  <si>
+    <t>49.23079789189787, 4.018860555934231</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/chu-de-reims/</t>
+  </si>
+  <si>
+    <t>49.24230733073601, 4.064601849156538</t>
+  </si>
+  <si>
+    <t>49.05742551505309, 3.9510021693108106</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/oenologie-conseil-champagne/people/</t>
+  </si>
+  <si>
+    <t>Laboratoire d'œnologie, Unité de recherche Vignes et Vins de Champagne</t>
+  </si>
+  <si>
+    <t>Bâtiment 1, Campus Moulin de la Housse, Chemin des Rouliers,  (URVVC, EA 4707)</t>
+  </si>
+  <si>
+    <t>URCA Stress Environnementaux et BIOsurveillance des milieux aquatiques</t>
+  </si>
+  <si>
+    <t>2-8 Chemin des Rouliers  - Bâtiment 18,  (SEBIO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URCA Fractionnement des Agroressources et Environnement </t>
+  </si>
+  <si>
+    <t>2-8, Chemin des Rouliers - Bâtiment 18 , (FARE) INRA  UMR A 614</t>
+  </si>
+  <si>
+    <t>Elchais (Ex. Sensient Dehydrated Flavors )</t>
+  </si>
+  <si>
+    <t>BCM</t>
+  </si>
+  <si>
+    <t>ANSES (BCM-Alimentaire)</t>
   </si>
 </sst>
 </file>
@@ -6226,7 +6271,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N° 13 URCA UMR -Stress Environnementaux et BIOsurveillance des milieux aquatiques (SEBIO) - Bâtiment 18 - UFR Sciences Exactes et Naturelles,  </c:v>
+                  <c:v>N° 13 URCA Stress Environnementaux et BIOsurveillance des milieux aquatiques</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6312,7 +6357,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N° 13 URCA UMR -Stress Environnementaux et BIOsurveillance des milieux aquatiques (SEBIO) - Bâtiment 18 - UFR Sciences Exactes et Naturelles,  </c:v>
+                  <c:v>N° 13 URCA Stress Environnementaux et BIOsurveillance des milieux aquatiques</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6487,7 +6532,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N° 14 Fractionnement des Agroressources et Environnement (FARE) INRA URCA UMR A 614 - Bâtiment 18 - UFR Sciences Exactes et Naturelles, </c:v>
+                  <c:v>N° 14 URCA Fractionnement des Agroressources et Environnement </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6573,7 +6618,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N° 14 Fractionnement des Agroressources et Environnement (FARE) INRA URCA UMR A 614 - Bâtiment 18 - UFR Sciences Exactes et Naturelles, </c:v>
+                  <c:v>N° 14 URCA Fractionnement des Agroressources et Environnement </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7013,7 +7058,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N° 16 U.F.R. SCIENCES EXACTES ET NATURELLES, Laboratoire d'œnologie, Unité de recherche Vignes et Vins de Champagne (URVVC, EA 4707)</c:v>
+                  <c:v>N° 16 Laboratoire d'œnologie, Unité de recherche Vignes et Vins de Champagne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7099,7 +7144,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N° 16 U.F.R. SCIENCES EXACTES ET NATURELLES, Laboratoire d'œnologie, Unité de recherche Vignes et Vins de Champagne (URVVC, EA 4707)</c:v>
+                  <c:v>N° 16 Laboratoire d'œnologie, Unité de recherche Vignes et Vins de Champagne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9378,7 +9423,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N° 34 Elvir SA</c:v>
+                  <c:v>N° 34 Elle et Vire</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9464,7 +9509,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N° 34 Elvir SA</c:v>
+                  <c:v>N° 34 Elle et Vire</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9639,7 +9684,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N° 35 Elchais (Ex. Sensient Dehydrated Flavors (Ex. SENSIENT NATURAL INGREDIENTS) )</c:v>
+                  <c:v>N° 35 Elchais (Ex. Sensient Dehydrated Flavors )</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9725,7 +9770,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N° 35 Elchais (Ex. Sensient Dehydrated Flavors (Ex. SENSIENT NATURAL INGREDIENTS) )</c:v>
+                  <c:v>N° 35 Elchais (Ex. Sensient Dehydrated Flavors )</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10683,7 +10728,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N° 2 URCA UMR -Stress Environnementaux et BIOsurveillance des milieux aquatiques (SEBIO) - Bâtiment 18 - UFR Sciences Exactes et Naturelles,  </c:v>
+                  <c:v>N° 2 URCA Stress Environnementaux et BIOsurveillance des milieux aquatiques</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10769,7 +10814,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N° 2 URCA UMR -Stress Environnementaux et BIOsurveillance des milieux aquatiques (SEBIO) - Bâtiment 18 - UFR Sciences Exactes et Naturelles,  </c:v>
+                  <c:v>N° 2 URCA Stress Environnementaux et BIOsurveillance des milieux aquatiques</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11205,7 +11250,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N° 4 Fractionnement des Agroressources et Environnement (FARE) INRA URCA UMR A 614 - Bâtiment 18 - UFR Sciences Exactes et Naturelles, </c:v>
+                  <c:v>N° 4 URCA Fractionnement des Agroressources et Environnement </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11291,7 +11336,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N° 4 Fractionnement des Agroressources et Environnement (FARE) INRA URCA UMR A 614 - Bâtiment 18 - UFR Sciences Exactes et Naturelles, </c:v>
+                  <c:v>N° 4 URCA Fractionnement des Agroressources et Environnement </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11731,7 +11776,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N° 6 U.F.R. SCIENCES EXACTES ET NATURELLES, Laboratoire d'œnologie, Unité de recherche Vignes et Vins de Champagne (URVVC, EA 4707)</c:v>
+                  <c:v>N° 6 Laboratoire d'œnologie, Unité de recherche Vignes et Vins de Champagne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11817,7 +11862,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N° 6 U.F.R. SCIENCES EXACTES ET NATURELLES, Laboratoire d'œnologie, Unité de recherche Vignes et Vins de Champagne (URVVC, EA 4707)</c:v>
+                  <c:v>N° 6 Laboratoire d'œnologie, Unité de recherche Vignes et Vins de Champagne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13036,7 +13081,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N° 8 Elvir SA</c:v>
+                  <c:v>N° 8 Elle et Vire</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13122,7 +13167,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N° 8 Elvir SA</c:v>
+                  <c:v>N° 8 Elle et Vire</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13297,7 +13342,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N° 9 Elchais (Ex. Sensient Dehydrated Flavors (Ex. SENSIENT NATURAL INGREDIENTS) )</c:v>
+                  <c:v>N° 9 Elchais (Ex. Sensient Dehydrated Flavors )</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13383,7 +13428,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N° 9 Elchais (Ex. Sensient Dehydrated Flavors (Ex. SENSIENT NATURAL INGREDIENTS) )</c:v>
+                  <c:v>N° 9 Elchais (Ex. Sensient Dehydrated Flavors )</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15013,32 +15058,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AD1" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="AL2" sqref="AL2"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="113" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="43" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="123" customWidth="1"/>
-    <col min="5" max="12" width="23.42578125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="47.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="47.140625" style="98" customWidth="1"/>
-    <col min="15" max="15" width="47.140625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="47.140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="47.140625" style="98" customWidth="1"/>
-    <col min="18" max="18" width="47.140625" style="119" customWidth="1"/>
-    <col min="19" max="21" width="47.140625" style="2" customWidth="1"/>
-    <col min="22" max="23" width="47.140625" style="8" customWidth="1"/>
-    <col min="24" max="24" width="47.140625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="36.7109375" style="2" customWidth="1"/>
-    <col min="26" max="27" width="34.28515625" style="2" customWidth="1"/>
-    <col min="28" max="28" width="33.140625" style="2" customWidth="1"/>
-    <col min="29" max="31" width="33.140625" style="8" customWidth="1"/>
-    <col min="32" max="32" width="33.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="123" hidden="1" customWidth="1"/>
+    <col min="5" max="12" width="23.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="47.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="47.140625" style="98" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="47.140625" style="8" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="47.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="47.140625" style="98" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="47.140625" style="119" hidden="1" customWidth="1"/>
+    <col min="19" max="21" width="47.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="22" max="23" width="47.140625" style="8" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="47.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="36.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="26" max="27" width="34.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="33.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="29" max="31" width="33.140625" style="8" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="33.140625" style="2" hidden="1" customWidth="1"/>
     <col min="33" max="34" width="33.28515625" style="8" customWidth="1"/>
     <col min="35" max="35" width="33.28515625" style="9" customWidth="1"/>
     <col min="36" max="38" width="33.28515625" style="2" customWidth="1"/>
@@ -15067,103 +15113,103 @@
         <v>70</v>
       </c>
       <c r="C1" s="150" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="151" t="s">
+        <v>335</v>
+      </c>
+      <c r="E1" s="152" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F1" s="152" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G1" s="152" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H1" s="152" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I1" s="152" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J1" s="152" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K1" s="152" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L1" s="152" t="s">
+        <v>1034</v>
+      </c>
+      <c r="M1" s="153" t="s">
+        <v>282</v>
+      </c>
+      <c r="N1" s="150" t="s">
+        <v>283</v>
+      </c>
+      <c r="O1" s="150" t="s">
+        <v>284</v>
+      </c>
+      <c r="P1" s="150" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q1" s="150" t="s">
+        <v>264</v>
+      </c>
+      <c r="R1" s="154" t="s">
+        <v>265</v>
+      </c>
+      <c r="S1" s="150" t="s">
+        <v>266</v>
+      </c>
+      <c r="T1" s="150" t="s">
+        <v>267</v>
+      </c>
+      <c r="U1" s="150" t="s">
+        <v>273</v>
+      </c>
+      <c r="V1" s="150" t="s">
+        <v>274</v>
+      </c>
+      <c r="W1" s="150" t="s">
+        <v>275</v>
+      </c>
+      <c r="X1" s="150" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y1" s="150" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z1" s="150" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA1" s="150" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB1" s="150" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC1" s="150" t="s">
+        <v>320</v>
+      </c>
+      <c r="AD1" s="150" t="s">
+        <v>317</v>
+      </c>
+      <c r="AE1" s="150" t="s">
+        <v>318</v>
+      </c>
+      <c r="AF1" s="150" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG1" s="150" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH1" s="150" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI1" s="155" t="s">
         <v>168</v>
-      </c>
-      <c r="D1" s="151" t="s">
-        <v>340</v>
-      </c>
-      <c r="E1" s="152" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F1" s="152" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G1" s="152" t="s">
-        <v>1054</v>
-      </c>
-      <c r="H1" s="152" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I1" s="152" t="s">
-        <v>1048</v>
-      </c>
-      <c r="J1" s="152" t="s">
-        <v>1049</v>
-      </c>
-      <c r="K1" s="152" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L1" s="152" t="s">
-        <v>1051</v>
-      </c>
-      <c r="M1" s="153" t="s">
-        <v>287</v>
-      </c>
-      <c r="N1" s="150" t="s">
-        <v>288</v>
-      </c>
-      <c r="O1" s="150" t="s">
-        <v>289</v>
-      </c>
-      <c r="P1" s="150" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q1" s="150" t="s">
-        <v>268</v>
-      </c>
-      <c r="R1" s="154" t="s">
-        <v>269</v>
-      </c>
-      <c r="S1" s="150" t="s">
-        <v>270</v>
-      </c>
-      <c r="T1" s="150" t="s">
-        <v>271</v>
-      </c>
-      <c r="U1" s="150" t="s">
-        <v>277</v>
-      </c>
-      <c r="V1" s="150" t="s">
-        <v>278</v>
-      </c>
-      <c r="W1" s="150" t="s">
-        <v>279</v>
-      </c>
-      <c r="X1" s="150" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y1" s="150" t="s">
-        <v>294</v>
-      </c>
-      <c r="Z1" s="150" t="s">
-        <v>295</v>
-      </c>
-      <c r="AA1" s="150" t="s">
-        <v>296</v>
-      </c>
-      <c r="AB1" s="150" t="s">
-        <v>297</v>
-      </c>
-      <c r="AC1" s="150" t="s">
-        <v>325</v>
-      </c>
-      <c r="AD1" s="150" t="s">
-        <v>322</v>
-      </c>
-      <c r="AE1" s="150" t="s">
-        <v>323</v>
-      </c>
-      <c r="AF1" s="150" t="s">
-        <v>324</v>
-      </c>
-      <c r="AG1" s="150" t="s">
-        <v>169</v>
-      </c>
-      <c r="AH1" s="150" t="s">
-        <v>170</v>
-      </c>
-      <c r="AI1" s="155" t="s">
-        <v>171</v>
       </c>
       <c r="AJ1" s="150" t="s">
         <v>77</v>
@@ -15172,10 +15218,10 @@
         <v>82</v>
       </c>
       <c r="AL1" s="150" t="s">
-        <v>1265</v>
+        <v>1244</v>
       </c>
       <c r="AM1" s="150" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AN1" s="150" t="s">
         <v>72</v>
@@ -15193,113 +15239,113 @@
         <v>76</v>
       </c>
       <c r="AS1" s="156" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AT1" s="157" t="s">
-        <v>1023</v>
+        <v>1006</v>
       </c>
       <c r="AU1" s="158" t="s">
-        <v>1026</v>
+        <v>1009</v>
       </c>
       <c r="AV1" s="157" t="s">
-        <v>1021</v>
+        <v>1004</v>
       </c>
       <c r="AW1" s="158" t="s">
-        <v>1024</v>
+        <v>1007</v>
       </c>
       <c r="AX1" s="159" t="s">
-        <v>1060</v>
+        <v>1042</v>
       </c>
       <c r="AY1" s="159" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="AZ1" s="159" t="s">
-        <v>1058</v>
+        <v>1040</v>
       </c>
       <c r="BA1" s="159" t="s">
-        <v>1059</v>
+        <v>1041</v>
       </c>
       <c r="BB1" s="159" t="s">
-        <v>1027</v>
+        <v>1010</v>
       </c>
       <c r="BC1" s="159" t="s">
-        <v>1028</v>
+        <v>1011</v>
       </c>
       <c r="BD1" s="159" t="s">
-        <v>1029</v>
+        <v>1012</v>
       </c>
       <c r="BE1" s="159" t="s">
-        <v>1030</v>
+        <v>1013</v>
       </c>
       <c r="BF1" s="159" t="s">
-        <v>1031</v>
+        <v>1014</v>
       </c>
       <c r="BG1" s="159" t="s">
-        <v>1032</v>
+        <v>1015</v>
       </c>
       <c r="BH1" s="159" t="s">
-        <v>1033</v>
+        <v>1016</v>
       </c>
       <c r="BI1" s="159" t="s">
-        <v>1034</v>
+        <v>1017</v>
       </c>
       <c r="BJ1" s="159" t="s">
-        <v>1035</v>
+        <v>1018</v>
       </c>
       <c r="BK1" s="159" t="s">
-        <v>1036</v>
+        <v>1019</v>
       </c>
       <c r="BL1" s="160" t="s">
-        <v>1025</v>
+        <v>1008</v>
       </c>
       <c r="BM1" s="160" t="s">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="BN1" s="160"/>
       <c r="BO1" s="160"/>
       <c r="BP1" s="161" t="s">
-        <v>1037</v>
+        <v>1020</v>
       </c>
       <c r="BQ1" s="161" t="s">
-        <v>1038</v>
+        <v>1021</v>
       </c>
       <c r="BR1" s="161" t="s">
-        <v>1039</v>
+        <v>1022</v>
       </c>
       <c r="BS1" s="161" t="s">
-        <v>1040</v>
+        <v>1023</v>
       </c>
       <c r="BT1" s="161" t="s">
-        <v>1041</v>
+        <v>1024</v>
       </c>
       <c r="BU1" s="161"/>
       <c r="BV1" s="161"/>
       <c r="BW1" s="161" t="s">
-        <v>1042</v>
+        <v>1025</v>
       </c>
       <c r="BX1" s="161" t="s">
-        <v>1043</v>
+        <v>1026</v>
       </c>
       <c r="BY1" s="161" t="s">
-        <v>1044</v>
+        <v>1027</v>
       </c>
       <c r="BZ1" s="161" t="s">
-        <v>1045</v>
+        <v>1028</v>
       </c>
       <c r="CA1" s="161" t="s">
-        <v>1046</v>
+        <v>1029</v>
       </c>
       <c r="CB1" s="162"/>
     </row>
     <row r="2" spans="1:80" s="18" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>1275</v>
+        <v>1253</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1277</v>
+        <v>1255</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>1276</v>
+        <v>1254</v>
       </c>
       <c r="D2" s="99"/>
       <c r="E2" s="164"/>
@@ -15331,22 +15377,22 @@
       <c r="AE2" s="62"/>
       <c r="AF2" s="137"/>
       <c r="AG2" s="62" t="s">
-        <v>1278</v>
+        <v>1256</v>
       </c>
       <c r="AH2" s="62" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AI2" s="138">
         <v>51100</v>
       </c>
       <c r="AJ2" s="139" t="s">
-        <v>1279</v>
+        <v>1257</v>
       </c>
       <c r="AK2" s="67" t="s">
-        <v>1280</v>
+        <v>1258</v>
       </c>
       <c r="AL2" s="144" t="s">
-        <v>1281</v>
+        <v>1259</v>
       </c>
       <c r="AM2" s="67"/>
       <c r="AN2" s="140"/>
@@ -15375,89 +15421,89 @@
     </row>
     <row r="3" spans="1:80" s="18" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D3" s="99" t="str">
         <f t="shared" ref="D3:D34" si="0">IF(AX3&lt;&gt;0,"2020_A="&amp;AX3," ")&amp;IF(AY3&lt;&gt;0," ; 2020_i="&amp;AY3," ")&amp;IF(AZ3&lt;&gt;0,"2019_A="&amp;AZ3," ")&amp;IF(BA3&lt;&gt;0," ; 2019_i="&amp;BA3," ")&amp;IF(BB3&lt;&gt;0,"2018_A="&amp;BB3," ")&amp;IF(BC3&lt;&gt;0," ; 2018_i="&amp;BC3," ")&amp;IF(BD3&lt;&gt;0," ; 2017_A="&amp;BD3," ")&amp;IF(BE3&lt;&gt;0," ; 2017_i="&amp;BE3," ")&amp;IF(BF3&lt;&gt;0," ; 2016_A="&amp;BF3," ")&amp;IF(BG3&lt;&gt;0," ; 2016_i="&amp;BG3," ")&amp;IF(BH3&lt;&gt;0," ; 2015_A="&amp;BH3," ")&amp;IF(BI3&lt;&gt;0," ; 2015_i="&amp;BI3," ")&amp;IF(BJ3&lt;&gt;0," ; 2014_A="&amp;BJ3," ")&amp;IF(BK3&lt;&gt;0," ; 2014_i="&amp;BK3," ")</f>
         <v xml:space="preserve">2020_A=2 2019_A=4 2018_A=7  ; 2017_A=5 ; 2017_i=1 ; 2016_A=6 ; 2016_i=1 ; 2015_A=3  ; 2014_A=3 </v>
       </c>
       <c r="E3" s="164" t="s">
-        <v>1076</v>
+        <v>1058</v>
       </c>
       <c r="F3" s="164" t="s">
-        <v>1075</v>
+        <v>1057</v>
       </c>
       <c r="G3" s="164" t="s">
-        <v>1248</v>
+        <v>1227</v>
       </c>
       <c r="H3" s="164"/>
       <c r="I3" s="74" t="s">
-        <v>1074</v>
+        <v>1056</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>1073</v>
+        <v>1055</v>
       </c>
       <c r="K3" s="62" t="s">
-        <v>1247</v>
+        <v>1226</v>
       </c>
       <c r="L3" s="164"/>
       <c r="M3" s="74" t="s">
-        <v>1072</v>
+        <v>1054</v>
       </c>
       <c r="N3" s="62" t="s">
-        <v>1071</v>
+        <v>1053</v>
       </c>
       <c r="O3" s="62" t="s">
-        <v>1246</v>
+        <v>1225</v>
       </c>
       <c r="P3" s="137"/>
       <c r="Q3" s="62" t="s">
-        <v>1193</v>
+        <v>1175</v>
       </c>
       <c r="R3" s="137" t="s">
-        <v>1194</v>
+        <v>1176</v>
       </c>
       <c r="S3" s="137" t="s">
-        <v>1195</v>
+        <v>1177</v>
       </c>
       <c r="T3" s="137"/>
       <c r="U3" s="62" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="V3" s="62" t="s">
-        <v>1214</v>
+        <v>1196</v>
       </c>
       <c r="W3" s="62" t="s">
-        <v>1090</v>
+        <v>1072</v>
       </c>
       <c r="X3" s="137"/>
       <c r="Y3" s="137"/>
       <c r="Z3" s="62" t="s">
-        <v>1089</v>
+        <v>1071</v>
       </c>
       <c r="AA3" s="62" t="s">
-        <v>1088</v>
+        <v>1070</v>
       </c>
       <c r="AB3" s="137"/>
       <c r="AC3" s="62"/>
       <c r="AD3" s="62" t="s">
-        <v>1087</v>
+        <v>1069</v>
       </c>
       <c r="AE3" s="62" t="s">
-        <v>1088</v>
+        <v>1070</v>
       </c>
       <c r="AF3" s="137"/>
       <c r="AG3" s="62" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="AH3" s="62" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AI3" s="138">
         <v>51100</v>
@@ -15466,13 +15512,13 @@
         <v>326888110</v>
       </c>
       <c r="AK3" s="67" t="s">
-        <v>445</v>
+        <v>1263</v>
       </c>
       <c r="AL3" s="144" t="s">
-        <v>1272</v>
+        <v>1251</v>
       </c>
       <c r="AM3" s="67" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="AN3" s="140"/>
       <c r="AO3" s="141"/>
@@ -15596,91 +15642,91 @@
     </row>
     <row r="4" spans="1:80" s="1" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D4" s="73" t="str">
         <f t="shared" si="0"/>
         <v>2020_A=1 2019_A=1 2018_A=2 ; 2018_i=1 ; 2017_A=1  ; 2016_A=2  ; 2015_A=1  ; 2014_A=2 ; 2014_i=1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>1067</v>
+        <v>1049</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>1068</v>
+        <v>1050</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>1067</v>
+        <v>1049</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>1068</v>
+        <v>1050</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="75" t="s">
-        <v>1066</v>
+        <v>1048</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>1065</v>
+        <v>1047</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>1069</v>
+        <v>1051</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>1138</v>
+        <v>1120</v>
       </c>
       <c r="T4" s="17"/>
       <c r="U4" s="17" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>1092</v>
+        <v>1074</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>1137</v>
+        <v>1119</v>
       </c>
       <c r="X4" s="17"/>
       <c r="Y4" s="17"/>
       <c r="Z4" s="17" t="s">
-        <v>1221</v>
+        <v>1203</v>
       </c>
       <c r="AA4" s="17" t="s">
-        <v>1091</v>
+        <v>1073</v>
       </c>
       <c r="AB4" s="17"/>
       <c r="AC4" s="17" t="s">
-        <v>1123</v>
+        <v>1105</v>
       </c>
       <c r="AD4" s="17" t="s">
-        <v>1223</v>
+        <v>1205</v>
       </c>
       <c r="AE4" s="17" t="s">
-        <v>1124</v>
+        <v>1106</v>
       </c>
       <c r="AF4" s="17"/>
       <c r="AG4" s="11" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AH4" s="11" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AI4" s="41">
         <v>51110</v>
@@ -15689,26 +15735,26 @@
         <v>326888410</v>
       </c>
       <c r="AK4" s="23" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="AL4" s="145" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="AM4" s="50"/>
       <c r="AN4" s="11" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="AO4" s="17" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
       <c r="AP4" s="17" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="AQ4" s="11" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="AR4" s="23" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="AS4" s="25"/>
       <c r="AT4" s="1">
@@ -15830,10 +15876,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D5" s="73" t="str">
         <f t="shared" si="0"/>
@@ -15848,70 +15894,70 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="75" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="P5" s="17"/>
       <c r="Q5" s="17" t="s">
-        <v>1198</v>
+        <v>1180</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>1199</v>
+        <v>1181</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>1203</v>
+        <v>1185</v>
       </c>
       <c r="T5" s="17"/>
       <c r="U5" s="17" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>1215</v>
+        <v>1197</v>
       </c>
       <c r="W5" s="17" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="X5" s="17"/>
       <c r="Y5" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Z5" s="17" t="s">
-        <v>1122</v>
+        <v>1104</v>
       </c>
       <c r="AA5" s="17" t="s">
-        <v>1121</v>
+        <v>1103</v>
       </c>
       <c r="AB5" s="17"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="17" t="s">
-        <v>1120</v>
+        <v>1102</v>
       </c>
       <c r="AE5" s="17" t="s">
-        <v>1096</v>
+        <v>1078</v>
       </c>
       <c r="AF5" s="17"/>
       <c r="AG5" s="17" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AH5" s="17" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AI5" s="41">
         <v>2007</v>
       </c>
       <c r="AJ5" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="AK5" s="66" t="s">
-        <v>285</v>
+        <v>281</v>
+      </c>
+      <c r="AK5" s="23" t="s">
+        <v>1264</v>
       </c>
       <c r="AL5" s="146" t="s">
-        <v>1268</v>
+        <v>1247</v>
       </c>
       <c r="AM5" s="66"/>
       <c r="AN5" s="17"/>
@@ -16038,7 +16084,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="D6" s="73" t="str">
         <f t="shared" si="0"/>
@@ -16049,53 +16095,53 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>1062</v>
+        <v>1044</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="75" t="s">
-        <v>1243</v>
+        <v>1222</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>1242</v>
+        <v>1221</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>1244</v>
+        <v>1223</v>
       </c>
       <c r="P6" s="17"/>
       <c r="Q6" s="17" t="s">
-        <v>1190</v>
+        <v>1172</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>1191</v>
+        <v>1173</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>1192</v>
+        <v>1174</v>
       </c>
       <c r="T6" s="17"/>
       <c r="U6" s="17" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="W6" s="17" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="Z6" s="17" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="AA6" s="17" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="AB6" s="17"/>
       <c r="AC6" s="17"/>
@@ -16106,27 +16152,29 @@
         <v>45</v>
       </c>
       <c r="AH6" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AI6" s="11">
         <v>51200</v>
       </c>
-      <c r="AJ6" s="28"/>
+      <c r="AJ6" s="28">
+        <v>33326512020</v>
+      </c>
       <c r="AK6" s="23" t="s">
-        <v>227</v>
+        <v>1265</v>
       </c>
       <c r="AL6" s="147" t="s">
-        <v>1269</v>
+        <v>1248</v>
       </c>
       <c r="AM6" s="25" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AN6" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AO6" s="17"/>
       <c r="AP6" s="17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AQ6" s="44" t="s">
         <v>46</v>
@@ -16250,7 +16298,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>29</v>
@@ -16268,87 +16316,87 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="75" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>1078</v>
+        <v>1060</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>1077</v>
+        <v>1059</v>
       </c>
       <c r="T7" s="17"/>
       <c r="U7" s="17" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>1213</v>
+        <v>1195</v>
       </c>
       <c r="W7" s="17" t="s">
-        <v>1086</v>
+        <v>1068</v>
       </c>
       <c r="X7" s="17"/>
       <c r="Y7" s="17"/>
       <c r="Z7" s="17" t="s">
-        <v>1085</v>
+        <v>1067</v>
       </c>
       <c r="AA7" s="17" t="s">
-        <v>1084</v>
+        <v>1066</v>
       </c>
       <c r="AB7" s="17"/>
       <c r="AC7" s="17"/>
       <c r="AD7" s="17" t="s">
-        <v>1128</v>
+        <v>1110</v>
       </c>
       <c r="AE7" s="17" t="s">
-        <v>1129</v>
+        <v>1111</v>
       </c>
       <c r="AF7" s="17"/>
       <c r="AG7" s="11" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AH7" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AI7" s="41">
         <v>51530</v>
       </c>
       <c r="AJ7" s="28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AK7" s="23" t="s">
-        <v>137</v>
+        <v>1266</v>
       </c>
       <c r="AL7" s="147" t="s">
-        <v>1270</v>
+        <v>1249</v>
       </c>
       <c r="AM7" s="23"/>
       <c r="AN7" s="11" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AO7" s="17" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="AP7" s="17"/>
       <c r="AQ7" s="11" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="AR7" s="50" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="AS7" s="25" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AT7" s="1">
         <f>RANK(BL7,$BL$3:$BL$122)+COUNTIF(BL$3:BL7,BL7)-1</f>
@@ -16465,10 +16513,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -16483,80 +16531,82 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="75" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>1135</v>
+        <v>1117</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="17" t="s">
-        <v>1163</v>
+        <v>1145</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>1164</v>
+        <v>1146</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>1165</v>
+        <v>1147</v>
       </c>
       <c r="T8" s="15"/>
       <c r="U8" s="17" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>1083</v>
+        <v>1065</v>
       </c>
       <c r="W8" s="17" t="s">
-        <v>1136</v>
+        <v>1118</v>
       </c>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="17" t="s">
-        <v>1082</v>
+        <v>1064</v>
       </c>
       <c r="AA8" s="17" t="s">
-        <v>1081</v>
+        <v>1063</v>
       </c>
       <c r="AB8" s="15"/>
       <c r="AC8" s="17"/>
       <c r="AD8" s="17" t="s">
-        <v>1080</v>
+        <v>1062</v>
       </c>
       <c r="AE8" s="17" t="s">
-        <v>1081</v>
+        <v>1063</v>
       </c>
       <c r="AF8" s="15"/>
       <c r="AG8" s="17" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="AH8" s="17" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="AI8" s="21">
         <v>2400</v>
       </c>
       <c r="AJ8" s="46" t="s">
-        <v>462</v>
-      </c>
-      <c r="AK8" s="23"/>
+        <v>453</v>
+      </c>
+      <c r="AK8" s="23" t="s">
+        <v>1267</v>
+      </c>
       <c r="AL8" s="23" t="s">
-        <v>1271</v>
+        <v>1250</v>
       </c>
       <c r="AM8" s="23"/>
       <c r="AN8" s="30"/>
       <c r="AO8" s="17" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="AP8" s="17" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="AQ8" s="48" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="AR8" s="42" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="AS8" s="26"/>
       <c r="AT8" s="1">
@@ -16677,115 +16727,115 @@
         <v>4</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>1133</v>
+        <v>1115</v>
       </c>
       <c r="D9" s="99" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">    2018_A=1  ; 2017_A=1  ; 2016_A=1 ; 2016_i=1 ; 2015_A=2  ; 2014_A=1 </v>
       </c>
       <c r="E9" s="75" t="s">
-        <v>1254</v>
+        <v>1233</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>1253</v>
+        <v>1232</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>1250</v>
+        <v>1229</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="75" t="s">
-        <v>1254</v>
+        <v>1233</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>1253</v>
+        <v>1232</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>1250</v>
+        <v>1229</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="75" t="s">
-        <v>1252</v>
+        <v>1231</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>1249</v>
+        <v>1228</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>1251</v>
+        <v>1230</v>
       </c>
       <c r="P9" s="17"/>
       <c r="Q9" s="17" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="T9" s="17"/>
       <c r="U9" s="17" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>1217</v>
+        <v>1199</v>
       </c>
       <c r="W9" s="17" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="X9" s="17"/>
       <c r="Y9" s="17" t="s">
-        <v>1106</v>
+        <v>1088</v>
       </c>
       <c r="Z9" s="17" t="s">
-        <v>1093</v>
+        <v>1075</v>
       </c>
       <c r="AA9" s="17" t="s">
-        <v>1095</v>
+        <v>1077</v>
       </c>
       <c r="AB9" s="17"/>
       <c r="AC9" s="17" t="s">
-        <v>1107</v>
+        <v>1089</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>1094</v>
+        <v>1076</v>
       </c>
       <c r="AE9" s="17" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="AF9" s="17"/>
       <c r="AG9" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AH9" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AI9" s="41">
         <v>51110</v>
       </c>
       <c r="AJ9" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK9" s="23" t="s">
-        <v>90</v>
+        <v>1268</v>
       </c>
       <c r="AL9" s="23" t="s">
-        <v>1273</v>
+        <v>1252</v>
       </c>
       <c r="AM9" s="23"/>
       <c r="AN9" s="25" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="AO9" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP9" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="AP9" s="17" t="s">
-        <v>94</v>
-      </c>
       <c r="AQ9" s="25" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="AR9" s="42" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="AS9" s="25"/>
       <c r="AT9" s="1">
@@ -16897,47 +16947,47 @@
       <c r="CB9" s="35"/>
     </row>
     <row r="10" spans="1:80" s="1" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="143" t="s">
+      <c r="A10" s="125" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="143" t="s">
-        <v>1057</v>
+        <v>1039</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>1056</v>
+        <v>1269</v>
       </c>
       <c r="D10" s="73" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">2020_A=1 2019_A=1 2018_A=1         </v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>1064</v>
+        <v>1046</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>1063</v>
+        <v>1045</v>
       </c>
       <c r="G10" s="142" t="s">
-        <v>1245</v>
+        <v>1224</v>
       </c>
       <c r="H10" s="126"/>
       <c r="I10" s="54" t="s">
-        <v>1064</v>
+        <v>1046</v>
       </c>
       <c r="J10" s="54" t="s">
-        <v>1063</v>
+        <v>1045</v>
       </c>
       <c r="K10" s="142" t="s">
-        <v>1245</v>
+        <v>1224</v>
       </c>
       <c r="L10" s="126"/>
       <c r="M10" s="97" t="s">
-        <v>1064</v>
+        <v>1046</v>
       </c>
       <c r="N10" s="54" t="s">
-        <v>1063</v>
+        <v>1045</v>
       </c>
       <c r="O10" s="142" t="s">
-        <v>1245</v>
+        <v>1224</v>
       </c>
       <c r="P10" s="122"/>
       <c r="Q10" s="54"/>
@@ -16956,12 +17006,24 @@
       <c r="AD10" s="54"/>
       <c r="AE10" s="54"/>
       <c r="AF10" s="122"/>
-      <c r="AG10" s="54"/>
-      <c r="AH10" s="54"/>
-      <c r="AI10" s="128"/>
-      <c r="AJ10" s="122"/>
-      <c r="AK10" s="122"/>
-      <c r="AL10" s="122"/>
+      <c r="AG10" s="54" t="s">
+        <v>1260</v>
+      </c>
+      <c r="AH10" s="54" t="s">
+        <v>1261</v>
+      </c>
+      <c r="AI10" s="128">
+        <v>50890</v>
+      </c>
+      <c r="AJ10" s="28">
+        <v>33233066500</v>
+      </c>
+      <c r="AK10" s="22" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AL10" s="23" t="s">
+        <v>1262</v>
+      </c>
       <c r="AM10" s="54"/>
       <c r="AN10" s="130"/>
       <c r="AO10" s="122"/>
@@ -16975,7 +17037,7 @@
       </c>
       <c r="AU10" s="64" t="str">
         <f t="shared" si="1"/>
-        <v>N° 8 Elvir SA</v>
+        <v>N° 8 Elle et Vire</v>
       </c>
       <c r="AV10" s="1">
         <f>RANK(BM10,$BM$3:$BM$122)+COUNTIF(BM$3:BM10,BM10)-1</f>
@@ -16983,7 +17045,7 @@
       </c>
       <c r="AW10" s="64" t="str">
         <f t="shared" si="2"/>
-        <v>N° 34 Elvir SA</v>
+        <v>N° 34 Elle et Vire</v>
       </c>
       <c r="AX10" s="65">
         <v>1</v>
@@ -17076,10 +17138,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>537</v>
+        <v>1294</v>
       </c>
       <c r="D11" s="73" t="str">
         <f t="shared" si="0"/>
@@ -17094,71 +17156,73 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="75" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="O11" s="45" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="P11" s="15"/>
       <c r="Q11" s="17" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="R11" s="24" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="S11" s="45" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="T11" s="15"/>
       <c r="U11" s="15" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="V11" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="W11" s="45" t="s">
         <v>541</v>
-      </c>
-      <c r="W11" s="45" t="s">
-        <v>554</v>
       </c>
       <c r="X11" s="15"/>
       <c r="Y11" s="17" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="Z11" s="17" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="AA11" s="45" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="AB11" s="15"/>
       <c r="AC11" s="17"/>
       <c r="AD11" s="17" t="s">
-        <v>1125</v>
+        <v>1107</v>
       </c>
       <c r="AE11" s="45" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="AF11" s="26"/>
       <c r="AG11" s="17" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="AH11" s="17" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="AI11" s="21">
         <v>2350</v>
       </c>
       <c r="AJ11" s="46" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="AK11" s="23" t="s">
-        <v>509</v>
-      </c>
-      <c r="AL11" s="23"/>
+        <v>1272</v>
+      </c>
+      <c r="AL11" s="23" t="s">
+        <v>1271</v>
+      </c>
       <c r="AM11" s="23" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="AN11" s="47"/>
       <c r="AO11" s="26"/>
@@ -17172,7 +17236,7 @@
       </c>
       <c r="AU11" s="64" t="str">
         <f t="shared" si="1"/>
-        <v>N° 9 Elchais (Ex. Sensient Dehydrated Flavors (Ex. SENSIENT NATURAL INGREDIENTS) )</v>
+        <v>N° 9 Elchais (Ex. Sensient Dehydrated Flavors )</v>
       </c>
       <c r="AV11" s="1">
         <f>RANK(BM11,$BM$3:$BM$122)+COUNTIF(BM$3:BM11,BM11)-1</f>
@@ -17180,7 +17244,7 @@
       </c>
       <c r="AW11" s="64" t="str">
         <f t="shared" si="2"/>
-        <v>N° 35 Elchais (Ex. Sensient Dehydrated Flavors (Ex. SENSIENT NATURAL INGREDIENTS) )</v>
+        <v>N° 35 Elchais (Ex. Sensient Dehydrated Flavors )</v>
       </c>
       <c r="AX11" s="64"/>
       <c r="AY11" s="64"/>
@@ -17277,7 +17341,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>22</v>
@@ -17295,33 +17359,33 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="75" t="s">
-        <v>1070</v>
+        <v>1052</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>1208</v>
+        <v>1190</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="P12" s="17"/>
       <c r="Q12" s="17" t="s">
-        <v>1184</v>
+        <v>1166</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>1187</v>
+        <v>1169</v>
       </c>
       <c r="S12" s="17" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="T12" s="17"/>
       <c r="U12" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="V12" s="17" t="s">
-        <v>1210</v>
+        <v>1192</v>
       </c>
       <c r="W12" s="17" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
@@ -17333,28 +17397,30 @@
       <c r="AE12" s="17"/>
       <c r="AF12" s="17"/>
       <c r="AG12" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AH12" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AI12" s="41">
         <v>51100</v>
       </c>
       <c r="AJ12" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AK12" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="AL12" s="23"/>
+        <v>1273</v>
+      </c>
+      <c r="AL12" s="23" t="s">
+        <v>1274</v>
+      </c>
       <c r="AM12" s="23"/>
       <c r="AN12" s="25"/>
       <c r="AO12" s="17" t="s">
         <v>23</v>
       </c>
       <c r="AP12" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AQ12" s="25" t="s">
         <v>24</v>
@@ -17363,7 +17429,7 @@
         <v>25</v>
       </c>
       <c r="AS12" s="25" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AT12" s="1">
         <f>RANK(BL12,$BL$3:$BL$122)+COUNTIF(BL$3:BL12,BL12)-1</f>
@@ -17472,7 +17538,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>19</v>
@@ -17490,33 +17556,33 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="75" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>1139</v>
+        <v>1121</v>
       </c>
       <c r="P13" s="17"/>
       <c r="Q13" s="17" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="R13" s="120" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>1139</v>
+        <v>1121</v>
       </c>
       <c r="T13" s="17"/>
       <c r="U13" s="17" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="V13" s="17" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="W13" s="17" t="s">
-        <v>1139</v>
+        <v>1121</v>
       </c>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
@@ -17528,23 +17594,25 @@
       <c r="AE13" s="17"/>
       <c r="AF13" s="17"/>
       <c r="AG13" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AH13" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AI13" s="41">
         <v>10700</v>
       </c>
       <c r="AJ13" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK13" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL13" s="23"/>
+        <v>1276</v>
+      </c>
+      <c r="AL13" s="23" t="s">
+        <v>1275</v>
+      </c>
       <c r="AM13" s="23" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="AN13" s="25" t="s">
         <v>20</v>
@@ -17554,7 +17622,7 @@
       </c>
       <c r="AP13" s="17"/>
       <c r="AQ13" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AR13" s="42" t="s">
         <v>21</v>
@@ -17667,10 +17735,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="D14" s="73" t="str">
         <f t="shared" si="0"/>
@@ -17685,33 +17753,33 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="75" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>1134</v>
+        <v>1116</v>
       </c>
       <c r="P14" s="15"/>
       <c r="Q14" s="17" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="R14" s="24" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="S14" s="17" t="s">
-        <v>1134</v>
+        <v>1116</v>
       </c>
       <c r="T14" s="15"/>
       <c r="U14" s="17" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="W14" s="17" t="s">
-        <v>1134</v>
+        <v>1116</v>
       </c>
       <c r="X14" s="15"/>
       <c r="Y14" s="17"/>
@@ -17723,23 +17791,25 @@
       <c r="AE14" s="17"/>
       <c r="AF14" s="26"/>
       <c r="AG14" s="15" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="AH14" s="17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AI14" s="21">
         <v>51100</v>
       </c>
       <c r="AJ14" s="46" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="AK14" s="23" t="s">
-        <v>526</v>
-      </c>
-      <c r="AL14" s="23"/>
+        <v>1278</v>
+      </c>
+      <c r="AL14" s="23" t="s">
+        <v>1277</v>
+      </c>
       <c r="AM14" s="23" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="AN14" s="47"/>
       <c r="AO14" s="26"/>
@@ -17851,13 +17921,13 @@
     </row>
     <row r="15" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>905</v>
+        <v>1290</v>
       </c>
       <c r="D15" s="73" t="str">
         <f t="shared" si="0"/>
@@ -17876,26 +17946,26 @@
       <c r="O15" s="17"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="17" t="s">
-        <v>1184</v>
+        <v>1166</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>1188</v>
+        <v>1170</v>
       </c>
       <c r="S15" s="17" t="s">
-        <v>1189</v>
+        <v>1171</v>
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="17" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>1211</v>
+        <v>1193</v>
       </c>
       <c r="W15" s="17" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="X15" s="15" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
@@ -17906,21 +17976,23 @@
       <c r="AE15" s="17"/>
       <c r="AF15" s="15"/>
       <c r="AG15" s="17" t="s">
-        <v>423</v>
+        <v>1291</v>
       </c>
       <c r="AH15" s="17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AI15" s="21">
         <v>51100</v>
       </c>
       <c r="AJ15" s="15"/>
       <c r="AK15" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="AL15" s="22"/>
+        <v>1281</v>
+      </c>
+      <c r="AL15" s="23" t="s">
+        <v>1279</v>
+      </c>
       <c r="AM15" s="23" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="AN15" s="30"/>
       <c r="AO15" s="26"/>
@@ -17934,7 +18006,7 @@
       </c>
       <c r="AU15" s="64" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">N° 13 URCA UMR -Stress Environnementaux et BIOsurveillance des milieux aquatiques (SEBIO) - Bâtiment 18 - UFR Sciences Exactes et Naturelles,  </v>
+        <v>N° 13 URCA Stress Environnementaux et BIOsurveillance des milieux aquatiques</v>
       </c>
       <c r="AV15" s="1">
         <f>RANK(BM15,$BM$3:$BM$122)+COUNTIF(BM$3:BM15,BM15)-1</f>
@@ -17942,7 +18014,7 @@
       </c>
       <c r="AW15" s="64" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">N° 2 URCA UMR -Stress Environnementaux et BIOsurveillance des milieux aquatiques (SEBIO) - Bâtiment 18 - UFR Sciences Exactes et Naturelles,  </v>
+        <v>N° 2 URCA Stress Environnementaux et BIOsurveillance des milieux aquatiques</v>
       </c>
       <c r="AX15" s="64"/>
       <c r="AY15" s="64"/>
@@ -18030,13 +18102,13 @@
     </row>
     <row r="16" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>906</v>
+        <v>1292</v>
       </c>
       <c r="D16" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18051,13 +18123,13 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="75" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>1209</v>
+        <v>1191</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>1146</v>
+        <v>1128</v>
       </c>
       <c r="P16" s="15"/>
       <c r="Q16" s="17"/>
@@ -18065,13 +18137,13 @@
       <c r="S16" s="15"/>
       <c r="T16" s="15"/>
       <c r="U16" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>1212</v>
+        <v>1194</v>
       </c>
       <c r="W16" s="17" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="X16" s="15"/>
       <c r="Y16" s="15"/>
@@ -18079,40 +18151,42 @@
       <c r="AA16" s="15"/>
       <c r="AB16" s="15"/>
       <c r="AC16" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AD16" s="17" t="s">
-        <v>1222</v>
+        <v>1204</v>
       </c>
       <c r="AE16" s="17" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="AF16" s="15"/>
       <c r="AG16" s="17" t="s">
-        <v>887</v>
+        <v>1293</v>
       </c>
       <c r="AH16" s="17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AI16" s="21">
         <v>51100</v>
       </c>
       <c r="AJ16" s="15"/>
       <c r="AK16" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="AL16" s="22"/>
+        <v>1280</v>
+      </c>
+      <c r="AL16" s="23" t="s">
+        <v>1282</v>
+      </c>
       <c r="AM16" s="23" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="AN16" s="30"/>
       <c r="AO16" s="17" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="AP16" s="24"/>
       <c r="AQ16" s="26"/>
       <c r="AR16" s="42" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="AS16" s="26"/>
       <c r="AT16" s="1">
@@ -18121,7 +18195,7 @@
       </c>
       <c r="AU16" s="64" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">N° 14 Fractionnement des Agroressources et Environnement (FARE) INRA URCA UMR A 614 - Bâtiment 18 - UFR Sciences Exactes et Naturelles, </v>
+        <v xml:space="preserve">N° 14 URCA Fractionnement des Agroressources et Environnement </v>
       </c>
       <c r="AV16" s="1">
         <f>RANK(BM16,$BM$3:$BM$122)+COUNTIF(BM$3:BM16,BM16)-1</f>
@@ -18129,7 +18203,7 @@
       </c>
       <c r="AW16" s="64" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">N° 4 Fractionnement des Agroressources et Environnement (FARE) INRA URCA UMR A 614 - Bâtiment 18 - UFR Sciences Exactes et Naturelles, </v>
+        <v xml:space="preserve">N° 4 URCA Fractionnement des Agroressources et Environnement </v>
       </c>
       <c r="AX16" s="64"/>
       <c r="AY16" s="64"/>
@@ -18218,14 +18292,14 @@
       <c r="CB16" s="35"/>
     </row>
     <row r="17" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
-        <v>394</v>
+      <c r="A17" s="12" t="s">
+        <v>388</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="D17" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18240,23 +18314,23 @@
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
       <c r="M17" s="75" t="s">
-        <v>1140</v>
+        <v>1122</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>1141</v>
+        <v>1123</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>1142</v>
+        <v>1124</v>
       </c>
       <c r="P17" s="17"/>
       <c r="Q17" s="17" t="s">
-        <v>1197</v>
+        <v>1179</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>1204</v>
+        <v>1186</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>1205</v>
+        <v>1187</v>
       </c>
       <c r="T17" s="17"/>
       <c r="U17" s="17"/>
@@ -18272,35 +18346,37 @@
       <c r="AE17" s="17"/>
       <c r="AF17" s="17"/>
       <c r="AG17" s="17" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="AH17" s="17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AI17" s="21">
         <v>51100</v>
       </c>
       <c r="AJ17" s="28"/>
       <c r="AK17" s="22" t="s">
-        <v>898</v>
-      </c>
-      <c r="AL17" s="22"/>
+        <v>1284</v>
+      </c>
+      <c r="AL17" s="22" t="s">
+        <v>1283</v>
+      </c>
       <c r="AM17" s="23" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="AN17" s="15"/>
       <c r="AO17" s="17" t="s">
-        <v>901</v>
+        <v>886</v>
       </c>
       <c r="AP17" s="24"/>
       <c r="AQ17" s="17" t="s">
-        <v>900</v>
+        <v>885</v>
       </c>
       <c r="AR17" s="60" t="s">
-        <v>899</v>
+        <v>884</v>
       </c>
       <c r="AS17" s="25" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AT17" s="1">
         <f>RANK(BL17,$BL$3:$BL$122)+COUNTIF(BL$3:BL17,BL17)-1</f>
@@ -18411,10 +18487,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>1196</v>
+        <v>1178</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>1238</v>
+        <v>1288</v>
       </c>
       <c r="D18" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18429,23 +18505,23 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="75" t="s">
-        <v>1239</v>
+        <v>1218</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>1240</v>
+        <v>1219</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>1241</v>
+        <v>1220</v>
       </c>
       <c r="P18" s="15"/>
       <c r="Q18" s="17" t="s">
-        <v>1202</v>
+        <v>1184</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>1200</v>
+        <v>1182</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>1201</v>
+        <v>1183</v>
       </c>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
@@ -18461,23 +18537,25 @@
       <c r="AE18" s="17"/>
       <c r="AF18" s="15"/>
       <c r="AG18" s="17" t="s">
-        <v>1234</v>
+        <v>1289</v>
       </c>
       <c r="AH18" s="17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AI18" s="21">
         <v>51680</v>
       </c>
       <c r="AJ18" s="28" t="s">
-        <v>1235</v>
+        <v>1216</v>
       </c>
       <c r="AK18" s="22" t="s">
-        <v>1236</v>
-      </c>
-      <c r="AL18" s="22"/>
+        <v>1281</v>
+      </c>
+      <c r="AL18" s="22" t="s">
+        <v>1285</v>
+      </c>
       <c r="AM18" s="23" t="s">
-        <v>1237</v>
+        <v>1217</v>
       </c>
       <c r="AN18" s="30"/>
       <c r="AO18" s="26"/>
@@ -18491,7 +18569,7 @@
       </c>
       <c r="AU18" s="64" t="str">
         <f t="shared" si="1"/>
-        <v>N° 16 U.F.R. SCIENCES EXACTES ET NATURELLES, Laboratoire d'œnologie, Unité de recherche Vignes et Vins de Champagne (URVVC, EA 4707)</v>
+        <v>N° 16 Laboratoire d'œnologie, Unité de recherche Vignes et Vins de Champagne</v>
       </c>
       <c r="AV18" s="1">
         <f>RANK(BM18,$BM$3:$BM$122)+COUNTIF(BM$3:BM18,BM18)-1</f>
@@ -18499,7 +18577,7 @@
       </c>
       <c r="AW18" s="64" t="str">
         <f t="shared" si="2"/>
-        <v>N° 6 U.F.R. SCIENCES EXACTES ET NATURELLES, Laboratoire d'œnologie, Unité de recherche Vignes et Vins de Champagne (URVVC, EA 4707)</v>
+        <v>N° 6 Laboratoire d'œnologie, Unité de recherche Vignes et Vins de Champagne</v>
       </c>
       <c r="AX18" s="64"/>
       <c r="AY18" s="64"/>
@@ -18590,10 +18668,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="D19" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18612,33 +18690,33 @@
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="17" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="R19" s="120" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="T19" s="17"/>
       <c r="U19" s="17" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="V19" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="W19" s="17" t="s">
         <v>503</v>
-      </c>
-      <c r="W19" s="17" t="s">
-        <v>514</v>
       </c>
       <c r="X19" s="17"/>
       <c r="Y19" s="17" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="Z19" s="17" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="AA19" s="17" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="AB19" s="17"/>
       <c r="AC19" s="17"/>
@@ -18646,39 +18724,41 @@
       <c r="AE19" s="17"/>
       <c r="AF19" s="17"/>
       <c r="AG19" s="25" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="AH19" s="17" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="AI19" s="11">
         <v>51200</v>
       </c>
       <c r="AJ19" s="46" t="s">
-        <v>499</v>
-      </c>
-      <c r="AK19" s="52" t="s">
-        <v>500</v>
-      </c>
-      <c r="AL19" s="52"/>
+        <v>490</v>
+      </c>
+      <c r="AK19" s="22" t="s">
+        <v>1287</v>
+      </c>
+      <c r="AL19" s="52" t="s">
+        <v>1286</v>
+      </c>
       <c r="AM19" s="23" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="AN19" s="17"/>
       <c r="AO19" s="17" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="AP19" s="25" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="AQ19" s="25" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="AR19" s="23" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="AS19" s="25" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AT19" s="1">
         <f>RANK(BL19,$BL$3:$BL$122)+COUNTIF(BL$3:BL19,BL19)-1</f>
@@ -18784,13 +18864,13 @@
     </row>
     <row r="20" spans="1:80" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="51" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="D20" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18809,33 +18889,33 @@
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="17" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="R20" s="120" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="T20" s="17"/>
       <c r="U20" s="17" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="V20" s="17" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="W20" s="17" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="X20" s="17"/>
       <c r="Y20" s="17" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="Z20" s="17" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="AA20" s="17" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="AB20" s="17"/>
       <c r="AC20" s="17"/>
@@ -18843,19 +18923,19 @@
       <c r="AE20" s="17"/>
       <c r="AF20" s="17"/>
       <c r="AG20" s="25" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="AH20" s="17" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="AI20" s="11">
         <v>10380</v>
       </c>
       <c r="AJ20" s="46" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="AK20" s="52" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="AL20" s="52"/>
       <c r="AM20" s="25"/>
@@ -18972,10 +19052,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>1143</v>
+        <v>1125</v>
       </c>
       <c r="D21" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18990,13 +19070,13 @@
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
       <c r="M21" s="75" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>1144</v>
+        <v>1126</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>1145</v>
+        <v>1127</v>
       </c>
       <c r="P21" s="15"/>
       <c r="Q21" s="17"/>
@@ -19016,34 +19096,34 @@
       <c r="AE21" s="17"/>
       <c r="AF21" s="15"/>
       <c r="AG21" s="11" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="AH21" s="17" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="AI21" s="21">
         <v>10000</v>
       </c>
       <c r="AJ21" s="28"/>
       <c r="AK21" s="56" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="AL21" s="56"/>
       <c r="AM21" s="23" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="AN21" s="17" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="AO21" s="17" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="AP21" s="17" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="AQ21" s="17"/>
       <c r="AR21" s="23" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="AS21" s="25"/>
       <c r="AT21" s="1">
@@ -19149,10 +19229,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="D22" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19167,13 +19247,13 @@
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
       <c r="M22" s="75" t="s">
-        <v>1148</v>
+        <v>1130</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>1147</v>
+        <v>1129</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>1149</v>
+        <v>1131</v>
       </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="17"/>
@@ -19193,32 +19273,32 @@
       <c r="AE22" s="17"/>
       <c r="AF22" s="15"/>
       <c r="AG22" s="11" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="AH22" s="17" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="AI22" s="21">
         <v>76100</v>
       </c>
       <c r="AJ22" s="28" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="AK22" s="56" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="AL22" s="56"/>
       <c r="AM22" s="23" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="AN22" s="17"/>
       <c r="AO22" s="17"/>
       <c r="AP22" s="17"/>
       <c r="AQ22" s="17" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="AR22" s="23" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="AS22" s="25"/>
       <c r="AT22" s="1">
@@ -19324,10 +19404,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="D23" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19342,13 +19422,13 @@
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
       <c r="M23" s="75" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="N23" s="17" t="s">
-        <v>1151</v>
+        <v>1133</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>1150</v>
+        <v>1132</v>
       </c>
       <c r="P23" s="15"/>
       <c r="Q23" s="17"/>
@@ -19368,33 +19448,33 @@
       <c r="AE23" s="17"/>
       <c r="AF23" s="15"/>
       <c r="AG23" s="11" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="AH23" s="17" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="AI23" s="21">
         <v>89150</v>
       </c>
       <c r="AJ23" s="28" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AK23" s="56" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AL23" s="56"/>
       <c r="AM23" s="23" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AN23" s="30"/>
       <c r="AO23" s="17" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="AP23" s="17" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="AQ23" s="25" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AR23" s="23"/>
       <c r="AS23" s="25"/>
@@ -19497,14 +19577,14 @@
       <c r="CB23" s="16"/>
     </row>
     <row r="24" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>435</v>
+      <c r="A24" s="12" t="s">
+        <v>802</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D24" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19523,13 +19603,13 @@
       <c r="O24" s="17"/>
       <c r="P24" s="15"/>
       <c r="Q24" s="17" t="s">
-        <v>1070</v>
+        <v>1052</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>1206</v>
+        <v>1188</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>1207</v>
+        <v>1189</v>
       </c>
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
@@ -19541,46 +19621,46 @@
       <c r="AA24" s="15"/>
       <c r="AB24" s="15"/>
       <c r="AC24" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="AD24" s="17" t="s">
+        <v>1206</v>
+      </c>
+      <c r="AE24" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="AF24" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG24" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="AH24" s="17" t="s">
         <v>272</v>
-      </c>
-      <c r="AD24" s="17" t="s">
-        <v>1224</v>
-      </c>
-      <c r="AE24" s="17" t="s">
-        <v>574</v>
-      </c>
-      <c r="AF24" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="AG24" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="AH24" s="17" t="s">
-        <v>276</v>
       </c>
       <c r="AI24" s="21">
         <v>51110</v>
       </c>
       <c r="AJ24" s="28" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="AK24" s="23" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="AL24" s="23"/>
       <c r="AM24" s="23" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="AN24" s="15"/>
       <c r="AO24" s="24" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="AP24" s="17" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="AQ24" s="26"/>
       <c r="AR24" s="42" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="AS24" s="26"/>
       <c r="AT24" s="1">
@@ -19688,10 +19768,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D25" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19714,13 +19794,13 @@
       <c r="S25" s="17"/>
       <c r="T25" s="17"/>
       <c r="U25" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>1216</v>
+        <v>1198</v>
       </c>
       <c r="W25" s="17" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="X25" s="17"/>
       <c r="Y25" s="17"/>
@@ -19728,35 +19808,35 @@
       <c r="AA25" s="17"/>
       <c r="AB25" s="17"/>
       <c r="AC25" s="17" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AD25" s="17" t="s">
-        <v>1225</v>
+        <v>1207</v>
       </c>
       <c r="AE25" s="17" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AF25" s="17" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="AG25" s="11" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="AH25" s="11" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AI25" s="41">
         <v>10110</v>
       </c>
       <c r="AJ25" s="28" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="AK25" s="23" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="AL25" s="23"/>
       <c r="AM25" s="23" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="AN25" s="11"/>
       <c r="AO25" s="17"/>
@@ -19869,7 +19949,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>65</v>
@@ -19891,13 +19971,13 @@
       <c r="O26" s="17"/>
       <c r="P26" s="17"/>
       <c r="Q26" s="17" t="s">
-        <v>1166</v>
+        <v>1148</v>
       </c>
       <c r="R26" s="17" t="s">
-        <v>1167</v>
+        <v>1149</v>
       </c>
       <c r="S26" s="17" t="s">
-        <v>1168</v>
+        <v>1150</v>
       </c>
       <c r="T26" s="17"/>
       <c r="U26" s="17"/>
@@ -19913,19 +19993,19 @@
       <c r="AE26" s="17"/>
       <c r="AF26" s="17"/>
       <c r="AG26" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AH26" s="11" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AI26" s="41">
         <v>52100</v>
       </c>
       <c r="AJ26" s="28" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AK26" s="23" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AL26" s="23"/>
       <c r="AM26" s="23"/>
@@ -20040,10 +20120,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>1169</v>
+        <v>1151</v>
       </c>
       <c r="D27" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20062,13 +20142,13 @@
       <c r="O27" s="17"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="17" t="s">
-        <v>1170</v>
+        <v>1152</v>
       </c>
       <c r="R27" s="17" t="s">
-        <v>1171</v>
+        <v>1153</v>
       </c>
       <c r="S27" s="17" t="s">
-        <v>1172</v>
+        <v>1154</v>
       </c>
       <c r="T27" s="15"/>
       <c r="U27" s="17"/>
@@ -20084,32 +20164,32 @@
       <c r="AE27" s="17"/>
       <c r="AF27" s="15"/>
       <c r="AG27" s="11" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="AH27" s="17" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="AI27" s="21">
         <v>8430</v>
       </c>
       <c r="AJ27" s="28" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="AK27" s="56" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="AL27" s="56"/>
       <c r="AM27" s="23" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="AN27" s="30"/>
       <c r="AO27" s="17" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="AP27" s="17"/>
       <c r="AQ27" s="17"/>
       <c r="AR27" s="23" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="AS27" s="25"/>
       <c r="AT27" s="1">
@@ -20212,13 +20292,13 @@
     </row>
     <row r="28" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="125" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B28" s="125" t="s">
-        <v>1173</v>
+        <v>1155</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>1174</v>
+        <v>1156</v>
       </c>
       <c r="D28" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20237,13 +20317,13 @@
       <c r="O28" s="54"/>
       <c r="P28" s="122"/>
       <c r="Q28" s="54" t="s">
-        <v>1166</v>
+        <v>1148</v>
       </c>
       <c r="R28" s="54" t="s">
-        <v>1175</v>
+        <v>1157</v>
       </c>
       <c r="S28" s="20" t="s">
-        <v>1176</v>
+        <v>1158</v>
       </c>
       <c r="T28" s="122"/>
       <c r="U28" s="122"/>
@@ -20259,10 +20339,10 @@
       <c r="AE28" s="54"/>
       <c r="AF28" s="122"/>
       <c r="AG28" s="54" t="s">
-        <v>1177</v>
+        <v>1159</v>
       </c>
       <c r="AH28" s="54" t="s">
-        <v>1178</v>
+        <v>1160</v>
       </c>
       <c r="AI28" s="128">
         <v>45730</v>
@@ -20379,13 +20459,13 @@
     </row>
     <row r="29" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="125" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B29" s="125" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>1179</v>
+        <v>1161</v>
       </c>
       <c r="D29" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20404,13 +20484,13 @@
       <c r="O29" s="54"/>
       <c r="P29" s="54"/>
       <c r="Q29" s="54" t="s">
-        <v>1180</v>
+        <v>1162</v>
       </c>
       <c r="R29" s="54" t="s">
-        <v>1181</v>
+        <v>1163</v>
       </c>
       <c r="S29" s="20" t="s">
-        <v>1182</v>
+        <v>1164</v>
       </c>
       <c r="T29" s="54"/>
       <c r="U29" s="54"/>
@@ -20426,10 +20506,10 @@
       <c r="AE29" s="54"/>
       <c r="AF29" s="54"/>
       <c r="AG29" s="54" t="s">
-        <v>1183</v>
+        <v>1165</v>
       </c>
       <c r="AH29" s="54" t="s">
-        <v>935</v>
+        <v>918</v>
       </c>
       <c r="AI29" s="128">
         <v>8000</v>
@@ -20549,10 +20629,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="D30" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20571,13 +20651,13 @@
       <c r="O30" s="17"/>
       <c r="P30" s="17"/>
       <c r="Q30" s="17" t="s">
-        <v>1184</v>
+        <v>1166</v>
       </c>
       <c r="R30" s="17" t="s">
-        <v>1185</v>
+        <v>1167</v>
       </c>
       <c r="S30" s="17" t="s">
-        <v>1186</v>
+        <v>1168</v>
       </c>
       <c r="T30" s="17"/>
       <c r="U30" s="17"/>
@@ -20593,35 +20673,35 @@
       <c r="AE30" s="17"/>
       <c r="AF30" s="48"/>
       <c r="AG30" s="54" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="AH30" s="17" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="AI30" s="21">
         <v>51500</v>
       </c>
       <c r="AJ30" s="46" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="AK30" s="23" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="AL30" s="23"/>
       <c r="AM30" s="23"/>
       <c r="AN30" s="45" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="AO30" s="17" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="AP30" s="17" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="AQ30" s="17"/>
       <c r="AR30" s="48"/>
       <c r="AS30" s="25" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AT30" s="1">
         <f>RANK(BL30,$BL$3:$BL$122)+COUNTIF(BL$3:BL30,BL30)-1</f>
@@ -20729,7 +20809,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D31" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20752,16 +20832,16 @@
       <c r="S31" s="17"/>
       <c r="T31" s="17"/>
       <c r="U31" s="17" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="V31" s="17" t="s">
-        <v>1218</v>
+        <v>1200</v>
       </c>
       <c r="W31" s="17" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="X31" s="17" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="Y31" s="17"/>
       <c r="Z31" s="17"/>
@@ -20775,7 +20855,7 @@
         <v>56</v>
       </c>
       <c r="AH31" s="11" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AI31" s="41">
         <v>51053</v>
@@ -20784,7 +20864,7 @@
         <v>58</v>
       </c>
       <c r="AK31" s="23" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AL31" s="23"/>
       <c r="AM31" s="23"/>
@@ -20794,13 +20874,13 @@
       </c>
       <c r="AP31" s="17"/>
       <c r="AQ31" s="11" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="AR31" s="23" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="AS31" s="25" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AT31" s="1">
         <f>RANK(BL31,$BL$3:$BL$122)+COUNTIF(BL$3:BL31,BL31)-1</f>
@@ -20905,10 +20985,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="D32" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20931,13 +21011,13 @@
       <c r="S32" s="17"/>
       <c r="T32" s="17"/>
       <c r="U32" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="V32" s="17" t="s">
-        <v>1219</v>
+        <v>1201</v>
       </c>
       <c r="W32" s="17" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="X32" s="17"/>
       <c r="Y32" s="17"/>
@@ -20949,7 +21029,7 @@
       <c r="AE32" s="17"/>
       <c r="AF32" s="17"/>
       <c r="AG32" s="11" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="AH32" s="11" t="s">
         <v>69</v>
@@ -20958,17 +21038,17 @@
         <v>51100</v>
       </c>
       <c r="AJ32" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK32" s="53" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="AL32" s="53"/>
       <c r="AM32" s="23" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="AN32" s="25" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="AO32" s="17"/>
       <c r="AP32" s="17"/>
@@ -21074,12 +21154,12 @@
       <c r="CB32" s="35"/>
     </row>
     <row r="33" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
-        <v>368</v>
+      <c r="A33" s="12" t="s">
+        <v>363</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="17" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="D33" s="73" t="str">
         <f t="shared" si="0"/>
@@ -21102,13 +21182,13 @@
       <c r="S33" s="15"/>
       <c r="T33" s="15"/>
       <c r="U33" s="17" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="V33" s="17" t="s">
-        <v>1220</v>
+        <v>1202</v>
       </c>
       <c r="W33" s="17" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="X33" s="15"/>
       <c r="Y33" s="15"/>
@@ -21120,34 +21200,34 @@
       <c r="AE33" s="17"/>
       <c r="AF33" s="15"/>
       <c r="AG33" s="17" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="AH33" s="17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AI33" s="21">
         <v>51100</v>
       </c>
       <c r="AJ33" s="28" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="AK33" s="23" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="AL33" s="23"/>
       <c r="AM33" s="23" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="AN33" s="30"/>
       <c r="AO33" s="15" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="AP33" s="24"/>
       <c r="AQ33" s="17" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="AR33" s="23" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="AS33" s="26"/>
       <c r="AT33" s="1">
@@ -21284,25 +21364,25 @@
       <c r="X34" s="17"/>
       <c r="Y34" s="17"/>
       <c r="Z34" s="17" t="s">
-        <v>1119</v>
+        <v>1101</v>
       </c>
       <c r="AA34" s="17" t="s">
-        <v>1118</v>
+        <v>1100</v>
       </c>
       <c r="AB34" s="17"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="17" t="s">
-        <v>1117</v>
+        <v>1099</v>
       </c>
       <c r="AE34" s="17" t="s">
-        <v>1118</v>
+        <v>1100</v>
       </c>
       <c r="AF34" s="17"/>
       <c r="AG34" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AH34" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AI34" s="41">
         <v>10160</v>
@@ -21437,7 +21517,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="69" t="s">
-        <v>1102</v>
+        <v>1084</v>
       </c>
       <c r="D35" s="73" t="str">
         <f t="shared" ref="D35:D66" si="19">IF(AX35&lt;&gt;0,"2020_A="&amp;AX35," ")&amp;IF(AY35&lt;&gt;0," ; 2020_i="&amp;AY35," ")&amp;IF(AZ35&lt;&gt;0,"2019_A="&amp;AZ35," ")&amp;IF(BA35&lt;&gt;0," ; 2019_i="&amp;BA35," ")&amp;IF(BB35&lt;&gt;0,"2018_A="&amp;BB35," ")&amp;IF(BC35&lt;&gt;0," ; 2018_i="&amp;BC35," ")&amp;IF(BD35&lt;&gt;0," ; 2017_A="&amp;BD35," ")&amp;IF(BE35&lt;&gt;0," ; 2017_i="&amp;BE35," ")&amp;IF(BF35&lt;&gt;0," ; 2016_A="&amp;BF35," ")&amp;IF(BG35&lt;&gt;0," ; 2016_i="&amp;BG35," ")&amp;IF(BH35&lt;&gt;0," ; 2015_A="&amp;BH35," ")&amp;IF(BI35&lt;&gt;0," ; 2015_i="&amp;BI35," ")&amp;IF(BJ35&lt;&gt;0," ; 2014_A="&amp;BJ35," ")&amp;IF(BK35&lt;&gt;0," ; 2014_i="&amp;BK35," ")</f>
@@ -21464,41 +21544,41 @@
       <c r="W35" s="69"/>
       <c r="X35" s="84"/>
       <c r="Y35" s="69" t="s">
-        <v>1070</v>
+        <v>1052</v>
       </c>
       <c r="Z35" s="69" t="s">
-        <v>1105</v>
+        <v>1087</v>
       </c>
       <c r="AA35" s="69" t="s">
-        <v>1104</v>
+        <v>1086</v>
       </c>
       <c r="AB35" s="84"/>
       <c r="AC35" s="69" t="s">
-        <v>1070</v>
+        <v>1052</v>
       </c>
       <c r="AD35" s="69" t="s">
-        <v>1103</v>
+        <v>1085</v>
       </c>
       <c r="AE35" s="69" t="s">
-        <v>1104</v>
+        <v>1086</v>
       </c>
       <c r="AF35" s="84"/>
       <c r="AG35" s="105" t="s">
-        <v>1098</v>
+        <v>1080</v>
       </c>
       <c r="AH35" s="69" t="s">
-        <v>1099</v>
+        <v>1081</v>
       </c>
       <c r="AI35" s="86">
         <v>10700</v>
       </c>
       <c r="AJ35" s="69" t="s">
-        <v>1100</v>
+        <v>1082</v>
       </c>
       <c r="AK35" s="84"/>
       <c r="AL35" s="84"/>
       <c r="AM35" s="69" t="s">
-        <v>1101</v>
+        <v>1083</v>
       </c>
       <c r="AN35" s="90"/>
       <c r="AO35" s="84"/>
@@ -21611,10 +21691,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="100" t="s">
-        <v>1108</v>
+        <v>1090</v>
       </c>
       <c r="C36" s="69" t="s">
-        <v>1109</v>
+        <v>1091</v>
       </c>
       <c r="D36" s="73" t="str">
         <f t="shared" si="19"/>
@@ -21642,36 +21722,36 @@
       <c r="X36" s="84"/>
       <c r="Y36" s="84"/>
       <c r="Z36" s="69" t="s">
-        <v>1116</v>
+        <v>1098</v>
       </c>
       <c r="AA36" s="69" t="s">
-        <v>1115</v>
+        <v>1097</v>
       </c>
       <c r="AB36" s="84"/>
       <c r="AC36" s="69"/>
       <c r="AD36" s="69" t="s">
-        <v>1114</v>
+        <v>1096</v>
       </c>
       <c r="AE36" s="69" t="s">
-        <v>1115</v>
+        <v>1097</v>
       </c>
       <c r="AF36" s="84"/>
       <c r="AG36" s="105" t="s">
-        <v>1110</v>
+        <v>1092</v>
       </c>
       <c r="AH36" s="69" t="s">
-        <v>1111</v>
+        <v>1093</v>
       </c>
       <c r="AI36" s="86">
         <v>45550</v>
       </c>
       <c r="AJ36" s="69" t="s">
-        <v>1112</v>
+        <v>1094</v>
       </c>
       <c r="AK36" s="84"/>
       <c r="AL36" s="84"/>
       <c r="AM36" s="69" t="s">
-        <v>1113</v>
+        <v>1095</v>
       </c>
       <c r="AN36" s="90"/>
       <c r="AO36" s="84"/>
@@ -21784,10 +21864,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D37" s="73" t="str">
         <f t="shared" si="19"/>
@@ -21818,35 +21898,35 @@
       <c r="AA37" s="15"/>
       <c r="AB37" s="15"/>
       <c r="AC37" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AD37" s="17" t="s">
-        <v>1226</v>
+        <v>1208</v>
       </c>
       <c r="AE37" s="17" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="AF37" s="15" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="AG37" s="17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="AH37" s="17" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="AI37" s="21">
         <v>8000</v>
       </c>
       <c r="AJ37" s="28" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="AK37" s="22" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="AL37" s="22"/>
       <c r="AM37" s="23" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="AN37" s="30"/>
       <c r="AO37" s="26"/>
@@ -21957,10 +22037,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D38" s="73" t="str">
         <f t="shared" si="19"/>
@@ -21991,33 +22071,33 @@
       <c r="AA38" s="15"/>
       <c r="AB38" s="15"/>
       <c r="AC38" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AD38" s="17" t="s">
-        <v>1227</v>
+        <v>1209</v>
       </c>
       <c r="AE38" s="17" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="AF38" s="15"/>
       <c r="AG38" s="17" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AH38" s="17" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AI38" s="21">
         <v>8300</v>
       </c>
       <c r="AJ38" s="28" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AK38" s="22" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AL38" s="22"/>
       <c r="AM38" s="23" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AN38" s="30"/>
       <c r="AO38" s="26"/>
@@ -22025,7 +22105,7 @@
       <c r="AQ38" s="26"/>
       <c r="AR38" s="26"/>
       <c r="AS38" s="48" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="AT38" s="1">
         <f>RANK(BL38,$BL$3:$BL$122)+COUNTIF(BL$3:BL38,BL38)-1</f>
@@ -22127,13 +22207,13 @@
     </row>
     <row r="39" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="D39" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22164,45 +22244,45 @@
       <c r="AA39" s="15"/>
       <c r="AB39" s="15"/>
       <c r="AC39" s="17" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AD39" s="17" t="s">
-        <v>1228</v>
+        <v>1210</v>
       </c>
       <c r="AE39" s="17" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="AF39" s="15" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="AG39" s="17" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="AH39" s="17" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AI39" s="21">
         <v>51096</v>
       </c>
       <c r="AJ39" s="15"/>
       <c r="AK39" s="23" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="AL39" s="23"/>
       <c r="AM39" s="17"/>
       <c r="AN39" s="25" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AO39" s="26"/>
       <c r="AP39" s="24"/>
       <c r="AQ39" s="11" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AR39" s="42" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AS39" s="25" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AT39" s="1">
         <f>RANK(BL39,$BL$3:$BL$122)+COUNTIF(BL$3:BL39,BL39)-1</f>
@@ -22347,53 +22427,53 @@
       <c r="AA40" s="17"/>
       <c r="AB40" s="17"/>
       <c r="AC40" s="17" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AD40" s="17" t="s">
-        <v>1229</v>
+        <v>1211</v>
       </c>
       <c r="AE40" s="17" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="AF40" s="17" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="AG40" s="11" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AH40" s="11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AI40" s="41">
         <v>51110</v>
       </c>
       <c r="AJ40" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK40" s="23" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="AL40" s="23"/>
       <c r="AM40" s="23" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="AN40" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AO40" s="17" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="AP40" s="17" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="AQ40" s="11" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="AR40" s="11" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="AS40" s="25" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AT40" s="1">
         <f>RANK(BL40,$BL$3:$BL$122)+COUNTIF(BL$3:BL40,BL40)-1</f>
@@ -22498,10 +22578,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D41" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22532,22 +22612,22 @@
       <c r="AA41" s="15"/>
       <c r="AB41" s="15"/>
       <c r="AC41" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AD41" s="17" t="s">
-        <v>1230</v>
+        <v>1212</v>
       </c>
       <c r="AE41" s="17" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="AF41" s="15" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="AG41" s="17" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="AH41" s="17" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AI41" s="21">
         <v>51530</v>
@@ -22556,11 +22636,11 @@
         <v>44</v>
       </c>
       <c r="AK41" s="22" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="AL41" s="22"/>
       <c r="AM41" s="23" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="AN41" s="30"/>
       <c r="AO41" s="26"/>
@@ -22568,7 +22648,7 @@
       <c r="AQ41" s="26"/>
       <c r="AR41" s="26"/>
       <c r="AS41" s="25" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AT41" s="1">
         <f>RANK(BL41,$BL$3:$BL$122)+COUNTIF(BL$3:BL41,BL41)-1</f>
@@ -22670,11 +22750,11 @@
     </row>
     <row r="42" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>384</v>
+        <v>1295</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="17" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D42" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22705,48 +22785,48 @@
       <c r="AA42" s="15"/>
       <c r="AB42" s="15"/>
       <c r="AC42" s="17" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AD42" s="17" t="s">
-        <v>1231</v>
+        <v>1213</v>
       </c>
       <c r="AE42" s="17" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="AF42" s="15" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AG42" s="17" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AH42" s="17" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AI42" s="21">
         <v>51686</v>
       </c>
       <c r="AJ42" s="28" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AK42" s="22" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="AL42" s="22"/>
       <c r="AM42" s="23" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="AN42" s="17" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AO42" s="17" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="AP42" s="24"/>
       <c r="AQ42" s="25" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AR42" s="42" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="AS42" s="26"/>
       <c r="AT42" s="1">
@@ -22852,10 +22932,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D43" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22886,38 +22966,38 @@
       <c r="AA43" s="15"/>
       <c r="AB43" s="15"/>
       <c r="AC43" s="17" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AD43" s="17" t="s">
-        <v>1232</v>
+        <v>1214</v>
       </c>
       <c r="AE43" s="17" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="AF43" s="15" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AG43" s="17" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AH43" s="17" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AI43" s="41">
         <v>67200</v>
       </c>
       <c r="AJ43" s="28" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AK43" s="22" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AL43" s="22"/>
       <c r="AM43" s="23" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AN43" s="17" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="AO43" s="17"/>
       <c r="AP43" s="17"/>
@@ -22926,7 +23006,7 @@
       </c>
       <c r="AR43" s="26"/>
       <c r="AS43" s="25" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AT43" s="1">
         <f>RANK(BL43,$BL$3:$BL$122)+COUNTIF(BL$3:BL43,BL43)-1</f>
@@ -23031,10 +23111,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="D44" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23065,35 +23145,35 @@
       <c r="AA44" s="15"/>
       <c r="AB44" s="15"/>
       <c r="AC44" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AD44" s="17" t="s">
-        <v>1233</v>
+        <v>1215</v>
       </c>
       <c r="AE44" s="17" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="AF44" s="15" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="AG44" s="17" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="AH44" s="17" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="AI44" s="21">
         <v>77440</v>
       </c>
       <c r="AJ44" s="28" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="AK44" s="22" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="AL44" s="22"/>
       <c r="AM44" s="23" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="AN44" s="30"/>
       <c r="AO44" s="26"/>
@@ -23207,7 +23287,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>1132</v>
+        <v>1114</v>
       </c>
       <c r="D45" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23238,46 +23318,46 @@
       <c r="AA45" s="17"/>
       <c r="AB45" s="17"/>
       <c r="AC45" s="17" t="s">
-        <v>1070</v>
+        <v>1052</v>
       </c>
       <c r="AD45" s="17" t="s">
-        <v>1130</v>
+        <v>1112</v>
       </c>
       <c r="AE45" s="17" t="s">
-        <v>1131</v>
+        <v>1113</v>
       </c>
       <c r="AF45" s="17"/>
       <c r="AG45" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AH45" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AI45" s="41">
         <v>51230</v>
       </c>
       <c r="AJ45" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK45" s="23" t="s">
         <v>95</v>
-      </c>
-      <c r="AK45" s="23" t="s">
-        <v>96</v>
       </c>
       <c r="AL45" s="23"/>
       <c r="AM45" s="23"/>
       <c r="AN45" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO45" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="AO45" s="17" t="s">
-        <v>98</v>
-      </c>
       <c r="AP45" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AQ45" s="25" t="s">
         <v>5</v>
       </c>
       <c r="AR45" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AS45" s="25"/>
       <c r="AT45" s="1">
@@ -23383,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D46" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23418,26 +23498,26 @@
       <c r="AB46" s="30"/>
       <c r="AC46" s="17"/>
       <c r="AD46" s="17" t="s">
-        <v>1126</v>
+        <v>1108</v>
       </c>
       <c r="AE46" s="17" t="s">
-        <v>1127</v>
+        <v>1109</v>
       </c>
       <c r="AF46" s="30"/>
       <c r="AG46" s="17" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="AH46" s="17" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="AI46" s="21">
         <v>45110</v>
       </c>
       <c r="AJ46" s="28" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AK46" s="58" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="AL46" s="58"/>
       <c r="AM46" s="17"/>
@@ -23550,10 +23630,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="D47" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23588,28 +23668,28 @@
       <c r="AE47" s="17"/>
       <c r="AF47" s="17"/>
       <c r="AG47" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AH47" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AI47" s="41">
         <v>2220</v>
       </c>
       <c r="AJ47" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK47" s="23" t="s">
         <v>110</v>
-      </c>
-      <c r="AK47" s="23" t="s">
-        <v>111</v>
       </c>
       <c r="AL47" s="23"/>
       <c r="AM47" s="23"/>
       <c r="AN47" s="25"/>
       <c r="AO47" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP47" s="17" t="s">
         <v>112</v>
-      </c>
-      <c r="AP47" s="17" t="s">
-        <v>113</v>
       </c>
       <c r="AQ47" s="25"/>
       <c r="AR47" s="42" t="s">
@@ -23717,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>6</v>
@@ -23755,19 +23835,19 @@
       <c r="AE48" s="17"/>
       <c r="AF48" s="17"/>
       <c r="AG48" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AH48" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AI48" s="43" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AJ48" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK48" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL48" s="23"/>
       <c r="AM48" s="23"/>
@@ -23776,7 +23856,7 @@
       <c r="AP48" s="17"/>
       <c r="AQ48" s="25"/>
       <c r="AR48" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AS48" s="25"/>
       <c r="AT48" s="1">
@@ -23880,10 +23960,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D49" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23918,23 +23998,23 @@
       <c r="AE49" s="17"/>
       <c r="AF49" s="17"/>
       <c r="AG49" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AH49" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AI49" s="43" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AJ49" s="28" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AK49" s="23" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AL49" s="23"/>
       <c r="AM49" s="23" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AN49" s="25"/>
       <c r="AO49" s="17"/>
@@ -24043,7 +24123,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>34</v>
@@ -24081,28 +24161,28 @@
       <c r="AE50" s="17"/>
       <c r="AF50" s="17"/>
       <c r="AG50" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AH50" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AI50" s="43" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AJ50" s="28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AK50" s="23" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AL50" s="23"/>
       <c r="AM50" s="23"/>
       <c r="AN50" s="25"/>
       <c r="AO50" s="17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AP50" s="17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AQ50" s="44" t="s">
         <v>35</v>
@@ -24212,10 +24292,10 @@
         <v>0</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="D51" s="73" t="str">
         <f t="shared" si="19"/>
@@ -24250,35 +24330,35 @@
       <c r="AE51" s="17"/>
       <c r="AF51" s="17"/>
       <c r="AG51" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AH51" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AI51" s="41">
         <v>8150</v>
       </c>
       <c r="AJ51" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AK51" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AL51" s="23"/>
       <c r="AM51" s="23"/>
       <c r="AN51" s="25"/>
       <c r="AO51" s="17" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AP51" s="17" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AQ51" s="25"/>
       <c r="AR51" s="23" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="AS51" s="25" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="AT51" s="1">
         <f>RANK(BL51,$BL$3:$BL$122)+COUNTIF(BL$3:BL51,BL51)-1</f>
@@ -24381,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>68</v>
@@ -24419,36 +24499,36 @@
       <c r="AE52" s="17"/>
       <c r="AF52" s="15"/>
       <c r="AG52" s="17" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AH52" s="17" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AI52" s="41">
         <v>8430</v>
       </c>
       <c r="AJ52" s="28" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AK52" s="22" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="AL52" s="22"/>
       <c r="AM52" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AN52" s="49"/>
       <c r="AO52" s="17" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="AP52" s="17" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="AQ52" s="23" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="AR52" s="42" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="AS52" s="26"/>
       <c r="AT52" s="1">
@@ -24552,7 +24632,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>38</v>
@@ -24590,24 +24670,24 @@
       <c r="AE53" s="17"/>
       <c r="AF53" s="17"/>
       <c r="AG53" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AH53" s="11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AI53" s="41">
         <v>10800</v>
       </c>
       <c r="AJ53" s="28" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AK53" s="23" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AL53" s="23"/>
       <c r="AM53" s="23"/>
       <c r="AN53" s="25" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="AO53" s="17"/>
       <c r="AP53" s="17"/>
@@ -24715,7 +24795,7 @@
         <v>0</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>26</v>
@@ -24753,19 +24833,19 @@
       <c r="AE54" s="17"/>
       <c r="AF54" s="17"/>
       <c r="AG54" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AH54" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AI54" s="41">
         <v>51100</v>
       </c>
       <c r="AJ54" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AK54" s="23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AL54" s="23"/>
       <c r="AM54" s="23"/>
@@ -24876,7 +24956,7 @@
         <v>0</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>27</v>
@@ -24914,37 +24994,37 @@
       <c r="AE55" s="17"/>
       <c r="AF55" s="17"/>
       <c r="AG55" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AH55" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AI55" s="41">
         <v>51100</v>
       </c>
       <c r="AJ55" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AK55" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AL55" s="23"/>
       <c r="AM55" s="23"/>
       <c r="AN55" s="25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AO55" s="17" t="s">
         <v>28</v>
       </c>
       <c r="AP55" s="17" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AQ55" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AR55" s="11"/>
       <c r="AS55" s="25" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AT55" s="1">
         <f>RANK(BL55,$BL$3:$BL$122)+COUNTIF(BL$3:BL55,BL55)-1</f>
@@ -25085,32 +25165,32 @@
       <c r="AE56" s="17"/>
       <c r="AF56" s="17"/>
       <c r="AG56" s="11" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AH56" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AI56" s="41">
         <v>51100</v>
       </c>
       <c r="AJ56" s="28" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AK56" s="23" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AL56" s="23"/>
       <c r="AM56" s="23"/>
       <c r="AN56" s="25"/>
       <c r="AO56" s="17" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AP56" s="17"/>
       <c r="AQ56" s="44" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AR56" s="42" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AS56" s="25"/>
       <c r="AT56" s="1">
@@ -25214,10 +25294,10 @@
         <v>0</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D57" s="73" t="str">
         <f t="shared" si="19"/>
@@ -25252,10 +25332,10 @@
       <c r="AE57" s="17"/>
       <c r="AF57" s="17"/>
       <c r="AG57" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AH57" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AI57" s="41">
         <v>51110</v>
@@ -25264,25 +25344,25 @@
         <v>33</v>
       </c>
       <c r="AK57" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AL57" s="23"/>
       <c r="AM57" s="23"/>
       <c r="AN57" s="25"/>
       <c r="AO57" s="17" t="s">
-        <v>1255</v>
+        <v>1234</v>
       </c>
       <c r="AP57" s="17" t="s">
-        <v>1256</v>
+        <v>1235</v>
       </c>
       <c r="AQ57" s="11" t="s">
-        <v>1257</v>
+        <v>1236</v>
       </c>
       <c r="AR57" s="50" t="s">
-        <v>1258</v>
+        <v>1237</v>
       </c>
       <c r="AS57" s="11" t="s">
-        <v>1259</v>
+        <v>1238</v>
       </c>
       <c r="AT57" s="1">
         <f>RANK(BL57,$BL$3:$BL$122)+COUNTIF(BL$3:BL57,BL57)-1</f>
@@ -25423,26 +25503,26 @@
       <c r="AE58" s="17"/>
       <c r="AF58" s="17"/>
       <c r="AG58" s="11" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AH58" s="11" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AI58" s="41">
         <v>51130</v>
       </c>
       <c r="AJ58" s="28"/>
       <c r="AK58" s="23" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AL58" s="23"/>
       <c r="AM58" s="23"/>
       <c r="AN58" s="25"/>
       <c r="AO58" s="17" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AP58" s="17" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="AQ58" s="44" t="s">
         <v>55</v>
@@ -25550,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>63</v>
@@ -25588,28 +25668,28 @@
       <c r="AE59" s="17"/>
       <c r="AF59" s="17"/>
       <c r="AG59" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AH59" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AI59" s="41">
         <v>51160</v>
       </c>
       <c r="AJ59" s="28" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AK59" s="23" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AL59" s="23"/>
       <c r="AM59" s="23"/>
       <c r="AN59" s="25"/>
       <c r="AO59" s="17" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AP59" s="17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AQ59" s="44"/>
       <c r="AR59" s="23" t="s">
@@ -25755,19 +25835,19 @@
       <c r="AE60" s="17"/>
       <c r="AF60" s="17"/>
       <c r="AG60" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AH60" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AI60" s="41">
         <v>51190</v>
       </c>
       <c r="AJ60" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK60" s="23" t="s">
         <v>119</v>
-      </c>
-      <c r="AK60" s="23" t="s">
-        <v>120</v>
       </c>
       <c r="AL60" s="23"/>
       <c r="AM60" s="23"/>
@@ -25916,10 +25996,10 @@
       <c r="AE61" s="17"/>
       <c r="AF61" s="17"/>
       <c r="AG61" s="11" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AH61" s="11" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AI61" s="41">
         <v>51200</v>
@@ -25928,7 +26008,7 @@
         <v>53</v>
       </c>
       <c r="AK61" s="23" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AL61" s="23"/>
       <c r="AM61" s="23"/>
@@ -26042,7 +26122,7 @@
         <v>17</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D62" s="73" t="str">
         <f t="shared" si="19"/>
@@ -26080,7 +26160,7 @@
         <v>49</v>
       </c>
       <c r="AH62" s="11" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AI62" s="41">
         <v>51204</v>
@@ -26089,7 +26169,7 @@
         <v>50</v>
       </c>
       <c r="AK62" s="23" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AL62" s="23"/>
       <c r="AM62" s="23"/>
@@ -26202,7 +26282,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C63" s="17" t="s">
         <v>30</v>
@@ -26240,30 +26320,30 @@
       <c r="AE63" s="17"/>
       <c r="AF63" s="17"/>
       <c r="AG63" s="11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AH63" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AI63" s="41">
         <v>51300</v>
       </c>
       <c r="AJ63" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AK63" s="23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AL63" s="23"/>
       <c r="AM63" s="23"/>
       <c r="AN63" s="25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AO63" s="17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AP63" s="17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AQ63" s="25" t="s">
         <v>31</v>
@@ -26272,7 +26352,7 @@
         <v>32</v>
       </c>
       <c r="AS63" s="25" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AT63" s="1">
         <f>RANK(BL63,$BL$3:$BL$122)+COUNTIF(BL$3:BL63,BL63)-1</f>
@@ -26378,7 +26458,7 @@
         <v>17</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D64" s="73" t="str">
         <f t="shared" si="19"/>
@@ -26416,7 +26496,7 @@
         <v>59</v>
       </c>
       <c r="AH64" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AI64" s="41">
         <v>51420</v>
@@ -26425,11 +26505,11 @@
         <v>61</v>
       </c>
       <c r="AK64" s="23" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AL64" s="23"/>
       <c r="AM64" s="23" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="AN64" s="25" t="s">
         <v>60</v>
@@ -26443,7 +26523,7 @@
         <v>62</v>
       </c>
       <c r="AS64" s="25" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AT64" s="1">
         <f>RANK(BL64,$BL$3:$BL$122)+COUNTIF(BL$3:BL64,BL64)-1</f>
@@ -26549,7 +26629,7 @@
         <v>84</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>1097</v>
+        <v>1079</v>
       </c>
       <c r="D65" s="73" t="str">
         <f t="shared" si="19"/>
@@ -26584,10 +26664,10 @@
       <c r="AE65" s="17"/>
       <c r="AF65" s="17"/>
       <c r="AG65" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AH65" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AI65" s="41">
         <v>51500</v>
@@ -26601,10 +26681,10 @@
       <c r="AL65" s="23"/>
       <c r="AM65" s="23"/>
       <c r="AN65" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AO65" s="17" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="AP65" s="17" t="s">
         <v>87</v>
@@ -26616,7 +26696,7 @@
         <v>88</v>
       </c>
       <c r="AS65" s="25" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AT65" s="1">
         <f>RANK(BL65,$BL$3:$BL$122)+COUNTIF(BL$3:BL65,BL65)-1</f>
@@ -26719,7 +26799,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C66" s="17" t="s">
         <v>39</v>
@@ -26760,21 +26840,21 @@
         <v>40</v>
       </c>
       <c r="AH66" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AI66" s="41">
         <v>51510</v>
       </c>
       <c r="AJ66" s="28" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AK66" s="23" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AL66" s="23"/>
       <c r="AM66" s="23"/>
       <c r="AN66" s="25" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="AO66" s="17"/>
       <c r="AP66" s="17"/>
@@ -26887,7 +26967,7 @@
         <v>17</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D67" s="73" t="str">
         <f t="shared" ref="D67:D98" si="38">IF(AX67&lt;&gt;0,"2020_A="&amp;AX67," ")&amp;IF(AY67&lt;&gt;0," ; 2020_i="&amp;AY67," ")&amp;IF(AZ67&lt;&gt;0,"2019_A="&amp;AZ67," ")&amp;IF(BA67&lt;&gt;0," ; 2019_i="&amp;BA67," ")&amp;IF(BB67&lt;&gt;0,"2018_A="&amp;BB67," ")&amp;IF(BC67&lt;&gt;0," ; 2018_i="&amp;BC67," ")&amp;IF(BD67&lt;&gt;0," ; 2017_A="&amp;BD67," ")&amp;IF(BE67&lt;&gt;0," ; 2017_i="&amp;BE67," ")&amp;IF(BF67&lt;&gt;0," ; 2016_A="&amp;BF67," ")&amp;IF(BG67&lt;&gt;0," ; 2016_i="&amp;BG67," ")&amp;IF(BH67&lt;&gt;0," ; 2015_A="&amp;BH67," ")&amp;IF(BI67&lt;&gt;0," ; 2015_i="&amp;BI67," ")&amp;IF(BJ67&lt;&gt;0," ; 2014_A="&amp;BJ67," ")&amp;IF(BK67&lt;&gt;0," ; 2014_i="&amp;BK67," ")</f>
@@ -26922,33 +27002,33 @@
       <c r="AE67" s="17"/>
       <c r="AF67" s="17"/>
       <c r="AG67" s="11" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AH67" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AI67" s="41">
         <v>51689</v>
       </c>
       <c r="AJ67" s="28"/>
       <c r="AK67" s="23" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AL67" s="23"/>
       <c r="AM67" s="23"/>
       <c r="AN67" s="25"/>
       <c r="AO67" s="17" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="AP67" s="17" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="AQ67" s="44" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AR67" s="11"/>
       <c r="AS67" s="25" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AT67" s="1">
         <f>RANK(BL67,$BL$3:$BL$122)+COUNTIF(BL$3:BL67,BL67)-1</f>
@@ -27051,7 +27131,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="C68" s="17" t="s">
         <v>66</v>
@@ -27089,23 +27169,23 @@
       <c r="AE68" s="17"/>
       <c r="AF68" s="17"/>
       <c r="AG68" s="11" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AH68" s="11" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AI68" s="41">
         <v>55190</v>
       </c>
       <c r="AJ68" s="28" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AK68" s="23" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="AL68" s="23"/>
       <c r="AM68" s="23" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="AN68" s="25"/>
       <c r="AO68" s="17"/>
@@ -27214,7 +27294,7 @@
         <v>0</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C69" s="17" t="s">
         <v>10</v>
@@ -27252,28 +27332,28 @@
       <c r="AE69" s="17"/>
       <c r="AF69" s="17"/>
       <c r="AG69" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AH69" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AI69" s="41">
         <v>55290</v>
       </c>
       <c r="AJ69" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK69" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AL69" s="23"/>
       <c r="AM69" s="23"/>
       <c r="AN69" s="25"/>
       <c r="AO69" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP69" s="17" t="s">
         <v>108</v>
-      </c>
-      <c r="AP69" s="17" t="s">
-        <v>109</v>
       </c>
       <c r="AQ69" s="25" t="s">
         <v>11</v>
@@ -27383,7 +27463,7 @@
         <v>0</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C70" s="17" t="s">
         <v>42</v>
@@ -27424,7 +27504,7 @@
         <v>43</v>
       </c>
       <c r="AH70" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AI70" s="41">
         <v>59700</v>
@@ -27433,7 +27513,7 @@
         <v>320816100</v>
       </c>
       <c r="AK70" s="23" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AL70" s="23"/>
       <c r="AM70" s="23"/>
@@ -27544,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>67</v>
@@ -27582,31 +27662,31 @@
       <c r="AE71" s="17"/>
       <c r="AF71" s="15"/>
       <c r="AG71" s="17" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="AH71" s="17" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AI71" s="41">
         <v>60890</v>
       </c>
       <c r="AJ71" s="28" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AK71" s="22" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AL71" s="22"/>
       <c r="AM71" s="23" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AN71" s="30"/>
       <c r="AO71" s="17" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="AP71" s="24"/>
       <c r="AQ71" s="17" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="AR71" s="26"/>
       <c r="AS71" s="26"/>
@@ -27711,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D72" s="73" t="str">
         <f t="shared" si="38"/>
@@ -27749,24 +27829,24 @@
       <c r="AE72" s="17"/>
       <c r="AF72" s="17"/>
       <c r="AG72" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AH72" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AI72" s="41">
         <v>67520</v>
       </c>
       <c r="AJ72" s="28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AK72" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AL72" s="23"/>
       <c r="AM72" s="23"/>
       <c r="AN72" s="25" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AO72" s="17"/>
       <c r="AP72" s="17"/>
@@ -27874,10 +27954,10 @@
         <v>0</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="D73" s="73" t="str">
         <f t="shared" si="38"/>
@@ -27912,33 +27992,33 @@
       <c r="AE73" s="17"/>
       <c r="AF73" s="48"/>
       <c r="AG73" s="54" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="AH73" s="17" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="AI73" s="21">
         <v>77510</v>
       </c>
       <c r="AJ73" s="46" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="AK73" s="23" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="AL73" s="23"/>
       <c r="AM73" s="23" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="AN73" s="45"/>
       <c r="AO73" s="48" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="AP73" s="17" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="AQ73" s="17" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="AR73" s="48"/>
       <c r="AS73" s="48"/>
@@ -28043,7 +28123,7 @@
         <v>0</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>37</v>
@@ -28081,31 +28161,31 @@
       <c r="AE74" s="17"/>
       <c r="AF74" s="17"/>
       <c r="AG74" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AH74" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AI74" s="41">
         <v>80600</v>
       </c>
       <c r="AJ74" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK74" s="23" t="s">
         <v>162</v>
-      </c>
-      <c r="AK74" s="23" t="s">
-        <v>165</v>
       </c>
       <c r="AL74" s="23"/>
       <c r="AM74" s="23"/>
       <c r="AN74" s="25"/>
       <c r="AO74" s="17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AP74" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AQ74" s="44" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="AR74" s="11"/>
       <c r="AS74" s="25"/>
@@ -28210,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C75" s="17" t="s">
         <v>7</v>
@@ -28248,10 +28328,10 @@
       <c r="AE75" s="17"/>
       <c r="AF75" s="17"/>
       <c r="AG75" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AH75" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AI75" s="41">
         <v>89470</v>
@@ -28260,18 +28340,18 @@
         <v>8</v>
       </c>
       <c r="AK75" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AL75" s="23"/>
       <c r="AM75" s="23"/>
       <c r="AN75" s="25" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="AO75" s="17" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="AP75" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AQ75" s="25" t="s">
         <v>8</v>
@@ -28384,7 +28464,7 @@
         <v>17</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="D76" s="73" t="str">
         <f t="shared" si="38"/>
@@ -28419,30 +28499,30 @@
       <c r="AE76" s="17"/>
       <c r="AF76" s="15"/>
       <c r="AG76" s="11" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="AH76" s="17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AI76" s="21">
         <v>51100</v>
       </c>
       <c r="AJ76" s="28" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="AK76" s="22" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="AL76" s="22"/>
       <c r="AM76" s="23" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="AN76" s="30"/>
       <c r="AO76" s="17" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="AP76" s="17" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="AQ76" s="26"/>
       <c r="AR76" s="26"/>
@@ -28551,7 +28631,7 @@
         <v>17</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="D77" s="73" t="str">
         <f t="shared" si="38"/>
@@ -28586,37 +28666,37 @@
       <c r="AE77" s="17"/>
       <c r="AF77" s="15"/>
       <c r="AG77" s="11" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="AH77" s="17" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="AI77" s="21">
         <v>51200</v>
       </c>
       <c r="AJ77" s="28" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="AK77" s="56" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="AL77" s="56"/>
       <c r="AM77" s="23" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="AN77" s="30"/>
       <c r="AO77" s="17" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="AP77" s="48"/>
       <c r="AQ77" s="25" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="AR77" s="23" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="AS77" s="25" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AT77" s="1">
         <f>RANK(BL77,$BL$3:$BL$122)+COUNTIF(BL$3:BL77,BL77)-1</f>
@@ -28722,7 +28802,7 @@
         <v>17</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="D78" s="73" t="str">
         <f t="shared" si="38"/>
@@ -28757,34 +28837,34 @@
       <c r="AE78" s="17"/>
       <c r="AF78" s="15"/>
       <c r="AG78" s="11" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="AH78" s="17" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AI78" s="21">
         <v>10110</v>
       </c>
       <c r="AJ78" s="28" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="AK78" s="56" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="AL78" s="56"/>
       <c r="AM78" s="23" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="AN78" s="30"/>
       <c r="AO78" s="17" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="AP78" s="48"/>
       <c r="AQ78" s="25" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="AR78" s="23" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="AS78" s="25"/>
       <c r="AT78" s="1">
@@ -28891,7 +28971,7 @@
         <v>17</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="D79" s="73" t="str">
         <f t="shared" si="38"/>
@@ -28926,36 +29006,36 @@
       <c r="AE79" s="17"/>
       <c r="AF79" s="15"/>
       <c r="AG79" s="11" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="AH79" s="17" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="AI79" s="21">
         <v>51530</v>
       </c>
       <c r="AJ79" s="28" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="AK79" s="56" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="AL79" s="56"/>
       <c r="AM79" s="23" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="AN79" s="30"/>
       <c r="AO79" s="17" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="AP79" s="17" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="AQ79" s="25" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="AR79" s="23" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="AS79" s="25"/>
       <c r="AT79" s="1">
@@ -29056,13 +29136,13 @@
     </row>
     <row r="80" spans="1:80" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="D80" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29097,30 +29177,30 @@
       <c r="AE80" s="17"/>
       <c r="AF80" s="15"/>
       <c r="AG80" s="11" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="AH80" s="17" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="AI80" s="21">
         <v>10800</v>
       </c>
       <c r="AJ80" s="28" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="AK80" s="56" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="AL80" s="56"/>
       <c r="AM80" s="23" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="AN80" s="30"/>
       <c r="AO80" s="17"/>
       <c r="AP80" s="17"/>
       <c r="AQ80" s="25"/>
       <c r="AR80" s="23" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="AS80" s="25"/>
       <c r="AT80" s="1">
@@ -29221,13 +29301,13 @@
     </row>
     <row r="81" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="D81" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29262,31 +29342,31 @@
       <c r="AE81" s="17"/>
       <c r="AF81" s="15"/>
       <c r="AG81" s="11" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="AH81" s="17" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="AI81" s="21">
         <v>94200</v>
       </c>
       <c r="AJ81" s="28"/>
       <c r="AK81" s="56" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="AL81" s="56"/>
       <c r="AM81" s="23" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="AN81" s="30"/>
       <c r="AO81" s="17" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="AP81" s="17" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="AQ81" s="11" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="AR81" s="23"/>
       <c r="AS81" s="25"/>
@@ -29388,13 +29468,13 @@
     </row>
     <row r="82" spans="1:80" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="D82" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29429,23 +29509,23 @@
       <c r="AE82" s="17"/>
       <c r="AF82" s="15"/>
       <c r="AG82" s="11" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="AH82" s="17" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="AI82" s="21">
         <v>2220</v>
       </c>
       <c r="AJ82" s="28" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="AK82" s="56" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="AL82" s="56"/>
       <c r="AM82" s="23" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="AN82" s="30"/>
       <c r="AO82" s="17"/>
@@ -29453,7 +29533,7 @@
       <c r="AQ82" s="11"/>
       <c r="AR82" s="23"/>
       <c r="AS82" s="25" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AT82" s="1">
         <f>RANK(BL82,$BL$3:$BL$122)+COUNTIF(BL$3:BL82,BL82)-1</f>
@@ -29559,7 +29639,7 @@
         <v>4</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="D83" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29594,38 +29674,38 @@
       <c r="AE83" s="17"/>
       <c r="AF83" s="15"/>
       <c r="AG83" s="11" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="AH83" s="17" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="AI83" s="21">
         <v>51320</v>
       </c>
       <c r="AJ83" s="28" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="AK83" s="56" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="AL83" s="56"/>
       <c r="AM83" s="23" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="AN83" s="17" t="s">
-        <v>1260</v>
+        <v>1239</v>
       </c>
       <c r="AO83" s="17" t="s">
-        <v>1261</v>
+        <v>1240</v>
       </c>
       <c r="AP83" s="17" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
       <c r="AQ83" s="17" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="AR83" s="23" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="AS83" s="25"/>
       <c r="AT83" s="1">
@@ -29729,10 +29809,10 @@
         <v>0</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="D84" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29767,36 +29847,36 @@
       <c r="AE84" s="17"/>
       <c r="AF84" s="15"/>
       <c r="AG84" s="11" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="AH84" s="17" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="AI84" s="21">
         <v>2450</v>
       </c>
       <c r="AJ84" s="28" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="AK84" s="56" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="AL84" s="56"/>
       <c r="AM84" s="23" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="AN84" s="30"/>
       <c r="AO84" s="17" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="AP84" s="17" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="AQ84" s="17" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="AR84" s="23" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="AS84" s="25"/>
       <c r="AT84" s="1">
@@ -29900,10 +29980,10 @@
         <v>0</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="D85" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29938,23 +30018,23 @@
       <c r="AE85" s="17"/>
       <c r="AF85" s="15"/>
       <c r="AG85" s="11" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="AH85" s="17" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="AI85" s="21">
         <v>25300</v>
       </c>
       <c r="AJ85" s="28" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="AK85" s="56" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="AL85" s="56"/>
       <c r="AM85" s="23" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="AN85" s="30"/>
       <c r="AO85" s="17"/>
@@ -30063,10 +30143,10 @@
         <v>0</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="D86" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30101,30 +30181,30 @@
       <c r="AE86" s="17"/>
       <c r="AF86" s="15"/>
       <c r="AG86" s="17" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="AH86" s="17" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="AI86" s="21">
         <v>10230</v>
       </c>
       <c r="AJ86" s="28" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="AK86" s="56" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="AL86" s="56"/>
       <c r="AM86" s="23" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="AN86" s="30"/>
       <c r="AO86" s="26"/>
       <c r="AP86" s="24"/>
       <c r="AQ86" s="26"/>
       <c r="AR86" s="57" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AS86" s="26"/>
       <c r="AT86" s="1">
@@ -30231,7 +30311,7 @@
         <v>15</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="D87" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30266,31 +30346,31 @@
       <c r="AE87" s="17"/>
       <c r="AF87" s="15"/>
       <c r="AG87" s="17" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="AH87" s="17" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="AI87" s="21">
         <v>51130</v>
       </c>
       <c r="AJ87" s="28" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="AK87" s="22" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="AL87" s="22"/>
       <c r="AM87" s="23" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="AN87" s="26"/>
       <c r="AO87" s="17" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="AP87" s="24"/>
       <c r="AQ87" s="59" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AR87" s="26"/>
       <c r="AS87" s="26"/>
@@ -30395,10 +30475,10 @@
         <v>0</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D88" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30433,31 +30513,31 @@
       <c r="AE88" s="17"/>
       <c r="AF88" s="15"/>
       <c r="AG88" s="17" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="AH88" s="17" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="AI88" s="21">
         <v>6823</v>
       </c>
       <c r="AJ88" s="28" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="AK88" s="22" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="AL88" s="22"/>
       <c r="AM88" s="23" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="AN88" s="26"/>
       <c r="AO88" s="17" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AP88" s="24"/>
       <c r="AQ88" s="17" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="AR88" s="26"/>
       <c r="AS88" s="26"/>
@@ -30562,10 +30642,10 @@
         <v>0</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="D89" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30600,35 +30680,35 @@
       <c r="AE89" s="17"/>
       <c r="AF89" s="15"/>
       <c r="AG89" s="17" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="AH89" s="17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AI89" s="21">
         <v>51100</v>
       </c>
       <c r="AJ89" s="28" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="AK89" s="22" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="AL89" s="22"/>
       <c r="AM89" s="17"/>
       <c r="AN89" s="26"/>
       <c r="AO89" s="17" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="AP89" s="24"/>
       <c r="AQ89" s="48" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="AR89" s="57" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="AS89" s="25" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AT89" s="1">
         <f>RANK(BL89,$BL$3:$BL$122)+COUNTIF(BL$3:BL89,BL89)-1</f>
@@ -30728,13 +30808,13 @@
     </row>
     <row r="90" spans="1:80" s="7" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D90" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30769,26 +30849,26 @@
       <c r="AE90" s="17"/>
       <c r="AF90" s="15"/>
       <c r="AG90" s="17" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="AH90" s="17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AI90" s="21">
         <v>51100</v>
       </c>
       <c r="AJ90" s="28" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="AK90" s="22" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="AL90" s="22"/>
       <c r="AM90" s="23" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="AN90" s="30" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="AO90" s="26"/>
       <c r="AP90" s="24"/>
@@ -30893,13 +30973,13 @@
     </row>
     <row r="91" spans="1:80" s="7" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="D91" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30934,23 +31014,23 @@
       <c r="AE91" s="17"/>
       <c r="AF91" s="15"/>
       <c r="AG91" s="17" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="AH91" s="17" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AI91" s="21">
         <v>2000</v>
       </c>
       <c r="AJ91" s="28" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="AK91" s="22" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="AL91" s="22"/>
       <c r="AM91" s="23" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="AN91" s="30"/>
       <c r="AO91" s="26"/>
@@ -31056,13 +31136,13 @@
     </row>
     <row r="92" spans="1:80" s="7" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="D92" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31097,35 +31177,35 @@
       <c r="AE92" s="17"/>
       <c r="AF92" s="15"/>
       <c r="AG92" s="17" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="AH92" s="17" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="AI92" s="21">
         <v>51370</v>
       </c>
       <c r="AJ92" s="15"/>
       <c r="AK92" s="22" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="AL92" s="22"/>
       <c r="AM92" s="23" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="AN92" s="30"/>
       <c r="AO92" s="17" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="AP92" s="24"/>
       <c r="AQ92" s="30" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="AR92" s="49" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="AS92" s="25" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AT92" s="1">
         <f>RANK(BL92,$BL$3:$BL$122)+COUNTIF(BL$3:BL92,BL92)-1</f>
@@ -31225,13 +31305,13 @@
     </row>
     <row r="93" spans="1:80" s="7" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="D93" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31266,31 +31346,31 @@
       <c r="AE93" s="17"/>
       <c r="AF93" s="15"/>
       <c r="AG93" s="17" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="AH93" s="17" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AI93" s="21">
         <v>51530</v>
       </c>
       <c r="AJ93" s="15"/>
       <c r="AK93" s="22" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="AL93" s="22"/>
       <c r="AM93" s="23" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="AN93" s="30"/>
       <c r="AO93" s="17" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="AP93" s="17" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="AQ93" s="30" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AR93" s="26"/>
       <c r="AS93" s="26"/>
@@ -31392,13 +31472,13 @@
     </row>
     <row r="94" spans="1:80" s="7" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="D94" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31433,35 +31513,35 @@
       <c r="AE94" s="17"/>
       <c r="AF94" s="15"/>
       <c r="AG94" s="17" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AH94" s="17" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="AI94" s="17">
         <v>51120</v>
       </c>
       <c r="AJ94" s="15"/>
       <c r="AK94" s="22" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="AL94" s="22"/>
       <c r="AM94" s="17"/>
       <c r="AN94" s="30"/>
       <c r="AO94" s="48" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="AP94" s="17" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="AQ94" s="30" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AR94" s="60" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="AS94" s="25" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AT94" s="1">
         <f>RANK(BL94,$BL$3:$BL$122)+COUNTIF(BL$3:BL94,BL94)-1</f>
@@ -31561,13 +31641,13 @@
     </row>
     <row r="95" spans="1:80" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="D95" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31602,23 +31682,23 @@
       <c r="AE95" s="17"/>
       <c r="AF95" s="15"/>
       <c r="AG95" s="17" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="AH95" s="17" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="AI95" s="21">
         <v>51000</v>
       </c>
       <c r="AJ95" s="28" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="AK95" s="22" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="AL95" s="22"/>
       <c r="AM95" s="23" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="AN95" s="15"/>
       <c r="AO95" s="26"/>
@@ -31724,13 +31804,13 @@
     </row>
     <row r="96" spans="1:80" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="D96" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31765,34 +31845,34 @@
       <c r="AE96" s="17"/>
       <c r="AF96" s="15"/>
       <c r="AG96" s="17" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
       <c r="AH96" s="17" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="AI96" s="21">
         <v>60550</v>
       </c>
       <c r="AJ96" s="28" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="AK96" s="22" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="AL96" s="22"/>
       <c r="AM96" s="23" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="AN96" s="15"/>
       <c r="AO96" s="17" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="AP96" s="24"/>
       <c r="AQ96" s="48" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="AR96" s="60" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="AS96" s="26"/>
       <c r="AT96" s="1">
@@ -31893,13 +31973,13 @@
     </row>
     <row r="97" spans="1:80" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
-        <v>1274</v>
+        <v>1295</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>798</v>
+        <v>1296</v>
       </c>
       <c r="D97" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31934,34 +32014,34 @@
       <c r="AE97" s="17"/>
       <c r="AF97" s="15"/>
       <c r="AG97" s="17" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="AH97" s="17" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="AI97" s="21">
         <v>94700</v>
       </c>
       <c r="AJ97" s="28" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="AK97" s="22" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="AL97" s="22"/>
       <c r="AM97" s="23" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="AN97" s="30"/>
       <c r="AO97" s="17" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="AP97" s="24"/>
       <c r="AQ97" s="17" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="AR97" s="60" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="AS97" s="26"/>
       <c r="AT97" s="1">
@@ -31970,7 +32050,7 @@
       </c>
       <c r="AU97" s="64" t="str">
         <f t="shared" si="39"/>
-        <v>N° 95 ANSES</v>
+        <v>N° 95 ANSES (BCM-Alimentaire)</v>
       </c>
       <c r="AV97" s="1">
         <f>RANK(BM97,$BM$3:$BM$122)+COUNTIF(BM$3:BM97,BM97)-1</f>
@@ -31978,7 +32058,7 @@
       </c>
       <c r="AW97" s="64" t="str">
         <f t="shared" si="40"/>
-        <v>N° 95 ANSES</v>
+        <v>N° 95 ANSES (BCM-Alimentaire)</v>
       </c>
       <c r="AX97" s="64"/>
       <c r="AY97" s="64"/>
@@ -32062,13 +32142,13 @@
     </row>
     <row r="98" spans="1:80" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="D98" s="73" t="str">
         <f t="shared" si="38"/>
@@ -32103,29 +32183,29 @@
       <c r="AE98" s="17"/>
       <c r="AF98" s="15"/>
       <c r="AG98" s="17" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="AH98" s="17" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="AI98" s="21">
         <v>10400</v>
       </c>
       <c r="AJ98" s="15"/>
       <c r="AK98" s="22" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="AL98" s="22"/>
       <c r="AM98" s="23" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="AN98" s="26"/>
       <c r="AO98" s="17" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="AP98" s="24"/>
       <c r="AQ98" s="30" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="AR98" s="26"/>
       <c r="AS98" s="26"/>
@@ -32227,13 +32307,13 @@
     </row>
     <row r="99" spans="1:80" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="D99" s="73" t="str">
         <f t="shared" ref="D99:D128" si="57">IF(AX99&lt;&gt;0,"2020_A="&amp;AX99," ")&amp;IF(AY99&lt;&gt;0," ; 2020_i="&amp;AY99," ")&amp;IF(AZ99&lt;&gt;0,"2019_A="&amp;AZ99," ")&amp;IF(BA99&lt;&gt;0," ; 2019_i="&amp;BA99," ")&amp;IF(BB99&lt;&gt;0,"2018_A="&amp;BB99," ")&amp;IF(BC99&lt;&gt;0," ; 2018_i="&amp;BC99," ")&amp;IF(BD99&lt;&gt;0," ; 2017_A="&amp;BD99," ")&amp;IF(BE99&lt;&gt;0," ; 2017_i="&amp;BE99," ")&amp;IF(BF99&lt;&gt;0," ; 2016_A="&amp;BF99," ")&amp;IF(BG99&lt;&gt;0," ; 2016_i="&amp;BG99," ")&amp;IF(BH99&lt;&gt;0," ; 2015_A="&amp;BH99," ")&amp;IF(BI99&lt;&gt;0," ; 2015_i="&amp;BI99," ")&amp;IF(BJ99&lt;&gt;0," ; 2014_A="&amp;BJ99," ")&amp;IF(BK99&lt;&gt;0," ; 2014_i="&amp;BK99," ")</f>
@@ -32268,39 +32348,39 @@
       <c r="AE99" s="17"/>
       <c r="AF99" s="15"/>
       <c r="AG99" s="17" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="AH99" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AI99" s="21">
         <v>51110</v>
       </c>
       <c r="AJ99" s="28" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="AK99" s="22" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
       <c r="AL99" s="22"/>
       <c r="AM99" s="23" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="AN99" s="26"/>
       <c r="AO99" s="17" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="AP99" s="17" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="AQ99" s="30" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="AR99" s="23" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="AS99" s="25" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AT99" s="1">
         <f>RANK(BL99,$BL$3:$BL$122)+COUNTIF(BL$3:BL99,BL99)-1</f>
@@ -32400,13 +32480,13 @@
     </row>
     <row r="100" spans="1:80" s="7" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="D100" s="73" t="str">
         <f t="shared" si="57"/>
@@ -32441,35 +32521,35 @@
       <c r="AE100" s="17"/>
       <c r="AF100" s="15"/>
       <c r="AG100" s="17" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
       <c r="AH100" s="17" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AI100" s="21">
         <v>51300</v>
       </c>
       <c r="AJ100" s="28" t="s">
-        <v>836</v>
+        <v>822</v>
       </c>
       <c r="AK100" s="22" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="AL100" s="22"/>
       <c r="AM100" s="23" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
       <c r="AN100" s="26"/>
       <c r="AO100" s="17" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="AP100" s="17"/>
       <c r="AQ100" s="30" t="s">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="AR100" s="23"/>
       <c r="AS100" s="25" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AT100" s="1">
         <f>RANK(BL100,$BL$3:$BL$122)+COUNTIF(BL$3:BL100,BL100)-1</f>
@@ -32569,13 +32649,13 @@
     </row>
     <row r="101" spans="1:80" s="7" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D101" s="73" t="str">
         <f t="shared" si="57"/>
@@ -32610,27 +32690,27 @@
       <c r="AE101" s="17"/>
       <c r="AF101" s="15"/>
       <c r="AG101" s="17" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="AH101" s="17" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
       <c r="AI101" s="21">
         <v>77200</v>
       </c>
       <c r="AJ101" s="28" t="s">
-        <v>845</v>
+        <v>831</v>
       </c>
       <c r="AK101" s="22" t="s">
-        <v>844</v>
+        <v>830</v>
       </c>
       <c r="AL101" s="22"/>
       <c r="AM101" s="23" t="s">
-        <v>843</v>
+        <v>829</v>
       </c>
       <c r="AN101" s="15"/>
       <c r="AO101" s="48" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AP101" s="24"/>
       <c r="AQ101" s="26"/>
@@ -32734,13 +32814,13 @@
     </row>
     <row r="102" spans="1:80" s="13" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="D102" s="73" t="str">
         <f t="shared" si="57"/>
@@ -32775,37 +32855,37 @@
       <c r="AE102" s="17"/>
       <c r="AF102" s="15"/>
       <c r="AG102" s="17" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="AH102" s="17" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AI102" s="21">
         <v>51689</v>
       </c>
       <c r="AJ102" s="28" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AK102" s="22" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="AL102" s="22"/>
       <c r="AM102" s="23" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="AN102" s="17" t="s">
-        <v>851</v>
+        <v>837</v>
       </c>
       <c r="AO102" s="17" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="AP102" s="24"/>
       <c r="AQ102" s="26"/>
       <c r="AR102" s="60" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AS102" s="25" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AT102" s="1">
         <f>RANK(BL102,$BL$3:$BL$122)+COUNTIF(BL$3:BL102,BL102)-1</f>
@@ -32905,13 +32985,13 @@
     </row>
     <row r="103" spans="1:80" s="27" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="D103" s="73" t="str">
         <f t="shared" si="57"/>
@@ -32946,34 +33026,34 @@
       <c r="AE103" s="17"/>
       <c r="AF103" s="15"/>
       <c r="AG103" s="17" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="AH103" s="17" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="AI103" s="21">
         <v>60310</v>
       </c>
       <c r="AJ103" s="28" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
       <c r="AK103" s="22" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="AL103" s="22"/>
       <c r="AM103" s="23" t="s">
-        <v>854</v>
+        <v>840</v>
       </c>
       <c r="AN103" s="17"/>
       <c r="AO103" s="17" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="AP103" s="24"/>
       <c r="AQ103" s="48" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="AR103" s="23" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
       <c r="AS103" s="25"/>
       <c r="AT103" s="1">
@@ -33074,13 +33154,13 @@
     </row>
     <row r="104" spans="1:80" s="26" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="D104" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33107,30 +33187,30 @@
       <c r="AE104" s="17"/>
       <c r="AF104" s="15"/>
       <c r="AG104" s="17" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="AH104" s="17" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="AI104" s="21">
         <v>60610</v>
       </c>
       <c r="AJ104" s="28" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AK104" s="22" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="AL104" s="22"/>
       <c r="AM104" s="23" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="AP104" s="24"/>
       <c r="AQ104" s="30" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AR104" s="60" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AT104" s="1">
         <f>RANK(BL104,$BL$3:$BL$122)+COUNTIF(BL$3:BL104,BL104)-1</f>
@@ -33230,13 +33310,13 @@
     </row>
     <row r="105" spans="1:80" s="13" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="D105" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33274,18 +33354,18 @@
         <v>13</v>
       </c>
       <c r="AH105" s="17" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="AI105" s="21">
         <v>45800</v>
       </c>
       <c r="AJ105" s="28"/>
       <c r="AK105" s="22" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="AL105" s="22"/>
       <c r="AM105" s="23" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="AN105" s="26"/>
       <c r="AO105" s="26"/>
@@ -33391,13 +33471,13 @@
     </row>
     <row r="106" spans="1:80" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>904</v>
+        <v>889</v>
       </c>
       <c r="D106" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33424,36 +33504,36 @@
       <c r="AE106" s="17"/>
       <c r="AF106" s="15"/>
       <c r="AG106" s="17" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="AH106" s="17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AI106" s="21">
         <v>51100</v>
       </c>
       <c r="AJ106" s="15"/>
       <c r="AK106" s="22" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
       <c r="AL106" s="22"/>
       <c r="AM106" s="23" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="AN106" s="17" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="AO106" s="17" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
       <c r="AP106" s="17" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="AQ106" s="17" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="AR106" s="60" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AT106" s="1">
         <f>RANK(BL106,$BL$3:$BL$122)+COUNTIF(BL$3:BL106,BL106)-1</f>
@@ -33553,13 +33633,13 @@
     </row>
     <row r="107" spans="1:80" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
       <c r="D107" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33594,29 +33674,29 @@
       <c r="AE107" s="17"/>
       <c r="AF107" s="15"/>
       <c r="AG107" s="17" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="AH107" s="17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AI107" s="21">
         <v>51100</v>
       </c>
       <c r="AJ107" s="28" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="AK107" s="22" t="s">
-        <v>890</v>
+        <v>876</v>
       </c>
       <c r="AL107" s="22"/>
       <c r="AM107" s="23" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
       <c r="AN107" s="17"/>
       <c r="AO107" s="17"/>
       <c r="AP107" s="17"/>
       <c r="AQ107" s="17" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
       <c r="AR107" s="60"/>
       <c r="AS107" s="26"/>
@@ -33717,14 +33797,14 @@
       <c r="CB107" s="40"/>
     </row>
     <row r="108" spans="1:80" s="7" customFormat="1" ht="135" x14ac:dyDescent="0.2">
-      <c r="A108" s="19" t="s">
-        <v>394</v>
+      <c r="A108" s="12" t="s">
+        <v>388</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>902</v>
+        <v>887</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>903</v>
+        <v>888</v>
       </c>
       <c r="D108" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33759,35 +33839,35 @@
       <c r="AE108" s="17"/>
       <c r="AF108" s="17"/>
       <c r="AG108" s="17" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="AH108" s="17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AI108" s="21">
         <v>51100</v>
       </c>
       <c r="AJ108" s="15"/>
       <c r="AK108" s="22" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
       <c r="AL108" s="22"/>
       <c r="AM108" s="23" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="AN108" s="15"/>
       <c r="AO108" s="17" t="s">
-        <v>908</v>
+        <v>891</v>
       </c>
       <c r="AP108" s="24"/>
       <c r="AQ108" s="17" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="AR108" s="23" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="AS108" s="25" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AT108" s="1">
         <f>RANK(BL108,$BL$3:$BL$122)+COUNTIF(BL$3:BL108,BL108)-1</f>
@@ -33886,14 +33966,14 @@
       <c r="CB108" s="37"/>
     </row>
     <row r="109" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
-      <c r="A109" s="19" t="s">
-        <v>394</v>
+      <c r="A109" s="12" t="s">
+        <v>388</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>915</v>
+        <v>898</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>909</v>
+        <v>892</v>
       </c>
       <c r="D109" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33928,33 +34008,33 @@
       <c r="AE109" s="17"/>
       <c r="AF109" s="17"/>
       <c r="AG109" s="17" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
       <c r="AH109" s="17" t="s">
-        <v>911</v>
+        <v>894</v>
       </c>
       <c r="AI109" s="21">
         <v>68490</v>
       </c>
       <c r="AJ109" s="28" t="s">
-        <v>912</v>
+        <v>895</v>
       </c>
       <c r="AK109" s="22" t="s">
-        <v>913</v>
+        <v>896</v>
       </c>
       <c r="AL109" s="22"/>
       <c r="AM109" s="23" t="s">
-        <v>914</v>
+        <v>897</v>
       </c>
       <c r="AN109" s="15"/>
       <c r="AO109" s="17" t="s">
-        <v>918</v>
+        <v>901</v>
       </c>
       <c r="AP109" s="17" t="s">
-        <v>916</v>
+        <v>899</v>
       </c>
       <c r="AQ109" s="29" t="s">
-        <v>917</v>
+        <v>900</v>
       </c>
       <c r="AR109" s="23"/>
       <c r="AS109" s="25"/>
@@ -34056,13 +34136,13 @@
     </row>
     <row r="110" spans="1:80" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>919</v>
+        <v>902</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="D110" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34097,29 +34177,29 @@
       <c r="AE110" s="17"/>
       <c r="AF110" s="15"/>
       <c r="AG110" s="17" t="s">
-        <v>921</v>
+        <v>904</v>
       </c>
       <c r="AH110" s="17" t="s">
-        <v>922</v>
+        <v>905</v>
       </c>
       <c r="AI110" s="21">
         <v>51140</v>
       </c>
       <c r="AJ110" s="28" t="s">
-        <v>923</v>
+        <v>906</v>
       </c>
       <c r="AK110" s="22" t="s">
-        <v>924</v>
+        <v>907</v>
       </c>
       <c r="AL110" s="22"/>
       <c r="AM110" s="23" t="s">
-        <v>925</v>
+        <v>908</v>
       </c>
       <c r="AN110" s="30"/>
       <c r="AO110" s="26"/>
       <c r="AP110" s="24"/>
       <c r="AQ110" s="29" t="s">
-        <v>926</v>
+        <v>909</v>
       </c>
       <c r="AR110" s="26"/>
       <c r="AS110" s="26"/>
@@ -34221,13 +34301,13 @@
     </row>
     <row r="111" spans="1:80" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>928</v>
+        <v>911</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>927</v>
+        <v>910</v>
       </c>
       <c r="D111" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34262,23 +34342,23 @@
       <c r="AE111" s="17"/>
       <c r="AF111" s="15"/>
       <c r="AG111" s="17" t="s">
-        <v>930</v>
+        <v>913</v>
       </c>
       <c r="AH111" s="17" t="s">
-        <v>929</v>
+        <v>912</v>
       </c>
       <c r="AI111" s="21">
         <v>51140</v>
       </c>
       <c r="AJ111" s="28" t="s">
-        <v>931</v>
+        <v>914</v>
       </c>
       <c r="AK111" s="22" t="s">
-        <v>932</v>
+        <v>915</v>
       </c>
       <c r="AL111" s="22"/>
       <c r="AM111" s="23" t="s">
-        <v>933</v>
+        <v>916</v>
       </c>
       <c r="AN111" s="30"/>
       <c r="AO111" s="26"/>
@@ -34387,10 +34467,10 @@
         <v>0</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D112" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34425,23 +34505,23 @@
       <c r="AE112" s="12"/>
       <c r="AF112" s="19"/>
       <c r="AG112" s="12" t="s">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="AH112" s="12" t="s">
-        <v>935</v>
+        <v>918</v>
       </c>
       <c r="AI112" s="31">
         <v>8000</v>
       </c>
       <c r="AJ112" s="28" t="s">
-        <v>936</v>
+        <v>919</v>
       </c>
       <c r="AK112" s="22" t="s">
-        <v>937</v>
+        <v>920</v>
       </c>
       <c r="AL112" s="22"/>
       <c r="AM112" s="23" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="AN112" s="32"/>
       <c r="AO112" s="33"/>
@@ -34547,13 +34627,13 @@
     </row>
     <row r="113" spans="1:80" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>939</v>
+        <v>922</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D113" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34588,30 +34668,30 @@
       <c r="AE113" s="17"/>
       <c r="AF113" s="15"/>
       <c r="AG113" s="17" t="s">
-        <v>940</v>
+        <v>923</v>
       </c>
       <c r="AH113" s="17" t="s">
-        <v>941</v>
+        <v>924</v>
       </c>
       <c r="AI113" s="21">
         <v>60200</v>
       </c>
       <c r="AJ113" s="28" t="s">
-        <v>942</v>
+        <v>925</v>
       </c>
       <c r="AK113" s="22" t="s">
-        <v>943</v>
+        <v>926</v>
       </c>
       <c r="AL113" s="22"/>
       <c r="AM113" s="23" t="s">
-        <v>944</v>
+        <v>927</v>
       </c>
       <c r="AN113" s="26"/>
       <c r="AO113" s="26"/>
       <c r="AP113" s="24"/>
       <c r="AQ113" s="26"/>
       <c r="AR113" s="23" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AS113" s="26"/>
       <c r="AT113" s="1">
@@ -34712,13 +34792,13 @@
     </row>
     <row r="114" spans="1:80" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D114" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34753,23 +34833,23 @@
       <c r="AE114" s="17"/>
       <c r="AF114" s="15"/>
       <c r="AG114" s="17" t="s">
-        <v>946</v>
+        <v>929</v>
       </c>
       <c r="AH114" s="17" t="s">
-        <v>945</v>
+        <v>928</v>
       </c>
       <c r="AI114" s="21">
         <v>60000</v>
       </c>
       <c r="AJ114" s="28" t="s">
-        <v>947</v>
+        <v>930</v>
       </c>
       <c r="AK114" s="22" t="s">
-        <v>948</v>
+        <v>931</v>
       </c>
       <c r="AL114" s="22"/>
       <c r="AM114" s="23" t="s">
-        <v>949</v>
+        <v>932</v>
       </c>
       <c r="AN114" s="15"/>
       <c r="AO114" s="26"/>
@@ -34875,13 +34955,13 @@
     </row>
     <row r="115" spans="1:80" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>939</v>
+        <v>922</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>950</v>
+        <v>933</v>
       </c>
       <c r="D115" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34916,28 +34996,28 @@
       <c r="AE115" s="17"/>
       <c r="AF115" s="15"/>
       <c r="AG115" s="17" t="s">
-        <v>951</v>
+        <v>934</v>
       </c>
       <c r="AH115" s="17" t="s">
-        <v>945</v>
+        <v>928</v>
       </c>
       <c r="AI115" s="21">
         <v>60000</v>
       </c>
       <c r="AJ115" s="28"/>
       <c r="AK115" s="22" t="s">
-        <v>953</v>
+        <v>936</v>
       </c>
       <c r="AL115" s="22"/>
       <c r="AM115" s="23" t="s">
-        <v>952</v>
+        <v>935</v>
       </c>
       <c r="AN115" s="15"/>
       <c r="AO115" s="26"/>
       <c r="AP115" s="24"/>
       <c r="AQ115" s="26"/>
       <c r="AR115" s="42" t="s">
-        <v>954</v>
+        <v>937</v>
       </c>
       <c r="AS115" s="26"/>
       <c r="AT115" s="1">
@@ -35038,13 +35118,13 @@
     </row>
     <row r="116" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B116" s="12" t="s">
+        <v>922</v>
+      </c>
+      <c r="C116" s="17" t="s">
         <v>939</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>956</v>
       </c>
       <c r="D116" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35079,23 +35159,23 @@
       <c r="AE116" s="17"/>
       <c r="AF116" s="15"/>
       <c r="AG116" s="17" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
       <c r="AH116" s="17" t="s">
-        <v>958</v>
+        <v>941</v>
       </c>
       <c r="AI116" s="21">
         <v>8090</v>
       </c>
       <c r="AJ116" s="28" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="AK116" s="22" t="s">
-        <v>959</v>
+        <v>942</v>
       </c>
       <c r="AL116" s="22"/>
       <c r="AM116" s="23" t="s">
-        <v>960</v>
+        <v>943</v>
       </c>
       <c r="AN116" s="15"/>
       <c r="AO116" s="26"/>
@@ -35201,13 +35281,13 @@
     </row>
     <row r="117" spans="1:80" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>961</v>
+        <v>944</v>
       </c>
       <c r="D117" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35242,23 +35322,23 @@
       <c r="AE117" s="17"/>
       <c r="AF117" s="15"/>
       <c r="AG117" s="17" t="s">
-        <v>963</v>
+        <v>946</v>
       </c>
       <c r="AH117" s="17" t="s">
-        <v>962</v>
+        <v>945</v>
       </c>
       <c r="AI117" s="21">
         <v>21000</v>
       </c>
       <c r="AJ117" s="28" t="s">
-        <v>964</v>
+        <v>947</v>
       </c>
       <c r="AK117" s="22" t="s">
-        <v>965</v>
+        <v>948</v>
       </c>
       <c r="AL117" s="22"/>
       <c r="AM117" s="23" t="s">
-        <v>966</v>
+        <v>949</v>
       </c>
       <c r="AN117" s="32"/>
       <c r="AO117" s="26"/>
@@ -35364,13 +35444,13 @@
     </row>
     <row r="118" spans="1:80" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>967</v>
+        <v>950</v>
       </c>
       <c r="D118" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35405,27 +35485,27 @@
       <c r="AE118" s="17"/>
       <c r="AF118" s="15"/>
       <c r="AG118" s="17" t="s">
-        <v>968</v>
+        <v>951</v>
       </c>
       <c r="AH118" s="17" t="s">
-        <v>941</v>
+        <v>924</v>
       </c>
       <c r="AI118" s="21">
         <v>60200</v>
       </c>
       <c r="AJ118" s="28" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="AK118" s="22" t="s">
-        <v>969</v>
+        <v>952</v>
       </c>
       <c r="AL118" s="22"/>
       <c r="AM118" s="23" t="s">
-        <v>970</v>
+        <v>953</v>
       </c>
       <c r="AN118" s="15"/>
       <c r="AO118" s="61" t="s">
-        <v>971</v>
+        <v>954</v>
       </c>
       <c r="AP118" s="24"/>
       <c r="AQ118" s="26"/>
@@ -35529,13 +35609,13 @@
     </row>
     <row r="119" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D119" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35570,23 +35650,23 @@
       <c r="AE119" s="17"/>
       <c r="AF119" s="15"/>
       <c r="AG119" s="17" t="s">
-        <v>972</v>
+        <v>955</v>
       </c>
       <c r="AH119" s="17" t="s">
-        <v>941</v>
+        <v>924</v>
       </c>
       <c r="AI119" s="21">
         <v>60200</v>
       </c>
       <c r="AJ119" s="28" t="s">
-        <v>973</v>
+        <v>956</v>
       </c>
       <c r="AK119" s="22" t="s">
-        <v>974</v>
+        <v>957</v>
       </c>
       <c r="AL119" s="22"/>
       <c r="AM119" s="23" t="s">
-        <v>975</v>
+        <v>958</v>
       </c>
       <c r="AN119" s="15"/>
       <c r="AO119" s="61"/>
@@ -35692,13 +35772,13 @@
     </row>
     <row r="120" spans="1:80" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>955</v>
+        <v>938</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>976</v>
+        <v>959</v>
       </c>
       <c r="D120" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35733,23 +35813,23 @@
       <c r="AE120" s="17"/>
       <c r="AF120" s="15"/>
       <c r="AG120" s="17" t="s">
-        <v>977</v>
+        <v>960</v>
       </c>
       <c r="AH120" s="17" t="s">
-        <v>945</v>
+        <v>928</v>
       </c>
       <c r="AI120" s="21">
         <v>60000</v>
       </c>
       <c r="AJ120" s="28" t="s">
-        <v>978</v>
+        <v>961</v>
       </c>
       <c r="AK120" s="22" t="s">
-        <v>979</v>
+        <v>962</v>
       </c>
       <c r="AL120" s="22"/>
       <c r="AM120" s="23" t="s">
-        <v>980</v>
+        <v>963</v>
       </c>
       <c r="AN120" s="15"/>
       <c r="AO120" s="26"/>
@@ -35855,13 +35935,13 @@
     </row>
     <row r="121" spans="1:80" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>955</v>
+        <v>938</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D121" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35896,23 +35976,23 @@
       <c r="AE121" s="17"/>
       <c r="AF121" s="15"/>
       <c r="AG121" s="17" t="s">
-        <v>981</v>
+        <v>964</v>
       </c>
       <c r="AH121" s="17" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AI121" s="21">
         <v>67000</v>
       </c>
       <c r="AJ121" s="28" t="s">
-        <v>982</v>
+        <v>965</v>
       </c>
       <c r="AK121" s="22" t="s">
-        <v>983</v>
+        <v>966</v>
       </c>
       <c r="AL121" s="22"/>
       <c r="AM121" s="23" t="s">
-        <v>984</v>
+        <v>967</v>
       </c>
       <c r="AN121" s="15"/>
       <c r="AO121" s="26"/>
@@ -36018,13 +36098,13 @@
     </row>
     <row r="122" spans="1:80" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>955</v>
+        <v>938</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>985</v>
+        <v>968</v>
       </c>
       <c r="D122" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36059,23 +36139,23 @@
       <c r="AE122" s="17"/>
       <c r="AF122" s="15"/>
       <c r="AG122" s="17" t="s">
-        <v>986</v>
+        <v>969</v>
       </c>
       <c r="AH122" s="17" t="s">
-        <v>987</v>
+        <v>970</v>
       </c>
       <c r="AI122" s="21">
         <v>21121</v>
       </c>
       <c r="AJ122" s="28" t="s">
-        <v>988</v>
+        <v>971</v>
       </c>
       <c r="AK122" s="22" t="s">
-        <v>989</v>
+        <v>972</v>
       </c>
       <c r="AL122" s="22"/>
       <c r="AM122" s="23" t="s">
-        <v>990</v>
+        <v>973</v>
       </c>
       <c r="AN122" s="15"/>
       <c r="AO122" s="26"/>
@@ -36181,13 +36261,13 @@
     </row>
     <row r="123" spans="1:80" ht="105" x14ac:dyDescent="0.25">
       <c r="A123" s="80" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B123" s="80" t="s">
-        <v>955</v>
+        <v>938</v>
       </c>
       <c r="C123" s="81" t="s">
-        <v>991</v>
+        <v>974</v>
       </c>
       <c r="D123" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36222,23 +36302,23 @@
       <c r="AE123" s="81"/>
       <c r="AF123" s="83"/>
       <c r="AG123" s="81" t="s">
-        <v>992</v>
+        <v>975</v>
       </c>
       <c r="AH123" s="81" t="s">
-        <v>993</v>
+        <v>976</v>
       </c>
       <c r="AI123" s="85">
         <v>21800</v>
       </c>
       <c r="AJ123" s="87" t="s">
-        <v>994</v>
+        <v>977</v>
       </c>
       <c r="AK123" s="88" t="s">
-        <v>995</v>
+        <v>978</v>
       </c>
       <c r="AL123" s="88"/>
       <c r="AM123" s="89" t="s">
-        <v>996</v>
+        <v>979</v>
       </c>
       <c r="AN123" s="111"/>
       <c r="AO123" s="72"/>
@@ -36334,13 +36414,13 @@
     </row>
     <row r="124" spans="1:80" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="101" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B124" s="101" t="s">
-        <v>955</v>
+        <v>938</v>
       </c>
       <c r="C124" s="102" t="s">
-        <v>997</v>
+        <v>980</v>
       </c>
       <c r="D124" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36375,19 +36455,19 @@
       <c r="AE124" s="102"/>
       <c r="AF124" s="104"/>
       <c r="AG124" s="102" t="s">
-        <v>998</v>
+        <v>981</v>
       </c>
       <c r="AH124" s="102" t="s">
-        <v>962</v>
+        <v>945</v>
       </c>
       <c r="AI124" s="106">
         <v>21000</v>
       </c>
       <c r="AJ124" s="107" t="s">
-        <v>999</v>
+        <v>982</v>
       </c>
       <c r="AK124" s="108" t="s">
-        <v>1000</v>
+        <v>983</v>
       </c>
       <c r="AL124" s="108"/>
       <c r="AM124" s="109"/>
@@ -36485,13 +36565,13 @@
     </row>
     <row r="125" spans="1:80" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="101" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B125" s="101" t="s">
-        <v>955</v>
+        <v>938</v>
       </c>
       <c r="C125" s="102" t="s">
-        <v>1001</v>
+        <v>984</v>
       </c>
       <c r="D125" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36526,23 +36606,23 @@
       <c r="AE125" s="102"/>
       <c r="AF125" s="104"/>
       <c r="AG125" s="102" t="s">
-        <v>1002</v>
+        <v>985</v>
       </c>
       <c r="AH125" s="102" t="s">
-        <v>1003</v>
+        <v>986</v>
       </c>
       <c r="AI125" s="106">
         <v>21300</v>
       </c>
       <c r="AJ125" s="107" t="s">
-        <v>1004</v>
+        <v>987</v>
       </c>
       <c r="AK125" s="108" t="s">
-        <v>1005</v>
+        <v>988</v>
       </c>
       <c r="AL125" s="108"/>
       <c r="AM125" s="109" t="s">
-        <v>1006</v>
+        <v>989</v>
       </c>
       <c r="AN125" s="110"/>
       <c r="AO125" s="7"/>
@@ -36638,13 +36718,13 @@
     </row>
     <row r="126" spans="1:80" ht="105" x14ac:dyDescent="0.25">
       <c r="A126" s="101" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B126" s="101" t="s">
-        <v>955</v>
+        <v>938</v>
       </c>
       <c r="C126" s="102" t="s">
-        <v>1007</v>
+        <v>990</v>
       </c>
       <c r="D126" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36679,23 +36759,23 @@
       <c r="AE126" s="102"/>
       <c r="AF126" s="104"/>
       <c r="AG126" s="102" t="s">
-        <v>1008</v>
+        <v>991</v>
       </c>
       <c r="AH126" s="102" t="s">
-        <v>993</v>
+        <v>976</v>
       </c>
       <c r="AI126" s="106">
         <v>21800</v>
       </c>
       <c r="AJ126" s="107" t="s">
-        <v>1009</v>
+        <v>992</v>
       </c>
       <c r="AK126" s="108" t="s">
-        <v>1010</v>
+        <v>993</v>
       </c>
       <c r="AL126" s="108"/>
       <c r="AM126" s="109" t="s">
-        <v>1011</v>
+        <v>994</v>
       </c>
       <c r="AN126" s="110"/>
       <c r="AO126" s="7"/>
@@ -36791,13 +36871,13 @@
     </row>
     <row r="127" spans="1:80" s="123" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="101" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B127" s="101" t="s">
-        <v>1012</v>
+        <v>995</v>
       </c>
       <c r="C127" s="102" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D127" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36832,23 +36912,23 @@
       <c r="AE127" s="102"/>
       <c r="AF127" s="104"/>
       <c r="AG127" s="102" t="s">
-        <v>1014</v>
+        <v>997</v>
       </c>
       <c r="AH127" s="102" t="s">
-        <v>1013</v>
+        <v>996</v>
       </c>
       <c r="AI127" s="106">
         <v>21600</v>
       </c>
       <c r="AJ127" s="107" t="s">
-        <v>1015</v>
+        <v>998</v>
       </c>
       <c r="AK127" s="108" t="s">
-        <v>1016</v>
+        <v>999</v>
       </c>
       <c r="AL127" s="108"/>
       <c r="AM127" s="109" t="s">
-        <v>1017</v>
+        <v>1000</v>
       </c>
       <c r="AN127" s="104"/>
       <c r="AO127" s="7"/>
@@ -36954,13 +37034,13 @@
     </row>
     <row r="128" spans="1:80" s="98" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="115" t="s">
-        <v>1153</v>
+        <v>1135</v>
       </c>
       <c r="B128" s="113" t="s">
-        <v>1154</v>
+        <v>1136</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>1152</v>
+        <v>1134</v>
       </c>
       <c r="D128" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36975,13 +37055,13 @@
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
       <c r="M128" s="98" t="s">
-        <v>1155</v>
+        <v>1137</v>
       </c>
       <c r="N128" s="114" t="s">
-        <v>1156</v>
+        <v>1138</v>
       </c>
       <c r="O128" s="98" t="s">
-        <v>1157</v>
+        <v>1139</v>
       </c>
       <c r="P128" s="2"/>
       <c r="R128" s="119"/>
@@ -37000,23 +37080,23 @@
       <c r="AE128" s="8"/>
       <c r="AF128" s="2"/>
       <c r="AG128" s="116" t="s">
-        <v>1158</v>
+        <v>1140</v>
       </c>
       <c r="AH128" s="98" t="s">
-        <v>1159</v>
+        <v>1141</v>
       </c>
       <c r="AI128" s="117">
         <v>92390</v>
       </c>
       <c r="AJ128" s="107" t="s">
-        <v>1160</v>
+        <v>1142</v>
       </c>
       <c r="AK128" s="108" t="s">
-        <v>1161</v>
+        <v>1143</v>
       </c>
       <c r="AL128" s="108"/>
       <c r="AM128" s="109" t="s">
-        <v>1162</v>
+        <v>1144</v>
       </c>
       <c r="AN128" s="5"/>
       <c r="AO128" s="2"/>
@@ -42261,87 +42341,95 @@
     <hyperlink ref="AK54" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="AJ54" r:id="rId20" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?q=KALIZEA+reims&amp;sa=X&amp;ved=0ahUKEwjJ9dug6tXaAhWqD8AKHZiSDzYQuzEICigA&amp;biw=1467&amp;bih=703" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="AK55" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="AK7" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="AJ7" r:id="rId23" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=pavgWrGFM8-0gQbpwIbQCQ&amp;q=fofralab+magenta&amp;oq=fofralab+magenta&amp;gs_l=psy-ab.3..0i13k1.387029.391164.0.391634.16.16.0.0.0.0.329.1969.0j6j3j1.10.0....0...1c.1.64.psy-ab..6.10.1960...0j35i39k1j0i67k1j0i131k1j0i131i67k1j0i10k1j0i10i19k1j0i13i5i10i30i19k1j0i13i30k1.0.Mbr8qt9fctI" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="AK63" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="AJ63" r:id="rId25" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=ZrDgWrTvMJqvgAbRn67gDA&amp;q=malteurop+vitry+le+francois&amp;oq=malteurop+vitry+le+francois&amp;gs_l=psy-ab.3..0i71k1l8.5807.5807.0.5976.1.1.0.0.0.0.0.0..0.0....0...1c..64.psy-ab..1.0.0....0.jIvwkzJYj6k" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="AR63" r:id="rId26" display="mailto:stephanie.grosjean@malteurop.com" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="AK72" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="AJ72" r:id="rId28" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=sbLgWvDKBIPAgAb2hIOIAQ&amp;q=MARLENHEIM+p%C3%A2tes&amp;oq=MARLENHEIM+p%C3%A2tes&amp;gs_l=psy-ab.3..33i22i29i30k1.6854.9853.0.10011.6.6.0.0.0.0.215.723.0j4j1.5.0....0...1c.1.64.psy-ab..1.4.507...0j0i67k1j0i22i30k1j33i160k1.0.2DQBZ7EcKCc" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="AK57" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="AJ57" r:id="rId30" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=vLLgWurlG4LZgQbt-YOwDw&amp;q=chamtor+pomacle&amp;oq=chamtor+pomacle&amp;gs_l=psy-ab.3..0i22i30k1.568190.572873.0.573230.15.12.0.3.3.0.296.1174.0j5j2.7.0....0...1c.1.64.psy-ab..5.10.1204...0j35i39k1j0i10i67k1j0i131k1j0i20i263k1j0i10k1j0i203k1j0i30k1j0i10i30k1.0.BuriVhJD9fU" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="AK50" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="AR50" r:id="rId32" display="mailto:theret@babynov.fr" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="AJ7" r:id="rId22" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=pavgWrGFM8-0gQbpwIbQCQ&amp;q=fofralab+magenta&amp;oq=fofralab+magenta&amp;gs_l=psy-ab.3..0i13k1.387029.391164.0.391634.16.16.0.0.0.0.329.1969.0j6j3j1.10.0....0...1c.1.64.psy-ab..6.10.1960...0j35i39k1j0i67k1j0i131k1j0i131i67k1j0i10k1j0i10i19k1j0i13i5i10i30i19k1j0i13i30k1.0.Mbr8qt9fctI" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="AK63" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="AJ63" r:id="rId24" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=ZrDgWrTvMJqvgAbRn67gDA&amp;q=malteurop+vitry+le+francois&amp;oq=malteurop+vitry+le+francois&amp;gs_l=psy-ab.3..0i71k1l8.5807.5807.0.5976.1.1.0.0.0.0.0.0..0.0....0...1c..64.psy-ab..1.0.0....0.jIvwkzJYj6k" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="AR63" r:id="rId25" display="mailto:stephanie.grosjean@malteurop.com" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="AK72" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="AJ72" r:id="rId27" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=sbLgWvDKBIPAgAb2hIOIAQ&amp;q=MARLENHEIM+p%C3%A2tes&amp;oq=MARLENHEIM+p%C3%A2tes&amp;gs_l=psy-ab.3..33i22i29i30k1.6854.9853.0.10011.6.6.0.0.0.0.215.723.0j4j1.5.0....0...1c.1.64.psy-ab..1.4.507...0j0i67k1j0i22i30k1j33i160k1.0.2DQBZ7EcKCc" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="AK57" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="AJ57" r:id="rId29" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=vLLgWurlG4LZgQbt-YOwDw&amp;q=chamtor+pomacle&amp;oq=chamtor+pomacle&amp;gs_l=psy-ab.3..0i22i30k1.568190.572873.0.573230.15.12.0.3.3.0.296.1174.0j5j2.7.0....0...1c.1.64.psy-ab..5.10.1204...0j35i39k1j0i10i67k1j0i131k1j0i20i263k1j0i10k1j0i203k1j0i30k1j0i10i30k1.0.BuriVhJD9fU" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="AK50" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="AR50" r:id="rId31" display="mailto:theret@babynov.fr" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
     <hyperlink ref="AK74" display="https://www.google.fr/maps/place/Nutribio+(Barres+C%C3%A9r%C3%A9ales)/@50.1617921,2.3213815,17z/data=!4m12!1m6!3m5!1s0x47dd7082a4a62a79:0xafc357a0aaaf722b!2sCofranlait!8m2!3d50.1606202!4d2.3240262!3m4!1s0x47dd709dcc850bc9:0x21cdef0b722c71c5!8m2!3d50.16256" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="AK53" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="AJ53" r:id="rId34" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=RsbgWsefAeuZgAbg567IAw&amp;q=bister+10800+SAINT-THIBAULT&amp;oq=bister+10800+SAINT-THIBAULT&amp;gs_l=psy-ab.3...45431.46651.0.47492.8.8.0.0.0.0.236.895.0j3j2.5.0....0...1c.1.64.psy-ab..3.4.755...0j35i39k1j0i131k1j0i67k1j0i10k1j0i203k1.0.j49N90zVObY" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="AK66" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="AQ66" r:id="rId36" display="http://03.26.67.16.45/" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="AK53" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="AJ53" r:id="rId33" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=RsbgWsefAeuZgAbg567IAw&amp;q=bister+10800+SAINT-THIBAULT&amp;oq=bister+10800+SAINT-THIBAULT&amp;gs_l=psy-ab.3...45431.46651.0.47492.8.8.0.0.0.0.236.895.0j3j2.5.0....0...1c.1.64.psy-ab..3.4.755...0j35i39k1j0i131k1j0i67k1j0i10k1j0i203k1.0.j49N90zVObY" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="AK66" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="AQ66" r:id="rId35" display="http://03.26.67.16.45/" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="AK70" display="https://www.google.com/search?client=firefox-b-ab&amp;q=LESAFFRE+INTERNATIONAL+%09137+rue+gabriel+P%C3%A9ri%09MARCQ+EN+BAROEUL%0959700&amp;npsic=0&amp;rflfq=1&amp;rlha=0&amp;rllag=50672542,3079001,237&amp;tbm=lcl&amp;ved=0ahUKEwik1s3epOzaAhXkCsAKHXyYDl4QtgMIKg&amp;tbs=lrf:!2m1!1e2!3sIAE" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="AK67" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="AK67" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="AK62" display="https://www.google.fr/maps/place/5+Rue+Henri+Martin,+51200+%C3%89pernay/@49.03997,3.955612,18z/data=!3m1!4b1!4m8!1m2!2m1!1sCoop%C3%A9rative+R%C3%A9gionale+des+Vins+de+Champagne+5+rue+henri+martin!3m4!1s0x47e96b4f254c4b7f:0x2f30202f02c1afd2!8m2!3d49.039968" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="AK56" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="AR56" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="AJ62" r:id="rId40" display="http://03.26.51.19.30/" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="AK61" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="AK58" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="AK31" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="AR31" r:id="rId44" display="mailto:barbara.fromentin@pernod-ricard.com" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="AK64" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="AK59" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="AR59" r:id="rId47" display="mailto:f.pichard@distillerie-goyard.com" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="AK26" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="AR7" r:id="rId49" display="clebrishoual@sofralab.com" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="AK5" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="AK71" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="AK52" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="AK43" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="AK38" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="AK56" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="AR56" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="AJ62" r:id="rId39" display="http://03.26.51.19.30/" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="AK61" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="AK58" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="AK31" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="AR31" r:id="rId43" display="mailto:barbara.fromentin@pernod-ricard.com" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="AK64" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="AK59" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="AR59" r:id="rId46" display="mailto:f.pichard@distillerie-goyard.com" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="AK26" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="AR7" r:id="rId48" display="clebrishoual@sofralab.com" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="AK71" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="AK52" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="AK43" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="AK38" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
     <hyperlink ref="AK49" display="https://www.google.com/maps/place/Roquette+Fr%C3%A8res/@49.3962371,3.1070116,17z/data=!4m13!1m7!3m6!1s0x47e8637834193e7d:0x4e99f3d83b438dc6!2sRoute+de+Compi%C3%A8gne,+02290+Montigny-Lengrain!3b1!8m2!3d49.3958167!4d3.1021602!3m4!1s0x47e86379cc96af81:0x8b54" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="AR92" r:id="rId55" display="mailto:aurelie.gantet@reimsmetropole.fr" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="AR104" r:id="rId56" display="mailto:thor.hpc@thor.com" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="AR106" r:id="rId57" display="mailto:katia.savary@univ-reims.fr" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="AK42" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="AR9" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="AR51" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="AK6" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="AK20" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="AK13" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="AJ32" r:id="rId64" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?ei=WSDeWqjRLoPCgAao_rOACQ&amp;q=GRANDS+MOULINS+%28EUROMILL+NORD+REIMS%29&amp;oq=GRANDS+MOULINS+%28EUROMILL+NORD+REIMS%29&amp;gs_l=psy-ab.3...222844.222844.0.223869.1.1.0.0.0.0.361.361.3-1.1.0....0...1c.1.64.psy-ab..0.0.0....0.P1wqGInEwAU" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="AR77" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="AR78" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="AR6" r:id="rId67" display="mailto:mbertemes@mhws.fr" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="AR79" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="AK68" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="AR83" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="AR8" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="AQ52" r:id="rId72" display="Labo08@cq08.fr_x000a_03 24 59 61 53  _x000a_" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="AR52" r:id="rId73" display="mailto:Labo08@cq08.fr" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="AR21" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="AR22" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="AR86" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="AR89" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="AK46" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="AK87" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="AK88" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="AK89" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="AR33" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="AR4" r:id="rId83" display="m.lebrun@soliance.com / " xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="AR99" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="AR102" r:id="rId85" display="mailto:mickael.franchette@eugenemerma.fr" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="AR103" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="AR39" r:id="rId87" display="mailto:floriane.oszust@univ-reims;fr" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="AR42" r:id="rId88" display="mailto:v.verdonk@biotechjboy.com" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="AR108" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="AR92" r:id="rId53" display="mailto:aurelie.gantet@reimsmetropole.fr" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="AR104" r:id="rId54" display="mailto:thor.hpc@thor.com" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="AR106" r:id="rId55" display="mailto:katia.savary@univ-reims.fr" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="AK42" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="AR9" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="AR51" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="AK20" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="AJ32" r:id="rId60" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?ei=WSDeWqjRLoPCgAao_rOACQ&amp;q=GRANDS+MOULINS+%28EUROMILL+NORD+REIMS%29&amp;oq=GRANDS+MOULINS+%28EUROMILL+NORD+REIMS%29&amp;gs_l=psy-ab.3...222844.222844.0.223869.1.1.0.0.0.0.361.361.3-1.1.0....0...1c.1.64.psy-ab..0.0.0....0.P1wqGInEwAU" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="AR77" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="AR78" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="AR6" r:id="rId63" display="mailto:mbertemes@mhws.fr" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="AR79" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="AK68" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="AR83" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="AR8" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="AQ52" r:id="rId68" display="Labo08@cq08.fr_x000a_03 24 59 61 53  _x000a_" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="AR52" r:id="rId69" display="mailto:Labo08@cq08.fr" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="AR21" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="AR22" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="AR86" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="AR89" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="AK46" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="AK87" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="AK88" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="AK89" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="AR33" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="AR4" r:id="rId79" display="m.lebrun@soliance.com / " xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="AR99" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="AR102" r:id="rId81" display="mailto:mickael.franchette@eugenemerma.fr" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="AR103" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="AR39" r:id="rId83" display="mailto:floriane.oszust@univ-reims;fr" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="AR42" r:id="rId84" display="mailto:v.verdonk@biotechjboy.com" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="AR108" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
     <hyperlink ref="AK108" display="https://www.google.fr/maps/place/49%C2%B014'33.9%22N+4%C2%B003'41.6%22E/@49.242738,4.0606367,18z/data=!3m1!4b1!4m9!1m2!2m1!1sB%C3%A2timent+18+-+UFR+Sciences+Exactes+et+Naturelles,+Laboratoire+SIRMA++++CNRS+3481++!3m5!1s0x0:0x0!7e2!8m2!3d49.2427377!4d4.061" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="AR115" r:id="rId90" display="mailto:info@jnslabs.com" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="AR57" r:id="rId91" xr:uid="{120D4766-2804-834C-B350-0BE7FDA42D38}"/>
-    <hyperlink ref="AK4" r:id="rId92" xr:uid="{6622BBA6-6FF8-4152-B86B-419D1D3F91A2}"/>
-    <hyperlink ref="AK9" r:id="rId93" xr:uid="{0F848F62-5219-486F-9238-C9D84E5FF433}"/>
-    <hyperlink ref="AK2" r:id="rId94" xr:uid="{CE6BB279-B22D-4886-BA43-EBC7C34ABC98}"/>
+    <hyperlink ref="AR115" r:id="rId86" display="mailto:info@jnslabs.com" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="AR57" r:id="rId87" xr:uid="{120D4766-2804-834C-B350-0BE7FDA42D38}"/>
+    <hyperlink ref="AK4" r:id="rId88" xr:uid="{6622BBA6-6FF8-4152-B86B-419D1D3F91A2}"/>
+    <hyperlink ref="AK2" r:id="rId89" xr:uid="{CE6BB279-B22D-4886-BA43-EBC7C34ABC98}"/>
+    <hyperlink ref="AK3" r:id="rId90" xr:uid="{AD65CD47-7EFA-468A-823F-E339A9B6D149}"/>
+    <hyperlink ref="AK5" r:id="rId91" xr:uid="{867F9573-C524-43B1-B8BB-393613768702}"/>
+    <hyperlink ref="AK6" r:id="rId92" xr:uid="{BF5452CE-A4A7-4606-BC60-FF976F299AB7}"/>
+    <hyperlink ref="AK7" r:id="rId93" xr:uid="{D6C97649-73D2-49A8-8292-B639FCA92A26}"/>
+    <hyperlink ref="AK8" r:id="rId94" xr:uid="{06A1A36D-1C79-4DDD-8C3C-A29B3AB95216}"/>
+    <hyperlink ref="AK9" r:id="rId95" xr:uid="{E7287CB5-76AD-4369-BEC2-F6381C7644FC}"/>
+    <hyperlink ref="AK10" r:id="rId96" xr:uid="{9180D9EF-8163-43F1-B529-5EF7620CCC98}"/>
+    <hyperlink ref="AK12" r:id="rId97" xr:uid="{7B3178EE-8012-4045-ABA6-770304DA7A0A}"/>
+    <hyperlink ref="AK13" r:id="rId98" xr:uid="{6BF309E0-44F4-4801-A07F-B45D80DAD3B9}"/>
+    <hyperlink ref="AK15" r:id="rId99" xr:uid="{30B8E8AB-484D-4869-9DA7-C84D07A1DFD7}"/>
+    <hyperlink ref="AK17" r:id="rId100" xr:uid="{832F36F7-F6BA-46EB-A5E1-DB9BEB57D0DF}"/>
+    <hyperlink ref="AK18" r:id="rId101" xr:uid="{9154F617-C5AB-49D1-BA5E-806CE4EB594E}"/>
+    <hyperlink ref="AK19" r:id="rId102" xr:uid="{F3B7F5D3-98B0-43C8-A6A6-EFF45964F58D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId95"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId103"/>
 </worksheet>
 </file>
 
@@ -42360,7 +42448,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="171" t="s">
-        <v>1079</v>
+        <v>1061</v>
       </c>
       <c r="B1" s="172"/>
       <c r="C1" s="172"/>
@@ -42377,14 +42465,14 @@
       <c r="F2" s="176"/>
       <c r="H2" s="68"/>
       <c r="I2" s="69" t="s">
-        <v>1018</v>
+        <v>1001</v>
       </c>
       <c r="K2" s="70"/>
       <c r="L2" s="69" t="s">
-        <v>1019</v>
+        <v>1002</v>
       </c>
       <c r="N2" s="167" t="s">
-        <v>1047</v>
+        <v>1030</v>
       </c>
       <c r="O2" s="168"/>
       <c r="P2" s="168"/>
@@ -42446,7 +42534,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="171" t="s">
-        <v>1022</v>
+        <v>1005</v>
       </c>
       <c r="B1" s="172"/>
       <c r="C1" s="172"/>
@@ -42465,14 +42553,14 @@
       <c r="G2" s="71"/>
       <c r="H2" s="68"/>
       <c r="I2" s="69" t="s">
-        <v>1018</v>
+        <v>1001</v>
       </c>
       <c r="K2" s="70"/>
       <c r="L2" s="69" t="s">
-        <v>1019</v>
+        <v>1002</v>
       </c>
       <c r="N2" s="180" t="s">
-        <v>1047</v>
+        <v>1030</v>
       </c>
       <c r="O2" s="181"/>
       <c r="P2" s="181"/>

--- a/Entreprises_Complet.xlsx
+++ b/Entreprises_Complet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfial\Documents\00_Stage_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{238501FC-82FF-43E3-9686-A71A016A74B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBB37DC5-7CBC-4BE7-8680-EE484E439561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="1297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="1300">
   <si>
     <t>Alimentaire</t>
   </si>
@@ -1086,9 +1086,6 @@
     <t>495G+QX Bar-sur-Seine</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Station+Oenotechnique+de+l'Aube/@48.1094266,4.3751964,17z/data=!4m5!3m4!1s0x47ec31d2690073d9:0xbab339a8858d124f!8m2!3d48.1094266!4d4.3773851</t>
-  </si>
-  <si>
     <t>5, Place du Gal GOURAUD BP 1049</t>
   </si>
   <si>
@@ -1402,9 +1399,6 @@
   </si>
   <si>
     <t>03 26 05 42 80</t>
-  </si>
-  <si>
-    <t>https://www.google.fr/maps/place/A.R.D/@49.3485218,4.1573609,792m/data=!3m1!1e3!4m5!3m4!1s0x47e99cc3e8b55299:0x2464c5626e03c033!8m2!3d49.3483951!4d4.1603312?hl=fr</t>
   </si>
   <si>
     <t>85X6+94 Pomacle</t>
@@ -1619,9 +1613,6 @@
     <t>03 25 37 32 93</t>
   </si>
   <si>
-    <t>https://goo.gl/maps/3Ewj8QwrfSG2</t>
-  </si>
-  <si>
     <t>Oenologie Conseil Champagne (O2C)</t>
   </si>
   <si>
@@ -2074,9 +2065,6 @@
     <t>dislaub.fr</t>
   </si>
   <si>
-    <t>Eurial Ultra frais</t>
-  </si>
-  <si>
     <t>Yaourts, fromage blanc, crème fraîche</t>
   </si>
   <si>
@@ -2087,9 +2075,6 @@
   </si>
   <si>
     <t>03 86 97 40 40</t>
-  </si>
-  <si>
-    <t>https://www.google.fr/maps/place/Eurial+Ultra+frais/@48.1687689,2.9853083,17.5z/data=!4m5!3m4!1s0x47ef71af0ad45cf3:0xeced1af3792e9fda!8m2!3d48.1684161!4d2.9848089</t>
   </si>
   <si>
     <t>5X9M+9W Jouy</t>
@@ -2321,9 +2306,6 @@
   </si>
   <si>
     <t>02 35 03 50 00</t>
-  </si>
-  <si>
-    <t>https://www.google.fr/maps/place/Laboratoire+Agro-V%C3%A9t%C3%A9rinaire+D%C3%A9partemental+de+la+Seine+Maritime/@49.3471976,-0.0149302,8.5z/data=!4m5!3m4!1s0x47e0de62733b886d:0xde8b4510591d8be0!8m2!3d49.4274449!4d1.1019751?hl=fr</t>
   </si>
   <si>
     <t>C4G2+XQ Rouen</t>
@@ -4089,6 +4071,33 @@
   </si>
   <si>
     <t>ANSES (BCM-Alimentaire)</t>
+  </si>
+  <si>
+    <t>48.57421849089846, 3.9741207204751405</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/aquanalyse-laboratoire/about/</t>
+  </si>
+  <si>
+    <t>49.520456156633635, 1.2924428577285805</t>
+  </si>
+  <si>
+    <t>EURIAL - Laiterie de Jouy</t>
+  </si>
+  <si>
+    <t>48.168357458477104, 2.9843641624189194</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/eurial-ultra-frais-branche-lait-eurial-du-groupe-agrial-6bb701124/</t>
+  </si>
+  <si>
+    <t>49.348710512517656, 4.160300601104727</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/a-r-d/</t>
+  </si>
+  <si>
+    <t>49.05714533026471, 3.964399200350597</t>
   </si>
 </sst>
 </file>
@@ -15058,33 +15067,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB274"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AD1" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+      <selection pane="bottomLeft" activeCell="AL26" sqref="AL26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" style="113" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="43" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="123" hidden="1" customWidth="1"/>
-    <col min="5" max="12" width="23.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" style="123" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="47.140625" style="2" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="47.140625" style="98" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="47.140625" style="8" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="47.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="47.140625" style="98" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="47.140625" style="119" hidden="1" customWidth="1"/>
-    <col min="19" max="21" width="47.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="22" max="23" width="47.140625" style="8" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="47.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="36.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="26" max="27" width="34.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="33.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="29" max="31" width="33.140625" style="8" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="33.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="47" style="8" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="32.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="44" style="98" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="46.140625" style="119" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="47" style="2" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="32.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="27.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="46.7109375" style="8" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="59.85546875" style="8" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="44.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="25.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="33.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="36" style="2" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="32.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="25.140625" style="8" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="33.5703125" style="8" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="33.42578125" style="8" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="37.5703125" style="2" hidden="1" customWidth="1"/>
     <col min="33" max="34" width="33.28515625" style="8" customWidth="1"/>
     <col min="35" max="35" width="33.28515625" style="9" customWidth="1"/>
     <col min="36" max="38" width="33.28515625" style="2" customWidth="1"/>
@@ -15116,31 +15138,31 @@
         <v>165</v>
       </c>
       <c r="D1" s="151" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E1" s="152" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="F1" s="152" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="G1" s="152" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="H1" s="152" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="I1" s="152" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="J1" s="152" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="K1" s="152" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="L1" s="152" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="M1" s="153" t="s">
         <v>282</v>
@@ -15218,7 +15240,7 @@
         <v>82</v>
       </c>
       <c r="AL1" s="150" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="AM1" s="150" t="s">
         <v>294</v>
@@ -15242,110 +15264,110 @@
         <v>260</v>
       </c>
       <c r="AT1" s="157" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AU1" s="158" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AV1" s="157" t="s">
+        <v>998</v>
+      </c>
+      <c r="AW1" s="158" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AX1" s="159" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AY1" s="159" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AZ1" s="159" t="s">
+        <v>1034</v>
+      </c>
+      <c r="BA1" s="159" t="s">
+        <v>1035</v>
+      </c>
+      <c r="BB1" s="159" t="s">
+        <v>1004</v>
+      </c>
+      <c r="BC1" s="159" t="s">
+        <v>1005</v>
+      </c>
+      <c r="BD1" s="159" t="s">
         <v>1006</v>
       </c>
-      <c r="AU1" s="158" t="s">
+      <c r="BE1" s="159" t="s">
+        <v>1007</v>
+      </c>
+      <c r="BF1" s="159" t="s">
+        <v>1008</v>
+      </c>
+      <c r="BG1" s="159" t="s">
         <v>1009</v>
       </c>
-      <c r="AV1" s="157" t="s">
-        <v>1004</v>
-      </c>
-      <c r="AW1" s="158" t="s">
-        <v>1007</v>
-      </c>
-      <c r="AX1" s="159" t="s">
-        <v>1042</v>
-      </c>
-      <c r="AY1" s="159" t="s">
-        <v>1043</v>
-      </c>
-      <c r="AZ1" s="159" t="s">
-        <v>1040</v>
-      </c>
-      <c r="BA1" s="159" t="s">
-        <v>1041</v>
-      </c>
-      <c r="BB1" s="159" t="s">
+      <c r="BH1" s="159" t="s">
         <v>1010</v>
       </c>
-      <c r="BC1" s="159" t="s">
+      <c r="BI1" s="159" t="s">
         <v>1011</v>
       </c>
-      <c r="BD1" s="159" t="s">
+      <c r="BJ1" s="159" t="s">
         <v>1012</v>
       </c>
-      <c r="BE1" s="159" t="s">
+      <c r="BK1" s="159" t="s">
         <v>1013</v>
       </c>
-      <c r="BF1" s="159" t="s">
-        <v>1014</v>
-      </c>
-      <c r="BG1" s="159" t="s">
-        <v>1015</v>
-      </c>
-      <c r="BH1" s="159" t="s">
-        <v>1016</v>
-      </c>
-      <c r="BI1" s="159" t="s">
-        <v>1017</v>
-      </c>
-      <c r="BJ1" s="159" t="s">
-        <v>1018</v>
-      </c>
-      <c r="BK1" s="159" t="s">
-        <v>1019</v>
-      </c>
       <c r="BL1" s="160" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="BM1" s="160" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="BN1" s="160"/>
       <c r="BO1" s="160"/>
       <c r="BP1" s="161" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="BQ1" s="161" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="BR1" s="161" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="BS1" s="161" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="BT1" s="161" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="BU1" s="161"/>
       <c r="BV1" s="161"/>
       <c r="BW1" s="161" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="BX1" s="161" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="BY1" s="161" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="BZ1" s="161" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="CA1" s="161" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="CB1" s="162"/>
     </row>
     <row r="2" spans="1:80" s="18" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="D2" s="99"/>
       <c r="E2" s="164"/>
@@ -15377,7 +15399,7 @@
       <c r="AE2" s="62"/>
       <c r="AF2" s="137"/>
       <c r="AG2" s="62" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="AH2" s="62" t="s">
         <v>193</v>
@@ -15386,13 +15408,13 @@
         <v>51100</v>
       </c>
       <c r="AJ2" s="139" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="AK2" s="67" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="AL2" s="144" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="AM2" s="67"/>
       <c r="AN2" s="140"/>
@@ -15421,86 +15443,86 @@
     </row>
     <row r="3" spans="1:80" s="18" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D3" s="99" t="str">
         <f t="shared" ref="D3:D34" si="0">IF(AX3&lt;&gt;0,"2020_A="&amp;AX3," ")&amp;IF(AY3&lt;&gt;0," ; 2020_i="&amp;AY3," ")&amp;IF(AZ3&lt;&gt;0,"2019_A="&amp;AZ3," ")&amp;IF(BA3&lt;&gt;0," ; 2019_i="&amp;BA3," ")&amp;IF(BB3&lt;&gt;0,"2018_A="&amp;BB3," ")&amp;IF(BC3&lt;&gt;0," ; 2018_i="&amp;BC3," ")&amp;IF(BD3&lt;&gt;0," ; 2017_A="&amp;BD3," ")&amp;IF(BE3&lt;&gt;0," ; 2017_i="&amp;BE3," ")&amp;IF(BF3&lt;&gt;0," ; 2016_A="&amp;BF3," ")&amp;IF(BG3&lt;&gt;0," ; 2016_i="&amp;BG3," ")&amp;IF(BH3&lt;&gt;0," ; 2015_A="&amp;BH3," ")&amp;IF(BI3&lt;&gt;0," ; 2015_i="&amp;BI3," ")&amp;IF(BJ3&lt;&gt;0," ; 2014_A="&amp;BJ3," ")&amp;IF(BK3&lt;&gt;0," ; 2014_i="&amp;BK3," ")</f>
         <v xml:space="preserve">2020_A=2 2019_A=4 2018_A=7  ; 2017_A=5 ; 2017_i=1 ; 2016_A=6 ; 2016_i=1 ; 2015_A=3  ; 2014_A=3 </v>
       </c>
       <c r="E3" s="164" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="F3" s="164" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="G3" s="164" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="H3" s="164"/>
       <c r="I3" s="74" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="K3" s="62" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="L3" s="164"/>
       <c r="M3" s="74" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="N3" s="62" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="O3" s="62" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="P3" s="137"/>
       <c r="Q3" s="62" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="R3" s="137" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="S3" s="137" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="T3" s="137"/>
       <c r="U3" s="62" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="V3" s="62" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="W3" s="62" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="X3" s="137"/>
       <c r="Y3" s="137"/>
       <c r="Z3" s="62" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="AA3" s="62" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="AB3" s="137"/>
       <c r="AC3" s="62"/>
       <c r="AD3" s="62" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="AE3" s="62" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="AF3" s="137"/>
       <c r="AG3" s="62" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AH3" s="62" t="s">
         <v>193</v>
@@ -15512,13 +15534,13 @@
         <v>326888110</v>
       </c>
       <c r="AK3" s="67" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="AL3" s="144" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="AM3" s="67" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AN3" s="140"/>
       <c r="AO3" s="141"/>
@@ -15648,78 +15670,78 @@
         <v>270</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D4" s="73" t="str">
         <f t="shared" si="0"/>
         <v>2020_A=1 2019_A=1 2018_A=2 ; 2018_i=1 ; 2017_A=1  ; 2016_A=2  ; 2015_A=1  ; 2014_A=2 ; 2014_i=1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="75" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="T4" s="17"/>
       <c r="U4" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="X4" s="17"/>
       <c r="Y4" s="17"/>
       <c r="Z4" s="17" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="AA4" s="17" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="AB4" s="17"/>
       <c r="AC4" s="17" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="AD4" s="17" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="AE4" s="17" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="AF4" s="17"/>
       <c r="AG4" s="11" t="s">
@@ -15735,26 +15757,26 @@
         <v>326888410</v>
       </c>
       <c r="AK4" s="23" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="AL4" s="145" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="AM4" s="50"/>
       <c r="AN4" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AO4" s="17" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="AP4" s="17" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="AQ4" s="11" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="AR4" s="23" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="AS4" s="25"/>
       <c r="AT4" s="1">
@@ -15900,45 +15922,45 @@
         <v>286</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="P5" s="17"/>
       <c r="Q5" s="17" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="T5" s="17"/>
       <c r="U5" s="17" t="s">
         <v>288</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="W5" s="17" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="X5" s="17"/>
       <c r="Y5" s="17" t="s">
         <v>268</v>
       </c>
       <c r="Z5" s="17" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="AA5" s="17" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="AB5" s="17"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="17" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="AE5" s="17" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="AF5" s="17"/>
       <c r="AG5" s="17" t="s">
@@ -15954,10 +15976,10 @@
         <v>281</v>
       </c>
       <c r="AK5" s="23" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="AL5" s="146" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="AM5" s="66"/>
       <c r="AN5" s="17"/>
@@ -16084,7 +16106,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D6" s="73" t="str">
         <f t="shared" si="0"/>
@@ -16095,53 +16117,53 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="75" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="P6" s="17"/>
       <c r="Q6" s="17" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="T6" s="17"/>
       <c r="U6" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="W6" s="17" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="Z6" s="17" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AA6" s="17" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AB6" s="17"/>
       <c r="AC6" s="17"/>
@@ -16161,10 +16183,10 @@
         <v>33326512020</v>
       </c>
       <c r="AK6" s="23" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="AL6" s="147" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="AM6" s="25" t="s">
         <v>221</v>
@@ -16316,51 +16338,51 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="75" t="s">
+        <v>501</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>1054</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="R7" s="17" t="s">
         <v>504</v>
       </c>
-      <c r="N7" s="17" t="s">
-        <v>505</v>
-      </c>
-      <c r="O7" s="17" t="s">
-        <v>1060</v>
-      </c>
-      <c r="P7" s="17" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q7" s="17" t="s">
-        <v>506</v>
-      </c>
-      <c r="R7" s="17" t="s">
-        <v>507</v>
-      </c>
       <c r="S7" s="17" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="T7" s="17"/>
       <c r="U7" s="17" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="W7" s="17" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="X7" s="17"/>
       <c r="Y7" s="17"/>
       <c r="Z7" s="17" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="AA7" s="17" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="AB7" s="17"/>
       <c r="AC7" s="17"/>
       <c r="AD7" s="17" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AE7" s="17" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="AF7" s="17"/>
       <c r="AG7" s="11" t="s">
@@ -16376,27 +16398,27 @@
         <v>135</v>
       </c>
       <c r="AK7" s="23" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="AL7" s="147" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="AM7" s="23"/>
       <c r="AN7" s="11" t="s">
         <v>263</v>
       </c>
       <c r="AO7" s="17" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AP7" s="17"/>
       <c r="AQ7" s="11" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AR7" s="50" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AS7" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AT7" s="1">
         <f>RANK(BL7,$BL$3:$BL$122)+COUNTIF(BL$3:BL7,BL7)-1</f>
@@ -16513,10 +16535,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -16531,82 +16553,82 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="75" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="17" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="T8" s="15"/>
       <c r="U8" s="17" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="W8" s="17" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="17" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="AA8" s="17" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="AB8" s="15"/>
       <c r="AC8" s="17"/>
       <c r="AD8" s="17" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="AE8" s="17" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="AF8" s="15"/>
       <c r="AG8" s="17" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AH8" s="17" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AI8" s="21">
         <v>2400</v>
       </c>
       <c r="AJ8" s="46" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AK8" s="23" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="AL8" s="23" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="AM8" s="23"/>
       <c r="AN8" s="30"/>
       <c r="AO8" s="17" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AP8" s="17" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AQ8" s="48" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="AR8" s="42" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="AS8" s="26"/>
       <c r="AT8" s="1">
@@ -16727,80 +16749,80 @@
         <v>4</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="D9" s="99" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">    2018_A=1  ; 2017_A=1  ; 2016_A=1 ; 2016_i=1 ; 2015_A=2  ; 2014_A=1 </v>
       </c>
       <c r="E9" s="75" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="75" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="75" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="P9" s="17"/>
       <c r="Q9" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="T9" s="17"/>
       <c r="U9" s="17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="W9" s="17" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="X9" s="17"/>
       <c r="Y9" s="17" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="Z9" s="17" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="AA9" s="17" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="AB9" s="17"/>
       <c r="AC9" s="17" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="AE9" s="17" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AF9" s="17"/>
       <c r="AG9" s="11" t="s">
@@ -16816,14 +16838,14 @@
         <v>90</v>
       </c>
       <c r="AK9" s="23" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="AL9" s="23" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="AM9" s="23"/>
       <c r="AN9" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AO9" s="17" t="s">
         <v>92</v>
@@ -16832,10 +16854,10 @@
         <v>93</v>
       </c>
       <c r="AQ9" s="25" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AR9" s="42" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AS9" s="25"/>
       <c r="AT9" s="1">
@@ -16951,43 +16973,43 @@
         <v>0</v>
       </c>
       <c r="B10" s="143" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="D10" s="73" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">2020_A=1 2019_A=1 2018_A=1         </v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="G10" s="142" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="H10" s="126"/>
       <c r="I10" s="54" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="J10" s="54" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="K10" s="142" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="L10" s="126"/>
       <c r="M10" s="97" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="N10" s="54" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="O10" s="142" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="P10" s="122"/>
       <c r="Q10" s="54"/>
@@ -17007,10 +17029,10 @@
       <c r="AE10" s="54"/>
       <c r="AF10" s="122"/>
       <c r="AG10" s="54" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="AH10" s="54" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="AI10" s="128">
         <v>50890</v>
@@ -17019,10 +17041,10 @@
         <v>33233066500</v>
       </c>
       <c r="AK10" s="22" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="AL10" s="23" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="AM10" s="54"/>
       <c r="AN10" s="130"/>
@@ -17138,10 +17160,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="D11" s="73" t="str">
         <f t="shared" si="0"/>
@@ -17159,70 +17181,70 @@
         <v>268</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="O11" s="45" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="P11" s="15"/>
       <c r="Q11" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="R11" s="24" t="s">
         <v>526</v>
       </c>
-      <c r="R11" s="24" t="s">
-        <v>529</v>
-      </c>
       <c r="S11" s="45" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="T11" s="15"/>
       <c r="U11" s="15" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="V11" s="17" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="W11" s="45" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="X11" s="15"/>
       <c r="Y11" s="17" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="Z11" s="17" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AA11" s="45" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AB11" s="15"/>
       <c r="AC11" s="17"/>
       <c r="AD11" s="17" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="AE11" s="45" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AF11" s="26"/>
       <c r="AG11" s="17" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AH11" s="17" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="AI11" s="21">
         <v>2350</v>
       </c>
       <c r="AJ11" s="46" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="AK11" s="23" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="AL11" s="23" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="AM11" s="23" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="AN11" s="47"/>
       <c r="AO11" s="26"/>
@@ -17359,33 +17381,33 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="75" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="P12" s="17"/>
       <c r="Q12" s="17" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="S12" s="17" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="T12" s="17"/>
       <c r="U12" s="17" t="s">
         <v>268</v>
       </c>
       <c r="V12" s="17" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="W12" s="17" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
@@ -17409,10 +17431,10 @@
         <v>127</v>
       </c>
       <c r="AK12" s="23" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="AL12" s="23" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="AM12" s="23"/>
       <c r="AN12" s="25"/>
@@ -17429,7 +17451,7 @@
         <v>25</v>
       </c>
       <c r="AS12" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AT12" s="1">
         <f>RANK(BL12,$BL$3:$BL$122)+COUNTIF(BL$3:BL12,BL12)-1</f>
@@ -17556,33 +17578,33 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="75" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="P13" s="17"/>
       <c r="Q13" s="17" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="R13" s="120" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="T13" s="17"/>
       <c r="U13" s="17" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="V13" s="17" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="W13" s="17" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
@@ -17606,13 +17628,13 @@
         <v>124</v>
       </c>
       <c r="AK13" s="23" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="AL13" s="23" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="AM13" s="23" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="AN13" s="25" t="s">
         <v>20</v>
@@ -17735,10 +17757,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D14" s="73" t="str">
         <f t="shared" si="0"/>
@@ -17753,33 +17775,33 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="75" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="P14" s="15"/>
       <c r="Q14" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="R14" s="24" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="S14" s="17" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="T14" s="15"/>
       <c r="U14" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="W14" s="17" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="X14" s="15"/>
       <c r="Y14" s="17"/>
@@ -17791,7 +17813,7 @@
       <c r="AE14" s="17"/>
       <c r="AF14" s="26"/>
       <c r="AG14" s="15" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AH14" s="17" t="s">
         <v>193</v>
@@ -17800,16 +17822,16 @@
         <v>51100</v>
       </c>
       <c r="AJ14" s="46" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="AK14" s="23" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="AL14" s="23" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="AM14" s="23" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AN14" s="47"/>
       <c r="AO14" s="26"/>
@@ -17921,13 +17943,13 @@
     </row>
     <row r="15" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="D15" s="73" t="str">
         <f t="shared" si="0"/>
@@ -17946,26 +17968,26 @@
       <c r="O15" s="17"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="17" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="S15" s="17" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="W15" s="17" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="X15" s="15" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
@@ -17976,7 +17998,7 @@
       <c r="AE15" s="17"/>
       <c r="AF15" s="15"/>
       <c r="AG15" s="17" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="AH15" s="17" t="s">
         <v>193</v>
@@ -17986,13 +18008,13 @@
       </c>
       <c r="AJ15" s="15"/>
       <c r="AK15" s="22" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="AL15" s="23" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="AM15" s="23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AN15" s="30"/>
       <c r="AO15" s="26"/>
@@ -18102,13 +18124,13 @@
     </row>
     <row r="16" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="D16" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18123,13 +18145,13 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="75" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="P16" s="15"/>
       <c r="Q16" s="17"/>
@@ -18140,10 +18162,10 @@
         <v>268</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="W16" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="X16" s="15"/>
       <c r="Y16" s="15"/>
@@ -18154,14 +18176,14 @@
         <v>268</v>
       </c>
       <c r="AD16" s="17" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="AE16" s="17" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AF16" s="15"/>
       <c r="AG16" s="17" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="AH16" s="17" t="s">
         <v>193</v>
@@ -18171,22 +18193,22 @@
       </c>
       <c r="AJ16" s="15"/>
       <c r="AK16" s="22" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="AL16" s="23" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="AM16" s="23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AN16" s="30"/>
       <c r="AO16" s="17" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="AP16" s="24"/>
       <c r="AQ16" s="26"/>
       <c r="AR16" s="42" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="AS16" s="26"/>
       <c r="AT16" s="1">
@@ -18293,13 +18315,13 @@
     </row>
     <row r="17" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="D17" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18314,23 +18336,23 @@
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
       <c r="M17" s="75" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="P17" s="17"/>
       <c r="Q17" s="17" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="T17" s="17"/>
       <c r="U17" s="17"/>
@@ -18346,7 +18368,7 @@
       <c r="AE17" s="17"/>
       <c r="AF17" s="17"/>
       <c r="AG17" s="17" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="AH17" s="17" t="s">
         <v>193</v>
@@ -18356,27 +18378,27 @@
       </c>
       <c r="AJ17" s="28"/>
       <c r="AK17" s="22" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="AL17" s="22" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="AM17" s="23" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="AN17" s="15"/>
       <c r="AO17" s="17" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="AP17" s="24"/>
       <c r="AQ17" s="17" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="AR17" s="60" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="AS17" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AT17" s="1">
         <f>RANK(BL17,$BL$3:$BL$122)+COUNTIF(BL$3:BL17,BL17)-1</f>
@@ -18487,10 +18509,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="D18" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18505,23 +18527,23 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="75" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="P18" s="15"/>
       <c r="Q18" s="17" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
@@ -18537,7 +18559,7 @@
       <c r="AE18" s="17"/>
       <c r="AF18" s="15"/>
       <c r="AG18" s="17" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="AH18" s="17" t="s">
         <v>193</v>
@@ -18546,16 +18568,16 @@
         <v>51680</v>
       </c>
       <c r="AJ18" s="28" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="AK18" s="22" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="AL18" s="22" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="AM18" s="23" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="AN18" s="30"/>
       <c r="AO18" s="26"/>
@@ -18668,10 +18690,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D19" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18690,33 +18712,33 @@
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="R19" s="120" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="T19" s="17"/>
       <c r="U19" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="W19" s="17" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="X19" s="17"/>
       <c r="Y19" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="Z19" s="17" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AA19" s="17" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="AB19" s="17"/>
       <c r="AC19" s="17"/>
@@ -18724,41 +18746,41 @@
       <c r="AE19" s="17"/>
       <c r="AF19" s="17"/>
       <c r="AG19" s="25" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="AH19" s="17" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AI19" s="11">
         <v>51200</v>
       </c>
       <c r="AJ19" s="46" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AK19" s="22" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="AL19" s="52" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="AM19" s="23" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AN19" s="17"/>
       <c r="AO19" s="17" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AP19" s="25" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AQ19" s="25" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="AR19" s="23" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="AS19" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AT19" s="1">
         <f>RANK(BL19,$BL$3:$BL$122)+COUNTIF(BL$3:BL19,BL19)-1</f>
@@ -18864,13 +18886,13 @@
     </row>
     <row r="20" spans="1:80" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="51" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D20" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18889,33 +18911,33 @@
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="17" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="R20" s="120" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="T20" s="17"/>
       <c r="U20" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="V20" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="V20" s="17" t="s">
-        <v>481</v>
-      </c>
       <c r="W20" s="17" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="X20" s="17"/>
       <c r="Y20" s="17" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="Z20" s="17" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AA20" s="17" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AB20" s="17"/>
       <c r="AC20" s="17"/>
@@ -18923,21 +18945,23 @@
       <c r="AE20" s="17"/>
       <c r="AF20" s="17"/>
       <c r="AG20" s="25" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AH20" s="17" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AI20" s="11">
         <v>10380</v>
       </c>
       <c r="AJ20" s="46" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AK20" s="52" t="s">
-        <v>486</v>
-      </c>
-      <c r="AL20" s="52"/>
+        <v>1292</v>
+      </c>
+      <c r="AL20" s="52" t="s">
+        <v>1291</v>
+      </c>
       <c r="AM20" s="25"/>
       <c r="AN20" s="17"/>
       <c r="AO20" s="17"/>
@@ -19055,7 +19079,7 @@
         <v>278</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="D21" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19073,10 +19097,10 @@
         <v>277</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="P21" s="15"/>
       <c r="Q21" s="17"/>
@@ -19096,34 +19120,34 @@
       <c r="AE21" s="17"/>
       <c r="AF21" s="15"/>
       <c r="AG21" s="11" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="AH21" s="17" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="AI21" s="21">
         <v>10000</v>
       </c>
       <c r="AJ21" s="28"/>
       <c r="AK21" s="56" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="AL21" s="56"/>
       <c r="AM21" s="23" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="AN21" s="17" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="AO21" s="17" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="AP21" s="17" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="AQ21" s="17"/>
       <c r="AR21" s="23" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="AS21" s="25"/>
       <c r="AT21" s="1">
@@ -19232,7 +19256,7 @@
         <v>278</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D22" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19247,13 +19271,13 @@
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
       <c r="M22" s="75" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="17"/>
@@ -19273,32 +19297,32 @@
       <c r="AE22" s="17"/>
       <c r="AF22" s="15"/>
       <c r="AG22" s="11" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="AH22" s="17" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="AI22" s="21">
         <v>76100</v>
       </c>
       <c r="AJ22" s="28" t="s">
-        <v>713</v>
-      </c>
-      <c r="AK22" s="56" t="s">
-        <v>714</v>
-      </c>
-      <c r="AL22" s="56"/>
+        <v>708</v>
+      </c>
+      <c r="AK22" s="56"/>
+      <c r="AL22" s="56" t="s">
+        <v>1293</v>
+      </c>
       <c r="AM22" s="23" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="AN22" s="17"/>
       <c r="AO22" s="17"/>
       <c r="AP22" s="17"/>
       <c r="AQ22" s="17" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="AR22" s="23" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="AS22" s="25"/>
       <c r="AT22" s="1">
@@ -19404,10 +19428,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>633</v>
+        <v>1294</v>
       </c>
       <c r="D23" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19422,13 +19446,13 @@
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
       <c r="M23" s="75" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="N23" s="17" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="P23" s="15"/>
       <c r="Q23" s="17"/>
@@ -19448,33 +19472,35 @@
       <c r="AE23" s="17"/>
       <c r="AF23" s="15"/>
       <c r="AG23" s="11" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="AH23" s="17" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="AI23" s="21">
         <v>89150</v>
       </c>
       <c r="AJ23" s="28" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="AK23" s="56" t="s">
-        <v>638</v>
-      </c>
-      <c r="AL23" s="56"/>
+        <v>1296</v>
+      </c>
+      <c r="AL23" s="56" t="s">
+        <v>1295</v>
+      </c>
       <c r="AM23" s="23" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="AN23" s="30"/>
       <c r="AO23" s="17" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="AP23" s="17" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="AQ23" s="25" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="AR23" s="23"/>
       <c r="AS23" s="25"/>
@@ -19484,7 +19510,7 @@
       </c>
       <c r="AU23" s="64" t="str">
         <f t="shared" si="1"/>
-        <v>N° 21 Eurial Ultra frais</v>
+        <v>N° 21 EURIAL - Laiterie de Jouy</v>
       </c>
       <c r="AV23" s="1">
         <f>RANK(BM23,$BM$3:$BM$122)+COUNTIF(BM$3:BM23,BM23)-1</f>
@@ -19492,7 +19518,7 @@
       </c>
       <c r="AW23" s="64" t="str">
         <f t="shared" si="2"/>
-        <v>N° 14 Eurial Ultra frais</v>
+        <v>N° 14 EURIAL - Laiterie de Jouy</v>
       </c>
       <c r="AX23" s="64"/>
       <c r="AY23" s="64"/>
@@ -19578,13 +19604,13 @@
     </row>
     <row r="24" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>426</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>427</v>
       </c>
       <c r="D24" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19603,13 +19629,13 @@
       <c r="O24" s="17"/>
       <c r="P24" s="15"/>
       <c r="Q24" s="17" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
@@ -19624,16 +19650,16 @@
         <v>268</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="AE24" s="17" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AF24" s="15" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AG24" s="17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AH24" s="17" t="s">
         <v>272</v>
@@ -19642,25 +19668,27 @@
         <v>51110</v>
       </c>
       <c r="AJ24" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="AK24" s="23" t="s">
+        <v>1298</v>
+      </c>
+      <c r="AL24" s="23" t="s">
+        <v>1297</v>
+      </c>
+      <c r="AM24" s="23" t="s">
         <v>428</v>
-      </c>
-      <c r="AK24" s="23" t="s">
-        <v>429</v>
-      </c>
-      <c r="AL24" s="23"/>
-      <c r="AM24" s="23" t="s">
-        <v>430</v>
       </c>
       <c r="AN24" s="15"/>
       <c r="AO24" s="24" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="AP24" s="17" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="AQ24" s="26"/>
       <c r="AR24" s="42" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="AS24" s="26"/>
       <c r="AT24" s="1">
@@ -19797,10 +19825,10 @@
         <v>268</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="W25" s="17" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="X25" s="17"/>
       <c r="Y25" s="17"/>
@@ -19811,16 +19839,16 @@
         <v>277</v>
       </c>
       <c r="AD25" s="17" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="AE25" s="17" t="s">
         <v>323</v>
       </c>
       <c r="AF25" s="17" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="AG25" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AH25" s="11" t="s">
         <v>324</v>
@@ -19832,9 +19860,11 @@
         <v>325</v>
       </c>
       <c r="AK25" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="AL25" s="23"/>
+        <v>1260</v>
+      </c>
+      <c r="AL25" s="23" t="s">
+        <v>1299</v>
+      </c>
       <c r="AM25" s="23" t="s">
         <v>326</v>
       </c>
@@ -19971,13 +20001,13 @@
       <c r="O26" s="17"/>
       <c r="P26" s="17"/>
       <c r="Q26" s="17" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="R26" s="17" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="S26" s="17" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="T26" s="17"/>
       <c r="U26" s="17"/>
@@ -20120,10 +20150,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="D27" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20142,13 +20172,13 @@
       <c r="O27" s="17"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="17" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="R27" s="17" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="S27" s="17" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="T27" s="15"/>
       <c r="U27" s="17"/>
@@ -20164,32 +20194,32 @@
       <c r="AE27" s="17"/>
       <c r="AF27" s="15"/>
       <c r="AG27" s="11" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="AH27" s="17" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="AI27" s="21">
         <v>8430</v>
       </c>
       <c r="AJ27" s="28" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="AK27" s="56" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="AL27" s="56"/>
       <c r="AM27" s="23" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AN27" s="30"/>
       <c r="AO27" s="17" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AP27" s="17"/>
       <c r="AQ27" s="17"/>
       <c r="AR27" s="23" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="AS27" s="25"/>
       <c r="AT27" s="1">
@@ -20292,13 +20322,13 @@
     </row>
     <row r="28" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="125" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B28" s="125" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="D28" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20317,13 +20347,13 @@
       <c r="O28" s="54"/>
       <c r="P28" s="122"/>
       <c r="Q28" s="54" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="R28" s="54" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="S28" s="20" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="T28" s="122"/>
       <c r="U28" s="122"/>
@@ -20339,10 +20369,10 @@
       <c r="AE28" s="54"/>
       <c r="AF28" s="122"/>
       <c r="AG28" s="54" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="AH28" s="54" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="AI28" s="128">
         <v>45730</v>
@@ -20459,13 +20489,13 @@
     </row>
     <row r="29" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="125" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B29" s="125" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="D29" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20484,13 +20514,13 @@
       <c r="O29" s="54"/>
       <c r="P29" s="54"/>
       <c r="Q29" s="54" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="R29" s="54" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="S29" s="20" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="T29" s="54"/>
       <c r="U29" s="54"/>
@@ -20506,10 +20536,10 @@
       <c r="AE29" s="54"/>
       <c r="AF29" s="54"/>
       <c r="AG29" s="54" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="AH29" s="54" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="AI29" s="128">
         <v>8000</v>
@@ -20629,10 +20659,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D30" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20651,13 +20681,13 @@
       <c r="O30" s="17"/>
       <c r="P30" s="17"/>
       <c r="Q30" s="17" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="R30" s="17" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="S30" s="17" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="T30" s="17"/>
       <c r="U30" s="17"/>
@@ -20673,35 +20703,35 @@
       <c r="AE30" s="17"/>
       <c r="AF30" s="48"/>
       <c r="AG30" s="54" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="AH30" s="17" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AI30" s="21">
         <v>51500</v>
       </c>
       <c r="AJ30" s="46" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="AK30" s="23" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AL30" s="23"/>
       <c r="AM30" s="23"/>
       <c r="AN30" s="45" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AO30" s="17" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="AP30" s="17" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AQ30" s="17"/>
       <c r="AR30" s="48"/>
       <c r="AS30" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AT30" s="1">
         <f>RANK(BL30,$BL$3:$BL$122)+COUNTIF(BL$3:BL30,BL30)-1</f>
@@ -20835,13 +20865,13 @@
         <v>277</v>
       </c>
       <c r="V31" s="17" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="W31" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="X31" s="17" t="s">
         <v>551</v>
-      </c>
-      <c r="X31" s="17" t="s">
-        <v>554</v>
       </c>
       <c r="Y31" s="17"/>
       <c r="Z31" s="17"/>
@@ -20874,13 +20904,13 @@
       </c>
       <c r="AP31" s="17"/>
       <c r="AQ31" s="11" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AR31" s="23" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AS31" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AT31" s="1">
         <f>RANK(BL31,$BL$3:$BL$122)+COUNTIF(BL$3:BL31,BL31)-1</f>
@@ -20988,7 +21018,7 @@
         <v>123</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D32" s="73" t="str">
         <f t="shared" si="0"/>
@@ -21014,10 +21044,10 @@
         <v>268</v>
       </c>
       <c r="V32" s="17" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="W32" s="17" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="X32" s="17"/>
       <c r="Y32" s="17"/>
@@ -21029,7 +21059,7 @@
       <c r="AE32" s="17"/>
       <c r="AF32" s="17"/>
       <c r="AG32" s="11" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AH32" s="11" t="s">
         <v>69</v>
@@ -21041,14 +21071,14 @@
         <v>121</v>
       </c>
       <c r="AK32" s="53" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="AL32" s="53"/>
       <c r="AM32" s="23" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AN32" s="25" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="AO32" s="17"/>
       <c r="AP32" s="17"/>
@@ -21155,11 +21185,11 @@
     </row>
     <row r="33" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="17" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D33" s="73" t="str">
         <f t="shared" si="0"/>
@@ -21185,10 +21215,10 @@
         <v>277</v>
       </c>
       <c r="V33" s="17" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="W33" s="17" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="X33" s="15"/>
       <c r="Y33" s="15"/>
@@ -21200,7 +21230,7 @@
       <c r="AE33" s="17"/>
       <c r="AF33" s="15"/>
       <c r="AG33" s="17" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AH33" s="17" t="s">
         <v>193</v>
@@ -21209,25 +21239,25 @@
         <v>51100</v>
       </c>
       <c r="AJ33" s="28" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AK33" s="23" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AL33" s="23"/>
       <c r="AM33" s="23" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AN33" s="30"/>
       <c r="AO33" s="15" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="AP33" s="24"/>
       <c r="AQ33" s="17" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="AR33" s="23" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="AS33" s="26"/>
       <c r="AT33" s="1">
@@ -21364,18 +21394,18 @@
       <c r="X34" s="17"/>
       <c r="Y34" s="17"/>
       <c r="Z34" s="17" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="AA34" s="17" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="AB34" s="17"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="17" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="AE34" s="17" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="AF34" s="17"/>
       <c r="AG34" s="11" t="s">
@@ -21517,7 +21547,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="69" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="D35" s="73" t="str">
         <f t="shared" ref="D35:D66" si="19">IF(AX35&lt;&gt;0,"2020_A="&amp;AX35," ")&amp;IF(AY35&lt;&gt;0," ; 2020_i="&amp;AY35," ")&amp;IF(AZ35&lt;&gt;0,"2019_A="&amp;AZ35," ")&amp;IF(BA35&lt;&gt;0," ; 2019_i="&amp;BA35," ")&amp;IF(BB35&lt;&gt;0,"2018_A="&amp;BB35," ")&amp;IF(BC35&lt;&gt;0," ; 2018_i="&amp;BC35," ")&amp;IF(BD35&lt;&gt;0," ; 2017_A="&amp;BD35," ")&amp;IF(BE35&lt;&gt;0," ; 2017_i="&amp;BE35," ")&amp;IF(BF35&lt;&gt;0," ; 2016_A="&amp;BF35," ")&amp;IF(BG35&lt;&gt;0," ; 2016_i="&amp;BG35," ")&amp;IF(BH35&lt;&gt;0," ; 2015_A="&amp;BH35," ")&amp;IF(BI35&lt;&gt;0," ; 2015_i="&amp;BI35," ")&amp;IF(BJ35&lt;&gt;0," ; 2014_A="&amp;BJ35," ")&amp;IF(BK35&lt;&gt;0," ; 2014_i="&amp;BK35," ")</f>
@@ -21544,41 +21574,41 @@
       <c r="W35" s="69"/>
       <c r="X35" s="84"/>
       <c r="Y35" s="69" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="Z35" s="69" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="AA35" s="69" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="AB35" s="84"/>
       <c r="AC35" s="69" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="AD35" s="69" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="AE35" s="69" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="AF35" s="84"/>
       <c r="AG35" s="105" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="AH35" s="69" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="AI35" s="86">
         <v>10700</v>
       </c>
       <c r="AJ35" s="69" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="AK35" s="84"/>
       <c r="AL35" s="84"/>
       <c r="AM35" s="69" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="AN35" s="90"/>
       <c r="AO35" s="84"/>
@@ -21691,10 +21721,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="100" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="C36" s="69" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="D36" s="73" t="str">
         <f t="shared" si="19"/>
@@ -21722,36 +21752,36 @@
       <c r="X36" s="84"/>
       <c r="Y36" s="84"/>
       <c r="Z36" s="69" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="AA36" s="69" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="AB36" s="84"/>
       <c r="AC36" s="69"/>
       <c r="AD36" s="69" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="AE36" s="69" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="AF36" s="84"/>
       <c r="AG36" s="105" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="AH36" s="69" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="AI36" s="86">
         <v>45550</v>
       </c>
       <c r="AJ36" s="69" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="AK36" s="84"/>
       <c r="AL36" s="84"/>
       <c r="AM36" s="69" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="AN36" s="90"/>
       <c r="AO36" s="84"/>
@@ -21864,10 +21894,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>402</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>403</v>
       </c>
       <c r="D37" s="73" t="str">
         <f t="shared" si="19"/>
@@ -21901,32 +21931,32 @@
         <v>268</v>
       </c>
       <c r="AD37" s="17" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="AE37" s="17" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AF37" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="AG37" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="AG37" s="17" t="s">
+      <c r="AH37" s="17" t="s">
         <v>405</v>
-      </c>
-      <c r="AH37" s="17" t="s">
-        <v>406</v>
       </c>
       <c r="AI37" s="21">
         <v>8000</v>
       </c>
       <c r="AJ37" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="AK37" s="22" t="s">
         <v>407</v>
-      </c>
-      <c r="AK37" s="22" t="s">
-        <v>408</v>
       </c>
       <c r="AL37" s="22"/>
       <c r="AM37" s="23" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AN37" s="30"/>
       <c r="AO37" s="26"/>
@@ -22074,10 +22104,10 @@
         <v>268</v>
       </c>
       <c r="AD38" s="17" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="AE38" s="17" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AF38" s="15"/>
       <c r="AG38" s="17" t="s">
@@ -22105,7 +22135,7 @@
       <c r="AQ38" s="26"/>
       <c r="AR38" s="26"/>
       <c r="AS38" s="48" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="AT38" s="1">
         <f>RANK(BL38,$BL$3:$BL$122)+COUNTIF(BL$3:BL38,BL38)-1</f>
@@ -22207,13 +22237,13 @@
     </row>
     <row r="39" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="D39" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22247,42 +22277,42 @@
         <v>277</v>
       </c>
       <c r="AD39" s="17" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="AE39" s="17" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="AF39" s="15" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="AG39" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="AH39" s="17" t="s">
         <v>379</v>
-      </c>
-      <c r="AH39" s="17" t="s">
-        <v>380</v>
       </c>
       <c r="AI39" s="21">
         <v>51096</v>
       </c>
       <c r="AJ39" s="15"/>
       <c r="AK39" s="23" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="AL39" s="23"/>
       <c r="AM39" s="17"/>
       <c r="AN39" s="25" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AO39" s="26"/>
       <c r="AP39" s="24"/>
       <c r="AQ39" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="AR39" s="42" t="s">
         <v>382</v>
       </c>
-      <c r="AR39" s="42" t="s">
-        <v>383</v>
-      </c>
       <c r="AS39" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AT39" s="1">
         <f>RANK(BL39,$BL$3:$BL$122)+COUNTIF(BL$3:BL39,BL39)-1</f>
@@ -22430,16 +22460,16 @@
         <v>277</v>
       </c>
       <c r="AD40" s="17" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="AE40" s="17" t="s">
         <v>321</v>
       </c>
       <c r="AF40" s="17" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AG40" s="11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AH40" s="11" t="s">
         <v>187</v>
@@ -22451,29 +22481,29 @@
         <v>116</v>
       </c>
       <c r="AK40" s="23" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AL40" s="23"/>
       <c r="AM40" s="23" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AN40" s="25" t="s">
         <v>117</v>
       </c>
       <c r="AO40" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="AP40" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="AQ40" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="AP40" s="17" t="s">
+      <c r="AR40" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="AQ40" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="AR40" s="11" t="s">
-        <v>471</v>
-      </c>
       <c r="AS40" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AT40" s="1">
         <f>RANK(BL40,$BL$3:$BL$122)+COUNTIF(BL$3:BL40,BL40)-1</f>
@@ -22578,10 +22608,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>410</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>411</v>
       </c>
       <c r="D41" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22615,16 +22645,16 @@
         <v>268</v>
       </c>
       <c r="AD41" s="17" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="AE41" s="17" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AF41" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="AG41" s="17" t="s">
         <v>412</v>
-      </c>
-      <c r="AG41" s="17" t="s">
-        <v>413</v>
       </c>
       <c r="AH41" s="17" t="s">
         <v>216</v>
@@ -22636,11 +22666,11 @@
         <v>44</v>
       </c>
       <c r="AK41" s="22" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AL41" s="22"/>
       <c r="AM41" s="23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AN41" s="30"/>
       <c r="AO41" s="26"/>
@@ -22648,7 +22678,7 @@
       <c r="AQ41" s="26"/>
       <c r="AR41" s="26"/>
       <c r="AS41" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AT41" s="1">
         <f>RANK(BL41,$BL$3:$BL$122)+COUNTIF(BL$3:BL41,BL41)-1</f>
@@ -22750,11 +22780,11 @@
     </row>
     <row r="42" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D42" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22788,45 +22818,45 @@
         <v>277</v>
       </c>
       <c r="AD42" s="17" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="AE42" s="17" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AF42" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AG42" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AH42" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AI42" s="21">
         <v>51686</v>
       </c>
       <c r="AJ42" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AK42" s="22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AL42" s="22"/>
       <c r="AM42" s="23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AN42" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AO42" s="17" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="AP42" s="24"/>
       <c r="AQ42" s="25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AR42" s="42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AS42" s="26"/>
       <c r="AT42" s="1">
@@ -22935,7 +22965,7 @@
         <v>278</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D43" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22966,16 +22996,16 @@
       <c r="AA43" s="15"/>
       <c r="AB43" s="15"/>
       <c r="AC43" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="AD43" s="17" t="s">
+        <v>1208</v>
+      </c>
+      <c r="AE43" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="AF43" s="15" t="s">
         <v>400</v>
-      </c>
-      <c r="AD43" s="17" t="s">
-        <v>1214</v>
-      </c>
-      <c r="AE43" s="17" t="s">
-        <v>555</v>
-      </c>
-      <c r="AF43" s="15" t="s">
-        <v>401</v>
       </c>
       <c r="AG43" s="17" t="s">
         <v>309</v>
@@ -22997,7 +23027,7 @@
         <v>305</v>
       </c>
       <c r="AN43" s="17" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="AO43" s="17"/>
       <c r="AP43" s="17"/>
@@ -23006,7 +23036,7 @@
       </c>
       <c r="AR43" s="26"/>
       <c r="AS43" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AT43" s="1">
         <f>RANK(BL43,$BL$3:$BL$122)+COUNTIF(BL$3:BL43,BL43)-1</f>
@@ -23111,10 +23141,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>418</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>419</v>
       </c>
       <c r="D44" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23148,32 +23178,32 @@
         <v>268</v>
       </c>
       <c r="AD44" s="17" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="AE44" s="17" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AF44" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="AG44" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="AH44" s="17" t="s">
         <v>420</v>
-      </c>
-      <c r="AG44" s="17" t="s">
-        <v>422</v>
-      </c>
-      <c r="AH44" s="17" t="s">
-        <v>421</v>
       </c>
       <c r="AI44" s="21">
         <v>77440</v>
       </c>
       <c r="AJ44" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="AK44" s="22" t="s">
         <v>423</v>
-      </c>
-      <c r="AK44" s="22" t="s">
-        <v>424</v>
       </c>
       <c r="AL44" s="22"/>
       <c r="AM44" s="23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AN44" s="30"/>
       <c r="AO44" s="26"/>
@@ -23287,7 +23317,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="D45" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23318,13 +23348,13 @@
       <c r="AA45" s="17"/>
       <c r="AB45" s="17"/>
       <c r="AC45" s="17" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="AD45" s="17" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="AE45" s="17" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="AF45" s="17"/>
       <c r="AG45" s="11" t="s">
@@ -23463,10 +23493,10 @@
         <v>0</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D46" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23498,26 +23528,26 @@
       <c r="AB46" s="30"/>
       <c r="AC46" s="17"/>
       <c r="AD46" s="17" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="AE46" s="17" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="AF46" s="30"/>
       <c r="AG46" s="17" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="AH46" s="17" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AI46" s="21">
         <v>45110</v>
       </c>
       <c r="AJ46" s="28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AK46" s="58" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="AL46" s="58"/>
       <c r="AM46" s="17"/>
@@ -23633,7 +23663,7 @@
         <v>99</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D47" s="73" t="str">
         <f t="shared" si="19"/>
@@ -24010,11 +24040,11 @@
         <v>138</v>
       </c>
       <c r="AK49" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AL49" s="23"/>
       <c r="AM49" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AN49" s="25"/>
       <c r="AO49" s="17"/>
@@ -24295,7 +24325,7 @@
         <v>113</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D51" s="73" t="str">
         <f t="shared" si="19"/>
@@ -24348,17 +24378,17 @@
       <c r="AM51" s="23"/>
       <c r="AN51" s="25"/>
       <c r="AO51" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AP51" s="17" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AQ51" s="25"/>
       <c r="AR51" s="23" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AS51" s="25" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AT51" s="1">
         <f>RANK(BL51,$BL$3:$BL$122)+COUNTIF(BL$3:BL51,BL51)-1</f>
@@ -24519,16 +24549,16 @@
       </c>
       <c r="AN52" s="49"/>
       <c r="AO52" s="17" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="AP52" s="17" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="AQ52" s="23" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="AR52" s="42" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="AS52" s="26"/>
       <c r="AT52" s="1">
@@ -24632,7 +24662,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>38</v>
@@ -24687,7 +24717,7 @@
       <c r="AL53" s="23"/>
       <c r="AM53" s="23"/>
       <c r="AN53" s="25" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AO53" s="17"/>
       <c r="AP53" s="17"/>
@@ -25017,14 +25047,14 @@
         <v>28</v>
       </c>
       <c r="AP55" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AQ55" s="25" t="s">
         <v>133</v>
       </c>
       <c r="AR55" s="11"/>
       <c r="AS55" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AT55" s="1">
         <f>RANK(BL55,$BL$3:$BL$122)+COUNTIF(BL$3:BL55,BL55)-1</f>
@@ -25350,19 +25380,19 @@
       <c r="AM57" s="23"/>
       <c r="AN57" s="25"/>
       <c r="AO57" s="17" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="AP57" s="17" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="AQ57" s="11" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="AR57" s="50" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="AS57" s="11" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="AT57" s="1">
         <f>RANK(BL57,$BL$3:$BL$122)+COUNTIF(BL$3:BL57,BL57)-1</f>
@@ -25522,7 +25552,7 @@
         <v>239</v>
       </c>
       <c r="AP58" s="17" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AQ58" s="44" t="s">
         <v>55</v>
@@ -26352,7 +26382,7 @@
         <v>32</v>
       </c>
       <c r="AS63" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AT63" s="1">
         <f>RANK(BL63,$BL$3:$BL$122)+COUNTIF(BL$3:BL63,BL63)-1</f>
@@ -26509,7 +26539,7 @@
       </c>
       <c r="AL64" s="23"/>
       <c r="AM64" s="23" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="AN64" s="25" t="s">
         <v>60</v>
@@ -26523,7 +26553,7 @@
         <v>62</v>
       </c>
       <c r="AS64" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AT64" s="1">
         <f>RANK(BL64,$BL$3:$BL$122)+COUNTIF(BL$3:BL64,BL64)-1</f>
@@ -26629,7 +26659,7 @@
         <v>84</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="D65" s="73" t="str">
         <f t="shared" si="19"/>
@@ -26684,7 +26714,7 @@
         <v>91</v>
       </c>
       <c r="AO65" s="17" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AP65" s="17" t="s">
         <v>87</v>
@@ -26696,7 +26726,7 @@
         <v>88</v>
       </c>
       <c r="AS65" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AT65" s="1">
         <f>RANK(BL65,$BL$3:$BL$122)+COUNTIF(BL$3:BL65,BL65)-1</f>
@@ -26854,7 +26884,7 @@
       <c r="AL66" s="23"/>
       <c r="AM66" s="23"/>
       <c r="AN66" s="25" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="AO66" s="17"/>
       <c r="AP66" s="17"/>
@@ -27002,7 +27032,7 @@
       <c r="AE67" s="17"/>
       <c r="AF67" s="17"/>
       <c r="AG67" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AH67" s="11" t="s">
         <v>218</v>
@@ -27018,17 +27048,17 @@
       <c r="AM67" s="23"/>
       <c r="AN67" s="25"/>
       <c r="AO67" s="17" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="AP67" s="17" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="AQ67" s="44" t="s">
         <v>222</v>
       </c>
       <c r="AR67" s="11"/>
       <c r="AS67" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AT67" s="1">
         <f>RANK(BL67,$BL$3:$BL$122)+COUNTIF(BL$3:BL67,BL67)-1</f>
@@ -27131,7 +27161,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C68" s="17" t="s">
         <v>66</v>
@@ -27181,11 +27211,11 @@
         <v>259</v>
       </c>
       <c r="AK68" s="23" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="AL68" s="23"/>
       <c r="AM68" s="23" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="AN68" s="25"/>
       <c r="AO68" s="17"/>
@@ -27682,11 +27712,11 @@
       </c>
       <c r="AN71" s="30"/>
       <c r="AO71" s="17" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="AP71" s="24"/>
       <c r="AQ71" s="17" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="AR71" s="26"/>
       <c r="AS71" s="26"/>
@@ -27954,10 +27984,10 @@
         <v>0</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D73" s="73" t="str">
         <f t="shared" si="38"/>
@@ -27992,33 +28022,33 @@
       <c r="AE73" s="17"/>
       <c r="AF73" s="48"/>
       <c r="AG73" s="54" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AH73" s="17" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AI73" s="21">
         <v>77510</v>
       </c>
       <c r="AJ73" s="46" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AK73" s="23" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="AL73" s="23"/>
       <c r="AM73" s="23" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="AN73" s="45"/>
       <c r="AO73" s="48" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="AP73" s="17" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AQ73" s="17" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="AR73" s="48"/>
       <c r="AS73" s="48"/>
@@ -28185,7 +28215,7 @@
         <v>161</v>
       </c>
       <c r="AQ74" s="44" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="AR74" s="11"/>
       <c r="AS74" s="25"/>
@@ -28345,10 +28375,10 @@
       <c r="AL75" s="23"/>
       <c r="AM75" s="23"/>
       <c r="AN75" s="25" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AO75" s="17" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="AP75" s="17" t="s">
         <v>104</v>
@@ -28464,7 +28494,7 @@
         <v>17</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D76" s="73" t="str">
         <f t="shared" si="38"/>
@@ -28499,7 +28529,7 @@
       <c r="AE76" s="17"/>
       <c r="AF76" s="15"/>
       <c r="AG76" s="11" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AH76" s="17" t="s">
         <v>193</v>
@@ -28508,21 +28538,21 @@
         <v>51100</v>
       </c>
       <c r="AJ76" s="28" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="AK76" s="22" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AL76" s="22"/>
       <c r="AM76" s="23" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AN76" s="30"/>
       <c r="AO76" s="17" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AP76" s="17" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AQ76" s="26"/>
       <c r="AR76" s="26"/>
@@ -28631,7 +28661,7 @@
         <v>17</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D77" s="73" t="str">
         <f t="shared" si="38"/>
@@ -28666,37 +28696,37 @@
       <c r="AE77" s="17"/>
       <c r="AF77" s="15"/>
       <c r="AG77" s="11" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AH77" s="17" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AI77" s="21">
         <v>51200</v>
       </c>
       <c r="AJ77" s="28" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AK77" s="56" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AL77" s="56"/>
       <c r="AM77" s="23" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="AN77" s="30"/>
       <c r="AO77" s="17" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="AP77" s="48"/>
       <c r="AQ77" s="25" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="AR77" s="23" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="AS77" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AT77" s="1">
         <f>RANK(BL77,$BL$3:$BL$122)+COUNTIF(BL$3:BL77,BL77)-1</f>
@@ -28802,7 +28832,7 @@
         <v>17</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D78" s="73" t="str">
         <f t="shared" si="38"/>
@@ -28837,7 +28867,7 @@
       <c r="AE78" s="17"/>
       <c r="AF78" s="15"/>
       <c r="AG78" s="11" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="AH78" s="17" t="s">
         <v>324</v>
@@ -28846,25 +28876,25 @@
         <v>10110</v>
       </c>
       <c r="AJ78" s="28" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AK78" s="56" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AL78" s="56"/>
       <c r="AM78" s="23" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AN78" s="30"/>
       <c r="AO78" s="17" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="AP78" s="48"/>
       <c r="AQ78" s="25" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="AR78" s="23" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="AS78" s="25"/>
       <c r="AT78" s="1">
@@ -28971,7 +29001,7 @@
         <v>17</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D79" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29006,36 +29036,36 @@
       <c r="AE79" s="17"/>
       <c r="AF79" s="15"/>
       <c r="AG79" s="11" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AH79" s="17" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="AI79" s="21">
         <v>51530</v>
       </c>
       <c r="AJ79" s="28" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="AK79" s="56" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="AL79" s="56"/>
       <c r="AM79" s="23" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="AN79" s="30"/>
       <c r="AO79" s="17" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="AP79" s="17" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="AQ79" s="25" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="AR79" s="23" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="AS79" s="25"/>
       <c r="AT79" s="1">
@@ -29136,13 +29166,13 @@
     </row>
     <row r="80" spans="1:80" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D80" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29177,30 +29207,30 @@
       <c r="AE80" s="17"/>
       <c r="AF80" s="15"/>
       <c r="AG80" s="11" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AH80" s="17" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="AI80" s="21">
         <v>10800</v>
       </c>
       <c r="AJ80" s="28" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AK80" s="56" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="AL80" s="56"/>
       <c r="AM80" s="23" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="AN80" s="30"/>
       <c r="AO80" s="17"/>
       <c r="AP80" s="17"/>
       <c r="AQ80" s="25"/>
       <c r="AR80" s="23" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AS80" s="25"/>
       <c r="AT80" s="1">
@@ -29301,13 +29331,13 @@
     </row>
     <row r="81" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D81" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29342,31 +29372,31 @@
       <c r="AE81" s="17"/>
       <c r="AF81" s="15"/>
       <c r="AG81" s="11" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="AH81" s="17" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="AI81" s="21">
         <v>94200</v>
       </c>
       <c r="AJ81" s="28"/>
       <c r="AK81" s="56" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="AL81" s="56"/>
       <c r="AM81" s="23" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="AN81" s="30"/>
       <c r="AO81" s="17" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="AP81" s="17" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AQ81" s="11" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="AR81" s="23"/>
       <c r="AS81" s="25"/>
@@ -29468,13 +29498,13 @@
     </row>
     <row r="82" spans="1:80" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D82" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29509,23 +29539,23 @@
       <c r="AE82" s="17"/>
       <c r="AF82" s="15"/>
       <c r="AG82" s="11" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="AH82" s="17" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="AI82" s="21">
         <v>2220</v>
       </c>
       <c r="AJ82" s="28" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="AK82" s="56" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="AL82" s="56"/>
       <c r="AM82" s="23" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="AN82" s="30"/>
       <c r="AO82" s="17"/>
@@ -29533,7 +29563,7 @@
       <c r="AQ82" s="11"/>
       <c r="AR82" s="23"/>
       <c r="AS82" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AT82" s="1">
         <f>RANK(BL82,$BL$3:$BL$122)+COUNTIF(BL$3:BL82,BL82)-1</f>
@@ -29639,7 +29669,7 @@
         <v>4</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D83" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29674,38 +29704,38 @@
       <c r="AE83" s="17"/>
       <c r="AF83" s="15"/>
       <c r="AG83" s="11" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="AH83" s="17" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="AI83" s="21">
         <v>51320</v>
       </c>
       <c r="AJ83" s="28" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AK83" s="56" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AL83" s="56"/>
       <c r="AM83" s="23" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="AN83" s="17" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="AO83" s="17" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="AP83" s="17" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="AQ83" s="17" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="AR83" s="23" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="AS83" s="25"/>
       <c r="AT83" s="1">
@@ -29809,10 +29839,10 @@
         <v>0</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D84" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29847,36 +29877,36 @@
       <c r="AE84" s="17"/>
       <c r="AF84" s="15"/>
       <c r="AG84" s="11" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="AH84" s="17" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="AI84" s="21">
         <v>2450</v>
       </c>
       <c r="AJ84" s="28" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="AK84" s="56" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="AL84" s="56"/>
       <c r="AM84" s="23" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="AN84" s="30"/>
       <c r="AO84" s="17" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AP84" s="17" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AQ84" s="17" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="AR84" s="23" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AS84" s="25"/>
       <c r="AT84" s="1">
@@ -29980,10 +30010,10 @@
         <v>0</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D85" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30018,23 +30048,23 @@
       <c r="AE85" s="17"/>
       <c r="AF85" s="15"/>
       <c r="AG85" s="11" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="AH85" s="17" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="AI85" s="21">
         <v>25300</v>
       </c>
       <c r="AJ85" s="28" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="AK85" s="56" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="AL85" s="56"/>
       <c r="AM85" s="23" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AN85" s="30"/>
       <c r="AO85" s="17"/>
@@ -30143,10 +30173,10 @@
         <v>0</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="D86" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30181,30 +30211,30 @@
       <c r="AE86" s="17"/>
       <c r="AF86" s="15"/>
       <c r="AG86" s="17" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="AH86" s="17" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="AI86" s="21">
         <v>10230</v>
       </c>
       <c r="AJ86" s="28" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="AK86" s="56" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="AL86" s="56"/>
       <c r="AM86" s="23" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AN86" s="30"/>
       <c r="AO86" s="26"/>
       <c r="AP86" s="24"/>
       <c r="AQ86" s="26"/>
       <c r="AR86" s="57" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AS86" s="26"/>
       <c r="AT86" s="1">
@@ -30311,7 +30341,7 @@
         <v>15</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="D87" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30346,31 +30376,31 @@
       <c r="AE87" s="17"/>
       <c r="AF87" s="15"/>
       <c r="AG87" s="17" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="AH87" s="17" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="AI87" s="21">
         <v>51130</v>
       </c>
       <c r="AJ87" s="28" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="AK87" s="22" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="AL87" s="22"/>
       <c r="AM87" s="23" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="AN87" s="26"/>
       <c r="AO87" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AP87" s="24"/>
       <c r="AQ87" s="59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AR87" s="26"/>
       <c r="AS87" s="26"/>
@@ -30475,10 +30505,10 @@
         <v>0</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D88" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30513,31 +30543,31 @@
       <c r="AE88" s="17"/>
       <c r="AF88" s="15"/>
       <c r="AG88" s="17" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="AH88" s="17" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="AI88" s="21">
         <v>6823</v>
       </c>
       <c r="AJ88" s="28" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="AK88" s="22" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="AL88" s="22"/>
       <c r="AM88" s="23" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="AN88" s="26"/>
       <c r="AO88" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AP88" s="24"/>
       <c r="AQ88" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AR88" s="26"/>
       <c r="AS88" s="26"/>
@@ -30642,10 +30672,10 @@
         <v>0</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="D89" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30680,7 +30710,7 @@
       <c r="AE89" s="17"/>
       <c r="AF89" s="15"/>
       <c r="AG89" s="17" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="AH89" s="17" t="s">
         <v>193</v>
@@ -30689,26 +30719,26 @@
         <v>51100</v>
       </c>
       <c r="AJ89" s="28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AK89" s="22" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="AL89" s="22"/>
       <c r="AM89" s="17"/>
       <c r="AN89" s="26"/>
       <c r="AO89" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AP89" s="24"/>
       <c r="AQ89" s="48" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AR89" s="57" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AS89" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AT89" s="1">
         <f>RANK(BL89,$BL$3:$BL$122)+COUNTIF(BL$3:BL89,BL89)-1</f>
@@ -30808,13 +30838,13 @@
     </row>
     <row r="90" spans="1:80" s="7" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="C90" s="17" t="s">
         <v>351</v>
-      </c>
-      <c r="B90" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>352</v>
       </c>
       <c r="D90" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30849,7 +30879,7 @@
       <c r="AE90" s="17"/>
       <c r="AF90" s="15"/>
       <c r="AG90" s="17" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="AH90" s="17" t="s">
         <v>193</v>
@@ -30858,17 +30888,17 @@
         <v>51100</v>
       </c>
       <c r="AJ90" s="28" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="AK90" s="22" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="AL90" s="22"/>
       <c r="AM90" s="23" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="AN90" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AO90" s="26"/>
       <c r="AP90" s="24"/>
@@ -30973,13 +31003,13 @@
     </row>
     <row r="91" spans="1:80" s="7" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="D91" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31014,7 +31044,7 @@
       <c r="AE91" s="17"/>
       <c r="AF91" s="15"/>
       <c r="AG91" s="17" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="AH91" s="17" t="s">
         <v>280</v>
@@ -31023,14 +31053,14 @@
         <v>2000</v>
       </c>
       <c r="AJ91" s="28" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="AK91" s="22" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="AL91" s="22"/>
       <c r="AM91" s="23" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="AN91" s="30"/>
       <c r="AO91" s="26"/>
@@ -31136,13 +31166,13 @@
     </row>
     <row r="92" spans="1:80" s="7" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D92" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31177,35 +31207,35 @@
       <c r="AE92" s="17"/>
       <c r="AF92" s="15"/>
       <c r="AG92" s="17" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="AH92" s="17" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="AI92" s="21">
         <v>51370</v>
       </c>
       <c r="AJ92" s="15"/>
       <c r="AK92" s="22" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="AL92" s="22"/>
       <c r="AM92" s="23" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="AN92" s="30"/>
       <c r="AO92" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AP92" s="24"/>
       <c r="AQ92" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AR92" s="49" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AS92" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AT92" s="1">
         <f>RANK(BL92,$BL$3:$BL$122)+COUNTIF(BL$3:BL92,BL92)-1</f>
@@ -31305,13 +31335,13 @@
     </row>
     <row r="93" spans="1:80" s="7" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="D93" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31346,7 +31376,7 @@
       <c r="AE93" s="17"/>
       <c r="AF93" s="15"/>
       <c r="AG93" s="17" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="AH93" s="17" t="s">
         <v>216</v>
@@ -31356,21 +31386,21 @@
       </c>
       <c r="AJ93" s="15"/>
       <c r="AK93" s="22" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="AL93" s="22"/>
       <c r="AM93" s="23" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="AN93" s="30"/>
       <c r="AO93" s="17" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="AP93" s="17" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="AQ93" s="30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AR93" s="26"/>
       <c r="AS93" s="26"/>
@@ -31472,13 +31502,13 @@
     </row>
     <row r="94" spans="1:80" s="7" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="D94" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31513,35 +31543,35 @@
       <c r="AE94" s="17"/>
       <c r="AF94" s="15"/>
       <c r="AG94" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AH94" s="17" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="AI94" s="17">
         <v>51120</v>
       </c>
       <c r="AJ94" s="15"/>
       <c r="AK94" s="22" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="AL94" s="22"/>
       <c r="AM94" s="17"/>
       <c r="AN94" s="30"/>
       <c r="AO94" s="48" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="AP94" s="17" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="AQ94" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AR94" s="60" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AS94" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AT94" s="1">
         <f>RANK(BL94,$BL$3:$BL$122)+COUNTIF(BL$3:BL94,BL94)-1</f>
@@ -31641,13 +31671,13 @@
     </row>
     <row r="95" spans="1:80" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B95" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="C95" s="17" t="s">
         <v>768</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>774</v>
       </c>
       <c r="D95" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31682,23 +31712,23 @@
       <c r="AE95" s="17"/>
       <c r="AF95" s="15"/>
       <c r="AG95" s="17" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="AH95" s="17" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="AI95" s="21">
         <v>51000</v>
       </c>
       <c r="AJ95" s="28" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="AK95" s="22" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="AL95" s="22"/>
       <c r="AM95" s="23" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="AN95" s="15"/>
       <c r="AO95" s="26"/>
@@ -31804,13 +31834,13 @@
     </row>
     <row r="96" spans="1:80" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="D96" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31845,34 +31875,34 @@
       <c r="AE96" s="17"/>
       <c r="AF96" s="15"/>
       <c r="AG96" s="17" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="AH96" s="17" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="AI96" s="21">
         <v>60550</v>
       </c>
       <c r="AJ96" s="28" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="AK96" s="22" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="AL96" s="22"/>
       <c r="AM96" s="23" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="AN96" s="15"/>
       <c r="AO96" s="17" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="AP96" s="24"/>
       <c r="AQ96" s="48" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="AR96" s="60" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="AS96" s="26"/>
       <c r="AT96" s="1">
@@ -31973,13 +32003,13 @@
     </row>
     <row r="97" spans="1:80" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="D97" s="73" t="str">
         <f t="shared" si="38"/>
@@ -32014,34 +32044,34 @@
       <c r="AE97" s="17"/>
       <c r="AF97" s="15"/>
       <c r="AG97" s="17" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="AH97" s="17" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="AI97" s="21">
         <v>94700</v>
       </c>
       <c r="AJ97" s="28" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="AK97" s="22" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="AL97" s="22"/>
       <c r="AM97" s="23" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="AN97" s="30"/>
       <c r="AO97" s="17" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="AP97" s="24"/>
       <c r="AQ97" s="17" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="AR97" s="60" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="AS97" s="26"/>
       <c r="AT97" s="1">
@@ -32142,13 +32172,13 @@
     </row>
     <row r="98" spans="1:80" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D98" s="73" t="str">
         <f t="shared" si="38"/>
@@ -32183,29 +32213,29 @@
       <c r="AE98" s="17"/>
       <c r="AF98" s="15"/>
       <c r="AG98" s="17" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="AH98" s="17" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="AI98" s="21">
         <v>10400</v>
       </c>
       <c r="AJ98" s="15"/>
       <c r="AK98" s="22" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="AL98" s="22"/>
       <c r="AM98" s="23" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="AN98" s="26"/>
       <c r="AO98" s="17" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="AP98" s="24"/>
       <c r="AQ98" s="30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AR98" s="26"/>
       <c r="AS98" s="26"/>
@@ -32307,13 +32337,13 @@
     </row>
     <row r="99" spans="1:80" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="D99" s="73" t="str">
         <f t="shared" ref="D99:D128" si="57">IF(AX99&lt;&gt;0,"2020_A="&amp;AX99," ")&amp;IF(AY99&lt;&gt;0," ; 2020_i="&amp;AY99," ")&amp;IF(AZ99&lt;&gt;0,"2019_A="&amp;AZ99," ")&amp;IF(BA99&lt;&gt;0," ; 2019_i="&amp;BA99," ")&amp;IF(BB99&lt;&gt;0,"2018_A="&amp;BB99," ")&amp;IF(BC99&lt;&gt;0," ; 2018_i="&amp;BC99," ")&amp;IF(BD99&lt;&gt;0," ; 2017_A="&amp;BD99," ")&amp;IF(BE99&lt;&gt;0," ; 2017_i="&amp;BE99," ")&amp;IF(BF99&lt;&gt;0," ; 2016_A="&amp;BF99," ")&amp;IF(BG99&lt;&gt;0," ; 2016_i="&amp;BG99," ")&amp;IF(BH99&lt;&gt;0," ; 2015_A="&amp;BH99," ")&amp;IF(BI99&lt;&gt;0," ; 2015_i="&amp;BI99," ")&amp;IF(BJ99&lt;&gt;0," ; 2014_A="&amp;BJ99," ")&amp;IF(BK99&lt;&gt;0," ; 2014_i="&amp;BK99," ")</f>
@@ -32348,7 +32378,7 @@
       <c r="AE99" s="17"/>
       <c r="AF99" s="15"/>
       <c r="AG99" s="17" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="AH99" s="17" t="s">
         <v>272</v>
@@ -32357,30 +32387,30 @@
         <v>51110</v>
       </c>
       <c r="AJ99" s="28" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="AK99" s="22" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="AL99" s="22"/>
       <c r="AM99" s="23" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="AN99" s="26"/>
       <c r="AO99" s="17" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="AP99" s="17" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="AQ99" s="30" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="AR99" s="23" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="AS99" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AT99" s="1">
         <f>RANK(BL99,$BL$3:$BL$122)+COUNTIF(BL$3:BL99,BL99)-1</f>
@@ -32483,10 +32513,10 @@
         <v>269</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="D100" s="73" t="str">
         <f t="shared" si="57"/>
@@ -32521,7 +32551,7 @@
       <c r="AE100" s="17"/>
       <c r="AF100" s="15"/>
       <c r="AG100" s="17" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="AH100" s="17" t="s">
         <v>201</v>
@@ -32530,26 +32560,26 @@
         <v>51300</v>
       </c>
       <c r="AJ100" s="28" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="AK100" s="22" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="AL100" s="22"/>
       <c r="AM100" s="23" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="AN100" s="26"/>
       <c r="AO100" s="17" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="AP100" s="17"/>
       <c r="AQ100" s="30" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="AR100" s="23"/>
       <c r="AS100" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AT100" s="1">
         <f>RANK(BL100,$BL$3:$BL$122)+COUNTIF(BL$3:BL100,BL100)-1</f>
@@ -32652,10 +32682,10 @@
         <v>269</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D101" s="73" t="str">
         <f t="shared" si="57"/>
@@ -32690,27 +32720,27 @@
       <c r="AE101" s="17"/>
       <c r="AF101" s="15"/>
       <c r="AG101" s="17" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="AH101" s="17" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="AI101" s="21">
         <v>77200</v>
       </c>
       <c r="AJ101" s="28" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="AK101" s="22" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="AL101" s="22"/>
       <c r="AM101" s="23" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="AN101" s="15"/>
       <c r="AO101" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AP101" s="24"/>
       <c r="AQ101" s="26"/>
@@ -32817,10 +32847,10 @@
         <v>269</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D102" s="73" t="str">
         <f t="shared" si="57"/>
@@ -32855,37 +32885,37 @@
       <c r="AE102" s="17"/>
       <c r="AF102" s="15"/>
       <c r="AG102" s="17" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="AH102" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AI102" s="21">
         <v>51689</v>
       </c>
       <c r="AJ102" s="28" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AK102" s="22" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="AL102" s="22"/>
       <c r="AM102" s="23" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="AN102" s="17" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="AO102" s="17" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="AP102" s="24"/>
       <c r="AQ102" s="26"/>
       <c r="AR102" s="60" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AS102" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AT102" s="1">
         <f>RANK(BL102,$BL$3:$BL$122)+COUNTIF(BL$3:BL102,BL102)-1</f>
@@ -32988,10 +33018,10 @@
         <v>269</v>
       </c>
       <c r="B103" s="12" t="s">
+        <v>827</v>
+      </c>
+      <c r="C103" s="17" t="s">
         <v>833</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>839</v>
       </c>
       <c r="D103" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33026,34 +33056,34 @@
       <c r="AE103" s="17"/>
       <c r="AF103" s="15"/>
       <c r="AG103" s="17" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH103" s="17" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="AI103" s="21">
         <v>60310</v>
       </c>
       <c r="AJ103" s="28" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="AK103" s="22" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AL103" s="22"/>
       <c r="AM103" s="23" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AN103" s="17"/>
       <c r="AO103" s="17" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="AP103" s="24"/>
       <c r="AQ103" s="48" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="AR103" s="23" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="AS103" s="25"/>
       <c r="AT103" s="1">
@@ -33157,10 +33187,10 @@
         <v>269</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="D104" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33187,30 +33217,30 @@
       <c r="AE104" s="17"/>
       <c r="AF104" s="15"/>
       <c r="AG104" s="17" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="AH104" s="17" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="AI104" s="21">
         <v>60610</v>
       </c>
       <c r="AJ104" s="28" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AK104" s="22" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="AL104" s="22"/>
       <c r="AM104" s="23" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="AP104" s="24"/>
       <c r="AQ104" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AR104" s="60" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AT104" s="1">
         <f>RANK(BL104,$BL$3:$BL$122)+COUNTIF(BL$3:BL104,BL104)-1</f>
@@ -33313,10 +33343,10 @@
         <v>269</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="D105" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33354,18 +33384,18 @@
         <v>13</v>
       </c>
       <c r="AH105" s="17" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="AI105" s="21">
         <v>45800</v>
       </c>
       <c r="AJ105" s="28"/>
       <c r="AK105" s="22" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="AL105" s="22"/>
       <c r="AM105" s="23" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="AN105" s="26"/>
       <c r="AO105" s="26"/>
@@ -33471,13 +33501,13 @@
     </row>
     <row r="106" spans="1:80" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="D106" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33504,7 +33534,7 @@
       <c r="AE106" s="17"/>
       <c r="AF106" s="15"/>
       <c r="AG106" s="17" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="AH106" s="17" t="s">
         <v>193</v>
@@ -33514,26 +33544,26 @@
       </c>
       <c r="AJ106" s="15"/>
       <c r="AK106" s="22" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="AL106" s="22"/>
       <c r="AM106" s="23" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="AN106" s="17" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="AO106" s="17" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="AP106" s="17" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="AQ106" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="AR106" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="AR106" s="60" t="s">
-        <v>378</v>
       </c>
       <c r="AT106" s="1">
         <f>RANK(BL106,$BL$3:$BL$122)+COUNTIF(BL$3:BL106,BL106)-1</f>
@@ -33633,13 +33663,13 @@
     </row>
     <row r="107" spans="1:80" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="D107" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33674,7 +33704,7 @@
       <c r="AE107" s="17"/>
       <c r="AF107" s="15"/>
       <c r="AG107" s="17" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="AH107" s="17" t="s">
         <v>193</v>
@@ -33683,20 +33713,20 @@
         <v>51100</v>
       </c>
       <c r="AJ107" s="28" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="AK107" s="22" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="AL107" s="22"/>
       <c r="AM107" s="23" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="AN107" s="17"/>
       <c r="AO107" s="17"/>
       <c r="AP107" s="17"/>
       <c r="AQ107" s="17" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="AR107" s="60"/>
       <c r="AS107" s="26"/>
@@ -33798,13 +33828,13 @@
     </row>
     <row r="108" spans="1:80" s="7" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="D108" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33839,7 +33869,7 @@
       <c r="AE108" s="17"/>
       <c r="AF108" s="17"/>
       <c r="AG108" s="17" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="AH108" s="17" t="s">
         <v>193</v>
@@ -33849,25 +33879,25 @@
       </c>
       <c r="AJ108" s="15"/>
       <c r="AK108" s="22" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="AL108" s="22"/>
       <c r="AM108" s="23" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="AN108" s="15"/>
       <c r="AO108" s="17" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="AP108" s="24"/>
       <c r="AQ108" s="17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AR108" s="23" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="AS108" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AT108" s="1">
         <f>RANK(BL108,$BL$3:$BL$122)+COUNTIF(BL$3:BL108,BL108)-1</f>
@@ -33967,13 +33997,13 @@
     </row>
     <row r="109" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="D109" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34008,33 +34038,33 @@
       <c r="AE109" s="17"/>
       <c r="AF109" s="17"/>
       <c r="AG109" s="17" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="AH109" s="17" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="AI109" s="21">
         <v>68490</v>
       </c>
       <c r="AJ109" s="28" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="AK109" s="22" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="AL109" s="22"/>
       <c r="AM109" s="23" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="AN109" s="15"/>
       <c r="AO109" s="17" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="AP109" s="17" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="AQ109" s="29" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="AR109" s="23"/>
       <c r="AS109" s="25"/>
@@ -34136,13 +34166,13 @@
     </row>
     <row r="110" spans="1:80" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="D110" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34177,29 +34207,29 @@
       <c r="AE110" s="17"/>
       <c r="AF110" s="15"/>
       <c r="AG110" s="17" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="AH110" s="17" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="AI110" s="21">
         <v>51140</v>
       </c>
       <c r="AJ110" s="28" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="AK110" s="22" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="AL110" s="22"/>
       <c r="AM110" s="23" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="AN110" s="30"/>
       <c r="AO110" s="26"/>
       <c r="AP110" s="24"/>
       <c r="AQ110" s="29" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="AR110" s="26"/>
       <c r="AS110" s="26"/>
@@ -34301,13 +34331,13 @@
     </row>
     <row r="111" spans="1:80" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="D111" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34342,23 +34372,23 @@
       <c r="AE111" s="17"/>
       <c r="AF111" s="15"/>
       <c r="AG111" s="17" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="AH111" s="17" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="AI111" s="21">
         <v>51140</v>
       </c>
       <c r="AJ111" s="28" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="AK111" s="22" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="AL111" s="22"/>
       <c r="AM111" s="23" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="AN111" s="30"/>
       <c r="AO111" s="26"/>
@@ -34470,7 +34500,7 @@
         <v>131</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D112" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34505,23 +34535,23 @@
       <c r="AE112" s="12"/>
       <c r="AF112" s="19"/>
       <c r="AG112" s="12" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="AH112" s="12" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="AI112" s="31">
         <v>8000</v>
       </c>
       <c r="AJ112" s="28" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="AK112" s="22" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="AL112" s="22"/>
       <c r="AM112" s="23" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="AN112" s="32"/>
       <c r="AO112" s="33"/>
@@ -34630,10 +34660,10 @@
         <v>269</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D113" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34668,30 +34698,30 @@
       <c r="AE113" s="17"/>
       <c r="AF113" s="15"/>
       <c r="AG113" s="17" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="AH113" s="17" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="AI113" s="21">
         <v>60200</v>
       </c>
       <c r="AJ113" s="28" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="AK113" s="22" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="AL113" s="22"/>
       <c r="AM113" s="23" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="AN113" s="26"/>
       <c r="AO113" s="26"/>
       <c r="AP113" s="24"/>
       <c r="AQ113" s="26"/>
       <c r="AR113" s="23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AS113" s="26"/>
       <c r="AT113" s="1">
@@ -34795,10 +34825,10 @@
         <v>269</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D114" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34833,23 +34863,23 @@
       <c r="AE114" s="17"/>
       <c r="AF114" s="15"/>
       <c r="AG114" s="17" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="AH114" s="17" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="AI114" s="21">
         <v>60000</v>
       </c>
       <c r="AJ114" s="28" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="AK114" s="22" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="AL114" s="22"/>
       <c r="AM114" s="23" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="AN114" s="15"/>
       <c r="AO114" s="26"/>
@@ -34958,10 +34988,10 @@
         <v>269</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="D115" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34996,28 +35026,28 @@
       <c r="AE115" s="17"/>
       <c r="AF115" s="15"/>
       <c r="AG115" s="17" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="AH115" s="17" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="AI115" s="21">
         <v>60000</v>
       </c>
       <c r="AJ115" s="28"/>
       <c r="AK115" s="22" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="AL115" s="22"/>
       <c r="AM115" s="23" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="AN115" s="15"/>
       <c r="AO115" s="26"/>
       <c r="AP115" s="24"/>
       <c r="AQ115" s="26"/>
       <c r="AR115" s="42" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="AS115" s="26"/>
       <c r="AT115" s="1">
@@ -35121,10 +35151,10 @@
         <v>269</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="D116" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35159,23 +35189,23 @@
       <c r="AE116" s="17"/>
       <c r="AF116" s="15"/>
       <c r="AG116" s="17" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="AH116" s="17" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="AI116" s="21">
         <v>8090</v>
       </c>
       <c r="AJ116" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AK116" s="22" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="AL116" s="22"/>
       <c r="AM116" s="23" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="AN116" s="15"/>
       <c r="AO116" s="26"/>
@@ -35281,13 +35311,13 @@
     </row>
     <row r="117" spans="1:80" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="D117" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35322,23 +35352,23 @@
       <c r="AE117" s="17"/>
       <c r="AF117" s="15"/>
       <c r="AG117" s="17" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="AH117" s="17" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="AI117" s="21">
         <v>21000</v>
       </c>
       <c r="AJ117" s="28" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="AK117" s="22" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="AL117" s="22"/>
       <c r="AM117" s="23" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="AN117" s="32"/>
       <c r="AO117" s="26"/>
@@ -35444,13 +35474,13 @@
     </row>
     <row r="118" spans="1:80" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="D118" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35485,27 +35515,27 @@
       <c r="AE118" s="17"/>
       <c r="AF118" s="15"/>
       <c r="AG118" s="17" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="AH118" s="17" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="AI118" s="21">
         <v>60200</v>
       </c>
       <c r="AJ118" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AK118" s="22" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="AL118" s="22"/>
       <c r="AM118" s="23" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="AN118" s="15"/>
       <c r="AO118" s="61" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="AP118" s="24"/>
       <c r="AQ118" s="26"/>
@@ -35609,13 +35639,13 @@
     </row>
     <row r="119" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D119" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35650,23 +35680,23 @@
       <c r="AE119" s="17"/>
       <c r="AF119" s="15"/>
       <c r="AG119" s="17" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="AH119" s="17" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="AI119" s="21">
         <v>60200</v>
       </c>
       <c r="AJ119" s="28" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="AK119" s="22" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="AL119" s="22"/>
       <c r="AM119" s="23" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="AN119" s="15"/>
       <c r="AO119" s="61"/>
@@ -35772,13 +35802,13 @@
     </row>
     <row r="120" spans="1:80" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="D120" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35813,23 +35843,23 @@
       <c r="AE120" s="17"/>
       <c r="AF120" s="15"/>
       <c r="AG120" s="17" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="AH120" s="17" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="AI120" s="21">
         <v>60000</v>
       </c>
       <c r="AJ120" s="28" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="AK120" s="22" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="AL120" s="22"/>
       <c r="AM120" s="23" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="AN120" s="15"/>
       <c r="AO120" s="26"/>
@@ -35935,13 +35965,13 @@
     </row>
     <row r="121" spans="1:80" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D121" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35976,7 +36006,7 @@
       <c r="AE121" s="17"/>
       <c r="AF121" s="15"/>
       <c r="AG121" s="17" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="AH121" s="17" t="s">
         <v>308</v>
@@ -35985,14 +36015,14 @@
         <v>67000</v>
       </c>
       <c r="AJ121" s="28" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="AK121" s="22" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="AL121" s="22"/>
       <c r="AM121" s="23" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="AN121" s="15"/>
       <c r="AO121" s="26"/>
@@ -36098,13 +36128,13 @@
     </row>
     <row r="122" spans="1:80" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="D122" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36139,23 +36169,23 @@
       <c r="AE122" s="17"/>
       <c r="AF122" s="15"/>
       <c r="AG122" s="17" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="AH122" s="17" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="AI122" s="21">
         <v>21121</v>
       </c>
       <c r="AJ122" s="28" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="AK122" s="22" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="AL122" s="22"/>
       <c r="AM122" s="23" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="AN122" s="15"/>
       <c r="AO122" s="26"/>
@@ -36261,13 +36291,13 @@
     </row>
     <row r="123" spans="1:80" ht="105" x14ac:dyDescent="0.25">
       <c r="A123" s="80" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B123" s="80" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="C123" s="81" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="D123" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36302,23 +36332,23 @@
       <c r="AE123" s="81"/>
       <c r="AF123" s="83"/>
       <c r="AG123" s="81" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="AH123" s="81" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="AI123" s="85">
         <v>21800</v>
       </c>
       <c r="AJ123" s="87" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="AK123" s="88" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="AL123" s="88"/>
       <c r="AM123" s="89" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="AN123" s="111"/>
       <c r="AO123" s="72"/>
@@ -36414,13 +36444,13 @@
     </row>
     <row r="124" spans="1:80" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="101" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B124" s="101" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="C124" s="102" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="D124" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36455,19 +36485,19 @@
       <c r="AE124" s="102"/>
       <c r="AF124" s="104"/>
       <c r="AG124" s="102" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="AH124" s="102" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="AI124" s="106">
         <v>21000</v>
       </c>
       <c r="AJ124" s="107" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="AK124" s="108" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="AL124" s="108"/>
       <c r="AM124" s="109"/>
@@ -36565,13 +36595,13 @@
     </row>
     <row r="125" spans="1:80" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="101" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B125" s="101" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="C125" s="102" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="D125" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36606,23 +36636,23 @@
       <c r="AE125" s="102"/>
       <c r="AF125" s="104"/>
       <c r="AG125" s="102" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="AH125" s="102" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="AI125" s="106">
         <v>21300</v>
       </c>
       <c r="AJ125" s="107" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="AK125" s="108" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="AL125" s="108"/>
       <c r="AM125" s="109" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="AN125" s="110"/>
       <c r="AO125" s="7"/>
@@ -36718,13 +36748,13 @@
     </row>
     <row r="126" spans="1:80" ht="105" x14ac:dyDescent="0.25">
       <c r="A126" s="101" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B126" s="101" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="C126" s="102" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="D126" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36759,23 +36789,23 @@
       <c r="AE126" s="102"/>
       <c r="AF126" s="104"/>
       <c r="AG126" s="102" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="AH126" s="102" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="AI126" s="106">
         <v>21800</v>
       </c>
       <c r="AJ126" s="107" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="AK126" s="108" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="AL126" s="108"/>
       <c r="AM126" s="109" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="AN126" s="110"/>
       <c r="AO126" s="7"/>
@@ -36871,13 +36901,13 @@
     </row>
     <row r="127" spans="1:80" s="123" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="101" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B127" s="101" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="C127" s="102" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D127" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36912,23 +36942,23 @@
       <c r="AE127" s="102"/>
       <c r="AF127" s="104"/>
       <c r="AG127" s="102" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="AH127" s="102" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="AI127" s="106">
         <v>21600</v>
       </c>
       <c r="AJ127" s="107" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="AK127" s="108" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="AL127" s="108"/>
       <c r="AM127" s="109" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="AN127" s="104"/>
       <c r="AO127" s="7"/>
@@ -37034,13 +37064,13 @@
     </row>
     <row r="128" spans="1:80" s="98" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="115" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="B128" s="113" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="D128" s="73" t="str">
         <f t="shared" si="57"/>
@@ -37055,13 +37085,13 @@
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
       <c r="M128" s="98" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="N128" s="114" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="O128" s="98" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="P128" s="2"/>
       <c r="R128" s="119"/>
@@ -37080,23 +37110,23 @@
       <c r="AE128" s="8"/>
       <c r="AF128" s="2"/>
       <c r="AG128" s="116" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="AH128" s="98" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="AI128" s="117">
         <v>92390</v>
       </c>
       <c r="AJ128" s="107" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="AK128" s="108" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="AL128" s="108"/>
       <c r="AM128" s="109" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="AN128" s="5"/>
       <c r="AO128" s="2"/>
@@ -42382,54 +42412,55 @@
     <hyperlink ref="AK42" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
     <hyperlink ref="AR9" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
     <hyperlink ref="AR51" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="AK20" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="AJ32" r:id="rId60" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?ei=WSDeWqjRLoPCgAao_rOACQ&amp;q=GRANDS+MOULINS+%28EUROMILL+NORD+REIMS%29&amp;oq=GRANDS+MOULINS+%28EUROMILL+NORD+REIMS%29&amp;gs_l=psy-ab.3...222844.222844.0.223869.1.1.0.0.0.0.361.361.3-1.1.0....0...1c.1.64.psy-ab..0.0.0....0.P1wqGInEwAU" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="AR77" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="AR78" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="AR6" r:id="rId63" display="mailto:mbertemes@mhws.fr" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="AR79" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="AK68" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="AR83" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="AR8" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="AQ52" r:id="rId68" display="Labo08@cq08.fr_x000a_03 24 59 61 53  _x000a_" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="AR52" r:id="rId69" display="mailto:Labo08@cq08.fr" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="AR21" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="AR22" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="AR86" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="AR89" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="AK46" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="AK87" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="AK88" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="AK89" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="AR33" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="AR4" r:id="rId79" display="m.lebrun@soliance.com / " xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="AR99" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="AR102" r:id="rId81" display="mailto:mickael.franchette@eugenemerma.fr" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="AR103" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="AR39" r:id="rId83" display="mailto:floriane.oszust@univ-reims;fr" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="AR42" r:id="rId84" display="mailto:v.verdonk@biotechjboy.com" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="AR108" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="AJ32" r:id="rId59" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?ei=WSDeWqjRLoPCgAao_rOACQ&amp;q=GRANDS+MOULINS+%28EUROMILL+NORD+REIMS%29&amp;oq=GRANDS+MOULINS+%28EUROMILL+NORD+REIMS%29&amp;gs_l=psy-ab.3...222844.222844.0.223869.1.1.0.0.0.0.361.361.3-1.1.0....0...1c.1.64.psy-ab..0.0.0....0.P1wqGInEwAU" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="AR77" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="AR78" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="AR6" r:id="rId62" display="mailto:mbertemes@mhws.fr" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="AR79" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="AK68" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="AR83" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="AR8" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="AQ52" r:id="rId67" display="Labo08@cq08.fr_x000a_03 24 59 61 53  _x000a_" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="AR52" r:id="rId68" display="mailto:Labo08@cq08.fr" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="AR21" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="AR22" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="AR86" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="AR89" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="AK46" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="AK87" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="AK88" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="AK89" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="AR33" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="AR4" r:id="rId78" display="m.lebrun@soliance.com / " xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="AR99" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="AR102" r:id="rId80" display="mailto:mickael.franchette@eugenemerma.fr" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="AR103" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="AR39" r:id="rId82" display="mailto:floriane.oszust@univ-reims;fr" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="AR42" r:id="rId83" display="mailto:v.verdonk@biotechjboy.com" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="AR108" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
     <hyperlink ref="AK108" display="https://www.google.fr/maps/place/49%C2%B014'33.9%22N+4%C2%B003'41.6%22E/@49.242738,4.0606367,18z/data=!3m1!4b1!4m9!1m2!2m1!1sB%C3%A2timent+18+-+UFR+Sciences+Exactes+et+Naturelles,+Laboratoire+SIRMA++++CNRS+3481++!3m5!1s0x0:0x0!7e2!8m2!3d49.2427377!4d4.061" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="AR115" r:id="rId86" display="mailto:info@jnslabs.com" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="AR57" r:id="rId87" xr:uid="{120D4766-2804-834C-B350-0BE7FDA42D38}"/>
-    <hyperlink ref="AK4" r:id="rId88" xr:uid="{6622BBA6-6FF8-4152-B86B-419D1D3F91A2}"/>
-    <hyperlink ref="AK2" r:id="rId89" xr:uid="{CE6BB279-B22D-4886-BA43-EBC7C34ABC98}"/>
-    <hyperlink ref="AK3" r:id="rId90" xr:uid="{AD65CD47-7EFA-468A-823F-E339A9B6D149}"/>
-    <hyperlink ref="AK5" r:id="rId91" xr:uid="{867F9573-C524-43B1-B8BB-393613768702}"/>
-    <hyperlink ref="AK6" r:id="rId92" xr:uid="{BF5452CE-A4A7-4606-BC60-FF976F299AB7}"/>
-    <hyperlink ref="AK7" r:id="rId93" xr:uid="{D6C97649-73D2-49A8-8292-B639FCA92A26}"/>
-    <hyperlink ref="AK8" r:id="rId94" xr:uid="{06A1A36D-1C79-4DDD-8C3C-A29B3AB95216}"/>
-    <hyperlink ref="AK9" r:id="rId95" xr:uid="{E7287CB5-76AD-4369-BEC2-F6381C7644FC}"/>
-    <hyperlink ref="AK10" r:id="rId96" xr:uid="{9180D9EF-8163-43F1-B529-5EF7620CCC98}"/>
-    <hyperlink ref="AK12" r:id="rId97" xr:uid="{7B3178EE-8012-4045-ABA6-770304DA7A0A}"/>
-    <hyperlink ref="AK13" r:id="rId98" xr:uid="{6BF309E0-44F4-4801-A07F-B45D80DAD3B9}"/>
-    <hyperlink ref="AK15" r:id="rId99" xr:uid="{30B8E8AB-484D-4869-9DA7-C84D07A1DFD7}"/>
-    <hyperlink ref="AK17" r:id="rId100" xr:uid="{832F36F7-F6BA-46EB-A5E1-DB9BEB57D0DF}"/>
-    <hyperlink ref="AK18" r:id="rId101" xr:uid="{9154F617-C5AB-49D1-BA5E-806CE4EB594E}"/>
-    <hyperlink ref="AK19" r:id="rId102" xr:uid="{F3B7F5D3-98B0-43C8-A6A6-EFF45964F58D}"/>
+    <hyperlink ref="AR115" r:id="rId85" display="mailto:info@jnslabs.com" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="AR57" r:id="rId86" xr:uid="{120D4766-2804-834C-B350-0BE7FDA42D38}"/>
+    <hyperlink ref="AK4" r:id="rId87" xr:uid="{6622BBA6-6FF8-4152-B86B-419D1D3F91A2}"/>
+    <hyperlink ref="AK2" r:id="rId88" xr:uid="{CE6BB279-B22D-4886-BA43-EBC7C34ABC98}"/>
+    <hyperlink ref="AK3" r:id="rId89" xr:uid="{AD65CD47-7EFA-468A-823F-E339A9B6D149}"/>
+    <hyperlink ref="AK5" r:id="rId90" xr:uid="{867F9573-C524-43B1-B8BB-393613768702}"/>
+    <hyperlink ref="AK6" r:id="rId91" xr:uid="{BF5452CE-A4A7-4606-BC60-FF976F299AB7}"/>
+    <hyperlink ref="AK7" r:id="rId92" xr:uid="{D6C97649-73D2-49A8-8292-B639FCA92A26}"/>
+    <hyperlink ref="AK8" r:id="rId93" xr:uid="{06A1A36D-1C79-4DDD-8C3C-A29B3AB95216}"/>
+    <hyperlink ref="AK9" r:id="rId94" xr:uid="{E7287CB5-76AD-4369-BEC2-F6381C7644FC}"/>
+    <hyperlink ref="AK10" r:id="rId95" xr:uid="{9180D9EF-8163-43F1-B529-5EF7620CCC98}"/>
+    <hyperlink ref="AK12" r:id="rId96" xr:uid="{7B3178EE-8012-4045-ABA6-770304DA7A0A}"/>
+    <hyperlink ref="AK13" r:id="rId97" xr:uid="{6BF309E0-44F4-4801-A07F-B45D80DAD3B9}"/>
+    <hyperlink ref="AK15" r:id="rId98" xr:uid="{30B8E8AB-484D-4869-9DA7-C84D07A1DFD7}"/>
+    <hyperlink ref="AK17" r:id="rId99" xr:uid="{832F36F7-F6BA-46EB-A5E1-DB9BEB57D0DF}"/>
+    <hyperlink ref="AK18" r:id="rId100" xr:uid="{9154F617-C5AB-49D1-BA5E-806CE4EB594E}"/>
+    <hyperlink ref="AK19" r:id="rId101" xr:uid="{F3B7F5D3-98B0-43C8-A6A6-EFF45964F58D}"/>
+    <hyperlink ref="AK21" r:id="rId102" xr:uid="{8E4BF1A8-8EA1-4025-A588-AE88CCAA2C07}"/>
+    <hyperlink ref="AK23" r:id="rId103" xr:uid="{E24FB1E8-7D8A-43A4-B6D0-9E909F366FEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId103"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId104"/>
 </worksheet>
 </file>
 
@@ -42448,7 +42479,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="171" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="B1" s="172"/>
       <c r="C1" s="172"/>
@@ -42465,14 +42496,14 @@
       <c r="F2" s="176"/>
       <c r="H2" s="68"/>
       <c r="I2" s="69" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="K2" s="70"/>
       <c r="L2" s="69" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="N2" s="167" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="O2" s="168"/>
       <c r="P2" s="168"/>
@@ -42534,7 +42565,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="171" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="B1" s="172"/>
       <c r="C1" s="172"/>
@@ -42553,14 +42584,14 @@
       <c r="G2" s="71"/>
       <c r="H2" s="68"/>
       <c r="I2" s="69" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="K2" s="70"/>
       <c r="L2" s="69" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="N2" s="180" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="O2" s="181"/>
       <c r="P2" s="181"/>

--- a/Entreprises_Complet.xlsx
+++ b/Entreprises_Complet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfial\Documents\00_Stage_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBB37DC5-7CBC-4BE7-8680-EE484E439561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAE35F43-C4FF-4278-BF53-19F324CC98E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4019,18 +4019,12 @@
     <t>https://www.linkedin.com/company/champagne-louis-roederer/</t>
   </si>
   <si>
-    <t>49.24279144591055, 4.061544261781607</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/umr-fare-0a41241a5/</t>
   </si>
   <si>
     <t>https://www.linkedin.com/school/universite-de-reims-champagne-ardenne/?originalSubdomain=fr</t>
   </si>
   <si>
-    <t>49.24244122593063, 4.061576448290053</t>
-  </si>
-  <si>
     <t>49.23079789189787, 4.018860555934231</t>
   </si>
   <si>
@@ -4098,6 +4092,12 @@
   </si>
   <si>
     <t>49.05714533026471, 3.964399200350597</t>
+  </si>
+  <si>
+    <t>49.242414796169086, 4.06599564273623</t>
+  </si>
+  <si>
+    <t>49.24187545225358, 4.066215583877276</t>
   </si>
 </sst>
 </file>
@@ -15067,10 +15067,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AD1" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="AL26" sqref="AL26"/>
+      <selection pane="bottomLeft" activeCell="AL15" sqref="AL15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17163,7 +17163,7 @@
         <v>492</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="D11" s="73" t="str">
         <f t="shared" si="0"/>
@@ -17949,7 +17949,7 @@
         <v>436</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="D15" s="73" t="str">
         <f t="shared" si="0"/>
@@ -17998,7 +17998,7 @@
       <c r="AE15" s="17"/>
       <c r="AF15" s="15"/>
       <c r="AG15" s="17" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="AH15" s="17" t="s">
         <v>193</v>
@@ -18008,10 +18008,10 @@
       </c>
       <c r="AJ15" s="15"/>
       <c r="AK15" s="22" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="AL15" s="23" t="s">
-        <v>1273</v>
+        <v>1299</v>
       </c>
       <c r="AM15" s="23" t="s">
         <v>416</v>
@@ -18130,7 +18130,7 @@
         <v>415</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="D16" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18183,7 +18183,7 @@
       </c>
       <c r="AF16" s="15"/>
       <c r="AG16" s="17" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="AH16" s="17" t="s">
         <v>193</v>
@@ -18193,10 +18193,10 @@
       </c>
       <c r="AJ16" s="15"/>
       <c r="AK16" s="22" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="AL16" s="23" t="s">
-        <v>1276</v>
+        <v>1298</v>
       </c>
       <c r="AM16" s="23" t="s">
         <v>416</v>
@@ -18378,10 +18378,10 @@
       </c>
       <c r="AJ17" s="28"/>
       <c r="AK17" s="22" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="AL17" s="22" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="AM17" s="23" t="s">
         <v>877</v>
@@ -18512,7 +18512,7 @@
         <v>1172</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="D18" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18559,7 +18559,7 @@
       <c r="AE18" s="17"/>
       <c r="AF18" s="15"/>
       <c r="AG18" s="17" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="AH18" s="17" t="s">
         <v>193</v>
@@ -18571,10 +18571,10 @@
         <v>1210</v>
       </c>
       <c r="AK18" s="22" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="AL18" s="22" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="AM18" s="23" t="s">
         <v>1211</v>
@@ -18758,10 +18758,10 @@
         <v>487</v>
       </c>
       <c r="AK19" s="22" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="AL19" s="52" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="AM19" s="23" t="s">
         <v>488</v>
@@ -18957,10 +18957,10 @@
         <v>483</v>
       </c>
       <c r="AK20" s="52" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="AL20" s="52" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="AM20" s="25"/>
       <c r="AN20" s="17"/>
@@ -19310,7 +19310,7 @@
       </c>
       <c r="AK22" s="56"/>
       <c r="AL22" s="56" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="AM22" s="23" t="s">
         <v>709</v>
@@ -19431,7 +19431,7 @@
         <v>630</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="D23" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19484,10 +19484,10 @@
         <v>633</v>
       </c>
       <c r="AK23" s="56" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="AL23" s="56" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="AM23" s="23" t="s">
         <v>634</v>
@@ -19671,10 +19671,10 @@
         <v>427</v>
       </c>
       <c r="AK24" s="23" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="AL24" s="23" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="AM24" s="23" t="s">
         <v>428</v>
@@ -19863,7 +19863,7 @@
         <v>1260</v>
       </c>
       <c r="AL25" s="23" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="AM25" s="23" t="s">
         <v>326</v>
@@ -22780,7 +22780,7 @@
     </row>
     <row r="42" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="17" t="s">
@@ -32003,13 +32003,13 @@
     </row>
     <row r="97" spans="1:80" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B97" s="12" t="s">
         <v>778</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D97" s="73" t="str">
         <f t="shared" si="38"/>

--- a/Entreprises_Complet.xlsx
+++ b/Entreprises_Complet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfial\Documents\00_Stage_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAE35F43-C4FF-4278-BF53-19F324CC98E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5AA7C13-434A-40FA-939E-B2DC4C685630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="1300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="1305">
   <si>
     <t>Alimentaire</t>
   </si>
@@ -831,9 +831,6 @@
     <t>MUMM</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/G.H.+Mumm/@49.2542838,4.0226159,14z/data=!4m8!1m2!2m1!1schampagne+gh+mumm!3m4!1s0x47e975b01e786ef9:0x2cc5ea8e88936d14!8m2!3d49.2639329!4d4.0369503</t>
-  </si>
-  <si>
     <t>COOPERATIVE VINICOLE</t>
   </si>
   <si>
@@ -856,9 +853,6 @@
   </si>
   <si>
     <t>Mme Pichard</t>
-  </si>
-  <si>
-    <t>https://www.google.fr/maps/place/Cogesal+Miko/@48.6526607,4.9306494,17z/data=!3m1!4b1!4m5!3m4!1s0x47eb8127e26d1a27:0xcbe47538180a50b8!8m2!3d48.6526572!4d4.9328434</t>
   </si>
   <si>
     <t>Rue Bonnor</t>
@@ -1910,9 +1904,6 @@
     <t>03 26 49 41 05</t>
   </si>
   <si>
-    <t>https://www.google.fr/search?safe=strict&amp;sa=G&amp;hl=fr&amp;q=taittinger+ccvc&amp;npsic=0&amp;rflfq=1&amp;rlha=0&amp;rllag=49200628,4079530,5470&amp;tbm=lcl&amp;ved=2ahUKEwjf_rGL48ndAhVSx4UKHVCNBTMQtgN6BAgAEAQ&amp;tbs=lrf:!2m1!1e2!3sIAE,lf:1,lf_ui:9&amp;rldoc=1#rlfi=hd:;si:16251563433242774441;mv:!3m12!1m3!1d48012.18161437429!2d4.0795303!3d49.20062855!2m3!1f0!2f0!3f0!3m2!1i217!2i442!4f13.1</t>
-  </si>
-  <si>
     <t>Mme DE BEAUVAIS C. (DRH)</t>
   </si>
   <si>
@@ -2221,9 +2212,6 @@
     <t>03 24 56 57 20</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Source+Aurelle/@49.6510758,4.5671612,252m/data=!3m1!1e3!4m5!3m4!1s0x47ea1974b11e0671:0xd9567af02af872da!8m2!3d49.6512131!4d4.5677698</t>
-  </si>
-  <si>
     <t>MH29+F4 Jandun</t>
   </si>
   <si>
@@ -4098,6 +4086,33 @@
   </si>
   <si>
     <t>49.24187545225358, 4.066215583877276</t>
+  </si>
+  <si>
+    <t>48.652788301680204, 4.9337660781502155</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/cogesal-miko/about/</t>
+  </si>
+  <si>
+    <t>49.65128245156454, 4.567756650406249</t>
+  </si>
+  <si>
+    <t>47.79452298313667, 2.322076455357234</t>
+  </si>
+  <si>
+    <t>49.76471285018742, 4.7295449474978275</t>
+  </si>
+  <si>
+    <t>49.15653682445556, 4.1127664940380155</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/champagne-taittinger/</t>
+  </si>
+  <si>
+    <t>49.26478679918243, 4.039610376459445</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/g.h.-mumm-et-cie---soci%C3%A9t%C3%A9-vinicole-de-champagne-successeur/about/</t>
   </si>
 </sst>
 </file>
@@ -15067,10 +15082,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AD1" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="AL15" sqref="AL15"/>
+      <selection pane="bottomLeft" activeCell="AK31" sqref="AK31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15138,91 +15153,91 @@
         <v>165</v>
       </c>
       <c r="D1" s="151" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E1" s="152" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="F1" s="152" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="G1" s="152" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="H1" s="152" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="I1" s="152" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="J1" s="152" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="K1" s="152" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="L1" s="152" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="M1" s="153" t="s">
+        <v>280</v>
+      </c>
+      <c r="N1" s="150" t="s">
+        <v>281</v>
+      </c>
+      <c r="O1" s="150" t="s">
         <v>282</v>
       </c>
-      <c r="N1" s="150" t="s">
+      <c r="P1" s="150" t="s">
         <v>283</v>
       </c>
-      <c r="O1" s="150" t="s">
-        <v>284</v>
-      </c>
-      <c r="P1" s="150" t="s">
-        <v>285</v>
-      </c>
       <c r="Q1" s="150" t="s">
+        <v>262</v>
+      </c>
+      <c r="R1" s="154" t="s">
+        <v>263</v>
+      </c>
+      <c r="S1" s="150" t="s">
         <v>264</v>
       </c>
-      <c r="R1" s="154" t="s">
+      <c r="T1" s="150" t="s">
         <v>265</v>
       </c>
-      <c r="S1" s="150" t="s">
-        <v>266</v>
-      </c>
-      <c r="T1" s="150" t="s">
-        <v>267</v>
-      </c>
       <c r="U1" s="150" t="s">
+        <v>271</v>
+      </c>
+      <c r="V1" s="150" t="s">
+        <v>272</v>
+      </c>
+      <c r="W1" s="150" t="s">
         <v>273</v>
       </c>
-      <c r="V1" s="150" t="s">
+      <c r="X1" s="150" t="s">
         <v>274</v>
       </c>
-      <c r="W1" s="150" t="s">
-        <v>275</v>
-      </c>
-      <c r="X1" s="150" t="s">
-        <v>276</v>
-      </c>
       <c r="Y1" s="150" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z1" s="150" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA1" s="150" t="s">
         <v>289</v>
       </c>
-      <c r="Z1" s="150" t="s">
+      <c r="AB1" s="150" t="s">
         <v>290</v>
       </c>
-      <c r="AA1" s="150" t="s">
-        <v>291</v>
-      </c>
-      <c r="AB1" s="150" t="s">
-        <v>292</v>
-      </c>
       <c r="AC1" s="150" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AD1" s="150" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE1" s="150" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF1" s="150" t="s">
         <v>317</v>
-      </c>
-      <c r="AE1" s="150" t="s">
-        <v>318</v>
-      </c>
-      <c r="AF1" s="150" t="s">
-        <v>319</v>
       </c>
       <c r="AG1" s="150" t="s">
         <v>166</v>
@@ -15240,10 +15255,10 @@
         <v>82</v>
       </c>
       <c r="AL1" s="150" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="AM1" s="150" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AN1" s="150" t="s">
         <v>72</v>
@@ -15261,113 +15276,113 @@
         <v>76</v>
       </c>
       <c r="AS1" s="156" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AT1" s="157" t="s">
+        <v>996</v>
+      </c>
+      <c r="AU1" s="158" t="s">
+        <v>999</v>
+      </c>
+      <c r="AV1" s="157" t="s">
+        <v>994</v>
+      </c>
+      <c r="AW1" s="158" t="s">
+        <v>997</v>
+      </c>
+      <c r="AX1" s="159" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AY1" s="159" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AZ1" s="159" t="s">
+        <v>1030</v>
+      </c>
+      <c r="BA1" s="159" t="s">
+        <v>1031</v>
+      </c>
+      <c r="BB1" s="159" t="s">
         <v>1000</v>
       </c>
-      <c r="AU1" s="158" t="s">
+      <c r="BC1" s="159" t="s">
+        <v>1001</v>
+      </c>
+      <c r="BD1" s="159" t="s">
+        <v>1002</v>
+      </c>
+      <c r="BE1" s="159" t="s">
         <v>1003</v>
       </c>
-      <c r="AV1" s="157" t="s">
+      <c r="BF1" s="159" t="s">
+        <v>1004</v>
+      </c>
+      <c r="BG1" s="159" t="s">
+        <v>1005</v>
+      </c>
+      <c r="BH1" s="159" t="s">
+        <v>1006</v>
+      </c>
+      <c r="BI1" s="159" t="s">
+        <v>1007</v>
+      </c>
+      <c r="BJ1" s="159" t="s">
+        <v>1008</v>
+      </c>
+      <c r="BK1" s="159" t="s">
+        <v>1009</v>
+      </c>
+      <c r="BL1" s="160" t="s">
         <v>998</v>
       </c>
-      <c r="AW1" s="158" t="s">
-        <v>1001</v>
-      </c>
-      <c r="AX1" s="159" t="s">
-        <v>1036</v>
-      </c>
-      <c r="AY1" s="159" t="s">
-        <v>1037</v>
-      </c>
-      <c r="AZ1" s="159" t="s">
-        <v>1034</v>
-      </c>
-      <c r="BA1" s="159" t="s">
-        <v>1035</v>
-      </c>
-      <c r="BB1" s="159" t="s">
-        <v>1004</v>
-      </c>
-      <c r="BC1" s="159" t="s">
-        <v>1005</v>
-      </c>
-      <c r="BD1" s="159" t="s">
-        <v>1006</v>
-      </c>
-      <c r="BE1" s="159" t="s">
-        <v>1007</v>
-      </c>
-      <c r="BF1" s="159" t="s">
-        <v>1008</v>
-      </c>
-      <c r="BG1" s="159" t="s">
-        <v>1009</v>
-      </c>
-      <c r="BH1" s="159" t="s">
-        <v>1010</v>
-      </c>
-      <c r="BI1" s="159" t="s">
-        <v>1011</v>
-      </c>
-      <c r="BJ1" s="159" t="s">
-        <v>1012</v>
-      </c>
-      <c r="BK1" s="159" t="s">
-        <v>1013</v>
-      </c>
-      <c r="BL1" s="160" t="s">
-        <v>1002</v>
-      </c>
       <c r="BM1" s="160" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="BN1" s="160"/>
       <c r="BO1" s="160"/>
       <c r="BP1" s="161" t="s">
+        <v>1010</v>
+      </c>
+      <c r="BQ1" s="161" t="s">
+        <v>1011</v>
+      </c>
+      <c r="BR1" s="161" t="s">
+        <v>1012</v>
+      </c>
+      <c r="BS1" s="161" t="s">
+        <v>1013</v>
+      </c>
+      <c r="BT1" s="161" t="s">
         <v>1014</v>
-      </c>
-      <c r="BQ1" s="161" t="s">
-        <v>1015</v>
-      </c>
-      <c r="BR1" s="161" t="s">
-        <v>1016</v>
-      </c>
-      <c r="BS1" s="161" t="s">
-        <v>1017</v>
-      </c>
-      <c r="BT1" s="161" t="s">
-        <v>1018</v>
       </c>
       <c r="BU1" s="161"/>
       <c r="BV1" s="161"/>
       <c r="BW1" s="161" t="s">
+        <v>1015</v>
+      </c>
+      <c r="BX1" s="161" t="s">
+        <v>1016</v>
+      </c>
+      <c r="BY1" s="161" t="s">
+        <v>1017</v>
+      </c>
+      <c r="BZ1" s="161" t="s">
+        <v>1018</v>
+      </c>
+      <c r="CA1" s="161" t="s">
         <v>1019</v>
-      </c>
-      <c r="BX1" s="161" t="s">
-        <v>1020</v>
-      </c>
-      <c r="BY1" s="161" t="s">
-        <v>1021</v>
-      </c>
-      <c r="BZ1" s="161" t="s">
-        <v>1022</v>
-      </c>
-      <c r="CA1" s="161" t="s">
-        <v>1023</v>
       </c>
       <c r="CB1" s="162"/>
     </row>
     <row r="2" spans="1:80" s="18" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="D2" s="99"/>
       <c r="E2" s="164"/>
@@ -15399,7 +15414,7 @@
       <c r="AE2" s="62"/>
       <c r="AF2" s="137"/>
       <c r="AG2" s="62" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="AH2" s="62" t="s">
         <v>193</v>
@@ -15408,13 +15423,13 @@
         <v>51100</v>
       </c>
       <c r="AJ2" s="139" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="AK2" s="67" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="AL2" s="144" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="AM2" s="67"/>
       <c r="AN2" s="140"/>
@@ -15443,86 +15458,86 @@
     </row>
     <row r="3" spans="1:80" s="18" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D3" s="99" t="str">
         <f t="shared" ref="D3:D34" si="0">IF(AX3&lt;&gt;0,"2020_A="&amp;AX3," ")&amp;IF(AY3&lt;&gt;0," ; 2020_i="&amp;AY3," ")&amp;IF(AZ3&lt;&gt;0,"2019_A="&amp;AZ3," ")&amp;IF(BA3&lt;&gt;0," ; 2019_i="&amp;BA3," ")&amp;IF(BB3&lt;&gt;0,"2018_A="&amp;BB3," ")&amp;IF(BC3&lt;&gt;0," ; 2018_i="&amp;BC3," ")&amp;IF(BD3&lt;&gt;0," ; 2017_A="&amp;BD3," ")&amp;IF(BE3&lt;&gt;0," ; 2017_i="&amp;BE3," ")&amp;IF(BF3&lt;&gt;0," ; 2016_A="&amp;BF3," ")&amp;IF(BG3&lt;&gt;0," ; 2016_i="&amp;BG3," ")&amp;IF(BH3&lt;&gt;0," ; 2015_A="&amp;BH3," ")&amp;IF(BI3&lt;&gt;0," ; 2015_i="&amp;BI3," ")&amp;IF(BJ3&lt;&gt;0," ; 2014_A="&amp;BJ3," ")&amp;IF(BK3&lt;&gt;0," ; 2014_i="&amp;BK3," ")</f>
         <v xml:space="preserve">2020_A=2 2019_A=4 2018_A=7  ; 2017_A=5 ; 2017_i=1 ; 2016_A=6 ; 2016_i=1 ; 2015_A=3  ; 2014_A=3 </v>
       </c>
       <c r="E3" s="164" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="F3" s="164" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="G3" s="164" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="H3" s="164"/>
       <c r="I3" s="74" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="K3" s="62" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="L3" s="164"/>
       <c r="M3" s="74" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="N3" s="62" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="O3" s="62" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="P3" s="137"/>
       <c r="Q3" s="62" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="R3" s="137" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="S3" s="137" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="T3" s="137"/>
       <c r="U3" s="62" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="V3" s="62" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="W3" s="62" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="X3" s="137"/>
       <c r="Y3" s="137"/>
       <c r="Z3" s="62" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="AA3" s="62" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="AB3" s="137"/>
       <c r="AC3" s="62"/>
       <c r="AD3" s="62" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="AE3" s="62" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="AF3" s="137"/>
       <c r="AG3" s="62" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AH3" s="62" t="s">
         <v>193</v>
@@ -15534,13 +15549,13 @@
         <v>326888110</v>
       </c>
       <c r="AK3" s="67" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="AL3" s="144" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="AM3" s="67" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AN3" s="140"/>
       <c r="AO3" s="141"/>
@@ -15664,91 +15679,91 @@
     </row>
     <row r="4" spans="1:80" s="1" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D4" s="73" t="str">
         <f t="shared" si="0"/>
         <v>2020_A=1 2019_A=1 2018_A=2 ; 2018_i=1 ; 2017_A=1  ; 2016_A=2  ; 2015_A=1  ; 2014_A=2 ; 2014_i=1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="75" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="N4" s="17" t="s">
+        <v>1037</v>
+      </c>
+      <c r="O4" s="17" t="s">
         <v>1041</v>
       </c>
-      <c r="O4" s="17" t="s">
-        <v>1045</v>
-      </c>
       <c r="P4" s="17" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="T4" s="17"/>
       <c r="U4" s="17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="X4" s="17"/>
       <c r="Y4" s="17"/>
       <c r="Z4" s="17" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="AA4" s="17" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="AB4" s="17"/>
       <c r="AC4" s="17" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="AD4" s="17" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AE4" s="17" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="AF4" s="17"/>
       <c r="AG4" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AH4" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AI4" s="41">
         <v>51110</v>
@@ -15757,26 +15772,26 @@
         <v>326888410</v>
       </c>
       <c r="AK4" s="23" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="AL4" s="145" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="AM4" s="50"/>
       <c r="AN4" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO4" s="17" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="AP4" s="17" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="AQ4" s="11" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="AR4" s="23" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="AS4" s="25"/>
       <c r="AT4" s="1">
@@ -15898,10 +15913,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D5" s="73" t="str">
         <f t="shared" si="0"/>
@@ -15916,70 +15931,70 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="75" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="P5" s="17"/>
       <c r="Q5" s="17" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="R5" s="17" t="s">
+        <v>1171</v>
+      </c>
+      <c r="S5" s="17" t="s">
         <v>1175</v>
-      </c>
-      <c r="S5" s="17" t="s">
-        <v>1179</v>
       </c>
       <c r="T5" s="17"/>
       <c r="U5" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="W5" s="17" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="X5" s="17"/>
       <c r="Y5" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Z5" s="17" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="AA5" s="17" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="AB5" s="17"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="17" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="AE5" s="17" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="AF5" s="17"/>
       <c r="AG5" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AH5" s="17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AI5" s="41">
         <v>2007</v>
       </c>
       <c r="AJ5" s="28" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AK5" s="23" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="AL5" s="146" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="AM5" s="66"/>
       <c r="AN5" s="17"/>
@@ -16106,7 +16121,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D6" s="73" t="str">
         <f t="shared" si="0"/>
@@ -16117,53 +16132,53 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="75" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="P6" s="17"/>
       <c r="Q6" s="17" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="T6" s="17"/>
       <c r="U6" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="W6" s="17" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="Z6" s="17" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AA6" s="17" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AB6" s="17"/>
       <c r="AC6" s="17"/>
@@ -16183,10 +16198,10 @@
         <v>33326512020</v>
       </c>
       <c r="AK6" s="23" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="AL6" s="147" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="AM6" s="25" t="s">
         <v>221</v>
@@ -16338,55 +16353,55 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="75" t="s">
+        <v>499</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q7" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="R7" s="17" t="s">
         <v>502</v>
       </c>
-      <c r="O7" s="17" t="s">
-        <v>1054</v>
-      </c>
-      <c r="P7" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="Q7" s="17" t="s">
-        <v>503</v>
-      </c>
-      <c r="R7" s="17" t="s">
-        <v>504</v>
-      </c>
       <c r="S7" s="17" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="T7" s="17"/>
       <c r="U7" s="17" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="W7" s="17" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="X7" s="17"/>
       <c r="Y7" s="17"/>
       <c r="Z7" s="17" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="AA7" s="17" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="AB7" s="17"/>
       <c r="AC7" s="17"/>
       <c r="AD7" s="17" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="AE7" s="17" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="AF7" s="17"/>
       <c r="AG7" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AH7" s="11" t="s">
         <v>196</v>
@@ -16398,27 +16413,27 @@
         <v>135</v>
       </c>
       <c r="AK7" s="23" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="AL7" s="147" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="AM7" s="23"/>
       <c r="AN7" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AO7" s="17" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AP7" s="17"/>
       <c r="AQ7" s="11" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AR7" s="50" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AS7" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AT7" s="1">
         <f>RANK(BL7,$BL$3:$BL$122)+COUNTIF(BL$3:BL7,BL7)-1</f>
@@ -16535,10 +16550,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -16553,82 +16568,82 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="75" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="17" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="T8" s="15"/>
       <c r="U8" s="17" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="W8" s="17" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="17" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="AA8" s="17" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="AB8" s="15"/>
       <c r="AC8" s="17"/>
       <c r="AD8" s="17" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="AE8" s="17" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="AF8" s="15"/>
       <c r="AG8" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AH8" s="17" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AI8" s="21">
         <v>2400</v>
       </c>
       <c r="AJ8" s="46" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AK8" s="23" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="AL8" s="23" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="AM8" s="23"/>
       <c r="AN8" s="30"/>
       <c r="AO8" s="17" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="AP8" s="17" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="AQ8" s="48" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AR8" s="42" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="AS8" s="26"/>
       <c r="AT8" s="1">
@@ -16749,84 +16764,84 @@
         <v>4</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="D9" s="99" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">    2018_A=1  ; 2017_A=1  ; 2016_A=1 ; 2016_i=1 ; 2015_A=2  ; 2014_A=1 </v>
       </c>
       <c r="E9" s="75" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="75" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="75" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="P9" s="17"/>
       <c r="Q9" s="17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="T9" s="17"/>
       <c r="U9" s="17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="W9" s="17" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="X9" s="17"/>
       <c r="Y9" s="17" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="Z9" s="17" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="AA9" s="17" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="AB9" s="17"/>
       <c r="AC9" s="17" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="AE9" s="17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AF9" s="17"/>
       <c r="AG9" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AH9" s="11" t="s">
         <v>173</v>
@@ -16838,14 +16853,14 @@
         <v>90</v>
       </c>
       <c r="AK9" s="23" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="AL9" s="23" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="AM9" s="23"/>
       <c r="AN9" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AO9" s="17" t="s">
         <v>92</v>
@@ -16854,10 +16869,10 @@
         <v>93</v>
       </c>
       <c r="AQ9" s="25" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AR9" s="42" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AS9" s="25"/>
       <c r="AT9" s="1">
@@ -16973,43 +16988,43 @@
         <v>0</v>
       </c>
       <c r="B10" s="143" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="D10" s="73" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">2020_A=1 2019_A=1 2018_A=1         </v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="G10" s="142" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="H10" s="126"/>
       <c r="I10" s="54" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="J10" s="54" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="K10" s="142" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="L10" s="126"/>
       <c r="M10" s="97" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N10" s="54" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="O10" s="142" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="P10" s="122"/>
       <c r="Q10" s="54"/>
@@ -17029,10 +17044,10 @@
       <c r="AE10" s="54"/>
       <c r="AF10" s="122"/>
       <c r="AG10" s="54" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="AH10" s="54" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="AI10" s="128">
         <v>50890</v>
@@ -17041,10 +17056,10 @@
         <v>33233066500</v>
       </c>
       <c r="AK10" s="22" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="AL10" s="23" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="AM10" s="54"/>
       <c r="AN10" s="130"/>
@@ -17160,10 +17175,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="D11" s="73" t="str">
         <f t="shared" si="0"/>
@@ -17178,73 +17193,73 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="75" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="O11" s="45" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="P11" s="15"/>
       <c r="Q11" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="R11" s="24" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="S11" s="45" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="T11" s="15"/>
       <c r="U11" s="15" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="V11" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="W11" s="45" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="X11" s="15"/>
       <c r="Y11" s="17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="Z11" s="17" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AA11" s="45" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AB11" s="15"/>
       <c r="AC11" s="17"/>
       <c r="AD11" s="17" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="AE11" s="45" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AF11" s="26"/>
       <c r="AG11" s="17" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AH11" s="17" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AI11" s="21">
         <v>2350</v>
       </c>
       <c r="AJ11" s="46" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AK11" s="23" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="AL11" s="23" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="AM11" s="23" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AN11" s="47"/>
       <c r="AO11" s="26"/>
@@ -17381,33 +17396,33 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="75" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="P12" s="17"/>
       <c r="Q12" s="17" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="S12" s="17" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="T12" s="17"/>
       <c r="U12" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="V12" s="17" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="W12" s="17" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
@@ -17431,10 +17446,10 @@
         <v>127</v>
       </c>
       <c r="AK12" s="23" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="AL12" s="23" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="AM12" s="23"/>
       <c r="AN12" s="25"/>
@@ -17451,7 +17466,7 @@
         <v>25</v>
       </c>
       <c r="AS12" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AT12" s="1">
         <f>RANK(BL12,$BL$3:$BL$122)+COUNTIF(BL$3:BL12,BL12)-1</f>
@@ -17578,33 +17593,33 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="75" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="P13" s="17"/>
       <c r="Q13" s="17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="R13" s="120" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="T13" s="17"/>
       <c r="U13" s="17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="V13" s="17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="W13" s="17" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
@@ -17628,13 +17643,13 @@
         <v>124</v>
       </c>
       <c r="AK13" s="23" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="AL13" s="23" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="AM13" s="23" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AN13" s="25" t="s">
         <v>20</v>
@@ -17757,10 +17772,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D14" s="73" t="str">
         <f t="shared" si="0"/>
@@ -17775,33 +17790,33 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="75" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="P14" s="15"/>
       <c r="Q14" s="17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="R14" s="24" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="S14" s="17" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="T14" s="15"/>
       <c r="U14" s="17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="W14" s="17" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="X14" s="15"/>
       <c r="Y14" s="17"/>
@@ -17813,7 +17828,7 @@
       <c r="AE14" s="17"/>
       <c r="AF14" s="26"/>
       <c r="AG14" s="15" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AH14" s="17" t="s">
         <v>193</v>
@@ -17822,16 +17837,16 @@
         <v>51100</v>
       </c>
       <c r="AJ14" s="46" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AK14" s="23" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="AL14" s="23" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="AM14" s="23" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AN14" s="47"/>
       <c r="AO14" s="26"/>
@@ -17943,13 +17958,13 @@
     </row>
     <row r="15" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="D15" s="73" t="str">
         <f t="shared" si="0"/>
@@ -17968,26 +17983,26 @@
       <c r="O15" s="17"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="17" t="s">
+        <v>1156</v>
+      </c>
+      <c r="R15" s="17" t="s">
         <v>1160</v>
       </c>
-      <c r="R15" s="17" t="s">
-        <v>1164</v>
-      </c>
       <c r="S15" s="17" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="W15" s="17" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="X15" s="15" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
@@ -17998,7 +18013,7 @@
       <c r="AE15" s="17"/>
       <c r="AF15" s="15"/>
       <c r="AG15" s="17" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="AH15" s="17" t="s">
         <v>193</v>
@@ -18008,13 +18023,13 @@
       </c>
       <c r="AJ15" s="15"/>
       <c r="AK15" s="22" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="AL15" s="23" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="AM15" s="23" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AN15" s="30"/>
       <c r="AO15" s="26"/>
@@ -18124,13 +18139,13 @@
     </row>
     <row r="16" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="D16" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18145,13 +18160,13 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="75" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="P16" s="15"/>
       <c r="Q16" s="17"/>
@@ -18159,13 +18174,13 @@
       <c r="S16" s="15"/>
       <c r="T16" s="15"/>
       <c r="U16" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="W16" s="17" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="X16" s="15"/>
       <c r="Y16" s="15"/>
@@ -18173,17 +18188,17 @@
       <c r="AA16" s="15"/>
       <c r="AB16" s="15"/>
       <c r="AC16" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AD16" s="17" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="AE16" s="17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AF16" s="15"/>
       <c r="AG16" s="17" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="AH16" s="17" t="s">
         <v>193</v>
@@ -18193,22 +18208,22 @@
       </c>
       <c r="AJ16" s="15"/>
       <c r="AK16" s="22" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="AL16" s="23" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="AM16" s="23" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AN16" s="30"/>
       <c r="AO16" s="17" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="AP16" s="24"/>
       <c r="AQ16" s="26"/>
       <c r="AR16" s="42" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="AS16" s="26"/>
       <c r="AT16" s="1">
@@ -18315,13 +18330,13 @@
     </row>
     <row r="17" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D17" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18336,23 +18351,23 @@
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
       <c r="M17" s="75" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="P17" s="17"/>
       <c r="Q17" s="17" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="T17" s="17"/>
       <c r="U17" s="17"/>
@@ -18368,7 +18383,7 @@
       <c r="AE17" s="17"/>
       <c r="AF17" s="17"/>
       <c r="AG17" s="17" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="AH17" s="17" t="s">
         <v>193</v>
@@ -18378,27 +18393,27 @@
       </c>
       <c r="AJ17" s="28"/>
       <c r="AK17" s="22" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="AL17" s="22" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="AM17" s="23" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="AN17" s="15"/>
       <c r="AO17" s="17" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="AP17" s="24"/>
       <c r="AQ17" s="17" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="AR17" s="60" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="AS17" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AT17" s="1">
         <f>RANK(BL17,$BL$3:$BL$122)+COUNTIF(BL$3:BL17,BL17)-1</f>
@@ -18509,10 +18524,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="D18" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18527,23 +18542,23 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="75" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="P18" s="15"/>
       <c r="Q18" s="17" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
@@ -18559,7 +18574,7 @@
       <c r="AE18" s="17"/>
       <c r="AF18" s="15"/>
       <c r="AG18" s="17" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="AH18" s="17" t="s">
         <v>193</v>
@@ -18568,16 +18583,16 @@
         <v>51680</v>
       </c>
       <c r="AJ18" s="28" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="AK18" s="22" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="AL18" s="22" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="AM18" s="23" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="AN18" s="30"/>
       <c r="AO18" s="26"/>
@@ -18690,10 +18705,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D19" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18712,33 +18727,33 @@
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="R19" s="120" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="T19" s="17"/>
       <c r="U19" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="W19" s="17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="X19" s="17"/>
       <c r="Y19" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="Z19" s="17" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AA19" s="17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AB19" s="17"/>
       <c r="AC19" s="17"/>
@@ -18746,41 +18761,41 @@
       <c r="AE19" s="17"/>
       <c r="AF19" s="17"/>
       <c r="AG19" s="25" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AH19" s="17" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AI19" s="11">
         <v>51200</v>
       </c>
       <c r="AJ19" s="46" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AK19" s="22" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="AL19" s="52" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="AM19" s="23" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AN19" s="17"/>
       <c r="AO19" s="17" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="AP19" s="25" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AQ19" s="25" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AR19" s="23" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AS19" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AT19" s="1">
         <f>RANK(BL19,$BL$3:$BL$122)+COUNTIF(BL$3:BL19,BL19)-1</f>
@@ -18886,13 +18901,13 @@
     </row>
     <row r="20" spans="1:80" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="51" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D20" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18911,33 +18926,33 @@
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="R20" s="120" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="T20" s="17"/>
       <c r="U20" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="V20" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="V20" s="17" t="s">
-        <v>479</v>
-      </c>
       <c r="W20" s="17" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="X20" s="17"/>
       <c r="Y20" s="17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="Z20" s="17" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AA20" s="17" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AB20" s="17"/>
       <c r="AC20" s="17"/>
@@ -18945,22 +18960,22 @@
       <c r="AE20" s="17"/>
       <c r="AF20" s="17"/>
       <c r="AG20" s="25" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AH20" s="17" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AI20" s="11">
         <v>10380</v>
       </c>
       <c r="AJ20" s="46" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AK20" s="52" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="AL20" s="52" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="AM20" s="25"/>
       <c r="AN20" s="17"/>
@@ -19076,10 +19091,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="D21" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19094,13 +19109,13 @@
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
       <c r="M21" s="75" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="P21" s="15"/>
       <c r="Q21" s="17"/>
@@ -19120,34 +19135,34 @@
       <c r="AE21" s="17"/>
       <c r="AF21" s="15"/>
       <c r="AG21" s="11" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="AH21" s="17" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="AI21" s="21">
         <v>10000</v>
       </c>
       <c r="AJ21" s="28"/>
       <c r="AK21" s="56" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="AL21" s="56"/>
       <c r="AM21" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="AN21" s="17" t="s">
         <v>698</v>
       </c>
-      <c r="AN21" s="17" t="s">
-        <v>702</v>
-      </c>
       <c r="AO21" s="17" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="AP21" s="17" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="AQ21" s="17"/>
       <c r="AR21" s="23" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="AS21" s="25"/>
       <c r="AT21" s="1">
@@ -19253,10 +19268,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D22" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19271,13 +19286,13 @@
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
       <c r="M22" s="75" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="17"/>
@@ -19297,32 +19312,32 @@
       <c r="AE22" s="17"/>
       <c r="AF22" s="15"/>
       <c r="AG22" s="11" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="AH22" s="17" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="AI22" s="21">
         <v>76100</v>
       </c>
       <c r="AJ22" s="28" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="AK22" s="56"/>
       <c r="AL22" s="56" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="AM22" s="23" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="AN22" s="17"/>
       <c r="AO22" s="17"/>
       <c r="AP22" s="17"/>
       <c r="AQ22" s="17" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="AR22" s="23" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="AS22" s="25"/>
       <c r="AT22" s="1">
@@ -19428,10 +19443,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="D23" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19446,13 +19461,13 @@
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
       <c r="M23" s="75" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="N23" s="17" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="P23" s="15"/>
       <c r="Q23" s="17"/>
@@ -19472,35 +19487,35 @@
       <c r="AE23" s="17"/>
       <c r="AF23" s="15"/>
       <c r="AG23" s="11" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AH23" s="17" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="AI23" s="21">
         <v>89150</v>
       </c>
       <c r="AJ23" s="28" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AK23" s="56" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AL23" s="56" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="AM23" s="23" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AN23" s="30"/>
       <c r="AO23" s="17" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="AP23" s="17" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="AQ23" s="25" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AR23" s="23"/>
       <c r="AS23" s="25"/>
@@ -19604,13 +19619,13 @@
     </row>
     <row r="24" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D24" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19629,13 +19644,13 @@
       <c r="O24" s="17"/>
       <c r="P24" s="15"/>
       <c r="Q24" s="17" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
@@ -19647,48 +19662,48 @@
       <c r="AA24" s="15"/>
       <c r="AB24" s="15"/>
       <c r="AC24" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="AE24" s="17" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="AF24" s="15" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AG24" s="17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AH24" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AI24" s="21">
         <v>51110</v>
       </c>
       <c r="AJ24" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AK24" s="23" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="AL24" s="23" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="AM24" s="23" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AN24" s="15"/>
       <c r="AO24" s="24" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="AP24" s="17" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="AQ24" s="26"/>
       <c r="AR24" s="42" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="AS24" s="26"/>
       <c r="AT24" s="1">
@@ -19799,7 +19814,7 @@
         <v>134</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D25" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19822,13 +19837,13 @@
       <c r="S25" s="17"/>
       <c r="T25" s="17"/>
       <c r="U25" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="W25" s="17" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="X25" s="17"/>
       <c r="Y25" s="17"/>
@@ -19836,37 +19851,37 @@
       <c r="AA25" s="17"/>
       <c r="AB25" s="17"/>
       <c r="AC25" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AD25" s="17" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="AE25" s="17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AF25" s="17" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AG25" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AH25" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AI25" s="41">
         <v>10110</v>
       </c>
       <c r="AJ25" s="28" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AK25" s="23" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="AL25" s="23" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="AM25" s="23" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AN25" s="11"/>
       <c r="AO25" s="17"/>
@@ -19979,7 +19994,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>65</v>
@@ -20001,13 +20016,13 @@
       <c r="O26" s="17"/>
       <c r="P26" s="17"/>
       <c r="Q26" s="17" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="R26" s="17" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="S26" s="17" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="T26" s="17"/>
       <c r="U26" s="17"/>
@@ -20023,21 +20038,23 @@
       <c r="AE26" s="17"/>
       <c r="AF26" s="17"/>
       <c r="AG26" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AH26" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AI26" s="41">
         <v>52100</v>
       </c>
       <c r="AJ26" s="28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AK26" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="AL26" s="23"/>
+        <v>1297</v>
+      </c>
+      <c r="AL26" s="23" t="s">
+        <v>1296</v>
+      </c>
       <c r="AM26" s="23"/>
       <c r="AN26" s="25" t="s">
         <v>13</v>
@@ -20145,15 +20162,15 @@
       </c>
       <c r="CB26" s="37"/>
     </row>
-    <row r="27" spans="1:80" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:80" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="D27" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20172,13 +20189,13 @@
       <c r="O27" s="17"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="17" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="R27" s="17" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="S27" s="17" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="T27" s="15"/>
       <c r="U27" s="17"/>
@@ -20194,32 +20211,32 @@
       <c r="AE27" s="17"/>
       <c r="AF27" s="15"/>
       <c r="AG27" s="11" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="AH27" s="17" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AI27" s="21">
         <v>8430</v>
       </c>
       <c r="AJ27" s="28" t="s">
-        <v>680</v>
-      </c>
-      <c r="AK27" s="56" t="s">
-        <v>681</v>
-      </c>
-      <c r="AL27" s="56"/>
+        <v>677</v>
+      </c>
+      <c r="AK27" s="56"/>
+      <c r="AL27" s="56" t="s">
+        <v>1298</v>
+      </c>
       <c r="AM27" s="23" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="AN27" s="30"/>
       <c r="AO27" s="17" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="AP27" s="17"/>
       <c r="AQ27" s="17"/>
       <c r="AR27" s="23" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="AS27" s="25"/>
       <c r="AT27" s="1">
@@ -20322,13 +20339,13 @@
     </row>
     <row r="28" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="125" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B28" s="125" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="D28" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20347,13 +20364,13 @@
       <c r="O28" s="54"/>
       <c r="P28" s="122"/>
       <c r="Q28" s="54" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="R28" s="54" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="S28" s="20" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="T28" s="122"/>
       <c r="U28" s="122"/>
@@ -20369,10 +20386,10 @@
       <c r="AE28" s="54"/>
       <c r="AF28" s="122"/>
       <c r="AG28" s="54" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="AH28" s="54" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="AI28" s="128">
         <v>45730</v>
@@ -20381,7 +20398,9 @@
         <v>620368561</v>
       </c>
       <c r="AK28" s="122"/>
-      <c r="AL28" s="122"/>
+      <c r="AL28" s="56" t="s">
+        <v>1299</v>
+      </c>
       <c r="AM28" s="54"/>
       <c r="AN28" s="130"/>
       <c r="AO28" s="122"/>
@@ -20489,13 +20508,13 @@
     </row>
     <row r="29" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="125" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B29" s="125" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="D29" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20514,13 +20533,13 @@
       <c r="O29" s="54"/>
       <c r="P29" s="54"/>
       <c r="Q29" s="54" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="R29" s="54" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="S29" s="20" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="T29" s="54"/>
       <c r="U29" s="54"/>
@@ -20536,10 +20555,10 @@
       <c r="AE29" s="54"/>
       <c r="AF29" s="54"/>
       <c r="AG29" s="54" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="AH29" s="54" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="AI29" s="128">
         <v>8000</v>
@@ -20548,7 +20567,9 @@
         <v>324334948</v>
       </c>
       <c r="AK29" s="54"/>
-      <c r="AL29" s="54"/>
+      <c r="AL29" s="56" t="s">
+        <v>1300</v>
+      </c>
       <c r="AM29" s="54"/>
       <c r="AN29" s="54"/>
       <c r="AO29" s="54"/>
@@ -20659,10 +20680,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D30" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20681,13 +20702,13 @@
       <c r="O30" s="17"/>
       <c r="P30" s="17"/>
       <c r="Q30" s="17" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="R30" s="17" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="S30" s="17" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="T30" s="17"/>
       <c r="U30" s="17"/>
@@ -20703,35 +20724,37 @@
       <c r="AE30" s="17"/>
       <c r="AF30" s="48"/>
       <c r="AG30" s="54" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AH30" s="17" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AI30" s="21">
         <v>51500</v>
       </c>
       <c r="AJ30" s="46" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AK30" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="AL30" s="23"/>
+        <v>1302</v>
+      </c>
+      <c r="AL30" s="23" t="s">
+        <v>1301</v>
+      </c>
       <c r="AM30" s="23"/>
       <c r="AN30" s="45" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="AO30" s="17" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="AP30" s="17" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AQ30" s="17"/>
       <c r="AR30" s="48"/>
       <c r="AS30" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AT30" s="1">
         <f>RANK(BL30,$BL$3:$BL$122)+COUNTIF(BL$3:BL30,BL30)-1</f>
@@ -20862,16 +20885,16 @@
       <c r="S31" s="17"/>
       <c r="T31" s="17"/>
       <c r="U31" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="V31" s="17" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="W31" s="17" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="X31" s="17" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="Y31" s="17"/>
       <c r="Z31" s="17"/>
@@ -20894,9 +20917,11 @@
         <v>58</v>
       </c>
       <c r="AK31" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="AL31" s="23"/>
+        <v>1304</v>
+      </c>
+      <c r="AL31" s="23" t="s">
+        <v>1303</v>
+      </c>
       <c r="AM31" s="23"/>
       <c r="AN31" s="25"/>
       <c r="AO31" s="11" t="s">
@@ -20904,13 +20929,13 @@
       </c>
       <c r="AP31" s="17"/>
       <c r="AQ31" s="11" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="AR31" s="23" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="AS31" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AT31" s="1">
         <f>RANK(BL31,$BL$3:$BL$122)+COUNTIF(BL$3:BL31,BL31)-1</f>
@@ -21018,7 +21043,7 @@
         <v>123</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D32" s="73" t="str">
         <f t="shared" si="0"/>
@@ -21041,13 +21066,13 @@
       <c r="S32" s="17"/>
       <c r="T32" s="17"/>
       <c r="U32" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="V32" s="17" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="W32" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="X32" s="17"/>
       <c r="Y32" s="17"/>
@@ -21059,7 +21084,7 @@
       <c r="AE32" s="17"/>
       <c r="AF32" s="17"/>
       <c r="AG32" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AH32" s="11" t="s">
         <v>69</v>
@@ -21071,14 +21096,14 @@
         <v>121</v>
       </c>
       <c r="AK32" s="53" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AL32" s="53"/>
       <c r="AM32" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="AN32" s="25" t="s">
         <v>529</v>
-      </c>
-      <c r="AN32" s="25" t="s">
-        <v>531</v>
       </c>
       <c r="AO32" s="17"/>
       <c r="AP32" s="17"/>
@@ -21185,11 +21210,11 @@
     </row>
     <row r="33" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="17" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D33" s="73" t="str">
         <f t="shared" si="0"/>
@@ -21212,13 +21237,13 @@
       <c r="S33" s="15"/>
       <c r="T33" s="15"/>
       <c r="U33" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="V33" s="17" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="W33" s="17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="X33" s="15"/>
       <c r="Y33" s="15"/>
@@ -21230,7 +21255,7 @@
       <c r="AE33" s="17"/>
       <c r="AF33" s="15"/>
       <c r="AG33" s="17" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AH33" s="17" t="s">
         <v>193</v>
@@ -21239,25 +21264,25 @@
         <v>51100</v>
       </c>
       <c r="AJ33" s="28" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AK33" s="23" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AL33" s="23"/>
       <c r="AM33" s="23" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AN33" s="30"/>
       <c r="AO33" s="15" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="AP33" s="24"/>
       <c r="AQ33" s="17" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="AR33" s="23" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="AS33" s="26"/>
       <c r="AT33" s="1">
@@ -21394,18 +21419,18 @@
       <c r="X34" s="17"/>
       <c r="Y34" s="17"/>
       <c r="Z34" s="17" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="AA34" s="17" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="AB34" s="17"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="17" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="AE34" s="17" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="AF34" s="17"/>
       <c r="AG34" s="11" t="s">
@@ -21547,7 +21572,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="69" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="D35" s="73" t="str">
         <f t="shared" ref="D35:D66" si="19">IF(AX35&lt;&gt;0,"2020_A="&amp;AX35," ")&amp;IF(AY35&lt;&gt;0," ; 2020_i="&amp;AY35," ")&amp;IF(AZ35&lt;&gt;0,"2019_A="&amp;AZ35," ")&amp;IF(BA35&lt;&gt;0," ; 2019_i="&amp;BA35," ")&amp;IF(BB35&lt;&gt;0,"2018_A="&amp;BB35," ")&amp;IF(BC35&lt;&gt;0," ; 2018_i="&amp;BC35," ")&amp;IF(BD35&lt;&gt;0," ; 2017_A="&amp;BD35," ")&amp;IF(BE35&lt;&gt;0," ; 2017_i="&amp;BE35," ")&amp;IF(BF35&lt;&gt;0," ; 2016_A="&amp;BF35," ")&amp;IF(BG35&lt;&gt;0," ; 2016_i="&amp;BG35," ")&amp;IF(BH35&lt;&gt;0," ; 2015_A="&amp;BH35," ")&amp;IF(BI35&lt;&gt;0," ; 2015_i="&amp;BI35," ")&amp;IF(BJ35&lt;&gt;0," ; 2014_A="&amp;BJ35," ")&amp;IF(BK35&lt;&gt;0," ; 2014_i="&amp;BK35," ")</f>
@@ -21574,41 +21599,41 @@
       <c r="W35" s="69"/>
       <c r="X35" s="84"/>
       <c r="Y35" s="69" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="Z35" s="69" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="AA35" s="69" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="AB35" s="84"/>
       <c r="AC35" s="69" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="AD35" s="69" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="AE35" s="69" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="AF35" s="84"/>
       <c r="AG35" s="105" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="AH35" s="69" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="AI35" s="86">
         <v>10700</v>
       </c>
       <c r="AJ35" s="69" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="AK35" s="84"/>
       <c r="AL35" s="84"/>
       <c r="AM35" s="69" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="AN35" s="90"/>
       <c r="AO35" s="84"/>
@@ -21721,10 +21746,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="100" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="C36" s="69" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="D36" s="73" t="str">
         <f t="shared" si="19"/>
@@ -21752,36 +21777,36 @@
       <c r="X36" s="84"/>
       <c r="Y36" s="84"/>
       <c r="Z36" s="69" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="AA36" s="69" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="AB36" s="84"/>
       <c r="AC36" s="69"/>
       <c r="AD36" s="69" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="AE36" s="69" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="AF36" s="84"/>
       <c r="AG36" s="105" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="AH36" s="69" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="AI36" s="86">
         <v>45550</v>
       </c>
       <c r="AJ36" s="69" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="AK36" s="84"/>
       <c r="AL36" s="84"/>
       <c r="AM36" s="69" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="AN36" s="90"/>
       <c r="AO36" s="84"/>
@@ -21894,10 +21919,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D37" s="73" t="str">
         <f t="shared" si="19"/>
@@ -21928,35 +21953,35 @@
       <c r="AA37" s="15"/>
       <c r="AB37" s="15"/>
       <c r="AC37" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AD37" s="17" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="AE37" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AF37" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="AG37" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="AH37" s="17" t="s">
         <v>403</v>
-      </c>
-      <c r="AG37" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="AH37" s="17" t="s">
-        <v>405</v>
       </c>
       <c r="AI37" s="21">
         <v>8000</v>
       </c>
       <c r="AJ37" s="28" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AK37" s="22" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AL37" s="22"/>
       <c r="AM37" s="23" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AN37" s="30"/>
       <c r="AO37" s="26"/>
@@ -22067,10 +22092,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D38" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22101,33 +22126,33 @@
       <c r="AA38" s="15"/>
       <c r="AB38" s="15"/>
       <c r="AC38" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AD38" s="17" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="AE38" s="17" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AF38" s="15"/>
       <c r="AG38" s="17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AH38" s="17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AI38" s="21">
         <v>8300</v>
       </c>
       <c r="AJ38" s="28" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AK38" s="22" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AL38" s="22"/>
       <c r="AM38" s="23" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AN38" s="30"/>
       <c r="AO38" s="26"/>
@@ -22135,7 +22160,7 @@
       <c r="AQ38" s="26"/>
       <c r="AR38" s="26"/>
       <c r="AS38" s="48" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="AT38" s="1">
         <f>RANK(BL38,$BL$3:$BL$122)+COUNTIF(BL$3:BL38,BL38)-1</f>
@@ -22237,13 +22262,13 @@
     </row>
     <row r="39" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="D39" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22274,45 +22299,45 @@
       <c r="AA39" s="15"/>
       <c r="AB39" s="15"/>
       <c r="AC39" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AD39" s="17" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="AE39" s="17" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AF39" s="15" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AG39" s="17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AH39" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AI39" s="21">
         <v>51096</v>
       </c>
       <c r="AJ39" s="15"/>
       <c r="AK39" s="23" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="AL39" s="23"/>
       <c r="AM39" s="17"/>
       <c r="AN39" s="25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AO39" s="26"/>
       <c r="AP39" s="24"/>
       <c r="AQ39" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AR39" s="42" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AS39" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AT39" s="1">
         <f>RANK(BL39,$BL$3:$BL$122)+COUNTIF(BL$3:BL39,BL39)-1</f>
@@ -22457,19 +22482,19 @@
       <c r="AA40" s="17"/>
       <c r="AB40" s="17"/>
       <c r="AC40" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AD40" s="17" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="AE40" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AF40" s="17" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AG40" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AH40" s="11" t="s">
         <v>187</v>
@@ -22481,29 +22506,29 @@
         <v>116</v>
       </c>
       <c r="AK40" s="23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AL40" s="23"/>
       <c r="AM40" s="23" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AN40" s="25" t="s">
         <v>117</v>
       </c>
       <c r="AO40" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="AP40" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="AQ40" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="AP40" s="17" t="s">
+      <c r="AR40" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="AQ40" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="AR40" s="11" t="s">
-        <v>469</v>
-      </c>
       <c r="AS40" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AT40" s="1">
         <f>RANK(BL40,$BL$3:$BL$122)+COUNTIF(BL$3:BL40,BL40)-1</f>
@@ -22608,10 +22633,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D41" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22642,19 +22667,19 @@
       <c r="AA41" s="15"/>
       <c r="AB41" s="15"/>
       <c r="AC41" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AD41" s="17" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="AE41" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AF41" s="15" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AG41" s="17" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AH41" s="17" t="s">
         <v>216</v>
@@ -22666,11 +22691,11 @@
         <v>44</v>
       </c>
       <c r="AK41" s="22" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AL41" s="22"/>
       <c r="AM41" s="23" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AN41" s="30"/>
       <c r="AO41" s="26"/>
@@ -22678,7 +22703,7 @@
       <c r="AQ41" s="26"/>
       <c r="AR41" s="26"/>
       <c r="AS41" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AT41" s="1">
         <f>RANK(BL41,$BL$3:$BL$122)+COUNTIF(BL$3:BL41,BL41)-1</f>
@@ -22780,11 +22805,11 @@
     </row>
     <row r="42" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="17" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D42" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22815,48 +22840,48 @@
       <c r="AA42" s="15"/>
       <c r="AB42" s="15"/>
       <c r="AC42" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AD42" s="17" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="AE42" s="17" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AF42" s="15" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AG42" s="17" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AH42" s="17" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AI42" s="21">
         <v>51686</v>
       </c>
       <c r="AJ42" s="28" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AK42" s="22" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AL42" s="22"/>
       <c r="AM42" s="23" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AN42" s="17" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AO42" s="17" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="AP42" s="24"/>
       <c r="AQ42" s="25" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AR42" s="42" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AS42" s="26"/>
       <c r="AT42" s="1">
@@ -22962,10 +22987,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D43" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22996,38 +23021,38 @@
       <c r="AA43" s="15"/>
       <c r="AB43" s="15"/>
       <c r="AC43" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AD43" s="17" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="AE43" s="17" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AF43" s="15" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AG43" s="17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AH43" s="17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AI43" s="41">
         <v>67200</v>
       </c>
       <c r="AJ43" s="28" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AK43" s="22" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AL43" s="22"/>
       <c r="AM43" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AN43" s="17" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="AO43" s="17"/>
       <c r="AP43" s="17"/>
@@ -23036,7 +23061,7 @@
       </c>
       <c r="AR43" s="26"/>
       <c r="AS43" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AT43" s="1">
         <f>RANK(BL43,$BL$3:$BL$122)+COUNTIF(BL$3:BL43,BL43)-1</f>
@@ -23141,10 +23166,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D44" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23175,35 +23200,35 @@
       <c r="AA44" s="15"/>
       <c r="AB44" s="15"/>
       <c r="AC44" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AD44" s="17" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="AE44" s="17" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AF44" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="AG44" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="AG44" s="17" t="s">
-        <v>421</v>
-      </c>
       <c r="AH44" s="17" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AI44" s="21">
         <v>77440</v>
       </c>
       <c r="AJ44" s="28" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AK44" s="22" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AL44" s="22"/>
       <c r="AM44" s="23" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AN44" s="30"/>
       <c r="AO44" s="26"/>
@@ -23317,7 +23342,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="D45" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23348,13 +23373,13 @@
       <c r="AA45" s="17"/>
       <c r="AB45" s="17"/>
       <c r="AC45" s="17" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="AD45" s="17" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="AE45" s="17" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="AF45" s="17"/>
       <c r="AG45" s="11" t="s">
@@ -23493,10 +23518,10 @@
         <v>0</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D46" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23528,26 +23553,26 @@
       <c r="AB46" s="30"/>
       <c r="AC46" s="17"/>
       <c r="AD46" s="17" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="AE46" s="17" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="AF46" s="30"/>
       <c r="AG46" s="17" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="AH46" s="17" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="AI46" s="21">
         <v>45110</v>
       </c>
       <c r="AJ46" s="28" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AK46" s="58" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="AL46" s="58"/>
       <c r="AM46" s="17"/>
@@ -23663,7 +23688,7 @@
         <v>99</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D47" s="73" t="str">
         <f t="shared" si="19"/>
@@ -24040,11 +24065,11 @@
         <v>138</v>
       </c>
       <c r="AK49" s="23" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AL49" s="23"/>
       <c r="AM49" s="23" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AN49" s="25"/>
       <c r="AO49" s="17"/>
@@ -24325,7 +24350,7 @@
         <v>113</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D51" s="73" t="str">
         <f t="shared" si="19"/>
@@ -24378,17 +24403,17 @@
       <c r="AM51" s="23"/>
       <c r="AN51" s="25"/>
       <c r="AO51" s="17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AP51" s="17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AQ51" s="25"/>
       <c r="AR51" s="23" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AS51" s="25" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AT51" s="1">
         <f>RANK(BL51,$BL$3:$BL$122)+COUNTIF(BL$3:BL51,BL51)-1</f>
@@ -24491,7 +24516,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>68</v>
@@ -24529,36 +24554,36 @@
       <c r="AE52" s="17"/>
       <c r="AF52" s="15"/>
       <c r="AG52" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AH52" s="17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AI52" s="41">
         <v>8430</v>
       </c>
       <c r="AJ52" s="28" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AK52" s="22" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AL52" s="22"/>
       <c r="AM52" s="23" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AN52" s="49"/>
       <c r="AO52" s="17" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="AP52" s="17" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="AQ52" s="23" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="AR52" s="42" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="AS52" s="26"/>
       <c r="AT52" s="1">
@@ -24662,7 +24687,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>38</v>
@@ -24717,7 +24742,7 @@
       <c r="AL53" s="23"/>
       <c r="AM53" s="23"/>
       <c r="AN53" s="25" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AO53" s="17"/>
       <c r="AP53" s="17"/>
@@ -25047,14 +25072,14 @@
         <v>28</v>
       </c>
       <c r="AP55" s="17" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AQ55" s="25" t="s">
         <v>133</v>
       </c>
       <c r="AR55" s="11"/>
       <c r="AS55" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AT55" s="1">
         <f>RANK(BL55,$BL$3:$BL$122)+COUNTIF(BL$3:BL55,BL55)-1</f>
@@ -25380,19 +25405,19 @@
       <c r="AM57" s="23"/>
       <c r="AN57" s="25"/>
       <c r="AO57" s="17" t="s">
+        <v>1224</v>
+      </c>
+      <c r="AP57" s="17" t="s">
+        <v>1225</v>
+      </c>
+      <c r="AQ57" s="11" t="s">
+        <v>1226</v>
+      </c>
+      <c r="AR57" s="50" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AS57" s="11" t="s">
         <v>1228</v>
-      </c>
-      <c r="AP57" s="17" t="s">
-        <v>1229</v>
-      </c>
-      <c r="AQ57" s="11" t="s">
-        <v>1230</v>
-      </c>
-      <c r="AR57" s="50" t="s">
-        <v>1231</v>
-      </c>
-      <c r="AS57" s="11" t="s">
-        <v>1232</v>
       </c>
       <c r="AT57" s="1">
         <f>RANK(BL57,$BL$3:$BL$122)+COUNTIF(BL$3:BL57,BL57)-1</f>
@@ -25552,7 +25577,7 @@
         <v>239</v>
       </c>
       <c r="AP58" s="17" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AQ58" s="44" t="s">
         <v>55</v>
@@ -25660,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>63</v>
@@ -25698,25 +25723,25 @@
       <c r="AE59" s="17"/>
       <c r="AF59" s="17"/>
       <c r="AG59" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH59" s="11" t="s">
         <v>246</v>
-      </c>
-      <c r="AH59" s="11" t="s">
-        <v>247</v>
       </c>
       <c r="AI59" s="41">
         <v>51160</v>
       </c>
       <c r="AJ59" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AK59" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AL59" s="23"/>
       <c r="AM59" s="23"/>
       <c r="AN59" s="25"/>
       <c r="AO59" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AP59" s="17" t="s">
         <v>142</v>
@@ -26382,7 +26407,7 @@
         <v>32</v>
       </c>
       <c r="AS63" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AT63" s="1">
         <f>RANK(BL63,$BL$3:$BL$122)+COUNTIF(BL$3:BL63,BL63)-1</f>
@@ -26488,7 +26513,7 @@
         <v>17</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D64" s="73" t="str">
         <f t="shared" si="19"/>
@@ -26526,7 +26551,7 @@
         <v>59</v>
       </c>
       <c r="AH64" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AI64" s="41">
         <v>51420</v>
@@ -26535,11 +26560,11 @@
         <v>61</v>
       </c>
       <c r="AK64" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AL64" s="23"/>
       <c r="AM64" s="23" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="AN64" s="25" t="s">
         <v>60</v>
@@ -26553,7 +26578,7 @@
         <v>62</v>
       </c>
       <c r="AS64" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AT64" s="1">
         <f>RANK(BL64,$BL$3:$BL$122)+COUNTIF(BL$3:BL64,BL64)-1</f>
@@ -26659,7 +26684,7 @@
         <v>84</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="D65" s="73" t="str">
         <f t="shared" si="19"/>
@@ -26714,7 +26739,7 @@
         <v>91</v>
       </c>
       <c r="AO65" s="17" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AP65" s="17" t="s">
         <v>87</v>
@@ -26726,7 +26751,7 @@
         <v>88</v>
       </c>
       <c r="AS65" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AT65" s="1">
         <f>RANK(BL65,$BL$3:$BL$122)+COUNTIF(BL$3:BL65,BL65)-1</f>
@@ -26884,7 +26909,7 @@
       <c r="AL66" s="23"/>
       <c r="AM66" s="23"/>
       <c r="AN66" s="25" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AO66" s="17"/>
       <c r="AP66" s="17"/>
@@ -27032,7 +27057,7 @@
       <c r="AE67" s="17"/>
       <c r="AF67" s="17"/>
       <c r="AG67" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AH67" s="11" t="s">
         <v>218</v>
@@ -27048,17 +27073,17 @@
       <c r="AM67" s="23"/>
       <c r="AN67" s="25"/>
       <c r="AO67" s="17" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AP67" s="17" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AQ67" s="44" t="s">
         <v>222</v>
       </c>
       <c r="AR67" s="11"/>
       <c r="AS67" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AT67" s="1">
         <f>RANK(BL67,$BL$3:$BL$122)+COUNTIF(BL$3:BL67,BL67)-1</f>
@@ -27161,7 +27186,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C68" s="17" t="s">
         <v>66</v>
@@ -27199,23 +27224,23 @@
       <c r="AE68" s="17"/>
       <c r="AF68" s="17"/>
       <c r="AG68" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AH68" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AI68" s="41">
         <v>55190</v>
       </c>
       <c r="AJ68" s="28" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AK68" s="23" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="AL68" s="23"/>
       <c r="AM68" s="23" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="AN68" s="25"/>
       <c r="AO68" s="17"/>
@@ -27654,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>67</v>
@@ -27692,31 +27717,31 @@
       <c r="AE71" s="17"/>
       <c r="AF71" s="15"/>
       <c r="AG71" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AH71" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AI71" s="41">
         <v>60890</v>
       </c>
       <c r="AJ71" s="28" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AK71" s="22" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AL71" s="22"/>
       <c r="AM71" s="23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AN71" s="30"/>
       <c r="AO71" s="17" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="AP71" s="24"/>
       <c r="AQ71" s="17" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="AR71" s="26"/>
       <c r="AS71" s="26"/>
@@ -27984,10 +28009,10 @@
         <v>0</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D73" s="73" t="str">
         <f t="shared" si="38"/>
@@ -28022,33 +28047,33 @@
       <c r="AE73" s="17"/>
       <c r="AF73" s="48"/>
       <c r="AG73" s="54" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AH73" s="17" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AI73" s="21">
         <v>77510</v>
       </c>
       <c r="AJ73" s="46" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AK73" s="23" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AL73" s="23"/>
       <c r="AM73" s="23" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AN73" s="45"/>
       <c r="AO73" s="48" t="s">
+        <v>564</v>
+      </c>
+      <c r="AP73" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="AQ73" s="17" t="s">
         <v>566</v>
-      </c>
-      <c r="AP73" s="17" t="s">
-        <v>567</v>
-      </c>
-      <c r="AQ73" s="17" t="s">
-        <v>568</v>
       </c>
       <c r="AR73" s="48"/>
       <c r="AS73" s="48"/>
@@ -28215,7 +28240,7 @@
         <v>161</v>
       </c>
       <c r="AQ74" s="44" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AR74" s="11"/>
       <c r="AS74" s="25"/>
@@ -28375,10 +28400,10 @@
       <c r="AL75" s="23"/>
       <c r="AM75" s="23"/>
       <c r="AN75" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AO75" s="17" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="AP75" s="17" t="s">
         <v>104</v>
@@ -28494,7 +28519,7 @@
         <v>17</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D76" s="73" t="str">
         <f t="shared" si="38"/>
@@ -28529,7 +28554,7 @@
       <c r="AE76" s="17"/>
       <c r="AF76" s="15"/>
       <c r="AG76" s="11" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="AH76" s="17" t="s">
         <v>193</v>
@@ -28538,21 +28563,21 @@
         <v>51100</v>
       </c>
       <c r="AJ76" s="28" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AK76" s="22" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AL76" s="22"/>
       <c r="AM76" s="23" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AN76" s="30"/>
       <c r="AO76" s="17" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="AP76" s="17" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AQ76" s="26"/>
       <c r="AR76" s="26"/>
@@ -28661,7 +28686,7 @@
         <v>17</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D77" s="73" t="str">
         <f t="shared" si="38"/>
@@ -28696,37 +28721,37 @@
       <c r="AE77" s="17"/>
       <c r="AF77" s="15"/>
       <c r="AG77" s="11" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AH77" s="17" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AI77" s="21">
         <v>51200</v>
       </c>
       <c r="AJ77" s="28" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AK77" s="56" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AL77" s="56"/>
       <c r="AM77" s="23" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AN77" s="30"/>
       <c r="AO77" s="17" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="AP77" s="48"/>
       <c r="AQ77" s="25" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AR77" s="23" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AS77" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AT77" s="1">
         <f>RANK(BL77,$BL$3:$BL$122)+COUNTIF(BL$3:BL77,BL77)-1</f>
@@ -28832,7 +28857,7 @@
         <v>17</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D78" s="73" t="str">
         <f t="shared" si="38"/>
@@ -28867,34 +28892,34 @@
       <c r="AE78" s="17"/>
       <c r="AF78" s="15"/>
       <c r="AG78" s="11" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AH78" s="17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AI78" s="21">
         <v>10110</v>
       </c>
       <c r="AJ78" s="28" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AK78" s="56" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="AL78" s="56"/>
       <c r="AM78" s="23" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="AN78" s="30"/>
       <c r="AO78" s="17" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="AP78" s="48"/>
       <c r="AQ78" s="25" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AR78" s="23" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AS78" s="25"/>
       <c r="AT78" s="1">
@@ -29001,7 +29026,7 @@
         <v>17</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D79" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29036,36 +29061,36 @@
       <c r="AE79" s="17"/>
       <c r="AF79" s="15"/>
       <c r="AG79" s="11" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AH79" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AI79" s="21">
         <v>51530</v>
       </c>
       <c r="AJ79" s="28" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AK79" s="56" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="AL79" s="56"/>
       <c r="AM79" s="23" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AN79" s="30"/>
       <c r="AO79" s="17" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="AP79" s="17" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="AQ79" s="25" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AR79" s="23" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="AS79" s="25"/>
       <c r="AT79" s="1">
@@ -29166,13 +29191,13 @@
     </row>
     <row r="80" spans="1:80" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D80" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29207,30 +29232,30 @@
       <c r="AE80" s="17"/>
       <c r="AF80" s="15"/>
       <c r="AG80" s="11" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AH80" s="17" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="AI80" s="21">
         <v>10800</v>
       </c>
       <c r="AJ80" s="28" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AK80" s="56" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="AL80" s="56"/>
       <c r="AM80" s="23" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AN80" s="30"/>
       <c r="AO80" s="17"/>
       <c r="AP80" s="17"/>
       <c r="AQ80" s="25"/>
       <c r="AR80" s="23" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AS80" s="25"/>
       <c r="AT80" s="1">
@@ -29331,13 +29356,13 @@
     </row>
     <row r="81" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D81" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29372,31 +29397,31 @@
       <c r="AE81" s="17"/>
       <c r="AF81" s="15"/>
       <c r="AG81" s="11" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="AH81" s="17" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AI81" s="21">
         <v>94200</v>
       </c>
       <c r="AJ81" s="28"/>
       <c r="AK81" s="56" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AL81" s="56"/>
       <c r="AM81" s="23" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="AN81" s="30"/>
       <c r="AO81" s="17" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="AP81" s="17" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="AQ81" s="11" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AR81" s="23"/>
       <c r="AS81" s="25"/>
@@ -29498,13 +29523,13 @@
     </row>
     <row r="82" spans="1:80" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D82" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29539,23 +29564,23 @@
       <c r="AE82" s="17"/>
       <c r="AF82" s="15"/>
       <c r="AG82" s="11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="AH82" s="17" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="AI82" s="21">
         <v>2220</v>
       </c>
       <c r="AJ82" s="28" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="AK82" s="56" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="AL82" s="56"/>
       <c r="AM82" s="23" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="AN82" s="30"/>
       <c r="AO82" s="17"/>
@@ -29563,7 +29588,7 @@
       <c r="AQ82" s="11"/>
       <c r="AR82" s="23"/>
       <c r="AS82" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AT82" s="1">
         <f>RANK(BL82,$BL$3:$BL$122)+COUNTIF(BL$3:BL82,BL82)-1</f>
@@ -29669,7 +29694,7 @@
         <v>4</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D83" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29704,38 +29729,38 @@
       <c r="AE83" s="17"/>
       <c r="AF83" s="15"/>
       <c r="AG83" s="11" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AH83" s="17" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AI83" s="21">
         <v>51320</v>
       </c>
       <c r="AJ83" s="28" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="AK83" s="56" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="AL83" s="56"/>
       <c r="AM83" s="23" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="AN83" s="17" t="s">
+        <v>1229</v>
+      </c>
+      <c r="AO83" s="17" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AP83" s="17" t="s">
+        <v>1231</v>
+      </c>
+      <c r="AQ83" s="17" t="s">
+        <v>1232</v>
+      </c>
+      <c r="AR83" s="23" t="s">
         <v>1233</v>
-      </c>
-      <c r="AO83" s="17" t="s">
-        <v>1234</v>
-      </c>
-      <c r="AP83" s="17" t="s">
-        <v>1235</v>
-      </c>
-      <c r="AQ83" s="17" t="s">
-        <v>1236</v>
-      </c>
-      <c r="AR83" s="23" t="s">
-        <v>1237</v>
       </c>
       <c r="AS83" s="25"/>
       <c r="AT83" s="1">
@@ -29839,10 +29864,10 @@
         <v>0</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D84" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29877,36 +29902,36 @@
       <c r="AE84" s="17"/>
       <c r="AF84" s="15"/>
       <c r="AG84" s="11" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="AH84" s="17" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="AI84" s="21">
         <v>2450</v>
       </c>
       <c r="AJ84" s="28" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="AK84" s="56" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="AL84" s="56"/>
       <c r="AM84" s="23" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="AN84" s="30"/>
       <c r="AO84" s="17" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="AP84" s="17" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="AQ84" s="17" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="AR84" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="AS84" s="25"/>
       <c r="AT84" s="1">
@@ -30010,10 +30035,10 @@
         <v>0</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D85" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30048,23 +30073,23 @@
       <c r="AE85" s="17"/>
       <c r="AF85" s="15"/>
       <c r="AG85" s="11" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="AH85" s="17" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="AI85" s="21">
         <v>25300</v>
       </c>
       <c r="AJ85" s="28" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="AK85" s="56" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="AL85" s="56"/>
       <c r="AM85" s="23" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="AN85" s="30"/>
       <c r="AO85" s="17"/>
@@ -30173,10 +30198,10 @@
         <v>0</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="D86" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30211,30 +30236,30 @@
       <c r="AE86" s="17"/>
       <c r="AF86" s="15"/>
       <c r="AG86" s="17" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="AH86" s="17" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="AI86" s="21">
         <v>10230</v>
       </c>
       <c r="AJ86" s="28" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="AK86" s="56" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="AL86" s="56"/>
       <c r="AM86" s="23" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="AN86" s="30"/>
       <c r="AO86" s="26"/>
       <c r="AP86" s="24"/>
       <c r="AQ86" s="26"/>
       <c r="AR86" s="57" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AS86" s="26"/>
       <c r="AT86" s="1">
@@ -30341,7 +30366,7 @@
         <v>15</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D87" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30376,31 +30401,31 @@
       <c r="AE87" s="17"/>
       <c r="AF87" s="15"/>
       <c r="AG87" s="17" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="AH87" s="17" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="AI87" s="21">
         <v>51130</v>
       </c>
       <c r="AJ87" s="28" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="AK87" s="22" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="AL87" s="22"/>
       <c r="AM87" s="23" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="AN87" s="26"/>
       <c r="AO87" s="17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AP87" s="24"/>
       <c r="AQ87" s="59" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AR87" s="26"/>
       <c r="AS87" s="26"/>
@@ -30505,10 +30530,10 @@
         <v>0</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D88" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30543,31 +30568,31 @@
       <c r="AE88" s="17"/>
       <c r="AF88" s="15"/>
       <c r="AG88" s="17" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="AH88" s="17" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="AI88" s="21">
         <v>6823</v>
       </c>
       <c r="AJ88" s="28" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="AK88" s="22" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="AL88" s="22"/>
       <c r="AM88" s="23" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="AN88" s="26"/>
       <c r="AO88" s="17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AP88" s="24"/>
       <c r="AQ88" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AR88" s="26"/>
       <c r="AS88" s="26"/>
@@ -30672,10 +30697,10 @@
         <v>0</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D89" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30710,7 +30735,7 @@
       <c r="AE89" s="17"/>
       <c r="AF89" s="15"/>
       <c r="AG89" s="17" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="AH89" s="17" t="s">
         <v>193</v>
@@ -30719,26 +30744,26 @@
         <v>51100</v>
       </c>
       <c r="AJ89" s="28" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AK89" s="22" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="AL89" s="22"/>
       <c r="AM89" s="17"/>
       <c r="AN89" s="26"/>
       <c r="AO89" s="17" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AP89" s="24"/>
       <c r="AQ89" s="48" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AR89" s="57" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AS89" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AT89" s="1">
         <f>RANK(BL89,$BL$3:$BL$122)+COUNTIF(BL$3:BL89,BL89)-1</f>
@@ -30838,13 +30863,13 @@
     </row>
     <row r="90" spans="1:80" s="7" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D90" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30879,7 +30904,7 @@
       <c r="AE90" s="17"/>
       <c r="AF90" s="15"/>
       <c r="AG90" s="17" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="AH90" s="17" t="s">
         <v>193</v>
@@ -30888,17 +30913,17 @@
         <v>51100</v>
       </c>
       <c r="AJ90" s="28" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="AK90" s="22" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="AL90" s="22"/>
       <c r="AM90" s="23" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="AN90" s="30" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AO90" s="26"/>
       <c r="AP90" s="24"/>
@@ -31003,13 +31028,13 @@
     </row>
     <row r="91" spans="1:80" s="7" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D91" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31044,23 +31069,23 @@
       <c r="AE91" s="17"/>
       <c r="AF91" s="15"/>
       <c r="AG91" s="17" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="AH91" s="17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AI91" s="21">
         <v>2000</v>
       </c>
       <c r="AJ91" s="28" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="AK91" s="22" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="AL91" s="22"/>
       <c r="AM91" s="23" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="AN91" s="30"/>
       <c r="AO91" s="26"/>
@@ -31166,13 +31191,13 @@
     </row>
     <row r="92" spans="1:80" s="7" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D92" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31207,35 +31232,35 @@
       <c r="AE92" s="17"/>
       <c r="AF92" s="15"/>
       <c r="AG92" s="17" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="AH92" s="17" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="AI92" s="21">
         <v>51370</v>
       </c>
       <c r="AJ92" s="15"/>
       <c r="AK92" s="22" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="AL92" s="22"/>
       <c r="AM92" s="23" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="AN92" s="30"/>
       <c r="AO92" s="17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AP92" s="24"/>
       <c r="AQ92" s="30" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AR92" s="49" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AS92" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AT92" s="1">
         <f>RANK(BL92,$BL$3:$BL$122)+COUNTIF(BL$3:BL92,BL92)-1</f>
@@ -31335,13 +31360,13 @@
     </row>
     <row r="93" spans="1:80" s="7" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D93" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31376,7 +31401,7 @@
       <c r="AE93" s="17"/>
       <c r="AF93" s="15"/>
       <c r="AG93" s="17" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="AH93" s="17" t="s">
         <v>216</v>
@@ -31386,21 +31411,21 @@
       </c>
       <c r="AJ93" s="15"/>
       <c r="AK93" s="22" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="AL93" s="22"/>
       <c r="AM93" s="23" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="AN93" s="30"/>
       <c r="AO93" s="17" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="AP93" s="17" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="AQ93" s="30" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AR93" s="26"/>
       <c r="AS93" s="26"/>
@@ -31502,13 +31527,13 @@
     </row>
     <row r="94" spans="1:80" s="7" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="D94" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31543,35 +31568,35 @@
       <c r="AE94" s="17"/>
       <c r="AF94" s="15"/>
       <c r="AG94" s="17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AH94" s="17" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="AI94" s="17">
         <v>51120</v>
       </c>
       <c r="AJ94" s="15"/>
       <c r="AK94" s="22" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="AL94" s="22"/>
       <c r="AM94" s="17"/>
       <c r="AN94" s="30"/>
       <c r="AO94" s="48" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="AP94" s="17" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="AQ94" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="AR94" s="60" t="s">
         <v>359</v>
       </c>
-      <c r="AR94" s="60" t="s">
-        <v>361</v>
-      </c>
       <c r="AS94" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AT94" s="1">
         <f>RANK(BL94,$BL$3:$BL$122)+COUNTIF(BL$3:BL94,BL94)-1</f>
@@ -31671,13 +31696,13 @@
     </row>
     <row r="95" spans="1:80" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="D95" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31712,23 +31737,23 @@
       <c r="AE95" s="17"/>
       <c r="AF95" s="15"/>
       <c r="AG95" s="17" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="AH95" s="17" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="AI95" s="21">
         <v>51000</v>
       </c>
       <c r="AJ95" s="28" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="AK95" s="22" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="AL95" s="22"/>
       <c r="AM95" s="23" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="AN95" s="15"/>
       <c r="AO95" s="26"/>
@@ -31834,13 +31859,13 @@
     </row>
     <row r="96" spans="1:80" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="D96" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31875,34 +31900,34 @@
       <c r="AE96" s="17"/>
       <c r="AF96" s="15"/>
       <c r="AG96" s="17" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="AH96" s="17" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="AI96" s="21">
         <v>60550</v>
       </c>
       <c r="AJ96" s="28" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="AK96" s="22" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="AL96" s="22"/>
       <c r="AM96" s="23" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="AN96" s="15"/>
       <c r="AO96" s="17" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="AP96" s="24"/>
       <c r="AQ96" s="48" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="AR96" s="60" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="AS96" s="26"/>
       <c r="AT96" s="1">
@@ -32003,13 +32028,13 @@
     </row>
     <row r="97" spans="1:80" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="D97" s="73" t="str">
         <f t="shared" si="38"/>
@@ -32044,34 +32069,34 @@
       <c r="AE97" s="17"/>
       <c r="AF97" s="15"/>
       <c r="AG97" s="17" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="AH97" s="17" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="AI97" s="21">
         <v>94700</v>
       </c>
       <c r="AJ97" s="28" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="AK97" s="22" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="AL97" s="22"/>
       <c r="AM97" s="23" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="AN97" s="30"/>
       <c r="AO97" s="17" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="AP97" s="24"/>
       <c r="AQ97" s="17" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="AR97" s="60" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="AS97" s="26"/>
       <c r="AT97" s="1">
@@ -32172,13 +32197,13 @@
     </row>
     <row r="98" spans="1:80" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D98" s="73" t="str">
         <f t="shared" si="38"/>
@@ -32213,29 +32238,29 @@
       <c r="AE98" s="17"/>
       <c r="AF98" s="15"/>
       <c r="AG98" s="17" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="AH98" s="17" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="AI98" s="21">
         <v>10400</v>
       </c>
       <c r="AJ98" s="15"/>
       <c r="AK98" s="22" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="AL98" s="22"/>
       <c r="AM98" s="23" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="AN98" s="26"/>
       <c r="AO98" s="17" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="AP98" s="24"/>
       <c r="AQ98" s="30" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AR98" s="26"/>
       <c r="AS98" s="26"/>
@@ -32337,13 +32362,13 @@
     </row>
     <row r="99" spans="1:80" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="D99" s="73" t="str">
         <f t="shared" ref="D99:D128" si="57">IF(AX99&lt;&gt;0,"2020_A="&amp;AX99," ")&amp;IF(AY99&lt;&gt;0," ; 2020_i="&amp;AY99," ")&amp;IF(AZ99&lt;&gt;0,"2019_A="&amp;AZ99," ")&amp;IF(BA99&lt;&gt;0," ; 2019_i="&amp;BA99," ")&amp;IF(BB99&lt;&gt;0,"2018_A="&amp;BB99," ")&amp;IF(BC99&lt;&gt;0," ; 2018_i="&amp;BC99," ")&amp;IF(BD99&lt;&gt;0," ; 2017_A="&amp;BD99," ")&amp;IF(BE99&lt;&gt;0," ; 2017_i="&amp;BE99," ")&amp;IF(BF99&lt;&gt;0," ; 2016_A="&amp;BF99," ")&amp;IF(BG99&lt;&gt;0," ; 2016_i="&amp;BG99," ")&amp;IF(BH99&lt;&gt;0," ; 2015_A="&amp;BH99," ")&amp;IF(BI99&lt;&gt;0," ; 2015_i="&amp;BI99," ")&amp;IF(BJ99&lt;&gt;0," ; 2014_A="&amp;BJ99," ")&amp;IF(BK99&lt;&gt;0," ; 2014_i="&amp;BK99," ")</f>
@@ -32378,39 +32403,39 @@
       <c r="AE99" s="17"/>
       <c r="AF99" s="15"/>
       <c r="AG99" s="17" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="AH99" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AI99" s="21">
         <v>51110</v>
       </c>
       <c r="AJ99" s="28" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="AK99" s="22" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="AL99" s="22"/>
       <c r="AM99" s="23" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="AN99" s="26"/>
       <c r="AO99" s="17" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="AP99" s="17" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="AQ99" s="30" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="AR99" s="23" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="AS99" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AT99" s="1">
         <f>RANK(BL99,$BL$3:$BL$122)+COUNTIF(BL$3:BL99,BL99)-1</f>
@@ -32510,13 +32535,13 @@
     </row>
     <row r="100" spans="1:80" s="7" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D100" s="73" t="str">
         <f t="shared" si="57"/>
@@ -32551,7 +32576,7 @@
       <c r="AE100" s="17"/>
       <c r="AF100" s="15"/>
       <c r="AG100" s="17" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="AH100" s="17" t="s">
         <v>201</v>
@@ -32560,26 +32585,26 @@
         <v>51300</v>
       </c>
       <c r="AJ100" s="28" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="AK100" s="22" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="AL100" s="22"/>
       <c r="AM100" s="23" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="AN100" s="26"/>
       <c r="AO100" s="17" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="AP100" s="17"/>
       <c r="AQ100" s="30" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="AR100" s="23"/>
       <c r="AS100" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AT100" s="1">
         <f>RANK(BL100,$BL$3:$BL$122)+COUNTIF(BL$3:BL100,BL100)-1</f>
@@ -32679,13 +32704,13 @@
     </row>
     <row r="101" spans="1:80" s="7" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D101" s="73" t="str">
         <f t="shared" si="57"/>
@@ -32720,27 +32745,27 @@
       <c r="AE101" s="17"/>
       <c r="AF101" s="15"/>
       <c r="AG101" s="17" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="AH101" s="17" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="AI101" s="21">
         <v>77200</v>
       </c>
       <c r="AJ101" s="28" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="AK101" s="22" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="AL101" s="22"/>
       <c r="AM101" s="23" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="AN101" s="15"/>
       <c r="AO101" s="48" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AP101" s="24"/>
       <c r="AQ101" s="26"/>
@@ -32844,13 +32869,13 @@
     </row>
     <row r="102" spans="1:80" s="13" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="D102" s="73" t="str">
         <f t="shared" si="57"/>
@@ -32885,37 +32910,37 @@
       <c r="AE102" s="17"/>
       <c r="AF102" s="15"/>
       <c r="AG102" s="17" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="AH102" s="17" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AI102" s="21">
         <v>51689</v>
       </c>
       <c r="AJ102" s="28" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AK102" s="22" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="AL102" s="22"/>
       <c r="AM102" s="23" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="AN102" s="17" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="AO102" s="17" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="AP102" s="24"/>
       <c r="AQ102" s="26"/>
       <c r="AR102" s="60" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AS102" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AT102" s="1">
         <f>RANK(BL102,$BL$3:$BL$122)+COUNTIF(BL$3:BL102,BL102)-1</f>
@@ -33015,13 +33040,13 @@
     </row>
     <row r="103" spans="1:80" s="27" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="D103" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33056,34 +33081,34 @@
       <c r="AE103" s="17"/>
       <c r="AF103" s="15"/>
       <c r="AG103" s="17" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="AH103" s="17" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="AI103" s="21">
         <v>60310</v>
       </c>
       <c r="AJ103" s="28" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="AK103" s="22" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="AL103" s="22"/>
       <c r="AM103" s="23" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="AN103" s="17"/>
       <c r="AO103" s="17" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AP103" s="24"/>
       <c r="AQ103" s="48" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="AR103" s="23" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="AS103" s="25"/>
       <c r="AT103" s="1">
@@ -33184,13 +33209,13 @@
     </row>
     <row r="104" spans="1:80" s="26" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="D104" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33217,30 +33242,30 @@
       <c r="AE104" s="17"/>
       <c r="AF104" s="15"/>
       <c r="AG104" s="17" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="AH104" s="17" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="AI104" s="21">
         <v>60610</v>
       </c>
       <c r="AJ104" s="28" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AK104" s="22" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="AL104" s="22"/>
       <c r="AM104" s="23" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="AP104" s="24"/>
       <c r="AQ104" s="30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AR104" s="60" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AT104" s="1">
         <f>RANK(BL104,$BL$3:$BL$122)+COUNTIF(BL$3:BL104,BL104)-1</f>
@@ -33340,13 +33365,13 @@
     </row>
     <row r="105" spans="1:80" s="13" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="D105" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33384,18 +33409,18 @@
         <v>13</v>
       </c>
       <c r="AH105" s="17" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="AI105" s="21">
         <v>45800</v>
       </c>
       <c r="AJ105" s="28"/>
       <c r="AK105" s="22" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="AL105" s="22"/>
       <c r="AM105" s="23" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="AN105" s="26"/>
       <c r="AO105" s="26"/>
@@ -33501,13 +33526,13 @@
     </row>
     <row r="106" spans="1:80" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="D106" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33534,7 +33559,7 @@
       <c r="AE106" s="17"/>
       <c r="AF106" s="15"/>
       <c r="AG106" s="17" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="AH106" s="17" t="s">
         <v>193</v>
@@ -33544,26 +33569,26 @@
       </c>
       <c r="AJ106" s="15"/>
       <c r="AK106" s="22" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="AL106" s="22"/>
       <c r="AM106" s="23" t="s">
+        <v>853</v>
+      </c>
+      <c r="AN106" s="17" t="s">
         <v>857</v>
       </c>
-      <c r="AN106" s="17" t="s">
-        <v>861</v>
-      </c>
       <c r="AO106" s="17" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="AP106" s="17" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="AQ106" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AR106" s="60" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AT106" s="1">
         <f>RANK(BL106,$BL$3:$BL$122)+COUNTIF(BL$3:BL106,BL106)-1</f>
@@ -33663,13 +33688,13 @@
     </row>
     <row r="107" spans="1:80" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="D107" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33704,7 +33729,7 @@
       <c r="AE107" s="17"/>
       <c r="AF107" s="15"/>
       <c r="AG107" s="17" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="AH107" s="17" t="s">
         <v>193</v>
@@ -33713,20 +33738,20 @@
         <v>51100</v>
       </c>
       <c r="AJ107" s="28" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="AK107" s="22" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="AL107" s="22"/>
       <c r="AM107" s="23" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="AN107" s="17"/>
       <c r="AO107" s="17"/>
       <c r="AP107" s="17"/>
       <c r="AQ107" s="17" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="AR107" s="60"/>
       <c r="AS107" s="26"/>
@@ -33828,13 +33853,13 @@
     </row>
     <row r="108" spans="1:80" s="7" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="D108" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33869,7 +33894,7 @@
       <c r="AE108" s="17"/>
       <c r="AF108" s="17"/>
       <c r="AG108" s="17" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="AH108" s="17" t="s">
         <v>193</v>
@@ -33879,25 +33904,25 @@
       </c>
       <c r="AJ108" s="15"/>
       <c r="AK108" s="22" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="AL108" s="22"/>
       <c r="AM108" s="23" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="AN108" s="15"/>
       <c r="AO108" s="17" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="AP108" s="24"/>
       <c r="AQ108" s="17" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AR108" s="23" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="AS108" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AT108" s="1">
         <f>RANK(BL108,$BL$3:$BL$122)+COUNTIF(BL$3:BL108,BL108)-1</f>
@@ -33997,13 +34022,13 @@
     </row>
     <row r="109" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="D109" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34038,33 +34063,33 @@
       <c r="AE109" s="17"/>
       <c r="AF109" s="17"/>
       <c r="AG109" s="17" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="AH109" s="17" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="AI109" s="21">
         <v>68490</v>
       </c>
       <c r="AJ109" s="28" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="AK109" s="22" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="AL109" s="22"/>
       <c r="AM109" s="23" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="AN109" s="15"/>
       <c r="AO109" s="17" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="AP109" s="17" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="AQ109" s="29" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="AR109" s="23"/>
       <c r="AS109" s="25"/>
@@ -34166,13 +34191,13 @@
     </row>
     <row r="110" spans="1:80" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="D110" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34207,29 +34232,29 @@
       <c r="AE110" s="17"/>
       <c r="AF110" s="15"/>
       <c r="AG110" s="17" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="AH110" s="17" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="AI110" s="21">
         <v>51140</v>
       </c>
       <c r="AJ110" s="28" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="AK110" s="22" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="AL110" s="22"/>
       <c r="AM110" s="23" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="AN110" s="30"/>
       <c r="AO110" s="26"/>
       <c r="AP110" s="24"/>
       <c r="AQ110" s="29" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="AR110" s="26"/>
       <c r="AS110" s="26"/>
@@ -34331,13 +34356,13 @@
     </row>
     <row r="111" spans="1:80" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="D111" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34372,23 +34397,23 @@
       <c r="AE111" s="17"/>
       <c r="AF111" s="15"/>
       <c r="AG111" s="17" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="AH111" s="17" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="AI111" s="21">
         <v>51140</v>
       </c>
       <c r="AJ111" s="28" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="AK111" s="22" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="AL111" s="22"/>
       <c r="AM111" s="23" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="AN111" s="30"/>
       <c r="AO111" s="26"/>
@@ -34500,7 +34525,7 @@
         <v>131</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D112" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34535,23 +34560,23 @@
       <c r="AE112" s="12"/>
       <c r="AF112" s="19"/>
       <c r="AG112" s="12" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="AH112" s="12" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="AI112" s="31">
         <v>8000</v>
       </c>
       <c r="AJ112" s="28" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="AK112" s="22" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="AL112" s="22"/>
       <c r="AM112" s="23" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="AN112" s="32"/>
       <c r="AO112" s="33"/>
@@ -34657,13 +34682,13 @@
     </row>
     <row r="113" spans="1:80" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D113" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34698,30 +34723,30 @@
       <c r="AE113" s="17"/>
       <c r="AF113" s="15"/>
       <c r="AG113" s="17" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="AH113" s="17" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="AI113" s="21">
         <v>60200</v>
       </c>
       <c r="AJ113" s="28" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="AK113" s="22" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="AL113" s="22"/>
       <c r="AM113" s="23" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="AN113" s="26"/>
       <c r="AO113" s="26"/>
       <c r="AP113" s="24"/>
       <c r="AQ113" s="26"/>
       <c r="AR113" s="23" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AS113" s="26"/>
       <c r="AT113" s="1">
@@ -34822,13 +34847,13 @@
     </row>
     <row r="114" spans="1:80" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D114" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34863,23 +34888,23 @@
       <c r="AE114" s="17"/>
       <c r="AF114" s="15"/>
       <c r="AG114" s="17" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="AH114" s="17" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="AI114" s="21">
         <v>60000</v>
       </c>
       <c r="AJ114" s="28" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="AK114" s="22" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="AL114" s="22"/>
       <c r="AM114" s="23" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="AN114" s="15"/>
       <c r="AO114" s="26"/>
@@ -34985,13 +35010,13 @@
     </row>
     <row r="115" spans="1:80" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="D115" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35026,28 +35051,28 @@
       <c r="AE115" s="17"/>
       <c r="AF115" s="15"/>
       <c r="AG115" s="17" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="AH115" s="17" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="AI115" s="21">
         <v>60000</v>
       </c>
       <c r="AJ115" s="28"/>
       <c r="AK115" s="22" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="AL115" s="22"/>
       <c r="AM115" s="23" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="AN115" s="15"/>
       <c r="AO115" s="26"/>
       <c r="AP115" s="24"/>
       <c r="AQ115" s="26"/>
       <c r="AR115" s="42" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="AS115" s="26"/>
       <c r="AT115" s="1">
@@ -35148,13 +35173,13 @@
     </row>
     <row r="116" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="D116" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35189,23 +35214,23 @@
       <c r="AE116" s="17"/>
       <c r="AF116" s="15"/>
       <c r="AG116" s="17" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="AH116" s="17" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="AI116" s="21">
         <v>8090</v>
       </c>
       <c r="AJ116" s="28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AK116" s="22" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="AL116" s="22"/>
       <c r="AM116" s="23" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="AN116" s="15"/>
       <c r="AO116" s="26"/>
@@ -35311,13 +35336,13 @@
     </row>
     <row r="117" spans="1:80" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="D117" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35352,23 +35377,23 @@
       <c r="AE117" s="17"/>
       <c r="AF117" s="15"/>
       <c r="AG117" s="17" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="AH117" s="17" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="AI117" s="21">
         <v>21000</v>
       </c>
       <c r="AJ117" s="28" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="AK117" s="22" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AL117" s="22"/>
       <c r="AM117" s="23" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AN117" s="32"/>
       <c r="AO117" s="26"/>
@@ -35474,13 +35499,13 @@
     </row>
     <row r="118" spans="1:80" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="D118" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35515,27 +35540,27 @@
       <c r="AE118" s="17"/>
       <c r="AF118" s="15"/>
       <c r="AG118" s="17" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="AH118" s="17" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="AI118" s="21">
         <v>60200</v>
       </c>
       <c r="AJ118" s="28" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AK118" s="22" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="AL118" s="22"/>
       <c r="AM118" s="23" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="AN118" s="15"/>
       <c r="AO118" s="61" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="AP118" s="24"/>
       <c r="AQ118" s="26"/>
@@ -35639,13 +35664,13 @@
     </row>
     <row r="119" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D119" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35680,23 +35705,23 @@
       <c r="AE119" s="17"/>
       <c r="AF119" s="15"/>
       <c r="AG119" s="17" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="AH119" s="17" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="AI119" s="21">
         <v>60200</v>
       </c>
       <c r="AJ119" s="28" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="AK119" s="22" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AL119" s="22"/>
       <c r="AM119" s="23" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AN119" s="15"/>
       <c r="AO119" s="61"/>
@@ -35802,13 +35827,13 @@
     </row>
     <row r="120" spans="1:80" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="D120" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35843,23 +35868,23 @@
       <c r="AE120" s="17"/>
       <c r="AF120" s="15"/>
       <c r="AG120" s="17" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="AH120" s="17" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="AI120" s="21">
         <v>60000</v>
       </c>
       <c r="AJ120" s="28" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="AK120" s="22" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="AL120" s="22"/>
       <c r="AM120" s="23" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="AN120" s="15"/>
       <c r="AO120" s="26"/>
@@ -35965,13 +35990,13 @@
     </row>
     <row r="121" spans="1:80" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D121" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36006,23 +36031,23 @@
       <c r="AE121" s="17"/>
       <c r="AF121" s="15"/>
       <c r="AG121" s="17" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="AH121" s="17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AI121" s="21">
         <v>67000</v>
       </c>
       <c r="AJ121" s="28" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="AK121" s="22" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="AL121" s="22"/>
       <c r="AM121" s="23" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AN121" s="15"/>
       <c r="AO121" s="26"/>
@@ -36128,13 +36153,13 @@
     </row>
     <row r="122" spans="1:80" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D122" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36169,23 +36194,23 @@
       <c r="AE122" s="17"/>
       <c r="AF122" s="15"/>
       <c r="AG122" s="17" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="AH122" s="17" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="AI122" s="21">
         <v>21121</v>
       </c>
       <c r="AJ122" s="28" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="AK122" s="22" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AL122" s="22"/>
       <c r="AM122" s="23" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AN122" s="15"/>
       <c r="AO122" s="26"/>
@@ -36291,13 +36316,13 @@
     </row>
     <row r="123" spans="1:80" ht="105" x14ac:dyDescent="0.25">
       <c r="A123" s="80" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B123" s="80" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="C123" s="81" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="D123" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36332,23 +36357,23 @@
       <c r="AE123" s="81"/>
       <c r="AF123" s="83"/>
       <c r="AG123" s="81" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="AH123" s="81" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="AI123" s="85">
         <v>21800</v>
       </c>
       <c r="AJ123" s="87" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="AK123" s="88" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="AL123" s="88"/>
       <c r="AM123" s="89" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="AN123" s="111"/>
       <c r="AO123" s="72"/>
@@ -36444,13 +36469,13 @@
     </row>
     <row r="124" spans="1:80" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="101" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B124" s="101" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="C124" s="102" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="D124" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36485,19 +36510,19 @@
       <c r="AE124" s="102"/>
       <c r="AF124" s="104"/>
       <c r="AG124" s="102" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="AH124" s="102" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="AI124" s="106">
         <v>21000</v>
       </c>
       <c r="AJ124" s="107" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="AK124" s="108" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="AL124" s="108"/>
       <c r="AM124" s="109"/>
@@ -36595,13 +36620,13 @@
     </row>
     <row r="125" spans="1:80" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="101" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B125" s="101" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="C125" s="102" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="D125" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36636,23 +36661,23 @@
       <c r="AE125" s="102"/>
       <c r="AF125" s="104"/>
       <c r="AG125" s="102" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="AH125" s="102" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="AI125" s="106">
         <v>21300</v>
       </c>
       <c r="AJ125" s="107" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="AK125" s="108" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="AL125" s="108"/>
       <c r="AM125" s="109" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="AN125" s="110"/>
       <c r="AO125" s="7"/>
@@ -36748,13 +36773,13 @@
     </row>
     <row r="126" spans="1:80" ht="105" x14ac:dyDescent="0.25">
       <c r="A126" s="101" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B126" s="101" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="C126" s="102" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="D126" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36789,23 +36814,23 @@
       <c r="AE126" s="102"/>
       <c r="AF126" s="104"/>
       <c r="AG126" s="102" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="AH126" s="102" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="AI126" s="106">
         <v>21800</v>
       </c>
       <c r="AJ126" s="107" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="AK126" s="108" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="AL126" s="108"/>
       <c r="AM126" s="109" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="AN126" s="110"/>
       <c r="AO126" s="7"/>
@@ -36901,13 +36926,13 @@
     </row>
     <row r="127" spans="1:80" s="123" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="101" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B127" s="101" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C127" s="102" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D127" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36942,23 +36967,23 @@
       <c r="AE127" s="102"/>
       <c r="AF127" s="104"/>
       <c r="AG127" s="102" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="AH127" s="102" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="AI127" s="106">
         <v>21600</v>
       </c>
       <c r="AJ127" s="107" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="AK127" s="108" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="AL127" s="108"/>
       <c r="AM127" s="109" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="AN127" s="104"/>
       <c r="AO127" s="7"/>
@@ -37064,13 +37089,13 @@
     </row>
     <row r="128" spans="1:80" s="98" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="115" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="B128" s="113" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="D128" s="73" t="str">
         <f t="shared" si="57"/>
@@ -37085,13 +37110,13 @@
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
       <c r="M128" s="98" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="N128" s="114" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="O128" s="98" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="P128" s="2"/>
       <c r="R128" s="119"/>
@@ -37110,23 +37135,23 @@
       <c r="AE128" s="8"/>
       <c r="AF128" s="2"/>
       <c r="AG128" s="116" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="AH128" s="98" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="AI128" s="117">
         <v>92390</v>
       </c>
       <c r="AJ128" s="107" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="AK128" s="108" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="AL128" s="108"/>
       <c r="AM128" s="109" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="AN128" s="5"/>
       <c r="AO128" s="2"/>
@@ -42394,73 +42419,71 @@
     <hyperlink ref="AJ62" r:id="rId39" display="http://03.26.51.19.30/" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
     <hyperlink ref="AK61" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
     <hyperlink ref="AK58" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="AK31" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="AR31" r:id="rId43" display="mailto:barbara.fromentin@pernod-ricard.com" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="AK64" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="AK59" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="AR59" r:id="rId46" display="mailto:f.pichard@distillerie-goyard.com" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="AK26" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="AR7" r:id="rId48" display="clebrishoual@sofralab.com" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="AK71" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="AK52" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="AK43" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="AK38" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="AR31" r:id="rId42" display="mailto:barbara.fromentin@pernod-ricard.com" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="AK64" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="AK59" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="AR59" r:id="rId45" display="mailto:f.pichard@distillerie-goyard.com" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="AR7" r:id="rId46" display="clebrishoual@sofralab.com" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="AK71" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="AK52" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="AK43" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="AK38" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
     <hyperlink ref="AK49" display="https://www.google.com/maps/place/Roquette+Fr%C3%A8res/@49.3962371,3.1070116,17z/data=!4m13!1m7!3m6!1s0x47e8637834193e7d:0x4e99f3d83b438dc6!2sRoute+de+Compi%C3%A8gne,+02290+Montigny-Lengrain!3b1!8m2!3d49.3958167!4d3.1021602!3m4!1s0x47e86379cc96af81:0x8b54" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="AR92" r:id="rId53" display="mailto:aurelie.gantet@reimsmetropole.fr" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="AR104" r:id="rId54" display="mailto:thor.hpc@thor.com" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="AR106" r:id="rId55" display="mailto:katia.savary@univ-reims.fr" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="AK42" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="AR9" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="AR51" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="AJ32" r:id="rId59" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?ei=WSDeWqjRLoPCgAao_rOACQ&amp;q=GRANDS+MOULINS+%28EUROMILL+NORD+REIMS%29&amp;oq=GRANDS+MOULINS+%28EUROMILL+NORD+REIMS%29&amp;gs_l=psy-ab.3...222844.222844.0.223869.1.1.0.0.0.0.361.361.3-1.1.0....0...1c.1.64.psy-ab..0.0.0....0.P1wqGInEwAU" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="AR77" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="AR78" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="AR6" r:id="rId62" display="mailto:mbertemes@mhws.fr" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="AR79" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="AK68" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="AR83" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="AR8" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="AQ52" r:id="rId67" display="Labo08@cq08.fr_x000a_03 24 59 61 53  _x000a_" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="AR52" r:id="rId68" display="mailto:Labo08@cq08.fr" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="AR21" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="AR22" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="AR86" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="AR89" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="AK46" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="AK87" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="AK88" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="AK89" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="AR33" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="AR4" r:id="rId78" display="m.lebrun@soliance.com / " xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="AR99" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="AR102" r:id="rId80" display="mailto:mickael.franchette@eugenemerma.fr" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="AR103" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="AR39" r:id="rId82" display="mailto:floriane.oszust@univ-reims;fr" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="AR42" r:id="rId83" display="mailto:v.verdonk@biotechjboy.com" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="AR108" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="AR92" r:id="rId51" display="mailto:aurelie.gantet@reimsmetropole.fr" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="AR104" r:id="rId52" display="mailto:thor.hpc@thor.com" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="AR106" r:id="rId53" display="mailto:katia.savary@univ-reims.fr" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="AK42" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="AR9" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="AR51" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="AJ32" r:id="rId57" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?ei=WSDeWqjRLoPCgAao_rOACQ&amp;q=GRANDS+MOULINS+%28EUROMILL+NORD+REIMS%29&amp;oq=GRANDS+MOULINS+%28EUROMILL+NORD+REIMS%29&amp;gs_l=psy-ab.3...222844.222844.0.223869.1.1.0.0.0.0.361.361.3-1.1.0....0...1c.1.64.psy-ab..0.0.0....0.P1wqGInEwAU" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="AR77" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="AR78" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="AR6" r:id="rId60" display="mailto:mbertemes@mhws.fr" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="AR79" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="AK68" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="AR83" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="AR8" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="AQ52" r:id="rId65" display="Labo08@cq08.fr_x000a_03 24 59 61 53  _x000a_" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="AR52" r:id="rId66" display="mailto:Labo08@cq08.fr" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="AR21" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="AR22" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="AR86" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="AR89" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="AK46" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="AK87" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="AK88" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="AK89" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="AR33" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="AR4" r:id="rId76" display="m.lebrun@soliance.com / " xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="AR99" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="AR102" r:id="rId78" display="mailto:mickael.franchette@eugenemerma.fr" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="AR103" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="AR39" r:id="rId80" display="mailto:floriane.oszust@univ-reims;fr" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="AR42" r:id="rId81" display="mailto:v.verdonk@biotechjboy.com" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="AR108" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
     <hyperlink ref="AK108" display="https://www.google.fr/maps/place/49%C2%B014'33.9%22N+4%C2%B003'41.6%22E/@49.242738,4.0606367,18z/data=!3m1!4b1!4m9!1m2!2m1!1sB%C3%A2timent+18+-+UFR+Sciences+Exactes+et+Naturelles,+Laboratoire+SIRMA++++CNRS+3481++!3m5!1s0x0:0x0!7e2!8m2!3d49.2427377!4d4.061" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="AR115" r:id="rId85" display="mailto:info@jnslabs.com" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="AR57" r:id="rId86" xr:uid="{120D4766-2804-834C-B350-0BE7FDA42D38}"/>
-    <hyperlink ref="AK4" r:id="rId87" xr:uid="{6622BBA6-6FF8-4152-B86B-419D1D3F91A2}"/>
-    <hyperlink ref="AK2" r:id="rId88" xr:uid="{CE6BB279-B22D-4886-BA43-EBC7C34ABC98}"/>
-    <hyperlink ref="AK3" r:id="rId89" xr:uid="{AD65CD47-7EFA-468A-823F-E339A9B6D149}"/>
-    <hyperlink ref="AK5" r:id="rId90" xr:uid="{867F9573-C524-43B1-B8BB-393613768702}"/>
-    <hyperlink ref="AK6" r:id="rId91" xr:uid="{BF5452CE-A4A7-4606-BC60-FF976F299AB7}"/>
-    <hyperlink ref="AK7" r:id="rId92" xr:uid="{D6C97649-73D2-49A8-8292-B639FCA92A26}"/>
-    <hyperlink ref="AK8" r:id="rId93" xr:uid="{06A1A36D-1C79-4DDD-8C3C-A29B3AB95216}"/>
-    <hyperlink ref="AK9" r:id="rId94" xr:uid="{E7287CB5-76AD-4369-BEC2-F6381C7644FC}"/>
-    <hyperlink ref="AK10" r:id="rId95" xr:uid="{9180D9EF-8163-43F1-B529-5EF7620CCC98}"/>
-    <hyperlink ref="AK12" r:id="rId96" xr:uid="{7B3178EE-8012-4045-ABA6-770304DA7A0A}"/>
-    <hyperlink ref="AK13" r:id="rId97" xr:uid="{6BF309E0-44F4-4801-A07F-B45D80DAD3B9}"/>
-    <hyperlink ref="AK15" r:id="rId98" xr:uid="{30B8E8AB-484D-4869-9DA7-C84D07A1DFD7}"/>
-    <hyperlink ref="AK17" r:id="rId99" xr:uid="{832F36F7-F6BA-46EB-A5E1-DB9BEB57D0DF}"/>
-    <hyperlink ref="AK18" r:id="rId100" xr:uid="{9154F617-C5AB-49D1-BA5E-806CE4EB594E}"/>
-    <hyperlink ref="AK19" r:id="rId101" xr:uid="{F3B7F5D3-98B0-43C8-A6A6-EFF45964F58D}"/>
-    <hyperlink ref="AK21" r:id="rId102" xr:uid="{8E4BF1A8-8EA1-4025-A588-AE88CCAA2C07}"/>
-    <hyperlink ref="AK23" r:id="rId103" xr:uid="{E24FB1E8-7D8A-43A4-B6D0-9E909F366FEE}"/>
+    <hyperlink ref="AR115" r:id="rId83" display="mailto:info@jnslabs.com" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="AR57" r:id="rId84" xr:uid="{120D4766-2804-834C-B350-0BE7FDA42D38}"/>
+    <hyperlink ref="AK4" r:id="rId85" xr:uid="{6622BBA6-6FF8-4152-B86B-419D1D3F91A2}"/>
+    <hyperlink ref="AK2" r:id="rId86" xr:uid="{CE6BB279-B22D-4886-BA43-EBC7C34ABC98}"/>
+    <hyperlink ref="AK3" r:id="rId87" xr:uid="{AD65CD47-7EFA-468A-823F-E339A9B6D149}"/>
+    <hyperlink ref="AK5" r:id="rId88" xr:uid="{867F9573-C524-43B1-B8BB-393613768702}"/>
+    <hyperlink ref="AK6" r:id="rId89" xr:uid="{BF5452CE-A4A7-4606-BC60-FF976F299AB7}"/>
+    <hyperlink ref="AK7" r:id="rId90" xr:uid="{D6C97649-73D2-49A8-8292-B639FCA92A26}"/>
+    <hyperlink ref="AK8" r:id="rId91" xr:uid="{06A1A36D-1C79-4DDD-8C3C-A29B3AB95216}"/>
+    <hyperlink ref="AK9" r:id="rId92" xr:uid="{E7287CB5-76AD-4369-BEC2-F6381C7644FC}"/>
+    <hyperlink ref="AK10" r:id="rId93" xr:uid="{9180D9EF-8163-43F1-B529-5EF7620CCC98}"/>
+    <hyperlink ref="AK12" r:id="rId94" xr:uid="{7B3178EE-8012-4045-ABA6-770304DA7A0A}"/>
+    <hyperlink ref="AK13" r:id="rId95" xr:uid="{6BF309E0-44F4-4801-A07F-B45D80DAD3B9}"/>
+    <hyperlink ref="AK15" r:id="rId96" xr:uid="{30B8E8AB-484D-4869-9DA7-C84D07A1DFD7}"/>
+    <hyperlink ref="AK17" r:id="rId97" xr:uid="{832F36F7-F6BA-46EB-A5E1-DB9BEB57D0DF}"/>
+    <hyperlink ref="AK18" r:id="rId98" xr:uid="{9154F617-C5AB-49D1-BA5E-806CE4EB594E}"/>
+    <hyperlink ref="AK19" r:id="rId99" xr:uid="{F3B7F5D3-98B0-43C8-A6A6-EFF45964F58D}"/>
+    <hyperlink ref="AK21" r:id="rId100" xr:uid="{8E4BF1A8-8EA1-4025-A588-AE88CCAA2C07}"/>
+    <hyperlink ref="AK23" r:id="rId101" xr:uid="{E24FB1E8-7D8A-43A4-B6D0-9E909F366FEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId104"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId102"/>
 </worksheet>
 </file>
 
@@ -42479,7 +42502,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="171" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="B1" s="172"/>
       <c r="C1" s="172"/>
@@ -42496,14 +42519,14 @@
       <c r="F2" s="176"/>
       <c r="H2" s="68"/>
       <c r="I2" s="69" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="K2" s="70"/>
       <c r="L2" s="69" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="N2" s="167" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O2" s="168"/>
       <c r="P2" s="168"/>
@@ -42565,7 +42588,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="171" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="B1" s="172"/>
       <c r="C1" s="172"/>
@@ -42584,14 +42607,14 @@
       <c r="G2" s="71"/>
       <c r="H2" s="68"/>
       <c r="I2" s="69" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="K2" s="70"/>
       <c r="L2" s="69" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="N2" s="180" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O2" s="181"/>
       <c r="P2" s="181"/>

--- a/Entreprises_Complet.xlsx
+++ b/Entreprises_Complet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfial\Documents\00_Stage_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5AA7C13-434A-40FA-939E-B2DC4C685630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{589F0895-A9FE-4415-B802-9BD44D035D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="1305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="1311">
   <si>
     <t>Alimentaire</t>
   </si>
@@ -315,9 +315,6 @@
     <t>apinson@bonduelle.com</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Bonduelle+Traiteur+International/@48.2377975,3.6798782,15z/data=!4m2!3m1!1s0x0:0x111fcacbba172d8d?sa=X&amp;ved=0ahUKEwjWvIGz6dDaAhXlIcAKHdtABLoQ_BIIejAK</t>
-  </si>
-  <si>
     <t>Google Maps</t>
   </si>
   <si>
@@ -1411,9 +1408,6 @@
   </si>
   <si>
     <t>03 26 77 35 80 - 0326773592</t>
-  </si>
-  <si>
-    <t>https://www.google.fr/maps/place/I.N.R.A+Institut+National+de+la+Recherche+Agronomique/@49.2385092,4.0600107,16.75z/data=!4m5!3m4!1s0x47e97423fbc6d089:0xab412940539751c9!8m2!3d49.23788!4d4.0625992</t>
   </si>
   <si>
     <t>63Q7+52 Reims</t>
@@ -1745,9 +1739,6 @@
     <t>7256+GR Reims</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Grand+Moulin+De+Reims/@49.2572184,4.0111183,17z/data=!4m13!1m7!3m6!1s0x47e97502d3f71477:0x58679893bac92cb5!2s136+Rue+Vernouillet,+51100+Reims!3b1!8m2!3d49.2572184!4d4.013307!3m4!1s0x47e9751cc72b96b9:0xa0ffae8c3dcc2962!8m2!3d49.2588742!4d4.0120214?hl=fr</t>
-  </si>
-  <si>
     <t>Mr. Le Quinio</t>
   </si>
   <si>
@@ -4113,6 +4104,33 @@
   </si>
   <si>
     <t>https://www.linkedin.com/company/g.h.-mumm-et-cie---soci%C3%A9t%C3%A9-vinicole-de-champagne-successeur/about/</t>
+  </si>
+  <si>
+    <t>49.25879400254374, 4.012078444297761</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/euromill-nord/about/</t>
+  </si>
+  <si>
+    <t>49.238236004940944, 4.063980369374996</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/french-national-institute-for-agricultural-research/</t>
+  </si>
+  <si>
+    <t>48.23904086098831, 3.678161586216218</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/bonduelle-traiteur-international-s.a.s./</t>
+  </si>
+  <si>
+    <t>48.5336712811449, 4.120667384222831</t>
+  </si>
+  <si>
+    <t>47.88372797978758, 2.1364327845372575</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/laiterie-de-saint-denis-de-l%27hotel-s-a-s/?originalSubdomain=fr</t>
   </si>
 </sst>
 </file>
@@ -15082,10 +15100,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AD1" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="AK31" sqref="AK31"/>
+      <selection pane="bottomLeft" activeCell="AL37" sqref="AL37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15150,115 +15168,115 @@
         <v>70</v>
       </c>
       <c r="C1" s="150" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="151" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1" s="152" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F1" s="152" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G1" s="152" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H1" s="152" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I1" s="152" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J1" s="152" t="s">
+        <v>1019</v>
+      </c>
+      <c r="K1" s="152" t="s">
+        <v>1020</v>
+      </c>
+      <c r="L1" s="152" t="s">
+        <v>1021</v>
+      </c>
+      <c r="M1" s="153" t="s">
+        <v>279</v>
+      </c>
+      <c r="N1" s="150" t="s">
+        <v>280</v>
+      </c>
+      <c r="O1" s="150" t="s">
+        <v>281</v>
+      </c>
+      <c r="P1" s="150" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q1" s="150" t="s">
+        <v>261</v>
+      </c>
+      <c r="R1" s="154" t="s">
+        <v>262</v>
+      </c>
+      <c r="S1" s="150" t="s">
+        <v>263</v>
+      </c>
+      <c r="T1" s="150" t="s">
+        <v>264</v>
+      </c>
+      <c r="U1" s="150" t="s">
+        <v>270</v>
+      </c>
+      <c r="V1" s="150" t="s">
+        <v>271</v>
+      </c>
+      <c r="W1" s="150" t="s">
+        <v>272</v>
+      </c>
+      <c r="X1" s="150" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y1" s="150" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z1" s="150" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA1" s="150" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB1" s="150" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC1" s="150" t="s">
+        <v>317</v>
+      </c>
+      <c r="AD1" s="150" t="s">
+        <v>314</v>
+      </c>
+      <c r="AE1" s="150" t="s">
+        <v>315</v>
+      </c>
+      <c r="AF1" s="150" t="s">
+        <v>316</v>
+      </c>
+      <c r="AG1" s="150" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="151" t="s">
-        <v>332</v>
-      </c>
-      <c r="E1" s="152" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F1" s="152" t="s">
-        <v>1026</v>
-      </c>
-      <c r="G1" s="152" t="s">
-        <v>1027</v>
-      </c>
-      <c r="H1" s="152" t="s">
-        <v>1028</v>
-      </c>
-      <c r="I1" s="152" t="s">
-        <v>1021</v>
-      </c>
-      <c r="J1" s="152" t="s">
-        <v>1022</v>
-      </c>
-      <c r="K1" s="152" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L1" s="152" t="s">
-        <v>1024</v>
-      </c>
-      <c r="M1" s="153" t="s">
-        <v>280</v>
-      </c>
-      <c r="N1" s="150" t="s">
-        <v>281</v>
-      </c>
-      <c r="O1" s="150" t="s">
-        <v>282</v>
-      </c>
-      <c r="P1" s="150" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q1" s="150" t="s">
-        <v>262</v>
-      </c>
-      <c r="R1" s="154" t="s">
-        <v>263</v>
-      </c>
-      <c r="S1" s="150" t="s">
-        <v>264</v>
-      </c>
-      <c r="T1" s="150" t="s">
-        <v>265</v>
-      </c>
-      <c r="U1" s="150" t="s">
-        <v>271</v>
-      </c>
-      <c r="V1" s="150" t="s">
-        <v>272</v>
-      </c>
-      <c r="W1" s="150" t="s">
-        <v>273</v>
-      </c>
-      <c r="X1" s="150" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y1" s="150" t="s">
-        <v>287</v>
-      </c>
-      <c r="Z1" s="150" t="s">
-        <v>288</v>
-      </c>
-      <c r="AA1" s="150" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB1" s="150" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC1" s="150" t="s">
-        <v>318</v>
-      </c>
-      <c r="AD1" s="150" t="s">
-        <v>315</v>
-      </c>
-      <c r="AE1" s="150" t="s">
-        <v>316</v>
-      </c>
-      <c r="AF1" s="150" t="s">
-        <v>317</v>
-      </c>
-      <c r="AG1" s="150" t="s">
+      <c r="AH1" s="150" t="s">
         <v>166</v>
       </c>
-      <c r="AH1" s="150" t="s">
+      <c r="AI1" s="155" t="s">
         <v>167</v>
-      </c>
-      <c r="AI1" s="155" t="s">
-        <v>168</v>
       </c>
       <c r="AJ1" s="150" t="s">
         <v>77</v>
       </c>
       <c r="AK1" s="150" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AL1" s="150" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="AM1" s="150" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AN1" s="150" t="s">
         <v>72</v>
@@ -15276,113 +15294,113 @@
         <v>76</v>
       </c>
       <c r="AS1" s="156" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AT1" s="157" t="s">
+        <v>993</v>
+      </c>
+      <c r="AU1" s="158" t="s">
         <v>996</v>
       </c>
-      <c r="AU1" s="158" t="s">
+      <c r="AV1" s="157" t="s">
+        <v>991</v>
+      </c>
+      <c r="AW1" s="158" t="s">
+        <v>994</v>
+      </c>
+      <c r="AX1" s="159" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AY1" s="159" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AZ1" s="159" t="s">
+        <v>1027</v>
+      </c>
+      <c r="BA1" s="159" t="s">
+        <v>1028</v>
+      </c>
+      <c r="BB1" s="159" t="s">
+        <v>997</v>
+      </c>
+      <c r="BC1" s="159" t="s">
+        <v>998</v>
+      </c>
+      <c r="BD1" s="159" t="s">
         <v>999</v>
       </c>
-      <c r="AV1" s="157" t="s">
-        <v>994</v>
-      </c>
-      <c r="AW1" s="158" t="s">
-        <v>997</v>
-      </c>
-      <c r="AX1" s="159" t="s">
-        <v>1032</v>
-      </c>
-      <c r="AY1" s="159" t="s">
-        <v>1033</v>
-      </c>
-      <c r="AZ1" s="159" t="s">
-        <v>1030</v>
-      </c>
-      <c r="BA1" s="159" t="s">
-        <v>1031</v>
-      </c>
-      <c r="BB1" s="159" t="s">
+      <c r="BE1" s="159" t="s">
         <v>1000</v>
       </c>
-      <c r="BC1" s="159" t="s">
+      <c r="BF1" s="159" t="s">
         <v>1001</v>
       </c>
-      <c r="BD1" s="159" t="s">
+      <c r="BG1" s="159" t="s">
         <v>1002</v>
       </c>
-      <c r="BE1" s="159" t="s">
+      <c r="BH1" s="159" t="s">
         <v>1003</v>
       </c>
-      <c r="BF1" s="159" t="s">
+      <c r="BI1" s="159" t="s">
         <v>1004</v>
       </c>
-      <c r="BG1" s="159" t="s">
+      <c r="BJ1" s="159" t="s">
         <v>1005</v>
       </c>
-      <c r="BH1" s="159" t="s">
+      <c r="BK1" s="159" t="s">
         <v>1006</v>
       </c>
-      <c r="BI1" s="159" t="s">
-        <v>1007</v>
-      </c>
-      <c r="BJ1" s="159" t="s">
-        <v>1008</v>
-      </c>
-      <c r="BK1" s="159" t="s">
-        <v>1009</v>
-      </c>
       <c r="BL1" s="160" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="BM1" s="160" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="BN1" s="160"/>
       <c r="BO1" s="160"/>
       <c r="BP1" s="161" t="s">
+        <v>1007</v>
+      </c>
+      <c r="BQ1" s="161" t="s">
+        <v>1008</v>
+      </c>
+      <c r="BR1" s="161" t="s">
+        <v>1009</v>
+      </c>
+      <c r="BS1" s="161" t="s">
         <v>1010</v>
       </c>
-      <c r="BQ1" s="161" t="s">
+      <c r="BT1" s="161" t="s">
         <v>1011</v>
-      </c>
-      <c r="BR1" s="161" t="s">
-        <v>1012</v>
-      </c>
-      <c r="BS1" s="161" t="s">
-        <v>1013</v>
-      </c>
-      <c r="BT1" s="161" t="s">
-        <v>1014</v>
       </c>
       <c r="BU1" s="161"/>
       <c r="BV1" s="161"/>
       <c r="BW1" s="161" t="s">
+        <v>1012</v>
+      </c>
+      <c r="BX1" s="161" t="s">
+        <v>1013</v>
+      </c>
+      <c r="BY1" s="161" t="s">
+        <v>1014</v>
+      </c>
+      <c r="BZ1" s="161" t="s">
         <v>1015</v>
       </c>
-      <c r="BX1" s="161" t="s">
+      <c r="CA1" s="161" t="s">
         <v>1016</v>
-      </c>
-      <c r="BY1" s="161" t="s">
-        <v>1017</v>
-      </c>
-      <c r="BZ1" s="161" t="s">
-        <v>1018</v>
-      </c>
-      <c r="CA1" s="161" t="s">
-        <v>1019</v>
       </c>
       <c r="CB1" s="162"/>
     </row>
     <row r="2" spans="1:80" s="18" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="D2" s="99"/>
       <c r="E2" s="164"/>
@@ -15414,22 +15432,22 @@
       <c r="AE2" s="62"/>
       <c r="AF2" s="137"/>
       <c r="AG2" s="62" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="AH2" s="62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI2" s="138">
         <v>51100</v>
       </c>
       <c r="AJ2" s="139" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="AK2" s="67" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="AL2" s="144" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="AM2" s="67"/>
       <c r="AN2" s="140"/>
@@ -15458,89 +15476,89 @@
     </row>
     <row r="3" spans="1:80" s="18" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D3" s="99" t="str">
         <f t="shared" ref="D3:D34" si="0">IF(AX3&lt;&gt;0,"2020_A="&amp;AX3," ")&amp;IF(AY3&lt;&gt;0," ; 2020_i="&amp;AY3," ")&amp;IF(AZ3&lt;&gt;0,"2019_A="&amp;AZ3," ")&amp;IF(BA3&lt;&gt;0," ; 2019_i="&amp;BA3," ")&amp;IF(BB3&lt;&gt;0,"2018_A="&amp;BB3," ")&amp;IF(BC3&lt;&gt;0," ; 2018_i="&amp;BC3," ")&amp;IF(BD3&lt;&gt;0," ; 2017_A="&amp;BD3," ")&amp;IF(BE3&lt;&gt;0," ; 2017_i="&amp;BE3," ")&amp;IF(BF3&lt;&gt;0," ; 2016_A="&amp;BF3," ")&amp;IF(BG3&lt;&gt;0," ; 2016_i="&amp;BG3," ")&amp;IF(BH3&lt;&gt;0," ; 2015_A="&amp;BH3," ")&amp;IF(BI3&lt;&gt;0," ; 2015_i="&amp;BI3," ")&amp;IF(BJ3&lt;&gt;0," ; 2014_A="&amp;BJ3," ")&amp;IF(BK3&lt;&gt;0," ; 2014_i="&amp;BK3," ")</f>
         <v xml:space="preserve">2020_A=2 2019_A=4 2018_A=7  ; 2017_A=5 ; 2017_i=1 ; 2016_A=6 ; 2016_i=1 ; 2015_A=3  ; 2014_A=3 </v>
       </c>
       <c r="E3" s="164" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="F3" s="164" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="G3" s="164" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="H3" s="164"/>
       <c r="I3" s="74" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="K3" s="62" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="L3" s="164"/>
       <c r="M3" s="74" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="N3" s="62" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="O3" s="62" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="P3" s="137"/>
       <c r="Q3" s="62" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="R3" s="137" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="S3" s="137" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="T3" s="137"/>
       <c r="U3" s="62" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="V3" s="62" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="W3" s="62" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="X3" s="137"/>
       <c r="Y3" s="137"/>
       <c r="Z3" s="62" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="AA3" s="62" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="AB3" s="137"/>
       <c r="AC3" s="62"/>
       <c r="AD3" s="62" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="AE3" s="62" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="AF3" s="137"/>
       <c r="AG3" s="62" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AH3" s="62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI3" s="138">
         <v>51100</v>
@@ -15549,13 +15567,13 @@
         <v>326888110</v>
       </c>
       <c r="AK3" s="67" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="AL3" s="144" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="AM3" s="67" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AN3" s="140"/>
       <c r="AO3" s="141"/>
@@ -15679,91 +15697,91 @@
     </row>
     <row r="4" spans="1:80" s="1" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>268</v>
-      </c>
       <c r="C4" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D4" s="73" t="str">
         <f t="shared" si="0"/>
         <v>2020_A=1 2019_A=1 2018_A=2 ; 2018_i=1 ; 2017_A=1  ; 2016_A=2  ; 2015_A=1  ; 2014_A=2 ; 2014_i=1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="75" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>1034</v>
+      </c>
+      <c r="O4" s="17" t="s">
         <v>1038</v>
       </c>
-      <c r="N4" s="17" t="s">
-        <v>1037</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>1041</v>
-      </c>
       <c r="P4" s="17" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="T4" s="17"/>
       <c r="U4" s="17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="X4" s="17"/>
       <c r="Y4" s="17"/>
       <c r="Z4" s="17" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="AA4" s="17" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="AB4" s="17"/>
       <c r="AC4" s="17" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="AD4" s="17" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="AE4" s="17" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="AF4" s="17"/>
       <c r="AG4" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="AH4" s="11" t="s">
         <v>269</v>
-      </c>
-      <c r="AH4" s="11" t="s">
-        <v>270</v>
       </c>
       <c r="AI4" s="41">
         <v>51110</v>
@@ -15772,26 +15790,26 @@
         <v>326888410</v>
       </c>
       <c r="AK4" s="23" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="AL4" s="145" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="AM4" s="50"/>
       <c r="AN4" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AO4" s="17" t="s">
+        <v>835</v>
+      </c>
+      <c r="AP4" s="17" t="s">
+        <v>836</v>
+      </c>
+      <c r="AQ4" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="AR4" s="23" t="s">
         <v>838</v>
-      </c>
-      <c r="AP4" s="17" t="s">
-        <v>839</v>
-      </c>
-      <c r="AQ4" s="11" t="s">
-        <v>840</v>
-      </c>
-      <c r="AR4" s="23" t="s">
-        <v>841</v>
       </c>
       <c r="AS4" s="25"/>
       <c r="AT4" s="1">
@@ -15913,10 +15931,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D5" s="73" t="str">
         <f t="shared" si="0"/>
@@ -15931,70 +15949,70 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="75" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="P5" s="17"/>
       <c r="Q5" s="17" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="T5" s="17"/>
       <c r="U5" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="W5" s="17" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="X5" s="17"/>
       <c r="Y5" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Z5" s="17" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="AA5" s="17" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="AB5" s="17"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="17" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="AE5" s="17" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="AF5" s="17"/>
       <c r="AG5" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="AH5" s="17" t="s">
         <v>277</v>
-      </c>
-      <c r="AH5" s="17" t="s">
-        <v>278</v>
       </c>
       <c r="AI5" s="41">
         <v>2007</v>
       </c>
       <c r="AJ5" s="28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AK5" s="23" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="AL5" s="146" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="AM5" s="66"/>
       <c r="AN5" s="17"/>
@@ -16121,7 +16139,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D6" s="73" t="str">
         <f t="shared" si="0"/>
@@ -16132,53 +16150,53 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="75" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="P6" s="17"/>
       <c r="Q6" s="17" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="T6" s="17"/>
       <c r="U6" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="W6" s="17" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Z6" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AA6" s="17" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AB6" s="17"/>
       <c r="AC6" s="17"/>
@@ -16189,7 +16207,7 @@
         <v>45</v>
       </c>
       <c r="AH6" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AI6" s="11">
         <v>51200</v>
@@ -16198,20 +16216,20 @@
         <v>33326512020</v>
       </c>
       <c r="AK6" s="23" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="AL6" s="147" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="AM6" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN6" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AO6" s="17"/>
       <c r="AP6" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AQ6" s="44" t="s">
         <v>46</v>
@@ -16335,7 +16353,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>29</v>
@@ -16353,87 +16371,87 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="75" t="s">
+        <v>497</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>1047</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q7" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="R7" s="17" t="s">
         <v>500</v>
       </c>
-      <c r="O7" s="17" t="s">
-        <v>1050</v>
-      </c>
-      <c r="P7" s="17" t="s">
-        <v>537</v>
-      </c>
-      <c r="Q7" s="17" t="s">
-        <v>501</v>
-      </c>
-      <c r="R7" s="17" t="s">
-        <v>502</v>
-      </c>
       <c r="S7" s="17" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="T7" s="17"/>
       <c r="U7" s="17" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="W7" s="17" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="X7" s="17"/>
       <c r="Y7" s="17"/>
       <c r="Z7" s="17" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="AA7" s="17" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="AB7" s="17"/>
       <c r="AC7" s="17"/>
       <c r="AD7" s="17" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="AE7" s="17" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="AF7" s="17"/>
       <c r="AG7" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AH7" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AI7" s="41">
         <v>51530</v>
       </c>
       <c r="AJ7" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AK7" s="23" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="AL7" s="147" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="AM7" s="23"/>
       <c r="AN7" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AO7" s="17" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="AP7" s="17"/>
       <c r="AQ7" s="11" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="AR7" s="50" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="AS7" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AT7" s="1">
         <f>RANK(BL7,$BL$3:$BL$122)+COUNTIF(BL$3:BL7,BL7)-1</f>
@@ -16550,10 +16568,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -16568,82 +16586,82 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="75" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="17" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="T8" s="15"/>
       <c r="U8" s="17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="W8" s="17" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="17" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="AA8" s="17" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="AB8" s="15"/>
       <c r="AC8" s="17"/>
       <c r="AD8" s="17" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="AE8" s="17" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="AF8" s="15"/>
       <c r="AG8" s="17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AH8" s="17" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AI8" s="21">
         <v>2400</v>
       </c>
       <c r="AJ8" s="46" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AK8" s="23" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="AL8" s="23" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="AM8" s="23"/>
       <c r="AN8" s="30"/>
       <c r="AO8" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="AP8" s="17" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="AQ8" s="48" t="s">
+        <v>683</v>
+      </c>
+      <c r="AR8" s="42" t="s">
         <v>686</v>
-      </c>
-      <c r="AR8" s="42" t="s">
-        <v>689</v>
       </c>
       <c r="AS8" s="26"/>
       <c r="AT8" s="1">
@@ -16764,115 +16782,115 @@
         <v>4</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="D9" s="99" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">    2018_A=1  ; 2017_A=1  ; 2016_A=1 ; 2016_i=1 ; 2015_A=2  ; 2014_A=1 </v>
       </c>
       <c r="E9" s="75" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="75" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="75" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="P9" s="17"/>
       <c r="Q9" s="17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="T9" s="17"/>
       <c r="U9" s="17" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="W9" s="17" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="X9" s="17"/>
       <c r="Y9" s="17" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="Z9" s="17" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="AA9" s="17" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="AB9" s="17"/>
       <c r="AC9" s="17" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="AE9" s="17" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AF9" s="17"/>
       <c r="AG9" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AH9" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI9" s="41">
         <v>51110</v>
       </c>
       <c r="AJ9" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AK9" s="23" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="AL9" s="23" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="AM9" s="23"/>
       <c r="AN9" s="25" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AO9" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP9" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="AP9" s="17" t="s">
-        <v>93</v>
-      </c>
       <c r="AQ9" s="25" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AR9" s="42" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AS9" s="25"/>
       <c r="AT9" s="1">
@@ -16988,43 +17006,43 @@
         <v>0</v>
       </c>
       <c r="B10" s="143" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="D10" s="73" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">2020_A=1 2019_A=1 2018_A=1         </v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="G10" s="142" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="H10" s="126"/>
       <c r="I10" s="54" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="J10" s="54" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="K10" s="142" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="L10" s="126"/>
       <c r="M10" s="97" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="N10" s="54" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="O10" s="142" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="P10" s="122"/>
       <c r="Q10" s="54"/>
@@ -17044,10 +17062,10 @@
       <c r="AE10" s="54"/>
       <c r="AF10" s="122"/>
       <c r="AG10" s="54" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="AH10" s="54" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="AI10" s="128">
         <v>50890</v>
@@ -17056,10 +17074,10 @@
         <v>33233066500</v>
       </c>
       <c r="AK10" s="22" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="AL10" s="23" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="AM10" s="54"/>
       <c r="AN10" s="130"/>
@@ -17175,10 +17193,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="D11" s="73" t="str">
         <f t="shared" si="0"/>
@@ -17193,73 +17211,73 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="75" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="O11" s="45" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="P11" s="15"/>
       <c r="Q11" s="17" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="R11" s="24" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="S11" s="45" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="T11" s="15"/>
       <c r="U11" s="15" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="V11" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="W11" s="45" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="X11" s="15"/>
       <c r="Y11" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="Z11" s="17" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AA11" s="45" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AB11" s="15"/>
       <c r="AC11" s="17"/>
       <c r="AD11" s="17" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="AE11" s="45" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AF11" s="26"/>
       <c r="AG11" s="17" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AH11" s="17" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AI11" s="21">
         <v>2350</v>
       </c>
       <c r="AJ11" s="46" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AK11" s="23" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="AL11" s="23" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="AM11" s="23" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AN11" s="47"/>
       <c r="AO11" s="26"/>
@@ -17378,7 +17396,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>22</v>
@@ -17396,33 +17414,33 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="75" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="P12" s="17"/>
       <c r="Q12" s="17" t="s">
+        <v>1153</v>
+      </c>
+      <c r="R12" s="17" t="s">
         <v>1156</v>
       </c>
-      <c r="R12" s="17" t="s">
-        <v>1159</v>
-      </c>
       <c r="S12" s="17" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="T12" s="17"/>
       <c r="U12" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="V12" s="17" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="W12" s="17" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
@@ -17434,22 +17452,22 @@
       <c r="AE12" s="17"/>
       <c r="AF12" s="17"/>
       <c r="AG12" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH12" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="AH12" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="AI12" s="41">
         <v>51100</v>
       </c>
       <c r="AJ12" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AK12" s="23" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="AL12" s="23" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="AM12" s="23"/>
       <c r="AN12" s="25"/>
@@ -17457,7 +17475,7 @@
         <v>23</v>
       </c>
       <c r="AP12" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AQ12" s="25" t="s">
         <v>24</v>
@@ -17466,7 +17484,7 @@
         <v>25</v>
       </c>
       <c r="AS12" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AT12" s="1">
         <f>RANK(BL12,$BL$3:$BL$122)+COUNTIF(BL$3:BL12,BL12)-1</f>
@@ -17575,7 +17593,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>19</v>
@@ -17593,33 +17611,33 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="75" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="P13" s="17"/>
       <c r="Q13" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="R13" s="120" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="T13" s="17"/>
       <c r="U13" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="V13" s="17" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="W13" s="17" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
@@ -17631,25 +17649,25 @@
       <c r="AE13" s="17"/>
       <c r="AF13" s="17"/>
       <c r="AG13" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH13" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="AH13" s="11" t="s">
-        <v>191</v>
       </c>
       <c r="AI13" s="41">
         <v>10700</v>
       </c>
       <c r="AJ13" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK13" s="23" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="AL13" s="23" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="AM13" s="23" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AN13" s="25" t="s">
         <v>20</v>
@@ -17659,7 +17677,7 @@
       </c>
       <c r="AP13" s="17"/>
       <c r="AQ13" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AR13" s="42" t="s">
         <v>21</v>
@@ -17772,10 +17790,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D14" s="73" t="str">
         <f t="shared" si="0"/>
@@ -17790,33 +17808,33 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="75" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="P14" s="15"/>
       <c r="Q14" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="R14" s="24" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="S14" s="17" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="T14" s="15"/>
       <c r="U14" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="W14" s="17" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="X14" s="15"/>
       <c r="Y14" s="17"/>
@@ -17828,25 +17846,25 @@
       <c r="AE14" s="17"/>
       <c r="AF14" s="26"/>
       <c r="AG14" s="15" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AH14" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI14" s="21">
         <v>51100</v>
       </c>
       <c r="AJ14" s="46" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AK14" s="23" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="AL14" s="23" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="AM14" s="23" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AN14" s="47"/>
       <c r="AO14" s="26"/>
@@ -17958,13 +17976,13 @@
     </row>
     <row r="15" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="D15" s="73" t="str">
         <f t="shared" si="0"/>
@@ -17983,26 +18001,26 @@
       <c r="O15" s="17"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="17" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="S15" s="17" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="W15" s="17" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="X15" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
@@ -18013,23 +18031,23 @@
       <c r="AE15" s="17"/>
       <c r="AF15" s="15"/>
       <c r="AG15" s="17" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="AH15" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI15" s="21">
         <v>51100</v>
       </c>
       <c r="AJ15" s="15"/>
       <c r="AK15" s="22" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="AL15" s="23" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="AM15" s="23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AN15" s="30"/>
       <c r="AO15" s="26"/>
@@ -18139,13 +18157,13 @@
     </row>
     <row r="16" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="D16" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18160,13 +18178,13 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="75" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="P16" s="15"/>
       <c r="Q16" s="17"/>
@@ -18174,13 +18192,13 @@
       <c r="S16" s="15"/>
       <c r="T16" s="15"/>
       <c r="U16" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="W16" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="X16" s="15"/>
       <c r="Y16" s="15"/>
@@ -18188,42 +18206,42 @@
       <c r="AA16" s="15"/>
       <c r="AB16" s="15"/>
       <c r="AC16" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD16" s="17" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="AE16" s="17" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="AF16" s="15"/>
       <c r="AG16" s="17" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="AH16" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI16" s="21">
         <v>51100</v>
       </c>
       <c r="AJ16" s="15"/>
       <c r="AK16" s="22" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="AL16" s="23" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="AM16" s="23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AN16" s="30"/>
       <c r="AO16" s="17" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="AP16" s="24"/>
       <c r="AQ16" s="26"/>
       <c r="AR16" s="42" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="AS16" s="26"/>
       <c r="AT16" s="1">
@@ -18330,13 +18348,13 @@
     </row>
     <row r="17" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D17" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18351,23 +18369,23 @@
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
       <c r="M17" s="75" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="P17" s="17"/>
       <c r="Q17" s="17" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="T17" s="17"/>
       <c r="U17" s="17"/>
@@ -18383,37 +18401,37 @@
       <c r="AE17" s="17"/>
       <c r="AF17" s="17"/>
       <c r="AG17" s="17" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="AH17" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI17" s="21">
         <v>51100</v>
       </c>
       <c r="AJ17" s="28"/>
       <c r="AK17" s="22" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="AL17" s="22" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="AM17" s="23" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="AN17" s="15"/>
       <c r="AO17" s="17" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="AP17" s="24"/>
       <c r="AQ17" s="17" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="AR17" s="60" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="AS17" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AT17" s="1">
         <f>RANK(BL17,$BL$3:$BL$122)+COUNTIF(BL$3:BL17,BL17)-1</f>
@@ -18524,10 +18542,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="D18" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18542,23 +18560,23 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="75" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="P18" s="15"/>
       <c r="Q18" s="17" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
@@ -18574,25 +18592,25 @@
       <c r="AE18" s="17"/>
       <c r="AF18" s="15"/>
       <c r="AG18" s="17" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="AH18" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI18" s="21">
         <v>51680</v>
       </c>
       <c r="AJ18" s="28" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="AK18" s="22" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AL18" s="22" t="s">
         <v>1270</v>
       </c>
-      <c r="AL18" s="22" t="s">
-        <v>1273</v>
-      </c>
       <c r="AM18" s="23" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="AN18" s="30"/>
       <c r="AO18" s="26"/>
@@ -18705,10 +18723,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D19" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18727,33 +18745,33 @@
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R19" s="120" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="T19" s="17"/>
       <c r="U19" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="W19" s="17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="X19" s="17"/>
       <c r="Y19" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Z19" s="17" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AA19" s="17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AB19" s="17"/>
       <c r="AC19" s="17"/>
@@ -18761,41 +18779,41 @@
       <c r="AE19" s="17"/>
       <c r="AF19" s="17"/>
       <c r="AG19" s="25" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AH19" s="17" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AI19" s="11">
         <v>51200</v>
       </c>
       <c r="AJ19" s="46" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AK19" s="22" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="AL19" s="52" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="AM19" s="23" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AN19" s="17"/>
       <c r="AO19" s="17" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AP19" s="25" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="AQ19" s="25" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AR19" s="23" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="AS19" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AT19" s="1">
         <f>RANK(BL19,$BL$3:$BL$122)+COUNTIF(BL$3:BL19,BL19)-1</f>
@@ -18901,13 +18919,13 @@
     </row>
     <row r="20" spans="1:80" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="51" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D20" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18926,33 +18944,33 @@
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="R20" s="120" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="T20" s="17"/>
       <c r="U20" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="V20" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="V20" s="17" t="s">
-        <v>477</v>
-      </c>
       <c r="W20" s="17" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="X20" s="17"/>
       <c r="Y20" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="Z20" s="17" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AA20" s="17" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AB20" s="17"/>
       <c r="AC20" s="17"/>
@@ -18960,22 +18978,22 @@
       <c r="AE20" s="17"/>
       <c r="AF20" s="17"/>
       <c r="AG20" s="25" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AH20" s="17" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AI20" s="11">
         <v>10380</v>
       </c>
       <c r="AJ20" s="46" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AK20" s="52" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="AL20" s="52" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="AM20" s="25"/>
       <c r="AN20" s="17"/>
@@ -19091,10 +19109,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="D21" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19109,13 +19127,13 @@
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
       <c r="M21" s="75" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="P21" s="15"/>
       <c r="Q21" s="17"/>
@@ -19135,34 +19153,34 @@
       <c r="AE21" s="17"/>
       <c r="AF21" s="15"/>
       <c r="AG21" s="11" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="AH21" s="17" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="AI21" s="21">
         <v>10000</v>
       </c>
       <c r="AJ21" s="28"/>
       <c r="AK21" s="56" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="AL21" s="56"/>
       <c r="AM21" s="23" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="AN21" s="17" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="AO21" s="17" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="AP21" s="17" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="AQ21" s="17"/>
       <c r="AR21" s="23" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="AS21" s="25"/>
       <c r="AT21" s="1">
@@ -19268,10 +19286,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D22" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19286,13 +19304,13 @@
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
       <c r="M22" s="75" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="17"/>
@@ -19312,32 +19330,32 @@
       <c r="AE22" s="17"/>
       <c r="AF22" s="15"/>
       <c r="AG22" s="11" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="AH22" s="17" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="AI22" s="21">
         <v>76100</v>
       </c>
       <c r="AJ22" s="28" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="AK22" s="56"/>
       <c r="AL22" s="56" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="AM22" s="23" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="AN22" s="17"/>
       <c r="AO22" s="17"/>
       <c r="AP22" s="17"/>
       <c r="AQ22" s="17" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="AR22" s="23" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="AS22" s="25"/>
       <c r="AT22" s="1">
@@ -19443,10 +19461,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="D23" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19461,13 +19479,13 @@
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
       <c r="M23" s="75" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="N23" s="17" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="P23" s="15"/>
       <c r="Q23" s="17"/>
@@ -19487,35 +19505,35 @@
       <c r="AE23" s="17"/>
       <c r="AF23" s="15"/>
       <c r="AG23" s="11" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AH23" s="17" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AI23" s="21">
         <v>89150</v>
       </c>
       <c r="AJ23" s="28" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="AK23" s="56" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="AL23" s="56" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="AM23" s="23" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="AN23" s="30"/>
       <c r="AO23" s="17" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AP23" s="17" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="AQ23" s="25" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AR23" s="23"/>
       <c r="AS23" s="25"/>
@@ -19619,13 +19637,13 @@
     </row>
     <row r="24" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>423</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>424</v>
       </c>
       <c r="D24" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19644,13 +19662,13 @@
       <c r="O24" s="17"/>
       <c r="P24" s="15"/>
       <c r="Q24" s="17" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
@@ -19662,48 +19680,48 @@
       <c r="AA24" s="15"/>
       <c r="AB24" s="15"/>
       <c r="AC24" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="AE24" s="17" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AF24" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG24" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AH24" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI24" s="21">
         <v>51110</v>
       </c>
       <c r="AJ24" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="AK24" s="23" t="s">
+        <v>1289</v>
+      </c>
+      <c r="AL24" s="23" t="s">
+        <v>1288</v>
+      </c>
+      <c r="AM24" s="23" t="s">
         <v>425</v>
-      </c>
-      <c r="AK24" s="23" t="s">
-        <v>1292</v>
-      </c>
-      <c r="AL24" s="23" t="s">
-        <v>1291</v>
-      </c>
-      <c r="AM24" s="23" t="s">
-        <v>426</v>
       </c>
       <c r="AN24" s="15"/>
       <c r="AO24" s="24" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="AP24" s="17" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="AQ24" s="26"/>
       <c r="AR24" s="42" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="AS24" s="26"/>
       <c r="AT24" s="1">
@@ -19811,10 +19829,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D25" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19837,13 +19855,13 @@
       <c r="S25" s="17"/>
       <c r="T25" s="17"/>
       <c r="U25" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="W25" s="17" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="X25" s="17"/>
       <c r="Y25" s="17"/>
@@ -19851,37 +19869,37 @@
       <c r="AA25" s="17"/>
       <c r="AB25" s="17"/>
       <c r="AC25" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD25" s="17" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="AE25" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="AF25" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="AG25" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="AH25" s="11" t="s">
         <v>321</v>
-      </c>
-      <c r="AF25" s="17" t="s">
-        <v>560</v>
-      </c>
-      <c r="AG25" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="AH25" s="11" t="s">
-        <v>322</v>
       </c>
       <c r="AI25" s="41">
         <v>10110</v>
       </c>
       <c r="AJ25" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="AK25" s="23" t="s">
+        <v>1253</v>
+      </c>
+      <c r="AL25" s="23" t="s">
+        <v>1290</v>
+      </c>
+      <c r="AM25" s="23" t="s">
         <v>323</v>
-      </c>
-      <c r="AK25" s="23" t="s">
-        <v>1256</v>
-      </c>
-      <c r="AL25" s="23" t="s">
-        <v>1293</v>
-      </c>
-      <c r="AM25" s="23" t="s">
-        <v>324</v>
       </c>
       <c r="AN25" s="11"/>
       <c r="AO25" s="17"/>
@@ -19994,7 +20012,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>65</v>
@@ -20016,13 +20034,13 @@
       <c r="O26" s="17"/>
       <c r="P26" s="17"/>
       <c r="Q26" s="17" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="R26" s="17" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="S26" s="17" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="T26" s="17"/>
       <c r="U26" s="17"/>
@@ -20038,22 +20056,22 @@
       <c r="AE26" s="17"/>
       <c r="AF26" s="17"/>
       <c r="AG26" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="AH26" s="11" t="s">
         <v>250</v>
-      </c>
-      <c r="AH26" s="11" t="s">
-        <v>251</v>
       </c>
       <c r="AI26" s="41">
         <v>52100</v>
       </c>
       <c r="AJ26" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AK26" s="23" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="AL26" s="23" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="AM26" s="23"/>
       <c r="AN26" s="25" t="s">
@@ -20167,10 +20185,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="D27" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20189,13 +20207,13 @@
       <c r="O27" s="17"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="17" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="R27" s="17" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="S27" s="17" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="T27" s="15"/>
       <c r="U27" s="17"/>
@@ -20211,32 +20229,32 @@
       <c r="AE27" s="17"/>
       <c r="AF27" s="15"/>
       <c r="AG27" s="11" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="AH27" s="17" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="AI27" s="21">
         <v>8430</v>
       </c>
       <c r="AJ27" s="28" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="AK27" s="56"/>
       <c r="AL27" s="56" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="AM27" s="23" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AN27" s="30"/>
       <c r="AO27" s="17" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="AP27" s="17"/>
       <c r="AQ27" s="17"/>
       <c r="AR27" s="23" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="AS27" s="25"/>
       <c r="AT27" s="1">
@@ -20339,13 +20357,13 @@
     </row>
     <row r="28" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="125" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B28" s="125" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="D28" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20364,13 +20382,13 @@
       <c r="O28" s="54"/>
       <c r="P28" s="122"/>
       <c r="Q28" s="54" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="R28" s="54" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="S28" s="20" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="T28" s="122"/>
       <c r="U28" s="122"/>
@@ -20386,10 +20404,10 @@
       <c r="AE28" s="54"/>
       <c r="AF28" s="122"/>
       <c r="AG28" s="54" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="AH28" s="54" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="AI28" s="128">
         <v>45730</v>
@@ -20399,7 +20417,7 @@
       </c>
       <c r="AK28" s="122"/>
       <c r="AL28" s="56" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="AM28" s="54"/>
       <c r="AN28" s="130"/>
@@ -20508,13 +20526,13 @@
     </row>
     <row r="29" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="125" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B29" s="125" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="D29" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20533,13 +20551,13 @@
       <c r="O29" s="54"/>
       <c r="P29" s="54"/>
       <c r="Q29" s="54" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="R29" s="54" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="S29" s="20" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="T29" s="54"/>
       <c r="U29" s="54"/>
@@ -20555,10 +20573,10 @@
       <c r="AE29" s="54"/>
       <c r="AF29" s="54"/>
       <c r="AG29" s="54" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="AH29" s="54" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="AI29" s="128">
         <v>8000</v>
@@ -20568,7 +20586,7 @@
       </c>
       <c r="AK29" s="54"/>
       <c r="AL29" s="56" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="AM29" s="54"/>
       <c r="AN29" s="54"/>
@@ -20680,10 +20698,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D30" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20702,13 +20720,13 @@
       <c r="O30" s="17"/>
       <c r="P30" s="17"/>
       <c r="Q30" s="17" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="R30" s="17" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="S30" s="17" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="T30" s="17"/>
       <c r="U30" s="17"/>
@@ -20724,37 +20742,37 @@
       <c r="AE30" s="17"/>
       <c r="AF30" s="48"/>
       <c r="AG30" s="54" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="AH30" s="17" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="AI30" s="21">
         <v>51500</v>
       </c>
       <c r="AJ30" s="46" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="AK30" s="23" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="AL30" s="23" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="AM30" s="23"/>
       <c r="AN30" s="45" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AO30" s="17" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="AP30" s="17" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AQ30" s="17"/>
       <c r="AR30" s="48"/>
       <c r="AS30" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AT30" s="1">
         <f>RANK(BL30,$BL$3:$BL$122)+COUNTIF(BL$3:BL30,BL30)-1</f>
@@ -20862,7 +20880,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D31" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20885,16 +20903,16 @@
       <c r="S31" s="17"/>
       <c r="T31" s="17"/>
       <c r="U31" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V31" s="17" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="W31" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="X31" s="17" t="s">
         <v>546</v>
-      </c>
-      <c r="X31" s="17" t="s">
-        <v>549</v>
       </c>
       <c r="Y31" s="17"/>
       <c r="Z31" s="17"/>
@@ -20908,7 +20926,7 @@
         <v>56</v>
       </c>
       <c r="AH31" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AI31" s="41">
         <v>51053</v>
@@ -20917,10 +20935,10 @@
         <v>58</v>
       </c>
       <c r="AK31" s="23" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="AL31" s="23" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="AM31" s="23"/>
       <c r="AN31" s="25"/>
@@ -20929,13 +20947,13 @@
       </c>
       <c r="AP31" s="17"/>
       <c r="AQ31" s="11" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AR31" s="23" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AS31" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AT31" s="1">
         <f>RANK(BL31,$BL$3:$BL$122)+COUNTIF(BL$3:BL31,BL31)-1</f>
@@ -21040,10 +21058,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D32" s="73" t="str">
         <f t="shared" si="0"/>
@@ -21066,13 +21084,13 @@
       <c r="S32" s="17"/>
       <c r="T32" s="17"/>
       <c r="U32" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="V32" s="17" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="W32" s="17" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="X32" s="17"/>
       <c r="Y32" s="17"/>
@@ -21084,7 +21102,7 @@
       <c r="AE32" s="17"/>
       <c r="AF32" s="17"/>
       <c r="AG32" s="11" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AH32" s="11" t="s">
         <v>69</v>
@@ -21093,17 +21111,19 @@
         <v>51100</v>
       </c>
       <c r="AJ32" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK32" s="53" t="s">
-        <v>528</v>
-      </c>
-      <c r="AL32" s="53"/>
+        <v>1303</v>
+      </c>
+      <c r="AL32" s="53" t="s">
+        <v>1302</v>
+      </c>
       <c r="AM32" s="23" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AN32" s="25" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="AO32" s="17"/>
       <c r="AP32" s="17"/>
@@ -21210,11 +21230,11 @@
     </row>
     <row r="33" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D33" s="73" t="str">
         <f t="shared" si="0"/>
@@ -21237,13 +21257,13 @@
       <c r="S33" s="15"/>
       <c r="T33" s="15"/>
       <c r="U33" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V33" s="17" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="W33" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="X33" s="15"/>
       <c r="Y33" s="15"/>
@@ -21255,34 +21275,36 @@
       <c r="AE33" s="17"/>
       <c r="AF33" s="15"/>
       <c r="AG33" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AH33" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI33" s="21">
         <v>51100</v>
       </c>
       <c r="AJ33" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK33" s="23" t="s">
+        <v>1305</v>
+      </c>
+      <c r="AL33" s="23" t="s">
+        <v>1304</v>
+      </c>
+      <c r="AM33" s="23" t="s">
         <v>431</v>
-      </c>
-      <c r="AK33" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="AL33" s="23"/>
-      <c r="AM33" s="23" t="s">
-        <v>433</v>
       </c>
       <c r="AN33" s="30"/>
       <c r="AO33" s="15" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="AP33" s="24"/>
       <c r="AQ33" s="17" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="AR33" s="23" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="AS33" s="26"/>
       <c r="AT33" s="1">
@@ -21388,7 +21410,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>1</v>
@@ -21419,25 +21441,25 @@
       <c r="X34" s="17"/>
       <c r="Y34" s="17"/>
       <c r="Z34" s="17" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="AA34" s="17" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="AB34" s="17"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="17" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="AE34" s="17" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="AF34" s="17"/>
       <c r="AG34" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AH34" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AI34" s="41">
         <v>10160</v>
@@ -21446,13 +21468,15 @@
         <v>78</v>
       </c>
       <c r="AK34" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL34" s="23"/>
+        <v>1307</v>
+      </c>
+      <c r="AL34" s="23" t="s">
+        <v>1306</v>
+      </c>
       <c r="AM34" s="23"/>
       <c r="AN34" s="25"/>
       <c r="AO34" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AP34" s="17" t="s">
         <v>2</v>
@@ -21572,7 +21596,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="69" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="D35" s="73" t="str">
         <f t="shared" ref="D35:D66" si="19">IF(AX35&lt;&gt;0,"2020_A="&amp;AX35," ")&amp;IF(AY35&lt;&gt;0," ; 2020_i="&amp;AY35," ")&amp;IF(AZ35&lt;&gt;0,"2019_A="&amp;AZ35," ")&amp;IF(BA35&lt;&gt;0," ; 2019_i="&amp;BA35," ")&amp;IF(BB35&lt;&gt;0,"2018_A="&amp;BB35," ")&amp;IF(BC35&lt;&gt;0," ; 2018_i="&amp;BC35," ")&amp;IF(BD35&lt;&gt;0," ; 2017_A="&amp;BD35," ")&amp;IF(BE35&lt;&gt;0," ; 2017_i="&amp;BE35," ")&amp;IF(BF35&lt;&gt;0," ; 2016_A="&amp;BF35," ")&amp;IF(BG35&lt;&gt;0," ; 2016_i="&amp;BG35," ")&amp;IF(BH35&lt;&gt;0," ; 2015_A="&amp;BH35," ")&amp;IF(BI35&lt;&gt;0," ; 2015_i="&amp;BI35," ")&amp;IF(BJ35&lt;&gt;0," ; 2014_A="&amp;BJ35," ")&amp;IF(BK35&lt;&gt;0," ; 2014_i="&amp;BK35," ")</f>
@@ -21599,41 +21623,45 @@
       <c r="W35" s="69"/>
       <c r="X35" s="84"/>
       <c r="Y35" s="69" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="Z35" s="69" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="AA35" s="69" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="AB35" s="84"/>
       <c r="AC35" s="69" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="AD35" s="69" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="AE35" s="69" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="AF35" s="84"/>
       <c r="AG35" s="105" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="AH35" s="69" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="AI35" s="86">
         <v>10700</v>
       </c>
       <c r="AJ35" s="69" t="s">
-        <v>1072</v>
-      </c>
-      <c r="AK35" s="84"/>
-      <c r="AL35" s="84"/>
+        <v>1069</v>
+      </c>
+      <c r="AK35" s="23" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AL35" s="23" t="s">
+        <v>1308</v>
+      </c>
       <c r="AM35" s="69" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="AN35" s="90"/>
       <c r="AO35" s="84"/>
@@ -21746,10 +21774,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="100" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C36" s="69" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="D36" s="73" t="str">
         <f t="shared" si="19"/>
@@ -21777,36 +21805,40 @@
       <c r="X36" s="84"/>
       <c r="Y36" s="84"/>
       <c r="Z36" s="69" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="AA36" s="69" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="AB36" s="84"/>
       <c r="AC36" s="69"/>
       <c r="AD36" s="69" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="AE36" s="69" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="AF36" s="84"/>
       <c r="AG36" s="105" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="AH36" s="69" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="AI36" s="86">
         <v>45550</v>
       </c>
       <c r="AJ36" s="69" t="s">
-        <v>1084</v>
-      </c>
-      <c r="AK36" s="84"/>
-      <c r="AL36" s="84"/>
+        <v>1081</v>
+      </c>
+      <c r="AK36" s="22" t="s">
+        <v>1310</v>
+      </c>
+      <c r="AL36" s="23" t="s">
+        <v>1309</v>
+      </c>
       <c r="AM36" s="69" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="AN36" s="90"/>
       <c r="AO36" s="84"/>
@@ -21919,10 +21951,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>399</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>400</v>
       </c>
       <c r="D37" s="73" t="str">
         <f t="shared" si="19"/>
@@ -21953,35 +21985,35 @@
       <c r="AA37" s="15"/>
       <c r="AB37" s="15"/>
       <c r="AC37" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD37" s="17" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="AE37" s="17" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AF37" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="AG37" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="AG37" s="17" t="s">
+      <c r="AH37" s="17" t="s">
         <v>402</v>
-      </c>
-      <c r="AH37" s="17" t="s">
-        <v>403</v>
       </c>
       <c r="AI37" s="21">
         <v>8000</v>
       </c>
       <c r="AJ37" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="AK37" s="22" t="s">
         <v>404</v>
-      </c>
-      <c r="AK37" s="22" t="s">
-        <v>405</v>
       </c>
       <c r="AL37" s="22"/>
       <c r="AM37" s="23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AN37" s="30"/>
       <c r="AO37" s="26"/>
@@ -22092,10 +22124,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>308</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>309</v>
       </c>
       <c r="D38" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22126,33 +22158,33 @@
       <c r="AA38" s="15"/>
       <c r="AB38" s="15"/>
       <c r="AC38" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD38" s="17" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="AE38" s="17" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="AF38" s="15"/>
       <c r="AG38" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="AH38" s="17" t="s">
         <v>310</v>
-      </c>
-      <c r="AH38" s="17" t="s">
-        <v>311</v>
       </c>
       <c r="AI38" s="21">
         <v>8300</v>
       </c>
       <c r="AJ38" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="AK38" s="22" t="s">
         <v>313</v>
-      </c>
-      <c r="AK38" s="22" t="s">
-        <v>314</v>
       </c>
       <c r="AL38" s="22"/>
       <c r="AM38" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AN38" s="30"/>
       <c r="AO38" s="26"/>
@@ -22160,7 +22192,7 @@
       <c r="AQ38" s="26"/>
       <c r="AR38" s="26"/>
       <c r="AS38" s="48" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="AT38" s="1">
         <f>RANK(BL38,$BL$3:$BL$122)+COUNTIF(BL$3:BL38,BL38)-1</f>
@@ -22262,13 +22294,13 @@
     </row>
     <row r="39" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D39" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22299,45 +22331,45 @@
       <c r="AA39" s="15"/>
       <c r="AB39" s="15"/>
       <c r="AC39" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD39" s="17" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="AE39" s="17" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AF39" s="15" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AG39" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="AH39" s="17" t="s">
         <v>376</v>
-      </c>
-      <c r="AH39" s="17" t="s">
-        <v>377</v>
       </c>
       <c r="AI39" s="21">
         <v>51096</v>
       </c>
       <c r="AJ39" s="15"/>
       <c r="AK39" s="23" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="AL39" s="23"/>
       <c r="AM39" s="17"/>
       <c r="AN39" s="25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AO39" s="26"/>
       <c r="AP39" s="24"/>
       <c r="AQ39" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="AR39" s="42" t="s">
         <v>379</v>
       </c>
-      <c r="AR39" s="42" t="s">
-        <v>380</v>
-      </c>
       <c r="AS39" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AT39" s="1">
         <f>RANK(BL39,$BL$3:$BL$122)+COUNTIF(BL$3:BL39,BL39)-1</f>
@@ -22482,53 +22514,53 @@
       <c r="AA40" s="17"/>
       <c r="AB40" s="17"/>
       <c r="AC40" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD40" s="17" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="AE40" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF40" s="17" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AG40" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AH40" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI40" s="41">
         <v>51110</v>
       </c>
       <c r="AJ40" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AK40" s="23" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AL40" s="23"/>
       <c r="AM40" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="AN40" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO40" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="AN40" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO40" s="17" t="s">
+      <c r="AP40" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ40" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AP40" s="17" t="s">
+      <c r="AR40" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="AQ40" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="AR40" s="11" t="s">
-        <v>467</v>
-      </c>
       <c r="AS40" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AT40" s="1">
         <f>RANK(BL40,$BL$3:$BL$122)+COUNTIF(BL$3:BL40,BL40)-1</f>
@@ -22633,10 +22665,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>407</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>408</v>
       </c>
       <c r="D41" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22667,22 +22699,22 @@
       <c r="AA41" s="15"/>
       <c r="AB41" s="15"/>
       <c r="AC41" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD41" s="17" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="AE41" s="17" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AF41" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="AG41" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="AG41" s="17" t="s">
-        <v>410</v>
-      </c>
       <c r="AH41" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AI41" s="21">
         <v>51530</v>
@@ -22691,11 +22723,11 @@
         <v>44</v>
       </c>
       <c r="AK41" s="22" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AL41" s="22"/>
       <c r="AM41" s="23" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AN41" s="30"/>
       <c r="AO41" s="26"/>
@@ -22703,7 +22735,7 @@
       <c r="AQ41" s="26"/>
       <c r="AR41" s="26"/>
       <c r="AS41" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AT41" s="1">
         <f>RANK(BL41,$BL$3:$BL$122)+COUNTIF(BL$3:BL41,BL41)-1</f>
@@ -22805,11 +22837,11 @@
     </row>
     <row r="42" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D42" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22840,48 +22872,48 @@
       <c r="AA42" s="15"/>
       <c r="AB42" s="15"/>
       <c r="AC42" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD42" s="17" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="AE42" s="17" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AF42" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AG42" s="17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AH42" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AI42" s="21">
         <v>51686</v>
       </c>
       <c r="AJ42" s="28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AK42" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AL42" s="22"/>
       <c r="AM42" s="23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AN42" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AO42" s="17" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="AP42" s="24"/>
       <c r="AQ42" s="25" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AR42" s="42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AS42" s="26"/>
       <c r="AT42" s="1">
@@ -22987,10 +23019,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D43" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23021,38 +23053,38 @@
       <c r="AA43" s="15"/>
       <c r="AB43" s="15"/>
       <c r="AC43" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="AD43" s="17" t="s">
+        <v>1201</v>
+      </c>
+      <c r="AE43" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="AF43" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="AD43" s="17" t="s">
-        <v>1204</v>
-      </c>
-      <c r="AE43" s="17" t="s">
-        <v>550</v>
-      </c>
-      <c r="AF43" s="15" t="s">
-        <v>398</v>
-      </c>
       <c r="AG43" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AH43" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AI43" s="41">
         <v>67200</v>
       </c>
       <c r="AJ43" s="28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AK43" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AL43" s="22"/>
       <c r="AM43" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AN43" s="17" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="AO43" s="17"/>
       <c r="AP43" s="17"/>
@@ -23061,7 +23093,7 @@
       </c>
       <c r="AR43" s="26"/>
       <c r="AS43" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AT43" s="1">
         <f>RANK(BL43,$BL$3:$BL$122)+COUNTIF(BL$3:BL43,BL43)-1</f>
@@ -23166,10 +23198,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>415</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>416</v>
       </c>
       <c r="D44" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23200,35 +23232,35 @@
       <c r="AA44" s="15"/>
       <c r="AB44" s="15"/>
       <c r="AC44" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD44" s="17" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="AE44" s="17" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AF44" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="AG44" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="AH44" s="17" t="s">
         <v>417</v>
-      </c>
-      <c r="AG44" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="AH44" s="17" t="s">
-        <v>418</v>
       </c>
       <c r="AI44" s="21">
         <v>77440</v>
       </c>
       <c r="AJ44" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="AK44" s="22" t="s">
         <v>420</v>
-      </c>
-      <c r="AK44" s="22" t="s">
-        <v>421</v>
       </c>
       <c r="AL44" s="22"/>
       <c r="AM44" s="23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AN44" s="30"/>
       <c r="AO44" s="26"/>
@@ -23342,7 +23374,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D45" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23373,46 +23405,46 @@
       <c r="AA45" s="17"/>
       <c r="AB45" s="17"/>
       <c r="AC45" s="17" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="AD45" s="17" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="AE45" s="17" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="AF45" s="17"/>
       <c r="AG45" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH45" s="11" t="s">
         <v>174</v>
-      </c>
-      <c r="AH45" s="11" t="s">
-        <v>175</v>
       </c>
       <c r="AI45" s="41">
         <v>51230</v>
       </c>
       <c r="AJ45" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK45" s="23" t="s">
         <v>94</v>
-      </c>
-      <c r="AK45" s="23" t="s">
-        <v>95</v>
       </c>
       <c r="AL45" s="23"/>
       <c r="AM45" s="23"/>
       <c r="AN45" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO45" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="AO45" s="17" t="s">
-        <v>97</v>
-      </c>
       <c r="AP45" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AQ45" s="25" t="s">
         <v>5</v>
       </c>
       <c r="AR45" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS45" s="25"/>
       <c r="AT45" s="1">
@@ -23518,10 +23550,10 @@
         <v>0</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D46" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23553,26 +23585,26 @@
       <c r="AB46" s="30"/>
       <c r="AC46" s="17"/>
       <c r="AD46" s="17" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="AE46" s="17" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="AF46" s="30"/>
       <c r="AG46" s="17" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="AH46" s="17" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="AI46" s="21">
         <v>45110</v>
       </c>
       <c r="AJ46" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AK46" s="58" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="AL46" s="58"/>
       <c r="AM46" s="17"/>
@@ -23685,10 +23717,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D47" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23723,28 +23755,28 @@
       <c r="AE47" s="17"/>
       <c r="AF47" s="17"/>
       <c r="AG47" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AH47" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AI47" s="41">
         <v>2220</v>
       </c>
       <c r="AJ47" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK47" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="AK47" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="AL47" s="23"/>
       <c r="AM47" s="23"/>
       <c r="AN47" s="25"/>
       <c r="AO47" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP47" s="17" t="s">
         <v>111</v>
-      </c>
-      <c r="AP47" s="17" t="s">
-        <v>112</v>
       </c>
       <c r="AQ47" s="25"/>
       <c r="AR47" s="42" t="s">
@@ -23852,7 +23884,7 @@
         <v>0</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>6</v>
@@ -23890,19 +23922,19 @@
       <c r="AE48" s="17"/>
       <c r="AF48" s="17"/>
       <c r="AG48" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH48" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI48" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="AH48" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI48" s="43" t="s">
-        <v>178</v>
-      </c>
       <c r="AJ48" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK48" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AL48" s="23"/>
       <c r="AM48" s="23"/>
@@ -23911,7 +23943,7 @@
       <c r="AP48" s="17"/>
       <c r="AQ48" s="25"/>
       <c r="AR48" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS48" s="25"/>
       <c r="AT48" s="1">
@@ -24015,10 +24047,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="17" t="s">
         <v>136</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>137</v>
       </c>
       <c r="D49" s="73" t="str">
         <f t="shared" si="19"/>
@@ -24053,23 +24085,23 @@
       <c r="AE49" s="17"/>
       <c r="AF49" s="17"/>
       <c r="AG49" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH49" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AH49" s="11" t="s">
-        <v>199</v>
-      </c>
       <c r="AI49" s="43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AJ49" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK49" s="23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AL49" s="23"/>
       <c r="AM49" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AN49" s="25"/>
       <c r="AO49" s="17"/>
@@ -24178,7 +24210,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>34</v>
@@ -24216,28 +24248,28 @@
       <c r="AE50" s="17"/>
       <c r="AF50" s="17"/>
       <c r="AG50" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH50" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AH50" s="11" t="s">
-        <v>199</v>
-      </c>
       <c r="AI50" s="43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AJ50" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AK50" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AL50" s="23"/>
       <c r="AM50" s="23"/>
       <c r="AN50" s="25"/>
       <c r="AO50" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP50" s="17" t="s">
         <v>154</v>
-      </c>
-      <c r="AP50" s="17" t="s">
-        <v>155</v>
       </c>
       <c r="AQ50" s="44" t="s">
         <v>35</v>
@@ -24347,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D51" s="73" t="str">
         <f t="shared" si="19"/>
@@ -24385,35 +24417,35 @@
       <c r="AE51" s="17"/>
       <c r="AF51" s="17"/>
       <c r="AG51" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH51" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="AH51" s="11" t="s">
-        <v>186</v>
       </c>
       <c r="AI51" s="41">
         <v>8150</v>
       </c>
       <c r="AJ51" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AK51" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AL51" s="23"/>
       <c r="AM51" s="23"/>
       <c r="AN51" s="25"/>
       <c r="AO51" s="17" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AP51" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AQ51" s="25"/>
       <c r="AR51" s="23" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AS51" s="25" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AT51" s="1">
         <f>RANK(BL51,$BL$3:$BL$122)+COUNTIF(BL$3:BL51,BL51)-1</f>
@@ -24516,7 +24548,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>68</v>
@@ -24554,36 +24586,36 @@
       <c r="AE52" s="17"/>
       <c r="AF52" s="15"/>
       <c r="AG52" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="AH52" s="17" t="s">
         <v>300</v>
-      </c>
-      <c r="AH52" s="17" t="s">
-        <v>301</v>
       </c>
       <c r="AI52" s="41">
         <v>8430</v>
       </c>
       <c r="AJ52" s="28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AK52" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AL52" s="22"/>
       <c r="AM52" s="23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AN52" s="49"/>
       <c r="AO52" s="17" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="AP52" s="17" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="AQ52" s="23" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="AR52" s="42" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="AS52" s="26"/>
       <c r="AT52" s="1">
@@ -24687,7 +24719,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>38</v>
@@ -24725,24 +24757,24 @@
       <c r="AE53" s="17"/>
       <c r="AF53" s="17"/>
       <c r="AG53" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH53" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="AH53" s="11" t="s">
-        <v>208</v>
       </c>
       <c r="AI53" s="41">
         <v>10800</v>
       </c>
       <c r="AJ53" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AK53" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AL53" s="23"/>
       <c r="AM53" s="23"/>
       <c r="AN53" s="25" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AO53" s="17"/>
       <c r="AP53" s="17"/>
@@ -24850,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>26</v>
@@ -24888,19 +24920,19 @@
       <c r="AE54" s="17"/>
       <c r="AF54" s="17"/>
       <c r="AG54" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AH54" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI54" s="41">
         <v>51100</v>
       </c>
       <c r="AJ54" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AK54" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL54" s="23"/>
       <c r="AM54" s="23"/>
@@ -25011,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>27</v>
@@ -25049,37 +25081,37 @@
       <c r="AE55" s="17"/>
       <c r="AF55" s="17"/>
       <c r="AG55" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AH55" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI55" s="41">
         <v>51100</v>
       </c>
       <c r="AJ55" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AK55" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL55" s="23"/>
       <c r="AM55" s="23"/>
       <c r="AN55" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AO55" s="17" t="s">
         <v>28</v>
       </c>
       <c r="AP55" s="17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AQ55" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AR55" s="11"/>
       <c r="AS55" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AT55" s="1">
         <f>RANK(BL55,$BL$3:$BL$122)+COUNTIF(BL$3:BL55,BL55)-1</f>
@@ -25220,32 +25252,32 @@
       <c r="AE56" s="17"/>
       <c r="AF56" s="17"/>
       <c r="AG56" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AH56" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI56" s="41">
         <v>51100</v>
       </c>
       <c r="AJ56" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AK56" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AL56" s="23"/>
       <c r="AM56" s="23"/>
       <c r="AN56" s="25"/>
       <c r="AO56" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AP56" s="17"/>
       <c r="AQ56" s="44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AR56" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AS56" s="25"/>
       <c r="AT56" s="1">
@@ -25349,10 +25381,10 @@
         <v>0</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D57" s="73" t="str">
         <f t="shared" si="19"/>
@@ -25387,10 +25419,10 @@
       <c r="AE57" s="17"/>
       <c r="AF57" s="17"/>
       <c r="AG57" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH57" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI57" s="41">
         <v>51110</v>
@@ -25399,25 +25431,25 @@
         <v>33</v>
       </c>
       <c r="AK57" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL57" s="23"/>
       <c r="AM57" s="23"/>
       <c r="AN57" s="25"/>
       <c r="AO57" s="17" t="s">
+        <v>1221</v>
+      </c>
+      <c r="AP57" s="17" t="s">
+        <v>1222</v>
+      </c>
+      <c r="AQ57" s="11" t="s">
+        <v>1223</v>
+      </c>
+      <c r="AR57" s="50" t="s">
         <v>1224</v>
       </c>
-      <c r="AP57" s="17" t="s">
+      <c r="AS57" s="11" t="s">
         <v>1225</v>
-      </c>
-      <c r="AQ57" s="11" t="s">
-        <v>1226</v>
-      </c>
-      <c r="AR57" s="50" t="s">
-        <v>1227</v>
-      </c>
-      <c r="AS57" s="11" t="s">
-        <v>1228</v>
       </c>
       <c r="AT57" s="1">
         <f>RANK(BL57,$BL$3:$BL$122)+COUNTIF(BL$3:BL57,BL57)-1</f>
@@ -25558,26 +25590,26 @@
       <c r="AE58" s="17"/>
       <c r="AF58" s="17"/>
       <c r="AG58" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH58" s="11" t="s">
         <v>236</v>
-      </c>
-      <c r="AH58" s="11" t="s">
-        <v>237</v>
       </c>
       <c r="AI58" s="41">
         <v>51130</v>
       </c>
       <c r="AJ58" s="28"/>
       <c r="AK58" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL58" s="23"/>
       <c r="AM58" s="23"/>
       <c r="AN58" s="25"/>
       <c r="AO58" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AP58" s="17" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="AQ58" s="44" t="s">
         <v>55</v>
@@ -25685,7 +25717,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>63</v>
@@ -25723,28 +25755,28 @@
       <c r="AE59" s="17"/>
       <c r="AF59" s="17"/>
       <c r="AG59" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH59" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="AH59" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="AI59" s="41">
         <v>51160</v>
       </c>
       <c r="AJ59" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK59" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AL59" s="23"/>
       <c r="AM59" s="23"/>
       <c r="AN59" s="25"/>
       <c r="AO59" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AP59" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AQ59" s="44"/>
       <c r="AR59" s="23" t="s">
@@ -25890,19 +25922,19 @@
       <c r="AE60" s="17"/>
       <c r="AF60" s="17"/>
       <c r="AG60" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH60" s="11" t="s">
         <v>188</v>
-      </c>
-      <c r="AH60" s="11" t="s">
-        <v>189</v>
       </c>
       <c r="AI60" s="41">
         <v>51190</v>
       </c>
       <c r="AJ60" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK60" s="23" t="s">
         <v>118</v>
-      </c>
-      <c r="AK60" s="23" t="s">
-        <v>119</v>
       </c>
       <c r="AL60" s="23"/>
       <c r="AM60" s="23"/>
@@ -26051,10 +26083,10 @@
       <c r="AE61" s="17"/>
       <c r="AF61" s="17"/>
       <c r="AG61" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AH61" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AI61" s="41">
         <v>51200</v>
@@ -26063,7 +26095,7 @@
         <v>53</v>
       </c>
       <c r="AK61" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AL61" s="23"/>
       <c r="AM61" s="23"/>
@@ -26177,7 +26209,7 @@
         <v>17</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D62" s="73" t="str">
         <f t="shared" si="19"/>
@@ -26215,7 +26247,7 @@
         <v>49</v>
       </c>
       <c r="AH62" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AI62" s="41">
         <v>51204</v>
@@ -26224,7 +26256,7 @@
         <v>50</v>
       </c>
       <c r="AK62" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AL62" s="23"/>
       <c r="AM62" s="23"/>
@@ -26337,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C63" s="17" t="s">
         <v>30</v>
@@ -26375,30 +26407,30 @@
       <c r="AE63" s="17"/>
       <c r="AF63" s="17"/>
       <c r="AG63" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH63" s="11" t="s">
         <v>200</v>
-      </c>
-      <c r="AH63" s="11" t="s">
-        <v>201</v>
       </c>
       <c r="AI63" s="41">
         <v>51300</v>
       </c>
       <c r="AJ63" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK63" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL63" s="23"/>
       <c r="AM63" s="23"/>
       <c r="AN63" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AO63" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AP63" s="17" t="s">
         <v>141</v>
-      </c>
-      <c r="AP63" s="17" t="s">
-        <v>142</v>
       </c>
       <c r="AQ63" s="25" t="s">
         <v>31</v>
@@ -26407,7 +26439,7 @@
         <v>32</v>
       </c>
       <c r="AS63" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AT63" s="1">
         <f>RANK(BL63,$BL$3:$BL$122)+COUNTIF(BL$3:BL63,BL63)-1</f>
@@ -26513,7 +26545,7 @@
         <v>17</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D64" s="73" t="str">
         <f t="shared" si="19"/>
@@ -26551,7 +26583,7 @@
         <v>59</v>
       </c>
       <c r="AH64" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AI64" s="41">
         <v>51420</v>
@@ -26560,11 +26592,11 @@
         <v>61</v>
       </c>
       <c r="AK64" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AL64" s="23"/>
       <c r="AM64" s="23" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AN64" s="25" t="s">
         <v>60</v>
@@ -26578,7 +26610,7 @@
         <v>62</v>
       </c>
       <c r="AS64" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AT64" s="1">
         <f>RANK(BL64,$BL$3:$BL$122)+COUNTIF(BL$3:BL64,BL64)-1</f>
@@ -26681,10 +26713,10 @@
         <v>0</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="D65" s="73" t="str">
         <f t="shared" si="19"/>
@@ -26719,39 +26751,39 @@
       <c r="AE65" s="17"/>
       <c r="AF65" s="17"/>
       <c r="AG65" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AH65" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AI65" s="41">
         <v>51500</v>
       </c>
       <c r="AJ65" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AK65" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AL65" s="23"/>
       <c r="AM65" s="23"/>
       <c r="AN65" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO65" s="17" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AP65" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ65" s="25" t="s">
         <v>3</v>
       </c>
       <c r="AR65" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AS65" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AT65" s="1">
         <f>RANK(BL65,$BL$3:$BL$122)+COUNTIF(BL$3:BL65,BL65)-1</f>
@@ -26854,7 +26886,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C66" s="17" t="s">
         <v>39</v>
@@ -26895,21 +26927,21 @@
         <v>40</v>
       </c>
       <c r="AH66" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AI66" s="41">
         <v>51510</v>
       </c>
       <c r="AJ66" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AK66" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AL66" s="23"/>
       <c r="AM66" s="23"/>
       <c r="AN66" s="25" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AO66" s="17"/>
       <c r="AP66" s="17"/>
@@ -27022,7 +27054,7 @@
         <v>17</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D67" s="73" t="str">
         <f t="shared" ref="D67:D98" si="38">IF(AX67&lt;&gt;0,"2020_A="&amp;AX67," ")&amp;IF(AY67&lt;&gt;0," ; 2020_i="&amp;AY67," ")&amp;IF(AZ67&lt;&gt;0,"2019_A="&amp;AZ67," ")&amp;IF(BA67&lt;&gt;0," ; 2019_i="&amp;BA67," ")&amp;IF(BB67&lt;&gt;0,"2018_A="&amp;BB67," ")&amp;IF(BC67&lt;&gt;0," ; 2018_i="&amp;BC67," ")&amp;IF(BD67&lt;&gt;0," ; 2017_A="&amp;BD67," ")&amp;IF(BE67&lt;&gt;0," ; 2017_i="&amp;BE67," ")&amp;IF(BF67&lt;&gt;0," ; 2016_A="&amp;BF67," ")&amp;IF(BG67&lt;&gt;0," ; 2016_i="&amp;BG67," ")&amp;IF(BH67&lt;&gt;0," ; 2015_A="&amp;BH67," ")&amp;IF(BI67&lt;&gt;0," ; 2015_i="&amp;BI67," ")&amp;IF(BJ67&lt;&gt;0," ; 2014_A="&amp;BJ67," ")&amp;IF(BK67&lt;&gt;0," ; 2014_i="&amp;BK67," ")</f>
@@ -27057,33 +27089,33 @@
       <c r="AE67" s="17"/>
       <c r="AF67" s="17"/>
       <c r="AG67" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AH67" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AI67" s="41">
         <v>51689</v>
       </c>
       <c r="AJ67" s="28"/>
       <c r="AK67" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL67" s="23"/>
       <c r="AM67" s="23"/>
       <c r="AN67" s="25"/>
       <c r="AO67" s="17" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AP67" s="17" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="AQ67" s="44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AR67" s="11"/>
       <c r="AS67" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AT67" s="1">
         <f>RANK(BL67,$BL$3:$BL$122)+COUNTIF(BL$3:BL67,BL67)-1</f>
@@ -27186,7 +27218,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C68" s="17" t="s">
         <v>66</v>
@@ -27224,23 +27256,23 @@
       <c r="AE68" s="17"/>
       <c r="AF68" s="17"/>
       <c r="AG68" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH68" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AI68" s="41">
         <v>55190</v>
       </c>
       <c r="AJ68" s="28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AK68" s="23" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="AL68" s="23"/>
       <c r="AM68" s="23" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="AN68" s="25"/>
       <c r="AO68" s="17"/>
@@ -27349,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C69" s="17" t="s">
         <v>10</v>
@@ -27387,28 +27419,28 @@
       <c r="AE69" s="17"/>
       <c r="AF69" s="17"/>
       <c r="AG69" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AH69" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AI69" s="41">
         <v>55290</v>
       </c>
       <c r="AJ69" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK69" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AL69" s="23"/>
       <c r="AM69" s="23"/>
       <c r="AN69" s="25"/>
       <c r="AO69" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP69" s="17" t="s">
         <v>107</v>
-      </c>
-      <c r="AP69" s="17" t="s">
-        <v>108</v>
       </c>
       <c r="AQ69" s="25" t="s">
         <v>11</v>
@@ -27518,7 +27550,7 @@
         <v>0</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C70" s="17" t="s">
         <v>42</v>
@@ -27559,7 +27591,7 @@
         <v>43</v>
       </c>
       <c r="AH70" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AI70" s="41">
         <v>59700</v>
@@ -27568,7 +27600,7 @@
         <v>320816100</v>
       </c>
       <c r="AK70" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL70" s="23"/>
       <c r="AM70" s="23"/>
@@ -27679,7 +27711,7 @@
         <v>0</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>67</v>
@@ -27717,31 +27749,31 @@
       <c r="AE71" s="17"/>
       <c r="AF71" s="15"/>
       <c r="AG71" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AH71" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AI71" s="41">
         <v>60890</v>
       </c>
       <c r="AJ71" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AK71" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AL71" s="22"/>
       <c r="AM71" s="23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AN71" s="30"/>
       <c r="AO71" s="17" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="AP71" s="24"/>
       <c r="AQ71" s="17" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="AR71" s="26"/>
       <c r="AS71" s="26"/>
@@ -27846,10 +27878,10 @@
         <v>0</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D72" s="73" t="str">
         <f t="shared" si="38"/>
@@ -27884,24 +27916,24 @@
       <c r="AE72" s="17"/>
       <c r="AF72" s="17"/>
       <c r="AG72" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH72" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="AH72" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="AI72" s="41">
         <v>67520</v>
       </c>
       <c r="AJ72" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK72" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AL72" s="23"/>
       <c r="AM72" s="23"/>
       <c r="AN72" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AO72" s="17"/>
       <c r="AP72" s="17"/>
@@ -28009,10 +28041,10 @@
         <v>0</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D73" s="73" t="str">
         <f t="shared" si="38"/>
@@ -28047,33 +28079,33 @@
       <c r="AE73" s="17"/>
       <c r="AF73" s="48"/>
       <c r="AG73" s="54" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="AH73" s="17" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="AI73" s="21">
         <v>77510</v>
       </c>
       <c r="AJ73" s="46" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="AK73" s="23" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="AL73" s="23"/>
       <c r="AM73" s="23" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AN73" s="45"/>
       <c r="AO73" s="48" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AP73" s="17" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="AQ73" s="17" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="AR73" s="48"/>
       <c r="AS73" s="48"/>
@@ -28178,7 +28210,7 @@
         <v>0</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>37</v>
@@ -28216,31 +28248,31 @@
       <c r="AE74" s="17"/>
       <c r="AF74" s="17"/>
       <c r="AG74" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH74" s="11" t="s">
         <v>205</v>
-      </c>
-      <c r="AH74" s="11" t="s">
-        <v>206</v>
       </c>
       <c r="AI74" s="41">
         <v>80600</v>
       </c>
       <c r="AJ74" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AK74" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL74" s="23"/>
       <c r="AM74" s="23"/>
       <c r="AN74" s="25"/>
       <c r="AO74" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP74" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="AP74" s="17" t="s">
-        <v>161</v>
-      </c>
       <c r="AQ74" s="44" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AR74" s="11"/>
       <c r="AS74" s="25"/>
@@ -28345,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C75" s="17" t="s">
         <v>7</v>
@@ -28383,10 +28415,10 @@
       <c r="AE75" s="17"/>
       <c r="AF75" s="17"/>
       <c r="AG75" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AH75" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AI75" s="41">
         <v>89470</v>
@@ -28395,18 +28427,18 @@
         <v>8</v>
       </c>
       <c r="AK75" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AL75" s="23"/>
       <c r="AM75" s="23"/>
       <c r="AN75" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AO75" s="17" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="AP75" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AQ75" s="25" t="s">
         <v>8</v>
@@ -28519,7 +28551,7 @@
         <v>17</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D76" s="73" t="str">
         <f t="shared" si="38"/>
@@ -28554,30 +28586,30 @@
       <c r="AE76" s="17"/>
       <c r="AF76" s="15"/>
       <c r="AG76" s="11" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="AH76" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI76" s="21">
         <v>51100</v>
       </c>
       <c r="AJ76" s="28" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AK76" s="22" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AL76" s="22"/>
       <c r="AM76" s="23" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="AN76" s="30"/>
       <c r="AO76" s="17" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AP76" s="17" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="AQ76" s="26"/>
       <c r="AR76" s="26"/>
@@ -28686,7 +28718,7 @@
         <v>17</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D77" s="73" t="str">
         <f t="shared" si="38"/>
@@ -28721,37 +28753,37 @@
       <c r="AE77" s="17"/>
       <c r="AF77" s="15"/>
       <c r="AG77" s="11" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AH77" s="17" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AI77" s="21">
         <v>51200</v>
       </c>
       <c r="AJ77" s="28" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="AK77" s="56" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AL77" s="56"/>
       <c r="AM77" s="23" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AN77" s="30"/>
       <c r="AO77" s="17" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="AP77" s="48"/>
       <c r="AQ77" s="25" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AR77" s="23" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AS77" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AT77" s="1">
         <f>RANK(BL77,$BL$3:$BL$122)+COUNTIF(BL$3:BL77,BL77)-1</f>
@@ -28857,7 +28889,7 @@
         <v>17</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D78" s="73" t="str">
         <f t="shared" si="38"/>
@@ -28892,34 +28924,34 @@
       <c r="AE78" s="17"/>
       <c r="AF78" s="15"/>
       <c r="AG78" s="11" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="AH78" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AI78" s="21">
         <v>10110</v>
       </c>
       <c r="AJ78" s="28" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="AK78" s="56" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="AL78" s="56"/>
       <c r="AM78" s="23" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AN78" s="30"/>
       <c r="AO78" s="17" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="AP78" s="48"/>
       <c r="AQ78" s="25" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AR78" s="23" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AS78" s="25"/>
       <c r="AT78" s="1">
@@ -29026,7 +29058,7 @@
         <v>17</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D79" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29061,36 +29093,36 @@
       <c r="AE79" s="17"/>
       <c r="AF79" s="15"/>
       <c r="AG79" s="11" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="AH79" s="17" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AI79" s="21">
         <v>51530</v>
       </c>
       <c r="AJ79" s="28" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="AK79" s="56" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AL79" s="56"/>
       <c r="AM79" s="23" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AN79" s="30"/>
       <c r="AO79" s="17" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="AP79" s="17" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AQ79" s="25" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="AR79" s="23" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="AS79" s="25"/>
       <c r="AT79" s="1">
@@ -29191,13 +29223,13 @@
     </row>
     <row r="80" spans="1:80" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D80" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29232,30 +29264,30 @@
       <c r="AE80" s="17"/>
       <c r="AF80" s="15"/>
       <c r="AG80" s="11" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="AH80" s="17" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="AI80" s="21">
         <v>10800</v>
       </c>
       <c r="AJ80" s="28" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="AK80" s="56" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="AL80" s="56"/>
       <c r="AM80" s="23" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AN80" s="30"/>
       <c r="AO80" s="17"/>
       <c r="AP80" s="17"/>
       <c r="AQ80" s="25"/>
       <c r="AR80" s="23" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AS80" s="25"/>
       <c r="AT80" s="1">
@@ -29356,13 +29388,13 @@
     </row>
     <row r="81" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D81" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29397,31 +29429,31 @@
       <c r="AE81" s="17"/>
       <c r="AF81" s="15"/>
       <c r="AG81" s="11" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="AH81" s="17" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="AI81" s="21">
         <v>94200</v>
       </c>
       <c r="AJ81" s="28"/>
       <c r="AK81" s="56" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AL81" s="56"/>
       <c r="AM81" s="23" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="AN81" s="30"/>
       <c r="AO81" s="17" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="AP81" s="17" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="AQ81" s="11" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AR81" s="23"/>
       <c r="AS81" s="25"/>
@@ -29523,13 +29555,13 @@
     </row>
     <row r="82" spans="1:80" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D82" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29564,23 +29596,23 @@
       <c r="AE82" s="17"/>
       <c r="AF82" s="15"/>
       <c r="AG82" s="11" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="AH82" s="17" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AI82" s="21">
         <v>2220</v>
       </c>
       <c r="AJ82" s="28" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="AK82" s="56" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="AL82" s="56"/>
       <c r="AM82" s="23" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="AN82" s="30"/>
       <c r="AO82" s="17"/>
@@ -29588,7 +29620,7 @@
       <c r="AQ82" s="11"/>
       <c r="AR82" s="23"/>
       <c r="AS82" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AT82" s="1">
         <f>RANK(BL82,$BL$3:$BL$122)+COUNTIF(BL$3:BL82,BL82)-1</f>
@@ -29694,7 +29726,7 @@
         <v>4</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D83" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29729,38 +29761,38 @@
       <c r="AE83" s="17"/>
       <c r="AF83" s="15"/>
       <c r="AG83" s="11" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="AH83" s="17" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="AI83" s="21">
         <v>51320</v>
       </c>
       <c r="AJ83" s="28" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="AK83" s="56" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AL83" s="56"/>
       <c r="AM83" s="23" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AN83" s="17" t="s">
+        <v>1226</v>
+      </c>
+      <c r="AO83" s="17" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AP83" s="17" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AQ83" s="17" t="s">
         <v>1229</v>
       </c>
-      <c r="AO83" s="17" t="s">
+      <c r="AR83" s="23" t="s">
         <v>1230</v>
-      </c>
-      <c r="AP83" s="17" t="s">
-        <v>1231</v>
-      </c>
-      <c r="AQ83" s="17" t="s">
-        <v>1232</v>
-      </c>
-      <c r="AR83" s="23" t="s">
-        <v>1233</v>
       </c>
       <c r="AS83" s="25"/>
       <c r="AT83" s="1">
@@ -29864,10 +29896,10 @@
         <v>0</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D84" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29902,36 +29934,36 @@
       <c r="AE84" s="17"/>
       <c r="AF84" s="15"/>
       <c r="AG84" s="11" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="AH84" s="17" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="AI84" s="21">
         <v>2450</v>
       </c>
       <c r="AJ84" s="28" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="AK84" s="56" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="AL84" s="56"/>
       <c r="AM84" s="23" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="AN84" s="30"/>
       <c r="AO84" s="17" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="AP84" s="17" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="AQ84" s="17" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="AR84" s="23" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="AS84" s="25"/>
       <c r="AT84" s="1">
@@ -30035,10 +30067,10 @@
         <v>0</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D85" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30073,23 +30105,23 @@
       <c r="AE85" s="17"/>
       <c r="AF85" s="15"/>
       <c r="AG85" s="11" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="AH85" s="17" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="AI85" s="21">
         <v>25300</v>
       </c>
       <c r="AJ85" s="28" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="AK85" s="56" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="AL85" s="56"/>
       <c r="AM85" s="23" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="AN85" s="30"/>
       <c r="AO85" s="17"/>
@@ -30198,10 +30230,10 @@
         <v>0</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D86" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30236,30 +30268,30 @@
       <c r="AE86" s="17"/>
       <c r="AF86" s="15"/>
       <c r="AG86" s="17" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="AH86" s="17" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AI86" s="21">
         <v>10230</v>
       </c>
       <c r="AJ86" s="28" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="AK86" s="56" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="AL86" s="56"/>
       <c r="AM86" s="23" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="AN86" s="30"/>
       <c r="AO86" s="26"/>
       <c r="AP86" s="24"/>
       <c r="AQ86" s="26"/>
       <c r="AR86" s="57" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AS86" s="26"/>
       <c r="AT86" s="1">
@@ -30366,7 +30398,7 @@
         <v>15</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D87" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30401,31 +30433,31 @@
       <c r="AE87" s="17"/>
       <c r="AF87" s="15"/>
       <c r="AG87" s="17" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="AH87" s="17" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="AI87" s="21">
         <v>51130</v>
       </c>
       <c r="AJ87" s="28" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="AK87" s="22" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="AL87" s="22"/>
       <c r="AM87" s="23" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="AN87" s="26"/>
       <c r="AO87" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP87" s="24"/>
       <c r="AQ87" s="59" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AR87" s="26"/>
       <c r="AS87" s="26"/>
@@ -30530,10 +30562,10 @@
         <v>0</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D88" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30568,31 +30600,31 @@
       <c r="AE88" s="17"/>
       <c r="AF88" s="15"/>
       <c r="AG88" s="17" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="AH88" s="17" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="AI88" s="21">
         <v>6823</v>
       </c>
       <c r="AJ88" s="28" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="AK88" s="22" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="AL88" s="22"/>
       <c r="AM88" s="23" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="AN88" s="26"/>
       <c r="AO88" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AP88" s="24"/>
       <c r="AQ88" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AR88" s="26"/>
       <c r="AS88" s="26"/>
@@ -30697,10 +30729,10 @@
         <v>0</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D89" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30735,35 +30767,35 @@
       <c r="AE89" s="17"/>
       <c r="AF89" s="15"/>
       <c r="AG89" s="17" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="AH89" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI89" s="21">
         <v>51100</v>
       </c>
       <c r="AJ89" s="28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AK89" s="22" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="AL89" s="22"/>
       <c r="AM89" s="17"/>
       <c r="AN89" s="26"/>
       <c r="AO89" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AP89" s="24"/>
       <c r="AQ89" s="48" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AR89" s="57" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AS89" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AT89" s="1">
         <f>RANK(BL89,$BL$3:$BL$122)+COUNTIF(BL$3:BL89,BL89)-1</f>
@@ -30863,13 +30895,13 @@
     </row>
     <row r="90" spans="1:80" s="7" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="C90" s="17" t="s">
         <v>348</v>
-      </c>
-      <c r="B90" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>349</v>
       </c>
       <c r="D90" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30904,26 +30936,26 @@
       <c r="AE90" s="17"/>
       <c r="AF90" s="15"/>
       <c r="AG90" s="17" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="AH90" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI90" s="21">
         <v>51100</v>
       </c>
       <c r="AJ90" s="28" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="AK90" s="22" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="AL90" s="22"/>
       <c r="AM90" s="23" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="AN90" s="30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AO90" s="26"/>
       <c r="AP90" s="24"/>
@@ -31028,13 +31060,13 @@
     </row>
     <row r="91" spans="1:80" s="7" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D91" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31069,23 +31101,23 @@
       <c r="AE91" s="17"/>
       <c r="AF91" s="15"/>
       <c r="AG91" s="17" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="AH91" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AI91" s="21">
         <v>2000</v>
       </c>
       <c r="AJ91" s="28" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="AK91" s="22" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="AL91" s="22"/>
       <c r="AM91" s="23" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="AN91" s="30"/>
       <c r="AO91" s="26"/>
@@ -31191,13 +31223,13 @@
     </row>
     <row r="92" spans="1:80" s="7" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D92" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31232,35 +31264,35 @@
       <c r="AE92" s="17"/>
       <c r="AF92" s="15"/>
       <c r="AG92" s="17" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="AH92" s="17" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="AI92" s="21">
         <v>51370</v>
       </c>
       <c r="AJ92" s="15"/>
       <c r="AK92" s="22" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="AL92" s="22"/>
       <c r="AM92" s="23" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="AN92" s="30"/>
       <c r="AO92" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AP92" s="24"/>
       <c r="AQ92" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AR92" s="49" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AS92" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AT92" s="1">
         <f>RANK(BL92,$BL$3:$BL$122)+COUNTIF(BL$3:BL92,BL92)-1</f>
@@ -31360,13 +31392,13 @@
     </row>
     <row r="93" spans="1:80" s="7" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D93" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31401,31 +31433,31 @@
       <c r="AE93" s="17"/>
       <c r="AF93" s="15"/>
       <c r="AG93" s="17" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="AH93" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AI93" s="21">
         <v>51530</v>
       </c>
       <c r="AJ93" s="15"/>
       <c r="AK93" s="22" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="AL93" s="22"/>
       <c r="AM93" s="23" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="AN93" s="30"/>
       <c r="AO93" s="17" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="AP93" s="17" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="AQ93" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AR93" s="26"/>
       <c r="AS93" s="26"/>
@@ -31527,13 +31559,13 @@
     </row>
     <row r="94" spans="1:80" s="7" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D94" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31568,35 +31600,35 @@
       <c r="AE94" s="17"/>
       <c r="AF94" s="15"/>
       <c r="AG94" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AH94" s="17" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="AI94" s="17">
         <v>51120</v>
       </c>
       <c r="AJ94" s="15"/>
       <c r="AK94" s="22" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="AL94" s="22"/>
       <c r="AM94" s="17"/>
       <c r="AN94" s="30"/>
       <c r="AO94" s="48" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="AP94" s="17" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="AQ94" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AR94" s="60" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AS94" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AT94" s="1">
         <f>RANK(BL94,$BL$3:$BL$122)+COUNTIF(BL$3:BL94,BL94)-1</f>
@@ -31696,13 +31728,13 @@
     </row>
     <row r="95" spans="1:80" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D95" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31737,23 +31769,23 @@
       <c r="AE95" s="17"/>
       <c r="AF95" s="15"/>
       <c r="AG95" s="17" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="AH95" s="17" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="AI95" s="21">
         <v>51000</v>
       </c>
       <c r="AJ95" s="28" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="AK95" s="22" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="AL95" s="22"/>
       <c r="AM95" s="23" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="AN95" s="15"/>
       <c r="AO95" s="26"/>
@@ -31859,13 +31891,13 @@
     </row>
     <row r="96" spans="1:80" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D96" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31900,34 +31932,34 @@
       <c r="AE96" s="17"/>
       <c r="AF96" s="15"/>
       <c r="AG96" s="17" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="AH96" s="17" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="AI96" s="21">
         <v>60550</v>
       </c>
       <c r="AJ96" s="28" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="AK96" s="22" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="AL96" s="22"/>
       <c r="AM96" s="23" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="AN96" s="15"/>
       <c r="AO96" s="17" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="AP96" s="24"/>
       <c r="AQ96" s="48" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="AR96" s="60" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="AS96" s="26"/>
       <c r="AT96" s="1">
@@ -32028,13 +32060,13 @@
     </row>
     <row r="97" spans="1:80" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="D97" s="73" t="str">
         <f t="shared" si="38"/>
@@ -32069,34 +32101,34 @@
       <c r="AE97" s="17"/>
       <c r="AF97" s="15"/>
       <c r="AG97" s="17" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="AH97" s="17" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="AI97" s="21">
         <v>94700</v>
       </c>
       <c r="AJ97" s="28" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="AK97" s="22" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="AL97" s="22"/>
       <c r="AM97" s="23" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="AN97" s="30"/>
       <c r="AO97" s="17" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="AP97" s="24"/>
       <c r="AQ97" s="17" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="AR97" s="60" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="AS97" s="26"/>
       <c r="AT97" s="1">
@@ -32197,13 +32229,13 @@
     </row>
     <row r="98" spans="1:80" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D98" s="73" t="str">
         <f t="shared" si="38"/>
@@ -32238,29 +32270,29 @@
       <c r="AE98" s="17"/>
       <c r="AF98" s="15"/>
       <c r="AG98" s="17" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="AH98" s="17" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="AI98" s="21">
         <v>10400</v>
       </c>
       <c r="AJ98" s="15"/>
       <c r="AK98" s="22" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="AL98" s="22"/>
       <c r="AM98" s="23" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="AN98" s="26"/>
       <c r="AO98" s="17" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="AP98" s="24"/>
       <c r="AQ98" s="30" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AR98" s="26"/>
       <c r="AS98" s="26"/>
@@ -32362,13 +32394,13 @@
     </row>
     <row r="99" spans="1:80" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D99" s="73" t="str">
         <f t="shared" ref="D99:D128" si="57">IF(AX99&lt;&gt;0,"2020_A="&amp;AX99," ")&amp;IF(AY99&lt;&gt;0," ; 2020_i="&amp;AY99," ")&amp;IF(AZ99&lt;&gt;0,"2019_A="&amp;AZ99," ")&amp;IF(BA99&lt;&gt;0," ; 2019_i="&amp;BA99," ")&amp;IF(BB99&lt;&gt;0,"2018_A="&amp;BB99," ")&amp;IF(BC99&lt;&gt;0," ; 2018_i="&amp;BC99," ")&amp;IF(BD99&lt;&gt;0," ; 2017_A="&amp;BD99," ")&amp;IF(BE99&lt;&gt;0," ; 2017_i="&amp;BE99," ")&amp;IF(BF99&lt;&gt;0," ; 2016_A="&amp;BF99," ")&amp;IF(BG99&lt;&gt;0," ; 2016_i="&amp;BG99," ")&amp;IF(BH99&lt;&gt;0," ; 2015_A="&amp;BH99," ")&amp;IF(BI99&lt;&gt;0," ; 2015_i="&amp;BI99," ")&amp;IF(BJ99&lt;&gt;0," ; 2014_A="&amp;BJ99," ")&amp;IF(BK99&lt;&gt;0," ; 2014_i="&amp;BK99," ")</f>
@@ -32403,39 +32435,39 @@
       <c r="AE99" s="17"/>
       <c r="AF99" s="15"/>
       <c r="AG99" s="17" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="AH99" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI99" s="21">
         <v>51110</v>
       </c>
       <c r="AJ99" s="28" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="AK99" s="22" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="AL99" s="22"/>
       <c r="AM99" s="23" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="AN99" s="26"/>
       <c r="AO99" s="17" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="AP99" s="17" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="AQ99" s="30" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="AR99" s="23" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="AS99" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AT99" s="1">
         <f>RANK(BL99,$BL$3:$BL$122)+COUNTIF(BL$3:BL99,BL99)-1</f>
@@ -32535,13 +32567,13 @@
     </row>
     <row r="100" spans="1:80" s="7" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D100" s="73" t="str">
         <f t="shared" si="57"/>
@@ -32576,35 +32608,35 @@
       <c r="AE100" s="17"/>
       <c r="AF100" s="15"/>
       <c r="AG100" s="17" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="AH100" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AI100" s="21">
         <v>51300</v>
       </c>
       <c r="AJ100" s="28" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="AK100" s="22" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="AL100" s="22"/>
       <c r="AM100" s="23" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="AN100" s="26"/>
       <c r="AO100" s="17" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="AP100" s="17"/>
       <c r="AQ100" s="30" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="AR100" s="23"/>
       <c r="AS100" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AT100" s="1">
         <f>RANK(BL100,$BL$3:$BL$122)+COUNTIF(BL$3:BL100,BL100)-1</f>
@@ -32704,13 +32736,13 @@
     </row>
     <row r="101" spans="1:80" s="7" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D101" s="73" t="str">
         <f t="shared" si="57"/>
@@ -32745,27 +32777,27 @@
       <c r="AE101" s="17"/>
       <c r="AF101" s="15"/>
       <c r="AG101" s="17" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="AH101" s="17" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="AI101" s="21">
         <v>77200</v>
       </c>
       <c r="AJ101" s="28" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="AK101" s="22" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="AL101" s="22"/>
       <c r="AM101" s="23" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="AN101" s="15"/>
       <c r="AO101" s="48" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AP101" s="24"/>
       <c r="AQ101" s="26"/>
@@ -32869,13 +32901,13 @@
     </row>
     <row r="102" spans="1:80" s="13" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D102" s="73" t="str">
         <f t="shared" si="57"/>
@@ -32910,37 +32942,37 @@
       <c r="AE102" s="17"/>
       <c r="AF102" s="15"/>
       <c r="AG102" s="17" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="AH102" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AI102" s="21">
         <v>51689</v>
       </c>
       <c r="AJ102" s="28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AK102" s="22" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="AL102" s="22"/>
       <c r="AM102" s="23" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="AN102" s="17" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="AO102" s="17" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="AP102" s="24"/>
       <c r="AQ102" s="26"/>
       <c r="AR102" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AS102" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AT102" s="1">
         <f>RANK(BL102,$BL$3:$BL$122)+COUNTIF(BL$3:BL102,BL102)-1</f>
@@ -33040,13 +33072,13 @@
     </row>
     <row r="103" spans="1:80" s="27" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D103" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33081,34 +33113,34 @@
       <c r="AE103" s="17"/>
       <c r="AF103" s="15"/>
       <c r="AG103" s="17" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="AH103" s="17" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="AI103" s="21">
         <v>60310</v>
       </c>
       <c r="AJ103" s="28" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="AK103" s="22" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="AL103" s="22"/>
       <c r="AM103" s="23" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="AN103" s="17"/>
       <c r="AO103" s="17" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="AP103" s="24"/>
       <c r="AQ103" s="48" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="AR103" s="23" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="AS103" s="25"/>
       <c r="AT103" s="1">
@@ -33209,13 +33241,13 @@
     </row>
     <row r="104" spans="1:80" s="26" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D104" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33242,30 +33274,30 @@
       <c r="AE104" s="17"/>
       <c r="AF104" s="15"/>
       <c r="AG104" s="17" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="AH104" s="17" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="AI104" s="21">
         <v>60610</v>
       </c>
       <c r="AJ104" s="28" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AK104" s="22" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="AL104" s="22"/>
       <c r="AM104" s="23" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="AP104" s="24"/>
       <c r="AQ104" s="30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AR104" s="60" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AT104" s="1">
         <f>RANK(BL104,$BL$3:$BL$122)+COUNTIF(BL$3:BL104,BL104)-1</f>
@@ -33365,13 +33397,13 @@
     </row>
     <row r="105" spans="1:80" s="13" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D105" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33409,18 +33441,18 @@
         <v>13</v>
       </c>
       <c r="AH105" s="17" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="AI105" s="21">
         <v>45800</v>
       </c>
       <c r="AJ105" s="28"/>
       <c r="AK105" s="22" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="AL105" s="22"/>
       <c r="AM105" s="23" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="AN105" s="26"/>
       <c r="AO105" s="26"/>
@@ -33526,13 +33558,13 @@
     </row>
     <row r="106" spans="1:80" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D106" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33559,36 +33591,36 @@
       <c r="AE106" s="17"/>
       <c r="AF106" s="15"/>
       <c r="AG106" s="17" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="AH106" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI106" s="21">
         <v>51100</v>
       </c>
       <c r="AJ106" s="15"/>
       <c r="AK106" s="22" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="AL106" s="22"/>
       <c r="AM106" s="23" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="AN106" s="17" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="AO106" s="17" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="AP106" s="17" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="AQ106" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="AR106" s="60" t="s">
         <v>374</v>
-      </c>
-      <c r="AR106" s="60" t="s">
-        <v>375</v>
       </c>
       <c r="AT106" s="1">
         <f>RANK(BL106,$BL$3:$BL$122)+COUNTIF(BL$3:BL106,BL106)-1</f>
@@ -33688,13 +33720,13 @@
     </row>
     <row r="107" spans="1:80" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D107" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33729,29 +33761,29 @@
       <c r="AE107" s="17"/>
       <c r="AF107" s="15"/>
       <c r="AG107" s="17" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="AH107" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI107" s="21">
         <v>51100</v>
       </c>
       <c r="AJ107" s="28" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="AK107" s="22" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="AL107" s="22"/>
       <c r="AM107" s="23" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="AN107" s="17"/>
       <c r="AO107" s="17"/>
       <c r="AP107" s="17"/>
       <c r="AQ107" s="17" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="AR107" s="60"/>
       <c r="AS107" s="26"/>
@@ -33853,13 +33885,13 @@
     </row>
     <row r="108" spans="1:80" s="7" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D108" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33894,35 +33926,35 @@
       <c r="AE108" s="17"/>
       <c r="AF108" s="17"/>
       <c r="AG108" s="17" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="AH108" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI108" s="21">
         <v>51100</v>
       </c>
       <c r="AJ108" s="15"/>
       <c r="AK108" s="22" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="AL108" s="22"/>
       <c r="AM108" s="23" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="AN108" s="15"/>
       <c r="AO108" s="17" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="AP108" s="24"/>
       <c r="AQ108" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AR108" s="23" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="AS108" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AT108" s="1">
         <f>RANK(BL108,$BL$3:$BL$122)+COUNTIF(BL$3:BL108,BL108)-1</f>
@@ -34022,13 +34054,13 @@
     </row>
     <row r="109" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D109" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34063,33 +34095,33 @@
       <c r="AE109" s="17"/>
       <c r="AF109" s="17"/>
       <c r="AG109" s="17" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="AH109" s="17" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="AI109" s="21">
         <v>68490</v>
       </c>
       <c r="AJ109" s="28" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="AK109" s="22" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="AL109" s="22"/>
       <c r="AM109" s="23" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="AN109" s="15"/>
       <c r="AO109" s="17" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="AP109" s="17" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="AQ109" s="29" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="AR109" s="23"/>
       <c r="AS109" s="25"/>
@@ -34191,13 +34223,13 @@
     </row>
     <row r="110" spans="1:80" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="D110" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34232,29 +34264,29 @@
       <c r="AE110" s="17"/>
       <c r="AF110" s="15"/>
       <c r="AG110" s="17" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="AH110" s="17" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="AI110" s="21">
         <v>51140</v>
       </c>
       <c r="AJ110" s="28" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="AK110" s="22" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="AL110" s="22"/>
       <c r="AM110" s="23" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="AN110" s="30"/>
       <c r="AO110" s="26"/>
       <c r="AP110" s="24"/>
       <c r="AQ110" s="29" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="AR110" s="26"/>
       <c r="AS110" s="26"/>
@@ -34356,13 +34388,13 @@
     </row>
     <row r="111" spans="1:80" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D111" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34397,23 +34429,23 @@
       <c r="AE111" s="17"/>
       <c r="AF111" s="15"/>
       <c r="AG111" s="17" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="AH111" s="17" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="AI111" s="21">
         <v>51140</v>
       </c>
       <c r="AJ111" s="28" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="AK111" s="22" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="AL111" s="22"/>
       <c r="AM111" s="23" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="AN111" s="30"/>
       <c r="AO111" s="26"/>
@@ -34522,10 +34554,10 @@
         <v>0</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D112" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34560,23 +34592,23 @@
       <c r="AE112" s="12"/>
       <c r="AF112" s="19"/>
       <c r="AG112" s="12" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="AH112" s="12" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="AI112" s="31">
         <v>8000</v>
       </c>
       <c r="AJ112" s="28" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="AK112" s="22" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="AL112" s="22"/>
       <c r="AM112" s="23" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="AN112" s="32"/>
       <c r="AO112" s="33"/>
@@ -34682,13 +34714,13 @@
     </row>
     <row r="113" spans="1:80" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D113" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34723,30 +34755,30 @@
       <c r="AE113" s="17"/>
       <c r="AF113" s="15"/>
       <c r="AG113" s="17" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="AH113" s="17" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="AI113" s="21">
         <v>60200</v>
       </c>
       <c r="AJ113" s="28" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="AK113" s="22" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="AL113" s="22"/>
       <c r="AM113" s="23" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="AN113" s="26"/>
       <c r="AO113" s="26"/>
       <c r="AP113" s="24"/>
       <c r="AQ113" s="26"/>
       <c r="AR113" s="23" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AS113" s="26"/>
       <c r="AT113" s="1">
@@ -34847,13 +34879,13 @@
     </row>
     <row r="114" spans="1:80" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D114" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34888,23 +34920,23 @@
       <c r="AE114" s="17"/>
       <c r="AF114" s="15"/>
       <c r="AG114" s="17" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="AH114" s="17" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="AI114" s="21">
         <v>60000</v>
       </c>
       <c r="AJ114" s="28" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="AK114" s="22" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="AL114" s="22"/>
       <c r="AM114" s="23" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="AN114" s="15"/>
       <c r="AO114" s="26"/>
@@ -35010,13 +35042,13 @@
     </row>
     <row r="115" spans="1:80" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D115" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35051,28 +35083,28 @@
       <c r="AE115" s="17"/>
       <c r="AF115" s="15"/>
       <c r="AG115" s="17" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="AH115" s="17" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="AI115" s="21">
         <v>60000</v>
       </c>
       <c r="AJ115" s="28"/>
       <c r="AK115" s="22" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="AL115" s="22"/>
       <c r="AM115" s="23" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="AN115" s="15"/>
       <c r="AO115" s="26"/>
       <c r="AP115" s="24"/>
       <c r="AQ115" s="26"/>
       <c r="AR115" s="42" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="AS115" s="26"/>
       <c r="AT115" s="1">
@@ -35173,13 +35205,13 @@
     </row>
     <row r="116" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D116" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35214,23 +35246,23 @@
       <c r="AE116" s="17"/>
       <c r="AF116" s="15"/>
       <c r="AG116" s="17" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="AH116" s="17" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="AI116" s="21">
         <v>8090</v>
       </c>
       <c r="AJ116" s="28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AK116" s="22" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="AL116" s="22"/>
       <c r="AM116" s="23" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="AN116" s="15"/>
       <c r="AO116" s="26"/>
@@ -35336,13 +35368,13 @@
     </row>
     <row r="117" spans="1:80" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="D117" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35377,23 +35409,23 @@
       <c r="AE117" s="17"/>
       <c r="AF117" s="15"/>
       <c r="AG117" s="17" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="AH117" s="17" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="AI117" s="21">
         <v>21000</v>
       </c>
       <c r="AJ117" s="28" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="AK117" s="22" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="AL117" s="22"/>
       <c r="AM117" s="23" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="AN117" s="32"/>
       <c r="AO117" s="26"/>
@@ -35499,13 +35531,13 @@
     </row>
     <row r="118" spans="1:80" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D118" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35540,27 +35572,27 @@
       <c r="AE118" s="17"/>
       <c r="AF118" s="15"/>
       <c r="AG118" s="17" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="AH118" s="17" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="AI118" s="21">
         <v>60200</v>
       </c>
       <c r="AJ118" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AK118" s="22" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="AL118" s="22"/>
       <c r="AM118" s="23" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="AN118" s="15"/>
       <c r="AO118" s="61" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="AP118" s="24"/>
       <c r="AQ118" s="26"/>
@@ -35664,13 +35696,13 @@
     </row>
     <row r="119" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D119" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35705,23 +35737,23 @@
       <c r="AE119" s="17"/>
       <c r="AF119" s="15"/>
       <c r="AG119" s="17" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="AH119" s="17" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="AI119" s="21">
         <v>60200</v>
       </c>
       <c r="AJ119" s="28" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="AK119" s="22" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="AL119" s="22"/>
       <c r="AM119" s="23" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="AN119" s="15"/>
       <c r="AO119" s="61"/>
@@ -35827,13 +35859,13 @@
     </row>
     <row r="120" spans="1:80" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="D120" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35868,23 +35900,23 @@
       <c r="AE120" s="17"/>
       <c r="AF120" s="15"/>
       <c r="AG120" s="17" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="AH120" s="17" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="AI120" s="21">
         <v>60000</v>
       </c>
       <c r="AJ120" s="28" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="AK120" s="22" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="AL120" s="22"/>
       <c r="AM120" s="23" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="AN120" s="15"/>
       <c r="AO120" s="26"/>
@@ -35990,13 +36022,13 @@
     </row>
     <row r="121" spans="1:80" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D121" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36031,23 +36063,23 @@
       <c r="AE121" s="17"/>
       <c r="AF121" s="15"/>
       <c r="AG121" s="17" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="AH121" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AI121" s="21">
         <v>67000</v>
       </c>
       <c r="AJ121" s="28" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="AK121" s="22" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="AL121" s="22"/>
       <c r="AM121" s="23" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="AN121" s="15"/>
       <c r="AO121" s="26"/>
@@ -36153,13 +36185,13 @@
     </row>
     <row r="122" spans="1:80" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="D122" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36194,23 +36226,23 @@
       <c r="AE122" s="17"/>
       <c r="AF122" s="15"/>
       <c r="AG122" s="17" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="AH122" s="17" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="AI122" s="21">
         <v>21121</v>
       </c>
       <c r="AJ122" s="28" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="AK122" s="22" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="AL122" s="22"/>
       <c r="AM122" s="23" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="AN122" s="15"/>
       <c r="AO122" s="26"/>
@@ -36316,13 +36348,13 @@
     </row>
     <row r="123" spans="1:80" ht="105" x14ac:dyDescent="0.25">
       <c r="A123" s="80" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B123" s="80" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C123" s="81" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="D123" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36357,23 +36389,23 @@
       <c r="AE123" s="81"/>
       <c r="AF123" s="83"/>
       <c r="AG123" s="81" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="AH123" s="81" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="AI123" s="85">
         <v>21800</v>
       </c>
       <c r="AJ123" s="87" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="AK123" s="88" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="AL123" s="88"/>
       <c r="AM123" s="89" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="AN123" s="111"/>
       <c r="AO123" s="72"/>
@@ -36469,13 +36501,13 @@
     </row>
     <row r="124" spans="1:80" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="101" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B124" s="101" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C124" s="102" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="D124" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36510,19 +36542,19 @@
       <c r="AE124" s="102"/>
       <c r="AF124" s="104"/>
       <c r="AG124" s="102" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="AH124" s="102" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="AI124" s="106">
         <v>21000</v>
       </c>
       <c r="AJ124" s="107" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="AK124" s="108" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="AL124" s="108"/>
       <c r="AM124" s="109"/>
@@ -36620,13 +36652,13 @@
     </row>
     <row r="125" spans="1:80" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="101" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B125" s="101" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C125" s="102" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="D125" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36661,23 +36693,23 @@
       <c r="AE125" s="102"/>
       <c r="AF125" s="104"/>
       <c r="AG125" s="102" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="AH125" s="102" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="AI125" s="106">
         <v>21300</v>
       </c>
       <c r="AJ125" s="107" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="AK125" s="108" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="AL125" s="108"/>
       <c r="AM125" s="109" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="AN125" s="110"/>
       <c r="AO125" s="7"/>
@@ -36773,13 +36805,13 @@
     </row>
     <row r="126" spans="1:80" ht="105" x14ac:dyDescent="0.25">
       <c r="A126" s="101" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B126" s="101" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C126" s="102" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="D126" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36814,23 +36846,23 @@
       <c r="AE126" s="102"/>
       <c r="AF126" s="104"/>
       <c r="AG126" s="102" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="AH126" s="102" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="AI126" s="106">
         <v>21800</v>
       </c>
       <c r="AJ126" s="107" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="AK126" s="108" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="AL126" s="108"/>
       <c r="AM126" s="109" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="AN126" s="110"/>
       <c r="AO126" s="7"/>
@@ -36926,13 +36958,13 @@
     </row>
     <row r="127" spans="1:80" s="123" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="101" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B127" s="101" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="C127" s="102" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D127" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36967,23 +36999,23 @@
       <c r="AE127" s="102"/>
       <c r="AF127" s="104"/>
       <c r="AG127" s="102" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="AH127" s="102" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="AI127" s="106">
         <v>21600</v>
       </c>
       <c r="AJ127" s="107" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="AK127" s="108" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="AL127" s="108"/>
       <c r="AM127" s="109" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="AN127" s="104"/>
       <c r="AO127" s="7"/>
@@ -37089,13 +37121,13 @@
     </row>
     <row r="128" spans="1:80" s="98" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="115" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="B128" s="113" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="D128" s="73" t="str">
         <f t="shared" si="57"/>
@@ -37110,13 +37142,13 @@
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
       <c r="M128" s="98" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="N128" s="114" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="O128" s="98" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="P128" s="2"/>
       <c r="R128" s="119"/>
@@ -37135,23 +37167,23 @@
       <c r="AE128" s="8"/>
       <c r="AF128" s="2"/>
       <c r="AG128" s="116" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="AH128" s="98" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="AI128" s="117">
         <v>92390</v>
       </c>
       <c r="AJ128" s="107" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="AK128" s="108" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="AL128" s="108"/>
       <c r="AM128" s="109" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="AN128" s="5"/>
       <c r="AO128" s="2"/>
@@ -42376,114 +42408,113 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="AJ34" r:id="rId1" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?q=bonduel+traiteur+saint+benoit+aubes&amp;spell=1&amp;sa=X&amp;ved=0ahUKEwieraex6dDaAhVJCsAKHa6QDkUQBQglKAA&amp;biw=1380&amp;bih=691" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="AK34" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="AK65" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="AK45" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="AK48" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="AK75" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="AJ75" r:id="rId7" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=mBPeWu3qBY74gQbJ96-oDw&amp;q=yoplait+89470+++MONETEAU%09&amp;oq=yoplait+89470+++MONETEAU%09&amp;gs_l=psy-ab.3...326368.328121.0.329148.9.7.0.2.2.0.239.710.0j2j2.4.0....0...1c.1.64.psy-ab..4.4.401...0j0i67k1.0.3xByPNYC4yY" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="AK69" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="AJ69" r:id="rId9" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=4hTeWv_kDeXXgAbotpyYAg&amp;q=Fromagerie+RENARD-GILLARD%0955290++BIENCOURT+SUR+ORGE&amp;oq=Fromagerie+RENARD-GILLARD%0955290++BIENCOURT+SUR+ORGE&amp;gs_l=psy-ab.3...307263.318025.0.319529.2.2.0.0.0.0.346.468.0j1j0j1.2.0....0...1c.1j2.64.psy-ab..0.1.345...38j0i22i30k1.0.IaaI2w9RkVg" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="AJ47" r:id="rId10" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=1hfeWp6TCMeQgAa5rKXYBg&amp;q=lactinov+Zone+industrielle+des+Waillons%2C&amp;oq=lactinov+Zone+industrielle+des+Waillons%2C&amp;gs_l=psy-ab.3...118248.121573.0.122713.8.8.0.0.0.0.270.856.0j4j1.5.0....0...1c.1.64.psy-ab..3.0.0....0.R_37DFVeIEk" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="AK47" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="AK51" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="AJ51" r:id="rId13" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=iRneWveTOoeXgAbxmIKoDQ&amp;q=Canelia+Rouvroy+Poudre%09&amp;oq=Canelia+Rouvroy+Poudre%09&amp;gs_l=psy-ab.3..0j0i22i30k1l2j38l2.729255.729255.0.729873.1.1.0.0.0.0.408.408.4-1.1.0....0...1c.1.64.psy-ab..0.1.408....0.v8RWG58iatQ" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="AJ40" r:id="rId14" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?source=hp&amp;ei=Wh_eWqnFK4H0gAby1rroAQ&amp;q=cristanol+bazancourt&amp;oq=cristanol+bazancourt&amp;gs_l=psy-ab.3..0l3j0i22i30k1l4.1078.6763.0.7247.25.20.0.0.0.0.397.2564.0j7j4j1.12.0....0...1c.1.64.psy-ab..13.11.2391.0..35i39k1j0i67k1j0i131k1j0i10i67k1j0i10k1j0i10i203k1j0i30k1j0i10i30k1.0.Ylb1TxZHSno" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="AJ60" r:id="rId15" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?ei=Yh_eWpDnMsnLgAaFvIzwAg&amp;q=union+champagne+avize&amp;oq=union+champagne+avize&amp;gs_l=psy-ab.3..0l3.239180.244298.0.244969.21.16.0.5.5.0.235.1850.0j11j1.12.0....0...1c.1.64.psy-ab..4.17.1902...0i131k1j0i22i30k1.0.4NZh1uYSY6I" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="AK60" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="AJ12" r:id="rId17" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?ei=hqjgWrf7D-WVgAaajqb4Bg&amp;q=vivescia%20reims&amp;oq=vivescia+reims&amp;gs_l=psy-ab.3..0l3j0i22i30k1l7.110048.112300.0.112635.14.13.0.1.1.0.181.1425.0j10.10.0....0...1c.1.64.psy-ab..3.11.1435...35i39k1j0i131k1.0.j8KcD_SAUYk&amp;npsic=0&amp;rflfq=1&amp;rlha=0&amp;rllag=49231434,4074548,460&amp;tbm=lcl&amp;rldimm=13708956538798387191&amp;ved=0ahUKEwjFh4up6dXaAhVMBsAKHTFkCAMQvS4IOzAC&amp;rldoc=1&amp;tbs=lrf:!3sIAE,lf:1,lf_ui:4&amp;rlst=f" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="AR12" r:id="rId18" display="mailto:maxime.françois@vivescia.com" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="AK54" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="AJ54" r:id="rId20" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?q=KALIZEA+reims&amp;sa=X&amp;ved=0ahUKEwjJ9dug6tXaAhWqD8AKHZiSDzYQuzEICigA&amp;biw=1467&amp;bih=703" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="AK55" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="AJ7" r:id="rId22" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=pavgWrGFM8-0gQbpwIbQCQ&amp;q=fofralab+magenta&amp;oq=fofralab+magenta&amp;gs_l=psy-ab.3..0i13k1.387029.391164.0.391634.16.16.0.0.0.0.329.1969.0j6j3j1.10.0....0...1c.1.64.psy-ab..6.10.1960...0j35i39k1j0i67k1j0i131k1j0i131i67k1j0i10k1j0i10i19k1j0i13i5i10i30i19k1j0i13i30k1.0.Mbr8qt9fctI" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="AK63" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="AJ63" r:id="rId24" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=ZrDgWrTvMJqvgAbRn67gDA&amp;q=malteurop+vitry+le+francois&amp;oq=malteurop+vitry+le+francois&amp;gs_l=psy-ab.3..0i71k1l8.5807.5807.0.5976.1.1.0.0.0.0.0.0..0.0....0...1c..64.psy-ab..1.0.0....0.jIvwkzJYj6k" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="AR63" r:id="rId25" display="mailto:stephanie.grosjean@malteurop.com" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="AK72" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="AJ72" r:id="rId27" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=sbLgWvDKBIPAgAb2hIOIAQ&amp;q=MARLENHEIM+p%C3%A2tes&amp;oq=MARLENHEIM+p%C3%A2tes&amp;gs_l=psy-ab.3..33i22i29i30k1.6854.9853.0.10011.6.6.0.0.0.0.215.723.0j4j1.5.0....0...1c.1.64.psy-ab..1.4.507...0j0i67k1j0i22i30k1j33i160k1.0.2DQBZ7EcKCc" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="AK57" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="AJ57" r:id="rId29" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=vLLgWurlG4LZgQbt-YOwDw&amp;q=chamtor+pomacle&amp;oq=chamtor+pomacle&amp;gs_l=psy-ab.3..0i22i30k1.568190.572873.0.573230.15.12.0.3.3.0.296.1174.0j5j2.7.0....0...1c.1.64.psy-ab..5.10.1204...0j35i39k1j0i10i67k1j0i131k1j0i20i263k1j0i10k1j0i203k1j0i30k1j0i10i30k1.0.BuriVhJD9fU" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="AK50" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="AR50" r:id="rId31" display="mailto:theret@babynov.fr" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="AK65" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="AK45" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="AK48" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="AK75" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AJ75" r:id="rId6" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=mBPeWu3qBY74gQbJ96-oDw&amp;q=yoplait+89470+++MONETEAU%09&amp;oq=yoplait+89470+++MONETEAU%09&amp;gs_l=psy-ab.3...326368.328121.0.329148.9.7.0.2.2.0.239.710.0j2j2.4.0....0...1c.1.64.psy-ab..4.4.401...0j0i67k1.0.3xByPNYC4yY" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="AK69" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="AJ69" r:id="rId8" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=4hTeWv_kDeXXgAbotpyYAg&amp;q=Fromagerie+RENARD-GILLARD%0955290++BIENCOURT+SUR+ORGE&amp;oq=Fromagerie+RENARD-GILLARD%0955290++BIENCOURT+SUR+ORGE&amp;gs_l=psy-ab.3...307263.318025.0.319529.2.2.0.0.0.0.346.468.0j1j0j1.2.0....0...1c.1j2.64.psy-ab..0.1.345...38j0i22i30k1.0.IaaI2w9RkVg" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="AJ47" r:id="rId9" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=1hfeWp6TCMeQgAa5rKXYBg&amp;q=lactinov+Zone+industrielle+des+Waillons%2C&amp;oq=lactinov+Zone+industrielle+des+Waillons%2C&amp;gs_l=psy-ab.3...118248.121573.0.122713.8.8.0.0.0.0.270.856.0j4j1.5.0....0...1c.1.64.psy-ab..3.0.0....0.R_37DFVeIEk" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="AK47" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="AK51" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="AJ51" r:id="rId12" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=iRneWveTOoeXgAbxmIKoDQ&amp;q=Canelia+Rouvroy+Poudre%09&amp;oq=Canelia+Rouvroy+Poudre%09&amp;gs_l=psy-ab.3..0j0i22i30k1l2j38l2.729255.729255.0.729873.1.1.0.0.0.0.408.408.4-1.1.0....0...1c.1.64.psy-ab..0.1.408....0.v8RWG58iatQ" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="AJ40" r:id="rId13" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?source=hp&amp;ei=Wh_eWqnFK4H0gAby1rroAQ&amp;q=cristanol+bazancourt&amp;oq=cristanol+bazancourt&amp;gs_l=psy-ab.3..0l3j0i22i30k1l4.1078.6763.0.7247.25.20.0.0.0.0.397.2564.0j7j4j1.12.0....0...1c.1.64.psy-ab..13.11.2391.0..35i39k1j0i67k1j0i131k1j0i10i67k1j0i10k1j0i10i203k1j0i30k1j0i10i30k1.0.Ylb1TxZHSno" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="AJ60" r:id="rId14" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?ei=Yh_eWpDnMsnLgAaFvIzwAg&amp;q=union+champagne+avize&amp;oq=union+champagne+avize&amp;gs_l=psy-ab.3..0l3.239180.244298.0.244969.21.16.0.5.5.0.235.1850.0j11j1.12.0....0...1c.1.64.psy-ab..4.17.1902...0i131k1j0i22i30k1.0.4NZh1uYSY6I" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="AK60" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="AJ12" r:id="rId16" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?ei=hqjgWrf7D-WVgAaajqb4Bg&amp;q=vivescia%20reims&amp;oq=vivescia+reims&amp;gs_l=psy-ab.3..0l3j0i22i30k1l7.110048.112300.0.112635.14.13.0.1.1.0.181.1425.0j10.10.0....0...1c.1.64.psy-ab..3.11.1435...35i39k1j0i131k1.0.j8KcD_SAUYk&amp;npsic=0&amp;rflfq=1&amp;rlha=0&amp;rllag=49231434,4074548,460&amp;tbm=lcl&amp;rldimm=13708956538798387191&amp;ved=0ahUKEwjFh4up6dXaAhVMBsAKHTFkCAMQvS4IOzAC&amp;rldoc=1&amp;tbs=lrf:!3sIAE,lf:1,lf_ui:4&amp;rlst=f" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="AR12" r:id="rId17" display="mailto:maxime.françois@vivescia.com" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="AK54" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="AJ54" r:id="rId19" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?q=KALIZEA+reims&amp;sa=X&amp;ved=0ahUKEwjJ9dug6tXaAhWqD8AKHZiSDzYQuzEICigA&amp;biw=1467&amp;bih=703" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="AK55" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="AJ7" r:id="rId21" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=pavgWrGFM8-0gQbpwIbQCQ&amp;q=fofralab+magenta&amp;oq=fofralab+magenta&amp;gs_l=psy-ab.3..0i13k1.387029.391164.0.391634.16.16.0.0.0.0.329.1969.0j6j3j1.10.0....0...1c.1.64.psy-ab..6.10.1960...0j35i39k1j0i67k1j0i131k1j0i131i67k1j0i10k1j0i10i19k1j0i13i5i10i30i19k1j0i13i30k1.0.Mbr8qt9fctI" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="AK63" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="AJ63" r:id="rId23" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=ZrDgWrTvMJqvgAbRn67gDA&amp;q=malteurop+vitry+le+francois&amp;oq=malteurop+vitry+le+francois&amp;gs_l=psy-ab.3..0i71k1l8.5807.5807.0.5976.1.1.0.0.0.0.0.0..0.0....0...1c..64.psy-ab..1.0.0....0.jIvwkzJYj6k" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="AR63" r:id="rId24" display="mailto:stephanie.grosjean@malteurop.com" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="AK72" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="AJ72" r:id="rId26" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=sbLgWvDKBIPAgAb2hIOIAQ&amp;q=MARLENHEIM+p%C3%A2tes&amp;oq=MARLENHEIM+p%C3%A2tes&amp;gs_l=psy-ab.3..33i22i29i30k1.6854.9853.0.10011.6.6.0.0.0.0.215.723.0j4j1.5.0....0...1c.1.64.psy-ab..1.4.507...0j0i67k1j0i22i30k1j33i160k1.0.2DQBZ7EcKCc" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="AK57" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="AJ57" r:id="rId28" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=vLLgWurlG4LZgQbt-YOwDw&amp;q=chamtor+pomacle&amp;oq=chamtor+pomacle&amp;gs_l=psy-ab.3..0i22i30k1.568190.572873.0.573230.15.12.0.3.3.0.296.1174.0j5j2.7.0....0...1c.1.64.psy-ab..5.10.1204...0j35i39k1j0i10i67k1j0i131k1j0i20i263k1j0i10k1j0i203k1j0i30k1j0i10i30k1.0.BuriVhJD9fU" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="AK50" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="AR50" r:id="rId30" display="mailto:theret@babynov.fr" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
     <hyperlink ref="AK74" display="https://www.google.fr/maps/place/Nutribio+(Barres+C%C3%A9r%C3%A9ales)/@50.1617921,2.3213815,17z/data=!4m12!1m6!3m5!1s0x47dd7082a4a62a79:0xafc357a0aaaf722b!2sCofranlait!8m2!3d50.1606202!4d2.3240262!3m4!1s0x47dd709dcc850bc9:0x21cdef0b722c71c5!8m2!3d50.16256" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="AK53" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="AJ53" r:id="rId33" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=RsbgWsefAeuZgAbg567IAw&amp;q=bister+10800+SAINT-THIBAULT&amp;oq=bister+10800+SAINT-THIBAULT&amp;gs_l=psy-ab.3...45431.46651.0.47492.8.8.0.0.0.0.236.895.0j3j2.5.0....0...1c.1.64.psy-ab..3.4.755...0j35i39k1j0i131k1j0i67k1j0i10k1j0i203k1.0.j49N90zVObY" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="AK66" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="AQ66" r:id="rId35" display="http://03.26.67.16.45/" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="AK53" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="AJ53" r:id="rId32" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=RsbgWsefAeuZgAbg567IAw&amp;q=bister+10800+SAINT-THIBAULT&amp;oq=bister+10800+SAINT-THIBAULT&amp;gs_l=psy-ab.3...45431.46651.0.47492.8.8.0.0.0.0.236.895.0j3j2.5.0....0...1c.1.64.psy-ab..3.4.755...0j35i39k1j0i131k1j0i67k1j0i10k1j0i203k1.0.j49N90zVObY" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="AK66" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="AQ66" r:id="rId34" display="http://03.26.67.16.45/" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="AK70" display="https://www.google.com/search?client=firefox-b-ab&amp;q=LESAFFRE+INTERNATIONAL+%09137+rue+gabriel+P%C3%A9ri%09MARCQ+EN+BAROEUL%0959700&amp;npsic=0&amp;rflfq=1&amp;rlha=0&amp;rllag=50672542,3079001,237&amp;tbm=lcl&amp;ved=0ahUKEwik1s3epOzaAhXkCsAKHXyYDl4QtgMIKg&amp;tbs=lrf:!2m1!1e2!3sIAE" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="AK67" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="AK67" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="AK62" display="https://www.google.fr/maps/place/5+Rue+Henri+Martin,+51200+%C3%89pernay/@49.03997,3.955612,18z/data=!3m1!4b1!4m8!1m2!2m1!1sCoop%C3%A9rative+R%C3%A9gionale+des+Vins+de+Champagne+5+rue+henri+martin!3m4!1s0x47e96b4f254c4b7f:0x2f30202f02c1afd2!8m2!3d49.039968" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="AK56" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="AR56" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="AJ62" r:id="rId39" display="http://03.26.51.19.30/" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="AK61" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="AK58" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="AR31" r:id="rId42" display="mailto:barbara.fromentin@pernod-ricard.com" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="AK64" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="AK59" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="AR59" r:id="rId45" display="mailto:f.pichard@distillerie-goyard.com" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="AR7" r:id="rId46" display="clebrishoual@sofralab.com" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="AK71" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="AK52" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="AK43" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="AK38" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="AK56" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="AR56" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="AJ62" r:id="rId38" display="http://03.26.51.19.30/" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="AK61" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="AK58" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="AR31" r:id="rId41" display="mailto:barbara.fromentin@pernod-ricard.com" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="AK64" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="AK59" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="AR59" r:id="rId44" display="mailto:f.pichard@distillerie-goyard.com" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="AR7" r:id="rId45" display="clebrishoual@sofralab.com" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="AK71" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="AK52" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="AK43" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="AK38" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
     <hyperlink ref="AK49" display="https://www.google.com/maps/place/Roquette+Fr%C3%A8res/@49.3962371,3.1070116,17z/data=!4m13!1m7!3m6!1s0x47e8637834193e7d:0x4e99f3d83b438dc6!2sRoute+de+Compi%C3%A8gne,+02290+Montigny-Lengrain!3b1!8m2!3d49.3958167!4d3.1021602!3m4!1s0x47e86379cc96af81:0x8b54" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="AR92" r:id="rId51" display="mailto:aurelie.gantet@reimsmetropole.fr" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="AR104" r:id="rId52" display="mailto:thor.hpc@thor.com" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="AR106" r:id="rId53" display="mailto:katia.savary@univ-reims.fr" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="AK42" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="AR9" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="AR51" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="AJ32" r:id="rId57" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?ei=WSDeWqjRLoPCgAao_rOACQ&amp;q=GRANDS+MOULINS+%28EUROMILL+NORD+REIMS%29&amp;oq=GRANDS+MOULINS+%28EUROMILL+NORD+REIMS%29&amp;gs_l=psy-ab.3...222844.222844.0.223869.1.1.0.0.0.0.361.361.3-1.1.0....0...1c.1.64.psy-ab..0.0.0....0.P1wqGInEwAU" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="AR77" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="AR78" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="AR6" r:id="rId60" display="mailto:mbertemes@mhws.fr" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="AR79" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="AK68" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="AR83" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="AR8" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="AQ52" r:id="rId65" display="Labo08@cq08.fr_x000a_03 24 59 61 53  _x000a_" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="AR52" r:id="rId66" display="mailto:Labo08@cq08.fr" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="AR21" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="AR22" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="AR86" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="AR89" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="AK46" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="AK87" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="AK88" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="AK89" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="AR33" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="AR4" r:id="rId76" display="m.lebrun@soliance.com / " xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="AR99" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="AR102" r:id="rId78" display="mailto:mickael.franchette@eugenemerma.fr" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="AR103" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="AR39" r:id="rId80" display="mailto:floriane.oszust@univ-reims;fr" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="AR42" r:id="rId81" display="mailto:v.verdonk@biotechjboy.com" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="AR108" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="AR92" r:id="rId50" display="mailto:aurelie.gantet@reimsmetropole.fr" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="AR104" r:id="rId51" display="mailto:thor.hpc@thor.com" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="AR106" r:id="rId52" display="mailto:katia.savary@univ-reims.fr" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="AK42" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="AR9" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="AR51" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="AJ32" r:id="rId56" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?ei=WSDeWqjRLoPCgAao_rOACQ&amp;q=GRANDS+MOULINS+%28EUROMILL+NORD+REIMS%29&amp;oq=GRANDS+MOULINS+%28EUROMILL+NORD+REIMS%29&amp;gs_l=psy-ab.3...222844.222844.0.223869.1.1.0.0.0.0.361.361.3-1.1.0....0...1c.1.64.psy-ab..0.0.0....0.P1wqGInEwAU" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="AR77" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="AR78" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="AR6" r:id="rId59" display="mailto:mbertemes@mhws.fr" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="AR79" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="AK68" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="AR83" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="AR8" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="AQ52" r:id="rId64" display="Labo08@cq08.fr_x000a_03 24 59 61 53  _x000a_" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="AR52" r:id="rId65" display="mailto:Labo08@cq08.fr" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="AR21" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="AR22" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="AR86" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="AR89" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="AK46" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="AK87" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="AK88" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="AK89" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="AR33" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="AR4" r:id="rId75" display="m.lebrun@soliance.com / " xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="AR99" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="AR102" r:id="rId77" display="mailto:mickael.franchette@eugenemerma.fr" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="AR103" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="AR39" r:id="rId79" display="mailto:floriane.oszust@univ-reims;fr" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="AR42" r:id="rId80" display="mailto:v.verdonk@biotechjboy.com" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="AR108" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
     <hyperlink ref="AK108" display="https://www.google.fr/maps/place/49%C2%B014'33.9%22N+4%C2%B003'41.6%22E/@49.242738,4.0606367,18z/data=!3m1!4b1!4m9!1m2!2m1!1sB%C3%A2timent+18+-+UFR+Sciences+Exactes+et+Naturelles,+Laboratoire+SIRMA++++CNRS+3481++!3m5!1s0x0:0x0!7e2!8m2!3d49.2427377!4d4.061" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="AR115" r:id="rId83" display="mailto:info@jnslabs.com" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="AR57" r:id="rId84" xr:uid="{120D4766-2804-834C-B350-0BE7FDA42D38}"/>
-    <hyperlink ref="AK4" r:id="rId85" xr:uid="{6622BBA6-6FF8-4152-B86B-419D1D3F91A2}"/>
-    <hyperlink ref="AK2" r:id="rId86" xr:uid="{CE6BB279-B22D-4886-BA43-EBC7C34ABC98}"/>
-    <hyperlink ref="AK3" r:id="rId87" xr:uid="{AD65CD47-7EFA-468A-823F-E339A9B6D149}"/>
-    <hyperlink ref="AK5" r:id="rId88" xr:uid="{867F9573-C524-43B1-B8BB-393613768702}"/>
-    <hyperlink ref="AK6" r:id="rId89" xr:uid="{BF5452CE-A4A7-4606-BC60-FF976F299AB7}"/>
-    <hyperlink ref="AK7" r:id="rId90" xr:uid="{D6C97649-73D2-49A8-8292-B639FCA92A26}"/>
-    <hyperlink ref="AK8" r:id="rId91" xr:uid="{06A1A36D-1C79-4DDD-8C3C-A29B3AB95216}"/>
-    <hyperlink ref="AK9" r:id="rId92" xr:uid="{E7287CB5-76AD-4369-BEC2-F6381C7644FC}"/>
-    <hyperlink ref="AK10" r:id="rId93" xr:uid="{9180D9EF-8163-43F1-B529-5EF7620CCC98}"/>
-    <hyperlink ref="AK12" r:id="rId94" xr:uid="{7B3178EE-8012-4045-ABA6-770304DA7A0A}"/>
-    <hyperlink ref="AK13" r:id="rId95" xr:uid="{6BF309E0-44F4-4801-A07F-B45D80DAD3B9}"/>
-    <hyperlink ref="AK15" r:id="rId96" xr:uid="{30B8E8AB-484D-4869-9DA7-C84D07A1DFD7}"/>
-    <hyperlink ref="AK17" r:id="rId97" xr:uid="{832F36F7-F6BA-46EB-A5E1-DB9BEB57D0DF}"/>
-    <hyperlink ref="AK18" r:id="rId98" xr:uid="{9154F617-C5AB-49D1-BA5E-806CE4EB594E}"/>
-    <hyperlink ref="AK19" r:id="rId99" xr:uid="{F3B7F5D3-98B0-43C8-A6A6-EFF45964F58D}"/>
-    <hyperlink ref="AK21" r:id="rId100" xr:uid="{8E4BF1A8-8EA1-4025-A588-AE88CCAA2C07}"/>
-    <hyperlink ref="AK23" r:id="rId101" xr:uid="{E24FB1E8-7D8A-43A4-B6D0-9E909F366FEE}"/>
+    <hyperlink ref="AR115" r:id="rId82" display="mailto:info@jnslabs.com" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="AR57" r:id="rId83" xr:uid="{120D4766-2804-834C-B350-0BE7FDA42D38}"/>
+    <hyperlink ref="AK4" r:id="rId84" xr:uid="{6622BBA6-6FF8-4152-B86B-419D1D3F91A2}"/>
+    <hyperlink ref="AK2" r:id="rId85" xr:uid="{CE6BB279-B22D-4886-BA43-EBC7C34ABC98}"/>
+    <hyperlink ref="AK3" r:id="rId86" xr:uid="{AD65CD47-7EFA-468A-823F-E339A9B6D149}"/>
+    <hyperlink ref="AK5" r:id="rId87" xr:uid="{867F9573-C524-43B1-B8BB-393613768702}"/>
+    <hyperlink ref="AK6" r:id="rId88" xr:uid="{BF5452CE-A4A7-4606-BC60-FF976F299AB7}"/>
+    <hyperlink ref="AK7" r:id="rId89" xr:uid="{D6C97649-73D2-49A8-8292-B639FCA92A26}"/>
+    <hyperlink ref="AK8" r:id="rId90" xr:uid="{06A1A36D-1C79-4DDD-8C3C-A29B3AB95216}"/>
+    <hyperlink ref="AK9" r:id="rId91" xr:uid="{E7287CB5-76AD-4369-BEC2-F6381C7644FC}"/>
+    <hyperlink ref="AK10" r:id="rId92" xr:uid="{9180D9EF-8163-43F1-B529-5EF7620CCC98}"/>
+    <hyperlink ref="AK12" r:id="rId93" xr:uid="{7B3178EE-8012-4045-ABA6-770304DA7A0A}"/>
+    <hyperlink ref="AK13" r:id="rId94" xr:uid="{6BF309E0-44F4-4801-A07F-B45D80DAD3B9}"/>
+    <hyperlink ref="AK15" r:id="rId95" xr:uid="{30B8E8AB-484D-4869-9DA7-C84D07A1DFD7}"/>
+    <hyperlink ref="AK17" r:id="rId96" xr:uid="{832F36F7-F6BA-46EB-A5E1-DB9BEB57D0DF}"/>
+    <hyperlink ref="AK18" r:id="rId97" xr:uid="{9154F617-C5AB-49D1-BA5E-806CE4EB594E}"/>
+    <hyperlink ref="AK19" r:id="rId98" xr:uid="{F3B7F5D3-98B0-43C8-A6A6-EFF45964F58D}"/>
+    <hyperlink ref="AK21" r:id="rId99" xr:uid="{8E4BF1A8-8EA1-4025-A588-AE88CCAA2C07}"/>
+    <hyperlink ref="AK23" r:id="rId100" xr:uid="{E24FB1E8-7D8A-43A4-B6D0-9E909F366FEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId102"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId101"/>
 </worksheet>
 </file>
 
@@ -42502,7 +42533,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="171" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B1" s="172"/>
       <c r="C1" s="172"/>
@@ -42519,14 +42550,14 @@
       <c r="F2" s="176"/>
       <c r="H2" s="68"/>
       <c r="I2" s="69" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="K2" s="70"/>
       <c r="L2" s="69" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="N2" s="167" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="O2" s="168"/>
       <c r="P2" s="168"/>
@@ -42588,7 +42619,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="171" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B1" s="172"/>
       <c r="C1" s="172"/>
@@ -42607,14 +42638,14 @@
       <c r="G2" s="71"/>
       <c r="H2" s="68"/>
       <c r="I2" s="69" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="K2" s="70"/>
       <c r="L2" s="69" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="N2" s="180" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="O2" s="181"/>
       <c r="P2" s="181"/>

--- a/Entreprises_Complet.xlsx
+++ b/Entreprises_Complet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfial\Documents\00_Stage_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{589F0895-A9FE-4415-B802-9BD44D035D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6764CA1-4C6A-4DF9-A8B0-48D58AF17EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="1311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="1323">
   <si>
     <t>Alimentaire</t>
   </si>
@@ -354,9 +354,6 @@
     <t>03 26 81 73 33</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Sucrerie+TEREOS+Connantre/@48.7247965,3.8977855,15z/data=!4m2!3m1!1s0x0:0xdd888ddaf41290e?sa=X&amp;ved=0ahUKEwiO-b7O7tDaAhUBKsAKHeuxBYgQ_BIIlwEwCg</t>
-  </si>
-  <si>
     <t>M. MAQUTN Hugues</t>
   </si>
   <si>
@@ -397,9 +394,6 @@
   </si>
   <si>
     <t>03 23 96 69 66</t>
-  </si>
-  <si>
-    <t>https://www.google.fr/maps/place/Lactinov+Braine/@49.3404153,3.5502932,15z/data=!4m2!3m1!1s0x0:0xc6f41e880803565f?sa=X&amp;ved=0ahUKEwjJ2ee09tDaAhUmM8AKHUKPChUQ_BIIigEwCg</t>
   </si>
   <si>
     <t>Mme Cécile BLANQUET</t>
@@ -1014,9 +1008,6 @@
     <t>HPXM+8H Strasbourg</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Laboratoire+d%C3%A9partemental+d'analyses+(CD67)/@48.598283,7.7317353,17z/data=!3m1!4b1!4m5!3m4!1s0x4796c83e65b94857:0x2faab44faaa02f79!8m2!3d48.598283!4d7.733924?hl=fr</t>
-  </si>
-  <si>
     <t>03 69 33 23 23</t>
   </si>
   <si>
@@ -1042,9 +1033,6 @@
   </si>
   <si>
     <t>03 24 38 15 04</t>
-  </si>
-  <si>
-    <t>https://www.google.fr/maps/place/Demoizet+Sarl/@49.5210207,4.3075185,17z/data=!3m1!4b1!4m5!3m4!1s0x47e9894e3e6e3463:0xe5c80f103fec204b!8m2!3d49.5210172!4d4.3097125</t>
   </si>
   <si>
     <t>2014_Stagiaire</t>
@@ -1287,9 +1275,6 @@
     <t>LABORATOIRE STERLING WINTHROP</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Institut+de+Biotechnologies+Jacques+Boy/@49.236492,4.063678,15z/data=!4m5!3m4!1s0x0:0xf4899a310cd64ee5!8m2!3d49.236492!4d4.063678?hl=fr</t>
-  </si>
-  <si>
     <t>63P7+HF Reims</t>
   </si>
   <si>
@@ -1329,9 +1314,6 @@
     <t>03 24 57 63 99</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Aux+Saveurs+d'Ardennes/@49.7253446,4.7156728,18.75z/data=!4m5!3m4!1s0x47ea118f5b0d1a09:0xc05e818715778e08!8m2!3d49.7256528!4d4.7158197?hl=fr</t>
-  </si>
-  <si>
     <t>PPG8+78 La Francheville</t>
   </si>
   <si>
@@ -1350,9 +1332,6 @@
     <t>3W6R+H9 Mardeuil</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Institut+Oenologique+de+Champagne/@49.0614445,3.938784,17z/data=!3m1!4b1!4m5!3m4!1s0x47e91350e05cdf79:0xc9d7d753be3a2a49!8m2!3d49.061441!4d3.940978?hl=fr</t>
-  </si>
-  <si>
     <t>Microbiologie des Agroressources</t>
   </si>
   <si>
@@ -1377,9 +1356,6 @@
     <t>01 60 01 71 71</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Jaminex/@49.0280924,3.0216037,564m/data=!3m2!1e3!4b1!4m5!3m4!1s0x47e8978946c4226b:0x1ba5d6bb0da19431!8m2!3d49.0280889!4d3.0237977?hl=fr</t>
-  </si>
-  <si>
     <t>22HF+6G Lizy-sur-Ourcq</t>
   </si>
   <si>
@@ -1498,9 +1474,6 @@
   </si>
   <si>
     <t>85WC+2R Bazancourt</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Cristanol/@49.3450267,4.1698669,17z/data=!3m1!4b1!4m5!3m4!1s0x0:0x1c2d497c838d7c9d!8m2!3d49.3450267!4d4.1720556</t>
   </si>
   <si>
     <t xml:space="preserve">Mme Kessler / Mme Castellain Marylène </t>
@@ -2762,9 +2735,6 @@
 </t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Parking+de+L'Hopital+Debr%C3%A9+-+CHU+de+Reims/@49.2259418,4.0171142,17z/data=!3m1!4b1!4m5!3m4!1s0x47e974883572cb5d:0x9e207a1ab533748d!8m2!3d49.2259418!4d4.0193029?hl=fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chantal de BEAUMONT </t>
   </si>
   <si>
@@ -4131,6 +4101,72 @@
   </si>
   <si>
     <t>https://www.linkedin.com/company/laiterie-de-saint-denis-de-l%27hotel-s-a-s/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>49.7256896489122, 4.716300436914696</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/aux-saveurs-d-ardennes/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>49.51996577412186, 4.308600368918196</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/sarl-demoizet/about/</t>
+  </si>
+  <si>
+    <t>49.22605914249005, 4.0195389326570155</t>
+  </si>
+  <si>
+    <t>https://www.univ-reims.fr/universite/organisation/hemostase-et-remodelage-vasculaire-post-ischemie-hervi-ea-3801,7741,18258.html?args=nHEMODyUJwUhqsrwuCpuaNyCDZ7MvvN7MAQuNirZyskV418MQMcUGLpndo%252AVyXeJjaUGzNHdLwJqnNPJgi8bfw</t>
+  </si>
+  <si>
+    <t>49.34426540397526, 4.170870369429801</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/cristanol/about/</t>
+  </si>
+  <si>
+    <t>49.06187328491511, 3.941441719159603</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/institut-oenologique-de-champagne/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>49.2371504908251, 4.065222952405405</t>
+  </si>
+  <si>
+    <t>Recherche..</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/institut-de-biotechnologies-jacques-boy/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>48.59871760470695, 7.734823584227693</t>
+  </si>
+  <si>
+    <t>49.02947909854908, 3.024143416254243</t>
+  </si>
+  <si>
+    <t>https://jaminex.com/</t>
+  </si>
+  <si>
+    <t>48.725376856620606, 3.899373367749999</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/tereos/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>47.859380634391954, 2.2677740130320823</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/antartic-a.s.a./about/</t>
+  </si>
+  <si>
+    <t>49.340708900859326, 3.5546705651486445</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/lactinov-export---groupe-lact%27union/?originalSubdomain=fr</t>
   </si>
 </sst>
 </file>
@@ -15100,10 +15136,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB274"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AD1" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="AL37" sqref="AL37"/>
+      <selection pane="bottomLeft" activeCell="AK47" sqref="AK47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15168,103 +15204,103 @@
         <v>70</v>
       </c>
       <c r="C1" s="150" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="151" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1" s="152" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F1" s="152" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G1" s="152" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H1" s="152" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I1" s="152" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J1" s="152" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K1" s="152" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L1" s="152" t="s">
+        <v>1011</v>
+      </c>
+      <c r="M1" s="153" t="s">
+        <v>277</v>
+      </c>
+      <c r="N1" s="150" t="s">
+        <v>278</v>
+      </c>
+      <c r="O1" s="150" t="s">
+        <v>279</v>
+      </c>
+      <c r="P1" s="150" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q1" s="150" t="s">
+        <v>259</v>
+      </c>
+      <c r="R1" s="154" t="s">
+        <v>260</v>
+      </c>
+      <c r="S1" s="150" t="s">
+        <v>261</v>
+      </c>
+      <c r="T1" s="150" t="s">
+        <v>262</v>
+      </c>
+      <c r="U1" s="150" t="s">
+        <v>268</v>
+      </c>
+      <c r="V1" s="150" t="s">
+        <v>269</v>
+      </c>
+      <c r="W1" s="150" t="s">
+        <v>270</v>
+      </c>
+      <c r="X1" s="150" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y1" s="150" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z1" s="150" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA1" s="150" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB1" s="150" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC1" s="150" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD1" s="150" t="s">
+        <v>310</v>
+      </c>
+      <c r="AE1" s="150" t="s">
+        <v>311</v>
+      </c>
+      <c r="AF1" s="150" t="s">
+        <v>312</v>
+      </c>
+      <c r="AG1" s="150" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH1" s="150" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="151" t="s">
-        <v>331</v>
-      </c>
-      <c r="E1" s="152" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F1" s="152" t="s">
-        <v>1023</v>
-      </c>
-      <c r="G1" s="152" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H1" s="152" t="s">
-        <v>1025</v>
-      </c>
-      <c r="I1" s="152" t="s">
-        <v>1018</v>
-      </c>
-      <c r="J1" s="152" t="s">
-        <v>1019</v>
-      </c>
-      <c r="K1" s="152" t="s">
-        <v>1020</v>
-      </c>
-      <c r="L1" s="152" t="s">
-        <v>1021</v>
-      </c>
-      <c r="M1" s="153" t="s">
-        <v>279</v>
-      </c>
-      <c r="N1" s="150" t="s">
-        <v>280</v>
-      </c>
-      <c r="O1" s="150" t="s">
-        <v>281</v>
-      </c>
-      <c r="P1" s="150" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q1" s="150" t="s">
-        <v>261</v>
-      </c>
-      <c r="R1" s="154" t="s">
-        <v>262</v>
-      </c>
-      <c r="S1" s="150" t="s">
-        <v>263</v>
-      </c>
-      <c r="T1" s="150" t="s">
-        <v>264</v>
-      </c>
-      <c r="U1" s="150" t="s">
-        <v>270</v>
-      </c>
-      <c r="V1" s="150" t="s">
-        <v>271</v>
-      </c>
-      <c r="W1" s="150" t="s">
-        <v>272</v>
-      </c>
-      <c r="X1" s="150" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y1" s="150" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z1" s="150" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA1" s="150" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB1" s="150" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC1" s="150" t="s">
-        <v>317</v>
-      </c>
-      <c r="AD1" s="150" t="s">
-        <v>314</v>
-      </c>
-      <c r="AE1" s="150" t="s">
-        <v>315</v>
-      </c>
-      <c r="AF1" s="150" t="s">
-        <v>316</v>
-      </c>
-      <c r="AG1" s="150" t="s">
+      <c r="AI1" s="155" t="s">
         <v>165</v>
-      </c>
-      <c r="AH1" s="150" t="s">
-        <v>166</v>
-      </c>
-      <c r="AI1" s="155" t="s">
-        <v>167</v>
       </c>
       <c r="AJ1" s="150" t="s">
         <v>77</v>
@@ -15273,10 +15309,10 @@
         <v>81</v>
       </c>
       <c r="AL1" s="150" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="AM1" s="150" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AN1" s="150" t="s">
         <v>72</v>
@@ -15294,113 +15330,113 @@
         <v>76</v>
       </c>
       <c r="AS1" s="156" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AT1" s="157" t="s">
+        <v>983</v>
+      </c>
+      <c r="AU1" s="158" t="s">
+        <v>986</v>
+      </c>
+      <c r="AV1" s="157" t="s">
+        <v>981</v>
+      </c>
+      <c r="AW1" s="158" t="s">
+        <v>984</v>
+      </c>
+      <c r="AX1" s="159" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AY1" s="159" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AZ1" s="159" t="s">
+        <v>1017</v>
+      </c>
+      <c r="BA1" s="159" t="s">
+        <v>1018</v>
+      </c>
+      <c r="BB1" s="159" t="s">
+        <v>987</v>
+      </c>
+      <c r="BC1" s="159" t="s">
+        <v>988</v>
+      </c>
+      <c r="BD1" s="159" t="s">
+        <v>989</v>
+      </c>
+      <c r="BE1" s="159" t="s">
+        <v>990</v>
+      </c>
+      <c r="BF1" s="159" t="s">
+        <v>991</v>
+      </c>
+      <c r="BG1" s="159" t="s">
+        <v>992</v>
+      </c>
+      <c r="BH1" s="159" t="s">
         <v>993</v>
       </c>
-      <c r="AU1" s="158" t="s">
+      <c r="BI1" s="159" t="s">
+        <v>994</v>
+      </c>
+      <c r="BJ1" s="159" t="s">
+        <v>995</v>
+      </c>
+      <c r="BK1" s="159" t="s">
         <v>996</v>
       </c>
-      <c r="AV1" s="157" t="s">
-        <v>991</v>
-      </c>
-      <c r="AW1" s="158" t="s">
-        <v>994</v>
-      </c>
-      <c r="AX1" s="159" t="s">
-        <v>1029</v>
-      </c>
-      <c r="AY1" s="159" t="s">
-        <v>1030</v>
-      </c>
-      <c r="AZ1" s="159" t="s">
-        <v>1027</v>
-      </c>
-      <c r="BA1" s="159" t="s">
-        <v>1028</v>
-      </c>
-      <c r="BB1" s="159" t="s">
-        <v>997</v>
-      </c>
-      <c r="BC1" s="159" t="s">
-        <v>998</v>
-      </c>
-      <c r="BD1" s="159" t="s">
-        <v>999</v>
-      </c>
-      <c r="BE1" s="159" t="s">
-        <v>1000</v>
-      </c>
-      <c r="BF1" s="159" t="s">
-        <v>1001</v>
-      </c>
-      <c r="BG1" s="159" t="s">
-        <v>1002</v>
-      </c>
-      <c r="BH1" s="159" t="s">
-        <v>1003</v>
-      </c>
-      <c r="BI1" s="159" t="s">
-        <v>1004</v>
-      </c>
-      <c r="BJ1" s="159" t="s">
-        <v>1005</v>
-      </c>
-      <c r="BK1" s="159" t="s">
-        <v>1006</v>
-      </c>
       <c r="BL1" s="160" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="BM1" s="160" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="BN1" s="160"/>
       <c r="BO1" s="160"/>
       <c r="BP1" s="161" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="BQ1" s="161" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
       <c r="BR1" s="161" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="BS1" s="161" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="BT1" s="161" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="BU1" s="161"/>
       <c r="BV1" s="161"/>
       <c r="BW1" s="161" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="BX1" s="161" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="BY1" s="161" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="BZ1" s="161" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="CA1" s="161" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="CB1" s="162"/>
     </row>
     <row r="2" spans="1:80" s="18" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>1240</v>
+        <v>1230</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1242</v>
+        <v>1232</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>1241</v>
+        <v>1231</v>
       </c>
       <c r="D2" s="99"/>
       <c r="E2" s="164"/>
@@ -15432,22 +15468,22 @@
       <c r="AE2" s="62"/>
       <c r="AF2" s="137"/>
       <c r="AG2" s="62" t="s">
-        <v>1243</v>
+        <v>1233</v>
       </c>
       <c r="AH2" s="62" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI2" s="138">
         <v>51100</v>
       </c>
       <c r="AJ2" s="139" t="s">
-        <v>1244</v>
+        <v>1234</v>
       </c>
       <c r="AK2" s="67" t="s">
-        <v>1245</v>
+        <v>1235</v>
       </c>
       <c r="AL2" s="144" t="s">
-        <v>1246</v>
+        <v>1236</v>
       </c>
       <c r="AM2" s="67"/>
       <c r="AN2" s="140"/>
@@ -15476,89 +15512,89 @@
     </row>
     <row r="3" spans="1:80" s="18" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D3" s="99" t="str">
         <f t="shared" ref="D3:D34" si="0">IF(AX3&lt;&gt;0,"2020_A="&amp;AX3," ")&amp;IF(AY3&lt;&gt;0," ; 2020_i="&amp;AY3," ")&amp;IF(AZ3&lt;&gt;0,"2019_A="&amp;AZ3," ")&amp;IF(BA3&lt;&gt;0," ; 2019_i="&amp;BA3," ")&amp;IF(BB3&lt;&gt;0,"2018_A="&amp;BB3," ")&amp;IF(BC3&lt;&gt;0," ; 2018_i="&amp;BC3," ")&amp;IF(BD3&lt;&gt;0," ; 2017_A="&amp;BD3," ")&amp;IF(BE3&lt;&gt;0," ; 2017_i="&amp;BE3," ")&amp;IF(BF3&lt;&gt;0," ; 2016_A="&amp;BF3," ")&amp;IF(BG3&lt;&gt;0," ; 2016_i="&amp;BG3," ")&amp;IF(BH3&lt;&gt;0," ; 2015_A="&amp;BH3," ")&amp;IF(BI3&lt;&gt;0," ; 2015_i="&amp;BI3," ")&amp;IF(BJ3&lt;&gt;0," ; 2014_A="&amp;BJ3," ")&amp;IF(BK3&lt;&gt;0," ; 2014_i="&amp;BK3," ")</f>
         <v xml:space="preserve">2020_A=2 2019_A=4 2018_A=7  ; 2017_A=5 ; 2017_i=1 ; 2016_A=6 ; 2016_i=1 ; 2015_A=3  ; 2014_A=3 </v>
       </c>
       <c r="E3" s="164" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="F3" s="164" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="G3" s="164" t="s">
-        <v>1214</v>
+        <v>1204</v>
       </c>
       <c r="H3" s="164"/>
       <c r="I3" s="74" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="K3" s="62" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
       <c r="L3" s="164"/>
       <c r="M3" s="74" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="N3" s="62" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="O3" s="62" t="s">
-        <v>1212</v>
+        <v>1202</v>
       </c>
       <c r="P3" s="137"/>
       <c r="Q3" s="62" t="s">
-        <v>1162</v>
+        <v>1152</v>
       </c>
       <c r="R3" s="137" t="s">
-        <v>1163</v>
+        <v>1153</v>
       </c>
       <c r="S3" s="137" t="s">
-        <v>1164</v>
+        <v>1154</v>
       </c>
       <c r="T3" s="137"/>
       <c r="U3" s="62" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="V3" s="62" t="s">
-        <v>1183</v>
+        <v>1173</v>
       </c>
       <c r="W3" s="62" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="X3" s="137"/>
       <c r="Y3" s="137"/>
       <c r="Z3" s="62" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="AA3" s="62" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="AB3" s="137"/>
       <c r="AC3" s="62"/>
       <c r="AD3" s="62" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="AE3" s="62" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="AF3" s="137"/>
       <c r="AG3" s="62" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="AH3" s="62" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI3" s="138">
         <v>51100</v>
@@ -15567,13 +15603,13 @@
         <v>326888110</v>
       </c>
       <c r="AK3" s="67" t="s">
-        <v>1250</v>
+        <v>1240</v>
       </c>
       <c r="AL3" s="144" t="s">
-        <v>1238</v>
+        <v>1228</v>
       </c>
       <c r="AM3" s="67" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="AN3" s="140"/>
       <c r="AO3" s="141"/>
@@ -15697,91 +15733,91 @@
     </row>
     <row r="4" spans="1:80" s="1" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D4" s="73" t="str">
         <f t="shared" si="0"/>
         <v>2020_A=1 2019_A=1 2018_A=2 ; 2018_i=1 ; 2017_A=1  ; 2016_A=2  ; 2015_A=1  ; 2014_A=2 ; 2014_i=1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="75" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
       <c r="T4" s="17"/>
       <c r="U4" s="17" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
       <c r="X4" s="17"/>
       <c r="Y4" s="17"/>
       <c r="Z4" s="17" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
       <c r="AA4" s="17" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="AB4" s="17"/>
       <c r="AC4" s="17" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
       <c r="AD4" s="17" t="s">
-        <v>1192</v>
+        <v>1182</v>
       </c>
       <c r="AE4" s="17" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
       <c r="AF4" s="17"/>
       <c r="AG4" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AH4" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AI4" s="41">
         <v>51110</v>
@@ -15790,26 +15826,26 @@
         <v>326888410</v>
       </c>
       <c r="AK4" s="23" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="AL4" s="145" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="AM4" s="50"/>
       <c r="AN4" s="11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AO4" s="17" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="AP4" s="17" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="AQ4" s="11" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="AR4" s="23" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="AS4" s="25"/>
       <c r="AT4" s="1">
@@ -15931,10 +15967,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D5" s="73" t="str">
         <f t="shared" si="0"/>
@@ -15949,70 +15985,70 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="75" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="P5" s="17"/>
       <c r="Q5" s="17" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>1168</v>
+        <v>1158</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>1172</v>
+        <v>1162</v>
       </c>
       <c r="T5" s="17"/>
       <c r="U5" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>1184</v>
+        <v>1174</v>
       </c>
       <c r="W5" s="17" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="X5" s="17"/>
       <c r="Y5" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Z5" s="17" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="AA5" s="17" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="AB5" s="17"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="17" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="AE5" s="17" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="AF5" s="17"/>
       <c r="AG5" s="17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AH5" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AI5" s="41">
         <v>2007</v>
       </c>
       <c r="AJ5" s="28" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AK5" s="23" t="s">
-        <v>1251</v>
+        <v>1241</v>
       </c>
       <c r="AL5" s="146" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="AM5" s="66"/>
       <c r="AN5" s="17"/>
@@ -16139,7 +16175,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="D6" s="73" t="str">
         <f t="shared" si="0"/>
@@ -16150,53 +16186,53 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="75" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>1208</v>
+        <v>1198</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="P6" s="17"/>
       <c r="Q6" s="17" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>1160</v>
+        <v>1150</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>1161</v>
+        <v>1151</v>
       </c>
       <c r="T6" s="17"/>
       <c r="U6" s="17" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="W6" s="17" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="Z6" s="17" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AA6" s="17" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="AB6" s="17"/>
       <c r="AC6" s="17"/>
@@ -16207,7 +16243,7 @@
         <v>45</v>
       </c>
       <c r="AH6" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AI6" s="11">
         <v>51200</v>
@@ -16216,20 +16252,20 @@
         <v>33326512020</v>
       </c>
       <c r="AK6" s="23" t="s">
-        <v>1252</v>
+        <v>1242</v>
       </c>
       <c r="AL6" s="147" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="AM6" s="25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AN6" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AO6" s="17"/>
       <c r="AP6" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AQ6" s="44" t="s">
         <v>46</v>
@@ -16353,7 +16389,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>29</v>
@@ -16371,87 +16407,87 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="75" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="T7" s="17"/>
       <c r="U7" s="17" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>1182</v>
+        <v>1172</v>
       </c>
       <c r="W7" s="17" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="X7" s="17"/>
       <c r="Y7" s="17"/>
       <c r="Z7" s="17" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="AA7" s="17" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="AB7" s="17"/>
       <c r="AC7" s="17"/>
       <c r="AD7" s="17" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
       <c r="AE7" s="17" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="AF7" s="17"/>
       <c r="AG7" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AH7" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AI7" s="41">
         <v>51530</v>
       </c>
       <c r="AJ7" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AK7" s="23" t="s">
-        <v>1253</v>
+        <v>1243</v>
       </c>
       <c r="AL7" s="147" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="AM7" s="23"/>
       <c r="AN7" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AO7" s="17" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="AP7" s="17"/>
       <c r="AQ7" s="11" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="AR7" s="50" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="AS7" s="25" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AT7" s="1">
         <f>RANK(BL7,$BL$3:$BL$122)+COUNTIF(BL$3:BL7,BL7)-1</f>
@@ -16568,10 +16604,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -16586,82 +16622,82 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="75" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="17" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>1133</v>
+        <v>1123</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
       <c r="T8" s="15"/>
       <c r="U8" s="17" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="W8" s="17" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="17" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="AA8" s="17" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="AB8" s="15"/>
       <c r="AC8" s="17"/>
       <c r="AD8" s="17" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="AE8" s="17" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="AF8" s="15"/>
       <c r="AG8" s="17" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="AH8" s="17" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="AI8" s="21">
         <v>2400</v>
       </c>
       <c r="AJ8" s="46" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="AK8" s="23" t="s">
-        <v>1254</v>
+        <v>1244</v>
       </c>
       <c r="AL8" s="23" t="s">
-        <v>1237</v>
+        <v>1227</v>
       </c>
       <c r="AM8" s="23"/>
       <c r="AN8" s="30"/>
       <c r="AO8" s="17" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="AP8" s="17" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="AQ8" s="48" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="AR8" s="42" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="AS8" s="26"/>
       <c r="AT8" s="1">
@@ -16782,87 +16818,87 @@
         <v>4</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>1102</v>
+        <v>1092</v>
       </c>
       <c r="D9" s="99" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">    2018_A=1  ; 2017_A=1  ; 2016_A=1 ; 2016_i=1 ; 2015_A=2  ; 2014_A=1 </v>
       </c>
       <c r="E9" s="75" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>1216</v>
+        <v>1206</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="75" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>1216</v>
+        <v>1206</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="75" t="s">
-        <v>1218</v>
+        <v>1208</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>1215</v>
+        <v>1205</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="P9" s="17"/>
       <c r="Q9" s="17" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="T9" s="17"/>
       <c r="U9" s="17" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>1186</v>
+        <v>1176</v>
       </c>
       <c r="W9" s="17" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="X9" s="17"/>
       <c r="Y9" s="17" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
       <c r="Z9" s="17" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="AA9" s="17" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="AB9" s="17"/>
       <c r="AC9" s="17" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="AE9" s="17" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="AF9" s="17"/>
       <c r="AG9" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AH9" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AI9" s="41">
         <v>51110</v>
@@ -16871,14 +16907,14 @@
         <v>89</v>
       </c>
       <c r="AK9" s="23" t="s">
-        <v>1255</v>
+        <v>1245</v>
       </c>
       <c r="AL9" s="23" t="s">
-        <v>1239</v>
+        <v>1229</v>
       </c>
       <c r="AM9" s="23"/>
       <c r="AN9" s="25" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="AO9" s="17" t="s">
         <v>91</v>
@@ -16887,10 +16923,10 @@
         <v>92</v>
       </c>
       <c r="AQ9" s="25" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="AR9" s="42" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="AS9" s="25"/>
       <c r="AT9" s="1">
@@ -17006,43 +17042,43 @@
         <v>0</v>
       </c>
       <c r="B10" s="143" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>1256</v>
+        <v>1246</v>
       </c>
       <c r="D10" s="73" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">2020_A=1 2019_A=1 2018_A=1         </v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="G10" s="142" t="s">
-        <v>1211</v>
+        <v>1201</v>
       </c>
       <c r="H10" s="126"/>
       <c r="I10" s="54" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="J10" s="54" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="K10" s="142" t="s">
-        <v>1211</v>
+        <v>1201</v>
       </c>
       <c r="L10" s="126"/>
       <c r="M10" s="97" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="N10" s="54" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="O10" s="142" t="s">
-        <v>1211</v>
+        <v>1201</v>
       </c>
       <c r="P10" s="122"/>
       <c r="Q10" s="54"/>
@@ -17062,10 +17098,10 @@
       <c r="AE10" s="54"/>
       <c r="AF10" s="122"/>
       <c r="AG10" s="54" t="s">
-        <v>1247</v>
+        <v>1237</v>
       </c>
       <c r="AH10" s="54" t="s">
-        <v>1248</v>
+        <v>1238</v>
       </c>
       <c r="AI10" s="128">
         <v>50890</v>
@@ -17074,10 +17110,10 @@
         <v>33233066500</v>
       </c>
       <c r="AK10" s="22" t="s">
-        <v>1257</v>
+        <v>1247</v>
       </c>
       <c r="AL10" s="23" t="s">
-        <v>1249</v>
+        <v>1239</v>
       </c>
       <c r="AM10" s="54"/>
       <c r="AN10" s="130"/>
@@ -17193,10 +17229,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>1279</v>
+        <v>1269</v>
       </c>
       <c r="D11" s="73" t="str">
         <f t="shared" si="0"/>
@@ -17211,73 +17247,73 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="75" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="O11" s="45" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="P11" s="15"/>
       <c r="Q11" s="17" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="R11" s="24" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="S11" s="45" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="T11" s="15"/>
       <c r="U11" s="15" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="V11" s="17" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="W11" s="45" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="X11" s="15"/>
       <c r="Y11" s="17" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="Z11" s="17" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="AA11" s="45" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="AB11" s="15"/>
       <c r="AC11" s="17"/>
       <c r="AD11" s="17" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
       <c r="AE11" s="45" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="AF11" s="26"/>
       <c r="AG11" s="17" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="AH11" s="17" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="AI11" s="21">
         <v>2350</v>
       </c>
       <c r="AJ11" s="46" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="AK11" s="23" t="s">
-        <v>1259</v>
+        <v>1249</v>
       </c>
       <c r="AL11" s="23" t="s">
-        <v>1258</v>
+        <v>1248</v>
       </c>
       <c r="AM11" s="23" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="AN11" s="47"/>
       <c r="AO11" s="26"/>
@@ -17396,7 +17432,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>22</v>
@@ -17414,33 +17450,33 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="75" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>1177</v>
+        <v>1167</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="P12" s="17"/>
       <c r="Q12" s="17" t="s">
-        <v>1153</v>
+        <v>1143</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>1156</v>
+        <v>1146</v>
       </c>
       <c r="S12" s="17" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="T12" s="17"/>
       <c r="U12" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="V12" s="17" t="s">
-        <v>1179</v>
+        <v>1169</v>
       </c>
       <c r="W12" s="17" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
@@ -17452,22 +17488,22 @@
       <c r="AE12" s="17"/>
       <c r="AF12" s="17"/>
       <c r="AG12" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AH12" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI12" s="41">
         <v>51100</v>
       </c>
       <c r="AJ12" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AK12" s="23" t="s">
-        <v>1260</v>
+        <v>1250</v>
       </c>
       <c r="AL12" s="23" t="s">
-        <v>1261</v>
+        <v>1251</v>
       </c>
       <c r="AM12" s="23"/>
       <c r="AN12" s="25"/>
@@ -17475,7 +17511,7 @@
         <v>23</v>
       </c>
       <c r="AP12" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AQ12" s="25" t="s">
         <v>24</v>
@@ -17484,7 +17520,7 @@
         <v>25</v>
       </c>
       <c r="AS12" s="25" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AT12" s="1">
         <f>RANK(BL12,$BL$3:$BL$122)+COUNTIF(BL$3:BL12,BL12)-1</f>
@@ -17593,7 +17629,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>19</v>
@@ -17611,33 +17647,33 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="75" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
       <c r="P13" s="17"/>
       <c r="Q13" s="17" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="R13" s="120" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
       <c r="T13" s="17"/>
       <c r="U13" s="17" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="V13" s="17" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="W13" s="17" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
@@ -17649,25 +17685,25 @@
       <c r="AE13" s="17"/>
       <c r="AF13" s="17"/>
       <c r="AG13" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AH13" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AI13" s="41">
         <v>10700</v>
       </c>
       <c r="AJ13" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AK13" s="23" t="s">
-        <v>1263</v>
+        <v>1253</v>
       </c>
       <c r="AL13" s="23" t="s">
-        <v>1262</v>
+        <v>1252</v>
       </c>
       <c r="AM13" s="23" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="AN13" s="25" t="s">
         <v>20</v>
@@ -17677,7 +17713,7 @@
       </c>
       <c r="AP13" s="17"/>
       <c r="AQ13" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AR13" s="42" t="s">
         <v>21</v>
@@ -17790,10 +17826,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="D14" s="73" t="str">
         <f t="shared" si="0"/>
@@ -17808,33 +17844,33 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="75" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
       <c r="P14" s="15"/>
       <c r="Q14" s="17" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="R14" s="24" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="S14" s="17" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
       <c r="T14" s="15"/>
       <c r="U14" s="17" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="W14" s="17" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
       <c r="X14" s="15"/>
       <c r="Y14" s="17"/>
@@ -17846,25 +17882,25 @@
       <c r="AE14" s="17"/>
       <c r="AF14" s="26"/>
       <c r="AG14" s="15" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="AH14" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI14" s="21">
         <v>51100</v>
       </c>
       <c r="AJ14" s="46" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="AK14" s="23" t="s">
-        <v>1265</v>
+        <v>1255</v>
       </c>
       <c r="AL14" s="23" t="s">
-        <v>1264</v>
+        <v>1254</v>
       </c>
       <c r="AM14" s="23" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="AN14" s="47"/>
       <c r="AO14" s="26"/>
@@ -17976,13 +18012,13 @@
     </row>
     <row r="15" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>1275</v>
+        <v>1265</v>
       </c>
       <c r="D15" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18001,26 +18037,26 @@
       <c r="O15" s="17"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="17" t="s">
-        <v>1153</v>
+        <v>1143</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>1157</v>
+        <v>1147</v>
       </c>
       <c r="S15" s="17" t="s">
-        <v>1158</v>
+        <v>1148</v>
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="17" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>1180</v>
+        <v>1170</v>
       </c>
       <c r="W15" s="17" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="X15" s="15" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
@@ -18031,23 +18067,23 @@
       <c r="AE15" s="17"/>
       <c r="AF15" s="15"/>
       <c r="AG15" s="17" t="s">
-        <v>1276</v>
+        <v>1266</v>
       </c>
       <c r="AH15" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI15" s="21">
         <v>51100</v>
       </c>
       <c r="AJ15" s="15"/>
       <c r="AK15" s="22" t="s">
-        <v>1267</v>
+        <v>1257</v>
       </c>
       <c r="AL15" s="23" t="s">
-        <v>1292</v>
+        <v>1282</v>
       </c>
       <c r="AM15" s="23" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="AN15" s="30"/>
       <c r="AO15" s="26"/>
@@ -18157,13 +18193,13 @@
     </row>
     <row r="16" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>1277</v>
+        <v>1267</v>
       </c>
       <c r="D16" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18178,13 +18214,13 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="75" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>1178</v>
+        <v>1168</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="P16" s="15"/>
       <c r="Q16" s="17"/>
@@ -18192,13 +18228,13 @@
       <c r="S16" s="15"/>
       <c r="T16" s="15"/>
       <c r="U16" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>1181</v>
+        <v>1171</v>
       </c>
       <c r="W16" s="17" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="X16" s="15"/>
       <c r="Y16" s="15"/>
@@ -18206,42 +18242,42 @@
       <c r="AA16" s="15"/>
       <c r="AB16" s="15"/>
       <c r="AC16" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AD16" s="17" t="s">
-        <v>1191</v>
+        <v>1181</v>
       </c>
       <c r="AE16" s="17" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="AF16" s="15"/>
       <c r="AG16" s="17" t="s">
-        <v>1278</v>
+        <v>1268</v>
       </c>
       <c r="AH16" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI16" s="21">
         <v>51100</v>
       </c>
       <c r="AJ16" s="15"/>
       <c r="AK16" s="22" t="s">
-        <v>1266</v>
+        <v>1256</v>
       </c>
       <c r="AL16" s="23" t="s">
-        <v>1291</v>
+        <v>1281</v>
       </c>
       <c r="AM16" s="23" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="AN16" s="30"/>
       <c r="AO16" s="17" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="AP16" s="24"/>
       <c r="AQ16" s="26"/>
       <c r="AR16" s="42" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="AS16" s="26"/>
       <c r="AT16" s="1">
@@ -18348,13 +18384,13 @@
     </row>
     <row r="17" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="D17" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18369,23 +18405,23 @@
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
       <c r="M17" s="75" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
       <c r="P17" s="17"/>
       <c r="Q17" s="17" t="s">
-        <v>1166</v>
+        <v>1156</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>1173</v>
+        <v>1163</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>1174</v>
+        <v>1164</v>
       </c>
       <c r="T17" s="17"/>
       <c r="U17" s="17"/>
@@ -18401,37 +18437,37 @@
       <c r="AE17" s="17"/>
       <c r="AF17" s="17"/>
       <c r="AG17" s="17" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="AH17" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI17" s="21">
         <v>51100</v>
       </c>
       <c r="AJ17" s="28"/>
       <c r="AK17" s="22" t="s">
-        <v>1269</v>
+        <v>1259</v>
       </c>
       <c r="AL17" s="22" t="s">
-        <v>1268</v>
+        <v>1258</v>
       </c>
       <c r="AM17" s="23" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="AN17" s="15"/>
       <c r="AO17" s="17" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="AP17" s="24"/>
       <c r="AQ17" s="17" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="AR17" s="60" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="AS17" s="25" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AT17" s="1">
         <f>RANK(BL17,$BL$3:$BL$122)+COUNTIF(BL$3:BL17,BL17)-1</f>
@@ -18542,10 +18578,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>1165</v>
+        <v>1155</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>1273</v>
+        <v>1263</v>
       </c>
       <c r="D18" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18560,23 +18596,23 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="75" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>1206</v>
+        <v>1196</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>1207</v>
+        <v>1197</v>
       </c>
       <c r="P18" s="15"/>
       <c r="Q18" s="17" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>1169</v>
+        <v>1159</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
@@ -18592,25 +18628,25 @@
       <c r="AE18" s="17"/>
       <c r="AF18" s="15"/>
       <c r="AG18" s="17" t="s">
-        <v>1274</v>
+        <v>1264</v>
       </c>
       <c r="AH18" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI18" s="21">
         <v>51680</v>
       </c>
       <c r="AJ18" s="28" t="s">
-        <v>1203</v>
+        <v>1193</v>
       </c>
       <c r="AK18" s="22" t="s">
-        <v>1267</v>
+        <v>1257</v>
       </c>
       <c r="AL18" s="22" t="s">
-        <v>1270</v>
+        <v>1260</v>
       </c>
       <c r="AM18" s="23" t="s">
-        <v>1204</v>
+        <v>1194</v>
       </c>
       <c r="AN18" s="30"/>
       <c r="AO18" s="26"/>
@@ -18723,10 +18759,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="D19" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18745,33 +18781,33 @@
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="17" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="R19" s="120" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="T19" s="17"/>
       <c r="U19" s="17" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="W19" s="17" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="X19" s="17"/>
       <c r="Y19" s="17" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="Z19" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="AA19" s="17" t="s">
         <v>487</v>
-      </c>
-      <c r="AA19" s="17" t="s">
-        <v>496</v>
       </c>
       <c r="AB19" s="17"/>
       <c r="AC19" s="17"/>
@@ -18779,41 +18815,41 @@
       <c r="AE19" s="17"/>
       <c r="AF19" s="17"/>
       <c r="AG19" s="25" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="AH19" s="17" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="AI19" s="11">
         <v>51200</v>
       </c>
       <c r="AJ19" s="46" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="AK19" s="22" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="AL19" s="52" t="s">
-        <v>1271</v>
+        <v>1261</v>
       </c>
       <c r="AM19" s="23" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="AN19" s="17"/>
       <c r="AO19" s="17" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="AP19" s="25" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="AQ19" s="25" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="AR19" s="23" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="AS19" s="25" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AT19" s="1">
         <f>RANK(BL19,$BL$3:$BL$122)+COUNTIF(BL$3:BL19,BL19)-1</f>
@@ -18919,13 +18955,13 @@
     </row>
     <row r="20" spans="1:80" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="51" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="D20" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18944,33 +18980,33 @@
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="17" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="R20" s="120" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="T20" s="17"/>
       <c r="U20" s="17" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="V20" s="17" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="W20" s="17" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="X20" s="17"/>
       <c r="Y20" s="17" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="Z20" s="17" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="AA20" s="17" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="AB20" s="17"/>
       <c r="AC20" s="17"/>
@@ -18978,22 +19014,22 @@
       <c r="AE20" s="17"/>
       <c r="AF20" s="17"/>
       <c r="AG20" s="25" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="AH20" s="17" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="AI20" s="11">
         <v>10380</v>
       </c>
       <c r="AJ20" s="46" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="AK20" s="52" t="s">
-        <v>1283</v>
+        <v>1273</v>
       </c>
       <c r="AL20" s="52" t="s">
-        <v>1282</v>
+        <v>1272</v>
       </c>
       <c r="AM20" s="25"/>
       <c r="AN20" s="17"/>
@@ -19109,10 +19145,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="D21" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19127,13 +19163,13 @@
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
       <c r="M21" s="75" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="P21" s="15"/>
       <c r="Q21" s="17"/>
@@ -19153,34 +19189,34 @@
       <c r="AE21" s="17"/>
       <c r="AF21" s="15"/>
       <c r="AG21" s="11" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="AH21" s="17" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="AI21" s="21">
         <v>10000</v>
       </c>
       <c r="AJ21" s="28"/>
       <c r="AK21" s="56" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="AL21" s="56"/>
       <c r="AM21" s="23" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="AN21" s="17" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="AO21" s="17" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="AP21" s="17" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="AQ21" s="17"/>
       <c r="AR21" s="23" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="AS21" s="25"/>
       <c r="AT21" s="1">
@@ -19286,10 +19322,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="D22" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19304,13 +19340,13 @@
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
       <c r="M22" s="75" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="17"/>
@@ -19330,32 +19366,32 @@
       <c r="AE22" s="17"/>
       <c r="AF22" s="15"/>
       <c r="AG22" s="11" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="AH22" s="17" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="AI22" s="21">
         <v>76100</v>
       </c>
       <c r="AJ22" s="28" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="AK22" s="56"/>
       <c r="AL22" s="56" t="s">
-        <v>1284</v>
+        <v>1274</v>
       </c>
       <c r="AM22" s="23" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="AN22" s="17"/>
       <c r="AO22" s="17"/>
       <c r="AP22" s="17"/>
       <c r="AQ22" s="17" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="AR22" s="23" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="AS22" s="25"/>
       <c r="AT22" s="1">
@@ -19461,10 +19497,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>1285</v>
+        <v>1275</v>
       </c>
       <c r="D23" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19479,13 +19515,13 @@
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
       <c r="M23" s="75" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="N23" s="17" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
       <c r="P23" s="15"/>
       <c r="Q23" s="17"/>
@@ -19505,35 +19541,35 @@
       <c r="AE23" s="17"/>
       <c r="AF23" s="15"/>
       <c r="AG23" s="11" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="AH23" s="17" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="AI23" s="21">
         <v>89150</v>
       </c>
       <c r="AJ23" s="28" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="AK23" s="56" t="s">
-        <v>1287</v>
+        <v>1277</v>
       </c>
       <c r="AL23" s="56" t="s">
-        <v>1286</v>
+        <v>1276</v>
       </c>
       <c r="AM23" s="23" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="AN23" s="30"/>
       <c r="AO23" s="17" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="AP23" s="17" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="AQ23" s="25" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="AR23" s="23"/>
       <c r="AS23" s="25"/>
@@ -19637,13 +19673,13 @@
     </row>
     <row r="24" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D24" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19662,13 +19698,13 @@
       <c r="O24" s="17"/>
       <c r="P24" s="15"/>
       <c r="Q24" s="17" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>1175</v>
+        <v>1165</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>1176</v>
+        <v>1166</v>
       </c>
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
@@ -19680,48 +19716,48 @@
       <c r="AA24" s="15"/>
       <c r="AB24" s="15"/>
       <c r="AC24" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>1193</v>
+        <v>1183</v>
       </c>
       <c r="AE24" s="17" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="AF24" s="15" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="AG24" s="17" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AH24" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AI24" s="21">
         <v>51110</v>
       </c>
       <c r="AJ24" s="28" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="AK24" s="23" t="s">
-        <v>1289</v>
+        <v>1279</v>
       </c>
       <c r="AL24" s="23" t="s">
-        <v>1288</v>
+        <v>1278</v>
       </c>
       <c r="AM24" s="23" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="AN24" s="15"/>
       <c r="AO24" s="24" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="AP24" s="17" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="AQ24" s="26"/>
       <c r="AR24" s="42" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="AS24" s="26"/>
       <c r="AT24" s="1">
@@ -19829,10 +19865,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D25" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19855,13 +19891,13 @@
       <c r="S25" s="17"/>
       <c r="T25" s="17"/>
       <c r="U25" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>1185</v>
+        <v>1175</v>
       </c>
       <c r="W25" s="17" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="X25" s="17"/>
       <c r="Y25" s="17"/>
@@ -19869,37 +19905,37 @@
       <c r="AA25" s="17"/>
       <c r="AB25" s="17"/>
       <c r="AC25" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD25" s="17" t="s">
-        <v>1194</v>
+        <v>1184</v>
       </c>
       <c r="AE25" s="17" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AF25" s="17" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="AG25" s="11" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AH25" s="11" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AI25" s="41">
         <v>10110</v>
       </c>
       <c r="AJ25" s="28" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AK25" s="23" t="s">
-        <v>1253</v>
+        <v>1243</v>
       </c>
       <c r="AL25" s="23" t="s">
-        <v>1290</v>
+        <v>1280</v>
       </c>
       <c r="AM25" s="23" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AN25" s="11"/>
       <c r="AO25" s="17"/>
@@ -20012,7 +20048,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>65</v>
@@ -20034,13 +20070,13 @@
       <c r="O26" s="17"/>
       <c r="P26" s="17"/>
       <c r="Q26" s="17" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
       <c r="R26" s="17" t="s">
-        <v>1136</v>
+        <v>1126</v>
       </c>
       <c r="S26" s="17" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
       <c r="T26" s="17"/>
       <c r="U26" s="17"/>
@@ -20056,22 +20092,22 @@
       <c r="AE26" s="17"/>
       <c r="AF26" s="17"/>
       <c r="AG26" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AH26" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AI26" s="41">
         <v>52100</v>
       </c>
       <c r="AJ26" s="28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AK26" s="23" t="s">
-        <v>1294</v>
+        <v>1284</v>
       </c>
       <c r="AL26" s="23" t="s">
-        <v>1293</v>
+        <v>1283</v>
       </c>
       <c r="AM26" s="23"/>
       <c r="AN26" s="25" t="s">
@@ -20185,10 +20221,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="D27" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20207,13 +20243,13 @@
       <c r="O27" s="17"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="17" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
       <c r="R27" s="17" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="S27" s="17" t="s">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="T27" s="15"/>
       <c r="U27" s="17"/>
@@ -20229,32 +20265,32 @@
       <c r="AE27" s="17"/>
       <c r="AF27" s="15"/>
       <c r="AG27" s="11" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="AH27" s="17" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="AI27" s="21">
         <v>8430</v>
       </c>
       <c r="AJ27" s="28" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="AK27" s="56"/>
       <c r="AL27" s="56" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="AM27" s="23" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="AN27" s="30"/>
       <c r="AO27" s="17" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="AP27" s="17"/>
       <c r="AQ27" s="17"/>
       <c r="AR27" s="23" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="AS27" s="25"/>
       <c r="AT27" s="1">
@@ -20357,13 +20393,13 @@
     </row>
     <row r="28" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="125" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B28" s="125" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
       <c r="D28" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20382,13 +20418,13 @@
       <c r="O28" s="54"/>
       <c r="P28" s="122"/>
       <c r="Q28" s="54" t="s">
+        <v>1125</v>
+      </c>
+      <c r="R28" s="54" t="s">
+        <v>1134</v>
+      </c>
+      <c r="S28" s="20" t="s">
         <v>1135</v>
-      </c>
-      <c r="R28" s="54" t="s">
-        <v>1144</v>
-      </c>
-      <c r="S28" s="20" t="s">
-        <v>1145</v>
       </c>
       <c r="T28" s="122"/>
       <c r="U28" s="122"/>
@@ -20404,10 +20440,10 @@
       <c r="AE28" s="54"/>
       <c r="AF28" s="122"/>
       <c r="AG28" s="54" t="s">
-        <v>1146</v>
+        <v>1136</v>
       </c>
       <c r="AH28" s="54" t="s">
-        <v>1147</v>
+        <v>1137</v>
       </c>
       <c r="AI28" s="128">
         <v>45730</v>
@@ -20417,7 +20453,7 @@
       </c>
       <c r="AK28" s="122"/>
       <c r="AL28" s="56" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
       <c r="AM28" s="54"/>
       <c r="AN28" s="130"/>
@@ -20526,13 +20562,13 @@
     </row>
     <row r="29" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="125" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B29" s="125" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
       <c r="D29" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20551,13 +20587,13 @@
       <c r="O29" s="54"/>
       <c r="P29" s="54"/>
       <c r="Q29" s="54" t="s">
-        <v>1149</v>
+        <v>1139</v>
       </c>
       <c r="R29" s="54" t="s">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="S29" s="20" t="s">
-        <v>1151</v>
+        <v>1141</v>
       </c>
       <c r="T29" s="54"/>
       <c r="U29" s="54"/>
@@ -20573,10 +20609,10 @@
       <c r="AE29" s="54"/>
       <c r="AF29" s="54"/>
       <c r="AG29" s="54" t="s">
-        <v>1152</v>
+        <v>1142</v>
       </c>
       <c r="AH29" s="54" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="AI29" s="128">
         <v>8000</v>
@@ -20586,7 +20622,7 @@
       </c>
       <c r="AK29" s="54"/>
       <c r="AL29" s="56" t="s">
-        <v>1297</v>
+        <v>1287</v>
       </c>
       <c r="AM29" s="54"/>
       <c r="AN29" s="54"/>
@@ -20698,10 +20734,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="D30" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20720,13 +20756,13 @@
       <c r="O30" s="17"/>
       <c r="P30" s="17"/>
       <c r="Q30" s="17" t="s">
-        <v>1153</v>
+        <v>1143</v>
       </c>
       <c r="R30" s="17" t="s">
-        <v>1154</v>
+        <v>1144</v>
       </c>
       <c r="S30" s="17" t="s">
-        <v>1155</v>
+        <v>1145</v>
       </c>
       <c r="T30" s="17"/>
       <c r="U30" s="17"/>
@@ -20742,37 +20778,37 @@
       <c r="AE30" s="17"/>
       <c r="AF30" s="48"/>
       <c r="AG30" s="54" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="AH30" s="17" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="AI30" s="21">
         <v>51500</v>
       </c>
       <c r="AJ30" s="46" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="AK30" s="23" t="s">
-        <v>1299</v>
+        <v>1289</v>
       </c>
       <c r="AL30" s="23" t="s">
-        <v>1298</v>
+        <v>1288</v>
       </c>
       <c r="AM30" s="23"/>
       <c r="AN30" s="45" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="AO30" s="17" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="AP30" s="17" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="AQ30" s="17"/>
       <c r="AR30" s="48"/>
       <c r="AS30" s="25" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AT30" s="1">
         <f>RANK(BL30,$BL$3:$BL$122)+COUNTIF(BL$3:BL30,BL30)-1</f>
@@ -20880,7 +20916,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D31" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20903,16 +20939,16 @@
       <c r="S31" s="17"/>
       <c r="T31" s="17"/>
       <c r="U31" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="V31" s="17" t="s">
-        <v>1187</v>
+        <v>1177</v>
       </c>
       <c r="W31" s="17" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="X31" s="17" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="Y31" s="17"/>
       <c r="Z31" s="17"/>
@@ -20926,7 +20962,7 @@
         <v>56</v>
       </c>
       <c r="AH31" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AI31" s="41">
         <v>51053</v>
@@ -20935,10 +20971,10 @@
         <v>58</v>
       </c>
       <c r="AK31" s="23" t="s">
-        <v>1301</v>
+        <v>1291</v>
       </c>
       <c r="AL31" s="23" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="AM31" s="23"/>
       <c r="AN31" s="25"/>
@@ -20947,13 +20983,13 @@
       </c>
       <c r="AP31" s="17"/>
       <c r="AQ31" s="11" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="AR31" s="23" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="AS31" s="25" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AT31" s="1">
         <f>RANK(BL31,$BL$3:$BL$122)+COUNTIF(BL$3:BL31,BL31)-1</f>
@@ -21058,10 +21094,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="D32" s="73" t="str">
         <f t="shared" si="0"/>
@@ -21084,13 +21120,13 @@
       <c r="S32" s="17"/>
       <c r="T32" s="17"/>
       <c r="U32" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="V32" s="17" t="s">
-        <v>1188</v>
+        <v>1178</v>
       </c>
       <c r="W32" s="17" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="X32" s="17"/>
       <c r="Y32" s="17"/>
@@ -21102,7 +21138,7 @@
       <c r="AE32" s="17"/>
       <c r="AF32" s="17"/>
       <c r="AG32" s="11" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="AH32" s="11" t="s">
         <v>69</v>
@@ -21111,19 +21147,19 @@
         <v>51100</v>
       </c>
       <c r="AJ32" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK32" s="53" t="s">
-        <v>1303</v>
+        <v>1293</v>
       </c>
       <c r="AL32" s="53" t="s">
-        <v>1302</v>
+        <v>1292</v>
       </c>
       <c r="AM32" s="23" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="AN32" s="25" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="AO32" s="17"/>
       <c r="AP32" s="17"/>
@@ -21230,11 +21266,11 @@
     </row>
     <row r="33" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="17" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="D33" s="73" t="str">
         <f t="shared" si="0"/>
@@ -21257,13 +21293,13 @@
       <c r="S33" s="15"/>
       <c r="T33" s="15"/>
       <c r="U33" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="V33" s="17" t="s">
-        <v>1189</v>
+        <v>1179</v>
       </c>
       <c r="W33" s="17" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="X33" s="15"/>
       <c r="Y33" s="15"/>
@@ -21275,36 +21311,36 @@
       <c r="AE33" s="17"/>
       <c r="AF33" s="15"/>
       <c r="AG33" s="17" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="AH33" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI33" s="21">
         <v>51100</v>
       </c>
       <c r="AJ33" s="28" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="AK33" s="23" t="s">
-        <v>1305</v>
+        <v>1295</v>
       </c>
       <c r="AL33" s="23" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="AM33" s="23" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="AN33" s="30"/>
       <c r="AO33" s="15" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="AP33" s="24"/>
       <c r="AQ33" s="17" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="AR33" s="23" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="AS33" s="26"/>
       <c r="AT33" s="1">
@@ -21441,25 +21477,25 @@
       <c r="X34" s="17"/>
       <c r="Y34" s="17"/>
       <c r="Z34" s="17" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="AA34" s="17" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="AB34" s="17"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="17" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="AE34" s="17" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="AF34" s="17"/>
       <c r="AG34" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AH34" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AI34" s="41">
         <v>10160</v>
@@ -21468,10 +21504,10 @@
         <v>78</v>
       </c>
       <c r="AK34" s="23" t="s">
-        <v>1307</v>
+        <v>1297</v>
       </c>
       <c r="AL34" s="23" t="s">
-        <v>1306</v>
+        <v>1296</v>
       </c>
       <c r="AM34" s="23"/>
       <c r="AN34" s="25"/>
@@ -21596,7 +21632,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="69" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="D35" s="73" t="str">
         <f t="shared" ref="D35:D66" si="19">IF(AX35&lt;&gt;0,"2020_A="&amp;AX35," ")&amp;IF(AY35&lt;&gt;0," ; 2020_i="&amp;AY35," ")&amp;IF(AZ35&lt;&gt;0,"2019_A="&amp;AZ35," ")&amp;IF(BA35&lt;&gt;0," ; 2019_i="&amp;BA35," ")&amp;IF(BB35&lt;&gt;0,"2018_A="&amp;BB35," ")&amp;IF(BC35&lt;&gt;0," ; 2018_i="&amp;BC35," ")&amp;IF(BD35&lt;&gt;0," ; 2017_A="&amp;BD35," ")&amp;IF(BE35&lt;&gt;0," ; 2017_i="&amp;BE35," ")&amp;IF(BF35&lt;&gt;0," ; 2016_A="&amp;BF35," ")&amp;IF(BG35&lt;&gt;0," ; 2016_i="&amp;BG35," ")&amp;IF(BH35&lt;&gt;0," ; 2015_A="&amp;BH35," ")&amp;IF(BI35&lt;&gt;0," ; 2015_i="&amp;BI35," ")&amp;IF(BJ35&lt;&gt;0," ; 2014_A="&amp;BJ35," ")&amp;IF(BK35&lt;&gt;0," ; 2014_i="&amp;BK35," ")</f>
@@ -21623,45 +21659,45 @@
       <c r="W35" s="69"/>
       <c r="X35" s="84"/>
       <c r="Y35" s="69" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="Z35" s="69" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="AA35" s="69" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
       <c r="AB35" s="84"/>
       <c r="AC35" s="69" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="AD35" s="69" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="AE35" s="69" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
       <c r="AF35" s="84"/>
       <c r="AG35" s="105" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
       <c r="AH35" s="69" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
       <c r="AI35" s="86">
         <v>10700</v>
       </c>
       <c r="AJ35" s="69" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="AK35" s="23" t="s">
-        <v>1255</v>
+        <v>1245</v>
       </c>
       <c r="AL35" s="23" t="s">
-        <v>1308</v>
+        <v>1298</v>
       </c>
       <c r="AM35" s="69" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="AN35" s="90"/>
       <c r="AO35" s="84"/>
@@ -21774,10 +21810,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="100" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="C36" s="69" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="D36" s="73" t="str">
         <f t="shared" si="19"/>
@@ -21805,40 +21841,40 @@
       <c r="X36" s="84"/>
       <c r="Y36" s="84"/>
       <c r="Z36" s="69" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="AA36" s="69" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="AB36" s="84"/>
       <c r="AC36" s="69"/>
       <c r="AD36" s="69" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
       <c r="AE36" s="69" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="AF36" s="84"/>
       <c r="AG36" s="105" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="AH36" s="69" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="AI36" s="86">
         <v>45550</v>
       </c>
       <c r="AJ36" s="69" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
       <c r="AK36" s="22" t="s">
-        <v>1310</v>
+        <v>1300</v>
       </c>
       <c r="AL36" s="23" t="s">
-        <v>1309</v>
+        <v>1299</v>
       </c>
       <c r="AM36" s="69" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
       <c r="AN36" s="90"/>
       <c r="AO36" s="84"/>
@@ -21951,10 +21987,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D37" s="73" t="str">
         <f t="shared" si="19"/>
@@ -21985,35 +22021,37 @@
       <c r="AA37" s="15"/>
       <c r="AB37" s="15"/>
       <c r="AC37" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AD37" s="17" t="s">
-        <v>1195</v>
+        <v>1185</v>
       </c>
       <c r="AE37" s="17" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="AF37" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AG37" s="17" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="AH37" s="17" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="AI37" s="21">
         <v>8000</v>
       </c>
       <c r="AJ37" s="28" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AK37" s="22" t="s">
-        <v>404</v>
-      </c>
-      <c r="AL37" s="22"/>
+        <v>1302</v>
+      </c>
+      <c r="AL37" s="22" t="s">
+        <v>1301</v>
+      </c>
       <c r="AM37" s="23" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AN37" s="30"/>
       <c r="AO37" s="26"/>
@@ -22124,10 +22162,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D38" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22158,33 +22196,35 @@
       <c r="AA38" s="15"/>
       <c r="AB38" s="15"/>
       <c r="AC38" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AD38" s="17" t="s">
-        <v>1196</v>
+        <v>1186</v>
       </c>
       <c r="AE38" s="17" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="AF38" s="15"/>
       <c r="AG38" s="17" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AH38" s="17" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AI38" s="21">
         <v>8300</v>
       </c>
       <c r="AJ38" s="28" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AK38" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="AL38" s="22"/>
+        <v>1304</v>
+      </c>
+      <c r="AL38" s="22" t="s">
+        <v>1303</v>
+      </c>
       <c r="AM38" s="23" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AN38" s="30"/>
       <c r="AO38" s="26"/>
@@ -22192,7 +22232,7 @@
       <c r="AQ38" s="26"/>
       <c r="AR38" s="26"/>
       <c r="AS38" s="48" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="AT38" s="1">
         <f>RANK(BL38,$BL$3:$BL$122)+COUNTIF(BL$3:BL38,BL38)-1</f>
@@ -22294,13 +22334,13 @@
     </row>
     <row r="39" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>372</v>
+        <v>1270</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="D39" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22331,45 +22371,47 @@
       <c r="AA39" s="15"/>
       <c r="AB39" s="15"/>
       <c r="AC39" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD39" s="17" t="s">
-        <v>1197</v>
+        <v>1187</v>
       </c>
       <c r="AE39" s="17" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="AF39" s="15" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="AG39" s="17" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AH39" s="17" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AI39" s="21">
         <v>51096</v>
       </c>
       <c r="AJ39" s="15"/>
       <c r="AK39" s="23" t="s">
-        <v>856</v>
-      </c>
-      <c r="AL39" s="23"/>
+        <v>1306</v>
+      </c>
+      <c r="AL39" s="23" t="s">
+        <v>1305</v>
+      </c>
       <c r="AM39" s="17"/>
       <c r="AN39" s="25" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AO39" s="26"/>
       <c r="AP39" s="24"/>
       <c r="AQ39" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AR39" s="42" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AS39" s="25" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AT39" s="1">
         <f>RANK(BL39,$BL$3:$BL$122)+COUNTIF(BL$3:BL39,BL39)-1</f>
@@ -22514,53 +22556,55 @@
       <c r="AA40" s="17"/>
       <c r="AB40" s="17"/>
       <c r="AC40" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD40" s="17" t="s">
-        <v>1198</v>
+        <v>1188</v>
       </c>
       <c r="AE40" s="17" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AF40" s="17" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="AG40" s="11" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="AH40" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI40" s="41">
         <v>51110</v>
       </c>
       <c r="AJ40" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AK40" s="23" t="s">
-        <v>461</v>
-      </c>
-      <c r="AL40" s="23"/>
+        <v>1308</v>
+      </c>
+      <c r="AL40" s="23" t="s">
+        <v>1307</v>
+      </c>
       <c r="AM40" s="23" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="AN40" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AO40" s="17" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="AP40" s="17" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="AQ40" s="11" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="AR40" s="11" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AS40" s="25" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AT40" s="1">
         <f>RANK(BL40,$BL$3:$BL$122)+COUNTIF(BL$3:BL40,BL40)-1</f>
@@ -22665,10 +22709,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D41" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22699,22 +22743,22 @@
       <c r="AA41" s="15"/>
       <c r="AB41" s="15"/>
       <c r="AC41" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AD41" s="17" t="s">
-        <v>1199</v>
+        <v>1189</v>
       </c>
       <c r="AE41" s="17" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="AF41" s="15" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AG41" s="17" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AH41" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AI41" s="21">
         <v>51530</v>
@@ -22723,11 +22767,13 @@
         <v>44</v>
       </c>
       <c r="AK41" s="22" t="s">
-        <v>411</v>
-      </c>
-      <c r="AL41" s="22"/>
+        <v>1310</v>
+      </c>
+      <c r="AL41" s="22" t="s">
+        <v>1309</v>
+      </c>
       <c r="AM41" s="23" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="AN41" s="30"/>
       <c r="AO41" s="26"/>
@@ -22735,7 +22781,7 @@
       <c r="AQ41" s="26"/>
       <c r="AR41" s="26"/>
       <c r="AS41" s="25" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AT41" s="1">
         <f>RANK(BL41,$BL$3:$BL$122)+COUNTIF(BL$3:BL41,BL41)-1</f>
@@ -22837,11 +22883,13 @@
     </row>
     <row r="42" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B42" s="12"/>
+        <v>1270</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>1312</v>
+      </c>
       <c r="C42" s="17" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D42" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22872,48 +22920,50 @@
       <c r="AA42" s="15"/>
       <c r="AB42" s="15"/>
       <c r="AC42" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD42" s="17" t="s">
-        <v>1200</v>
+        <v>1190</v>
       </c>
       <c r="AE42" s="17" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="AF42" s="15" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="AG42" s="17" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AH42" s="17" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="AI42" s="21">
         <v>51686</v>
       </c>
       <c r="AJ42" s="28" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AK42" s="22" t="s">
-        <v>390</v>
-      </c>
-      <c r="AL42" s="22"/>
+        <v>1313</v>
+      </c>
+      <c r="AL42" s="22" t="s">
+        <v>1311</v>
+      </c>
       <c r="AM42" s="23" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="AN42" s="17" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AO42" s="17" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="AP42" s="24"/>
       <c r="AQ42" s="25" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AR42" s="42" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AS42" s="26"/>
       <c r="AT42" s="1">
@@ -23019,10 +23069,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D43" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23053,38 +23103,38 @@
       <c r="AA43" s="15"/>
       <c r="AB43" s="15"/>
       <c r="AC43" s="17" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="AD43" s="17" t="s">
-        <v>1201</v>
+        <v>1191</v>
       </c>
       <c r="AE43" s="17" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="AF43" s="15" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="AG43" s="17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AH43" s="17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AI43" s="41">
         <v>67200</v>
       </c>
       <c r="AJ43" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="AK43" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="AL43" s="22"/>
+        <v>301</v>
+      </c>
+      <c r="AK43" s="22"/>
+      <c r="AL43" s="22" t="s">
+        <v>1314</v>
+      </c>
       <c r="AM43" s="23" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AN43" s="17" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="AO43" s="17"/>
       <c r="AP43" s="17"/>
@@ -23093,7 +23143,7 @@
       </c>
       <c r="AR43" s="26"/>
       <c r="AS43" s="25" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AT43" s="1">
         <f>RANK(BL43,$BL$3:$BL$122)+COUNTIF(BL$3:BL43,BL43)-1</f>
@@ -23198,10 +23248,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D44" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23232,35 +23282,37 @@
       <c r="AA44" s="15"/>
       <c r="AB44" s="15"/>
       <c r="AC44" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AD44" s="17" t="s">
-        <v>1202</v>
+        <v>1192</v>
       </c>
       <c r="AE44" s="17" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="AF44" s="15" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="AG44" s="17" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="AH44" s="17" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="AI44" s="21">
         <v>77440</v>
       </c>
       <c r="AJ44" s="28" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="AK44" s="22" t="s">
-        <v>420</v>
-      </c>
-      <c r="AL44" s="22"/>
+        <v>1316</v>
+      </c>
+      <c r="AL44" s="22" t="s">
+        <v>1315</v>
+      </c>
       <c r="AM44" s="23" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="AN44" s="30"/>
       <c r="AO44" s="26"/>
@@ -23366,7 +23418,7 @@
       </c>
       <c r="CB44" s="35"/>
     </row>
-    <row r="45" spans="1:80" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:80" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>0</v>
       </c>
@@ -23374,7 +23426,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>1101</v>
+        <v>1091</v>
       </c>
       <c r="D45" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23405,20 +23457,20 @@
       <c r="AA45" s="17"/>
       <c r="AB45" s="17"/>
       <c r="AC45" s="17" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="AD45" s="17" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="AE45" s="17" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="AF45" s="17"/>
       <c r="AG45" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AH45" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AI45" s="41">
         <v>51230</v>
@@ -23427,15 +23479,17 @@
         <v>93</v>
       </c>
       <c r="AK45" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL45" s="23"/>
+        <v>1318</v>
+      </c>
+      <c r="AL45" s="23" t="s">
+        <v>1317</v>
+      </c>
       <c r="AM45" s="23"/>
       <c r="AN45" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO45" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="AO45" s="17" t="s">
-        <v>96</v>
       </c>
       <c r="AP45" s="17" t="s">
         <v>92</v>
@@ -23444,7 +23498,7 @@
         <v>5</v>
       </c>
       <c r="AR45" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AS45" s="25"/>
       <c r="AT45" s="1">
@@ -23545,15 +23599,15 @@
       </c>
       <c r="CB45" s="35"/>
     </row>
-    <row r="46" spans="1:80" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:80" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D46" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23585,28 +23639,30 @@
       <c r="AB46" s="30"/>
       <c r="AC46" s="17"/>
       <c r="AD46" s="17" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="AE46" s="17" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="AF46" s="30"/>
       <c r="AG46" s="17" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="AH46" s="17" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="AI46" s="21">
         <v>45110</v>
       </c>
       <c r="AJ46" s="28" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AK46" s="58" t="s">
-        <v>728</v>
-      </c>
-      <c r="AL46" s="58"/>
+        <v>1320</v>
+      </c>
+      <c r="AL46" s="58" t="s">
+        <v>1319</v>
+      </c>
       <c r="AM46" s="17"/>
       <c r="AN46" s="26"/>
       <c r="AO46" s="26"/>
@@ -23712,15 +23768,15 @@
       </c>
       <c r="CB46" s="37"/>
     </row>
-    <row r="47" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:80" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D47" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23755,28 +23811,30 @@
       <c r="AE47" s="17"/>
       <c r="AF47" s="17"/>
       <c r="AG47" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AH47" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AI47" s="41">
         <v>2220</v>
       </c>
       <c r="AJ47" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AK47" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL47" s="23"/>
+        <v>1322</v>
+      </c>
+      <c r="AL47" s="23" t="s">
+        <v>1321</v>
+      </c>
       <c r="AM47" s="23"/>
       <c r="AN47" s="25"/>
       <c r="AO47" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AP47" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AQ47" s="25"/>
       <c r="AR47" s="42" t="s">
@@ -23884,7 +23942,7 @@
         <v>0</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>6</v>
@@ -23922,19 +23980,19 @@
       <c r="AE48" s="17"/>
       <c r="AF48" s="17"/>
       <c r="AG48" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AH48" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI48" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="AI48" s="43" t="s">
-        <v>177</v>
-      </c>
       <c r="AJ48" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK48" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AL48" s="23"/>
       <c r="AM48" s="23"/>
@@ -23943,7 +24001,7 @@
       <c r="AP48" s="17"/>
       <c r="AQ48" s="25"/>
       <c r="AR48" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AS48" s="25"/>
       <c r="AT48" s="1">
@@ -24047,10 +24105,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D49" s="73" t="str">
         <f t="shared" si="19"/>
@@ -24085,23 +24143,23 @@
       <c r="AE49" s="17"/>
       <c r="AF49" s="17"/>
       <c r="AG49" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AH49" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AI49" s="43" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AJ49" s="28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK49" s="23" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AL49" s="23"/>
       <c r="AM49" s="23" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AN49" s="25"/>
       <c r="AO49" s="17"/>
@@ -24210,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>34</v>
@@ -24248,28 +24306,28 @@
       <c r="AE50" s="17"/>
       <c r="AF50" s="17"/>
       <c r="AG50" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AH50" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AI50" s="43" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AJ50" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AK50" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AL50" s="23"/>
       <c r="AM50" s="23"/>
       <c r="AN50" s="25"/>
       <c r="AO50" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AP50" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AQ50" s="44" t="s">
         <v>35</v>
@@ -24379,10 +24437,10 @@
         <v>0</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="D51" s="73" t="str">
         <f t="shared" si="19"/>
@@ -24417,35 +24475,35 @@
       <c r="AE51" s="17"/>
       <c r="AF51" s="17"/>
       <c r="AG51" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AH51" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AI51" s="41">
         <v>8150</v>
       </c>
       <c r="AJ51" s="28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AK51" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AL51" s="23"/>
       <c r="AM51" s="23"/>
       <c r="AN51" s="25"/>
       <c r="AO51" s="17" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="AP51" s="17" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="AQ51" s="25"/>
       <c r="AR51" s="23" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="AS51" s="25" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="AT51" s="1">
         <f>RANK(BL51,$BL$3:$BL$122)+COUNTIF(BL$3:BL51,BL51)-1</f>
@@ -24548,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>68</v>
@@ -24586,36 +24644,36 @@
       <c r="AE52" s="17"/>
       <c r="AF52" s="15"/>
       <c r="AG52" s="17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AH52" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AI52" s="41">
         <v>8430</v>
       </c>
       <c r="AJ52" s="28" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AK52" s="22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AL52" s="22"/>
       <c r="AM52" s="23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN52" s="49"/>
       <c r="AO52" s="17" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="AP52" s="17" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="AQ52" s="23" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="AR52" s="42" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="AS52" s="26"/>
       <c r="AT52" s="1">
@@ -24719,7 +24777,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>38</v>
@@ -24757,24 +24815,24 @@
       <c r="AE53" s="17"/>
       <c r="AF53" s="17"/>
       <c r="AG53" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AH53" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AI53" s="41">
         <v>10800</v>
       </c>
       <c r="AJ53" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AK53" s="23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AL53" s="23"/>
       <c r="AM53" s="23"/>
       <c r="AN53" s="25" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="AO53" s="17"/>
       <c r="AP53" s="17"/>
@@ -24882,7 +24940,7 @@
         <v>0</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>26</v>
@@ -24920,19 +24978,19 @@
       <c r="AE54" s="17"/>
       <c r="AF54" s="17"/>
       <c r="AG54" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AH54" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI54" s="41">
         <v>51100</v>
       </c>
       <c r="AJ54" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AK54" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AL54" s="23"/>
       <c r="AM54" s="23"/>
@@ -25043,7 +25101,7 @@
         <v>0</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>27</v>
@@ -25081,37 +25139,37 @@
       <c r="AE55" s="17"/>
       <c r="AF55" s="17"/>
       <c r="AG55" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AH55" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI55" s="41">
         <v>51100</v>
       </c>
       <c r="AJ55" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AK55" s="23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AL55" s="23"/>
       <c r="AM55" s="23"/>
       <c r="AN55" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AO55" s="17" t="s">
         <v>28</v>
       </c>
       <c r="AP55" s="17" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AQ55" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AR55" s="11"/>
       <c r="AS55" s="25" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AT55" s="1">
         <f>RANK(BL55,$BL$3:$BL$122)+COUNTIF(BL$3:BL55,BL55)-1</f>
@@ -25252,32 +25310,32 @@
       <c r="AE56" s="17"/>
       <c r="AF56" s="17"/>
       <c r="AG56" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AH56" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI56" s="41">
         <v>51100</v>
       </c>
       <c r="AJ56" s="28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AK56" s="23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AL56" s="23"/>
       <c r="AM56" s="23"/>
       <c r="AN56" s="25"/>
       <c r="AO56" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AP56" s="17"/>
       <c r="AQ56" s="44" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AR56" s="42" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AS56" s="25"/>
       <c r="AT56" s="1">
@@ -25381,10 +25439,10 @@
         <v>0</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D57" s="73" t="str">
         <f t="shared" si="19"/>
@@ -25419,10 +25477,10 @@
       <c r="AE57" s="17"/>
       <c r="AF57" s="17"/>
       <c r="AG57" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AH57" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AI57" s="41">
         <v>51110</v>
@@ -25431,25 +25489,25 @@
         <v>33</v>
       </c>
       <c r="AK57" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AL57" s="23"/>
       <c r="AM57" s="23"/>
       <c r="AN57" s="25"/>
       <c r="AO57" s="17" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
       <c r="AP57" s="17" t="s">
-        <v>1222</v>
+        <v>1212</v>
       </c>
       <c r="AQ57" s="11" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="AR57" s="50" t="s">
-        <v>1224</v>
+        <v>1214</v>
       </c>
       <c r="AS57" s="11" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
       <c r="AT57" s="1">
         <f>RANK(BL57,$BL$3:$BL$122)+COUNTIF(BL$3:BL57,BL57)-1</f>
@@ -25590,26 +25648,26 @@
       <c r="AE58" s="17"/>
       <c r="AF58" s="17"/>
       <c r="AG58" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AH58" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AI58" s="41">
         <v>51130</v>
       </c>
       <c r="AJ58" s="28"/>
       <c r="AK58" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AL58" s="23"/>
       <c r="AM58" s="23"/>
       <c r="AN58" s="25"/>
       <c r="AO58" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AP58" s="17" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="AQ58" s="44" t="s">
         <v>55</v>
@@ -25717,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>63</v>
@@ -25755,28 +25813,28 @@
       <c r="AE59" s="17"/>
       <c r="AF59" s="17"/>
       <c r="AG59" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AH59" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AI59" s="41">
         <v>51160</v>
       </c>
       <c r="AJ59" s="28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AK59" s="23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AL59" s="23"/>
       <c r="AM59" s="23"/>
       <c r="AN59" s="25"/>
       <c r="AO59" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AP59" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AQ59" s="44"/>
       <c r="AR59" s="23" t="s">
@@ -25922,19 +25980,19 @@
       <c r="AE60" s="17"/>
       <c r="AF60" s="17"/>
       <c r="AG60" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AH60" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AI60" s="41">
         <v>51190</v>
       </c>
       <c r="AJ60" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AK60" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AL60" s="23"/>
       <c r="AM60" s="23"/>
@@ -26083,10 +26141,10 @@
       <c r="AE61" s="17"/>
       <c r="AF61" s="17"/>
       <c r="AG61" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AH61" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AI61" s="41">
         <v>51200</v>
@@ -26095,7 +26153,7 @@
         <v>53</v>
       </c>
       <c r="AK61" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AL61" s="23"/>
       <c r="AM61" s="23"/>
@@ -26209,7 +26267,7 @@
         <v>17</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D62" s="73" t="str">
         <f t="shared" si="19"/>
@@ -26247,7 +26305,7 @@
         <v>49</v>
       </c>
       <c r="AH62" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AI62" s="41">
         <v>51204</v>
@@ -26256,7 +26314,7 @@
         <v>50</v>
       </c>
       <c r="AK62" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AL62" s="23"/>
       <c r="AM62" s="23"/>
@@ -26369,7 +26427,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C63" s="17" t="s">
         <v>30</v>
@@ -26407,30 +26465,30 @@
       <c r="AE63" s="17"/>
       <c r="AF63" s="17"/>
       <c r="AG63" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AH63" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AI63" s="41">
         <v>51300</v>
       </c>
       <c r="AJ63" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AK63" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AL63" s="23"/>
       <c r="AM63" s="23"/>
       <c r="AN63" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AO63" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AP63" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AQ63" s="25" t="s">
         <v>31</v>
@@ -26439,7 +26497,7 @@
         <v>32</v>
       </c>
       <c r="AS63" s="25" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AT63" s="1">
         <f>RANK(BL63,$BL$3:$BL$122)+COUNTIF(BL$3:BL63,BL63)-1</f>
@@ -26545,7 +26603,7 @@
         <v>17</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D64" s="73" t="str">
         <f t="shared" si="19"/>
@@ -26583,7 +26641,7 @@
         <v>59</v>
       </c>
       <c r="AH64" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AI64" s="41">
         <v>51420</v>
@@ -26592,11 +26650,11 @@
         <v>61</v>
       </c>
       <c r="AK64" s="23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AL64" s="23"/>
       <c r="AM64" s="23" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="AN64" s="25" t="s">
         <v>60</v>
@@ -26610,7 +26668,7 @@
         <v>62</v>
       </c>
       <c r="AS64" s="25" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AT64" s="1">
         <f>RANK(BL64,$BL$3:$BL$122)+COUNTIF(BL$3:BL64,BL64)-1</f>
@@ -26716,7 +26774,7 @@
         <v>83</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
       <c r="D65" s="73" t="str">
         <f t="shared" si="19"/>
@@ -26751,10 +26809,10 @@
       <c r="AE65" s="17"/>
       <c r="AF65" s="17"/>
       <c r="AG65" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AH65" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AI65" s="41">
         <v>51500</v>
@@ -26771,7 +26829,7 @@
         <v>90</v>
       </c>
       <c r="AO65" s="17" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="AP65" s="17" t="s">
         <v>86</v>
@@ -26783,7 +26841,7 @@
         <v>87</v>
       </c>
       <c r="AS65" s="25" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AT65" s="1">
         <f>RANK(BL65,$BL$3:$BL$122)+COUNTIF(BL$3:BL65,BL65)-1</f>
@@ -26886,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C66" s="17" t="s">
         <v>39</v>
@@ -26927,21 +26985,21 @@
         <v>40</v>
       </c>
       <c r="AH66" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI66" s="41">
         <v>51510</v>
       </c>
       <c r="AJ66" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AK66" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AL66" s="23"/>
       <c r="AM66" s="23"/>
       <c r="AN66" s="25" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="AO66" s="17"/>
       <c r="AP66" s="17"/>
@@ -27054,7 +27112,7 @@
         <v>17</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D67" s="73" t="str">
         <f t="shared" ref="D67:D98" si="38">IF(AX67&lt;&gt;0,"2020_A="&amp;AX67," ")&amp;IF(AY67&lt;&gt;0," ; 2020_i="&amp;AY67," ")&amp;IF(AZ67&lt;&gt;0,"2019_A="&amp;AZ67," ")&amp;IF(BA67&lt;&gt;0," ; 2019_i="&amp;BA67," ")&amp;IF(BB67&lt;&gt;0,"2018_A="&amp;BB67," ")&amp;IF(BC67&lt;&gt;0," ; 2018_i="&amp;BC67," ")&amp;IF(BD67&lt;&gt;0," ; 2017_A="&amp;BD67," ")&amp;IF(BE67&lt;&gt;0," ; 2017_i="&amp;BE67," ")&amp;IF(BF67&lt;&gt;0," ; 2016_A="&amp;BF67," ")&amp;IF(BG67&lt;&gt;0," ; 2016_i="&amp;BG67," ")&amp;IF(BH67&lt;&gt;0," ; 2015_A="&amp;BH67," ")&amp;IF(BI67&lt;&gt;0," ; 2015_i="&amp;BI67," ")&amp;IF(BJ67&lt;&gt;0," ; 2014_A="&amp;BJ67," ")&amp;IF(BK67&lt;&gt;0," ; 2014_i="&amp;BK67," ")</f>
@@ -27089,33 +27147,33 @@
       <c r="AE67" s="17"/>
       <c r="AF67" s="17"/>
       <c r="AG67" s="11" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AH67" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AI67" s="41">
         <v>51689</v>
       </c>
       <c r="AJ67" s="28"/>
       <c r="AK67" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AL67" s="23"/>
       <c r="AM67" s="23"/>
       <c r="AN67" s="25"/>
       <c r="AO67" s="17" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="AP67" s="17" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="AQ67" s="44" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AR67" s="11"/>
       <c r="AS67" s="25" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AT67" s="1">
         <f>RANK(BL67,$BL$3:$BL$122)+COUNTIF(BL$3:BL67,BL67)-1</f>
@@ -27218,7 +27276,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="C68" s="17" t="s">
         <v>66</v>
@@ -27256,23 +27314,23 @@
       <c r="AE68" s="17"/>
       <c r="AF68" s="17"/>
       <c r="AG68" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AH68" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AI68" s="41">
         <v>55190</v>
       </c>
       <c r="AJ68" s="28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AK68" s="23" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="AL68" s="23"/>
       <c r="AM68" s="23" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="AN68" s="25"/>
       <c r="AO68" s="17"/>
@@ -27381,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C69" s="17" t="s">
         <v>10</v>
@@ -27419,28 +27477,28 @@
       <c r="AE69" s="17"/>
       <c r="AF69" s="17"/>
       <c r="AG69" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AH69" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AI69" s="41">
         <v>55290</v>
       </c>
       <c r="AJ69" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK69" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AL69" s="23"/>
       <c r="AM69" s="23"/>
       <c r="AN69" s="25"/>
       <c r="AO69" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP69" s="17" t="s">
         <v>106</v>
-      </c>
-      <c r="AP69" s="17" t="s">
-        <v>107</v>
       </c>
       <c r="AQ69" s="25" t="s">
         <v>11</v>
@@ -27550,7 +27608,7 @@
         <v>0</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C70" s="17" t="s">
         <v>42</v>
@@ -27591,7 +27649,7 @@
         <v>43</v>
       </c>
       <c r="AH70" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AI70" s="41">
         <v>59700</v>
@@ -27600,7 +27658,7 @@
         <v>320816100</v>
       </c>
       <c r="AK70" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AL70" s="23"/>
       <c r="AM70" s="23"/>
@@ -27711,7 +27769,7 @@
         <v>0</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>67</v>
@@ -27749,31 +27807,31 @@
       <c r="AE71" s="17"/>
       <c r="AF71" s="15"/>
       <c r="AG71" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AH71" s="17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AI71" s="41">
         <v>60890</v>
       </c>
       <c r="AJ71" s="28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AK71" s="22" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AL71" s="22"/>
       <c r="AM71" s="23" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AN71" s="30"/>
       <c r="AO71" s="17" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="AP71" s="24"/>
       <c r="AQ71" s="17" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="AR71" s="26"/>
       <c r="AS71" s="26"/>
@@ -27878,10 +27936,10 @@
         <v>0</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D72" s="73" t="str">
         <f t="shared" si="38"/>
@@ -27916,24 +27974,24 @@
       <c r="AE72" s="17"/>
       <c r="AF72" s="17"/>
       <c r="AG72" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AH72" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AI72" s="41">
         <v>67520</v>
       </c>
       <c r="AJ72" s="28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AK72" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AL72" s="23"/>
       <c r="AM72" s="23"/>
       <c r="AN72" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AO72" s="17"/>
       <c r="AP72" s="17"/>
@@ -28041,10 +28099,10 @@
         <v>0</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="D73" s="73" t="str">
         <f t="shared" si="38"/>
@@ -28079,33 +28137,33 @@
       <c r="AE73" s="17"/>
       <c r="AF73" s="48"/>
       <c r="AG73" s="54" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="AH73" s="17" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="AI73" s="21">
         <v>77510</v>
       </c>
       <c r="AJ73" s="46" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="AK73" s="23" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="AL73" s="23"/>
       <c r="AM73" s="23" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="AN73" s="45"/>
       <c r="AO73" s="48" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="AP73" s="17" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="AQ73" s="17" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="AR73" s="48"/>
       <c r="AS73" s="48"/>
@@ -28210,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>37</v>
@@ -28248,31 +28306,31 @@
       <c r="AE74" s="17"/>
       <c r="AF74" s="17"/>
       <c r="AG74" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AH74" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AI74" s="41">
         <v>80600</v>
       </c>
       <c r="AJ74" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AK74" s="23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AL74" s="23"/>
       <c r="AM74" s="23"/>
       <c r="AN74" s="25"/>
       <c r="AO74" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AP74" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AQ74" s="44" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="AR74" s="11"/>
       <c r="AS74" s="25"/>
@@ -28377,7 +28435,7 @@
         <v>0</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C75" s="17" t="s">
         <v>7</v>
@@ -28415,10 +28473,10 @@
       <c r="AE75" s="17"/>
       <c r="AF75" s="17"/>
       <c r="AG75" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AH75" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AI75" s="41">
         <v>89470</v>
@@ -28427,18 +28485,18 @@
         <v>8</v>
       </c>
       <c r="AK75" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AL75" s="23"/>
       <c r="AM75" s="23"/>
       <c r="AN75" s="25" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AO75" s="17" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="AP75" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AQ75" s="25" t="s">
         <v>8</v>
@@ -28551,7 +28609,7 @@
         <v>17</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D76" s="73" t="str">
         <f t="shared" si="38"/>
@@ -28586,30 +28644,30 @@
       <c r="AE76" s="17"/>
       <c r="AF76" s="15"/>
       <c r="AG76" s="11" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="AH76" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI76" s="21">
         <v>51100</v>
       </c>
       <c r="AJ76" s="28" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="AK76" s="22" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="AL76" s="22"/>
       <c r="AM76" s="23" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="AN76" s="30"/>
       <c r="AO76" s="17" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="AP76" s="17" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="AQ76" s="26"/>
       <c r="AR76" s="26"/>
@@ -28718,7 +28776,7 @@
         <v>17</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="D77" s="73" t="str">
         <f t="shared" si="38"/>
@@ -28753,37 +28811,37 @@
       <c r="AE77" s="17"/>
       <c r="AF77" s="15"/>
       <c r="AG77" s="11" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="AH77" s="17" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="AI77" s="21">
         <v>51200</v>
       </c>
       <c r="AJ77" s="28" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="AK77" s="56" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="AL77" s="56"/>
       <c r="AM77" s="23" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="AN77" s="30"/>
       <c r="AO77" s="17" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="AP77" s="48"/>
       <c r="AQ77" s="25" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="AR77" s="23" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="AS77" s="25" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AT77" s="1">
         <f>RANK(BL77,$BL$3:$BL$122)+COUNTIF(BL$3:BL77,BL77)-1</f>
@@ -28889,7 +28947,7 @@
         <v>17</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="D78" s="73" t="str">
         <f t="shared" si="38"/>
@@ -28924,34 +28982,34 @@
       <c r="AE78" s="17"/>
       <c r="AF78" s="15"/>
       <c r="AG78" s="11" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="AH78" s="17" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AI78" s="21">
         <v>10110</v>
       </c>
       <c r="AJ78" s="28" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="AK78" s="56" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="AL78" s="56"/>
       <c r="AM78" s="23" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="AN78" s="30"/>
       <c r="AO78" s="17" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="AP78" s="48"/>
       <c r="AQ78" s="25" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="AR78" s="23" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="AS78" s="25"/>
       <c r="AT78" s="1">
@@ -29058,7 +29116,7 @@
         <v>17</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="D79" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29093,36 +29151,36 @@
       <c r="AE79" s="17"/>
       <c r="AF79" s="15"/>
       <c r="AG79" s="11" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="AH79" s="17" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="AI79" s="21">
         <v>51530</v>
       </c>
       <c r="AJ79" s="28" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="AK79" s="56" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="AL79" s="56"/>
       <c r="AM79" s="23" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="AN79" s="30"/>
       <c r="AO79" s="17" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="AP79" s="17" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="AQ79" s="25" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="AR79" s="23" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="AS79" s="25"/>
       <c r="AT79" s="1">
@@ -29223,13 +29281,13 @@
     </row>
     <row r="80" spans="1:80" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="D80" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29264,30 +29322,30 @@
       <c r="AE80" s="17"/>
       <c r="AF80" s="15"/>
       <c r="AG80" s="11" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="AH80" s="17" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="AI80" s="21">
         <v>10800</v>
       </c>
       <c r="AJ80" s="28" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="AK80" s="56" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="AL80" s="56"/>
       <c r="AM80" s="23" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="AN80" s="30"/>
       <c r="AO80" s="17"/>
       <c r="AP80" s="17"/>
       <c r="AQ80" s="25"/>
       <c r="AR80" s="23" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="AS80" s="25"/>
       <c r="AT80" s="1">
@@ -29388,13 +29446,13 @@
     </row>
     <row r="81" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="D81" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29429,31 +29487,31 @@
       <c r="AE81" s="17"/>
       <c r="AF81" s="15"/>
       <c r="AG81" s="11" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="AH81" s="17" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="AI81" s="21">
         <v>94200</v>
       </c>
       <c r="AJ81" s="28"/>
       <c r="AK81" s="56" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="AL81" s="56"/>
       <c r="AM81" s="23" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="AN81" s="30"/>
       <c r="AO81" s="17" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="AP81" s="17" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="AQ81" s="11" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="AR81" s="23"/>
       <c r="AS81" s="25"/>
@@ -29555,13 +29613,13 @@
     </row>
     <row r="82" spans="1:80" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="D82" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29596,23 +29654,23 @@
       <c r="AE82" s="17"/>
       <c r="AF82" s="15"/>
       <c r="AG82" s="11" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="AH82" s="17" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="AI82" s="21">
         <v>2220</v>
       </c>
       <c r="AJ82" s="28" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="AK82" s="56" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="AL82" s="56"/>
       <c r="AM82" s="23" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="AN82" s="30"/>
       <c r="AO82" s="17"/>
@@ -29620,7 +29678,7 @@
       <c r="AQ82" s="11"/>
       <c r="AR82" s="23"/>
       <c r="AS82" s="25" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AT82" s="1">
         <f>RANK(BL82,$BL$3:$BL$122)+COUNTIF(BL$3:BL82,BL82)-1</f>
@@ -29726,7 +29784,7 @@
         <v>4</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="D83" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29761,38 +29819,38 @@
       <c r="AE83" s="17"/>
       <c r="AF83" s="15"/>
       <c r="AG83" s="11" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="AH83" s="17" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="AI83" s="21">
         <v>51320</v>
       </c>
       <c r="AJ83" s="28" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="AK83" s="56" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="AL83" s="56"/>
       <c r="AM83" s="23" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="AN83" s="17" t="s">
-        <v>1226</v>
+        <v>1216</v>
       </c>
       <c r="AO83" s="17" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
       <c r="AP83" s="17" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
       <c r="AQ83" s="17" t="s">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AR83" s="23" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="AS83" s="25"/>
       <c r="AT83" s="1">
@@ -29896,10 +29954,10 @@
         <v>0</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="D84" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29934,36 +29992,36 @@
       <c r="AE84" s="17"/>
       <c r="AF84" s="15"/>
       <c r="AG84" s="11" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="AH84" s="17" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="AI84" s="21">
         <v>2450</v>
       </c>
       <c r="AJ84" s="28" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="AK84" s="56" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="AL84" s="56"/>
       <c r="AM84" s="23" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="AN84" s="30"/>
       <c r="AO84" s="17" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="AP84" s="17" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="AQ84" s="17" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="AR84" s="23" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="AS84" s="25"/>
       <c r="AT84" s="1">
@@ -30067,10 +30125,10 @@
         <v>0</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="D85" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30105,23 +30163,23 @@
       <c r="AE85" s="17"/>
       <c r="AF85" s="15"/>
       <c r="AG85" s="11" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="AH85" s="17" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="AI85" s="21">
         <v>25300</v>
       </c>
       <c r="AJ85" s="28" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="AK85" s="56" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="AL85" s="56"/>
       <c r="AM85" s="23" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="AN85" s="30"/>
       <c r="AO85" s="17"/>
@@ -30230,10 +30288,10 @@
         <v>0</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="D86" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30268,30 +30326,30 @@
       <c r="AE86" s="17"/>
       <c r="AF86" s="15"/>
       <c r="AG86" s="17" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="AH86" s="17" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="AI86" s="21">
         <v>10230</v>
       </c>
       <c r="AJ86" s="28" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="AK86" s="56" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="AL86" s="56"/>
       <c r="AM86" s="23" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="AN86" s="30"/>
       <c r="AO86" s="26"/>
       <c r="AP86" s="24"/>
       <c r="AQ86" s="26"/>
       <c r="AR86" s="57" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AS86" s="26"/>
       <c r="AT86" s="1">
@@ -30398,7 +30456,7 @@
         <v>15</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="D87" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30433,31 +30491,31 @@
       <c r="AE87" s="17"/>
       <c r="AF87" s="15"/>
       <c r="AG87" s="17" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="AH87" s="17" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="AI87" s="21">
         <v>51130</v>
       </c>
       <c r="AJ87" s="28" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="AK87" s="22" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="AL87" s="22"/>
       <c r="AM87" s="23" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="AN87" s="26"/>
       <c r="AO87" s="17" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AP87" s="24"/>
       <c r="AQ87" s="59" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AR87" s="26"/>
       <c r="AS87" s="26"/>
@@ -30562,10 +30620,10 @@
         <v>0</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D88" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30600,31 +30658,31 @@
       <c r="AE88" s="17"/>
       <c r="AF88" s="15"/>
       <c r="AG88" s="17" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="AH88" s="17" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="AI88" s="21">
         <v>6823</v>
       </c>
       <c r="AJ88" s="28" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="AK88" s="22" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="AL88" s="22"/>
       <c r="AM88" s="23" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="AN88" s="26"/>
       <c r="AO88" s="17" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AP88" s="24"/>
       <c r="AQ88" s="17" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AR88" s="26"/>
       <c r="AS88" s="26"/>
@@ -30729,10 +30787,10 @@
         <v>0</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="D89" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30767,35 +30825,35 @@
       <c r="AE89" s="17"/>
       <c r="AF89" s="15"/>
       <c r="AG89" s="17" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="AH89" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI89" s="21">
         <v>51100</v>
       </c>
       <c r="AJ89" s="28" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AK89" s="22" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="AL89" s="22"/>
       <c r="AM89" s="17"/>
       <c r="AN89" s="26"/>
       <c r="AO89" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AP89" s="24"/>
       <c r="AQ89" s="48" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AR89" s="57" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AS89" s="25" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AT89" s="1">
         <f>RANK(BL89,$BL$3:$BL$122)+COUNTIF(BL$3:BL89,BL89)-1</f>
@@ -30895,13 +30953,13 @@
     </row>
     <row r="90" spans="1:80" s="7" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D90" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30936,26 +30994,26 @@
       <c r="AE90" s="17"/>
       <c r="AF90" s="15"/>
       <c r="AG90" s="17" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="AH90" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI90" s="21">
         <v>51100</v>
       </c>
       <c r="AJ90" s="28" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="AK90" s="22" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="AL90" s="22"/>
       <c r="AM90" s="23" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="AN90" s="30" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AO90" s="26"/>
       <c r="AP90" s="24"/>
@@ -31060,13 +31118,13 @@
     </row>
     <row r="91" spans="1:80" s="7" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="D91" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31101,23 +31159,23 @@
       <c r="AE91" s="17"/>
       <c r="AF91" s="15"/>
       <c r="AG91" s="17" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="AH91" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AI91" s="21">
         <v>2000</v>
       </c>
       <c r="AJ91" s="28" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="AK91" s="22" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="AL91" s="22"/>
       <c r="AM91" s="23" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="AN91" s="30"/>
       <c r="AO91" s="26"/>
@@ -31223,13 +31281,13 @@
     </row>
     <row r="92" spans="1:80" s="7" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="D92" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31264,35 +31322,35 @@
       <c r="AE92" s="17"/>
       <c r="AF92" s="15"/>
       <c r="AG92" s="17" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="AH92" s="17" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="AI92" s="21">
         <v>51370</v>
       </c>
       <c r="AJ92" s="15"/>
       <c r="AK92" s="22" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="AL92" s="22"/>
       <c r="AM92" s="23" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="AN92" s="30"/>
       <c r="AO92" s="17" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AP92" s="24"/>
       <c r="AQ92" s="30" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AR92" s="49" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AS92" s="25" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AT92" s="1">
         <f>RANK(BL92,$BL$3:$BL$122)+COUNTIF(BL$3:BL92,BL92)-1</f>
@@ -31392,13 +31450,13 @@
     </row>
     <row r="93" spans="1:80" s="7" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="D93" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31433,31 +31491,31 @@
       <c r="AE93" s="17"/>
       <c r="AF93" s="15"/>
       <c r="AG93" s="17" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="AH93" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AI93" s="21">
         <v>51530</v>
       </c>
       <c r="AJ93" s="15"/>
       <c r="AK93" s="22" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="AL93" s="22"/>
       <c r="AM93" s="23" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="AN93" s="30"/>
       <c r="AO93" s="17" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="AP93" s="17" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="AQ93" s="30" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AR93" s="26"/>
       <c r="AS93" s="26"/>
@@ -31559,13 +31617,13 @@
     </row>
     <row r="94" spans="1:80" s="7" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="D94" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31600,35 +31658,35 @@
       <c r="AE94" s="17"/>
       <c r="AF94" s="15"/>
       <c r="AG94" s="17" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AH94" s="17" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="AI94" s="17">
         <v>51120</v>
       </c>
       <c r="AJ94" s="15"/>
       <c r="AK94" s="22" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="AL94" s="22"/>
       <c r="AM94" s="17"/>
       <c r="AN94" s="30"/>
       <c r="AO94" s="48" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="AP94" s="17" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="AQ94" s="30" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AR94" s="60" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AS94" s="25" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AT94" s="1">
         <f>RANK(BL94,$BL$3:$BL$122)+COUNTIF(BL$3:BL94,BL94)-1</f>
@@ -31728,13 +31786,13 @@
     </row>
     <row r="95" spans="1:80" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="D95" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31769,23 +31827,23 @@
       <c r="AE95" s="17"/>
       <c r="AF95" s="15"/>
       <c r="AG95" s="17" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="AH95" s="17" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="AI95" s="21">
         <v>51000</v>
       </c>
       <c r="AJ95" s="28" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="AK95" s="22" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="AL95" s="22"/>
       <c r="AM95" s="23" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="AN95" s="15"/>
       <c r="AO95" s="26"/>
@@ -31891,13 +31949,13 @@
     </row>
     <row r="96" spans="1:80" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="D96" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31932,34 +31990,34 @@
       <c r="AE96" s="17"/>
       <c r="AF96" s="15"/>
       <c r="AG96" s="17" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="AH96" s="17" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="AI96" s="21">
         <v>60550</v>
       </c>
       <c r="AJ96" s="28" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="AK96" s="22" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="AL96" s="22"/>
       <c r="AM96" s="23" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="AN96" s="15"/>
       <c r="AO96" s="17" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="AP96" s="24"/>
       <c r="AQ96" s="48" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="AR96" s="60" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="AS96" s="26"/>
       <c r="AT96" s="1">
@@ -32060,13 +32118,13 @@
     </row>
     <row r="97" spans="1:80" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
-        <v>1280</v>
+        <v>1270</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>1281</v>
+        <v>1271</v>
       </c>
       <c r="D97" s="73" t="str">
         <f t="shared" si="38"/>
@@ -32101,34 +32159,34 @@
       <c r="AE97" s="17"/>
       <c r="AF97" s="15"/>
       <c r="AG97" s="17" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="AH97" s="17" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="AI97" s="21">
         <v>94700</v>
       </c>
       <c r="AJ97" s="28" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="AK97" s="22" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="AL97" s="22"/>
       <c r="AM97" s="23" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="AN97" s="30"/>
       <c r="AO97" s="17" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="AP97" s="24"/>
       <c r="AQ97" s="17" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="AR97" s="60" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="AS97" s="26"/>
       <c r="AT97" s="1">
@@ -32229,13 +32287,13 @@
     </row>
     <row r="98" spans="1:80" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="D98" s="73" t="str">
         <f t="shared" si="38"/>
@@ -32270,29 +32328,29 @@
       <c r="AE98" s="17"/>
       <c r="AF98" s="15"/>
       <c r="AG98" s="17" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="AH98" s="17" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="AI98" s="21">
         <v>10400</v>
       </c>
       <c r="AJ98" s="15"/>
       <c r="AK98" s="22" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="AL98" s="22"/>
       <c r="AM98" s="23" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="AN98" s="26"/>
       <c r="AO98" s="17" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="AP98" s="24"/>
       <c r="AQ98" s="30" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AR98" s="26"/>
       <c r="AS98" s="26"/>
@@ -32394,13 +32452,13 @@
     </row>
     <row r="99" spans="1:80" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="D99" s="73" t="str">
         <f t="shared" ref="D99:D128" si="57">IF(AX99&lt;&gt;0,"2020_A="&amp;AX99," ")&amp;IF(AY99&lt;&gt;0," ; 2020_i="&amp;AY99," ")&amp;IF(AZ99&lt;&gt;0,"2019_A="&amp;AZ99," ")&amp;IF(BA99&lt;&gt;0," ; 2019_i="&amp;BA99," ")&amp;IF(BB99&lt;&gt;0,"2018_A="&amp;BB99," ")&amp;IF(BC99&lt;&gt;0," ; 2018_i="&amp;BC99," ")&amp;IF(BD99&lt;&gt;0," ; 2017_A="&amp;BD99," ")&amp;IF(BE99&lt;&gt;0," ; 2017_i="&amp;BE99," ")&amp;IF(BF99&lt;&gt;0," ; 2016_A="&amp;BF99," ")&amp;IF(BG99&lt;&gt;0," ; 2016_i="&amp;BG99," ")&amp;IF(BH99&lt;&gt;0," ; 2015_A="&amp;BH99," ")&amp;IF(BI99&lt;&gt;0," ; 2015_i="&amp;BI99," ")&amp;IF(BJ99&lt;&gt;0," ; 2014_A="&amp;BJ99," ")&amp;IF(BK99&lt;&gt;0," ; 2014_i="&amp;BK99," ")</f>
@@ -32435,39 +32493,39 @@
       <c r="AE99" s="17"/>
       <c r="AF99" s="15"/>
       <c r="AG99" s="17" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="AH99" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AI99" s="21">
         <v>51110</v>
       </c>
       <c r="AJ99" s="28" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="AK99" s="22" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="AL99" s="22"/>
       <c r="AM99" s="23" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="AN99" s="26"/>
       <c r="AO99" s="17" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="AP99" s="17" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="AQ99" s="30" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="AR99" s="23" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="AS99" s="25" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AT99" s="1">
         <f>RANK(BL99,$BL$3:$BL$122)+COUNTIF(BL$3:BL99,BL99)-1</f>
@@ -32567,13 +32625,13 @@
     </row>
     <row r="100" spans="1:80" s="7" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="D100" s="73" t="str">
         <f t="shared" si="57"/>
@@ -32608,35 +32666,35 @@
       <c r="AE100" s="17"/>
       <c r="AF100" s="15"/>
       <c r="AG100" s="17" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="AH100" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AI100" s="21">
         <v>51300</v>
       </c>
       <c r="AJ100" s="28" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="AK100" s="22" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="AL100" s="22"/>
       <c r="AM100" s="23" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="AN100" s="26"/>
       <c r="AO100" s="17" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="AP100" s="17"/>
       <c r="AQ100" s="30" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="AR100" s="23"/>
       <c r="AS100" s="25" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AT100" s="1">
         <f>RANK(BL100,$BL$3:$BL$122)+COUNTIF(BL$3:BL100,BL100)-1</f>
@@ -32736,13 +32794,13 @@
     </row>
     <row r="101" spans="1:80" s="7" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D101" s="73" t="str">
         <f t="shared" si="57"/>
@@ -32777,27 +32835,27 @@
       <c r="AE101" s="17"/>
       <c r="AF101" s="15"/>
       <c r="AG101" s="17" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="AH101" s="17" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="AI101" s="21">
         <v>77200</v>
       </c>
       <c r="AJ101" s="28" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="AK101" s="22" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="AL101" s="22"/>
       <c r="AM101" s="23" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="AN101" s="15"/>
       <c r="AO101" s="48" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AP101" s="24"/>
       <c r="AQ101" s="26"/>
@@ -32901,13 +32959,13 @@
     </row>
     <row r="102" spans="1:80" s="13" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="D102" s="73" t="str">
         <f t="shared" si="57"/>
@@ -32942,37 +33000,37 @@
       <c r="AE102" s="17"/>
       <c r="AF102" s="15"/>
       <c r="AG102" s="17" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="AH102" s="17" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="AI102" s="21">
         <v>51689</v>
       </c>
       <c r="AJ102" s="28" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AK102" s="22" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="AL102" s="22"/>
       <c r="AM102" s="23" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="AN102" s="17" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="AO102" s="17" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="AP102" s="24"/>
       <c r="AQ102" s="26"/>
       <c r="AR102" s="60" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AS102" s="25" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AT102" s="1">
         <f>RANK(BL102,$BL$3:$BL$122)+COUNTIF(BL$3:BL102,BL102)-1</f>
@@ -33072,13 +33130,13 @@
     </row>
     <row r="103" spans="1:80" s="27" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="D103" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33113,34 +33171,34 @@
       <c r="AE103" s="17"/>
       <c r="AF103" s="15"/>
       <c r="AG103" s="17" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="AH103" s="17" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="AI103" s="21">
         <v>60310</v>
       </c>
       <c r="AJ103" s="28" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="AK103" s="22" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="AL103" s="22"/>
       <c r="AM103" s="23" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="AN103" s="17"/>
       <c r="AO103" s="17" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="AP103" s="24"/>
       <c r="AQ103" s="48" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="AR103" s="23" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="AS103" s="25"/>
       <c r="AT103" s="1">
@@ -33241,13 +33299,13 @@
     </row>
     <row r="104" spans="1:80" s="26" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="D104" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33274,30 +33332,30 @@
       <c r="AE104" s="17"/>
       <c r="AF104" s="15"/>
       <c r="AG104" s="17" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="AH104" s="17" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="AI104" s="21">
         <v>60610</v>
       </c>
       <c r="AJ104" s="28" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AK104" s="22" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="AL104" s="22"/>
       <c r="AM104" s="23" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="AP104" s="24"/>
       <c r="AQ104" s="30" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AR104" s="60" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AT104" s="1">
         <f>RANK(BL104,$BL$3:$BL$122)+COUNTIF(BL$3:BL104,BL104)-1</f>
@@ -33397,13 +33455,13 @@
     </row>
     <row r="105" spans="1:80" s="13" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="D105" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33441,18 +33499,18 @@
         <v>13</v>
       </c>
       <c r="AH105" s="17" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="AI105" s="21">
         <v>45800</v>
       </c>
       <c r="AJ105" s="28"/>
       <c r="AK105" s="22" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="AL105" s="22"/>
       <c r="AM105" s="23" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="AN105" s="26"/>
       <c r="AO105" s="26"/>
@@ -33558,13 +33616,13 @@
     </row>
     <row r="106" spans="1:80" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B106" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="C106" s="17" t="s">
         <v>866</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>876</v>
       </c>
       <c r="D106" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33591,36 +33649,36 @@
       <c r="AE106" s="17"/>
       <c r="AF106" s="15"/>
       <c r="AG106" s="17" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="AH106" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI106" s="21">
         <v>51100</v>
       </c>
       <c r="AJ106" s="15"/>
       <c r="AK106" s="22" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="AL106" s="22"/>
       <c r="AM106" s="23" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="AN106" s="17" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="AO106" s="17" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="AP106" s="17" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="AQ106" s="17" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AR106" s="60" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AT106" s="1">
         <f>RANK(BL106,$BL$3:$BL$122)+COUNTIF(BL$3:BL106,BL106)-1</f>
@@ -33720,13 +33778,13 @@
     </row>
     <row r="107" spans="1:80" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="D107" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33761,29 +33819,29 @@
       <c r="AE107" s="17"/>
       <c r="AF107" s="15"/>
       <c r="AG107" s="17" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="AH107" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI107" s="21">
         <v>51100</v>
       </c>
       <c r="AJ107" s="28" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="AK107" s="22" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="AL107" s="22"/>
       <c r="AM107" s="23" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="AN107" s="17"/>
       <c r="AO107" s="17"/>
       <c r="AP107" s="17"/>
       <c r="AQ107" s="17" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="AR107" s="60"/>
       <c r="AS107" s="26"/>
@@ -33885,13 +33943,13 @@
     </row>
     <row r="108" spans="1:80" s="7" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="D108" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33926,35 +33984,35 @@
       <c r="AE108" s="17"/>
       <c r="AF108" s="17"/>
       <c r="AG108" s="17" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="AH108" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI108" s="21">
         <v>51100</v>
       </c>
       <c r="AJ108" s="15"/>
       <c r="AK108" s="22" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="AL108" s="22"/>
       <c r="AM108" s="23" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="AN108" s="15"/>
       <c r="AO108" s="17" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="AP108" s="24"/>
       <c r="AQ108" s="17" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AR108" s="23" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="AS108" s="25" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AT108" s="1">
         <f>RANK(BL108,$BL$3:$BL$122)+COUNTIF(BL$3:BL108,BL108)-1</f>
@@ -34054,13 +34112,13 @@
     </row>
     <row r="109" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="D109" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34095,33 +34153,33 @@
       <c r="AE109" s="17"/>
       <c r="AF109" s="17"/>
       <c r="AG109" s="17" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="AH109" s="17" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="AI109" s="21">
         <v>68490</v>
       </c>
       <c r="AJ109" s="28" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="AK109" s="22" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="AL109" s="22"/>
       <c r="AM109" s="23" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="AN109" s="15"/>
       <c r="AO109" s="17" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="AP109" s="17" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="AQ109" s="29" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="AR109" s="23"/>
       <c r="AS109" s="25"/>
@@ -34223,13 +34281,13 @@
     </row>
     <row r="110" spans="1:80" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="D110" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34264,29 +34322,29 @@
       <c r="AE110" s="17"/>
       <c r="AF110" s="15"/>
       <c r="AG110" s="17" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="AH110" s="17" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="AI110" s="21">
         <v>51140</v>
       </c>
       <c r="AJ110" s="28" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="AK110" s="22" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="AL110" s="22"/>
       <c r="AM110" s="23" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="AN110" s="30"/>
       <c r="AO110" s="26"/>
       <c r="AP110" s="24"/>
       <c r="AQ110" s="29" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="AR110" s="26"/>
       <c r="AS110" s="26"/>
@@ -34388,13 +34446,13 @@
     </row>
     <row r="111" spans="1:80" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="D111" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34429,23 +34487,23 @@
       <c r="AE111" s="17"/>
       <c r="AF111" s="15"/>
       <c r="AG111" s="17" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="AH111" s="17" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="AI111" s="21">
         <v>51140</v>
       </c>
       <c r="AJ111" s="28" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="AK111" s="22" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="AL111" s="22"/>
       <c r="AM111" s="23" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="AN111" s="30"/>
       <c r="AO111" s="26"/>
@@ -34554,10 +34612,10 @@
         <v>0</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D112" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34592,23 +34650,23 @@
       <c r="AE112" s="12"/>
       <c r="AF112" s="19"/>
       <c r="AG112" s="12" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="AH112" s="12" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="AI112" s="31">
         <v>8000</v>
       </c>
       <c r="AJ112" s="28" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="AK112" s="22" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="AL112" s="22"/>
       <c r="AM112" s="23" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="AN112" s="32"/>
       <c r="AO112" s="33"/>
@@ -34714,13 +34772,13 @@
     </row>
     <row r="113" spans="1:80" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D113" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34755,30 +34813,30 @@
       <c r="AE113" s="17"/>
       <c r="AF113" s="15"/>
       <c r="AG113" s="17" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="AH113" s="17" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="AI113" s="21">
         <v>60200</v>
       </c>
       <c r="AJ113" s="28" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="AK113" s="22" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="AL113" s="22"/>
       <c r="AM113" s="23" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="AN113" s="26"/>
       <c r="AO113" s="26"/>
       <c r="AP113" s="24"/>
       <c r="AQ113" s="26"/>
       <c r="AR113" s="23" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AS113" s="26"/>
       <c r="AT113" s="1">
@@ -34879,13 +34937,13 @@
     </row>
     <row r="114" spans="1:80" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D114" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34920,23 +34978,23 @@
       <c r="AE114" s="17"/>
       <c r="AF114" s="15"/>
       <c r="AG114" s="17" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="AH114" s="17" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="AI114" s="21">
         <v>60000</v>
       </c>
       <c r="AJ114" s="28" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="AK114" s="22" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="AL114" s="22"/>
       <c r="AM114" s="23" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="AN114" s="15"/>
       <c r="AO114" s="26"/>
@@ -35042,13 +35100,13 @@
     </row>
     <row r="115" spans="1:80" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="D115" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35083,28 +35141,28 @@
       <c r="AE115" s="17"/>
       <c r="AF115" s="15"/>
       <c r="AG115" s="17" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="AH115" s="17" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="AI115" s="21">
         <v>60000</v>
       </c>
       <c r="AJ115" s="28"/>
       <c r="AK115" s="22" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="AL115" s="22"/>
       <c r="AM115" s="23" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="AN115" s="15"/>
       <c r="AO115" s="26"/>
       <c r="AP115" s="24"/>
       <c r="AQ115" s="26"/>
       <c r="AR115" s="42" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="AS115" s="26"/>
       <c r="AT115" s="1">
@@ -35205,13 +35263,13 @@
     </row>
     <row r="116" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="D116" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35246,23 +35304,23 @@
       <c r="AE116" s="17"/>
       <c r="AF116" s="15"/>
       <c r="AG116" s="17" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="AH116" s="17" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="AI116" s="21">
         <v>8090</v>
       </c>
       <c r="AJ116" s="28" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AK116" s="22" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="AL116" s="22"/>
       <c r="AM116" s="23" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="AN116" s="15"/>
       <c r="AO116" s="26"/>
@@ -35368,13 +35426,13 @@
     </row>
     <row r="117" spans="1:80" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="D117" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35409,23 +35467,23 @@
       <c r="AE117" s="17"/>
       <c r="AF117" s="15"/>
       <c r="AG117" s="17" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="AH117" s="17" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="AI117" s="21">
         <v>21000</v>
       </c>
       <c r="AJ117" s="28" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="AK117" s="22" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="AL117" s="22"/>
       <c r="AM117" s="23" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="AN117" s="32"/>
       <c r="AO117" s="26"/>
@@ -35531,13 +35589,13 @@
     </row>
     <row r="118" spans="1:80" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="D118" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35572,27 +35630,27 @@
       <c r="AE118" s="17"/>
       <c r="AF118" s="15"/>
       <c r="AG118" s="17" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="AH118" s="17" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="AI118" s="21">
         <v>60200</v>
       </c>
       <c r="AJ118" s="28" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AK118" s="22" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="AL118" s="22"/>
       <c r="AM118" s="23" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="AN118" s="15"/>
       <c r="AO118" s="61" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="AP118" s="24"/>
       <c r="AQ118" s="26"/>
@@ -35696,13 +35754,13 @@
     </row>
     <row r="119" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D119" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35737,23 +35795,23 @@
       <c r="AE119" s="17"/>
       <c r="AF119" s="15"/>
       <c r="AG119" s="17" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="AH119" s="17" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="AI119" s="21">
         <v>60200</v>
       </c>
       <c r="AJ119" s="28" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="AK119" s="22" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="AL119" s="22"/>
       <c r="AM119" s="23" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="AN119" s="15"/>
       <c r="AO119" s="61"/>
@@ -35859,13 +35917,13 @@
     </row>
     <row r="120" spans="1:80" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="D120" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35900,23 +35958,23 @@
       <c r="AE120" s="17"/>
       <c r="AF120" s="15"/>
       <c r="AG120" s="17" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="AH120" s="17" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="AI120" s="21">
         <v>60000</v>
       </c>
       <c r="AJ120" s="28" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="AK120" s="22" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="AL120" s="22"/>
       <c r="AM120" s="23" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="AN120" s="15"/>
       <c r="AO120" s="26"/>
@@ -36022,13 +36080,13 @@
     </row>
     <row r="121" spans="1:80" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>915</v>
+      </c>
+      <c r="C121" s="17" t="s">
         <v>384</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>925</v>
-      </c>
-      <c r="C121" s="17" t="s">
-        <v>388</v>
       </c>
       <c r="D121" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36063,23 +36121,23 @@
       <c r="AE121" s="17"/>
       <c r="AF121" s="15"/>
       <c r="AG121" s="17" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="AH121" s="17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AI121" s="21">
         <v>67000</v>
       </c>
       <c r="AJ121" s="28" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="AK121" s="22" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="AL121" s="22"/>
       <c r="AM121" s="23" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="AN121" s="15"/>
       <c r="AO121" s="26"/>
@@ -36185,13 +36243,13 @@
     </row>
     <row r="122" spans="1:80" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="D122" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36226,23 +36284,23 @@
       <c r="AE122" s="17"/>
       <c r="AF122" s="15"/>
       <c r="AG122" s="17" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="AH122" s="17" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="AI122" s="21">
         <v>21121</v>
       </c>
       <c r="AJ122" s="28" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="AK122" s="22" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="AL122" s="22"/>
       <c r="AM122" s="23" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="AN122" s="15"/>
       <c r="AO122" s="26"/>
@@ -36348,13 +36406,13 @@
     </row>
     <row r="123" spans="1:80" ht="105" x14ac:dyDescent="0.25">
       <c r="A123" s="80" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B123" s="80" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C123" s="81" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="D123" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36389,23 +36447,23 @@
       <c r="AE123" s="81"/>
       <c r="AF123" s="83"/>
       <c r="AG123" s="81" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="AH123" s="81" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="AI123" s="85">
         <v>21800</v>
       </c>
       <c r="AJ123" s="87" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="AK123" s="88" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="AL123" s="88"/>
       <c r="AM123" s="89" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="AN123" s="111"/>
       <c r="AO123" s="72"/>
@@ -36501,13 +36559,13 @@
     </row>
     <row r="124" spans="1:80" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="101" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B124" s="101" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C124" s="102" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="D124" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36542,19 +36600,19 @@
       <c r="AE124" s="102"/>
       <c r="AF124" s="104"/>
       <c r="AG124" s="102" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="AH124" s="102" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="AI124" s="106">
         <v>21000</v>
       </c>
       <c r="AJ124" s="107" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="AK124" s="108" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="AL124" s="108"/>
       <c r="AM124" s="109"/>
@@ -36652,13 +36710,13 @@
     </row>
     <row r="125" spans="1:80" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="101" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B125" s="101" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C125" s="102" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="D125" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36693,23 +36751,23 @@
       <c r="AE125" s="102"/>
       <c r="AF125" s="104"/>
       <c r="AG125" s="102" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="AH125" s="102" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="AI125" s="106">
         <v>21300</v>
       </c>
       <c r="AJ125" s="107" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="AK125" s="108" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="AL125" s="108"/>
       <c r="AM125" s="109" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="AN125" s="110"/>
       <c r="AO125" s="7"/>
@@ -36805,13 +36863,13 @@
     </row>
     <row r="126" spans="1:80" ht="105" x14ac:dyDescent="0.25">
       <c r="A126" s="101" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B126" s="101" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C126" s="102" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="D126" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36846,23 +36904,23 @@
       <c r="AE126" s="102"/>
       <c r="AF126" s="104"/>
       <c r="AG126" s="102" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="AH126" s="102" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="AI126" s="106">
         <v>21800</v>
       </c>
       <c r="AJ126" s="107" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="AK126" s="108" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AL126" s="108"/>
       <c r="AM126" s="109" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="AN126" s="110"/>
       <c r="AO126" s="7"/>
@@ -36958,13 +37016,13 @@
     </row>
     <row r="127" spans="1:80" s="123" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="101" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B127" s="101" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="C127" s="102" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D127" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36999,23 +37057,23 @@
       <c r="AE127" s="102"/>
       <c r="AF127" s="104"/>
       <c r="AG127" s="102" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="AH127" s="102" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
       <c r="AI127" s="106">
         <v>21600</v>
       </c>
       <c r="AJ127" s="107" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
       <c r="AK127" s="108" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="AL127" s="108"/>
       <c r="AM127" s="109" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="AN127" s="104"/>
       <c r="AO127" s="7"/>
@@ -37121,13 +37179,13 @@
     </row>
     <row r="128" spans="1:80" s="98" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="115" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
       <c r="B128" s="113" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
       <c r="D128" s="73" t="str">
         <f t="shared" si="57"/>
@@ -37142,13 +37200,13 @@
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
       <c r="M128" s="98" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="N128" s="114" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
       <c r="O128" s="98" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
       <c r="P128" s="2"/>
       <c r="R128" s="119"/>
@@ -37167,23 +37225,23 @@
       <c r="AE128" s="8"/>
       <c r="AF128" s="2"/>
       <c r="AG128" s="116" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
       <c r="AH128" s="98" t="s">
-        <v>1128</v>
+        <v>1118</v>
       </c>
       <c r="AI128" s="117">
         <v>92390</v>
       </c>
       <c r="AJ128" s="107" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="AK128" s="108" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="AL128" s="108"/>
       <c r="AM128" s="109" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
       <c r="AN128" s="5"/>
       <c r="AO128" s="2"/>
@@ -42409,112 +42467,106 @@
   <hyperlinks>
     <hyperlink ref="AJ34" r:id="rId1" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?q=bonduel+traiteur+saint+benoit+aubes&amp;spell=1&amp;sa=X&amp;ved=0ahUKEwieraex6dDaAhVJCsAKHa6QDkUQBQglKAA&amp;biw=1380&amp;bih=691" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="AK65" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="AK45" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="AK48" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="AK75" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="AJ75" r:id="rId6" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=mBPeWu3qBY74gQbJ96-oDw&amp;q=yoplait+89470+++MONETEAU%09&amp;oq=yoplait+89470+++MONETEAU%09&amp;gs_l=psy-ab.3...326368.328121.0.329148.9.7.0.2.2.0.239.710.0j2j2.4.0....0...1c.1.64.psy-ab..4.4.401...0j0i67k1.0.3xByPNYC4yY" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="AK69" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="AJ69" r:id="rId8" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=4hTeWv_kDeXXgAbotpyYAg&amp;q=Fromagerie+RENARD-GILLARD%0955290++BIENCOURT+SUR+ORGE&amp;oq=Fromagerie+RENARD-GILLARD%0955290++BIENCOURT+SUR+ORGE&amp;gs_l=psy-ab.3...307263.318025.0.319529.2.2.0.0.0.0.346.468.0j1j0j1.2.0....0...1c.1j2.64.psy-ab..0.1.345...38j0i22i30k1.0.IaaI2w9RkVg" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="AJ47" r:id="rId9" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=1hfeWp6TCMeQgAa5rKXYBg&amp;q=lactinov+Zone+industrielle+des+Waillons%2C&amp;oq=lactinov+Zone+industrielle+des+Waillons%2C&amp;gs_l=psy-ab.3...118248.121573.0.122713.8.8.0.0.0.0.270.856.0j4j1.5.0....0...1c.1.64.psy-ab..3.0.0....0.R_37DFVeIEk" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="AK47" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="AK51" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="AJ51" r:id="rId12" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=iRneWveTOoeXgAbxmIKoDQ&amp;q=Canelia+Rouvroy+Poudre%09&amp;oq=Canelia+Rouvroy+Poudre%09&amp;gs_l=psy-ab.3..0j0i22i30k1l2j38l2.729255.729255.0.729873.1.1.0.0.0.0.408.408.4-1.1.0....0...1c.1.64.psy-ab..0.1.408....0.v8RWG58iatQ" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="AJ40" r:id="rId13" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?source=hp&amp;ei=Wh_eWqnFK4H0gAby1rroAQ&amp;q=cristanol+bazancourt&amp;oq=cristanol+bazancourt&amp;gs_l=psy-ab.3..0l3j0i22i30k1l4.1078.6763.0.7247.25.20.0.0.0.0.397.2564.0j7j4j1.12.0....0...1c.1.64.psy-ab..13.11.2391.0..35i39k1j0i67k1j0i131k1j0i10i67k1j0i10k1j0i10i203k1j0i30k1j0i10i30k1.0.Ylb1TxZHSno" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="AJ60" r:id="rId14" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?ei=Yh_eWpDnMsnLgAaFvIzwAg&amp;q=union+champagne+avize&amp;oq=union+champagne+avize&amp;gs_l=psy-ab.3..0l3.239180.244298.0.244969.21.16.0.5.5.0.235.1850.0j11j1.12.0....0...1c.1.64.psy-ab..4.17.1902...0i131k1j0i22i30k1.0.4NZh1uYSY6I" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="AK60" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="AJ12" r:id="rId16" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?ei=hqjgWrf7D-WVgAaajqb4Bg&amp;q=vivescia%20reims&amp;oq=vivescia+reims&amp;gs_l=psy-ab.3..0l3j0i22i30k1l7.110048.112300.0.112635.14.13.0.1.1.0.181.1425.0j10.10.0....0...1c.1.64.psy-ab..3.11.1435...35i39k1j0i131k1.0.j8KcD_SAUYk&amp;npsic=0&amp;rflfq=1&amp;rlha=0&amp;rllag=49231434,4074548,460&amp;tbm=lcl&amp;rldimm=13708956538798387191&amp;ved=0ahUKEwjFh4up6dXaAhVMBsAKHTFkCAMQvS4IOzAC&amp;rldoc=1&amp;tbs=lrf:!3sIAE,lf:1,lf_ui:4&amp;rlst=f" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="AR12" r:id="rId17" display="mailto:maxime.françois@vivescia.com" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="AK54" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="AJ54" r:id="rId19" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?q=KALIZEA+reims&amp;sa=X&amp;ved=0ahUKEwjJ9dug6tXaAhWqD8AKHZiSDzYQuzEICigA&amp;biw=1467&amp;bih=703" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="AK55" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="AJ7" r:id="rId21" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=pavgWrGFM8-0gQbpwIbQCQ&amp;q=fofralab+magenta&amp;oq=fofralab+magenta&amp;gs_l=psy-ab.3..0i13k1.387029.391164.0.391634.16.16.0.0.0.0.329.1969.0j6j3j1.10.0....0...1c.1.64.psy-ab..6.10.1960...0j35i39k1j0i67k1j0i131k1j0i131i67k1j0i10k1j0i10i19k1j0i13i5i10i30i19k1j0i13i30k1.0.Mbr8qt9fctI" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="AK63" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="AJ63" r:id="rId23" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=ZrDgWrTvMJqvgAbRn67gDA&amp;q=malteurop+vitry+le+francois&amp;oq=malteurop+vitry+le+francois&amp;gs_l=psy-ab.3..0i71k1l8.5807.5807.0.5976.1.1.0.0.0.0.0.0..0.0....0...1c..64.psy-ab..1.0.0....0.jIvwkzJYj6k" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="AR63" r:id="rId24" display="mailto:stephanie.grosjean@malteurop.com" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="AK72" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="AJ72" r:id="rId26" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=sbLgWvDKBIPAgAb2hIOIAQ&amp;q=MARLENHEIM+p%C3%A2tes&amp;oq=MARLENHEIM+p%C3%A2tes&amp;gs_l=psy-ab.3..33i22i29i30k1.6854.9853.0.10011.6.6.0.0.0.0.215.723.0j4j1.5.0....0...1c.1.64.psy-ab..1.4.507...0j0i67k1j0i22i30k1j33i160k1.0.2DQBZ7EcKCc" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="AK57" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="AJ57" r:id="rId28" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=vLLgWurlG4LZgQbt-YOwDw&amp;q=chamtor+pomacle&amp;oq=chamtor+pomacle&amp;gs_l=psy-ab.3..0i22i30k1.568190.572873.0.573230.15.12.0.3.3.0.296.1174.0j5j2.7.0....0...1c.1.64.psy-ab..5.10.1204...0j35i39k1j0i10i67k1j0i131k1j0i20i263k1j0i10k1j0i203k1j0i30k1j0i10i30k1.0.BuriVhJD9fU" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="AK50" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="AR50" r:id="rId30" display="mailto:theret@babynov.fr" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="AK48" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="AK75" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AJ75" r:id="rId5" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=mBPeWu3qBY74gQbJ96-oDw&amp;q=yoplait+89470+++MONETEAU%09&amp;oq=yoplait+89470+++MONETEAU%09&amp;gs_l=psy-ab.3...326368.328121.0.329148.9.7.0.2.2.0.239.710.0j2j2.4.0....0...1c.1.64.psy-ab..4.4.401...0j0i67k1.0.3xByPNYC4yY" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="AK69" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="AJ69" r:id="rId7" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=4hTeWv_kDeXXgAbotpyYAg&amp;q=Fromagerie+RENARD-GILLARD%0955290++BIENCOURT+SUR+ORGE&amp;oq=Fromagerie+RENARD-GILLARD%0955290++BIENCOURT+SUR+ORGE&amp;gs_l=psy-ab.3...307263.318025.0.319529.2.2.0.0.0.0.346.468.0j1j0j1.2.0....0...1c.1j2.64.psy-ab..0.1.345...38j0i22i30k1.0.IaaI2w9RkVg" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="AJ47" r:id="rId8" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=1hfeWp6TCMeQgAa5rKXYBg&amp;q=lactinov+Zone+industrielle+des+Waillons%2C&amp;oq=lactinov+Zone+industrielle+des+Waillons%2C&amp;gs_l=psy-ab.3...118248.121573.0.122713.8.8.0.0.0.0.270.856.0j4j1.5.0....0...1c.1.64.psy-ab..3.0.0....0.R_37DFVeIEk" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="AK51" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="AJ51" r:id="rId10" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=iRneWveTOoeXgAbxmIKoDQ&amp;q=Canelia+Rouvroy+Poudre%09&amp;oq=Canelia+Rouvroy+Poudre%09&amp;gs_l=psy-ab.3..0j0i22i30k1l2j38l2.729255.729255.0.729873.1.1.0.0.0.0.408.408.4-1.1.0....0...1c.1.64.psy-ab..0.1.408....0.v8RWG58iatQ" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="AJ40" r:id="rId11" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?source=hp&amp;ei=Wh_eWqnFK4H0gAby1rroAQ&amp;q=cristanol+bazancourt&amp;oq=cristanol+bazancourt&amp;gs_l=psy-ab.3..0l3j0i22i30k1l4.1078.6763.0.7247.25.20.0.0.0.0.397.2564.0j7j4j1.12.0....0...1c.1.64.psy-ab..13.11.2391.0..35i39k1j0i67k1j0i131k1j0i10i67k1j0i10k1j0i10i203k1j0i30k1j0i10i30k1.0.Ylb1TxZHSno" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="AJ60" r:id="rId12" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?ei=Yh_eWpDnMsnLgAaFvIzwAg&amp;q=union+champagne+avize&amp;oq=union+champagne+avize&amp;gs_l=psy-ab.3..0l3.239180.244298.0.244969.21.16.0.5.5.0.235.1850.0j11j1.12.0....0...1c.1.64.psy-ab..4.17.1902...0i131k1j0i22i30k1.0.4NZh1uYSY6I" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="AK60" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="AJ12" r:id="rId14" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?ei=hqjgWrf7D-WVgAaajqb4Bg&amp;q=vivescia%20reims&amp;oq=vivescia+reims&amp;gs_l=psy-ab.3..0l3j0i22i30k1l7.110048.112300.0.112635.14.13.0.1.1.0.181.1425.0j10.10.0....0...1c.1.64.psy-ab..3.11.1435...35i39k1j0i131k1.0.j8KcD_SAUYk&amp;npsic=0&amp;rflfq=1&amp;rlha=0&amp;rllag=49231434,4074548,460&amp;tbm=lcl&amp;rldimm=13708956538798387191&amp;ved=0ahUKEwjFh4up6dXaAhVMBsAKHTFkCAMQvS4IOzAC&amp;rldoc=1&amp;tbs=lrf:!3sIAE,lf:1,lf_ui:4&amp;rlst=f" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="AR12" r:id="rId15" display="mailto:maxime.françois@vivescia.com" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="AK54" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="AJ54" r:id="rId17" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?q=KALIZEA+reims&amp;sa=X&amp;ved=0ahUKEwjJ9dug6tXaAhWqD8AKHZiSDzYQuzEICigA&amp;biw=1467&amp;bih=703" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="AK55" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="AJ7" r:id="rId19" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=pavgWrGFM8-0gQbpwIbQCQ&amp;q=fofralab+magenta&amp;oq=fofralab+magenta&amp;gs_l=psy-ab.3..0i13k1.387029.391164.0.391634.16.16.0.0.0.0.329.1969.0j6j3j1.10.0....0...1c.1.64.psy-ab..6.10.1960...0j35i39k1j0i67k1j0i131k1j0i131i67k1j0i10k1j0i10i19k1j0i13i5i10i30i19k1j0i13i30k1.0.Mbr8qt9fctI" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="AK63" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="AJ63" r:id="rId21" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=ZrDgWrTvMJqvgAbRn67gDA&amp;q=malteurop+vitry+le+francois&amp;oq=malteurop+vitry+le+francois&amp;gs_l=psy-ab.3..0i71k1l8.5807.5807.0.5976.1.1.0.0.0.0.0.0..0.0....0...1c..64.psy-ab..1.0.0....0.jIvwkzJYj6k" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="AR63" r:id="rId22" display="mailto:stephanie.grosjean@malteurop.com" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="AK72" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="AJ72" r:id="rId24" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=sbLgWvDKBIPAgAb2hIOIAQ&amp;q=MARLENHEIM+p%C3%A2tes&amp;oq=MARLENHEIM+p%C3%A2tes&amp;gs_l=psy-ab.3..33i22i29i30k1.6854.9853.0.10011.6.6.0.0.0.0.215.723.0j4j1.5.0....0...1c.1.64.psy-ab..1.4.507...0j0i67k1j0i22i30k1j33i160k1.0.2DQBZ7EcKCc" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="AK57" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="AJ57" r:id="rId26" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=vLLgWurlG4LZgQbt-YOwDw&amp;q=chamtor+pomacle&amp;oq=chamtor+pomacle&amp;gs_l=psy-ab.3..0i22i30k1.568190.572873.0.573230.15.12.0.3.3.0.296.1174.0j5j2.7.0....0...1c.1.64.psy-ab..5.10.1204...0j35i39k1j0i10i67k1j0i131k1j0i20i263k1j0i10k1j0i203k1j0i30k1j0i10i30k1.0.BuriVhJD9fU" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="AK50" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="AR50" r:id="rId28" display="mailto:theret@babynov.fr" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
     <hyperlink ref="AK74" display="https://www.google.fr/maps/place/Nutribio+(Barres+C%C3%A9r%C3%A9ales)/@50.1617921,2.3213815,17z/data=!4m12!1m6!3m5!1s0x47dd7082a4a62a79:0xafc357a0aaaf722b!2sCofranlait!8m2!3d50.1606202!4d2.3240262!3m4!1s0x47dd709dcc850bc9:0x21cdef0b722c71c5!8m2!3d50.16256" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="AK53" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="AJ53" r:id="rId32" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=RsbgWsefAeuZgAbg567IAw&amp;q=bister+10800+SAINT-THIBAULT&amp;oq=bister+10800+SAINT-THIBAULT&amp;gs_l=psy-ab.3...45431.46651.0.47492.8.8.0.0.0.0.236.895.0j3j2.5.0....0...1c.1.64.psy-ab..3.4.755...0j35i39k1j0i131k1j0i67k1j0i10k1j0i203k1.0.j49N90zVObY" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="AK66" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="AQ66" r:id="rId34" display="http://03.26.67.16.45/" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="AK53" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="AJ53" r:id="rId30" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=RsbgWsefAeuZgAbg567IAw&amp;q=bister+10800+SAINT-THIBAULT&amp;oq=bister+10800+SAINT-THIBAULT&amp;gs_l=psy-ab.3...45431.46651.0.47492.8.8.0.0.0.0.236.895.0j3j2.5.0....0...1c.1.64.psy-ab..3.4.755...0j35i39k1j0i131k1j0i67k1j0i10k1j0i203k1.0.j49N90zVObY" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="AK66" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="AQ66" r:id="rId32" display="http://03.26.67.16.45/" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="AK70" display="https://www.google.com/search?client=firefox-b-ab&amp;q=LESAFFRE+INTERNATIONAL+%09137+rue+gabriel+P%C3%A9ri%09MARCQ+EN+BAROEUL%0959700&amp;npsic=0&amp;rflfq=1&amp;rlha=0&amp;rllag=50672542,3079001,237&amp;tbm=lcl&amp;ved=0ahUKEwik1s3epOzaAhXkCsAKHXyYDl4QtgMIKg&amp;tbs=lrf:!2m1!1e2!3sIAE" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="AK67" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="AK67" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="AK62" display="https://www.google.fr/maps/place/5+Rue+Henri+Martin,+51200+%C3%89pernay/@49.03997,3.955612,18z/data=!3m1!4b1!4m8!1m2!2m1!1sCoop%C3%A9rative+R%C3%A9gionale+des+Vins+de+Champagne+5+rue+henri+martin!3m4!1s0x47e96b4f254c4b7f:0x2f30202f02c1afd2!8m2!3d49.039968" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="AK56" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="AR56" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="AJ62" r:id="rId38" display="http://03.26.51.19.30/" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="AK61" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="AK58" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="AR31" r:id="rId41" display="mailto:barbara.fromentin@pernod-ricard.com" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="AK64" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="AK59" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="AR59" r:id="rId44" display="mailto:f.pichard@distillerie-goyard.com" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="AR7" r:id="rId45" display="clebrishoual@sofralab.com" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="AK71" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="AK52" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="AK43" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="AK38" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="AK56" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="AR56" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="AJ62" r:id="rId36" display="http://03.26.51.19.30/" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="AK61" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="AK58" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="AR31" r:id="rId39" display="mailto:barbara.fromentin@pernod-ricard.com" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="AK64" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="AK59" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="AR59" r:id="rId42" display="mailto:f.pichard@distillerie-goyard.com" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="AR7" r:id="rId43" display="clebrishoual@sofralab.com" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="AK71" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="AK52" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
     <hyperlink ref="AK49" display="https://www.google.com/maps/place/Roquette+Fr%C3%A8res/@49.3962371,3.1070116,17z/data=!4m13!1m7!3m6!1s0x47e8637834193e7d:0x4e99f3d83b438dc6!2sRoute+de+Compi%C3%A8gne,+02290+Montigny-Lengrain!3b1!8m2!3d49.3958167!4d3.1021602!3m4!1s0x47e86379cc96af81:0x8b54" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="AR92" r:id="rId50" display="mailto:aurelie.gantet@reimsmetropole.fr" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="AR104" r:id="rId51" display="mailto:thor.hpc@thor.com" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="AR106" r:id="rId52" display="mailto:katia.savary@univ-reims.fr" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="AK42" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="AR9" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="AR51" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="AJ32" r:id="rId56" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?ei=WSDeWqjRLoPCgAao_rOACQ&amp;q=GRANDS+MOULINS+%28EUROMILL+NORD+REIMS%29&amp;oq=GRANDS+MOULINS+%28EUROMILL+NORD+REIMS%29&amp;gs_l=psy-ab.3...222844.222844.0.223869.1.1.0.0.0.0.361.361.3-1.1.0....0...1c.1.64.psy-ab..0.0.0....0.P1wqGInEwAU" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="AR77" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="AR78" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="AR6" r:id="rId59" display="mailto:mbertemes@mhws.fr" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="AR79" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="AK68" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="AR83" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="AR8" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="AQ52" r:id="rId64" display="Labo08@cq08.fr_x000a_03 24 59 61 53  _x000a_" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="AR52" r:id="rId65" display="mailto:Labo08@cq08.fr" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="AR21" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="AR22" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="AR86" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="AR89" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="AK46" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="AK87" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="AK88" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="AK89" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="AR33" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="AR4" r:id="rId75" display="m.lebrun@soliance.com / " xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="AR99" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="AR102" r:id="rId77" display="mailto:mickael.franchette@eugenemerma.fr" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="AR103" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="AR39" r:id="rId79" display="mailto:floriane.oszust@univ-reims;fr" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="AR42" r:id="rId80" display="mailto:v.verdonk@biotechjboy.com" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="AR108" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="AR92" r:id="rId46" display="mailto:aurelie.gantet@reimsmetropole.fr" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="AR104" r:id="rId47" display="mailto:thor.hpc@thor.com" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="AR106" r:id="rId48" display="mailto:katia.savary@univ-reims.fr" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="AR9" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="AR51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="AJ32" r:id="rId51" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?ei=WSDeWqjRLoPCgAao_rOACQ&amp;q=GRANDS+MOULINS+%28EUROMILL+NORD+REIMS%29&amp;oq=GRANDS+MOULINS+%28EUROMILL+NORD+REIMS%29&amp;gs_l=psy-ab.3...222844.222844.0.223869.1.1.0.0.0.0.361.361.3-1.1.0....0...1c.1.64.psy-ab..0.0.0....0.P1wqGInEwAU" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="AR77" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="AR78" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="AR6" r:id="rId54" display="mailto:mbertemes@mhws.fr" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="AR79" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="AK68" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="AR83" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="AR8" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="AQ52" r:id="rId59" display="Labo08@cq08.fr_x000a_03 24 59 61 53  _x000a_" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="AR52" r:id="rId60" display="mailto:Labo08@cq08.fr" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="AR21" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="AR22" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="AR86" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="AR89" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="AK87" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="AK88" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="AK89" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="AR33" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="AR4" r:id="rId69" display="m.lebrun@soliance.com / " xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="AR99" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="AR102" r:id="rId71" display="mailto:mickael.franchette@eugenemerma.fr" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="AR103" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="AR39" r:id="rId73" display="mailto:floriane.oszust@univ-reims;fr" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="AR42" r:id="rId74" display="mailto:v.verdonk@biotechjboy.com" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="AR108" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
     <hyperlink ref="AK108" display="https://www.google.fr/maps/place/49%C2%B014'33.9%22N+4%C2%B003'41.6%22E/@49.242738,4.0606367,18z/data=!3m1!4b1!4m9!1m2!2m1!1sB%C3%A2timent+18+-+UFR+Sciences+Exactes+et+Naturelles,+Laboratoire+SIRMA++++CNRS+3481++!3m5!1s0x0:0x0!7e2!8m2!3d49.2427377!4d4.061" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="AR115" r:id="rId82" display="mailto:info@jnslabs.com" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="AR57" r:id="rId83" xr:uid="{120D4766-2804-834C-B350-0BE7FDA42D38}"/>
-    <hyperlink ref="AK4" r:id="rId84" xr:uid="{6622BBA6-6FF8-4152-B86B-419D1D3F91A2}"/>
-    <hyperlink ref="AK2" r:id="rId85" xr:uid="{CE6BB279-B22D-4886-BA43-EBC7C34ABC98}"/>
-    <hyperlink ref="AK3" r:id="rId86" xr:uid="{AD65CD47-7EFA-468A-823F-E339A9B6D149}"/>
-    <hyperlink ref="AK5" r:id="rId87" xr:uid="{867F9573-C524-43B1-B8BB-393613768702}"/>
-    <hyperlink ref="AK6" r:id="rId88" xr:uid="{BF5452CE-A4A7-4606-BC60-FF976F299AB7}"/>
-    <hyperlink ref="AK7" r:id="rId89" xr:uid="{D6C97649-73D2-49A8-8292-B639FCA92A26}"/>
-    <hyperlink ref="AK8" r:id="rId90" xr:uid="{06A1A36D-1C79-4DDD-8C3C-A29B3AB95216}"/>
-    <hyperlink ref="AK9" r:id="rId91" xr:uid="{E7287CB5-76AD-4369-BEC2-F6381C7644FC}"/>
-    <hyperlink ref="AK10" r:id="rId92" xr:uid="{9180D9EF-8163-43F1-B529-5EF7620CCC98}"/>
-    <hyperlink ref="AK12" r:id="rId93" xr:uid="{7B3178EE-8012-4045-ABA6-770304DA7A0A}"/>
-    <hyperlink ref="AK13" r:id="rId94" xr:uid="{6BF309E0-44F4-4801-A07F-B45D80DAD3B9}"/>
-    <hyperlink ref="AK15" r:id="rId95" xr:uid="{30B8E8AB-484D-4869-9DA7-C84D07A1DFD7}"/>
-    <hyperlink ref="AK17" r:id="rId96" xr:uid="{832F36F7-F6BA-46EB-A5E1-DB9BEB57D0DF}"/>
-    <hyperlink ref="AK18" r:id="rId97" xr:uid="{9154F617-C5AB-49D1-BA5E-806CE4EB594E}"/>
-    <hyperlink ref="AK19" r:id="rId98" xr:uid="{F3B7F5D3-98B0-43C8-A6A6-EFF45964F58D}"/>
-    <hyperlink ref="AK21" r:id="rId99" xr:uid="{8E4BF1A8-8EA1-4025-A588-AE88CCAA2C07}"/>
-    <hyperlink ref="AK23" r:id="rId100" xr:uid="{E24FB1E8-7D8A-43A4-B6D0-9E909F366FEE}"/>
+    <hyperlink ref="AR115" r:id="rId76" display="mailto:info@jnslabs.com" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="AR57" r:id="rId77" xr:uid="{120D4766-2804-834C-B350-0BE7FDA42D38}"/>
+    <hyperlink ref="AK4" r:id="rId78" xr:uid="{6622BBA6-6FF8-4152-B86B-419D1D3F91A2}"/>
+    <hyperlink ref="AK2" r:id="rId79" xr:uid="{CE6BB279-B22D-4886-BA43-EBC7C34ABC98}"/>
+    <hyperlink ref="AK3" r:id="rId80" xr:uid="{AD65CD47-7EFA-468A-823F-E339A9B6D149}"/>
+    <hyperlink ref="AK5" r:id="rId81" xr:uid="{867F9573-C524-43B1-B8BB-393613768702}"/>
+    <hyperlink ref="AK6" r:id="rId82" xr:uid="{BF5452CE-A4A7-4606-BC60-FF976F299AB7}"/>
+    <hyperlink ref="AK7" r:id="rId83" xr:uid="{D6C97649-73D2-49A8-8292-B639FCA92A26}"/>
+    <hyperlink ref="AK8" r:id="rId84" xr:uid="{06A1A36D-1C79-4DDD-8C3C-A29B3AB95216}"/>
+    <hyperlink ref="AK9" r:id="rId85" xr:uid="{E7287CB5-76AD-4369-BEC2-F6381C7644FC}"/>
+    <hyperlink ref="AK10" r:id="rId86" xr:uid="{9180D9EF-8163-43F1-B529-5EF7620CCC98}"/>
+    <hyperlink ref="AK12" r:id="rId87" xr:uid="{7B3178EE-8012-4045-ABA6-770304DA7A0A}"/>
+    <hyperlink ref="AK13" r:id="rId88" xr:uid="{6BF309E0-44F4-4801-A07F-B45D80DAD3B9}"/>
+    <hyperlink ref="AK15" r:id="rId89" xr:uid="{30B8E8AB-484D-4869-9DA7-C84D07A1DFD7}"/>
+    <hyperlink ref="AK17" r:id="rId90" xr:uid="{832F36F7-F6BA-46EB-A5E1-DB9BEB57D0DF}"/>
+    <hyperlink ref="AK18" r:id="rId91" xr:uid="{9154F617-C5AB-49D1-BA5E-806CE4EB594E}"/>
+    <hyperlink ref="AK19" r:id="rId92" xr:uid="{F3B7F5D3-98B0-43C8-A6A6-EFF45964F58D}"/>
+    <hyperlink ref="AK21" r:id="rId93" xr:uid="{8E4BF1A8-8EA1-4025-A588-AE88CCAA2C07}"/>
+    <hyperlink ref="AK23" r:id="rId94" xr:uid="{E24FB1E8-7D8A-43A4-B6D0-9E909F366FEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId101"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId95"/>
 </worksheet>
 </file>
 
@@ -42533,7 +42585,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="171" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
       <c r="B1" s="172"/>
       <c r="C1" s="172"/>
@@ -42550,14 +42602,14 @@
       <c r="F2" s="176"/>
       <c r="H2" s="68"/>
       <c r="I2" s="69" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="K2" s="70"/>
       <c r="L2" s="69" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="N2" s="167" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="O2" s="168"/>
       <c r="P2" s="168"/>
@@ -42619,7 +42671,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="171" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="B1" s="172"/>
       <c r="C1" s="172"/>
@@ -42638,14 +42690,14 @@
       <c r="G2" s="71"/>
       <c r="H2" s="68"/>
       <c r="I2" s="69" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="K2" s="70"/>
       <c r="L2" s="69" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="N2" s="180" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="O2" s="181"/>
       <c r="P2" s="181"/>

--- a/Entreprises_Complet.xlsx
+++ b/Entreprises_Complet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfial\Documents\00_Stage_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6764CA1-4C6A-4DF9-A8B0-48D58AF17EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAD8A8AA-5A44-4408-A9B2-B5C1192A3566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1228,9 +1228,6 @@
   </si>
   <si>
     <t xml:space="preserve">  katia.savary@univ-reims.fr</t>
-  </si>
-  <si>
-    <t>1, rue du Marechal Juin</t>
   </si>
   <si>
     <t>Reims Cedex</t>
@@ -2729,12 +2726,6 @@
     <t>M. MARTINY Laurent  - 03 26 91 31 68</t>
   </si>
   <si>
-    <t xml:space="preserve">Faculté de Médecine
-Unité de Recherche EA 3801
-HEMOSTASE ET REMODELAGE VASCULAIRE POST-ISCHEMIE (HERVI)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chantal de BEAUMONT </t>
   </si>
   <si>
@@ -3582,9 +3573,6 @@
     <t>Mr. Dromigny Stéphane (Resp. Qualité) - 03 25 07 55 09 - stephane.dromigny@unilever.com</t>
   </si>
   <si>
-    <t>Source Aurelle ( Cristalline - 08 ) (Société exploitation Sources Roxane)</t>
-  </si>
-  <si>
     <t>Boehm/</t>
   </si>
   <si>
@@ -4167,6 +4155,15 @@
   </si>
   <si>
     <t>https://www.linkedin.com/company/lactinov-export---groupe-lact%27union/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source Aurelle ( Cristalline - 08 ) </t>
+  </si>
+  <si>
+    <t>HEMOSTASE ET REMODELAGE VASCULAIRE POST-ISCHEMIE (HERVI) ; 1, rue du Marechal Juin</t>
+  </si>
+  <si>
+    <t>Faculté de Médecine, Unité de Recherche EA 3801</t>
   </si>
 </sst>
 </file>
@@ -15136,10 +15133,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AD1" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="AK47" sqref="AK47"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15210,28 +15207,28 @@
         <v>327</v>
       </c>
       <c r="E1" s="152" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F1" s="152" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G1" s="152" t="s">
         <v>1012</v>
       </c>
-      <c r="F1" s="152" t="s">
+      <c r="H1" s="152" t="s">
         <v>1013</v>
       </c>
-      <c r="G1" s="152" t="s">
-        <v>1014</v>
-      </c>
-      <c r="H1" s="152" t="s">
-        <v>1015</v>
-      </c>
       <c r="I1" s="152" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J1" s="152" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K1" s="152" t="s">
         <v>1008</v>
       </c>
-      <c r="J1" s="152" t="s">
+      <c r="L1" s="152" t="s">
         <v>1009</v>
-      </c>
-      <c r="K1" s="152" t="s">
-        <v>1010</v>
-      </c>
-      <c r="L1" s="152" t="s">
-        <v>1011</v>
       </c>
       <c r="M1" s="153" t="s">
         <v>277</v>
@@ -15309,7 +15306,7 @@
         <v>81</v>
       </c>
       <c r="AL1" s="150" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="AM1" s="150" t="s">
         <v>289</v>
@@ -15333,110 +15330,110 @@
         <v>255</v>
       </c>
       <c r="AT1" s="157" t="s">
+        <v>981</v>
+      </c>
+      <c r="AU1" s="158" t="s">
+        <v>984</v>
+      </c>
+      <c r="AV1" s="157" t="s">
+        <v>979</v>
+      </c>
+      <c r="AW1" s="158" t="s">
+        <v>982</v>
+      </c>
+      <c r="AX1" s="159" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AY1" s="159" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AZ1" s="159" t="s">
+        <v>1015</v>
+      </c>
+      <c r="BA1" s="159" t="s">
+        <v>1016</v>
+      </c>
+      <c r="BB1" s="159" t="s">
+        <v>985</v>
+      </c>
+      <c r="BC1" s="159" t="s">
+        <v>986</v>
+      </c>
+      <c r="BD1" s="159" t="s">
+        <v>987</v>
+      </c>
+      <c r="BE1" s="159" t="s">
+        <v>988</v>
+      </c>
+      <c r="BF1" s="159" t="s">
+        <v>989</v>
+      </c>
+      <c r="BG1" s="159" t="s">
+        <v>990</v>
+      </c>
+      <c r="BH1" s="159" t="s">
+        <v>991</v>
+      </c>
+      <c r="BI1" s="159" t="s">
+        <v>992</v>
+      </c>
+      <c r="BJ1" s="159" t="s">
+        <v>993</v>
+      </c>
+      <c r="BK1" s="159" t="s">
+        <v>994</v>
+      </c>
+      <c r="BL1" s="160" t="s">
         <v>983</v>
       </c>
-      <c r="AU1" s="158" t="s">
-        <v>986</v>
-      </c>
-      <c r="AV1" s="157" t="s">
-        <v>981</v>
-      </c>
-      <c r="AW1" s="158" t="s">
-        <v>984</v>
-      </c>
-      <c r="AX1" s="159" t="s">
-        <v>1019</v>
-      </c>
-      <c r="AY1" s="159" t="s">
-        <v>1020</v>
-      </c>
-      <c r="AZ1" s="159" t="s">
-        <v>1017</v>
-      </c>
-      <c r="BA1" s="159" t="s">
-        <v>1018</v>
-      </c>
-      <c r="BB1" s="159" t="s">
-        <v>987</v>
-      </c>
-      <c r="BC1" s="159" t="s">
-        <v>988</v>
-      </c>
-      <c r="BD1" s="159" t="s">
-        <v>989</v>
-      </c>
-      <c r="BE1" s="159" t="s">
-        <v>990</v>
-      </c>
-      <c r="BF1" s="159" t="s">
-        <v>991</v>
-      </c>
-      <c r="BG1" s="159" t="s">
-        <v>992</v>
-      </c>
-      <c r="BH1" s="159" t="s">
-        <v>993</v>
-      </c>
-      <c r="BI1" s="159" t="s">
-        <v>994</v>
-      </c>
-      <c r="BJ1" s="159" t="s">
-        <v>995</v>
-      </c>
-      <c r="BK1" s="159" t="s">
-        <v>996</v>
-      </c>
-      <c r="BL1" s="160" t="s">
-        <v>985</v>
-      </c>
       <c r="BM1" s="160" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="BN1" s="160"/>
       <c r="BO1" s="160"/>
       <c r="BP1" s="161" t="s">
+        <v>995</v>
+      </c>
+      <c r="BQ1" s="161" t="s">
+        <v>996</v>
+      </c>
+      <c r="BR1" s="161" t="s">
         <v>997</v>
       </c>
-      <c r="BQ1" s="161" t="s">
+      <c r="BS1" s="161" t="s">
         <v>998</v>
       </c>
-      <c r="BR1" s="161" t="s">
+      <c r="BT1" s="161" t="s">
         <v>999</v>
-      </c>
-      <c r="BS1" s="161" t="s">
-        <v>1000</v>
-      </c>
-      <c r="BT1" s="161" t="s">
-        <v>1001</v>
       </c>
       <c r="BU1" s="161"/>
       <c r="BV1" s="161"/>
       <c r="BW1" s="161" t="s">
+        <v>1000</v>
+      </c>
+      <c r="BX1" s="161" t="s">
+        <v>1001</v>
+      </c>
+      <c r="BY1" s="161" t="s">
         <v>1002</v>
       </c>
-      <c r="BX1" s="161" t="s">
+      <c r="BZ1" s="161" t="s">
         <v>1003</v>
       </c>
-      <c r="BY1" s="161" t="s">
+      <c r="CA1" s="161" t="s">
         <v>1004</v>
-      </c>
-      <c r="BZ1" s="161" t="s">
-        <v>1005</v>
-      </c>
-      <c r="CA1" s="161" t="s">
-        <v>1006</v>
       </c>
       <c r="CB1" s="162"/>
     </row>
     <row r="2" spans="1:80" s="18" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="D2" s="99"/>
       <c r="E2" s="164"/>
@@ -15468,7 +15465,7 @@
       <c r="AE2" s="62"/>
       <c r="AF2" s="137"/>
       <c r="AG2" s="62" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="AH2" s="62" t="s">
         <v>190</v>
@@ -15477,13 +15474,13 @@
         <v>51100</v>
       </c>
       <c r="AJ2" s="139" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="AK2" s="67" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="AL2" s="144" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="AM2" s="67"/>
       <c r="AN2" s="140"/>
@@ -15512,86 +15509,86 @@
     </row>
     <row r="3" spans="1:80" s="18" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D3" s="99" t="str">
         <f t="shared" ref="D3:D34" si="0">IF(AX3&lt;&gt;0,"2020_A="&amp;AX3," ")&amp;IF(AY3&lt;&gt;0," ; 2020_i="&amp;AY3," ")&amp;IF(AZ3&lt;&gt;0,"2019_A="&amp;AZ3," ")&amp;IF(BA3&lt;&gt;0," ; 2019_i="&amp;BA3," ")&amp;IF(BB3&lt;&gt;0,"2018_A="&amp;BB3," ")&amp;IF(BC3&lt;&gt;0," ; 2018_i="&amp;BC3," ")&amp;IF(BD3&lt;&gt;0," ; 2017_A="&amp;BD3," ")&amp;IF(BE3&lt;&gt;0," ; 2017_i="&amp;BE3," ")&amp;IF(BF3&lt;&gt;0," ; 2016_A="&amp;BF3," ")&amp;IF(BG3&lt;&gt;0," ; 2016_i="&amp;BG3," ")&amp;IF(BH3&lt;&gt;0," ; 2015_A="&amp;BH3," ")&amp;IF(BI3&lt;&gt;0," ; 2015_i="&amp;BI3," ")&amp;IF(BJ3&lt;&gt;0," ; 2014_A="&amp;BJ3," ")&amp;IF(BK3&lt;&gt;0," ; 2014_i="&amp;BK3," ")</f>
         <v xml:space="preserve">2020_A=2 2019_A=4 2018_A=7  ; 2017_A=5 ; 2017_i=1 ; 2016_A=6 ; 2016_i=1 ; 2015_A=3  ; 2014_A=3 </v>
       </c>
       <c r="E3" s="164" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F3" s="164" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="G3" s="164" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="H3" s="164"/>
       <c r="I3" s="74" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="K3" s="62" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="L3" s="164"/>
       <c r="M3" s="74" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="N3" s="62" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="O3" s="62" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="P3" s="137"/>
       <c r="Q3" s="62" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="R3" s="137" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="S3" s="137" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="T3" s="137"/>
       <c r="U3" s="62" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="V3" s="62" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="W3" s="62" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="X3" s="137"/>
       <c r="Y3" s="137"/>
       <c r="Z3" s="62" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AA3" s="62" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="AB3" s="137"/>
       <c r="AC3" s="62"/>
       <c r="AD3" s="62" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="AE3" s="62" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="AF3" s="137"/>
       <c r="AG3" s="62" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AH3" s="62" t="s">
         <v>190</v>
@@ -15603,13 +15600,13 @@
         <v>326888110</v>
       </c>
       <c r="AK3" s="67" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="AL3" s="144" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="AM3" s="67" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AN3" s="140"/>
       <c r="AO3" s="141"/>
@@ -15746,71 +15743,71 @@
         <v>2020_A=1 2019_A=1 2018_A=2 ; 2018_i=1 ; 2017_A=1  ; 2016_A=2  ; 2015_A=1  ; 2014_A=2 ; 2014_i=1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="75" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="T4" s="17"/>
       <c r="U4" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="X4" s="17"/>
       <c r="Y4" s="17"/>
       <c r="Z4" s="17" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="AA4" s="17" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="AB4" s="17"/>
       <c r="AC4" s="17" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="AD4" s="17" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="AE4" s="17" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="AF4" s="17"/>
       <c r="AG4" s="11" t="s">
@@ -15826,26 +15823,26 @@
         <v>326888410</v>
       </c>
       <c r="AK4" s="23" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="AL4" s="145" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="AM4" s="50"/>
       <c r="AN4" s="11" t="s">
         <v>326</v>
       </c>
       <c r="AO4" s="17" t="s">
+        <v>825</v>
+      </c>
+      <c r="AP4" s="17" t="s">
         <v>826</v>
       </c>
-      <c r="AP4" s="17" t="s">
+      <c r="AQ4" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="AQ4" s="11" t="s">
+      <c r="AR4" s="23" t="s">
         <v>828</v>
-      </c>
-      <c r="AR4" s="23" t="s">
-        <v>829</v>
       </c>
       <c r="AS4" s="25"/>
       <c r="AT4" s="1">
@@ -15991,45 +15988,45 @@
         <v>281</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="P5" s="17"/>
       <c r="Q5" s="17" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="T5" s="17"/>
       <c r="U5" s="17" t="s">
         <v>283</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="W5" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="X5" s="17"/>
       <c r="Y5" s="17" t="s">
         <v>263</v>
       </c>
       <c r="Z5" s="17" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="AA5" s="17" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="AB5" s="17"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="17" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="AE5" s="17" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="AF5" s="17"/>
       <c r="AG5" s="17" t="s">
@@ -16045,10 +16042,10 @@
         <v>276</v>
       </c>
       <c r="AK5" s="23" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="AL5" s="146" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="AM5" s="66"/>
       <c r="AN5" s="17"/>
@@ -16175,7 +16172,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D6" s="73" t="str">
         <f t="shared" si="0"/>
@@ -16186,53 +16183,53 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="75" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="P6" s="17"/>
       <c r="Q6" s="17" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="T6" s="17"/>
       <c r="U6" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="W6" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Z6" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AA6" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AB6" s="17"/>
       <c r="AC6" s="17"/>
@@ -16252,10 +16249,10 @@
         <v>33326512020</v>
       </c>
       <c r="AK6" s="23" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="AL6" s="147" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="AM6" s="25" t="s">
         <v>218</v>
@@ -16407,51 +16404,51 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="75" t="s">
+        <v>487</v>
+      </c>
+      <c r="N7" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="O7" s="17" t="s">
+        <v>1035</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q7" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="O7" s="17" t="s">
-        <v>1037</v>
-      </c>
-      <c r="P7" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q7" s="17" t="s">
+      <c r="R7" s="17" t="s">
         <v>490</v>
       </c>
-      <c r="R7" s="17" t="s">
-        <v>491</v>
-      </c>
       <c r="S7" s="17" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="T7" s="17"/>
       <c r="U7" s="17" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="W7" s="17" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="X7" s="17"/>
       <c r="Y7" s="17"/>
       <c r="Z7" s="17" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AA7" s="17" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="AB7" s="17"/>
       <c r="AC7" s="17"/>
       <c r="AD7" s="17" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="AE7" s="17" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="AF7" s="17"/>
       <c r="AG7" s="11" t="s">
@@ -16467,27 +16464,27 @@
         <v>132</v>
       </c>
       <c r="AK7" s="23" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="AL7" s="147" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="AM7" s="23"/>
       <c r="AN7" s="11" t="s">
         <v>258</v>
       </c>
       <c r="AO7" s="17" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AP7" s="17"/>
       <c r="AQ7" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="AR7" s="50" t="s">
         <v>556</v>
       </c>
-      <c r="AR7" s="50" t="s">
-        <v>557</v>
-      </c>
       <c r="AS7" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AT7" s="1">
         <f>RANK(BL7,$BL$3:$BL$122)+COUNTIF(BL$3:BL7,BL7)-1</f>
@@ -16604,10 +16601,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -16622,82 +16619,82 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="75" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="17" t="s">
+        <v>1120</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="S8" s="17" t="s">
         <v>1122</v>
-      </c>
-      <c r="R8" s="17" t="s">
-        <v>1123</v>
-      </c>
-      <c r="S8" s="17" t="s">
-        <v>1124</v>
       </c>
       <c r="T8" s="15"/>
       <c r="U8" s="17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="W8" s="17" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="17" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="AA8" s="17" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="AB8" s="15"/>
       <c r="AC8" s="17"/>
       <c r="AD8" s="17" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="AE8" s="17" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="AF8" s="15"/>
       <c r="AG8" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AH8" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AI8" s="21">
         <v>2400</v>
       </c>
       <c r="AJ8" s="46" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AK8" s="23" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="AL8" s="23" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="AM8" s="23"/>
       <c r="AN8" s="30"/>
       <c r="AO8" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="AP8" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="AQ8" s="48" t="s">
+        <v>673</v>
+      </c>
+      <c r="AR8" s="42" t="s">
         <v>676</v>
-      </c>
-      <c r="AP8" s="17" t="s">
-        <v>675</v>
-      </c>
-      <c r="AQ8" s="48" t="s">
-        <v>674</v>
-      </c>
-      <c r="AR8" s="42" t="s">
-        <v>677</v>
       </c>
       <c r="AS8" s="26"/>
       <c r="AT8" s="1">
@@ -16818,80 +16815,80 @@
         <v>4</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="D9" s="99" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">    2018_A=1  ; 2017_A=1  ; 2016_A=1 ; 2016_i=1 ; 2015_A=2  ; 2014_A=1 </v>
       </c>
       <c r="E9" s="75" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="75" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="75" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="P9" s="17"/>
       <c r="Q9" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="T9" s="17"/>
       <c r="U9" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="W9" s="17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="X9" s="17"/>
       <c r="Y9" s="17" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="Z9" s="17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AA9" s="17" t="s">
         <v>1052</v>
-      </c>
-      <c r="AA9" s="17" t="s">
-        <v>1054</v>
       </c>
       <c r="AB9" s="17"/>
       <c r="AC9" s="17" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="AE9" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AF9" s="17"/>
       <c r="AG9" s="11" t="s">
@@ -16907,14 +16904,14 @@
         <v>89</v>
       </c>
       <c r="AK9" s="23" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="AL9" s="23" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="AM9" s="23"/>
       <c r="AN9" s="25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AO9" s="17" t="s">
         <v>91</v>
@@ -16923,10 +16920,10 @@
         <v>92</v>
       </c>
       <c r="AQ9" s="25" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AR9" s="42" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AS9" s="25"/>
       <c r="AT9" s="1">
@@ -17042,43 +17039,43 @@
         <v>0</v>
       </c>
       <c r="B10" s="143" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="D10" s="73" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">2020_A=1 2019_A=1 2018_A=1         </v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="G10" s="142" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="H10" s="126"/>
       <c r="I10" s="54" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="J10" s="54" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="K10" s="142" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="L10" s="126"/>
       <c r="M10" s="97" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="N10" s="54" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="O10" s="142" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="P10" s="122"/>
       <c r="Q10" s="54"/>
@@ -17098,10 +17095,10 @@
       <c r="AE10" s="54"/>
       <c r="AF10" s="122"/>
       <c r="AG10" s="54" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="AH10" s="54" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="AI10" s="128">
         <v>50890</v>
@@ -17110,10 +17107,10 @@
         <v>33233066500</v>
       </c>
       <c r="AK10" s="22" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="AL10" s="23" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="AM10" s="54"/>
       <c r="AN10" s="130"/>
@@ -17229,10 +17226,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="D11" s="73" t="str">
         <f t="shared" si="0"/>
@@ -17250,70 +17247,70 @@
         <v>263</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O11" s="45" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P11" s="15"/>
       <c r="Q11" s="17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="R11" s="24" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="S11" s="45" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="T11" s="15"/>
       <c r="U11" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="V11" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="V11" s="17" t="s">
-        <v>512</v>
-      </c>
       <c r="W11" s="45" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="X11" s="15"/>
       <c r="Y11" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z11" s="17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AA11" s="45" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AB11" s="15"/>
       <c r="AC11" s="17"/>
       <c r="AD11" s="17" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="AE11" s="45" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AF11" s="26"/>
       <c r="AG11" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="AH11" s="17" t="s">
         <v>480</v>
-      </c>
-      <c r="AH11" s="17" t="s">
-        <v>481</v>
       </c>
       <c r="AI11" s="21">
         <v>2350</v>
       </c>
       <c r="AJ11" s="46" t="s">
+        <v>481</v>
+      </c>
+      <c r="AK11" s="23" t="s">
+        <v>1246</v>
+      </c>
+      <c r="AL11" s="23" t="s">
+        <v>1245</v>
+      </c>
+      <c r="AM11" s="23" t="s">
         <v>482</v>
-      </c>
-      <c r="AK11" s="23" t="s">
-        <v>1249</v>
-      </c>
-      <c r="AL11" s="23" t="s">
-        <v>1248</v>
-      </c>
-      <c r="AM11" s="23" t="s">
-        <v>483</v>
       </c>
       <c r="AN11" s="47"/>
       <c r="AO11" s="26"/>
@@ -17450,33 +17447,33 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="75" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="P12" s="17"/>
       <c r="Q12" s="17" t="s">
+        <v>1140</v>
+      </c>
+      <c r="R12" s="17" t="s">
         <v>1143</v>
       </c>
-      <c r="R12" s="17" t="s">
-        <v>1146</v>
-      </c>
       <c r="S12" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="T12" s="17"/>
       <c r="U12" s="17" t="s">
         <v>263</v>
       </c>
       <c r="V12" s="17" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="W12" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
@@ -17500,10 +17497,10 @@
         <v>124</v>
       </c>
       <c r="AK12" s="23" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="AL12" s="23" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="AM12" s="23"/>
       <c r="AN12" s="25"/>
@@ -17520,7 +17517,7 @@
         <v>25</v>
       </c>
       <c r="AS12" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AT12" s="1">
         <f>RANK(BL12,$BL$3:$BL$122)+COUNTIF(BL$3:BL12,BL12)-1</f>
@@ -17647,33 +17644,33 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="75" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="P13" s="17"/>
       <c r="Q13" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="R13" s="120" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="T13" s="17"/>
       <c r="U13" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="V13" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="W13" s="17" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
@@ -17697,13 +17694,13 @@
         <v>121</v>
       </c>
       <c r="AK13" s="23" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="AL13" s="23" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="AM13" s="23" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AN13" s="25" t="s">
         <v>20</v>
@@ -17826,10 +17823,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D14" s="73" t="str">
         <f t="shared" si="0"/>
@@ -17844,33 +17841,33 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="75" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="P14" s="15"/>
       <c r="Q14" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="R14" s="24" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="S14" s="17" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="T14" s="15"/>
       <c r="U14" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="W14" s="17" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="X14" s="15"/>
       <c r="Y14" s="17"/>
@@ -17882,7 +17879,7 @@
       <c r="AE14" s="17"/>
       <c r="AF14" s="26"/>
       <c r="AG14" s="15" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AH14" s="17" t="s">
         <v>190</v>
@@ -17891,16 +17888,16 @@
         <v>51100</v>
       </c>
       <c r="AJ14" s="46" t="s">
+        <v>497</v>
+      </c>
+      <c r="AK14" s="23" t="s">
+        <v>1252</v>
+      </c>
+      <c r="AL14" s="23" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AM14" s="23" t="s">
         <v>498</v>
-      </c>
-      <c r="AK14" s="23" t="s">
-        <v>1255</v>
-      </c>
-      <c r="AL14" s="23" t="s">
-        <v>1254</v>
-      </c>
-      <c r="AM14" s="23" t="s">
-        <v>499</v>
       </c>
       <c r="AN14" s="47"/>
       <c r="AO14" s="26"/>
@@ -18015,10 +18012,10 @@
         <v>343</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="D15" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18037,26 +18034,26 @@
       <c r="O15" s="17"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="17" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="S15" s="17" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="W15" s="17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="X15" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
@@ -18067,7 +18064,7 @@
       <c r="AE15" s="17"/>
       <c r="AF15" s="15"/>
       <c r="AG15" s="17" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="AH15" s="17" t="s">
         <v>190</v>
@@ -18077,13 +18074,13 @@
       </c>
       <c r="AJ15" s="15"/>
       <c r="AK15" s="22" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="AL15" s="23" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="AM15" s="23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AN15" s="30"/>
       <c r="AO15" s="26"/>
@@ -18196,10 +18193,10 @@
         <v>341</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="D16" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18214,13 +18211,13 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="75" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="P16" s="15"/>
       <c r="Q16" s="17"/>
@@ -18231,10 +18228,10 @@
         <v>263</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="W16" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="X16" s="15"/>
       <c r="Y16" s="15"/>
@@ -18245,14 +18242,14 @@
         <v>263</v>
       </c>
       <c r="AD16" s="17" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="AE16" s="17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AF16" s="15"/>
       <c r="AG16" s="17" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="AH16" s="17" t="s">
         <v>190</v>
@@ -18262,22 +18259,22 @@
       </c>
       <c r="AJ16" s="15"/>
       <c r="AK16" s="22" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="AL16" s="23" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="AM16" s="23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AN16" s="30"/>
       <c r="AO16" s="17" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AP16" s="24"/>
       <c r="AQ16" s="26"/>
       <c r="AR16" s="42" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AS16" s="26"/>
       <c r="AT16" s="1">
@@ -18384,13 +18381,13 @@
     </row>
     <row r="17" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>857</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>859</v>
       </c>
       <c r="D17" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18405,23 +18402,23 @@
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
       <c r="M17" s="75" t="s">
+        <v>1097</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>1098</v>
+      </c>
+      <c r="O17" s="17" t="s">
         <v>1099</v>
-      </c>
-      <c r="N17" s="17" t="s">
-        <v>1100</v>
-      </c>
-      <c r="O17" s="17" t="s">
-        <v>1101</v>
       </c>
       <c r="P17" s="17"/>
       <c r="Q17" s="17" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="T17" s="17"/>
       <c r="U17" s="17"/>
@@ -18437,7 +18434,7 @@
       <c r="AE17" s="17"/>
       <c r="AF17" s="17"/>
       <c r="AG17" s="17" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AH17" s="17" t="s">
         <v>190</v>
@@ -18447,27 +18444,27 @@
       </c>
       <c r="AJ17" s="28"/>
       <c r="AK17" s="22" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="AL17" s="22" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="AM17" s="23" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="AN17" s="15"/>
       <c r="AO17" s="17" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="AP17" s="24"/>
       <c r="AQ17" s="17" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="AR17" s="60" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="AS17" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AT17" s="1">
         <f>RANK(BL17,$BL$3:$BL$122)+COUNTIF(BL$3:BL17,BL17)-1</f>
@@ -18578,10 +18575,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="D18" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18596,23 +18593,23 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="75" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="P18" s="15"/>
       <c r="Q18" s="17" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
@@ -18628,7 +18625,7 @@
       <c r="AE18" s="17"/>
       <c r="AF18" s="15"/>
       <c r="AG18" s="17" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="AH18" s="17" t="s">
         <v>190</v>
@@ -18637,16 +18634,16 @@
         <v>51680</v>
       </c>
       <c r="AJ18" s="28" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="AK18" s="22" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AL18" s="22" t="s">
         <v>1257</v>
       </c>
-      <c r="AL18" s="22" t="s">
-        <v>1260</v>
-      </c>
       <c r="AM18" s="23" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="AN18" s="30"/>
       <c r="AO18" s="26"/>
@@ -18759,10 +18756,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D19" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18781,33 +18778,33 @@
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R19" s="120" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="T19" s="17"/>
       <c r="U19" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W19" s="17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="X19" s="17"/>
       <c r="Y19" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Z19" s="17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AA19" s="17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AB19" s="17"/>
       <c r="AC19" s="17"/>
@@ -18815,41 +18812,41 @@
       <c r="AE19" s="17"/>
       <c r="AF19" s="17"/>
       <c r="AG19" s="25" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AH19" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AI19" s="11">
         <v>51200</v>
       </c>
       <c r="AJ19" s="46" t="s">
+        <v>473</v>
+      </c>
+      <c r="AK19" s="22" t="s">
+        <v>1259</v>
+      </c>
+      <c r="AL19" s="52" t="s">
+        <v>1258</v>
+      </c>
+      <c r="AM19" s="23" t="s">
         <v>474</v>
-      </c>
-      <c r="AK19" s="22" t="s">
-        <v>1262</v>
-      </c>
-      <c r="AL19" s="52" t="s">
-        <v>1261</v>
-      </c>
-      <c r="AM19" s="23" t="s">
-        <v>475</v>
       </c>
       <c r="AN19" s="17"/>
       <c r="AO19" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AP19" s="25" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AQ19" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="AR19" s="23" t="s">
         <v>592</v>
       </c>
-      <c r="AR19" s="23" t="s">
-        <v>593</v>
-      </c>
       <c r="AS19" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AT19" s="1">
         <f>RANK(BL19,$BL$3:$BL$122)+COUNTIF(BL$3:BL19,BL19)-1</f>
@@ -18958,10 +18955,10 @@
         <v>343</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>462</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>463</v>
       </c>
       <c r="D20" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18980,33 +18977,33 @@
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="R20" s="120" t="s">
         <v>464</v>
       </c>
-      <c r="R20" s="120" t="s">
-        <v>465</v>
-      </c>
       <c r="S20" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="T20" s="17"/>
       <c r="U20" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="V20" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="W20" s="17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="X20" s="17"/>
       <c r="Y20" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z20" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AA20" s="17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AB20" s="17"/>
       <c r="AC20" s="17"/>
@@ -19014,22 +19011,22 @@
       <c r="AE20" s="17"/>
       <c r="AF20" s="17"/>
       <c r="AG20" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="AH20" s="17" t="s">
         <v>468</v>
-      </c>
-      <c r="AH20" s="17" t="s">
-        <v>469</v>
       </c>
       <c r="AI20" s="11">
         <v>10380</v>
       </c>
       <c r="AJ20" s="46" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AK20" s="52" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="AL20" s="52" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="AM20" s="25"/>
       <c r="AN20" s="17"/>
@@ -19148,7 +19145,7 @@
         <v>273</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D21" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19166,10 +19163,10 @@
         <v>272</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="P21" s="15"/>
       <c r="Q21" s="17"/>
@@ -19189,34 +19186,34 @@
       <c r="AE21" s="17"/>
       <c r="AF21" s="15"/>
       <c r="AG21" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AH21" s="17" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AI21" s="21">
         <v>10000</v>
       </c>
       <c r="AJ21" s="28"/>
       <c r="AK21" s="56" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AL21" s="56"/>
       <c r="AM21" s="23" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AN21" s="17" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AO21" s="17" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AP21" s="17" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AQ21" s="17"/>
       <c r="AR21" s="23" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AS21" s="25"/>
       <c r="AT21" s="1">
@@ -19325,7 +19322,7 @@
         <v>273</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D22" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19340,13 +19337,13 @@
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
       <c r="M22" s="75" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="N22" s="17" t="s">
+        <v>1104</v>
+      </c>
+      <c r="O22" s="17" t="s">
         <v>1106</v>
-      </c>
-      <c r="O22" s="17" t="s">
-        <v>1108</v>
       </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="17"/>
@@ -19366,32 +19363,32 @@
       <c r="AE22" s="17"/>
       <c r="AF22" s="15"/>
       <c r="AG22" s="11" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AH22" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AI22" s="21">
         <v>76100</v>
       </c>
       <c r="AJ22" s="28" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AK22" s="56"/>
       <c r="AL22" s="56" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="AM22" s="23" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AN22" s="17"/>
       <c r="AO22" s="17"/>
       <c r="AP22" s="17"/>
       <c r="AQ22" s="17" t="s">
+        <v>693</v>
+      </c>
+      <c r="AR22" s="23" t="s">
         <v>694</v>
-      </c>
-      <c r="AR22" s="23" t="s">
-        <v>695</v>
       </c>
       <c r="AS22" s="25"/>
       <c r="AT22" s="1">
@@ -19497,10 +19494,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="D23" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19515,13 +19512,13 @@
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
       <c r="M23" s="75" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N23" s="17" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="P23" s="15"/>
       <c r="Q23" s="17"/>
@@ -19541,35 +19538,35 @@
       <c r="AE23" s="17"/>
       <c r="AF23" s="15"/>
       <c r="AG23" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AH23" s="17" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AI23" s="21">
         <v>89150</v>
       </c>
       <c r="AJ23" s="28" t="s">
+        <v>617</v>
+      </c>
+      <c r="AK23" s="56" t="s">
+        <v>1274</v>
+      </c>
+      <c r="AL23" s="56" t="s">
+        <v>1273</v>
+      </c>
+      <c r="AM23" s="23" t="s">
         <v>618</v>
-      </c>
-      <c r="AK23" s="56" t="s">
-        <v>1277</v>
-      </c>
-      <c r="AL23" s="56" t="s">
-        <v>1276</v>
-      </c>
-      <c r="AM23" s="23" t="s">
-        <v>619</v>
       </c>
       <c r="AN23" s="30"/>
       <c r="AO23" s="17" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AP23" s="17" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AQ23" s="25" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AR23" s="23"/>
       <c r="AS23" s="25"/>
@@ -19673,13 +19670,13 @@
     </row>
     <row r="24" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>414</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>415</v>
       </c>
       <c r="D24" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19698,13 +19695,13 @@
       <c r="O24" s="17"/>
       <c r="P24" s="15"/>
       <c r="Q24" s="17" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
@@ -19719,13 +19716,13 @@
         <v>263</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="AE24" s="17" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AF24" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG24" s="17" t="s">
         <v>356</v>
@@ -19737,27 +19734,27 @@
         <v>51110</v>
       </c>
       <c r="AJ24" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="AK24" s="23" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AL24" s="23" t="s">
+        <v>1275</v>
+      </c>
+      <c r="AM24" s="23" t="s">
         <v>416</v>
-      </c>
-      <c r="AK24" s="23" t="s">
-        <v>1279</v>
-      </c>
-      <c r="AL24" s="23" t="s">
-        <v>1278</v>
-      </c>
-      <c r="AM24" s="23" t="s">
-        <v>417</v>
       </c>
       <c r="AN24" s="15"/>
       <c r="AO24" s="24" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AP24" s="17" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AQ24" s="26"/>
       <c r="AR24" s="42" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AS24" s="26"/>
       <c r="AT24" s="1">
@@ -19894,10 +19891,10 @@
         <v>263</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="W25" s="17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="X25" s="17"/>
       <c r="Y25" s="17"/>
@@ -19908,13 +19905,13 @@
         <v>272</v>
       </c>
       <c r="AD25" s="17" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="AE25" s="17" t="s">
         <v>316</v>
       </c>
       <c r="AF25" s="17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AG25" s="11" t="s">
         <v>321</v>
@@ -19929,10 +19926,10 @@
         <v>318</v>
       </c>
       <c r="AK25" s="23" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="AL25" s="23" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="AM25" s="23" t="s">
         <v>319</v>
@@ -20070,13 +20067,13 @@
       <c r="O26" s="17"/>
       <c r="P26" s="17"/>
       <c r="Q26" s="17" t="s">
+        <v>1123</v>
+      </c>
+      <c r="R26" s="17" t="s">
+        <v>1124</v>
+      </c>
+      <c r="S26" s="17" t="s">
         <v>1125</v>
-      </c>
-      <c r="R26" s="17" t="s">
-        <v>1126</v>
-      </c>
-      <c r="S26" s="17" t="s">
-        <v>1127</v>
       </c>
       <c r="T26" s="17"/>
       <c r="U26" s="17"/>
@@ -20104,10 +20101,10 @@
         <v>249</v>
       </c>
       <c r="AK26" s="23" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="AL26" s="23" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="AM26" s="23"/>
       <c r="AN26" s="25" t="s">
@@ -20221,10 +20218,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>1128</v>
+        <v>1320</v>
       </c>
       <c r="D27" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20243,13 +20240,13 @@
       <c r="O27" s="17"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="17" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="R27" s="17" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="S27" s="17" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="T27" s="15"/>
       <c r="U27" s="17"/>
@@ -20265,32 +20262,32 @@
       <c r="AE27" s="17"/>
       <c r="AF27" s="15"/>
       <c r="AG27" s="11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AH27" s="17" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AI27" s="21">
         <v>8430</v>
       </c>
       <c r="AJ27" s="28" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AK27" s="56"/>
       <c r="AL27" s="56" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="AM27" s="23" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AN27" s="30"/>
       <c r="AO27" s="17" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AP27" s="17"/>
       <c r="AQ27" s="17"/>
       <c r="AR27" s="23" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AS27" s="25"/>
       <c r="AT27" s="1">
@@ -20299,7 +20296,7 @@
       </c>
       <c r="AU27" s="64" t="str">
         <f t="shared" si="1"/>
-        <v>N° 25 Source Aurelle ( Cristalline - 08 ) (Société exploitation Sources Roxane)</v>
+        <v xml:space="preserve">N° 25 Source Aurelle ( Cristalline - 08 ) </v>
       </c>
       <c r="AV27" s="1">
         <f>RANK(BM27,$BM$3:$BM$122)+COUNTIF(BM$3:BM27,BM27)-1</f>
@@ -20307,7 +20304,7 @@
       </c>
       <c r="AW27" s="64" t="str">
         <f t="shared" si="2"/>
-        <v>N° 18 Source Aurelle ( Cristalline - 08 ) (Société exploitation Sources Roxane)</v>
+        <v xml:space="preserve">N° 18 Source Aurelle ( Cristalline - 08 ) </v>
       </c>
       <c r="AX27" s="64"/>
       <c r="AY27" s="64"/>
@@ -20396,10 +20393,10 @@
         <v>341</v>
       </c>
       <c r="B28" s="125" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="D28" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20418,13 +20415,13 @@
       <c r="O28" s="54"/>
       <c r="P28" s="122"/>
       <c r="Q28" s="54" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="R28" s="54" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="S28" s="20" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="T28" s="122"/>
       <c r="U28" s="122"/>
@@ -20440,10 +20437,10 @@
       <c r="AE28" s="54"/>
       <c r="AF28" s="122"/>
       <c r="AG28" s="54" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="AH28" s="54" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="AI28" s="128">
         <v>45730</v>
@@ -20453,7 +20450,7 @@
       </c>
       <c r="AK28" s="122"/>
       <c r="AL28" s="56" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="AM28" s="54"/>
       <c r="AN28" s="130"/>
@@ -20565,10 +20562,10 @@
         <v>343</v>
       </c>
       <c r="B29" s="125" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="D29" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20587,13 +20584,13 @@
       <c r="O29" s="54"/>
       <c r="P29" s="54"/>
       <c r="Q29" s="54" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="R29" s="54" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="S29" s="20" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="T29" s="54"/>
       <c r="U29" s="54"/>
@@ -20609,10 +20606,10 @@
       <c r="AE29" s="54"/>
       <c r="AF29" s="54"/>
       <c r="AG29" s="54" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="AH29" s="54" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="AI29" s="128">
         <v>8000</v>
@@ -20622,7 +20619,7 @@
       </c>
       <c r="AK29" s="54"/>
       <c r="AL29" s="56" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="AM29" s="54"/>
       <c r="AN29" s="54"/>
@@ -20734,10 +20731,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D30" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20756,13 +20753,13 @@
       <c r="O30" s="17"/>
       <c r="P30" s="17"/>
       <c r="Q30" s="17" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="R30" s="17" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="S30" s="17" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="T30" s="17"/>
       <c r="U30" s="17"/>
@@ -20778,37 +20775,37 @@
       <c r="AE30" s="17"/>
       <c r="AF30" s="48"/>
       <c r="AG30" s="54" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AH30" s="17" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AI30" s="21">
         <v>51500</v>
       </c>
       <c r="AJ30" s="46" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AK30" s="23" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="AL30" s="23" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="AM30" s="23"/>
       <c r="AN30" s="45" t="s">
+        <v>568</v>
+      </c>
+      <c r="AO30" s="17" t="s">
         <v>569</v>
       </c>
-      <c r="AO30" s="17" t="s">
+      <c r="AP30" s="17" t="s">
         <v>570</v>
-      </c>
-      <c r="AP30" s="17" t="s">
-        <v>571</v>
       </c>
       <c r="AQ30" s="17"/>
       <c r="AR30" s="48"/>
       <c r="AS30" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AT30" s="1">
         <f>RANK(BL30,$BL$3:$BL$122)+COUNTIF(BL$3:BL30,BL30)-1</f>
@@ -20942,13 +20939,13 @@
         <v>272</v>
       </c>
       <c r="V31" s="17" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="W31" s="17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="X31" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="Y31" s="17"/>
       <c r="Z31" s="17"/>
@@ -20971,10 +20968,10 @@
         <v>58</v>
       </c>
       <c r="AK31" s="23" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="AL31" s="23" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="AM31" s="23"/>
       <c r="AN31" s="25"/>
@@ -20983,13 +20980,13 @@
       </c>
       <c r="AP31" s="17"/>
       <c r="AQ31" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="AR31" s="23" t="s">
         <v>585</v>
       </c>
-      <c r="AR31" s="23" t="s">
-        <v>586</v>
-      </c>
       <c r="AS31" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AT31" s="1">
         <f>RANK(BL31,$BL$3:$BL$122)+COUNTIF(BL$3:BL31,BL31)-1</f>
@@ -21097,7 +21094,7 @@
         <v>120</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D32" s="73" t="str">
         <f t="shared" si="0"/>
@@ -21123,10 +21120,10 @@
         <v>263</v>
       </c>
       <c r="V32" s="17" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="W32" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="X32" s="17"/>
       <c r="Y32" s="17"/>
@@ -21138,7 +21135,7 @@
       <c r="AE32" s="17"/>
       <c r="AF32" s="17"/>
       <c r="AG32" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AH32" s="11" t="s">
         <v>69</v>
@@ -21150,16 +21147,16 @@
         <v>118</v>
       </c>
       <c r="AK32" s="53" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="AL32" s="53" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="AM32" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="AN32" s="25" t="s">
         <v>516</v>
-      </c>
-      <c r="AN32" s="25" t="s">
-        <v>517</v>
       </c>
       <c r="AO32" s="17"/>
       <c r="AP32" s="17"/>
@@ -21270,7 +21267,7 @@
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D33" s="73" t="str">
         <f t="shared" si="0"/>
@@ -21296,10 +21293,10 @@
         <v>272</v>
       </c>
       <c r="V33" s="17" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="W33" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="X33" s="15"/>
       <c r="Y33" s="15"/>
@@ -21311,7 +21308,7 @@
       <c r="AE33" s="17"/>
       <c r="AF33" s="15"/>
       <c r="AG33" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AH33" s="17" t="s">
         <v>190</v>
@@ -21320,27 +21317,27 @@
         <v>51100</v>
       </c>
       <c r="AJ33" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="AK33" s="23" t="s">
+        <v>1292</v>
+      </c>
+      <c r="AL33" s="23" t="s">
+        <v>1291</v>
+      </c>
+      <c r="AM33" s="23" t="s">
         <v>422</v>
-      </c>
-      <c r="AK33" s="23" t="s">
-        <v>1295</v>
-      </c>
-      <c r="AL33" s="23" t="s">
-        <v>1294</v>
-      </c>
-      <c r="AM33" s="23" t="s">
-        <v>423</v>
       </c>
       <c r="AN33" s="30"/>
       <c r="AO33" s="15" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AP33" s="24"/>
       <c r="AQ33" s="17" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AR33" s="23" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AS33" s="26"/>
       <c r="AT33" s="1">
@@ -21477,18 +21474,18 @@
       <c r="X34" s="17"/>
       <c r="Y34" s="17"/>
       <c r="Z34" s="17" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="AA34" s="17" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AB34" s="17"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="17" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="AE34" s="17" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AF34" s="17"/>
       <c r="AG34" s="11" t="s">
@@ -21504,10 +21501,10 @@
         <v>78</v>
       </c>
       <c r="AK34" s="23" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="AL34" s="23" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="AM34" s="23"/>
       <c r="AN34" s="25"/>
@@ -21632,7 +21629,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="69" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="D35" s="73" t="str">
         <f t="shared" ref="D35:D66" si="19">IF(AX35&lt;&gt;0,"2020_A="&amp;AX35," ")&amp;IF(AY35&lt;&gt;0," ; 2020_i="&amp;AY35," ")&amp;IF(AZ35&lt;&gt;0,"2019_A="&amp;AZ35," ")&amp;IF(BA35&lt;&gt;0," ; 2019_i="&amp;BA35," ")&amp;IF(BB35&lt;&gt;0,"2018_A="&amp;BB35," ")&amp;IF(BC35&lt;&gt;0," ; 2018_i="&amp;BC35," ")&amp;IF(BD35&lt;&gt;0," ; 2017_A="&amp;BD35," ")&amp;IF(BE35&lt;&gt;0," ; 2017_i="&amp;BE35," ")&amp;IF(BF35&lt;&gt;0," ; 2016_A="&amp;BF35," ")&amp;IF(BG35&lt;&gt;0," ; 2016_i="&amp;BG35," ")&amp;IF(BH35&lt;&gt;0," ; 2015_A="&amp;BH35," ")&amp;IF(BI35&lt;&gt;0," ; 2015_i="&amp;BI35," ")&amp;IF(BJ35&lt;&gt;0," ; 2014_A="&amp;BJ35," ")&amp;IF(BK35&lt;&gt;0," ; 2014_i="&amp;BK35," ")</f>
@@ -21659,45 +21656,45 @@
       <c r="W35" s="69"/>
       <c r="X35" s="84"/>
       <c r="Y35" s="69" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="Z35" s="69" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="AA35" s="69" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="AB35" s="84"/>
       <c r="AC35" s="69" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="AD35" s="69" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="AE35" s="69" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="AF35" s="84"/>
       <c r="AG35" s="105" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="AH35" s="69" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="AI35" s="86">
         <v>10700</v>
       </c>
       <c r="AJ35" s="69" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="AK35" s="23" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="AL35" s="23" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="AM35" s="69" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="AN35" s="90"/>
       <c r="AO35" s="84"/>
@@ -21810,10 +21807,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="100" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C36" s="69" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="D36" s="73" t="str">
         <f t="shared" si="19"/>
@@ -21841,40 +21838,40 @@
       <c r="X36" s="84"/>
       <c r="Y36" s="84"/>
       <c r="Z36" s="69" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="AA36" s="69" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AB36" s="84"/>
       <c r="AC36" s="69"/>
       <c r="AD36" s="69" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="AE36" s="69" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AF36" s="84"/>
       <c r="AG36" s="105" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="AH36" s="69" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AI36" s="86">
         <v>45550</v>
       </c>
       <c r="AJ36" s="69" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="AK36" s="22" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="AL36" s="23" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="AM36" s="69" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AN36" s="90"/>
       <c r="AO36" s="84"/>
@@ -21987,10 +21984,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>393</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>394</v>
       </c>
       <c r="D37" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22024,34 +22021,34 @@
         <v>263</v>
       </c>
       <c r="AD37" s="17" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="AE37" s="17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AF37" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="AG37" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="AG37" s="17" t="s">
+      <c r="AH37" s="17" t="s">
         <v>396</v>
-      </c>
-      <c r="AH37" s="17" t="s">
-        <v>397</v>
       </c>
       <c r="AI37" s="21">
         <v>8000</v>
       </c>
       <c r="AJ37" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="AK37" s="22" t="s">
+        <v>1299</v>
+      </c>
+      <c r="AL37" s="22" t="s">
+        <v>1298</v>
+      </c>
+      <c r="AM37" s="23" t="s">
         <v>398</v>
-      </c>
-      <c r="AK37" s="22" t="s">
-        <v>1302</v>
-      </c>
-      <c r="AL37" s="22" t="s">
-        <v>1301</v>
-      </c>
-      <c r="AM37" s="23" t="s">
-        <v>399</v>
       </c>
       <c r="AN37" s="30"/>
       <c r="AO37" s="26"/>
@@ -22199,10 +22196,10 @@
         <v>263</v>
       </c>
       <c r="AD38" s="17" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="AE38" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF38" s="15"/>
       <c r="AG38" s="17" t="s">
@@ -22218,10 +22215,10 @@
         <v>309</v>
       </c>
       <c r="AK38" s="22" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="AL38" s="22" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="AM38" s="23" t="s">
         <v>308</v>
@@ -22232,7 +22229,7 @@
       <c r="AQ38" s="26"/>
       <c r="AR38" s="26"/>
       <c r="AS38" s="48" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AT38" s="1">
         <f>RANK(BL38,$BL$3:$BL$122)+COUNTIF(BL$3:BL38,BL38)-1</f>
@@ -22332,15 +22329,15 @@
       </c>
       <c r="CB38" s="35"/>
     </row>
-    <row r="39" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:80" s="1" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>846</v>
+        <v>1322</v>
       </c>
       <c r="D39" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22374,44 +22371,44 @@
         <v>272</v>
       </c>
       <c r="AD39" s="17" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="AE39" s="17" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AF39" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AG39" s="17" t="s">
+        <v>1321</v>
+      </c>
+      <c r="AH39" s="17" t="s">
         <v>371</v>
-      </c>
-      <c r="AH39" s="17" t="s">
-        <v>372</v>
       </c>
       <c r="AI39" s="21">
         <v>51096</v>
       </c>
       <c r="AJ39" s="15"/>
       <c r="AK39" s="23" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="AL39" s="23" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="AM39" s="17"/>
       <c r="AN39" s="25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AO39" s="26"/>
       <c r="AP39" s="24"/>
       <c r="AQ39" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="AR39" s="42" t="s">
         <v>374</v>
       </c>
-      <c r="AR39" s="42" t="s">
-        <v>375</v>
-      </c>
       <c r="AS39" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AT39" s="1">
         <f>RANK(BL39,$BL$3:$BL$122)+COUNTIF(BL$3:BL39,BL39)-1</f>
@@ -22419,10 +22416,7 @@
       </c>
       <c r="AU39" s="64" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">N° 37 Faculté de Médecine
-Unité de Recherche EA 3801
-HEMOSTASE ET REMODELAGE VASCULAIRE POST-ISCHEMIE (HERVI)
-</v>
+        <v>N° 37 Faculté de Médecine, Unité de Recherche EA 3801</v>
       </c>
       <c r="AV39" s="1">
         <f>RANK(BM39,$BM$3:$BM$122)+COUNTIF(BM$3:BM39,BM39)-1</f>
@@ -22430,10 +22424,7 @@
       </c>
       <c r="AW39" s="64" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">N° 28 Faculté de Médecine
-Unité de Recherche EA 3801
-HEMOSTASE ET REMODELAGE VASCULAIRE POST-ISCHEMIE (HERVI)
-</v>
+        <v>N° 28 Faculté de Médecine, Unité de Recherche EA 3801</v>
       </c>
       <c r="AX39" s="64"/>
       <c r="AY39" s="64"/>
@@ -22559,16 +22550,16 @@
         <v>272</v>
       </c>
       <c r="AD40" s="17" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="AE40" s="17" t="s">
         <v>314</v>
       </c>
       <c r="AF40" s="17" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AG40" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AH40" s="11" t="s">
         <v>184</v>
@@ -22580,31 +22571,31 @@
         <v>113</v>
       </c>
       <c r="AK40" s="23" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="AL40" s="23" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="AM40" s="23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AN40" s="25" t="s">
         <v>114</v>
       </c>
       <c r="AO40" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP40" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="AP40" s="17" t="s">
+      <c r="AQ40" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="AQ40" s="11" t="s">
+      <c r="AR40" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="AR40" s="11" t="s">
-        <v>456</v>
-      </c>
       <c r="AS40" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AT40" s="1">
         <f>RANK(BL40,$BL$3:$BL$122)+COUNTIF(BL$3:BL40,BL40)-1</f>
@@ -22709,10 +22700,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>400</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>401</v>
       </c>
       <c r="D41" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22746,16 +22737,16 @@
         <v>263</v>
       </c>
       <c r="AD41" s="17" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="AE41" s="17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AF41" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="AG41" s="17" t="s">
         <v>402</v>
-      </c>
-      <c r="AG41" s="17" t="s">
-        <v>403</v>
       </c>
       <c r="AH41" s="17" t="s">
         <v>213</v>
@@ -22767,13 +22758,13 @@
         <v>44</v>
       </c>
       <c r="AK41" s="22" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="AL41" s="22" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="AM41" s="23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AN41" s="30"/>
       <c r="AO41" s="26"/>
@@ -22781,7 +22772,7 @@
       <c r="AQ41" s="26"/>
       <c r="AR41" s="26"/>
       <c r="AS41" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AT41" s="1">
         <f>RANK(BL41,$BL$3:$BL$122)+COUNTIF(BL$3:BL41,BL41)-1</f>
@@ -22883,13 +22874,13 @@
     </row>
     <row r="42" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D42" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22923,47 +22914,47 @@
         <v>272</v>
       </c>
       <c r="AD42" s="17" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="AE42" s="17" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AF42" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG42" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AH42" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AI42" s="21">
         <v>51686</v>
       </c>
       <c r="AJ42" s="28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AK42" s="22" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="AL42" s="22" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="AM42" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AN42" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AO42" s="17" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="AP42" s="24"/>
       <c r="AQ42" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AR42" s="42" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AS42" s="26"/>
       <c r="AT42" s="1">
@@ -23072,7 +23063,7 @@
         <v>273</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D43" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23103,16 +23094,16 @@
       <c r="AA43" s="15"/>
       <c r="AB43" s="15"/>
       <c r="AC43" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="AD43" s="17" t="s">
+        <v>1188</v>
+      </c>
+      <c r="AE43" s="17" t="s">
+        <v>537</v>
+      </c>
+      <c r="AF43" s="15" t="s">
         <v>391</v>
-      </c>
-      <c r="AD43" s="17" t="s">
-        <v>1191</v>
-      </c>
-      <c r="AE43" s="17" t="s">
-        <v>538</v>
-      </c>
-      <c r="AF43" s="15" t="s">
-        <v>392</v>
       </c>
       <c r="AG43" s="17" t="s">
         <v>303</v>
@@ -23128,13 +23119,13 @@
       </c>
       <c r="AK43" s="22"/>
       <c r="AL43" s="22" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="AM43" s="23" t="s">
         <v>300</v>
       </c>
       <c r="AN43" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AO43" s="17"/>
       <c r="AP43" s="17"/>
@@ -23143,7 +23134,7 @@
       </c>
       <c r="AR43" s="26"/>
       <c r="AS43" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AT43" s="1">
         <f>RANK(BL43,$BL$3:$BL$122)+COUNTIF(BL$3:BL43,BL43)-1</f>
@@ -23248,10 +23239,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>407</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>408</v>
       </c>
       <c r="D44" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23285,34 +23276,34 @@
         <v>263</v>
       </c>
       <c r="AD44" s="17" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="AE44" s="17" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AF44" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="AG44" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="AH44" s="17" t="s">
         <v>409</v>
-      </c>
-      <c r="AG44" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="AH44" s="17" t="s">
-        <v>410</v>
       </c>
       <c r="AI44" s="21">
         <v>77440</v>
       </c>
       <c r="AJ44" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="AK44" s="22" t="s">
+        <v>1313</v>
+      </c>
+      <c r="AL44" s="22" t="s">
+        <v>1312</v>
+      </c>
+      <c r="AM44" s="23" t="s">
         <v>412</v>
-      </c>
-      <c r="AK44" s="22" t="s">
-        <v>1316</v>
-      </c>
-      <c r="AL44" s="22" t="s">
-        <v>1315</v>
-      </c>
-      <c r="AM44" s="23" t="s">
-        <v>413</v>
       </c>
       <c r="AN44" s="30"/>
       <c r="AO44" s="26"/>
@@ -23426,7 +23417,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="D45" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23457,13 +23448,13 @@
       <c r="AA45" s="17"/>
       <c r="AB45" s="17"/>
       <c r="AC45" s="17" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="AD45" s="17" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="AE45" s="17" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="AF45" s="17"/>
       <c r="AG45" s="11" t="s">
@@ -23479,10 +23470,10 @@
         <v>93</v>
       </c>
       <c r="AK45" s="23" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="AL45" s="23" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="AM45" s="23"/>
       <c r="AN45" s="25" t="s">
@@ -23639,17 +23630,17 @@
       <c r="AB46" s="30"/>
       <c r="AC46" s="17"/>
       <c r="AD46" s="17" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="AE46" s="17" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="AF46" s="30"/>
       <c r="AG46" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="AH46" s="17" t="s">
         <v>703</v>
-      </c>
-      <c r="AH46" s="17" t="s">
-        <v>704</v>
       </c>
       <c r="AI46" s="21">
         <v>45110</v>
@@ -23658,10 +23649,10 @@
         <v>330</v>
       </c>
       <c r="AK46" s="58" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="AL46" s="58" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="AM46" s="17"/>
       <c r="AN46" s="26"/>
@@ -23768,7 +23759,7 @@
       </c>
       <c r="CB46" s="37"/>
     </row>
-    <row r="47" spans="1:80" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:80" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>0</v>
       </c>
@@ -23776,7 +23767,7 @@
         <v>97</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D47" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23823,10 +23814,10 @@
         <v>107</v>
       </c>
       <c r="AK47" s="23" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="AL47" s="23" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="AM47" s="23"/>
       <c r="AN47" s="25"/>
@@ -24440,7 +24431,7 @@
         <v>110</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D51" s="73" t="str">
         <f t="shared" si="19"/>
@@ -24493,17 +24484,17 @@
       <c r="AM51" s="23"/>
       <c r="AN51" s="25"/>
       <c r="AO51" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="AP51" s="17" t="s">
         <v>447</v>
-      </c>
-      <c r="AP51" s="17" t="s">
-        <v>448</v>
       </c>
       <c r="AQ51" s="25"/>
       <c r="AR51" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="AS51" s="25" t="s">
         <v>449</v>
-      </c>
-      <c r="AS51" s="25" t="s">
-        <v>450</v>
       </c>
       <c r="AT51" s="1">
         <f>RANK(BL51,$BL$3:$BL$122)+COUNTIF(BL$3:BL51,BL51)-1</f>
@@ -24664,16 +24655,16 @@
       </c>
       <c r="AN52" s="49"/>
       <c r="AO52" s="17" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AP52" s="17" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AQ52" s="23" t="s">
+        <v>677</v>
+      </c>
+      <c r="AR52" s="42" t="s">
         <v>678</v>
-      </c>
-      <c r="AR52" s="42" t="s">
-        <v>679</v>
       </c>
       <c r="AS52" s="26"/>
       <c r="AT52" s="1">
@@ -24777,7 +24768,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>38</v>
@@ -24832,7 +24823,7 @@
       <c r="AL53" s="23"/>
       <c r="AM53" s="23"/>
       <c r="AN53" s="25" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AO53" s="17"/>
       <c r="AP53" s="17"/>
@@ -25169,7 +25160,7 @@
       </c>
       <c r="AR55" s="11"/>
       <c r="AS55" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AT55" s="1">
         <f>RANK(BL55,$BL$3:$BL$122)+COUNTIF(BL$3:BL55,BL55)-1</f>
@@ -25495,19 +25486,19 @@
       <c r="AM57" s="23"/>
       <c r="AN57" s="25"/>
       <c r="AO57" s="17" t="s">
+        <v>1208</v>
+      </c>
+      <c r="AP57" s="17" t="s">
+        <v>1209</v>
+      </c>
+      <c r="AQ57" s="11" t="s">
+        <v>1210</v>
+      </c>
+      <c r="AR57" s="50" t="s">
         <v>1211</v>
       </c>
-      <c r="AP57" s="17" t="s">
+      <c r="AS57" s="11" t="s">
         <v>1212</v>
-      </c>
-      <c r="AQ57" s="11" t="s">
-        <v>1213</v>
-      </c>
-      <c r="AR57" s="50" t="s">
-        <v>1214</v>
-      </c>
-      <c r="AS57" s="11" t="s">
-        <v>1215</v>
       </c>
       <c r="AT57" s="1">
         <f>RANK(BL57,$BL$3:$BL$122)+COUNTIF(BL$3:BL57,BL57)-1</f>
@@ -25667,7 +25658,7 @@
         <v>236</v>
       </c>
       <c r="AP58" s="17" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AQ58" s="44" t="s">
         <v>55</v>
@@ -26497,7 +26488,7 @@
         <v>32</v>
       </c>
       <c r="AS63" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AT63" s="1">
         <f>RANK(BL63,$BL$3:$BL$122)+COUNTIF(BL$3:BL63,BL63)-1</f>
@@ -26654,7 +26645,7 @@
       </c>
       <c r="AL64" s="23"/>
       <c r="AM64" s="23" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AN64" s="25" t="s">
         <v>60</v>
@@ -26668,7 +26659,7 @@
         <v>62</v>
       </c>
       <c r="AS64" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AT64" s="1">
         <f>RANK(BL64,$BL$3:$BL$122)+COUNTIF(BL$3:BL64,BL64)-1</f>
@@ -26774,7 +26765,7 @@
         <v>83</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D65" s="73" t="str">
         <f t="shared" si="19"/>
@@ -26829,7 +26820,7 @@
         <v>90</v>
       </c>
       <c r="AO65" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AP65" s="17" t="s">
         <v>86</v>
@@ -26841,7 +26832,7 @@
         <v>87</v>
       </c>
       <c r="AS65" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AT65" s="1">
         <f>RANK(BL65,$BL$3:$BL$122)+COUNTIF(BL$3:BL65,BL65)-1</f>
@@ -26999,7 +26990,7 @@
       <c r="AL66" s="23"/>
       <c r="AM66" s="23"/>
       <c r="AN66" s="25" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AO66" s="17"/>
       <c r="AP66" s="17"/>
@@ -27163,17 +27154,17 @@
       <c r="AM67" s="23"/>
       <c r="AN67" s="25"/>
       <c r="AO67" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="AP67" s="17" t="s">
         <v>562</v>
-      </c>
-      <c r="AP67" s="17" t="s">
-        <v>563</v>
       </c>
       <c r="AQ67" s="44" t="s">
         <v>219</v>
       </c>
       <c r="AR67" s="11"/>
       <c r="AS67" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AT67" s="1">
         <f>RANK(BL67,$BL$3:$BL$122)+COUNTIF(BL$3:BL67,BL67)-1</f>
@@ -27276,7 +27267,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C68" s="17" t="s">
         <v>66</v>
@@ -27326,11 +27317,11 @@
         <v>254</v>
       </c>
       <c r="AK68" s="23" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AL68" s="23"/>
       <c r="AM68" s="23" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AN68" s="25"/>
       <c r="AO68" s="17"/>
@@ -27827,11 +27818,11 @@
       </c>
       <c r="AN71" s="30"/>
       <c r="AO71" s="17" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AP71" s="24"/>
       <c r="AQ71" s="17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AR71" s="26"/>
       <c r="AS71" s="26"/>
@@ -28099,10 +28090,10 @@
         <v>0</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D73" s="73" t="str">
         <f t="shared" si="38"/>
@@ -28137,33 +28128,33 @@
       <c r="AE73" s="17"/>
       <c r="AF73" s="48"/>
       <c r="AG73" s="54" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AH73" s="17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AI73" s="21">
         <v>77510</v>
       </c>
       <c r="AJ73" s="46" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AK73" s="23" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AL73" s="23"/>
       <c r="AM73" s="23" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AN73" s="45"/>
       <c r="AO73" s="48" t="s">
+        <v>551</v>
+      </c>
+      <c r="AP73" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="AP73" s="17" t="s">
+      <c r="AQ73" s="17" t="s">
         <v>553</v>
-      </c>
-      <c r="AQ73" s="17" t="s">
-        <v>554</v>
       </c>
       <c r="AR73" s="48"/>
       <c r="AS73" s="48"/>
@@ -28330,7 +28321,7 @@
         <v>158</v>
       </c>
       <c r="AQ74" s="44" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AR74" s="11"/>
       <c r="AS74" s="25"/>
@@ -28490,10 +28481,10 @@
       <c r="AL75" s="23"/>
       <c r="AM75" s="23"/>
       <c r="AN75" s="25" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AO75" s="17" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AP75" s="17" t="s">
         <v>102</v>
@@ -28609,7 +28600,7 @@
         <v>17</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D76" s="73" t="str">
         <f t="shared" si="38"/>
@@ -28644,7 +28635,7 @@
       <c r="AE76" s="17"/>
       <c r="AF76" s="15"/>
       <c r="AG76" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AH76" s="17" t="s">
         <v>190</v>
@@ -28653,21 +28644,21 @@
         <v>51100</v>
       </c>
       <c r="AJ76" s="28" t="s">
+        <v>573</v>
+      </c>
+      <c r="AK76" s="22" t="s">
         <v>574</v>
-      </c>
-      <c r="AK76" s="22" t="s">
-        <v>575</v>
       </c>
       <c r="AL76" s="22"/>
       <c r="AM76" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AN76" s="30"/>
       <c r="AO76" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AP76" s="17" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AQ76" s="26"/>
       <c r="AR76" s="26"/>
@@ -28776,7 +28767,7 @@
         <v>17</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D77" s="73" t="str">
         <f t="shared" si="38"/>
@@ -28811,37 +28802,37 @@
       <c r="AE77" s="17"/>
       <c r="AF77" s="15"/>
       <c r="AG77" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AH77" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AI77" s="21">
         <v>51200</v>
       </c>
       <c r="AJ77" s="28" t="s">
+        <v>579</v>
+      </c>
+      <c r="AK77" s="56" t="s">
         <v>580</v>
-      </c>
-      <c r="AK77" s="56" t="s">
-        <v>581</v>
       </c>
       <c r="AL77" s="56"/>
       <c r="AM77" s="23" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AN77" s="30"/>
       <c r="AO77" s="17" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AP77" s="48"/>
       <c r="AQ77" s="25" t="s">
+        <v>582</v>
+      </c>
+      <c r="AR77" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="AR77" s="23" t="s">
-        <v>584</v>
-      </c>
       <c r="AS77" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AT77" s="1">
         <f>RANK(BL77,$BL$3:$BL$122)+COUNTIF(BL$3:BL77,BL77)-1</f>
@@ -28947,7 +28938,7 @@
         <v>17</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D78" s="73" t="str">
         <f t="shared" si="38"/>
@@ -28982,7 +28973,7 @@
       <c r="AE78" s="17"/>
       <c r="AF78" s="15"/>
       <c r="AG78" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AH78" s="17" t="s">
         <v>317</v>
@@ -28991,25 +28982,25 @@
         <v>10110</v>
       </c>
       <c r="AJ78" s="28" t="s">
+        <v>588</v>
+      </c>
+      <c r="AK78" s="56" t="s">
         <v>589</v>
-      </c>
-      <c r="AK78" s="56" t="s">
-        <v>590</v>
       </c>
       <c r="AL78" s="56"/>
       <c r="AM78" s="23" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AN78" s="30"/>
       <c r="AO78" s="17" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AP78" s="48"/>
       <c r="AQ78" s="25" t="s">
+        <v>582</v>
+      </c>
+      <c r="AR78" s="23" t="s">
         <v>583</v>
-      </c>
-      <c r="AR78" s="23" t="s">
-        <v>584</v>
       </c>
       <c r="AS78" s="25"/>
       <c r="AT78" s="1">
@@ -29116,7 +29107,7 @@
         <v>17</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D79" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29151,36 +29142,36 @@
       <c r="AE79" s="17"/>
       <c r="AF79" s="15"/>
       <c r="AG79" s="11" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AH79" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AI79" s="21">
         <v>51530</v>
       </c>
       <c r="AJ79" s="28" t="s">
+        <v>598</v>
+      </c>
+      <c r="AK79" s="56" t="s">
         <v>599</v>
-      </c>
-      <c r="AK79" s="56" t="s">
-        <v>600</v>
       </c>
       <c r="AL79" s="56"/>
       <c r="AM79" s="23" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AN79" s="30"/>
       <c r="AO79" s="17" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AP79" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="AQ79" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="AR79" s="23" t="s">
         <v>602</v>
-      </c>
-      <c r="AQ79" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="AR79" s="23" t="s">
-        <v>603</v>
       </c>
       <c r="AS79" s="25"/>
       <c r="AT79" s="1">
@@ -29284,10 +29275,10 @@
         <v>343</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D80" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29322,30 +29313,30 @@
       <c r="AE80" s="17"/>
       <c r="AF80" s="15"/>
       <c r="AG80" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AH80" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AI80" s="21">
         <v>10800</v>
       </c>
       <c r="AJ80" s="28" t="s">
+        <v>610</v>
+      </c>
+      <c r="AK80" s="56" t="s">
         <v>611</v>
-      </c>
-      <c r="AK80" s="56" t="s">
-        <v>612</v>
       </c>
       <c r="AL80" s="56"/>
       <c r="AM80" s="23" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AN80" s="30"/>
       <c r="AO80" s="17"/>
       <c r="AP80" s="17"/>
       <c r="AQ80" s="25"/>
       <c r="AR80" s="23" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AS80" s="25"/>
       <c r="AT80" s="1">
@@ -29449,10 +29440,10 @@
         <v>343</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D81" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29487,31 +29478,31 @@
       <c r="AE81" s="17"/>
       <c r="AF81" s="15"/>
       <c r="AG81" s="11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AH81" s="17" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AI81" s="21">
         <v>94200</v>
       </c>
       <c r="AJ81" s="28"/>
       <c r="AK81" s="56" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AL81" s="56"/>
       <c r="AM81" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AN81" s="30"/>
       <c r="AO81" s="17" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AP81" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="AQ81" s="11" t="s">
         <v>629</v>
-      </c>
-      <c r="AQ81" s="11" t="s">
-        <v>630</v>
       </c>
       <c r="AR81" s="23"/>
       <c r="AS81" s="25"/>
@@ -29616,10 +29607,10 @@
         <v>343</v>
       </c>
       <c r="B82" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="C82" s="17" t="s">
         <v>631</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>632</v>
       </c>
       <c r="D82" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29654,23 +29645,23 @@
       <c r="AE82" s="17"/>
       <c r="AF82" s="15"/>
       <c r="AG82" s="11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AH82" s="17" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AI82" s="21">
         <v>2220</v>
       </c>
       <c r="AJ82" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="AK82" s="56" t="s">
         <v>635</v>
-      </c>
-      <c r="AK82" s="56" t="s">
-        <v>636</v>
       </c>
       <c r="AL82" s="56"/>
       <c r="AM82" s="23" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AN82" s="30"/>
       <c r="AO82" s="17"/>
@@ -29678,7 +29669,7 @@
       <c r="AQ82" s="11"/>
       <c r="AR82" s="23"/>
       <c r="AS82" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AT82" s="1">
         <f>RANK(BL82,$BL$3:$BL$122)+COUNTIF(BL$3:BL82,BL82)-1</f>
@@ -29784,7 +29775,7 @@
         <v>4</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D83" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29819,38 +29810,38 @@
       <c r="AE83" s="17"/>
       <c r="AF83" s="15"/>
       <c r="AG83" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AH83" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AI83" s="21">
         <v>51320</v>
       </c>
       <c r="AJ83" s="28" t="s">
+        <v>640</v>
+      </c>
+      <c r="AK83" s="56" t="s">
         <v>641</v>
-      </c>
-      <c r="AK83" s="56" t="s">
-        <v>642</v>
       </c>
       <c r="AL83" s="56"/>
       <c r="AM83" s="23" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AN83" s="17" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AO83" s="17" t="s">
+        <v>1214</v>
+      </c>
+      <c r="AP83" s="17" t="s">
+        <v>1215</v>
+      </c>
+      <c r="AQ83" s="17" t="s">
         <v>1216</v>
       </c>
-      <c r="AO83" s="17" t="s">
+      <c r="AR83" s="23" t="s">
         <v>1217</v>
-      </c>
-      <c r="AP83" s="17" t="s">
-        <v>1218</v>
-      </c>
-      <c r="AQ83" s="17" t="s">
-        <v>1219</v>
-      </c>
-      <c r="AR83" s="23" t="s">
-        <v>1220</v>
       </c>
       <c r="AS83" s="25"/>
       <c r="AT83" s="1">
@@ -29954,10 +29945,10 @@
         <v>0</v>
       </c>
       <c r="B84" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="C84" s="17" t="s">
         <v>644</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>645</v>
       </c>
       <c r="D84" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29992,36 +29983,36 @@
       <c r="AE84" s="17"/>
       <c r="AF84" s="15"/>
       <c r="AG84" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AH84" s="17" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AI84" s="21">
         <v>2450</v>
       </c>
       <c r="AJ84" s="28" t="s">
+        <v>647</v>
+      </c>
+      <c r="AK84" s="56" t="s">
         <v>648</v>
-      </c>
-      <c r="AK84" s="56" t="s">
-        <v>649</v>
       </c>
       <c r="AL84" s="56"/>
       <c r="AM84" s="23" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AN84" s="30"/>
       <c r="AO84" s="17" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AP84" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="AQ84" s="17" t="s">
+        <v>652</v>
+      </c>
+      <c r="AR84" s="23" t="s">
         <v>651</v>
-      </c>
-      <c r="AQ84" s="17" t="s">
-        <v>653</v>
-      </c>
-      <c r="AR84" s="23" t="s">
-        <v>652</v>
       </c>
       <c r="AS84" s="25"/>
       <c r="AT84" s="1">
@@ -30125,10 +30116,10 @@
         <v>0</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D85" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30163,23 +30154,23 @@
       <c r="AE85" s="17"/>
       <c r="AF85" s="15"/>
       <c r="AG85" s="11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH85" s="17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AI85" s="21">
         <v>25300</v>
       </c>
       <c r="AJ85" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="AK85" s="56" t="s">
         <v>657</v>
-      </c>
-      <c r="AK85" s="56" t="s">
-        <v>658</v>
       </c>
       <c r="AL85" s="56"/>
       <c r="AM85" s="23" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AN85" s="30"/>
       <c r="AO85" s="17"/>
@@ -30288,10 +30279,10 @@
         <v>0</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D86" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30326,23 +30317,23 @@
       <c r="AE86" s="17"/>
       <c r="AF86" s="15"/>
       <c r="AG86" s="17" t="s">
+        <v>698</v>
+      </c>
+      <c r="AH86" s="17" t="s">
         <v>699</v>
-      </c>
-      <c r="AH86" s="17" t="s">
-        <v>700</v>
       </c>
       <c r="AI86" s="21">
         <v>10230</v>
       </c>
       <c r="AJ86" s="28" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AK86" s="56" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AL86" s="56"/>
       <c r="AM86" s="23" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AN86" s="30"/>
       <c r="AO86" s="26"/>
@@ -30456,7 +30447,7 @@
         <v>15</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D87" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30491,23 +30482,23 @@
       <c r="AE87" s="17"/>
       <c r="AF87" s="15"/>
       <c r="AG87" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="AH87" s="17" t="s">
         <v>706</v>
-      </c>
-      <c r="AH87" s="17" t="s">
-        <v>707</v>
       </c>
       <c r="AI87" s="21">
         <v>51130</v>
       </c>
       <c r="AJ87" s="28" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AK87" s="22" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AL87" s="22"/>
       <c r="AM87" s="23" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AN87" s="26"/>
       <c r="AO87" s="17" t="s">
@@ -30658,23 +30649,23 @@
       <c r="AE88" s="17"/>
       <c r="AF88" s="15"/>
       <c r="AG88" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="AH88" s="17" t="s">
         <v>710</v>
-      </c>
-      <c r="AH88" s="17" t="s">
-        <v>711</v>
       </c>
       <c r="AI88" s="21">
         <v>6823</v>
       </c>
       <c r="AJ88" s="28" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AK88" s="22" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AL88" s="22"/>
       <c r="AM88" s="23" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AN88" s="26"/>
       <c r="AO88" s="17" t="s">
@@ -30787,10 +30778,10 @@
         <v>0</v>
       </c>
       <c r="B89" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="C89" s="17" t="s">
         <v>714</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>715</v>
       </c>
       <c r="D89" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30825,7 +30816,7 @@
       <c r="AE89" s="17"/>
       <c r="AF89" s="15"/>
       <c r="AG89" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AH89" s="17" t="s">
         <v>190</v>
@@ -30837,7 +30828,7 @@
         <v>340</v>
       </c>
       <c r="AK89" s="22" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AL89" s="22"/>
       <c r="AM89" s="17"/>
@@ -30853,7 +30844,7 @@
         <v>339</v>
       </c>
       <c r="AS89" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AT89" s="1">
         <f>RANK(BL89,$BL$3:$BL$122)+COUNTIF(BL$3:BL89,BL89)-1</f>
@@ -30994,7 +30985,7 @@
       <c r="AE90" s="17"/>
       <c r="AF90" s="15"/>
       <c r="AG90" s="17" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AH90" s="17" t="s">
         <v>190</v>
@@ -31003,14 +30994,14 @@
         <v>51100</v>
       </c>
       <c r="AJ90" s="28" t="s">
+        <v>720</v>
+      </c>
+      <c r="AK90" s="22" t="s">
         <v>721</v>
-      </c>
-      <c r="AK90" s="22" t="s">
-        <v>722</v>
       </c>
       <c r="AL90" s="22"/>
       <c r="AM90" s="23" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AN90" s="30" t="s">
         <v>345</v>
@@ -31121,10 +31112,10 @@
         <v>343</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D91" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31159,7 +31150,7 @@
       <c r="AE91" s="17"/>
       <c r="AF91" s="15"/>
       <c r="AG91" s="17" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AH91" s="17" t="s">
         <v>275</v>
@@ -31168,14 +31159,14 @@
         <v>2000</v>
       </c>
       <c r="AJ91" s="28" t="s">
+        <v>726</v>
+      </c>
+      <c r="AK91" s="22" t="s">
         <v>727</v>
-      </c>
-      <c r="AK91" s="22" t="s">
-        <v>728</v>
       </c>
       <c r="AL91" s="22"/>
       <c r="AM91" s="23" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AN91" s="30"/>
       <c r="AO91" s="26"/>
@@ -31284,10 +31275,10 @@
         <v>343</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D92" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31322,21 +31313,21 @@
       <c r="AE92" s="17"/>
       <c r="AF92" s="15"/>
       <c r="AG92" s="17" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AH92" s="17" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AI92" s="21">
         <v>51370</v>
       </c>
       <c r="AJ92" s="15"/>
       <c r="AK92" s="22" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AL92" s="22"/>
       <c r="AM92" s="23" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AN92" s="30"/>
       <c r="AO92" s="17" t="s">
@@ -31350,7 +31341,7 @@
         <v>348</v>
       </c>
       <c r="AS92" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AT92" s="1">
         <f>RANK(BL92,$BL$3:$BL$122)+COUNTIF(BL$3:BL92,BL92)-1</f>
@@ -31456,7 +31447,7 @@
         <v>350</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D93" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31491,7 +31482,7 @@
       <c r="AE93" s="17"/>
       <c r="AF93" s="15"/>
       <c r="AG93" s="17" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AH93" s="17" t="s">
         <v>213</v>
@@ -31501,18 +31492,18 @@
       </c>
       <c r="AJ93" s="15"/>
       <c r="AK93" s="22" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AL93" s="22"/>
       <c r="AM93" s="23" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AN93" s="30"/>
       <c r="AO93" s="17" t="s">
+        <v>738</v>
+      </c>
+      <c r="AP93" s="17" t="s">
         <v>739</v>
-      </c>
-      <c r="AP93" s="17" t="s">
-        <v>740</v>
       </c>
       <c r="AQ93" s="30" t="s">
         <v>351</v>
@@ -31623,7 +31614,7 @@
         <v>350</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D94" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31661,23 +31652,23 @@
         <v>353</v>
       </c>
       <c r="AH94" s="17" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AI94" s="17">
         <v>51120</v>
       </c>
       <c r="AJ94" s="15"/>
       <c r="AK94" s="22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AL94" s="22"/>
       <c r="AM94" s="17"/>
       <c r="AN94" s="30"/>
       <c r="AO94" s="48" t="s">
+        <v>742</v>
+      </c>
+      <c r="AP94" s="17" t="s">
         <v>743</v>
-      </c>
-      <c r="AP94" s="17" t="s">
-        <v>744</v>
       </c>
       <c r="AQ94" s="30" t="s">
         <v>352</v>
@@ -31686,7 +31677,7 @@
         <v>354</v>
       </c>
       <c r="AS94" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AT94" s="1">
         <f>RANK(BL94,$BL$3:$BL$122)+COUNTIF(BL$3:BL94,BL94)-1</f>
@@ -31789,10 +31780,10 @@
         <v>343</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D95" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31827,23 +31818,23 @@
       <c r="AE95" s="17"/>
       <c r="AF95" s="15"/>
       <c r="AG95" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="AH95" s="17" t="s">
         <v>747</v>
-      </c>
-      <c r="AH95" s="17" t="s">
-        <v>748</v>
       </c>
       <c r="AI95" s="21">
         <v>51000</v>
       </c>
       <c r="AJ95" s="28" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AK95" s="22" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AL95" s="22"/>
       <c r="AM95" s="23" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AN95" s="15"/>
       <c r="AO95" s="26"/>
@@ -31952,10 +31943,10 @@
         <v>343</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D96" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31990,34 +31981,34 @@
       <c r="AE96" s="17"/>
       <c r="AF96" s="15"/>
       <c r="AG96" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="AH96" s="17" t="s">
         <v>754</v>
-      </c>
-      <c r="AH96" s="17" t="s">
-        <v>755</v>
       </c>
       <c r="AI96" s="21">
         <v>60550</v>
       </c>
       <c r="AJ96" s="28" t="s">
+        <v>755</v>
+      </c>
+      <c r="AK96" s="22" t="s">
         <v>756</v>
-      </c>
-      <c r="AK96" s="22" t="s">
-        <v>757</v>
       </c>
       <c r="AL96" s="22"/>
       <c r="AM96" s="23" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AN96" s="15"/>
       <c r="AO96" s="17" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AP96" s="24"/>
       <c r="AQ96" s="48" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AR96" s="60" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AS96" s="26"/>
       <c r="AT96" s="1">
@@ -32118,13 +32109,13 @@
     </row>
     <row r="97" spans="1:80" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="D97" s="73" t="str">
         <f t="shared" si="38"/>
@@ -32159,34 +32150,34 @@
       <c r="AE97" s="17"/>
       <c r="AF97" s="15"/>
       <c r="AG97" s="17" t="s">
+        <v>762</v>
+      </c>
+      <c r="AH97" s="17" t="s">
         <v>763</v>
-      </c>
-      <c r="AH97" s="17" t="s">
-        <v>764</v>
       </c>
       <c r="AI97" s="21">
         <v>94700</v>
       </c>
       <c r="AJ97" s="28" t="s">
+        <v>764</v>
+      </c>
+      <c r="AK97" s="22" t="s">
         <v>765</v>
-      </c>
-      <c r="AK97" s="22" t="s">
-        <v>766</v>
       </c>
       <c r="AL97" s="22"/>
       <c r="AM97" s="23" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AN97" s="30"/>
       <c r="AO97" s="17" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AP97" s="24"/>
       <c r="AQ97" s="17" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AR97" s="60" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AS97" s="26"/>
       <c r="AT97" s="1">
@@ -32287,13 +32278,13 @@
     </row>
     <row r="98" spans="1:80" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
+        <v>779</v>
+      </c>
+      <c r="B98" s="12" t="s">
         <v>780</v>
       </c>
-      <c r="B98" s="12" t="s">
-        <v>781</v>
-      </c>
       <c r="C98" s="17" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D98" s="73" t="str">
         <f t="shared" si="38"/>
@@ -32328,25 +32319,25 @@
       <c r="AE98" s="17"/>
       <c r="AF98" s="15"/>
       <c r="AG98" s="17" t="s">
+        <v>781</v>
+      </c>
+      <c r="AH98" s="17" t="s">
         <v>782</v>
-      </c>
-      <c r="AH98" s="17" t="s">
-        <v>783</v>
       </c>
       <c r="AI98" s="21">
         <v>10400</v>
       </c>
       <c r="AJ98" s="15"/>
       <c r="AK98" s="22" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AL98" s="22"/>
       <c r="AM98" s="23" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AN98" s="26"/>
       <c r="AO98" s="17" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AP98" s="24"/>
       <c r="AQ98" s="30" t="s">
@@ -32452,13 +32443,13 @@
     </row>
     <row r="99" spans="1:80" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D99" s="73" t="str">
         <f t="shared" ref="D99:D128" si="57">IF(AX99&lt;&gt;0,"2020_A="&amp;AX99," ")&amp;IF(AY99&lt;&gt;0," ; 2020_i="&amp;AY99," ")&amp;IF(AZ99&lt;&gt;0,"2019_A="&amp;AZ99," ")&amp;IF(BA99&lt;&gt;0," ; 2019_i="&amp;BA99," ")&amp;IF(BB99&lt;&gt;0,"2018_A="&amp;BB99," ")&amp;IF(BC99&lt;&gt;0," ; 2018_i="&amp;BC99," ")&amp;IF(BD99&lt;&gt;0," ; 2017_A="&amp;BD99," ")&amp;IF(BE99&lt;&gt;0," ; 2017_i="&amp;BE99," ")&amp;IF(BF99&lt;&gt;0," ; 2016_A="&amp;BF99," ")&amp;IF(BG99&lt;&gt;0," ; 2016_i="&amp;BG99," ")&amp;IF(BH99&lt;&gt;0," ; 2015_A="&amp;BH99," ")&amp;IF(BI99&lt;&gt;0," ; 2015_i="&amp;BI99," ")&amp;IF(BJ99&lt;&gt;0," ; 2014_A="&amp;BJ99," ")&amp;IF(BK99&lt;&gt;0," ; 2014_i="&amp;BK99," ")</f>
@@ -32493,7 +32484,7 @@
       <c r="AE99" s="17"/>
       <c r="AF99" s="15"/>
       <c r="AG99" s="17" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AH99" s="17" t="s">
         <v>267</v>
@@ -32502,30 +32493,30 @@
         <v>51110</v>
       </c>
       <c r="AJ99" s="28" t="s">
+        <v>789</v>
+      </c>
+      <c r="AK99" s="22" t="s">
         <v>790</v>
-      </c>
-      <c r="AK99" s="22" t="s">
-        <v>791</v>
       </c>
       <c r="AL99" s="22"/>
       <c r="AM99" s="23" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AN99" s="26"/>
       <c r="AO99" s="17" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AP99" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="AQ99" s="30" t="s">
         <v>793</v>
       </c>
-      <c r="AQ99" s="30" t="s">
+      <c r="AR99" s="23" t="s">
         <v>794</v>
       </c>
-      <c r="AR99" s="23" t="s">
-        <v>795</v>
-      </c>
       <c r="AS99" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AT99" s="1">
         <f>RANK(BL99,$BL$3:$BL$122)+COUNTIF(BL$3:BL99,BL99)-1</f>
@@ -32628,10 +32619,10 @@
         <v>264</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D100" s="73" t="str">
         <f t="shared" si="57"/>
@@ -32666,7 +32657,7 @@
       <c r="AE100" s="17"/>
       <c r="AF100" s="15"/>
       <c r="AG100" s="17" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AH100" s="17" t="s">
         <v>198</v>
@@ -32675,26 +32666,26 @@
         <v>51300</v>
       </c>
       <c r="AJ100" s="28" t="s">
+        <v>799</v>
+      </c>
+      <c r="AK100" s="22" t="s">
         <v>800</v>
-      </c>
-      <c r="AK100" s="22" t="s">
-        <v>801</v>
       </c>
       <c r="AL100" s="22"/>
       <c r="AM100" s="23" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AN100" s="26"/>
       <c r="AO100" s="17" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AP100" s="17"/>
       <c r="AQ100" s="30" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AR100" s="23"/>
       <c r="AS100" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AT100" s="1">
         <f>RANK(BL100,$BL$3:$BL$122)+COUNTIF(BL$3:BL100,BL100)-1</f>
@@ -32797,7 +32788,7 @@
         <v>264</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C101" s="17" t="s">
         <v>360</v>
@@ -32835,23 +32826,23 @@
       <c r="AE101" s="17"/>
       <c r="AF101" s="15"/>
       <c r="AG101" s="17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AH101" s="17" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI101" s="21">
         <v>77200</v>
       </c>
       <c r="AJ101" s="28" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AK101" s="22" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AL101" s="22"/>
       <c r="AM101" s="23" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AN101" s="15"/>
       <c r="AO101" s="48" t="s">
@@ -32962,10 +32953,10 @@
         <v>264</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D102" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33000,10 +32991,10 @@
       <c r="AE102" s="17"/>
       <c r="AF102" s="15"/>
       <c r="AG102" s="17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AH102" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AI102" s="21">
         <v>51689</v>
@@ -33012,17 +33003,17 @@
         <v>362</v>
       </c>
       <c r="AK102" s="22" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AL102" s="22"/>
       <c r="AM102" s="23" t="s">
+        <v>813</v>
+      </c>
+      <c r="AN102" s="17" t="s">
         <v>814</v>
       </c>
-      <c r="AN102" s="17" t="s">
+      <c r="AO102" s="17" t="s">
         <v>815</v>
-      </c>
-      <c r="AO102" s="17" t="s">
-        <v>816</v>
       </c>
       <c r="AP102" s="24"/>
       <c r="AQ102" s="26"/>
@@ -33030,7 +33021,7 @@
         <v>363</v>
       </c>
       <c r="AS102" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AT102" s="1">
         <f>RANK(BL102,$BL$3:$BL$122)+COUNTIF(BL$3:BL102,BL102)-1</f>
@@ -33133,10 +33124,10 @@
         <v>264</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D103" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33171,34 +33162,34 @@
       <c r="AE103" s="17"/>
       <c r="AF103" s="15"/>
       <c r="AG103" s="17" t="s">
+        <v>818</v>
+      </c>
+      <c r="AH103" s="17" t="s">
         <v>819</v>
-      </c>
-      <c r="AH103" s="17" t="s">
-        <v>820</v>
       </c>
       <c r="AI103" s="21">
         <v>60310</v>
       </c>
       <c r="AJ103" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK103" s="22" t="s">
         <v>821</v>
-      </c>
-      <c r="AK103" s="22" t="s">
-        <v>822</v>
       </c>
       <c r="AL103" s="22"/>
       <c r="AM103" s="23" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AN103" s="17"/>
       <c r="AO103" s="17" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AP103" s="24"/>
       <c r="AQ103" s="48" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="AR103" s="23" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AS103" s="25"/>
       <c r="AT103" s="1">
@@ -33302,10 +33293,10 @@
         <v>264</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D104" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33332,10 +33323,10 @@
       <c r="AE104" s="17"/>
       <c r="AF104" s="15"/>
       <c r="AG104" s="17" t="s">
+        <v>830</v>
+      </c>
+      <c r="AH104" s="17" t="s">
         <v>831</v>
-      </c>
-      <c r="AH104" s="17" t="s">
-        <v>832</v>
       </c>
       <c r="AI104" s="21">
         <v>60610</v>
@@ -33344,11 +33335,11 @@
         <v>365</v>
       </c>
       <c r="AK104" s="22" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AL104" s="22"/>
       <c r="AM104" s="23" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AP104" s="24"/>
       <c r="AQ104" s="30" t="s">
@@ -33458,10 +33449,10 @@
         <v>264</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D105" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33499,18 +33490,18 @@
         <v>13</v>
       </c>
       <c r="AH105" s="17" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AI105" s="21">
         <v>45800</v>
       </c>
       <c r="AJ105" s="28"/>
       <c r="AK105" s="22" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AL105" s="22"/>
       <c r="AM105" s="23" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AN105" s="26"/>
       <c r="AO105" s="26"/>
@@ -33619,10 +33610,10 @@
         <v>368</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D106" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33649,7 +33640,7 @@
       <c r="AE106" s="17"/>
       <c r="AF106" s="15"/>
       <c r="AG106" s="17" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="AH106" s="17" t="s">
         <v>190</v>
@@ -33659,20 +33650,20 @@
       </c>
       <c r="AJ106" s="15"/>
       <c r="AK106" s="22" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AL106" s="22"/>
       <c r="AM106" s="23" t="s">
+        <v>840</v>
+      </c>
+      <c r="AN106" s="17" t="s">
+        <v>844</v>
+      </c>
+      <c r="AO106" s="17" t="s">
         <v>841</v>
       </c>
-      <c r="AN106" s="17" t="s">
-        <v>845</v>
-      </c>
-      <c r="AO106" s="17" t="s">
+      <c r="AP106" s="17" t="s">
         <v>842</v>
-      </c>
-      <c r="AP106" s="17" t="s">
-        <v>843</v>
       </c>
       <c r="AQ106" s="17" t="s">
         <v>369</v>
@@ -33781,10 +33772,10 @@
         <v>368</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D107" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33819,7 +33810,7 @@
       <c r="AE107" s="17"/>
       <c r="AF107" s="15"/>
       <c r="AG107" s="17" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="AH107" s="17" t="s">
         <v>190</v>
@@ -33828,20 +33819,20 @@
         <v>51100</v>
       </c>
       <c r="AJ107" s="28" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="AK107" s="22" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="AL107" s="22"/>
       <c r="AM107" s="23" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="AN107" s="17"/>
       <c r="AO107" s="17"/>
       <c r="AP107" s="17"/>
       <c r="AQ107" s="17" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="AR107" s="60"/>
       <c r="AS107" s="26"/>
@@ -33943,13 +33934,13 @@
     </row>
     <row r="108" spans="1:80" s="7" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D108" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33984,7 +33975,7 @@
       <c r="AE108" s="17"/>
       <c r="AF108" s="17"/>
       <c r="AG108" s="17" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="AH108" s="17" t="s">
         <v>190</v>
@@ -33994,25 +33985,25 @@
       </c>
       <c r="AJ108" s="15"/>
       <c r="AK108" s="22" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AL108" s="22"/>
       <c r="AM108" s="23" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AN108" s="15"/>
       <c r="AO108" s="17" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="AP108" s="24"/>
       <c r="AQ108" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AR108" s="23" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="AS108" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AT108" s="1">
         <f>RANK(BL108,$BL$3:$BL$122)+COUNTIF(BL$3:BL108,BL108)-1</f>
@@ -34112,13 +34103,13 @@
     </row>
     <row r="109" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D109" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34153,33 +34144,33 @@
       <c r="AE109" s="17"/>
       <c r="AF109" s="17"/>
       <c r="AG109" s="17" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="AH109" s="17" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="AI109" s="21">
         <v>68490</v>
       </c>
       <c r="AJ109" s="28" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="AK109" s="22" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="AL109" s="22"/>
       <c r="AM109" s="23" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="AN109" s="15"/>
       <c r="AO109" s="17" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="AP109" s="17" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="AQ109" s="29" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="AR109" s="23"/>
       <c r="AS109" s="25"/>
@@ -34281,13 +34272,13 @@
     </row>
     <row r="110" spans="1:80" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D110" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34322,29 +34313,29 @@
       <c r="AE110" s="17"/>
       <c r="AF110" s="15"/>
       <c r="AG110" s="17" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="AH110" s="17" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="AI110" s="21">
         <v>51140</v>
       </c>
       <c r="AJ110" s="28" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="AK110" s="22" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="AL110" s="22"/>
       <c r="AM110" s="23" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="AN110" s="30"/>
       <c r="AO110" s="26"/>
       <c r="AP110" s="24"/>
       <c r="AQ110" s="29" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="AR110" s="26"/>
       <c r="AS110" s="26"/>
@@ -34446,13 +34437,13 @@
     </row>
     <row r="111" spans="1:80" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D111" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34487,23 +34478,23 @@
       <c r="AE111" s="17"/>
       <c r="AF111" s="15"/>
       <c r="AG111" s="17" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="AH111" s="17" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="AI111" s="21">
         <v>51140</v>
       </c>
       <c r="AJ111" s="28" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="AK111" s="22" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="AL111" s="22"/>
       <c r="AM111" s="23" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="AN111" s="30"/>
       <c r="AO111" s="26"/>
@@ -34650,23 +34641,23 @@
       <c r="AE112" s="12"/>
       <c r="AF112" s="19"/>
       <c r="AG112" s="12" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="AH112" s="12" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="AI112" s="31">
         <v>8000</v>
       </c>
       <c r="AJ112" s="28" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="AK112" s="22" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="AL112" s="22"/>
       <c r="AM112" s="23" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="AN112" s="32"/>
       <c r="AO112" s="33"/>
@@ -34775,7 +34766,7 @@
         <v>264</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C113" s="17" t="s">
         <v>358</v>
@@ -34813,23 +34804,23 @@
       <c r="AE113" s="17"/>
       <c r="AF113" s="15"/>
       <c r="AG113" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="AH113" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="AI113" s="21">
         <v>60200</v>
       </c>
       <c r="AJ113" s="28" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="AK113" s="22" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="AL113" s="22"/>
       <c r="AM113" s="23" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="AN113" s="26"/>
       <c r="AO113" s="26"/>
@@ -34940,7 +34931,7 @@
         <v>264</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C114" s="17" t="s">
         <v>366</v>
@@ -34978,23 +34969,23 @@
       <c r="AE114" s="17"/>
       <c r="AF114" s="15"/>
       <c r="AG114" s="17" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="AH114" s="17" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="AI114" s="21">
         <v>60000</v>
       </c>
       <c r="AJ114" s="28" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="AK114" s="22" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="AL114" s="22"/>
       <c r="AM114" s="23" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="AN114" s="15"/>
       <c r="AO114" s="26"/>
@@ -35103,10 +35094,10 @@
         <v>264</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D115" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35141,28 +35132,28 @@
       <c r="AE115" s="17"/>
       <c r="AF115" s="15"/>
       <c r="AG115" s="17" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="AH115" s="17" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="AI115" s="21">
         <v>60000</v>
       </c>
       <c r="AJ115" s="28"/>
       <c r="AK115" s="22" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="AL115" s="22"/>
       <c r="AM115" s="23" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="AN115" s="15"/>
       <c r="AO115" s="26"/>
       <c r="AP115" s="24"/>
       <c r="AQ115" s="26"/>
       <c r="AR115" s="42" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="AS115" s="26"/>
       <c r="AT115" s="1">
@@ -35266,10 +35257,10 @@
         <v>264</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D116" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35304,10 +35295,10 @@
       <c r="AE116" s="17"/>
       <c r="AF116" s="15"/>
       <c r="AG116" s="17" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="AH116" s="17" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="AI116" s="21">
         <v>8090</v>
@@ -35316,11 +35307,11 @@
         <v>367</v>
       </c>
       <c r="AK116" s="22" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="AL116" s="22"/>
       <c r="AM116" s="23" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="AN116" s="15"/>
       <c r="AO116" s="26"/>
@@ -35426,13 +35417,13 @@
     </row>
     <row r="117" spans="1:80" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D117" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35467,23 +35458,23 @@
       <c r="AE117" s="17"/>
       <c r="AF117" s="15"/>
       <c r="AG117" s="17" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="AH117" s="17" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="AI117" s="21">
         <v>21000</v>
       </c>
       <c r="AJ117" s="28" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="AK117" s="22" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="AL117" s="22"/>
       <c r="AM117" s="23" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="AN117" s="32"/>
       <c r="AO117" s="26"/>
@@ -35589,13 +35580,13 @@
     </row>
     <row r="118" spans="1:80" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D118" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35630,27 +35621,27 @@
       <c r="AE118" s="17"/>
       <c r="AF118" s="15"/>
       <c r="AG118" s="17" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="AH118" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="AI118" s="21">
         <v>60200</v>
       </c>
       <c r="AJ118" s="28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AK118" s="22" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="AL118" s="22"/>
       <c r="AM118" s="23" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="AN118" s="15"/>
       <c r="AO118" s="61" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="AP118" s="24"/>
       <c r="AQ118" s="26"/>
@@ -35754,13 +35745,13 @@
     </row>
     <row r="119" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D119" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35795,23 +35786,23 @@
       <c r="AE119" s="17"/>
       <c r="AF119" s="15"/>
       <c r="AG119" s="17" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="AH119" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="AI119" s="21">
         <v>60200</v>
       </c>
       <c r="AJ119" s="28" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="AK119" s="22" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="AL119" s="22"/>
       <c r="AM119" s="23" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="AN119" s="15"/>
       <c r="AO119" s="61"/>
@@ -35917,13 +35908,13 @@
     </row>
     <row r="120" spans="1:80" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D120" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35958,23 +35949,23 @@
       <c r="AE120" s="17"/>
       <c r="AF120" s="15"/>
       <c r="AG120" s="17" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="AH120" s="17" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="AI120" s="21">
         <v>60000</v>
       </c>
       <c r="AJ120" s="28" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="AK120" s="22" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="AL120" s="22"/>
       <c r="AM120" s="23" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="AN120" s="15"/>
       <c r="AO120" s="26"/>
@@ -36080,13 +36071,13 @@
     </row>
     <row r="121" spans="1:80" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D121" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36121,7 +36112,7 @@
       <c r="AE121" s="17"/>
       <c r="AF121" s="15"/>
       <c r="AG121" s="17" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="AH121" s="17" t="s">
         <v>302</v>
@@ -36130,14 +36121,14 @@
         <v>67000</v>
       </c>
       <c r="AJ121" s="28" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="AK121" s="22" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="AL121" s="22"/>
       <c r="AM121" s="23" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="AN121" s="15"/>
       <c r="AO121" s="26"/>
@@ -36243,13 +36234,13 @@
     </row>
     <row r="122" spans="1:80" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D122" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36284,23 +36275,23 @@
       <c r="AE122" s="17"/>
       <c r="AF122" s="15"/>
       <c r="AG122" s="17" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="AH122" s="17" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="AI122" s="21">
         <v>21121</v>
       </c>
       <c r="AJ122" s="28" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="AK122" s="22" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="AL122" s="22"/>
       <c r="AM122" s="23" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="AN122" s="15"/>
       <c r="AO122" s="26"/>
@@ -36406,13 +36397,13 @@
     </row>
     <row r="123" spans="1:80" ht="105" x14ac:dyDescent="0.25">
       <c r="A123" s="80" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B123" s="80" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C123" s="81" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D123" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36447,23 +36438,23 @@
       <c r="AE123" s="81"/>
       <c r="AF123" s="83"/>
       <c r="AG123" s="81" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="AH123" s="81" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AI123" s="85">
         <v>21800</v>
       </c>
       <c r="AJ123" s="87" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="AK123" s="88" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="AL123" s="88"/>
       <c r="AM123" s="89" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="AN123" s="111"/>
       <c r="AO123" s="72"/>
@@ -36559,13 +36550,13 @@
     </row>
     <row r="124" spans="1:80" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="101" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B124" s="101" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C124" s="102" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D124" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36600,19 +36591,19 @@
       <c r="AE124" s="102"/>
       <c r="AF124" s="104"/>
       <c r="AG124" s="102" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="AH124" s="102" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="AI124" s="106">
         <v>21000</v>
       </c>
       <c r="AJ124" s="107" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="AK124" s="108" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="AL124" s="108"/>
       <c r="AM124" s="109"/>
@@ -36710,13 +36701,13 @@
     </row>
     <row r="125" spans="1:80" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="101" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B125" s="101" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C125" s="102" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D125" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36751,23 +36742,23 @@
       <c r="AE125" s="102"/>
       <c r="AF125" s="104"/>
       <c r="AG125" s="102" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="AH125" s="102" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="AI125" s="106">
         <v>21300</v>
       </c>
       <c r="AJ125" s="107" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="AK125" s="108" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="AL125" s="108"/>
       <c r="AM125" s="109" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="AN125" s="110"/>
       <c r="AO125" s="7"/>
@@ -36863,13 +36854,13 @@
     </row>
     <row r="126" spans="1:80" ht="105" x14ac:dyDescent="0.25">
       <c r="A126" s="101" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B126" s="101" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C126" s="102" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D126" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36904,23 +36895,23 @@
       <c r="AE126" s="102"/>
       <c r="AF126" s="104"/>
       <c r="AG126" s="102" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="AH126" s="102" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AI126" s="106">
         <v>21800</v>
       </c>
       <c r="AJ126" s="107" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="AK126" s="108" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="AL126" s="108"/>
       <c r="AM126" s="109" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="AN126" s="110"/>
       <c r="AO126" s="7"/>
@@ -37016,13 +37007,13 @@
     </row>
     <row r="127" spans="1:80" s="123" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="101" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B127" s="101" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C127" s="102" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D127" s="73" t="str">
         <f t="shared" si="57"/>
@@ -37057,23 +37048,23 @@
       <c r="AE127" s="102"/>
       <c r="AF127" s="104"/>
       <c r="AG127" s="102" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="AH127" s="102" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="AI127" s="106">
         <v>21600</v>
       </c>
       <c r="AJ127" s="107" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="AK127" s="108" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="AL127" s="108"/>
       <c r="AM127" s="109" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="AN127" s="104"/>
       <c r="AO127" s="7"/>
@@ -37179,13 +37170,13 @@
     </row>
     <row r="128" spans="1:80" s="98" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="115" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B128" s="113" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="D128" s="73" t="str">
         <f t="shared" si="57"/>
@@ -37200,13 +37191,13 @@
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
       <c r="M128" s="98" t="s">
+        <v>1112</v>
+      </c>
+      <c r="N128" s="114" t="s">
+        <v>1113</v>
+      </c>
+      <c r="O128" s="98" t="s">
         <v>1114</v>
-      </c>
-      <c r="N128" s="114" t="s">
-        <v>1115</v>
-      </c>
-      <c r="O128" s="98" t="s">
-        <v>1116</v>
       </c>
       <c r="P128" s="2"/>
       <c r="R128" s="119"/>
@@ -37225,23 +37216,23 @@
       <c r="AE128" s="8"/>
       <c r="AF128" s="2"/>
       <c r="AG128" s="116" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="AH128" s="98" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="AI128" s="117">
         <v>92390</v>
       </c>
       <c r="AJ128" s="107" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="AK128" s="108" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="AL128" s="108"/>
       <c r="AM128" s="109" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="AN128" s="5"/>
       <c r="AO128" s="2"/>
@@ -42585,7 +42576,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="171" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B1" s="172"/>
       <c r="C1" s="172"/>
@@ -42602,14 +42593,14 @@
       <c r="F2" s="176"/>
       <c r="H2" s="68"/>
       <c r="I2" s="69" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="K2" s="70"/>
       <c r="L2" s="69" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N2" s="167" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="O2" s="168"/>
       <c r="P2" s="168"/>
@@ -42671,7 +42662,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="171" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B1" s="172"/>
       <c r="C1" s="172"/>
@@ -42690,14 +42681,14 @@
       <c r="G2" s="71"/>
       <c r="H2" s="68"/>
       <c r="I2" s="69" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="K2" s="70"/>
       <c r="L2" s="69" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N2" s="180" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="O2" s="181"/>
       <c r="P2" s="181"/>

--- a/Entreprises_Complet.xlsx
+++ b/Entreprises_Complet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfial\Documents\00_Stage_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAD8A8AA-5A44-4408-A9B2-B5C1192A3566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A3FCCCF-FADB-407E-8523-776B055DDDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="1323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="1329">
   <si>
     <t>Alimentaire</t>
   </si>
@@ -366,9 +366,6 @@
     <t>lait</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Uriane/@49.9747444,3.9167765,15z/data=!4m2!3m1!1s0x0:0x31a82bc74d7780a6?sa=X&amp;ved=0ahUKEwj-ocbj8NDaAhUkJsAKHeebCzIQ_BIIdDAK</t>
-  </si>
-  <si>
     <t>03.23.97.57.57</t>
   </si>
   <si>
@@ -405,9 +402,6 @@
     <t>lait en poudre</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Canelia+Rouvroy+Poudre+Snc/@49.7861959,4.4791925,15z/data=!4m2!3m1!1s0x0:0xdc106daedc898742?sa=X&amp;ved=0ahUKEwj3xqim-tDaAhUhBcAKHTROAPsQ_BIIfDAK</t>
-  </si>
-  <si>
     <t>03 24 35 82 33</t>
   </si>
   <si>
@@ -450,9 +444,6 @@
     <t>Maïs</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Kalizea/@49.2342825,4.0697696,15z/data=!4m2!3m1!1s0x0:0x674cc82e61525039?sa=X&amp;ved=0ahUKEwjxs-Wi6tXaAhWnB8AKHReyDxMQ_BIIjAEwCg</t>
-  </si>
-  <si>
     <t>03 26 78 62 00</t>
   </si>
   <si>
@@ -519,9 +510,6 @@
     <t>https://www.google.fr/maps/place/ADM/@49.3500534,4.16075,15z/data=!4m2!3m1!1s0x0:0x62e1b625bb97bb92?sa=X&amp;ved=0ahUKEwjs3r6M9NXaAhWKC8AKHa2DDI4Q_BIImgEwCg</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Babynov/@49.3947989,3.0936843,15z/data=!4m2!3m1!1s0x0:0x82edf38fc2a37996?sa=X&amp;ved=0ahUKEwjsqOKRgNbaAhVBD8AKHXuoAQgQ_BIIgAEwCg</t>
-  </si>
-  <si>
     <t>03 23 72 97 00</t>
   </si>
   <si>
@@ -550,9 +538,6 @@
   </si>
   <si>
     <t>https://www.google.fr/maps/place/Nutribio+(Barres+C%C3%A9r%C3%A9ales)/@50.1617921,2.3213815,17z/data=!4m12!1m6!3m5!1s0x47dd7082a4a62a79:0xafc357a0aaaf722b!2sCofranlait!8m2!3d50.1606202!4d2.3240262!3m4!1s0x47dd709dcc850bc9:0x21cdef0b722c71c5!8m2!3d50.1625623!4d2.3211803</t>
-  </si>
-  <si>
-    <t>https://www.google.fr/maps/place/Moutarderie+Bister+France/@48.222999,4.130723,15z/data=!4m2!3m1!1s0x0:0x46c7cf2301abc6a2?sa=X&amp;ved=0ahUKEwjv1dPihNbaAhXpIsAKHdEwCHgQ_BIIgAEwCg</t>
   </si>
   <si>
     <t>03 25 43 30 02</t>
@@ -990,9 +975,6 @@
     <t>JH6Q+X3 Hagnicourt</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Laboratoire+D%C3%A9partemental+d'Analyses/@49.6124132,4.587716,15z/data=!4m5!3m4!1s0x0:0x6f1cf30e29cdc95e!8m2!3d49.6124132!4d4.587716?hl=fr</t>
-  </si>
-  <si>
     <t>03 24 59 61 53</t>
   </si>
   <si>
@@ -1072,9 +1054,6 @@
   </si>
   <si>
     <t>responsable qualité</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Roquette+Fr%C3%A8res/@49.3962371,3.1070116,17z/data=!4m13!1m7!3m6!1s0x47e8637834193e7d:0x4e99f3d83b438dc6!2sRoute+de+Compi%C3%A8gne,+02290+Montigny-Lengrain!3b1!8m2!3d49.3958167!4d3.1021602!3m4!1s0x47e86379cc96af81:0x8b542847972fa0eb!8m2!3d49.3962369!4d3.1092006</t>
   </si>
   <si>
     <t>94W5+FM Montigny-Lengrain</t>
@@ -1450,9 +1429,6 @@
   </si>
   <si>
     <t>LACTINOV (Ex. UNILEP)</t>
-  </si>
-  <si>
-    <t>Canelia Rouvroy Poudre (Lactalis Ingredients)</t>
   </si>
   <si>
     <t xml:space="preserve">Mme Sabin Marine </t>
@@ -4164,6 +4140,48 @@
   </si>
   <si>
     <t>Faculté de Médecine, Unité de Recherche EA 3801</t>
+  </si>
+  <si>
+    <t>49.980277869667454, 3.9185360291283766</t>
+  </si>
+  <si>
+    <t>https://www.uriane.com/fiche-accueil-442.aspx?bo=0&amp;</t>
+  </si>
+  <si>
+    <t>49.396142835015645, 3.105488105266893</t>
+  </si>
+  <si>
+    <t>49.395790446057504, 3.095529659817566</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/babynov/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>49.78673620171467, 4.480565791027026</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/canelia-rouvroy-poudre/about/</t>
+  </si>
+  <si>
+    <t>Canelia (Lactalis) Rouvroy Poudre</t>
+  </si>
+  <si>
+    <t>49.61328911914807, 4.589904682574323</t>
+  </si>
+  <si>
+    <t>https://cd08.fr/le-conseil-departemental/les-services-departementaux/le-laboratoire-departemental-danalyses-des-ardennes</t>
+  </si>
+  <si>
+    <t>48.22352794233971, 4.1330833439527</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/bister-s.a/</t>
+  </si>
+  <si>
+    <t>49.23482893234271, 4.071228721716214</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/kalizea/?originalSubdomain=fr</t>
   </si>
 </sst>
 </file>
@@ -15133,10 +15151,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB274"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AD1" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomLeft" activeCell="AK55" sqref="AK55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15201,103 +15219,103 @@
         <v>70</v>
       </c>
       <c r="C1" s="150" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D1" s="151" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E1" s="152" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="F1" s="152" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="G1" s="152" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="H1" s="152" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="I1" s="152" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="J1" s="152" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="K1" s="152" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="L1" s="152" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="M1" s="153" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="N1" s="150" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="O1" s="150" t="s">
+        <v>274</v>
+      </c>
+      <c r="P1" s="150" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q1" s="150" t="s">
+        <v>254</v>
+      </c>
+      <c r="R1" s="154" t="s">
+        <v>255</v>
+      </c>
+      <c r="S1" s="150" t="s">
+        <v>256</v>
+      </c>
+      <c r="T1" s="150" t="s">
+        <v>257</v>
+      </c>
+      <c r="U1" s="150" t="s">
+        <v>263</v>
+      </c>
+      <c r="V1" s="150" t="s">
+        <v>264</v>
+      </c>
+      <c r="W1" s="150" t="s">
+        <v>265</v>
+      </c>
+      <c r="X1" s="150" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y1" s="150" t="s">
         <v>279</v>
       </c>
-      <c r="P1" s="150" t="s">
+      <c r="Z1" s="150" t="s">
         <v>280</v>
       </c>
-      <c r="Q1" s="150" t="s">
-        <v>259</v>
-      </c>
-      <c r="R1" s="154" t="s">
-        <v>260</v>
-      </c>
-      <c r="S1" s="150" t="s">
-        <v>261</v>
-      </c>
-      <c r="T1" s="150" t="s">
-        <v>262</v>
-      </c>
-      <c r="U1" s="150" t="s">
-        <v>268</v>
-      </c>
-      <c r="V1" s="150" t="s">
-        <v>269</v>
-      </c>
-      <c r="W1" s="150" t="s">
-        <v>270</v>
-      </c>
-      <c r="X1" s="150" t="s">
-        <v>271</v>
-      </c>
-      <c r="Y1" s="150" t="s">
-        <v>284</v>
-      </c>
-      <c r="Z1" s="150" t="s">
-        <v>285</v>
-      </c>
       <c r="AA1" s="150" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AB1" s="150" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AC1" s="150" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AD1" s="150" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AE1" s="150" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AF1" s="150" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AG1" s="150" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AH1" s="150" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AI1" s="155" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AJ1" s="150" t="s">
         <v>77</v>
@@ -15306,10 +15324,10 @@
         <v>81</v>
       </c>
       <c r="AL1" s="150" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="AM1" s="150" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AN1" s="150" t="s">
         <v>72</v>
@@ -15327,113 +15345,113 @@
         <v>76</v>
       </c>
       <c r="AS1" s="156" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="AT1" s="157" t="s">
+        <v>973</v>
+      </c>
+      <c r="AU1" s="158" t="s">
+        <v>976</v>
+      </c>
+      <c r="AV1" s="157" t="s">
+        <v>971</v>
+      </c>
+      <c r="AW1" s="158" t="s">
+        <v>974</v>
+      </c>
+      <c r="AX1" s="159" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AY1" s="159" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AZ1" s="159" t="s">
+        <v>1007</v>
+      </c>
+      <c r="BA1" s="159" t="s">
+        <v>1008</v>
+      </c>
+      <c r="BB1" s="159" t="s">
+        <v>977</v>
+      </c>
+      <c r="BC1" s="159" t="s">
+        <v>978</v>
+      </c>
+      <c r="BD1" s="159" t="s">
+        <v>979</v>
+      </c>
+      <c r="BE1" s="159" t="s">
+        <v>980</v>
+      </c>
+      <c r="BF1" s="159" t="s">
         <v>981</v>
       </c>
-      <c r="AU1" s="158" t="s">
+      <c r="BG1" s="159" t="s">
+        <v>982</v>
+      </c>
+      <c r="BH1" s="159" t="s">
+        <v>983</v>
+      </c>
+      <c r="BI1" s="159" t="s">
         <v>984</v>
       </c>
-      <c r="AV1" s="157" t="s">
-        <v>979</v>
-      </c>
-      <c r="AW1" s="158" t="s">
-        <v>982</v>
-      </c>
-      <c r="AX1" s="159" t="s">
-        <v>1017</v>
-      </c>
-      <c r="AY1" s="159" t="s">
-        <v>1018</v>
-      </c>
-      <c r="AZ1" s="159" t="s">
-        <v>1015</v>
-      </c>
-      <c r="BA1" s="159" t="s">
-        <v>1016</v>
-      </c>
-      <c r="BB1" s="159" t="s">
+      <c r="BJ1" s="159" t="s">
         <v>985</v>
       </c>
-      <c r="BC1" s="159" t="s">
+      <c r="BK1" s="159" t="s">
         <v>986</v>
       </c>
-      <c r="BD1" s="159" t="s">
-        <v>987</v>
-      </c>
-      <c r="BE1" s="159" t="s">
-        <v>988</v>
-      </c>
-      <c r="BF1" s="159" t="s">
-        <v>989</v>
-      </c>
-      <c r="BG1" s="159" t="s">
-        <v>990</v>
-      </c>
-      <c r="BH1" s="159" t="s">
-        <v>991</v>
-      </c>
-      <c r="BI1" s="159" t="s">
-        <v>992</v>
-      </c>
-      <c r="BJ1" s="159" t="s">
-        <v>993</v>
-      </c>
-      <c r="BK1" s="159" t="s">
-        <v>994</v>
-      </c>
       <c r="BL1" s="160" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="BM1" s="160" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="BN1" s="160"/>
       <c r="BO1" s="160"/>
       <c r="BP1" s="161" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="BQ1" s="161" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="BR1" s="161" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="BS1" s="161" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="BT1" s="161" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="BU1" s="161"/>
       <c r="BV1" s="161"/>
       <c r="BW1" s="161" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="BX1" s="161" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="BY1" s="161" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="BZ1" s="161" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="CA1" s="161" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="CB1" s="162"/>
     </row>
     <row r="2" spans="1:80" s="18" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="D2" s="99"/>
       <c r="E2" s="164"/>
@@ -15465,22 +15483,22 @@
       <c r="AE2" s="62"/>
       <c r="AF2" s="137"/>
       <c r="AG2" s="62" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
       <c r="AH2" s="62" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AI2" s="138">
         <v>51100</v>
       </c>
       <c r="AJ2" s="139" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="AK2" s="67" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="AL2" s="144" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="AM2" s="67"/>
       <c r="AN2" s="140"/>
@@ -15509,89 +15527,89 @@
     </row>
     <row r="3" spans="1:80" s="18" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D3" s="99" t="str">
         <f t="shared" ref="D3:D34" si="0">IF(AX3&lt;&gt;0,"2020_A="&amp;AX3," ")&amp;IF(AY3&lt;&gt;0," ; 2020_i="&amp;AY3," ")&amp;IF(AZ3&lt;&gt;0,"2019_A="&amp;AZ3," ")&amp;IF(BA3&lt;&gt;0," ; 2019_i="&amp;BA3," ")&amp;IF(BB3&lt;&gt;0,"2018_A="&amp;BB3," ")&amp;IF(BC3&lt;&gt;0," ; 2018_i="&amp;BC3," ")&amp;IF(BD3&lt;&gt;0," ; 2017_A="&amp;BD3," ")&amp;IF(BE3&lt;&gt;0," ; 2017_i="&amp;BE3," ")&amp;IF(BF3&lt;&gt;0," ; 2016_A="&amp;BF3," ")&amp;IF(BG3&lt;&gt;0," ; 2016_i="&amp;BG3," ")&amp;IF(BH3&lt;&gt;0," ; 2015_A="&amp;BH3," ")&amp;IF(BI3&lt;&gt;0," ; 2015_i="&amp;BI3," ")&amp;IF(BJ3&lt;&gt;0," ; 2014_A="&amp;BJ3," ")&amp;IF(BK3&lt;&gt;0," ; 2014_i="&amp;BK3," ")</f>
         <v xml:space="preserve">2020_A=2 2019_A=4 2018_A=7  ; 2017_A=5 ; 2017_i=1 ; 2016_A=6 ; 2016_i=1 ; 2015_A=3  ; 2014_A=3 </v>
       </c>
       <c r="E3" s="164" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="F3" s="164" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="G3" s="164" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="H3" s="164"/>
       <c r="I3" s="74" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="K3" s="62" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="L3" s="164"/>
       <c r="M3" s="74" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="N3" s="62" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="O3" s="62" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="P3" s="137"/>
       <c r="Q3" s="62" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
       <c r="R3" s="137" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
       <c r="S3" s="137" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
       <c r="T3" s="137"/>
       <c r="U3" s="62" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="V3" s="62" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="W3" s="62" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
       <c r="X3" s="137"/>
       <c r="Y3" s="137"/>
       <c r="Z3" s="62" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
       <c r="AA3" s="62" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="AB3" s="137"/>
       <c r="AC3" s="62"/>
       <c r="AD3" s="62" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="AE3" s="62" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="AF3" s="137"/>
       <c r="AG3" s="62" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AH3" s="62" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AI3" s="138">
         <v>51100</v>
@@ -15600,13 +15618,13 @@
         <v>326888110</v>
       </c>
       <c r="AK3" s="67" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="AL3" s="144" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
       <c r="AM3" s="67" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="AN3" s="140"/>
       <c r="AO3" s="141"/>
@@ -15730,91 +15748,91 @@
     </row>
     <row r="4" spans="1:80" s="1" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D4" s="73" t="str">
         <f t="shared" si="0"/>
         <v>2020_A=1 2019_A=1 2018_A=2 ; 2018_i=1 ; 2017_A=1  ; 2016_A=2  ; 2015_A=1  ; 2014_A=2 ; 2014_i=1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="75" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="T4" s="17"/>
       <c r="U4" s="17" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="X4" s="17"/>
       <c r="Y4" s="17"/>
       <c r="Z4" s="17" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="AA4" s="17" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
       <c r="AB4" s="17"/>
       <c r="AC4" s="17" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="AD4" s="17" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="AE4" s="17" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="AF4" s="17"/>
       <c r="AG4" s="11" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AH4" s="11" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AI4" s="41">
         <v>51110</v>
@@ -15823,26 +15841,26 @@
         <v>326888410</v>
       </c>
       <c r="AK4" s="23" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="AL4" s="145" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="AM4" s="50"/>
       <c r="AN4" s="11" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AO4" s="17" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="AP4" s="17" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="AQ4" s="11" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="AR4" s="23" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="AS4" s="25"/>
       <c r="AT4" s="1">
@@ -15964,10 +15982,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D5" s="73" t="str">
         <f t="shared" si="0"/>
@@ -15982,70 +16000,70 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="75" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="P5" s="17"/>
       <c r="Q5" s="17" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
       <c r="T5" s="17"/>
       <c r="U5" s="17" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="W5" s="17" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="X5" s="17"/>
       <c r="Y5" s="17" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="Z5" s="17" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="AA5" s="17" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="AB5" s="17"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="17" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="AE5" s="17" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="AF5" s="17"/>
       <c r="AG5" s="17" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AH5" s="17" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AI5" s="41">
         <v>2007</v>
       </c>
       <c r="AJ5" s="28" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AK5" s="23" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="AL5" s="146" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
       <c r="AM5" s="66"/>
       <c r="AN5" s="17"/>
@@ -16172,7 +16190,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="D6" s="73" t="str">
         <f t="shared" si="0"/>
@@ -16183,53 +16201,53 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="75" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="P6" s="17"/>
       <c r="Q6" s="17" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
       <c r="T6" s="17"/>
       <c r="U6" s="17" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="W6" s="17" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="Z6" s="17" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="AA6" s="17" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="AB6" s="17"/>
       <c r="AC6" s="17"/>
@@ -16240,7 +16258,7 @@
         <v>45</v>
       </c>
       <c r="AH6" s="11" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AI6" s="11">
         <v>51200</v>
@@ -16249,20 +16267,20 @@
         <v>33326512020</v>
       </c>
       <c r="AK6" s="23" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="AL6" s="147" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
       <c r="AM6" s="25" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AN6" s="17" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AO6" s="17"/>
       <c r="AP6" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AQ6" s="44" t="s">
         <v>46</v>
@@ -16386,7 +16404,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>29</v>
@@ -16404,87 +16422,87 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="75" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="T7" s="17"/>
       <c r="U7" s="17" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="W7" s="17" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="X7" s="17"/>
       <c r="Y7" s="17"/>
       <c r="Z7" s="17" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="AA7" s="17" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="AB7" s="17"/>
       <c r="AC7" s="17"/>
       <c r="AD7" s="17" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="AE7" s="17" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="AF7" s="17"/>
       <c r="AG7" s="11" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="AH7" s="11" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AI7" s="41">
         <v>51530</v>
       </c>
       <c r="AJ7" s="28" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AK7" s="23" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="AL7" s="147" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
       <c r="AM7" s="23"/>
       <c r="AN7" s="11" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AO7" s="17" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="AP7" s="17"/>
       <c r="AQ7" s="11" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="AR7" s="50" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="AS7" s="25" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AT7" s="1">
         <f>RANK(BL7,$BL$3:$BL$122)+COUNTIF(BL$3:BL7,BL7)-1</f>
@@ -16601,10 +16619,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -16619,82 +16637,82 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="75" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="17" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="T8" s="15"/>
       <c r="U8" s="17" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="W8" s="17" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="17" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="AA8" s="17" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="AB8" s="15"/>
       <c r="AC8" s="17"/>
       <c r="AD8" s="17" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="AE8" s="17" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="AF8" s="15"/>
       <c r="AG8" s="17" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="AH8" s="17" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="AI8" s="21">
         <v>2400</v>
       </c>
       <c r="AJ8" s="46" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="AK8" s="23" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="AL8" s="23" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
       <c r="AM8" s="23"/>
       <c r="AN8" s="30"/>
       <c r="AO8" s="17" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="AP8" s="17" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="AQ8" s="48" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="AR8" s="42" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="AS8" s="26"/>
       <c r="AT8" s="1">
@@ -16815,87 +16833,87 @@
         <v>4</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="D9" s="99" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">    2018_A=1  ; 2017_A=1  ; 2016_A=1 ; 2016_i=1 ; 2015_A=2  ; 2014_A=1 </v>
       </c>
       <c r="E9" s="75" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>1206</v>
+        <v>1198</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>1203</v>
+        <v>1195</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="75" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>1206</v>
+        <v>1198</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>1203</v>
+        <v>1195</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="75" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>1204</v>
+        <v>1196</v>
       </c>
       <c r="P9" s="17"/>
       <c r="Q9" s="17" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="T9" s="17"/>
       <c r="U9" s="17" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="W9" s="17" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="X9" s="17"/>
       <c r="Y9" s="17" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
       <c r="Z9" s="17" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="AA9" s="17" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="AB9" s="17"/>
       <c r="AC9" s="17" t="s">
-        <v>1064</v>
+        <v>1056</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="AE9" s="17" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="AF9" s="17"/>
       <c r="AG9" s="11" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AH9" s="11" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AI9" s="41">
         <v>51110</v>
@@ -16904,14 +16922,14 @@
         <v>89</v>
       </c>
       <c r="AK9" s="23" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="AL9" s="23" t="s">
-        <v>1226</v>
+        <v>1218</v>
       </c>
       <c r="AM9" s="23"/>
       <c r="AN9" s="25" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="AO9" s="17" t="s">
         <v>91</v>
@@ -16920,10 +16938,10 @@
         <v>92</v>
       </c>
       <c r="AQ9" s="25" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AR9" s="42" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AS9" s="25"/>
       <c r="AT9" s="1">
@@ -17039,43 +17057,43 @@
         <v>0</v>
       </c>
       <c r="B10" s="143" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
       <c r="D10" s="73" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">2020_A=1 2019_A=1 2018_A=1         </v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="G10" s="142" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="H10" s="126"/>
       <c r="I10" s="54" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="J10" s="54" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="K10" s="142" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="L10" s="126"/>
       <c r="M10" s="97" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="N10" s="54" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="O10" s="142" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="P10" s="122"/>
       <c r="Q10" s="54"/>
@@ -17095,10 +17113,10 @@
       <c r="AE10" s="54"/>
       <c r="AF10" s="122"/>
       <c r="AG10" s="54" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="AH10" s="54" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="AI10" s="128">
         <v>50890</v>
@@ -17107,10 +17125,10 @@
         <v>33233066500</v>
       </c>
       <c r="AK10" s="22" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="AL10" s="23" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
       <c r="AM10" s="54"/>
       <c r="AN10" s="130"/>
@@ -17226,10 +17244,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="D11" s="73" t="str">
         <f t="shared" si="0"/>
@@ -17244,73 +17262,73 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="75" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="O11" s="45" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="P11" s="15"/>
       <c r="Q11" s="17" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="R11" s="24" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="S11" s="45" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="T11" s="15"/>
       <c r="U11" s="15" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="V11" s="17" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="W11" s="45" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="X11" s="15"/>
       <c r="Y11" s="17" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="Z11" s="17" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="AA11" s="45" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="AB11" s="15"/>
       <c r="AC11" s="17"/>
       <c r="AD11" s="17" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="AE11" s="45" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="AF11" s="26"/>
       <c r="AG11" s="17" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="AH11" s="17" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="AI11" s="21">
         <v>2350</v>
       </c>
       <c r="AJ11" s="46" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="AK11" s="23" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="AL11" s="23" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="AM11" s="23" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AN11" s="47"/>
       <c r="AO11" s="26"/>
@@ -17429,7 +17447,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>22</v>
@@ -17447,33 +17465,33 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="75" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="P12" s="17"/>
       <c r="Q12" s="17" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="S12" s="17" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="T12" s="17"/>
       <c r="U12" s="17" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="V12" s="17" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="W12" s="17" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
@@ -17485,22 +17503,22 @@
       <c r="AE12" s="17"/>
       <c r="AF12" s="17"/>
       <c r="AG12" s="11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AH12" s="11" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AI12" s="41">
         <v>51100</v>
       </c>
       <c r="AJ12" s="28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK12" s="23" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="AL12" s="23" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="AM12" s="23"/>
       <c r="AN12" s="25"/>
@@ -17508,7 +17526,7 @@
         <v>23</v>
       </c>
       <c r="AP12" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AQ12" s="25" t="s">
         <v>24</v>
@@ -17517,7 +17535,7 @@
         <v>25</v>
       </c>
       <c r="AS12" s="25" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AT12" s="1">
         <f>RANK(BL12,$BL$3:$BL$122)+COUNTIF(BL$3:BL12,BL12)-1</f>
@@ -17626,7 +17644,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>19</v>
@@ -17644,33 +17662,33 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="75" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="P13" s="17"/>
       <c r="Q13" s="17" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="R13" s="120" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="T13" s="17"/>
       <c r="U13" s="17" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="V13" s="17" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="W13" s="17" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
@@ -17682,25 +17700,25 @@
       <c r="AE13" s="17"/>
       <c r="AF13" s="17"/>
       <c r="AG13" s="11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AH13" s="11" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AI13" s="41">
         <v>10700</v>
       </c>
       <c r="AJ13" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AK13" s="23" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="AL13" s="23" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="AM13" s="23" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="AN13" s="25" t="s">
         <v>20</v>
@@ -17710,7 +17728,7 @@
       </c>
       <c r="AP13" s="17"/>
       <c r="AQ13" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AR13" s="42" t="s">
         <v>21</v>
@@ -17823,10 +17841,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="D14" s="73" t="str">
         <f t="shared" si="0"/>
@@ -17841,33 +17859,33 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="75" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="P14" s="15"/>
       <c r="Q14" s="17" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="R14" s="24" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="S14" s="17" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="T14" s="15"/>
       <c r="U14" s="17" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="W14" s="17" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="X14" s="15"/>
       <c r="Y14" s="17"/>
@@ -17879,25 +17897,25 @@
       <c r="AE14" s="17"/>
       <c r="AF14" s="26"/>
       <c r="AG14" s="15" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="AH14" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AI14" s="21">
         <v>51100</v>
       </c>
       <c r="AJ14" s="46" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="AK14" s="23" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="AL14" s="23" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="AM14" s="23" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="AN14" s="47"/>
       <c r="AO14" s="26"/>
@@ -18009,13 +18027,13 @@
     </row>
     <row r="15" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="D15" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18034,26 +18052,26 @@
       <c r="O15" s="17"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="17" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="S15" s="17" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="17" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="W15" s="17" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="X15" s="15" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
@@ -18064,23 +18082,23 @@
       <c r="AE15" s="17"/>
       <c r="AF15" s="15"/>
       <c r="AG15" s="17" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="AH15" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AI15" s="21">
         <v>51100</v>
       </c>
       <c r="AJ15" s="15"/>
       <c r="AK15" s="22" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="AL15" s="23" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="AM15" s="23" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AN15" s="30"/>
       <c r="AO15" s="26"/>
@@ -18190,13 +18208,13 @@
     </row>
     <row r="16" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
       <c r="D16" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18211,13 +18229,13 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="75" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="P16" s="15"/>
       <c r="Q16" s="17"/>
@@ -18225,13 +18243,13 @@
       <c r="S16" s="15"/>
       <c r="T16" s="15"/>
       <c r="U16" s="17" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="W16" s="17" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="X16" s="15"/>
       <c r="Y16" s="15"/>
@@ -18239,42 +18257,42 @@
       <c r="AA16" s="15"/>
       <c r="AB16" s="15"/>
       <c r="AC16" s="17" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AD16" s="17" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
       <c r="AE16" s="17" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="AF16" s="15"/>
       <c r="AG16" s="17" t="s">
-        <v>1265</v>
+        <v>1257</v>
       </c>
       <c r="AH16" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AI16" s="21">
         <v>51100</v>
       </c>
       <c r="AJ16" s="15"/>
       <c r="AK16" s="22" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="AL16" s="23" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
       <c r="AM16" s="23" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AN16" s="30"/>
       <c r="AO16" s="17" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="AP16" s="24"/>
       <c r="AQ16" s="26"/>
       <c r="AR16" s="42" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="AS16" s="26"/>
       <c r="AT16" s="1">
@@ -18381,13 +18399,13 @@
     </row>
     <row r="17" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="D17" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18402,23 +18420,23 @@
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
       <c r="M17" s="75" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
       <c r="P17" s="17"/>
       <c r="Q17" s="17" t="s">
+        <v>1145</v>
+      </c>
+      <c r="R17" s="17" t="s">
+        <v>1152</v>
+      </c>
+      <c r="S17" s="17" t="s">
         <v>1153</v>
-      </c>
-      <c r="R17" s="17" t="s">
-        <v>1160</v>
-      </c>
-      <c r="S17" s="17" t="s">
-        <v>1161</v>
       </c>
       <c r="T17" s="17"/>
       <c r="U17" s="17"/>
@@ -18434,37 +18452,37 @@
       <c r="AE17" s="17"/>
       <c r="AF17" s="17"/>
       <c r="AG17" s="17" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="AH17" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AI17" s="21">
         <v>51100</v>
       </c>
       <c r="AJ17" s="28"/>
       <c r="AK17" s="22" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="AL17" s="22" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="AM17" s="23" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="AN17" s="15"/>
       <c r="AO17" s="17" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="AP17" s="24"/>
       <c r="AQ17" s="17" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="AR17" s="60" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="AS17" s="25" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AT17" s="1">
         <f>RANK(BL17,$BL$3:$BL$122)+COUNTIF(BL$3:BL17,BL17)-1</f>
@@ -18575,10 +18593,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="D18" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18593,23 +18611,23 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="75" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="P18" s="15"/>
       <c r="Q18" s="17" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
@@ -18625,25 +18643,25 @@
       <c r="AE18" s="17"/>
       <c r="AF18" s="15"/>
       <c r="AG18" s="17" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="AH18" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AI18" s="21">
         <v>51680</v>
       </c>
       <c r="AJ18" s="28" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
       <c r="AK18" s="22" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="AL18" s="22" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="AM18" s="23" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
       <c r="AN18" s="30"/>
       <c r="AO18" s="26"/>
@@ -18756,10 +18774,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D19" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18778,33 +18796,33 @@
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="17" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="R19" s="120" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="T19" s="17"/>
       <c r="U19" s="17" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="W19" s="17" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="X19" s="17"/>
       <c r="Y19" s="17" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="Z19" s="17" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="AA19" s="17" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="AB19" s="17"/>
       <c r="AC19" s="17"/>
@@ -18812,41 +18830,41 @@
       <c r="AE19" s="17"/>
       <c r="AF19" s="17"/>
       <c r="AG19" s="25" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="AH19" s="17" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="AI19" s="11">
         <v>51200</v>
       </c>
       <c r="AJ19" s="46" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="AK19" s="22" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="AL19" s="52" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="AM19" s="23" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="AN19" s="17"/>
       <c r="AO19" s="17" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="AP19" s="25" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="AQ19" s="25" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="AR19" s="23" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="AS19" s="25" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AT19" s="1">
         <f>RANK(BL19,$BL$3:$BL$122)+COUNTIF(BL$3:BL19,BL19)-1</f>
@@ -18952,13 +18970,13 @@
     </row>
     <row r="20" spans="1:80" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="51" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="D20" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18977,33 +18995,33 @@
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="17" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="R20" s="120" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="T20" s="17"/>
       <c r="U20" s="17" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="V20" s="17" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="W20" s="17" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="X20" s="17"/>
       <c r="Y20" s="17" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="Z20" s="17" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="AA20" s="17" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="AB20" s="17"/>
       <c r="AC20" s="17"/>
@@ -19011,22 +19029,22 @@
       <c r="AE20" s="17"/>
       <c r="AF20" s="17"/>
       <c r="AG20" s="25" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="AH20" s="17" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="AI20" s="11">
         <v>10380</v>
       </c>
       <c r="AJ20" s="46" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="AK20" s="52" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="AL20" s="52" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="AM20" s="25"/>
       <c r="AN20" s="17"/>
@@ -19142,10 +19160,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>1100</v>
+        <v>1092</v>
       </c>
       <c r="D21" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19160,13 +19178,13 @@
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
       <c r="M21" s="75" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="P21" s="15"/>
       <c r="Q21" s="17"/>
@@ -19186,34 +19204,34 @@
       <c r="AE21" s="17"/>
       <c r="AF21" s="15"/>
       <c r="AG21" s="11" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="AH21" s="17" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="AI21" s="21">
         <v>10000</v>
       </c>
       <c r="AJ21" s="28"/>
       <c r="AK21" s="56" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="AL21" s="56"/>
       <c r="AM21" s="23" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="AN21" s="17" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="AO21" s="17" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="AP21" s="17" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="AQ21" s="17"/>
       <c r="AR21" s="23" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="AS21" s="25"/>
       <c r="AT21" s="1">
@@ -19319,10 +19337,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="D22" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19337,13 +19355,13 @@
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
       <c r="M22" s="75" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="17"/>
@@ -19363,32 +19381,32 @@
       <c r="AE22" s="17"/>
       <c r="AF22" s="15"/>
       <c r="AG22" s="11" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="AH22" s="17" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="AI22" s="21">
         <v>76100</v>
       </c>
       <c r="AJ22" s="28" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="AK22" s="56"/>
       <c r="AL22" s="56" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="AM22" s="23" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="AN22" s="17"/>
       <c r="AO22" s="17"/>
       <c r="AP22" s="17"/>
       <c r="AQ22" s="17" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="AR22" s="23" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="AS22" s="25"/>
       <c r="AT22" s="1">
@@ -19494,10 +19512,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
       <c r="D23" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19512,13 +19530,13 @@
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
       <c r="M23" s="75" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="N23" s="17" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="P23" s="15"/>
       <c r="Q23" s="17"/>
@@ -19538,35 +19556,35 @@
       <c r="AE23" s="17"/>
       <c r="AF23" s="15"/>
       <c r="AG23" s="11" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="AH23" s="17" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="AI23" s="21">
         <v>89150</v>
       </c>
       <c r="AJ23" s="28" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="AK23" s="56" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
       <c r="AL23" s="56" t="s">
-        <v>1273</v>
+        <v>1265</v>
       </c>
       <c r="AM23" s="23" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="AN23" s="30"/>
       <c r="AO23" s="17" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="AP23" s="17" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="AQ23" s="25" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="AR23" s="23"/>
       <c r="AS23" s="25"/>
@@ -19670,13 +19688,13 @@
     </row>
     <row r="24" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D24" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19695,13 +19713,13 @@
       <c r="O24" s="17"/>
       <c r="P24" s="15"/>
       <c r="Q24" s="17" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
@@ -19713,48 +19731,48 @@
       <c r="AA24" s="15"/>
       <c r="AB24" s="15"/>
       <c r="AC24" s="17" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="AE24" s="17" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="AF24" s="15" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="AG24" s="17" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="AH24" s="17" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AI24" s="21">
         <v>51110</v>
       </c>
       <c r="AJ24" s="28" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="AK24" s="23" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
       <c r="AL24" s="23" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="AM24" s="23" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="AN24" s="15"/>
       <c r="AO24" s="24" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="AP24" s="17" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="AQ24" s="26"/>
       <c r="AR24" s="42" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="AS24" s="26"/>
       <c r="AT24" s="1">
@@ -19862,10 +19880,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D25" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19888,13 +19906,13 @@
       <c r="S25" s="17"/>
       <c r="T25" s="17"/>
       <c r="U25" s="17" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="W25" s="17" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="X25" s="17"/>
       <c r="Y25" s="17"/>
@@ -19902,37 +19920,37 @@
       <c r="AA25" s="17"/>
       <c r="AB25" s="17"/>
       <c r="AC25" s="17" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AD25" s="17" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="AE25" s="17" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AF25" s="17" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="AG25" s="11" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AH25" s="11" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AI25" s="41">
         <v>10110</v>
       </c>
       <c r="AJ25" s="28" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AK25" s="23" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="AL25" s="23" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
       <c r="AM25" s="23" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AN25" s="11"/>
       <c r="AO25" s="17"/>
@@ -20045,7 +20063,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>65</v>
@@ -20067,13 +20085,13 @@
       <c r="O26" s="17"/>
       <c r="P26" s="17"/>
       <c r="Q26" s="17" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="R26" s="17" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
       <c r="S26" s="17" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="T26" s="17"/>
       <c r="U26" s="17"/>
@@ -20089,22 +20107,22 @@
       <c r="AE26" s="17"/>
       <c r="AF26" s="17"/>
       <c r="AG26" s="11" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AH26" s="11" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AI26" s="41">
         <v>52100</v>
       </c>
       <c r="AJ26" s="28" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AK26" s="23" t="s">
-        <v>1281</v>
+        <v>1273</v>
       </c>
       <c r="AL26" s="23" t="s">
-        <v>1280</v>
+        <v>1272</v>
       </c>
       <c r="AM26" s="23"/>
       <c r="AN26" s="25" t="s">
@@ -20213,15 +20231,15 @@
       </c>
       <c r="CB26" s="37"/>
     </row>
-    <row r="27" spans="1:80" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:80" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>1320</v>
+        <v>1312</v>
       </c>
       <c r="D27" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20240,13 +20258,13 @@
       <c r="O27" s="17"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="17" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="R27" s="17" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="S27" s="17" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
       <c r="T27" s="15"/>
       <c r="U27" s="17"/>
@@ -20262,32 +20280,32 @@
       <c r="AE27" s="17"/>
       <c r="AF27" s="15"/>
       <c r="AG27" s="11" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="AH27" s="17" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="AI27" s="21">
         <v>8430</v>
       </c>
       <c r="AJ27" s="28" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="AK27" s="56"/>
       <c r="AL27" s="56" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
       <c r="AM27" s="23" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="AN27" s="30"/>
       <c r="AO27" s="17" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="AP27" s="17"/>
       <c r="AQ27" s="17"/>
       <c r="AR27" s="23" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="AS27" s="25"/>
       <c r="AT27" s="1">
@@ -20390,13 +20408,13 @@
     </row>
     <row r="28" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="125" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B28" s="125" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="D28" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20415,13 +20433,13 @@
       <c r="O28" s="54"/>
       <c r="P28" s="122"/>
       <c r="Q28" s="54" t="s">
+        <v>1115</v>
+      </c>
+      <c r="R28" s="54" t="s">
         <v>1123</v>
       </c>
-      <c r="R28" s="54" t="s">
-        <v>1131</v>
-      </c>
       <c r="S28" s="20" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="T28" s="122"/>
       <c r="U28" s="122"/>
@@ -20437,10 +20455,10 @@
       <c r="AE28" s="54"/>
       <c r="AF28" s="122"/>
       <c r="AG28" s="54" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="AH28" s="54" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="AI28" s="128">
         <v>45730</v>
@@ -20450,7 +20468,7 @@
       </c>
       <c r="AK28" s="122"/>
       <c r="AL28" s="56" t="s">
-        <v>1283</v>
+        <v>1275</v>
       </c>
       <c r="AM28" s="54"/>
       <c r="AN28" s="130"/>
@@ -20559,13 +20577,13 @@
     </row>
     <row r="29" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="125" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B29" s="125" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="D29" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20584,13 +20602,13 @@
       <c r="O29" s="54"/>
       <c r="P29" s="54"/>
       <c r="Q29" s="54" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
       <c r="R29" s="54" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="S29" s="20" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="T29" s="54"/>
       <c r="U29" s="54"/>
@@ -20606,10 +20624,10 @@
       <c r="AE29" s="54"/>
       <c r="AF29" s="54"/>
       <c r="AG29" s="54" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
       <c r="AH29" s="54" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="AI29" s="128">
         <v>8000</v>
@@ -20619,7 +20637,7 @@
       </c>
       <c r="AK29" s="54"/>
       <c r="AL29" s="56" t="s">
-        <v>1284</v>
+        <v>1276</v>
       </c>
       <c r="AM29" s="54"/>
       <c r="AN29" s="54"/>
@@ -20731,10 +20749,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="D30" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20753,13 +20771,13 @@
       <c r="O30" s="17"/>
       <c r="P30" s="17"/>
       <c r="Q30" s="17" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="R30" s="17" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
       <c r="S30" s="17" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
       <c r="T30" s="17"/>
       <c r="U30" s="17"/>
@@ -20775,37 +20793,37 @@
       <c r="AE30" s="17"/>
       <c r="AF30" s="48"/>
       <c r="AG30" s="54" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="AH30" s="17" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="AI30" s="21">
         <v>51500</v>
       </c>
       <c r="AJ30" s="46" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="AK30" s="23" t="s">
-        <v>1286</v>
+        <v>1278</v>
       </c>
       <c r="AL30" s="23" t="s">
-        <v>1285</v>
+        <v>1277</v>
       </c>
       <c r="AM30" s="23"/>
       <c r="AN30" s="45" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="AO30" s="17" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="AP30" s="17" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="AQ30" s="17"/>
       <c r="AR30" s="48"/>
       <c r="AS30" s="25" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AT30" s="1">
         <f>RANK(BL30,$BL$3:$BL$122)+COUNTIF(BL$3:BL30,BL30)-1</f>
@@ -20913,7 +20931,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D31" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20936,16 +20954,16 @@
       <c r="S31" s="17"/>
       <c r="T31" s="17"/>
       <c r="U31" s="17" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="V31" s="17" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="W31" s="17" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="X31" s="17" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="Y31" s="17"/>
       <c r="Z31" s="17"/>
@@ -20959,7 +20977,7 @@
         <v>56</v>
       </c>
       <c r="AH31" s="11" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="AI31" s="41">
         <v>51053</v>
@@ -20968,10 +20986,10 @@
         <v>58</v>
       </c>
       <c r="AK31" s="23" t="s">
-        <v>1288</v>
+        <v>1280</v>
       </c>
       <c r="AL31" s="23" t="s">
-        <v>1287</v>
+        <v>1279</v>
       </c>
       <c r="AM31" s="23"/>
       <c r="AN31" s="25"/>
@@ -20980,13 +20998,13 @@
       </c>
       <c r="AP31" s="17"/>
       <c r="AQ31" s="11" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="AR31" s="23" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="AS31" s="25" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AT31" s="1">
         <f>RANK(BL31,$BL$3:$BL$122)+COUNTIF(BL$3:BL31,BL31)-1</f>
@@ -21091,10 +21109,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="D32" s="73" t="str">
         <f t="shared" si="0"/>
@@ -21117,13 +21135,13 @@
       <c r="S32" s="17"/>
       <c r="T32" s="17"/>
       <c r="U32" s="17" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="V32" s="17" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="W32" s="17" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="X32" s="17"/>
       <c r="Y32" s="17"/>
@@ -21135,7 +21153,7 @@
       <c r="AE32" s="17"/>
       <c r="AF32" s="17"/>
       <c r="AG32" s="11" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="AH32" s="11" t="s">
         <v>69</v>
@@ -21144,19 +21162,19 @@
         <v>51100</v>
       </c>
       <c r="AJ32" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK32" s="53" t="s">
-        <v>1290</v>
+        <v>1282</v>
       </c>
       <c r="AL32" s="53" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="AM32" s="23" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="AN32" s="25" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="AO32" s="17"/>
       <c r="AP32" s="17"/>
@@ -21263,11 +21281,11 @@
     </row>
     <row r="33" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="17" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D33" s="73" t="str">
         <f t="shared" si="0"/>
@@ -21290,13 +21308,13 @@
       <c r="S33" s="15"/>
       <c r="T33" s="15"/>
       <c r="U33" s="17" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="V33" s="17" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="W33" s="17" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="X33" s="15"/>
       <c r="Y33" s="15"/>
@@ -21308,36 +21326,36 @@
       <c r="AE33" s="17"/>
       <c r="AF33" s="15"/>
       <c r="AG33" s="17" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="AH33" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AI33" s="21">
         <v>51100</v>
       </c>
       <c r="AJ33" s="28" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="AK33" s="23" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
       <c r="AL33" s="23" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="AM33" s="23" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="AN33" s="30"/>
       <c r="AO33" s="15" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="AP33" s="24"/>
       <c r="AQ33" s="17" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="AR33" s="23" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="AS33" s="26"/>
       <c r="AT33" s="1">
@@ -21474,25 +21492,25 @@
       <c r="X34" s="17"/>
       <c r="Y34" s="17"/>
       <c r="Z34" s="17" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="AA34" s="17" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="AB34" s="17"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="17" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="AE34" s="17" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="AF34" s="17"/>
       <c r="AG34" s="11" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AH34" s="11" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="AI34" s="41">
         <v>10160</v>
@@ -21501,10 +21519,10 @@
         <v>78</v>
       </c>
       <c r="AK34" s="23" t="s">
-        <v>1294</v>
+        <v>1286</v>
       </c>
       <c r="AL34" s="23" t="s">
-        <v>1293</v>
+        <v>1285</v>
       </c>
       <c r="AM34" s="23"/>
       <c r="AN34" s="25"/>
@@ -21629,7 +21647,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="69" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="D35" s="73" t="str">
         <f t="shared" ref="D35:D66" si="19">IF(AX35&lt;&gt;0,"2020_A="&amp;AX35," ")&amp;IF(AY35&lt;&gt;0," ; 2020_i="&amp;AY35," ")&amp;IF(AZ35&lt;&gt;0,"2019_A="&amp;AZ35," ")&amp;IF(BA35&lt;&gt;0," ; 2019_i="&amp;BA35," ")&amp;IF(BB35&lt;&gt;0,"2018_A="&amp;BB35," ")&amp;IF(BC35&lt;&gt;0," ; 2018_i="&amp;BC35," ")&amp;IF(BD35&lt;&gt;0," ; 2017_A="&amp;BD35," ")&amp;IF(BE35&lt;&gt;0," ; 2017_i="&amp;BE35," ")&amp;IF(BF35&lt;&gt;0," ; 2016_A="&amp;BF35," ")&amp;IF(BG35&lt;&gt;0," ; 2016_i="&amp;BG35," ")&amp;IF(BH35&lt;&gt;0," ; 2015_A="&amp;BH35," ")&amp;IF(BI35&lt;&gt;0," ; 2015_i="&amp;BI35," ")&amp;IF(BJ35&lt;&gt;0," ; 2014_A="&amp;BJ35," ")&amp;IF(BK35&lt;&gt;0," ; 2014_i="&amp;BK35," ")</f>
@@ -21656,45 +21674,45 @@
       <c r="W35" s="69"/>
       <c r="X35" s="84"/>
       <c r="Y35" s="69" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="Z35" s="69" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
       <c r="AA35" s="69" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="AB35" s="84"/>
       <c r="AC35" s="69" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="AD35" s="69" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
       <c r="AE35" s="69" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="AF35" s="84"/>
       <c r="AG35" s="105" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="AH35" s="69" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="AI35" s="86">
         <v>10700</v>
       </c>
       <c r="AJ35" s="69" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="AK35" s="23" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="AL35" s="23" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
       <c r="AM35" s="69" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="AN35" s="90"/>
       <c r="AO35" s="84"/>
@@ -21807,10 +21825,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="100" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
       <c r="C36" s="69" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="D36" s="73" t="str">
         <f t="shared" si="19"/>
@@ -21838,40 +21856,40 @@
       <c r="X36" s="84"/>
       <c r="Y36" s="84"/>
       <c r="Z36" s="69" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="AA36" s="69" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="AB36" s="84"/>
       <c r="AC36" s="69"/>
       <c r="AD36" s="69" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="AE36" s="69" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="AF36" s="84"/>
       <c r="AG36" s="105" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="AH36" s="69" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
       <c r="AI36" s="86">
         <v>45550</v>
       </c>
       <c r="AJ36" s="69" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="AK36" s="22" t="s">
-        <v>1297</v>
+        <v>1289</v>
       </c>
       <c r="AL36" s="23" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="AM36" s="69" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="AN36" s="90"/>
       <c r="AO36" s="84"/>
@@ -21984,10 +22002,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D37" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22018,37 +22036,37 @@
       <c r="AA37" s="15"/>
       <c r="AB37" s="15"/>
       <c r="AC37" s="17" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AD37" s="17" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="AE37" s="17" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="AF37" s="15" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="AG37" s="17" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="AH37" s="17" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AI37" s="21">
         <v>8000</v>
       </c>
       <c r="AJ37" s="28" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AK37" s="22" t="s">
-        <v>1299</v>
+        <v>1291</v>
       </c>
       <c r="AL37" s="22" t="s">
-        <v>1298</v>
+        <v>1290</v>
       </c>
       <c r="AM37" s="23" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AN37" s="30"/>
       <c r="AO37" s="26"/>
@@ -22159,10 +22177,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D38" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22193,35 +22211,35 @@
       <c r="AA38" s="15"/>
       <c r="AB38" s="15"/>
       <c r="AC38" s="17" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AD38" s="17" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
       <c r="AE38" s="17" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="AF38" s="15"/>
       <c r="AG38" s="17" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AH38" s="17" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AI38" s="21">
         <v>8300</v>
       </c>
       <c r="AJ38" s="28" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AK38" s="22" t="s">
-        <v>1301</v>
+        <v>1293</v>
       </c>
       <c r="AL38" s="22" t="s">
-        <v>1300</v>
+        <v>1292</v>
       </c>
       <c r="AM38" s="23" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AN38" s="30"/>
       <c r="AO38" s="26"/>
@@ -22229,7 +22247,7 @@
       <c r="AQ38" s="26"/>
       <c r="AR38" s="26"/>
       <c r="AS38" s="48" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="AT38" s="1">
         <f>RANK(BL38,$BL$3:$BL$122)+COUNTIF(BL$3:BL38,BL38)-1</f>
@@ -22331,13 +22349,13 @@
     </row>
     <row r="39" spans="1:80" s="1" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>1322</v>
+        <v>1314</v>
       </c>
       <c r="D39" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22368,47 +22386,47 @@
       <c r="AA39" s="15"/>
       <c r="AB39" s="15"/>
       <c r="AC39" s="17" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AD39" s="17" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
       <c r="AE39" s="17" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="AF39" s="15" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="AG39" s="17" t="s">
-        <v>1321</v>
+        <v>1313</v>
       </c>
       <c r="AH39" s="17" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="AI39" s="21">
         <v>51096</v>
       </c>
       <c r="AJ39" s="15"/>
       <c r="AK39" s="23" t="s">
-        <v>1303</v>
+        <v>1295</v>
       </c>
       <c r="AL39" s="23" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
       <c r="AM39" s="17"/>
       <c r="AN39" s="25" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="AO39" s="26"/>
       <c r="AP39" s="24"/>
       <c r="AQ39" s="11" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="AR39" s="42" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="AS39" s="25" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AT39" s="1">
         <f>RANK(BL39,$BL$3:$BL$122)+COUNTIF(BL$3:BL39,BL39)-1</f>
@@ -22547,55 +22565,55 @@
       <c r="AA40" s="17"/>
       <c r="AB40" s="17"/>
       <c r="AC40" s="17" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AD40" s="17" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="AE40" s="17" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AF40" s="17" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="AG40" s="11" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AH40" s="11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="AI40" s="41">
         <v>51110</v>
       </c>
       <c r="AJ40" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AK40" s="23" t="s">
-        <v>1305</v>
+        <v>1297</v>
       </c>
       <c r="AL40" s="23" t="s">
-        <v>1304</v>
+        <v>1296</v>
       </c>
       <c r="AM40" s="23" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="AN40" s="25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AO40" s="17" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AP40" s="17" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="AQ40" s="11" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="AR40" s="11" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="AS40" s="25" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AT40" s="1">
         <f>RANK(BL40,$BL$3:$BL$122)+COUNTIF(BL$3:BL40,BL40)-1</f>
@@ -22700,10 +22718,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D41" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22734,22 +22752,22 @@
       <c r="AA41" s="15"/>
       <c r="AB41" s="15"/>
       <c r="AC41" s="17" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AD41" s="17" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
       <c r="AE41" s="17" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="AF41" s="15" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="AG41" s="17" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="AH41" s="17" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AI41" s="21">
         <v>51530</v>
@@ -22758,13 +22776,13 @@
         <v>44</v>
       </c>
       <c r="AK41" s="22" t="s">
-        <v>1307</v>
+        <v>1299</v>
       </c>
       <c r="AL41" s="22" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
       <c r="AM41" s="23" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="AN41" s="30"/>
       <c r="AO41" s="26"/>
@@ -22772,7 +22790,7 @@
       <c r="AQ41" s="26"/>
       <c r="AR41" s="26"/>
       <c r="AS41" s="25" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AT41" s="1">
         <f>RANK(BL41,$BL$3:$BL$122)+COUNTIF(BL$3:BL41,BL41)-1</f>
@@ -22874,13 +22892,13 @@
     </row>
     <row r="42" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>1309</v>
+        <v>1301</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D42" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22911,50 +22929,50 @@
       <c r="AA42" s="15"/>
       <c r="AB42" s="15"/>
       <c r="AC42" s="17" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AD42" s="17" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
       <c r="AE42" s="17" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="AF42" s="15" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="AG42" s="17" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="AH42" s="17" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="AI42" s="21">
         <v>51686</v>
       </c>
       <c r="AJ42" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="AK42" s="22" t="s">
+        <v>1302</v>
+      </c>
+      <c r="AL42" s="22" t="s">
+        <v>1300</v>
+      </c>
+      <c r="AM42" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="AK42" s="22" t="s">
-        <v>1310</v>
-      </c>
-      <c r="AL42" s="22" t="s">
-        <v>1308</v>
-      </c>
-      <c r="AM42" s="23" t="s">
-        <v>385</v>
-      </c>
       <c r="AN42" s="17" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="AO42" s="17" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="AP42" s="24"/>
       <c r="AQ42" s="25" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="AR42" s="42" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AS42" s="26"/>
       <c r="AT42" s="1">
@@ -23060,10 +23078,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D43" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23094,38 +23112,38 @@
       <c r="AA43" s="15"/>
       <c r="AB43" s="15"/>
       <c r="AC43" s="17" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="AD43" s="17" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="AE43" s="17" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="AF43" s="15" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="AG43" s="17" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AH43" s="17" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AI43" s="41">
         <v>67200</v>
       </c>
       <c r="AJ43" s="28" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AK43" s="22"/>
       <c r="AL43" s="22" t="s">
-        <v>1311</v>
+        <v>1303</v>
       </c>
       <c r="AM43" s="23" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AN43" s="17" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="AO43" s="17"/>
       <c r="AP43" s="17"/>
@@ -23134,7 +23152,7 @@
       </c>
       <c r="AR43" s="26"/>
       <c r="AS43" s="25" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AT43" s="1">
         <f>RANK(BL43,$BL$3:$BL$122)+COUNTIF(BL$3:BL43,BL43)-1</f>
@@ -23239,10 +23257,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D44" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23273,37 +23291,37 @@
       <c r="AA44" s="15"/>
       <c r="AB44" s="15"/>
       <c r="AC44" s="17" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AD44" s="17" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
       <c r="AE44" s="17" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="AF44" s="15" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="AG44" s="17" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="AH44" s="17" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="AI44" s="21">
         <v>77440</v>
       </c>
       <c r="AJ44" s="28" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="AK44" s="22" t="s">
-        <v>1313</v>
+        <v>1305</v>
       </c>
       <c r="AL44" s="22" t="s">
-        <v>1312</v>
+        <v>1304</v>
       </c>
       <c r="AM44" s="23" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="AN44" s="30"/>
       <c r="AO44" s="26"/>
@@ -23417,7 +23435,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="D45" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23448,20 +23466,20 @@
       <c r="AA45" s="17"/>
       <c r="AB45" s="17"/>
       <c r="AC45" s="17" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="AD45" s="17" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="AE45" s="17" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="AF45" s="17"/>
       <c r="AG45" s="11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AH45" s="11" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="AI45" s="41">
         <v>51230</v>
@@ -23470,10 +23488,10 @@
         <v>93</v>
       </c>
       <c r="AK45" s="23" t="s">
-        <v>1315</v>
+        <v>1307</v>
       </c>
       <c r="AL45" s="23" t="s">
-        <v>1314</v>
+        <v>1306</v>
       </c>
       <c r="AM45" s="23"/>
       <c r="AN45" s="25" t="s">
@@ -23595,10 +23613,10 @@
         <v>0</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D46" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23630,29 +23648,29 @@
       <c r="AB46" s="30"/>
       <c r="AC46" s="17"/>
       <c r="AD46" s="17" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="AE46" s="17" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="AF46" s="30"/>
       <c r="AG46" s="17" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="AH46" s="17" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="AI46" s="21">
         <v>45110</v>
       </c>
       <c r="AJ46" s="28" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="AK46" s="58" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="AL46" s="58" t="s">
-        <v>1316</v>
+        <v>1308</v>
       </c>
       <c r="AM46" s="17"/>
       <c r="AN46" s="26"/>
@@ -23767,7 +23785,7 @@
         <v>97</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="D47" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23802,30 +23820,30 @@
       <c r="AE47" s="17"/>
       <c r="AF47" s="17"/>
       <c r="AG47" s="11" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AH47" s="11" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AI47" s="41">
         <v>2220</v>
       </c>
       <c r="AJ47" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK47" s="23" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
       <c r="AL47" s="23" t="s">
-        <v>1318</v>
+        <v>1310</v>
       </c>
       <c r="AM47" s="23"/>
       <c r="AN47" s="25"/>
       <c r="AO47" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP47" s="17" t="s">
         <v>108</v>
-      </c>
-      <c r="AP47" s="17" t="s">
-        <v>109</v>
       </c>
       <c r="AQ47" s="25"/>
       <c r="AR47" s="42" t="s">
@@ -23928,7 +23946,7 @@
       </c>
       <c r="CB47" s="35"/>
     </row>
-    <row r="48" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:80" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>0</v>
       </c>
@@ -23971,28 +23989,30 @@
       <c r="AE48" s="17"/>
       <c r="AF48" s="17"/>
       <c r="AG48" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AH48" s="11" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AI48" s="43" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AJ48" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK48" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL48" s="23"/>
+        <v>1316</v>
+      </c>
+      <c r="AL48" s="23" t="s">
+        <v>1315</v>
+      </c>
       <c r="AM48" s="23"/>
       <c r="AN48" s="25"/>
       <c r="AO48" s="17"/>
       <c r="AP48" s="17"/>
       <c r="AQ48" s="25"/>
       <c r="AR48" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AS48" s="25"/>
       <c r="AT48" s="1">
@@ -24091,15 +24111,15 @@
       </c>
       <c r="CB48" s="35"/>
     </row>
-    <row r="49" spans="1:80" s="7" customFormat="1" ht="150" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:80" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D49" s="73" t="str">
         <f t="shared" si="19"/>
@@ -24134,23 +24154,23 @@
       <c r="AE49" s="17"/>
       <c r="AF49" s="17"/>
       <c r="AG49" s="11" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AH49" s="11" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AI49" s="43" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AJ49" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK49" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="AL49" s="23"/>
+        <v>132</v>
+      </c>
+      <c r="AK49" s="23"/>
+      <c r="AL49" s="23" t="s">
+        <v>1317</v>
+      </c>
       <c r="AM49" s="23" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AN49" s="25"/>
       <c r="AO49" s="17"/>
@@ -24254,12 +24274,12 @@
       </c>
       <c r="CB49" s="35"/>
     </row>
-    <row r="50" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:80" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>34</v>
@@ -24297,28 +24317,30 @@
       <c r="AE50" s="17"/>
       <c r="AF50" s="17"/>
       <c r="AG50" s="11" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AH50" s="11" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AI50" s="43" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AJ50" s="28" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AK50" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="AL50" s="23"/>
+        <v>1319</v>
+      </c>
+      <c r="AL50" s="23" t="s">
+        <v>1318</v>
+      </c>
       <c r="AM50" s="23"/>
       <c r="AN50" s="25"/>
       <c r="AO50" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AP50" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AQ50" s="44" t="s">
         <v>35</v>
@@ -24423,15 +24445,15 @@
       </c>
       <c r="CB50" s="35"/>
     </row>
-    <row r="51" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:80" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>445</v>
+        <v>1322</v>
       </c>
       <c r="D51" s="73" t="str">
         <f t="shared" si="19"/>
@@ -24466,35 +24488,37 @@
       <c r="AE51" s="17"/>
       <c r="AF51" s="17"/>
       <c r="AG51" s="11" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AH51" s="11" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AI51" s="41">
         <v>8150</v>
       </c>
       <c r="AJ51" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AK51" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL51" s="23"/>
+        <v>1321</v>
+      </c>
+      <c r="AL51" s="23" t="s">
+        <v>1320</v>
+      </c>
       <c r="AM51" s="23"/>
       <c r="AN51" s="25"/>
       <c r="AO51" s="17" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="AP51" s="17" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="AQ51" s="25"/>
       <c r="AR51" s="23" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="AS51" s="25" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="AT51" s="1">
         <f>RANK(BL51,$BL$3:$BL$122)+COUNTIF(BL$3:BL51,BL51)-1</f>
@@ -24502,7 +24526,7 @@
       </c>
       <c r="AU51" s="64" t="str">
         <f t="shared" si="20"/>
-        <v>N° 49 Canelia Rouvroy Poudre (Lactalis Ingredients)</v>
+        <v>N° 49 Canelia (Lactalis) Rouvroy Poudre</v>
       </c>
       <c r="AV51" s="1">
         <f>RANK(BM51,$BM$3:$BM$122)+COUNTIF(BM$3:BM51,BM51)-1</f>
@@ -24510,7 +24534,7 @@
       </c>
       <c r="AW51" s="64" t="str">
         <f t="shared" si="21"/>
-        <v>N° 49 Canelia Rouvroy Poudre (Lactalis Ingredients)</v>
+        <v>N° 49 Canelia (Lactalis) Rouvroy Poudre</v>
       </c>
       <c r="AX51" s="64"/>
       <c r="AY51" s="64"/>
@@ -24597,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>68</v>
@@ -24635,36 +24659,38 @@
       <c r="AE52" s="17"/>
       <c r="AF52" s="15"/>
       <c r="AG52" s="17" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AH52" s="17" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AI52" s="41">
         <v>8430</v>
       </c>
       <c r="AJ52" s="28" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="AK52" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="AL52" s="22"/>
+        <v>1324</v>
+      </c>
+      <c r="AL52" s="22" t="s">
+        <v>1323</v>
+      </c>
       <c r="AM52" s="23" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="AN52" s="49"/>
       <c r="AO52" s="17" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="AP52" s="17" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="AQ52" s="23" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="AR52" s="42" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="AS52" s="26"/>
       <c r="AT52" s="1">
@@ -24768,7 +24794,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>38</v>
@@ -24806,24 +24832,26 @@
       <c r="AE53" s="17"/>
       <c r="AF53" s="17"/>
       <c r="AG53" s="11" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AH53" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AI53" s="41">
         <v>10800</v>
       </c>
       <c r="AJ53" s="28" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AK53" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="AL53" s="23"/>
+        <v>1326</v>
+      </c>
+      <c r="AL53" s="23" t="s">
+        <v>1325</v>
+      </c>
       <c r="AM53" s="23"/>
       <c r="AN53" s="25" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="AO53" s="17"/>
       <c r="AP53" s="17"/>
@@ -24931,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>26</v>
@@ -24969,21 +24997,23 @@
       <c r="AE54" s="17"/>
       <c r="AF54" s="17"/>
       <c r="AG54" s="11" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AH54" s="11" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AI54" s="41">
         <v>51100</v>
       </c>
       <c r="AJ54" s="28" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AK54" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL54" s="23"/>
+        <v>1328</v>
+      </c>
+      <c r="AL54" s="23" t="s">
+        <v>1327</v>
+      </c>
       <c r="AM54" s="23"/>
       <c r="AN54" s="25"/>
       <c r="AO54" s="17"/>
@@ -25092,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>27</v>
@@ -25130,37 +25160,37 @@
       <c r="AE55" s="17"/>
       <c r="AF55" s="17"/>
       <c r="AG55" s="11" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AH55" s="11" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AI55" s="41">
         <v>51100</v>
       </c>
       <c r="AJ55" s="28" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK55" s="23" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AL55" s="23"/>
       <c r="AM55" s="23"/>
       <c r="AN55" s="25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AO55" s="17" t="s">
         <v>28</v>
       </c>
       <c r="AP55" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AQ55" s="25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AR55" s="11"/>
       <c r="AS55" s="25" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AT55" s="1">
         <f>RANK(BL55,$BL$3:$BL$122)+COUNTIF(BL$3:BL55,BL55)-1</f>
@@ -25301,32 +25331,32 @@
       <c r="AE56" s="17"/>
       <c r="AF56" s="17"/>
       <c r="AG56" s="11" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AH56" s="11" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AI56" s="41">
         <v>51100</v>
       </c>
       <c r="AJ56" s="28" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AK56" s="23" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AL56" s="23"/>
       <c r="AM56" s="23"/>
       <c r="AN56" s="25"/>
       <c r="AO56" s="17" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AP56" s="17"/>
       <c r="AQ56" s="44" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AR56" s="42" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AS56" s="25"/>
       <c r="AT56" s="1">
@@ -25430,10 +25460,10 @@
         <v>0</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D57" s="73" t="str">
         <f t="shared" si="19"/>
@@ -25468,10 +25498,10 @@
       <c r="AE57" s="17"/>
       <c r="AF57" s="17"/>
       <c r="AG57" s="11" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AH57" s="11" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AI57" s="41">
         <v>51110</v>
@@ -25480,25 +25510,25 @@
         <v>33</v>
       </c>
       <c r="AK57" s="23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AL57" s="23"/>
       <c r="AM57" s="23"/>
       <c r="AN57" s="25"/>
       <c r="AO57" s="17" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
       <c r="AP57" s="17" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
       <c r="AQ57" s="11" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
       <c r="AR57" s="50" t="s">
-        <v>1211</v>
+        <v>1203</v>
       </c>
       <c r="AS57" s="11" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="AT57" s="1">
         <f>RANK(BL57,$BL$3:$BL$122)+COUNTIF(BL$3:BL57,BL57)-1</f>
@@ -25639,26 +25669,26 @@
       <c r="AE58" s="17"/>
       <c r="AF58" s="17"/>
       <c r="AG58" s="11" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AH58" s="11" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AI58" s="41">
         <v>51130</v>
       </c>
       <c r="AJ58" s="28"/>
       <c r="AK58" s="23" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AL58" s="23"/>
       <c r="AM58" s="23"/>
       <c r="AN58" s="25"/>
       <c r="AO58" s="17" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AP58" s="17" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="AQ58" s="44" t="s">
         <v>55</v>
@@ -25766,7 +25796,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>63</v>
@@ -25804,28 +25834,28 @@
       <c r="AE59" s="17"/>
       <c r="AF59" s="17"/>
       <c r="AG59" s="11" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AH59" s="11" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AI59" s="41">
         <v>51160</v>
       </c>
       <c r="AJ59" s="28" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AK59" s="23" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="AL59" s="23"/>
       <c r="AM59" s="23"/>
       <c r="AN59" s="25"/>
       <c r="AO59" s="17" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AP59" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AQ59" s="44"/>
       <c r="AR59" s="23" t="s">
@@ -25971,19 +26001,19 @@
       <c r="AE60" s="17"/>
       <c r="AF60" s="17"/>
       <c r="AG60" s="11" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AH60" s="11" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AI60" s="41">
         <v>51190</v>
       </c>
       <c r="AJ60" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AK60" s="23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AL60" s="23"/>
       <c r="AM60" s="23"/>
@@ -26132,10 +26162,10 @@
       <c r="AE61" s="17"/>
       <c r="AF61" s="17"/>
       <c r="AG61" s="11" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AH61" s="11" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AI61" s="41">
         <v>51200</v>
@@ -26144,7 +26174,7 @@
         <v>53</v>
       </c>
       <c r="AK61" s="23" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AL61" s="23"/>
       <c r="AM61" s="23"/>
@@ -26258,7 +26288,7 @@
         <v>17</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D62" s="73" t="str">
         <f t="shared" si="19"/>
@@ -26296,7 +26326,7 @@
         <v>49</v>
       </c>
       <c r="AH62" s="11" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AI62" s="41">
         <v>51204</v>
@@ -26305,7 +26335,7 @@
         <v>50</v>
       </c>
       <c r="AK62" s="23" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AL62" s="23"/>
       <c r="AM62" s="23"/>
@@ -26418,7 +26448,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C63" s="17" t="s">
         <v>30</v>
@@ -26456,30 +26486,30 @@
       <c r="AE63" s="17"/>
       <c r="AF63" s="17"/>
       <c r="AG63" s="11" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AH63" s="11" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AI63" s="41">
         <v>51300</v>
       </c>
       <c r="AJ63" s="28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AK63" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AL63" s="23"/>
       <c r="AM63" s="23"/>
       <c r="AN63" s="25" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AO63" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AP63" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AQ63" s="25" t="s">
         <v>31</v>
@@ -26488,7 +26518,7 @@
         <v>32</v>
       </c>
       <c r="AS63" s="25" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AT63" s="1">
         <f>RANK(BL63,$BL$3:$BL$122)+COUNTIF(BL$3:BL63,BL63)-1</f>
@@ -26594,7 +26624,7 @@
         <v>17</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D64" s="73" t="str">
         <f t="shared" si="19"/>
@@ -26632,7 +26662,7 @@
         <v>59</v>
       </c>
       <c r="AH64" s="11" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AI64" s="41">
         <v>51420</v>
@@ -26641,11 +26671,11 @@
         <v>61</v>
       </c>
       <c r="AK64" s="23" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AL64" s="23"/>
       <c r="AM64" s="23" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="AN64" s="25" t="s">
         <v>60</v>
@@ -26659,7 +26689,7 @@
         <v>62</v>
       </c>
       <c r="AS64" s="25" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AT64" s="1">
         <f>RANK(BL64,$BL$3:$BL$122)+COUNTIF(BL$3:BL64,BL64)-1</f>
@@ -26765,7 +26795,7 @@
         <v>83</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="D65" s="73" t="str">
         <f t="shared" si="19"/>
@@ -26800,10 +26830,10 @@
       <c r="AE65" s="17"/>
       <c r="AF65" s="17"/>
       <c r="AG65" s="11" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AH65" s="11" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AI65" s="41">
         <v>51500</v>
@@ -26820,7 +26850,7 @@
         <v>90</v>
       </c>
       <c r="AO65" s="17" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="AP65" s="17" t="s">
         <v>86</v>
@@ -26832,7 +26862,7 @@
         <v>87</v>
       </c>
       <c r="AS65" s="25" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AT65" s="1">
         <f>RANK(BL65,$BL$3:$BL$122)+COUNTIF(BL$3:BL65,BL65)-1</f>
@@ -26935,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C66" s="17" t="s">
         <v>39</v>
@@ -26976,21 +27006,21 @@
         <v>40</v>
       </c>
       <c r="AH66" s="11" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AI66" s="41">
         <v>51510</v>
       </c>
       <c r="AJ66" s="28" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AK66" s="23" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AL66" s="23"/>
       <c r="AM66" s="23"/>
       <c r="AN66" s="25" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="AO66" s="17"/>
       <c r="AP66" s="17"/>
@@ -27103,7 +27133,7 @@
         <v>17</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D67" s="73" t="str">
         <f t="shared" ref="D67:D98" si="38">IF(AX67&lt;&gt;0,"2020_A="&amp;AX67," ")&amp;IF(AY67&lt;&gt;0," ; 2020_i="&amp;AY67," ")&amp;IF(AZ67&lt;&gt;0,"2019_A="&amp;AZ67," ")&amp;IF(BA67&lt;&gt;0," ; 2019_i="&amp;BA67," ")&amp;IF(BB67&lt;&gt;0,"2018_A="&amp;BB67," ")&amp;IF(BC67&lt;&gt;0," ; 2018_i="&amp;BC67," ")&amp;IF(BD67&lt;&gt;0," ; 2017_A="&amp;BD67," ")&amp;IF(BE67&lt;&gt;0," ; 2017_i="&amp;BE67," ")&amp;IF(BF67&lt;&gt;0," ; 2016_A="&amp;BF67," ")&amp;IF(BG67&lt;&gt;0," ; 2016_i="&amp;BG67," ")&amp;IF(BH67&lt;&gt;0," ; 2015_A="&amp;BH67," ")&amp;IF(BI67&lt;&gt;0," ; 2015_i="&amp;BI67," ")&amp;IF(BJ67&lt;&gt;0," ; 2014_A="&amp;BJ67," ")&amp;IF(BK67&lt;&gt;0," ; 2014_i="&amp;BK67," ")</f>
@@ -27138,33 +27168,33 @@
       <c r="AE67" s="17"/>
       <c r="AF67" s="17"/>
       <c r="AG67" s="11" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AH67" s="11" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AI67" s="41">
         <v>51689</v>
       </c>
       <c r="AJ67" s="28"/>
       <c r="AK67" s="23" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AL67" s="23"/>
       <c r="AM67" s="23"/>
       <c r="AN67" s="25"/>
       <c r="AO67" s="17" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="AP67" s="17" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="AQ67" s="44" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AR67" s="11"/>
       <c r="AS67" s="25" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AT67" s="1">
         <f>RANK(BL67,$BL$3:$BL$122)+COUNTIF(BL$3:BL67,BL67)-1</f>
@@ -27267,7 +27297,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="C68" s="17" t="s">
         <v>66</v>
@@ -27305,23 +27335,23 @@
       <c r="AE68" s="17"/>
       <c r="AF68" s="17"/>
       <c r="AG68" s="11" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AH68" s="11" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AI68" s="41">
         <v>55190</v>
       </c>
       <c r="AJ68" s="28" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AK68" s="23" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="AL68" s="23"/>
       <c r="AM68" s="23" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="AN68" s="25"/>
       <c r="AO68" s="17"/>
@@ -27468,28 +27498,28 @@
       <c r="AE69" s="17"/>
       <c r="AF69" s="17"/>
       <c r="AG69" s="11" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AH69" s="11" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AI69" s="41">
         <v>55290</v>
       </c>
       <c r="AJ69" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK69" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AL69" s="23"/>
       <c r="AM69" s="23"/>
       <c r="AN69" s="25"/>
       <c r="AO69" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP69" s="17" t="s">
         <v>105</v>
-      </c>
-      <c r="AP69" s="17" t="s">
-        <v>106</v>
       </c>
       <c r="AQ69" s="25" t="s">
         <v>11</v>
@@ -27599,7 +27629,7 @@
         <v>0</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C70" s="17" t="s">
         <v>42</v>
@@ -27640,7 +27670,7 @@
         <v>43</v>
       </c>
       <c r="AH70" s="11" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AI70" s="41">
         <v>59700</v>
@@ -27649,7 +27679,7 @@
         <v>320816100</v>
       </c>
       <c r="AK70" s="23" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AL70" s="23"/>
       <c r="AM70" s="23"/>
@@ -27760,7 +27790,7 @@
         <v>0</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>67</v>
@@ -27798,31 +27828,31 @@
       <c r="AE71" s="17"/>
       <c r="AF71" s="15"/>
       <c r="AG71" s="17" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AH71" s="17" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AI71" s="41">
         <v>60890</v>
       </c>
       <c r="AJ71" s="28" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AK71" s="22" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AL71" s="22"/>
       <c r="AM71" s="23" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AN71" s="30"/>
       <c r="AO71" s="17" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="AP71" s="24"/>
       <c r="AQ71" s="17" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="AR71" s="26"/>
       <c r="AS71" s="26"/>
@@ -27927,10 +27957,10 @@
         <v>0</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D72" s="73" t="str">
         <f t="shared" si="38"/>
@@ -27965,24 +27995,24 @@
       <c r="AE72" s="17"/>
       <c r="AF72" s="17"/>
       <c r="AG72" s="11" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AH72" s="11" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AI72" s="41">
         <v>67520</v>
       </c>
       <c r="AJ72" s="28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AK72" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AL72" s="23"/>
       <c r="AM72" s="23"/>
       <c r="AN72" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AO72" s="17"/>
       <c r="AP72" s="17"/>
@@ -28090,10 +28120,10 @@
         <v>0</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="D73" s="73" t="str">
         <f t="shared" si="38"/>
@@ -28128,33 +28158,33 @@
       <c r="AE73" s="17"/>
       <c r="AF73" s="48"/>
       <c r="AG73" s="54" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="AH73" s="17" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="AI73" s="21">
         <v>77510</v>
       </c>
       <c r="AJ73" s="46" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="AK73" s="23" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="AL73" s="23"/>
       <c r="AM73" s="23" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="AN73" s="45"/>
       <c r="AO73" s="48" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="AP73" s="17" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="AQ73" s="17" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="AR73" s="48"/>
       <c r="AS73" s="48"/>
@@ -28259,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>37</v>
@@ -28297,31 +28327,31 @@
       <c r="AE74" s="17"/>
       <c r="AF74" s="17"/>
       <c r="AG74" s="11" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AH74" s="11" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AI74" s="41">
         <v>80600</v>
       </c>
       <c r="AJ74" s="28" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AK74" s="23" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AL74" s="23"/>
       <c r="AM74" s="23"/>
       <c r="AN74" s="25"/>
       <c r="AO74" s="17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AP74" s="17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AQ74" s="44" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="AR74" s="11"/>
       <c r="AS74" s="25"/>
@@ -28464,10 +28494,10 @@
       <c r="AE75" s="17"/>
       <c r="AF75" s="17"/>
       <c r="AG75" s="11" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AH75" s="11" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AI75" s="41">
         <v>89470</v>
@@ -28476,18 +28506,18 @@
         <v>8</v>
       </c>
       <c r="AK75" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL75" s="23"/>
       <c r="AM75" s="23"/>
       <c r="AN75" s="25" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="AO75" s="17" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="AP75" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AQ75" s="25" t="s">
         <v>8</v>
@@ -28600,7 +28630,7 @@
         <v>17</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="D76" s="73" t="str">
         <f t="shared" si="38"/>
@@ -28635,30 +28665,30 @@
       <c r="AE76" s="17"/>
       <c r="AF76" s="15"/>
       <c r="AG76" s="11" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="AH76" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AI76" s="21">
         <v>51100</v>
       </c>
       <c r="AJ76" s="28" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="AK76" s="22" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="AL76" s="22"/>
       <c r="AM76" s="23" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="AN76" s="30"/>
       <c r="AO76" s="17" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="AP76" s="17" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="AQ76" s="26"/>
       <c r="AR76" s="26"/>
@@ -28767,7 +28797,7 @@
         <v>17</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="D77" s="73" t="str">
         <f t="shared" si="38"/>
@@ -28802,37 +28832,37 @@
       <c r="AE77" s="17"/>
       <c r="AF77" s="15"/>
       <c r="AG77" s="11" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="AH77" s="17" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="AI77" s="21">
         <v>51200</v>
       </c>
       <c r="AJ77" s="28" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="AK77" s="56" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="AL77" s="56"/>
       <c r="AM77" s="23" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="AN77" s="30"/>
       <c r="AO77" s="17" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="AP77" s="48"/>
       <c r="AQ77" s="25" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="AR77" s="23" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="AS77" s="25" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AT77" s="1">
         <f>RANK(BL77,$BL$3:$BL$122)+COUNTIF(BL$3:BL77,BL77)-1</f>
@@ -28938,7 +28968,7 @@
         <v>17</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D78" s="73" t="str">
         <f t="shared" si="38"/>
@@ -28973,34 +29003,34 @@
       <c r="AE78" s="17"/>
       <c r="AF78" s="15"/>
       <c r="AG78" s="11" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="AH78" s="17" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AI78" s="21">
         <v>10110</v>
       </c>
       <c r="AJ78" s="28" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="AK78" s="56" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="AL78" s="56"/>
       <c r="AM78" s="23" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="AN78" s="30"/>
       <c r="AO78" s="17" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="AP78" s="48"/>
       <c r="AQ78" s="25" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="AR78" s="23" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="AS78" s="25"/>
       <c r="AT78" s="1">
@@ -29107,7 +29137,7 @@
         <v>17</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="D79" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29142,36 +29172,36 @@
       <c r="AE79" s="17"/>
       <c r="AF79" s="15"/>
       <c r="AG79" s="11" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="AH79" s="17" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="AI79" s="21">
         <v>51530</v>
       </c>
       <c r="AJ79" s="28" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="AK79" s="56" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="AL79" s="56"/>
       <c r="AM79" s="23" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="AN79" s="30"/>
       <c r="AO79" s="17" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="AP79" s="17" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="AQ79" s="25" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="AR79" s="23" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="AS79" s="25"/>
       <c r="AT79" s="1">
@@ -29272,13 +29302,13 @@
     </row>
     <row r="80" spans="1:80" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="D80" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29313,30 +29343,30 @@
       <c r="AE80" s="17"/>
       <c r="AF80" s="15"/>
       <c r="AG80" s="11" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="AH80" s="17" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="AI80" s="21">
         <v>10800</v>
       </c>
       <c r="AJ80" s="28" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="AK80" s="56" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="AL80" s="56"/>
       <c r="AM80" s="23" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="AN80" s="30"/>
       <c r="AO80" s="17"/>
       <c r="AP80" s="17"/>
       <c r="AQ80" s="25"/>
       <c r="AR80" s="23" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="AS80" s="25"/>
       <c r="AT80" s="1">
@@ -29437,13 +29467,13 @@
     </row>
     <row r="81" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="D81" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29478,31 +29508,31 @@
       <c r="AE81" s="17"/>
       <c r="AF81" s="15"/>
       <c r="AG81" s="11" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="AH81" s="17" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="AI81" s="21">
         <v>94200</v>
       </c>
       <c r="AJ81" s="28"/>
       <c r="AK81" s="56" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="AL81" s="56"/>
       <c r="AM81" s="23" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="AN81" s="30"/>
       <c r="AO81" s="17" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="AP81" s="17" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="AQ81" s="11" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="AR81" s="23"/>
       <c r="AS81" s="25"/>
@@ -29604,13 +29634,13 @@
     </row>
     <row r="82" spans="1:80" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="D82" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29645,23 +29675,23 @@
       <c r="AE82" s="17"/>
       <c r="AF82" s="15"/>
       <c r="AG82" s="11" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="AH82" s="17" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="AI82" s="21">
         <v>2220</v>
       </c>
       <c r="AJ82" s="28" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="AK82" s="56" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="AL82" s="56"/>
       <c r="AM82" s="23" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="AN82" s="30"/>
       <c r="AO82" s="17"/>
@@ -29669,7 +29699,7 @@
       <c r="AQ82" s="11"/>
       <c r="AR82" s="23"/>
       <c r="AS82" s="25" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AT82" s="1">
         <f>RANK(BL82,$BL$3:$BL$122)+COUNTIF(BL$3:BL82,BL82)-1</f>
@@ -29775,7 +29805,7 @@
         <v>4</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="D83" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29810,38 +29840,38 @@
       <c r="AE83" s="17"/>
       <c r="AF83" s="15"/>
       <c r="AG83" s="11" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="AH83" s="17" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="AI83" s="21">
         <v>51320</v>
       </c>
       <c r="AJ83" s="28" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="AK83" s="56" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="AL83" s="56"/>
       <c r="AM83" s="23" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="AN83" s="17" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
       <c r="AO83" s="17" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="AP83" s="17" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="AQ83" s="17" t="s">
-        <v>1216</v>
+        <v>1208</v>
       </c>
       <c r="AR83" s="23" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="AS83" s="25"/>
       <c r="AT83" s="1">
@@ -29945,10 +29975,10 @@
         <v>0</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="D84" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29983,36 +30013,36 @@
       <c r="AE84" s="17"/>
       <c r="AF84" s="15"/>
       <c r="AG84" s="11" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="AH84" s="17" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="AI84" s="21">
         <v>2450</v>
       </c>
       <c r="AJ84" s="28" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="AK84" s="56" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="AL84" s="56"/>
       <c r="AM84" s="23" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="AN84" s="30"/>
       <c r="AO84" s="17" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="AP84" s="17" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="AQ84" s="17" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="AR84" s="23" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="AS84" s="25"/>
       <c r="AT84" s="1">
@@ -30116,10 +30146,10 @@
         <v>0</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="D85" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30154,23 +30184,23 @@
       <c r="AE85" s="17"/>
       <c r="AF85" s="15"/>
       <c r="AG85" s="11" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="AH85" s="17" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="AI85" s="21">
         <v>25300</v>
       </c>
       <c r="AJ85" s="28" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="AK85" s="56" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="AL85" s="56"/>
       <c r="AM85" s="23" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="AN85" s="30"/>
       <c r="AO85" s="17"/>
@@ -30279,10 +30309,10 @@
         <v>0</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="D86" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30317,30 +30347,30 @@
       <c r="AE86" s="17"/>
       <c r="AF86" s="15"/>
       <c r="AG86" s="17" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="AH86" s="17" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="AI86" s="21">
         <v>10230</v>
       </c>
       <c r="AJ86" s="28" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="AK86" s="56" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="AL86" s="56"/>
       <c r="AM86" s="23" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="AN86" s="30"/>
       <c r="AO86" s="26"/>
       <c r="AP86" s="24"/>
       <c r="AQ86" s="26"/>
       <c r="AR86" s="57" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="AS86" s="26"/>
       <c r="AT86" s="1">
@@ -30447,7 +30477,7 @@
         <v>15</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="D87" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30482,31 +30512,31 @@
       <c r="AE87" s="17"/>
       <c r="AF87" s="15"/>
       <c r="AG87" s="17" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="AH87" s="17" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="AI87" s="21">
         <v>51130</v>
       </c>
       <c r="AJ87" s="28" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="AK87" s="22" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="AL87" s="22"/>
       <c r="AM87" s="23" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="AN87" s="26"/>
       <c r="AO87" s="17" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="AP87" s="24"/>
       <c r="AQ87" s="59" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AR87" s="26"/>
       <c r="AS87" s="26"/>
@@ -30611,10 +30641,10 @@
         <v>0</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D88" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30649,31 +30679,31 @@
       <c r="AE88" s="17"/>
       <c r="AF88" s="15"/>
       <c r="AG88" s="17" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="AH88" s="17" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="AI88" s="21">
         <v>6823</v>
       </c>
       <c r="AJ88" s="28" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="AK88" s="22" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="AL88" s="22"/>
       <c r="AM88" s="23" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="AN88" s="26"/>
       <c r="AO88" s="17" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="AP88" s="24"/>
       <c r="AQ88" s="17" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AR88" s="26"/>
       <c r="AS88" s="26"/>
@@ -30778,10 +30808,10 @@
         <v>0</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="D89" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30816,35 +30846,35 @@
       <c r="AE89" s="17"/>
       <c r="AF89" s="15"/>
       <c r="AG89" s="17" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="AH89" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AI89" s="21">
         <v>51100</v>
       </c>
       <c r="AJ89" s="28" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AK89" s="22" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="AL89" s="22"/>
       <c r="AM89" s="17"/>
       <c r="AN89" s="26"/>
       <c r="AO89" s="17" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="AP89" s="24"/>
       <c r="AQ89" s="48" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AR89" s="57" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="AS89" s="25" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AT89" s="1">
         <f>RANK(BL89,$BL$3:$BL$122)+COUNTIF(BL$3:BL89,BL89)-1</f>
@@ -30944,13 +30974,13 @@
     </row>
     <row r="90" spans="1:80" s="7" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D90" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30985,26 +31015,26 @@
       <c r="AE90" s="17"/>
       <c r="AF90" s="15"/>
       <c r="AG90" s="17" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="AH90" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AI90" s="21">
         <v>51100</v>
       </c>
       <c r="AJ90" s="28" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="AK90" s="22" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="AL90" s="22"/>
       <c r="AM90" s="23" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="AN90" s="30" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="AO90" s="26"/>
       <c r="AP90" s="24"/>
@@ -31109,13 +31139,13 @@
     </row>
     <row r="91" spans="1:80" s="7" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="D91" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31150,23 +31180,23 @@
       <c r="AE91" s="17"/>
       <c r="AF91" s="15"/>
       <c r="AG91" s="17" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="AH91" s="17" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AI91" s="21">
         <v>2000</v>
       </c>
       <c r="AJ91" s="28" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="AK91" s="22" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="AL91" s="22"/>
       <c r="AM91" s="23" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="AN91" s="30"/>
       <c r="AO91" s="26"/>
@@ -31272,13 +31302,13 @@
     </row>
     <row r="92" spans="1:80" s="7" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="D92" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31313,35 +31343,35 @@
       <c r="AE92" s="17"/>
       <c r="AF92" s="15"/>
       <c r="AG92" s="17" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="AH92" s="17" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="AI92" s="21">
         <v>51370</v>
       </c>
       <c r="AJ92" s="15"/>
       <c r="AK92" s="22" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="AL92" s="22"/>
       <c r="AM92" s="23" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="AN92" s="30"/>
       <c r="AO92" s="17" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="AP92" s="24"/>
       <c r="AQ92" s="30" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AR92" s="49" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AS92" s="25" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AT92" s="1">
         <f>RANK(BL92,$BL$3:$BL$122)+COUNTIF(BL$3:BL92,BL92)-1</f>
@@ -31441,13 +31471,13 @@
     </row>
     <row r="93" spans="1:80" s="7" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B93" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="B93" s="12" t="s">
-        <v>350</v>
-      </c>
       <c r="C93" s="17" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="D93" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31482,31 +31512,31 @@
       <c r="AE93" s="17"/>
       <c r="AF93" s="15"/>
       <c r="AG93" s="17" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="AH93" s="17" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AI93" s="21">
         <v>51530</v>
       </c>
       <c r="AJ93" s="15"/>
       <c r="AK93" s="22" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="AL93" s="22"/>
       <c r="AM93" s="23" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="AN93" s="30"/>
       <c r="AO93" s="17" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="AP93" s="17" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="AQ93" s="30" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="AR93" s="26"/>
       <c r="AS93" s="26"/>
@@ -31608,13 +31638,13 @@
     </row>
     <row r="94" spans="1:80" s="7" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B94" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="B94" s="12" t="s">
-        <v>350</v>
-      </c>
       <c r="C94" s="17" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="D94" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31649,35 +31679,35 @@
       <c r="AE94" s="17"/>
       <c r="AF94" s="15"/>
       <c r="AG94" s="17" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AH94" s="17" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="AI94" s="17">
         <v>51120</v>
       </c>
       <c r="AJ94" s="15"/>
       <c r="AK94" s="22" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="AL94" s="22"/>
       <c r="AM94" s="17"/>
       <c r="AN94" s="30"/>
       <c r="AO94" s="48" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="AP94" s="17" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="AQ94" s="30" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="AR94" s="60" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="AS94" s="25" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AT94" s="1">
         <f>RANK(BL94,$BL$3:$BL$122)+COUNTIF(BL$3:BL94,BL94)-1</f>
@@ -31777,13 +31807,13 @@
     </row>
     <row r="95" spans="1:80" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="D95" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31818,23 +31848,23 @@
       <c r="AE95" s="17"/>
       <c r="AF95" s="15"/>
       <c r="AG95" s="17" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="AH95" s="17" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="AI95" s="21">
         <v>51000</v>
       </c>
       <c r="AJ95" s="28" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="AK95" s="22" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="AL95" s="22"/>
       <c r="AM95" s="23" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="AN95" s="15"/>
       <c r="AO95" s="26"/>
@@ -31940,13 +31970,13 @@
     </row>
     <row r="96" spans="1:80" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="D96" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31981,34 +32011,34 @@
       <c r="AE96" s="17"/>
       <c r="AF96" s="15"/>
       <c r="AG96" s="17" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="AH96" s="17" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="AI96" s="21">
         <v>60550</v>
       </c>
       <c r="AJ96" s="28" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="AK96" s="22" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="AL96" s="22"/>
       <c r="AM96" s="23" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="AN96" s="15"/>
       <c r="AO96" s="17" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="AP96" s="24"/>
       <c r="AQ96" s="48" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="AR96" s="60" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="AS96" s="26"/>
       <c r="AT96" s="1">
@@ -32109,13 +32139,13 @@
     </row>
     <row r="97" spans="1:80" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
       <c r="D97" s="73" t="str">
         <f t="shared" si="38"/>
@@ -32150,34 +32180,34 @@
       <c r="AE97" s="17"/>
       <c r="AF97" s="15"/>
       <c r="AG97" s="17" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="AH97" s="17" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="AI97" s="21">
         <v>94700</v>
       </c>
       <c r="AJ97" s="28" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="AK97" s="22" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="AL97" s="22"/>
       <c r="AM97" s="23" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="AN97" s="30"/>
       <c r="AO97" s="17" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="AP97" s="24"/>
       <c r="AQ97" s="17" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="AR97" s="60" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="AS97" s="26"/>
       <c r="AT97" s="1">
@@ -32278,13 +32308,13 @@
     </row>
     <row r="98" spans="1:80" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="D98" s="73" t="str">
         <f t="shared" si="38"/>
@@ -32319,29 +32349,29 @@
       <c r="AE98" s="17"/>
       <c r="AF98" s="15"/>
       <c r="AG98" s="17" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="AH98" s="17" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="AI98" s="21">
         <v>10400</v>
       </c>
       <c r="AJ98" s="15"/>
       <c r="AK98" s="22" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="AL98" s="22"/>
       <c r="AM98" s="23" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="AN98" s="26"/>
       <c r="AO98" s="17" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="AP98" s="24"/>
       <c r="AQ98" s="30" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="AR98" s="26"/>
       <c r="AS98" s="26"/>
@@ -32443,13 +32473,13 @@
     </row>
     <row r="99" spans="1:80" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="B99" s="12" t="s">
         <v>779</v>
       </c>
-      <c r="B99" s="12" t="s">
-        <v>787</v>
-      </c>
       <c r="C99" s="17" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="D99" s="73" t="str">
         <f t="shared" ref="D99:D128" si="57">IF(AX99&lt;&gt;0,"2020_A="&amp;AX99," ")&amp;IF(AY99&lt;&gt;0," ; 2020_i="&amp;AY99," ")&amp;IF(AZ99&lt;&gt;0,"2019_A="&amp;AZ99," ")&amp;IF(BA99&lt;&gt;0," ; 2019_i="&amp;BA99," ")&amp;IF(BB99&lt;&gt;0,"2018_A="&amp;BB99," ")&amp;IF(BC99&lt;&gt;0," ; 2018_i="&amp;BC99," ")&amp;IF(BD99&lt;&gt;0," ; 2017_A="&amp;BD99," ")&amp;IF(BE99&lt;&gt;0," ; 2017_i="&amp;BE99," ")&amp;IF(BF99&lt;&gt;0," ; 2016_A="&amp;BF99," ")&amp;IF(BG99&lt;&gt;0," ; 2016_i="&amp;BG99," ")&amp;IF(BH99&lt;&gt;0," ; 2015_A="&amp;BH99," ")&amp;IF(BI99&lt;&gt;0," ; 2015_i="&amp;BI99," ")&amp;IF(BJ99&lt;&gt;0," ; 2014_A="&amp;BJ99," ")&amp;IF(BK99&lt;&gt;0," ; 2014_i="&amp;BK99," ")</f>
@@ -32484,39 +32514,39 @@
       <c r="AE99" s="17"/>
       <c r="AF99" s="15"/>
       <c r="AG99" s="17" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="AH99" s="17" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AI99" s="21">
         <v>51110</v>
       </c>
       <c r="AJ99" s="28" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="AK99" s="22" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="AL99" s="22"/>
       <c r="AM99" s="23" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="AN99" s="26"/>
       <c r="AO99" s="17" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="AP99" s="17" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="AQ99" s="30" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="AR99" s="23" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="AS99" s="25" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AT99" s="1">
         <f>RANK(BL99,$BL$3:$BL$122)+COUNTIF(BL$3:BL99,BL99)-1</f>
@@ -32616,13 +32646,13 @@
     </row>
     <row r="100" spans="1:80" s="7" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="D100" s="73" t="str">
         <f t="shared" si="57"/>
@@ -32657,35 +32687,35 @@
       <c r="AE100" s="17"/>
       <c r="AF100" s="15"/>
       <c r="AG100" s="17" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="AH100" s="17" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AI100" s="21">
         <v>51300</v>
       </c>
       <c r="AJ100" s="28" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="AK100" s="22" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="AL100" s="22"/>
       <c r="AM100" s="23" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="AN100" s="26"/>
       <c r="AO100" s="17" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="AP100" s="17"/>
       <c r="AQ100" s="30" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="AR100" s="23"/>
       <c r="AS100" s="25" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AT100" s="1">
         <f>RANK(BL100,$BL$3:$BL$122)+COUNTIF(BL$3:BL100,BL100)-1</f>
@@ -32785,13 +32815,13 @@
     </row>
     <row r="101" spans="1:80" s="7" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D101" s="73" t="str">
         <f t="shared" si="57"/>
@@ -32826,27 +32856,27 @@
       <c r="AE101" s="17"/>
       <c r="AF101" s="15"/>
       <c r="AG101" s="17" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="AH101" s="17" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="AI101" s="21">
         <v>77200</v>
       </c>
       <c r="AJ101" s="28" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="AK101" s="22" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="AL101" s="22"/>
       <c r="AM101" s="23" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="AN101" s="15"/>
       <c r="AO101" s="48" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="AP101" s="24"/>
       <c r="AQ101" s="26"/>
@@ -32950,13 +32980,13 @@
     </row>
     <row r="102" spans="1:80" s="13" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="D102" s="73" t="str">
         <f t="shared" si="57"/>
@@ -32991,37 +33021,37 @@
       <c r="AE102" s="17"/>
       <c r="AF102" s="15"/>
       <c r="AG102" s="17" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="AH102" s="17" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="AI102" s="21">
         <v>51689</v>
       </c>
       <c r="AJ102" s="28" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="AK102" s="22" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="AL102" s="22"/>
       <c r="AM102" s="23" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="AN102" s="17" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="AO102" s="17" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="AP102" s="24"/>
       <c r="AQ102" s="26"/>
       <c r="AR102" s="60" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="AS102" s="25" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AT102" s="1">
         <f>RANK(BL102,$BL$3:$BL$122)+COUNTIF(BL$3:BL102,BL102)-1</f>
@@ -33121,13 +33151,13 @@
     </row>
     <row r="103" spans="1:80" s="27" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="D103" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33162,34 +33192,34 @@
       <c r="AE103" s="17"/>
       <c r="AF103" s="15"/>
       <c r="AG103" s="17" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="AH103" s="17" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="AI103" s="21">
         <v>60310</v>
       </c>
       <c r="AJ103" s="28" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="AK103" s="22" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="AL103" s="22"/>
       <c r="AM103" s="23" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="AN103" s="17"/>
       <c r="AO103" s="17" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="AP103" s="24"/>
       <c r="AQ103" s="48" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="AR103" s="23" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="AS103" s="25"/>
       <c r="AT103" s="1">
@@ -33290,13 +33320,13 @@
     </row>
     <row r="104" spans="1:80" s="26" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="D104" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33323,30 +33353,30 @@
       <c r="AE104" s="17"/>
       <c r="AF104" s="15"/>
       <c r="AG104" s="17" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="AH104" s="17" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="AI104" s="21">
         <v>60610</v>
       </c>
       <c r="AJ104" s="28" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="AK104" s="22" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="AL104" s="22"/>
       <c r="AM104" s="23" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="AP104" s="24"/>
       <c r="AQ104" s="30" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="AR104" s="60" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="AT104" s="1">
         <f>RANK(BL104,$BL$3:$BL$122)+COUNTIF(BL$3:BL104,BL104)-1</f>
@@ -33446,13 +33476,13 @@
     </row>
     <row r="105" spans="1:80" s="13" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="D105" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33490,18 +33520,18 @@
         <v>13</v>
       </c>
       <c r="AH105" s="17" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="AI105" s="21">
         <v>45800</v>
       </c>
       <c r="AJ105" s="28"/>
       <c r="AK105" s="22" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="AL105" s="22"/>
       <c r="AM105" s="23" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="AN105" s="26"/>
       <c r="AO105" s="26"/>
@@ -33607,13 +33637,13 @@
     </row>
     <row r="106" spans="1:80" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="D106" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33640,36 +33670,36 @@
       <c r="AE106" s="17"/>
       <c r="AF106" s="15"/>
       <c r="AG106" s="17" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="AH106" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AI106" s="21">
         <v>51100</v>
       </c>
       <c r="AJ106" s="15"/>
       <c r="AK106" s="22" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="AL106" s="22"/>
       <c r="AM106" s="23" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="AN106" s="17" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="AO106" s="17" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="AP106" s="17" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="AQ106" s="17" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="AR106" s="60" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="AT106" s="1">
         <f>RANK(BL106,$BL$3:$BL$122)+COUNTIF(BL$3:BL106,BL106)-1</f>
@@ -33769,13 +33799,13 @@
     </row>
     <row r="107" spans="1:80" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="D107" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33810,29 +33840,29 @@
       <c r="AE107" s="17"/>
       <c r="AF107" s="15"/>
       <c r="AG107" s="17" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="AH107" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AI107" s="21">
         <v>51100</v>
       </c>
       <c r="AJ107" s="28" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="AK107" s="22" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="AL107" s="22"/>
       <c r="AM107" s="23" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="AN107" s="17"/>
       <c r="AO107" s="17"/>
       <c r="AP107" s="17"/>
       <c r="AQ107" s="17" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="AR107" s="60"/>
       <c r="AS107" s="26"/>
@@ -33934,13 +33964,13 @@
     </row>
     <row r="108" spans="1:80" s="7" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="D108" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33975,35 +34005,35 @@
       <c r="AE108" s="17"/>
       <c r="AF108" s="17"/>
       <c r="AG108" s="17" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="AH108" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AI108" s="21">
         <v>51100</v>
       </c>
       <c r="AJ108" s="15"/>
       <c r="AK108" s="22" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="AL108" s="22"/>
       <c r="AM108" s="23" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="AN108" s="15"/>
       <c r="AO108" s="17" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="AP108" s="24"/>
       <c r="AQ108" s="17" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="AR108" s="23" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="AS108" s="25" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AT108" s="1">
         <f>RANK(BL108,$BL$3:$BL$122)+COUNTIF(BL$3:BL108,BL108)-1</f>
@@ -34103,13 +34133,13 @@
     </row>
     <row r="109" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="D109" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34144,33 +34174,33 @@
       <c r="AE109" s="17"/>
       <c r="AF109" s="17"/>
       <c r="AG109" s="17" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="AH109" s="17" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="AI109" s="21">
         <v>68490</v>
       </c>
       <c r="AJ109" s="28" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="AK109" s="22" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="AL109" s="22"/>
       <c r="AM109" s="23" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="AN109" s="15"/>
       <c r="AO109" s="17" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="AP109" s="17" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="AQ109" s="29" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="AR109" s="23"/>
       <c r="AS109" s="25"/>
@@ -34272,13 +34302,13 @@
     </row>
     <row r="110" spans="1:80" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="D110" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34313,29 +34343,29 @@
       <c r="AE110" s="17"/>
       <c r="AF110" s="15"/>
       <c r="AG110" s="17" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="AH110" s="17" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="AI110" s="21">
         <v>51140</v>
       </c>
       <c r="AJ110" s="28" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="AK110" s="22" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="AL110" s="22"/>
       <c r="AM110" s="23" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="AN110" s="30"/>
       <c r="AO110" s="26"/>
       <c r="AP110" s="24"/>
       <c r="AQ110" s="29" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="AR110" s="26"/>
       <c r="AS110" s="26"/>
@@ -34437,13 +34467,13 @@
     </row>
     <row r="111" spans="1:80" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="D111" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34478,23 +34508,23 @@
       <c r="AE111" s="17"/>
       <c r="AF111" s="15"/>
       <c r="AG111" s="17" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="AH111" s="17" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="AI111" s="21">
         <v>51140</v>
       </c>
       <c r="AJ111" s="28" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="AK111" s="22" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="AL111" s="22"/>
       <c r="AM111" s="23" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="AN111" s="30"/>
       <c r="AO111" s="26"/>
@@ -34603,10 +34633,10 @@
         <v>0</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D112" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34641,23 +34671,23 @@
       <c r="AE112" s="12"/>
       <c r="AF112" s="19"/>
       <c r="AG112" s="12" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="AH112" s="12" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="AI112" s="31">
         <v>8000</v>
       </c>
       <c r="AJ112" s="28" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="AK112" s="22" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="AL112" s="22"/>
       <c r="AM112" s="23" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="AN112" s="32"/>
       <c r="AO112" s="33"/>
@@ -34763,13 +34793,13 @@
     </row>
     <row r="113" spans="1:80" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D113" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34804,30 +34834,30 @@
       <c r="AE113" s="17"/>
       <c r="AF113" s="15"/>
       <c r="AG113" s="17" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="AH113" s="17" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="AI113" s="21">
         <v>60200</v>
       </c>
       <c r="AJ113" s="28" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="AK113" s="22" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="AL113" s="22"/>
       <c r="AM113" s="23" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="AN113" s="26"/>
       <c r="AO113" s="26"/>
       <c r="AP113" s="24"/>
       <c r="AQ113" s="26"/>
       <c r="AR113" s="23" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="AS113" s="26"/>
       <c r="AT113" s="1">
@@ -34928,13 +34958,13 @@
     </row>
     <row r="114" spans="1:80" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D114" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34969,23 +34999,23 @@
       <c r="AE114" s="17"/>
       <c r="AF114" s="15"/>
       <c r="AG114" s="17" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="AH114" s="17" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="AI114" s="21">
         <v>60000</v>
       </c>
       <c r="AJ114" s="28" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="AK114" s="22" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="AL114" s="22"/>
       <c r="AM114" s="23" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="AN114" s="15"/>
       <c r="AO114" s="26"/>
@@ -35091,13 +35121,13 @@
     </row>
     <row r="115" spans="1:80" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="D115" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35132,28 +35162,28 @@
       <c r="AE115" s="17"/>
       <c r="AF115" s="15"/>
       <c r="AG115" s="17" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="AH115" s="17" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="AI115" s="21">
         <v>60000</v>
       </c>
       <c r="AJ115" s="28"/>
       <c r="AK115" s="22" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="AL115" s="22"/>
       <c r="AM115" s="23" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="AN115" s="15"/>
       <c r="AO115" s="26"/>
       <c r="AP115" s="24"/>
       <c r="AQ115" s="26"/>
       <c r="AR115" s="42" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="AS115" s="26"/>
       <c r="AT115" s="1">
@@ -35254,13 +35284,13 @@
     </row>
     <row r="116" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="D116" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35295,23 +35325,23 @@
       <c r="AE116" s="17"/>
       <c r="AF116" s="15"/>
       <c r="AG116" s="17" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="AH116" s="17" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="AI116" s="21">
         <v>8090</v>
       </c>
       <c r="AJ116" s="28" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="AK116" s="22" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="AL116" s="22"/>
       <c r="AM116" s="23" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="AN116" s="15"/>
       <c r="AO116" s="26"/>
@@ -35417,13 +35447,13 @@
     </row>
     <row r="117" spans="1:80" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="D117" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35458,23 +35488,23 @@
       <c r="AE117" s="17"/>
       <c r="AF117" s="15"/>
       <c r="AG117" s="17" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="AH117" s="17" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="AI117" s="21">
         <v>21000</v>
       </c>
       <c r="AJ117" s="28" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="AK117" s="22" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="AL117" s="22"/>
       <c r="AM117" s="23" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="AN117" s="32"/>
       <c r="AO117" s="26"/>
@@ -35580,13 +35610,13 @@
     </row>
     <row r="118" spans="1:80" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="D118" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35621,27 +35651,27 @@
       <c r="AE118" s="17"/>
       <c r="AF118" s="15"/>
       <c r="AG118" s="17" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="AH118" s="17" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="AI118" s="21">
         <v>60200</v>
       </c>
       <c r="AJ118" s="28" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AK118" s="22" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="AL118" s="22"/>
       <c r="AM118" s="23" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="AN118" s="15"/>
       <c r="AO118" s="61" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="AP118" s="24"/>
       <c r="AQ118" s="26"/>
@@ -35745,13 +35775,13 @@
     </row>
     <row r="119" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D119" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35786,23 +35816,23 @@
       <c r="AE119" s="17"/>
       <c r="AF119" s="15"/>
       <c r="AG119" s="17" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="AH119" s="17" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="AI119" s="21">
         <v>60200</v>
       </c>
       <c r="AJ119" s="28" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="AK119" s="22" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="AL119" s="22"/>
       <c r="AM119" s="23" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="AN119" s="15"/>
       <c r="AO119" s="61"/>
@@ -35908,13 +35938,13 @@
     </row>
     <row r="120" spans="1:80" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="D120" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35949,23 +35979,23 @@
       <c r="AE120" s="17"/>
       <c r="AF120" s="15"/>
       <c r="AG120" s="17" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="AH120" s="17" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="AI120" s="21">
         <v>60000</v>
       </c>
       <c r="AJ120" s="28" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="AK120" s="22" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="AL120" s="22"/>
       <c r="AM120" s="23" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="AN120" s="15"/>
       <c r="AO120" s="26"/>
@@ -36071,13 +36101,13 @@
     </row>
     <row r="121" spans="1:80" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D121" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36112,23 +36142,23 @@
       <c r="AE121" s="17"/>
       <c r="AF121" s="15"/>
       <c r="AG121" s="17" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="AH121" s="17" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AI121" s="21">
         <v>67000</v>
       </c>
       <c r="AJ121" s="28" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="AK121" s="22" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="AL121" s="22"/>
       <c r="AM121" s="23" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="AN121" s="15"/>
       <c r="AO121" s="26"/>
@@ -36234,13 +36264,13 @@
     </row>
     <row r="122" spans="1:80" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="D122" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36275,23 +36305,23 @@
       <c r="AE122" s="17"/>
       <c r="AF122" s="15"/>
       <c r="AG122" s="17" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="AH122" s="17" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="AI122" s="21">
         <v>21121</v>
       </c>
       <c r="AJ122" s="28" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="AK122" s="22" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="AL122" s="22"/>
       <c r="AM122" s="23" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="AN122" s="15"/>
       <c r="AO122" s="26"/>
@@ -36397,13 +36427,13 @@
     </row>
     <row r="123" spans="1:80" ht="105" x14ac:dyDescent="0.25">
       <c r="A123" s="80" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B123" s="80" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="C123" s="81" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="D123" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36438,23 +36468,23 @@
       <c r="AE123" s="81"/>
       <c r="AF123" s="83"/>
       <c r="AG123" s="81" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="AH123" s="81" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="AI123" s="85">
         <v>21800</v>
       </c>
       <c r="AJ123" s="87" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="AK123" s="88" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="AL123" s="88"/>
       <c r="AM123" s="89" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="AN123" s="111"/>
       <c r="AO123" s="72"/>
@@ -36550,13 +36580,13 @@
     </row>
     <row r="124" spans="1:80" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="101" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B124" s="101" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="C124" s="102" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="D124" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36591,19 +36621,19 @@
       <c r="AE124" s="102"/>
       <c r="AF124" s="104"/>
       <c r="AG124" s="102" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="AH124" s="102" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="AI124" s="106">
         <v>21000</v>
       </c>
       <c r="AJ124" s="107" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="AK124" s="108" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="AL124" s="108"/>
       <c r="AM124" s="109"/>
@@ -36701,13 +36731,13 @@
     </row>
     <row r="125" spans="1:80" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="101" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B125" s="101" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="C125" s="102" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="D125" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36742,23 +36772,23 @@
       <c r="AE125" s="102"/>
       <c r="AF125" s="104"/>
       <c r="AG125" s="102" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="AH125" s="102" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="AI125" s="106">
         <v>21300</v>
       </c>
       <c r="AJ125" s="107" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="AK125" s="108" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="AL125" s="108"/>
       <c r="AM125" s="109" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="AN125" s="110"/>
       <c r="AO125" s="7"/>
@@ -36854,13 +36884,13 @@
     </row>
     <row r="126" spans="1:80" ht="105" x14ac:dyDescent="0.25">
       <c r="A126" s="101" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B126" s="101" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="C126" s="102" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="D126" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36895,23 +36925,23 @@
       <c r="AE126" s="102"/>
       <c r="AF126" s="104"/>
       <c r="AG126" s="102" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="AH126" s="102" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="AI126" s="106">
         <v>21800</v>
       </c>
       <c r="AJ126" s="107" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="AK126" s="108" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="AL126" s="108"/>
       <c r="AM126" s="109" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="AN126" s="110"/>
       <c r="AO126" s="7"/>
@@ -37007,13 +37037,13 @@
     </row>
     <row r="127" spans="1:80" s="123" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="101" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B127" s="101" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="C127" s="102" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D127" s="73" t="str">
         <f t="shared" si="57"/>
@@ -37048,23 +37078,23 @@
       <c r="AE127" s="102"/>
       <c r="AF127" s="104"/>
       <c r="AG127" s="102" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="AH127" s="102" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="AI127" s="106">
         <v>21600</v>
       </c>
       <c r="AJ127" s="107" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="AK127" s="108" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="AL127" s="108"/>
       <c r="AM127" s="109" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="AN127" s="104"/>
       <c r="AO127" s="7"/>
@@ -37170,13 +37200,13 @@
     </row>
     <row r="128" spans="1:80" s="98" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="115" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
       <c r="B128" s="113" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="D128" s="73" t="str">
         <f t="shared" si="57"/>
@@ -37191,13 +37221,13 @@
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
       <c r="M128" s="98" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="N128" s="114" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="O128" s="98" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="P128" s="2"/>
       <c r="R128" s="119"/>
@@ -37216,23 +37246,23 @@
       <c r="AE128" s="8"/>
       <c r="AF128" s="2"/>
       <c r="AG128" s="116" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="AH128" s="98" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="AI128" s="117">
         <v>92390</v>
       </c>
       <c r="AJ128" s="107" t="s">
-        <v>1117</v>
+        <v>1109</v>
       </c>
       <c r="AK128" s="108" t="s">
-        <v>1118</v>
+        <v>1110</v>
       </c>
       <c r="AL128" s="108"/>
       <c r="AM128" s="109" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
       <c r="AN128" s="5"/>
       <c r="AO128" s="2"/>
@@ -42458,106 +42488,99 @@
   <hyperlinks>
     <hyperlink ref="AJ34" r:id="rId1" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?q=bonduel+traiteur+saint+benoit+aubes&amp;spell=1&amp;sa=X&amp;ved=0ahUKEwieraex6dDaAhVJCsAKHa6QDkUQBQglKAA&amp;biw=1380&amp;bih=691" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="AK65" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="AK48" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="AK75" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="AJ75" r:id="rId5" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=mBPeWu3qBY74gQbJ96-oDw&amp;q=yoplait+89470+++MONETEAU%09&amp;oq=yoplait+89470+++MONETEAU%09&amp;gs_l=psy-ab.3...326368.328121.0.329148.9.7.0.2.2.0.239.710.0j2j2.4.0....0...1c.1.64.psy-ab..4.4.401...0j0i67k1.0.3xByPNYC4yY" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="AK69" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="AJ69" r:id="rId7" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=4hTeWv_kDeXXgAbotpyYAg&amp;q=Fromagerie+RENARD-GILLARD%0955290++BIENCOURT+SUR+ORGE&amp;oq=Fromagerie+RENARD-GILLARD%0955290++BIENCOURT+SUR+ORGE&amp;gs_l=psy-ab.3...307263.318025.0.319529.2.2.0.0.0.0.346.468.0j1j0j1.2.0....0...1c.1j2.64.psy-ab..0.1.345...38j0i22i30k1.0.IaaI2w9RkVg" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="AJ47" r:id="rId8" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=1hfeWp6TCMeQgAa5rKXYBg&amp;q=lactinov+Zone+industrielle+des+Waillons%2C&amp;oq=lactinov+Zone+industrielle+des+Waillons%2C&amp;gs_l=psy-ab.3...118248.121573.0.122713.8.8.0.0.0.0.270.856.0j4j1.5.0....0...1c.1.64.psy-ab..3.0.0....0.R_37DFVeIEk" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="AK51" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="AJ51" r:id="rId10" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=iRneWveTOoeXgAbxmIKoDQ&amp;q=Canelia+Rouvroy+Poudre%09&amp;oq=Canelia+Rouvroy+Poudre%09&amp;gs_l=psy-ab.3..0j0i22i30k1l2j38l2.729255.729255.0.729873.1.1.0.0.0.0.408.408.4-1.1.0....0...1c.1.64.psy-ab..0.1.408....0.v8RWG58iatQ" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="AJ40" r:id="rId11" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?source=hp&amp;ei=Wh_eWqnFK4H0gAby1rroAQ&amp;q=cristanol+bazancourt&amp;oq=cristanol+bazancourt&amp;gs_l=psy-ab.3..0l3j0i22i30k1l4.1078.6763.0.7247.25.20.0.0.0.0.397.2564.0j7j4j1.12.0....0...1c.1.64.psy-ab..13.11.2391.0..35i39k1j0i67k1j0i131k1j0i10i67k1j0i10k1j0i10i203k1j0i30k1j0i10i30k1.0.Ylb1TxZHSno" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="AJ60" r:id="rId12" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?ei=Yh_eWpDnMsnLgAaFvIzwAg&amp;q=union+champagne+avize&amp;oq=union+champagne+avize&amp;gs_l=psy-ab.3..0l3.239180.244298.0.244969.21.16.0.5.5.0.235.1850.0j11j1.12.0....0...1c.1.64.psy-ab..4.17.1902...0i131k1j0i22i30k1.0.4NZh1uYSY6I" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="AK60" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="AJ12" r:id="rId14" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?ei=hqjgWrf7D-WVgAaajqb4Bg&amp;q=vivescia%20reims&amp;oq=vivescia+reims&amp;gs_l=psy-ab.3..0l3j0i22i30k1l7.110048.112300.0.112635.14.13.0.1.1.0.181.1425.0j10.10.0....0...1c.1.64.psy-ab..3.11.1435...35i39k1j0i131k1.0.j8KcD_SAUYk&amp;npsic=0&amp;rflfq=1&amp;rlha=0&amp;rllag=49231434,4074548,460&amp;tbm=lcl&amp;rldimm=13708956538798387191&amp;ved=0ahUKEwjFh4up6dXaAhVMBsAKHTFkCAMQvS4IOzAC&amp;rldoc=1&amp;tbs=lrf:!3sIAE,lf:1,lf_ui:4&amp;rlst=f" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="AR12" r:id="rId15" display="mailto:maxime.françois@vivescia.com" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="AK54" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="AJ54" r:id="rId17" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?q=KALIZEA+reims&amp;sa=X&amp;ved=0ahUKEwjJ9dug6tXaAhWqD8AKHZiSDzYQuzEICigA&amp;biw=1467&amp;bih=703" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="AK55" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="AJ7" r:id="rId19" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=pavgWrGFM8-0gQbpwIbQCQ&amp;q=fofralab+magenta&amp;oq=fofralab+magenta&amp;gs_l=psy-ab.3..0i13k1.387029.391164.0.391634.16.16.0.0.0.0.329.1969.0j6j3j1.10.0....0...1c.1.64.psy-ab..6.10.1960...0j35i39k1j0i67k1j0i131k1j0i131i67k1j0i10k1j0i10i19k1j0i13i5i10i30i19k1j0i13i30k1.0.Mbr8qt9fctI" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="AK63" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="AJ63" r:id="rId21" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=ZrDgWrTvMJqvgAbRn67gDA&amp;q=malteurop+vitry+le+francois&amp;oq=malteurop+vitry+le+francois&amp;gs_l=psy-ab.3..0i71k1l8.5807.5807.0.5976.1.1.0.0.0.0.0.0..0.0....0...1c..64.psy-ab..1.0.0....0.jIvwkzJYj6k" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="AR63" r:id="rId22" display="mailto:stephanie.grosjean@malteurop.com" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="AK72" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="AJ72" r:id="rId24" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=sbLgWvDKBIPAgAb2hIOIAQ&amp;q=MARLENHEIM+p%C3%A2tes&amp;oq=MARLENHEIM+p%C3%A2tes&amp;gs_l=psy-ab.3..33i22i29i30k1.6854.9853.0.10011.6.6.0.0.0.0.215.723.0j4j1.5.0....0...1c.1.64.psy-ab..1.4.507...0j0i67k1j0i22i30k1j33i160k1.0.2DQBZ7EcKCc" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="AK57" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="AJ57" r:id="rId26" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=vLLgWurlG4LZgQbt-YOwDw&amp;q=chamtor+pomacle&amp;oq=chamtor+pomacle&amp;gs_l=psy-ab.3..0i22i30k1.568190.572873.0.573230.15.12.0.3.3.0.296.1174.0j5j2.7.0....0...1c.1.64.psy-ab..5.10.1204...0j35i39k1j0i10i67k1j0i131k1j0i20i263k1j0i10k1j0i203k1j0i30k1j0i10i30k1.0.BuriVhJD9fU" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="AK50" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="AR50" r:id="rId28" display="mailto:theret@babynov.fr" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="AK75" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AJ75" r:id="rId4" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=mBPeWu3qBY74gQbJ96-oDw&amp;q=yoplait+89470+++MONETEAU%09&amp;oq=yoplait+89470+++MONETEAU%09&amp;gs_l=psy-ab.3...326368.328121.0.329148.9.7.0.2.2.0.239.710.0j2j2.4.0....0...1c.1.64.psy-ab..4.4.401...0j0i67k1.0.3xByPNYC4yY" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="AK69" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="AJ69" r:id="rId6" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=4hTeWv_kDeXXgAbotpyYAg&amp;q=Fromagerie+RENARD-GILLARD%0955290++BIENCOURT+SUR+ORGE&amp;oq=Fromagerie+RENARD-GILLARD%0955290++BIENCOURT+SUR+ORGE&amp;gs_l=psy-ab.3...307263.318025.0.319529.2.2.0.0.0.0.346.468.0j1j0j1.2.0....0...1c.1j2.64.psy-ab..0.1.345...38j0i22i30k1.0.IaaI2w9RkVg" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="AJ47" r:id="rId7" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=1hfeWp6TCMeQgAa5rKXYBg&amp;q=lactinov+Zone+industrielle+des+Waillons%2C&amp;oq=lactinov+Zone+industrielle+des+Waillons%2C&amp;gs_l=psy-ab.3...118248.121573.0.122713.8.8.0.0.0.0.270.856.0j4j1.5.0....0...1c.1.64.psy-ab..3.0.0....0.R_37DFVeIEk" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="AJ51" r:id="rId8" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=iRneWveTOoeXgAbxmIKoDQ&amp;q=Canelia+Rouvroy+Poudre%09&amp;oq=Canelia+Rouvroy+Poudre%09&amp;gs_l=psy-ab.3..0j0i22i30k1l2j38l2.729255.729255.0.729873.1.1.0.0.0.0.408.408.4-1.1.0....0...1c.1.64.psy-ab..0.1.408....0.v8RWG58iatQ" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="AJ40" r:id="rId9" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?source=hp&amp;ei=Wh_eWqnFK4H0gAby1rroAQ&amp;q=cristanol+bazancourt&amp;oq=cristanol+bazancourt&amp;gs_l=psy-ab.3..0l3j0i22i30k1l4.1078.6763.0.7247.25.20.0.0.0.0.397.2564.0j7j4j1.12.0....0...1c.1.64.psy-ab..13.11.2391.0..35i39k1j0i67k1j0i131k1j0i10i67k1j0i10k1j0i10i203k1j0i30k1j0i10i30k1.0.Ylb1TxZHSno" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="AJ60" r:id="rId10" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?ei=Yh_eWpDnMsnLgAaFvIzwAg&amp;q=union+champagne+avize&amp;oq=union+champagne+avize&amp;gs_l=psy-ab.3..0l3.239180.244298.0.244969.21.16.0.5.5.0.235.1850.0j11j1.12.0....0...1c.1.64.psy-ab..4.17.1902...0i131k1j0i22i30k1.0.4NZh1uYSY6I" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="AK60" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="AJ12" r:id="rId12" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?ei=hqjgWrf7D-WVgAaajqb4Bg&amp;q=vivescia%20reims&amp;oq=vivescia+reims&amp;gs_l=psy-ab.3..0l3j0i22i30k1l7.110048.112300.0.112635.14.13.0.1.1.0.181.1425.0j10.10.0....0...1c.1.64.psy-ab..3.11.1435...35i39k1j0i131k1.0.j8KcD_SAUYk&amp;npsic=0&amp;rflfq=1&amp;rlha=0&amp;rllag=49231434,4074548,460&amp;tbm=lcl&amp;rldimm=13708956538798387191&amp;ved=0ahUKEwjFh4up6dXaAhVMBsAKHTFkCAMQvS4IOzAC&amp;rldoc=1&amp;tbs=lrf:!3sIAE,lf:1,lf_ui:4&amp;rlst=f" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="AR12" r:id="rId13" display="mailto:maxime.françois@vivescia.com" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="AJ54" r:id="rId14" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?q=KALIZEA+reims&amp;sa=X&amp;ved=0ahUKEwjJ9dug6tXaAhWqD8AKHZiSDzYQuzEICigA&amp;biw=1467&amp;bih=703" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="AK55" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="AJ7" r:id="rId16" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=pavgWrGFM8-0gQbpwIbQCQ&amp;q=fofralab+magenta&amp;oq=fofralab+magenta&amp;gs_l=psy-ab.3..0i13k1.387029.391164.0.391634.16.16.0.0.0.0.329.1969.0j6j3j1.10.0....0...1c.1.64.psy-ab..6.10.1960...0j35i39k1j0i67k1j0i131k1j0i131i67k1j0i10k1j0i10i19k1j0i13i5i10i30i19k1j0i13i30k1.0.Mbr8qt9fctI" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="AK63" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="AJ63" r:id="rId18" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=ZrDgWrTvMJqvgAbRn67gDA&amp;q=malteurop+vitry+le+francois&amp;oq=malteurop+vitry+le+francois&amp;gs_l=psy-ab.3..0i71k1l8.5807.5807.0.5976.1.1.0.0.0.0.0.0..0.0....0...1c..64.psy-ab..1.0.0....0.jIvwkzJYj6k" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="AR63" r:id="rId19" display="mailto:stephanie.grosjean@malteurop.com" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="AK72" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="AJ72" r:id="rId21" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=sbLgWvDKBIPAgAb2hIOIAQ&amp;q=MARLENHEIM+p%C3%A2tes&amp;oq=MARLENHEIM+p%C3%A2tes&amp;gs_l=psy-ab.3..33i22i29i30k1.6854.9853.0.10011.6.6.0.0.0.0.215.723.0j4j1.5.0....0...1c.1.64.psy-ab..1.4.507...0j0i67k1j0i22i30k1j33i160k1.0.2DQBZ7EcKCc" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="AK57" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="AJ57" r:id="rId23" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=vLLgWurlG4LZgQbt-YOwDw&amp;q=chamtor+pomacle&amp;oq=chamtor+pomacle&amp;gs_l=psy-ab.3..0i22i30k1.568190.572873.0.573230.15.12.0.3.3.0.296.1174.0j5j2.7.0....0...1c.1.64.psy-ab..5.10.1204...0j35i39k1j0i10i67k1j0i131k1j0i20i263k1j0i10k1j0i203k1j0i30k1j0i10i30k1.0.BuriVhJD9fU" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="AR50" r:id="rId24" display="mailto:theret@babynov.fr" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
     <hyperlink ref="AK74" display="https://www.google.fr/maps/place/Nutribio+(Barres+C%C3%A9r%C3%A9ales)/@50.1617921,2.3213815,17z/data=!4m12!1m6!3m5!1s0x47dd7082a4a62a79:0xafc357a0aaaf722b!2sCofranlait!8m2!3d50.1606202!4d2.3240262!3m4!1s0x47dd709dcc850bc9:0x21cdef0b722c71c5!8m2!3d50.16256" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="AK53" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="AJ53" r:id="rId30" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=RsbgWsefAeuZgAbg567IAw&amp;q=bister+10800+SAINT-THIBAULT&amp;oq=bister+10800+SAINT-THIBAULT&amp;gs_l=psy-ab.3...45431.46651.0.47492.8.8.0.0.0.0.236.895.0j3j2.5.0....0...1c.1.64.psy-ab..3.4.755...0j35i39k1j0i131k1j0i67k1j0i10k1j0i203k1.0.j49N90zVObY" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="AK66" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="AQ66" r:id="rId32" display="http://03.26.67.16.45/" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="AJ53" r:id="rId25" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=RsbgWsefAeuZgAbg567IAw&amp;q=bister+10800+SAINT-THIBAULT&amp;oq=bister+10800+SAINT-THIBAULT&amp;gs_l=psy-ab.3...45431.46651.0.47492.8.8.0.0.0.0.236.895.0j3j2.5.0....0...1c.1.64.psy-ab..3.4.755...0j35i39k1j0i131k1j0i67k1j0i10k1j0i203k1.0.j49N90zVObY" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="AK66" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="AQ66" r:id="rId27" display="http://03.26.67.16.45/" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="AK70" display="https://www.google.com/search?client=firefox-b-ab&amp;q=LESAFFRE+INTERNATIONAL+%09137+rue+gabriel+P%C3%A9ri%09MARCQ+EN+BAROEUL%0959700&amp;npsic=0&amp;rflfq=1&amp;rlha=0&amp;rllag=50672542,3079001,237&amp;tbm=lcl&amp;ved=0ahUKEwik1s3epOzaAhXkCsAKHXyYDl4QtgMIKg&amp;tbs=lrf:!2m1!1e2!3sIAE" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="AK67" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="AK67" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="AK62" display="https://www.google.fr/maps/place/5+Rue+Henri+Martin,+51200+%C3%89pernay/@49.03997,3.955612,18z/data=!3m1!4b1!4m8!1m2!2m1!1sCoop%C3%A9rative+R%C3%A9gionale+des+Vins+de+Champagne+5+rue+henri+martin!3m4!1s0x47e96b4f254c4b7f:0x2f30202f02c1afd2!8m2!3d49.039968" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="AK56" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="AR56" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="AJ62" r:id="rId36" display="http://03.26.51.19.30/" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="AK61" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="AK58" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="AR31" r:id="rId39" display="mailto:barbara.fromentin@pernod-ricard.com" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="AK64" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="AK59" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="AR59" r:id="rId42" display="mailto:f.pichard@distillerie-goyard.com" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="AR7" r:id="rId43" display="clebrishoual@sofralab.com" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="AK71" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="AK52" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="AK49" display="https://www.google.com/maps/place/Roquette+Fr%C3%A8res/@49.3962371,3.1070116,17z/data=!4m13!1m7!3m6!1s0x47e8637834193e7d:0x4e99f3d83b438dc6!2sRoute+de+Compi%C3%A8gne,+02290+Montigny-Lengrain!3b1!8m2!3d49.3958167!4d3.1021602!3m4!1s0x47e86379cc96af81:0x8b54" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="AR92" r:id="rId46" display="mailto:aurelie.gantet@reimsmetropole.fr" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="AR104" r:id="rId47" display="mailto:thor.hpc@thor.com" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="AR106" r:id="rId48" display="mailto:katia.savary@univ-reims.fr" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="AR9" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="AR51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="AJ32" r:id="rId51" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?ei=WSDeWqjRLoPCgAao_rOACQ&amp;q=GRANDS+MOULINS+%28EUROMILL+NORD+REIMS%29&amp;oq=GRANDS+MOULINS+%28EUROMILL+NORD+REIMS%29&amp;gs_l=psy-ab.3...222844.222844.0.223869.1.1.0.0.0.0.361.361.3-1.1.0....0...1c.1.64.psy-ab..0.0.0....0.P1wqGInEwAU" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="AR77" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="AR78" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="AR6" r:id="rId54" display="mailto:mbertemes@mhws.fr" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="AR79" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="AK68" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="AR83" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="AR8" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="AQ52" r:id="rId59" display="Labo08@cq08.fr_x000a_03 24 59 61 53  _x000a_" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="AR52" r:id="rId60" display="mailto:Labo08@cq08.fr" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="AR21" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="AR22" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="AR86" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="AR89" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="AK87" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="AK88" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="AK89" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="AR33" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="AR4" r:id="rId69" display="m.lebrun@soliance.com / " xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="AR99" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="AR102" r:id="rId71" display="mailto:mickael.franchette@eugenemerma.fr" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="AR103" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="AR39" r:id="rId73" display="mailto:floriane.oszust@univ-reims;fr" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="AR42" r:id="rId74" display="mailto:v.verdonk@biotechjboy.com" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="AR108" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="AK56" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="AR56" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="AJ62" r:id="rId31" display="http://03.26.51.19.30/" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="AK61" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="AK58" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="AR31" r:id="rId34" display="mailto:barbara.fromentin@pernod-ricard.com" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="AK64" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="AK59" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="AR59" r:id="rId37" display="mailto:f.pichard@distillerie-goyard.com" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="AR7" r:id="rId38" display="clebrishoual@sofralab.com" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="AK71" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="AR92" r:id="rId40" display="mailto:aurelie.gantet@reimsmetropole.fr" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="AR104" r:id="rId41" display="mailto:thor.hpc@thor.com" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="AR106" r:id="rId42" display="mailto:katia.savary@univ-reims.fr" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="AR9" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="AR51" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="AJ32" r:id="rId45" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?ei=WSDeWqjRLoPCgAao_rOACQ&amp;q=GRANDS+MOULINS+%28EUROMILL+NORD+REIMS%29&amp;oq=GRANDS+MOULINS+%28EUROMILL+NORD+REIMS%29&amp;gs_l=psy-ab.3...222844.222844.0.223869.1.1.0.0.0.0.361.361.3-1.1.0....0...1c.1.64.psy-ab..0.0.0....0.P1wqGInEwAU" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="AR77" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="AR78" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="AR6" r:id="rId48" display="mailto:mbertemes@mhws.fr" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="AR79" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="AK68" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="AR83" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="AR8" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="AQ52" r:id="rId53" display="Labo08@cq08.fr_x000a_03 24 59 61 53  _x000a_" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="AR52" r:id="rId54" display="mailto:Labo08@cq08.fr" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="AR21" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="AR22" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="AR86" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="AR89" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="AK87" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="AK88" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="AK89" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="AR33" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="AR4" r:id="rId63" display="m.lebrun@soliance.com / " xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="AR99" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="AR102" r:id="rId65" display="mailto:mickael.franchette@eugenemerma.fr" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="AR103" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="AR39" r:id="rId67" display="mailto:floriane.oszust@univ-reims;fr" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="AR42" r:id="rId68" display="mailto:v.verdonk@biotechjboy.com" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="AR108" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
     <hyperlink ref="AK108" display="https://www.google.fr/maps/place/49%C2%B014'33.9%22N+4%C2%B003'41.6%22E/@49.242738,4.0606367,18z/data=!3m1!4b1!4m9!1m2!2m1!1sB%C3%A2timent+18+-+UFR+Sciences+Exactes+et+Naturelles,+Laboratoire+SIRMA++++CNRS+3481++!3m5!1s0x0:0x0!7e2!8m2!3d49.2427377!4d4.061" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="AR115" r:id="rId76" display="mailto:info@jnslabs.com" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="AR57" r:id="rId77" xr:uid="{120D4766-2804-834C-B350-0BE7FDA42D38}"/>
-    <hyperlink ref="AK4" r:id="rId78" xr:uid="{6622BBA6-6FF8-4152-B86B-419D1D3F91A2}"/>
-    <hyperlink ref="AK2" r:id="rId79" xr:uid="{CE6BB279-B22D-4886-BA43-EBC7C34ABC98}"/>
-    <hyperlink ref="AK3" r:id="rId80" xr:uid="{AD65CD47-7EFA-468A-823F-E339A9B6D149}"/>
-    <hyperlink ref="AK5" r:id="rId81" xr:uid="{867F9573-C524-43B1-B8BB-393613768702}"/>
-    <hyperlink ref="AK6" r:id="rId82" xr:uid="{BF5452CE-A4A7-4606-BC60-FF976F299AB7}"/>
-    <hyperlink ref="AK7" r:id="rId83" xr:uid="{D6C97649-73D2-49A8-8292-B639FCA92A26}"/>
-    <hyperlink ref="AK8" r:id="rId84" xr:uid="{06A1A36D-1C79-4DDD-8C3C-A29B3AB95216}"/>
-    <hyperlink ref="AK9" r:id="rId85" xr:uid="{E7287CB5-76AD-4369-BEC2-F6381C7644FC}"/>
-    <hyperlink ref="AK10" r:id="rId86" xr:uid="{9180D9EF-8163-43F1-B529-5EF7620CCC98}"/>
-    <hyperlink ref="AK12" r:id="rId87" xr:uid="{7B3178EE-8012-4045-ABA6-770304DA7A0A}"/>
-    <hyperlink ref="AK13" r:id="rId88" xr:uid="{6BF309E0-44F4-4801-A07F-B45D80DAD3B9}"/>
-    <hyperlink ref="AK15" r:id="rId89" xr:uid="{30B8E8AB-484D-4869-9DA7-C84D07A1DFD7}"/>
-    <hyperlink ref="AK17" r:id="rId90" xr:uid="{832F36F7-F6BA-46EB-A5E1-DB9BEB57D0DF}"/>
-    <hyperlink ref="AK18" r:id="rId91" xr:uid="{9154F617-C5AB-49D1-BA5E-806CE4EB594E}"/>
-    <hyperlink ref="AK19" r:id="rId92" xr:uid="{F3B7F5D3-98B0-43C8-A6A6-EFF45964F58D}"/>
-    <hyperlink ref="AK21" r:id="rId93" xr:uid="{8E4BF1A8-8EA1-4025-A588-AE88CCAA2C07}"/>
-    <hyperlink ref="AK23" r:id="rId94" xr:uid="{E24FB1E8-7D8A-43A4-B6D0-9E909F366FEE}"/>
+    <hyperlink ref="AR115" r:id="rId70" display="mailto:info@jnslabs.com" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="AR57" r:id="rId71" xr:uid="{120D4766-2804-834C-B350-0BE7FDA42D38}"/>
+    <hyperlink ref="AK4" r:id="rId72" xr:uid="{6622BBA6-6FF8-4152-B86B-419D1D3F91A2}"/>
+    <hyperlink ref="AK2" r:id="rId73" xr:uid="{CE6BB279-B22D-4886-BA43-EBC7C34ABC98}"/>
+    <hyperlink ref="AK3" r:id="rId74" xr:uid="{AD65CD47-7EFA-468A-823F-E339A9B6D149}"/>
+    <hyperlink ref="AK5" r:id="rId75" xr:uid="{867F9573-C524-43B1-B8BB-393613768702}"/>
+    <hyperlink ref="AK6" r:id="rId76" xr:uid="{BF5452CE-A4A7-4606-BC60-FF976F299AB7}"/>
+    <hyperlink ref="AK7" r:id="rId77" xr:uid="{D6C97649-73D2-49A8-8292-B639FCA92A26}"/>
+    <hyperlink ref="AK8" r:id="rId78" xr:uid="{06A1A36D-1C79-4DDD-8C3C-A29B3AB95216}"/>
+    <hyperlink ref="AK9" r:id="rId79" xr:uid="{E7287CB5-76AD-4369-BEC2-F6381C7644FC}"/>
+    <hyperlink ref="AK10" r:id="rId80" xr:uid="{9180D9EF-8163-43F1-B529-5EF7620CCC98}"/>
+    <hyperlink ref="AK12" r:id="rId81" xr:uid="{7B3178EE-8012-4045-ABA6-770304DA7A0A}"/>
+    <hyperlink ref="AK13" r:id="rId82" xr:uid="{6BF309E0-44F4-4801-A07F-B45D80DAD3B9}"/>
+    <hyperlink ref="AK15" r:id="rId83" xr:uid="{30B8E8AB-484D-4869-9DA7-C84D07A1DFD7}"/>
+    <hyperlink ref="AK17" r:id="rId84" xr:uid="{832F36F7-F6BA-46EB-A5E1-DB9BEB57D0DF}"/>
+    <hyperlink ref="AK18" r:id="rId85" xr:uid="{9154F617-C5AB-49D1-BA5E-806CE4EB594E}"/>
+    <hyperlink ref="AK19" r:id="rId86" xr:uid="{F3B7F5D3-98B0-43C8-A6A6-EFF45964F58D}"/>
+    <hyperlink ref="AK21" r:id="rId87" xr:uid="{8E4BF1A8-8EA1-4025-A588-AE88CCAA2C07}"/>
+    <hyperlink ref="AK23" r:id="rId88" xr:uid="{E24FB1E8-7D8A-43A4-B6D0-9E909F366FEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId95"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId89"/>
 </worksheet>
 </file>
 
@@ -42576,7 +42599,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="171" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="B1" s="172"/>
       <c r="C1" s="172"/>
@@ -42593,14 +42616,14 @@
       <c r="F2" s="176"/>
       <c r="H2" s="68"/>
       <c r="I2" s="69" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="K2" s="70"/>
       <c r="L2" s="69" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="N2" s="167" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="O2" s="168"/>
       <c r="P2" s="168"/>
@@ -42662,7 +42685,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="171" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="B1" s="172"/>
       <c r="C1" s="172"/>
@@ -42681,14 +42704,14 @@
       <c r="G2" s="71"/>
       <c r="H2" s="68"/>
       <c r="I2" s="69" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="K2" s="70"/>
       <c r="L2" s="69" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="N2" s="180" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="O2" s="181"/>
       <c r="P2" s="181"/>

--- a/Entreprises_Complet.xlsx
+++ b/Entreprises_Complet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfial\Documents\00_Stage_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A3FCCCF-FADB-407E-8523-776B055DDDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{234E4734-844F-4F1B-8D19-BFD3E28DE518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="1329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="1350">
   <si>
     <t>Alimentaire</t>
   </si>
@@ -324,9 +324,6 @@
     <t>sucre</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Cristal+Union+Sillery/@49.1897666,4.1522693,15z/data=!4m2!3m1!1s0x0:0xc1e7ce911b140d13?sa=X&amp;ved=0ahUKEwinqa7d69DaAhXKKMAKHUNCBusQ_BIIfTAK</t>
-  </si>
-  <si>
     <t>03 26 61 43 00</t>
   </si>
   <si>
@@ -372,15 +369,9 @@
     <t>uriane@uriane.com</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Yoplait/@47.8371919,3.5826285,15z/data=!4m2!3m1!1s0x0:0xc6e295856fe19848?sa=X&amp;ved=0ahUKEwj_3aOR89DaAhXlK8AKHWgbByMQ_BIIjQEwCg</t>
-  </si>
-  <si>
     <t>Coordinateur laboratoire</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Fromagerie+Renard-Gillard+SAS/@48.5625514,5.34524,15z/data=!4m2!3m1!1s0x0:0xfe93085b9bd1391d?sa=X&amp;ved=0ahUKEwjJ2bSq9NDaAhWFesAKHZ89BDUQ_BIIkQEwCg</t>
-  </si>
-  <si>
     <t>03 29 75 91 82</t>
   </si>
   <si>
@@ -414,9 +405,6 @@
     <t>03 26 57 94 22</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Union+Champagne/@48.9726805,4.0116888,15z/data=!4m2!3m1!1s0x0:0x9d4832d18a8619d4?sa=X&amp;ved=0ahUKEwjo4YaJ_tDaAhUDIcAKHSj_DJAQ_BIInAEwCg</t>
-  </si>
-  <si>
     <t>farines</t>
   </si>
   <si>
@@ -450,9 +438,6 @@
     <t>biscuiterie</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Biscuits+Fossier/@49.2925764,4.0161886,15z/data=!4m2!3m1!1s0x0:0x4f24e13830ea15fa?sa=X&amp;ved=0ahUKEwjx64yZ69XaAhVPWsAKHWmgAZoQ_BIIrQEwCg</t>
-  </si>
-  <si>
     <t>03 26 40 67 67</t>
   </si>
   <si>
@@ -471,9 +456,6 @@
     <t>03 23 55 40 00</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Malteurop/@48.7285424,4.6084138,15z/data=!4m2!3m1!1s0x0:0x6570f29c82e0691?sa=X&amp;ved=0ahUKEwjIiOXg79XaAhWsKsAKHXS2BRYQ_BIIhAEwCg</t>
-  </si>
-  <si>
     <t>03 26 72 11 52</t>
   </si>
   <si>
@@ -486,9 +468,6 @@
     <t>Pâtes Grand'Mère</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Heimburger+Grand'M%C3%A8re/@48.6198662,7.4980281,15z/data=!4m2!3m1!1s0x0:0x19a293210c239cc?sa=X&amp;ved=0ahUKEwjqs7D68dXaAhWCbMAKHe38APYQ_BIIoAEwCg</t>
-  </si>
-  <si>
     <t>03 88 59 59 09</t>
   </si>
   <si>
@@ -507,9 +486,6 @@
     <t>Chamtor, ADM</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/ADM/@49.3500534,4.16075,15z/data=!4m2!3m1!1s0x0:0x62e1b625bb97bb92?sa=X&amp;ved=0ahUKEwjs3r6M9NXaAhWKC8AKHa2DDI4Q_BIImgEwCg</t>
-  </si>
-  <si>
     <t>03 23 72 97 00</t>
   </si>
   <si>
@@ -537,9 +513,6 @@
     <t xml:space="preserve"> Responsable contrôle qualité et Laboratoires</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Nutribio+(Barres+C%C3%A9r%C3%A9ales)/@50.1617921,2.3213815,17z/data=!4m12!1m6!3m5!1s0x47dd7082a4a62a79:0xafc357a0aaaf722b!2sCofranlait!8m2!3d50.1606202!4d2.3240262!3m4!1s0x47dd709dcc850bc9:0x21cdef0b722c71c5!8m2!3d50.1625623!4d2.3211803</t>
-  </si>
-  <si>
     <t>03 25 43 30 02</t>
   </si>
   <si>
@@ -676,9 +649,6 @@
   </si>
   <si>
     <t>frites</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/McCain+Alimentaire/@48.9821367,4.2730546,15z/data=!4m2!3m1!1s0x0:0x391ed9237f3d78e?sa=X&amp;ved=0ahUKEwi6qNzfo-zaAhWoA8AKHTdSAAwQ_BIInAEwCg</t>
   </si>
   <si>
     <t>03 26 67 16 00</t>
@@ -704,9 +674,6 @@
     <t>MARCQ EN BAROEUL</t>
   </si>
   <si>
-    <t>https://www.google.com/search?client=firefox-b-ab&amp;q=LESAFFRE+INTERNATIONAL+%09137+rue+gabriel+P%C3%A9ri%09MARCQ+EN+BAROEUL%0959700&amp;npsic=0&amp;rflfq=1&amp;rlha=0&amp;rllag=50672542,3079001,237&amp;tbm=lcl&amp;ved=0ahUKEwik1s3epOzaAhXkCsAKHXyYDl4QtgMIKg&amp;tbs=lrf:!2m1!1e2!3sIAE,lf:1,lf_ui:2&amp;rldoc=1&amp;biw=1787&amp;bih=856</t>
-  </si>
-  <si>
     <t>Mardeuil</t>
   </si>
   <si>
@@ -714,9 +681,6 @@
   </si>
   <si>
     <t>REIMS CEDEX 2</t>
-  </si>
-  <si>
-    <t>https://www.google.fr/maps/place/Domaine+Vranken+Pommery/@49.1022256,4.0516529,8z/data=!4m8!1m2!2m1!1sVRANKEN-POMMERY+5+Place+du+Gal+GOURAUD+BP+1049!3m4!1s0x47e9743a1d968957:0xe0349b089cc26d42!8m2!3d49.242486!4d4.0517809</t>
   </si>
   <si>
     <t>Mme BERTEMES Marie-Christine</t>
@@ -748,9 +712,6 @@
     <t>5 rue gosset</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Coop%C3%A9rative+R%C3%A9gionale+des+Vins+de+Champagne/@49.2658181,4.034316,17z/data=!3m1!4b1!4m5!3m4!1s0x47e975a56c7de2fb:0x892081a686782741!8m2!3d49.2658146!4d4.03651</t>
-  </si>
-  <si>
     <t>Mme Coupinot Catherine</t>
   </si>
   <si>
@@ -795,9 +756,6 @@
     <t>VERTUS</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Champagne+Duval-Leroy/@48.9076276,4.0206545,17z/data=!3m1!4b1!4m5!3m4!1s0x47e9415f6f39ff49:0xd559d94f8432247!8m2!3d48.9076241!4d4.0228485</t>
-  </si>
-  <si>
     <t>Mme MARGUET Virginie</t>
   </si>
   <si>
@@ -810,9 +768,6 @@
     <t>COOPERATIVE VINICOLE</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Coop%C3%A9rative+Vinicole/@49.2540828,4.157081,17z/data=!3m1!4b1!4m5!3m4!1s0x47e977813a3136e9:0xda72b036fe850953!8m2!3d49.2540793!4d4.159275</t>
-  </si>
-  <si>
     <t>NOGENT-L’ABESSE</t>
   </si>
   <si>
@@ -822,9 +777,6 @@
     <t>Mareuil-sur-Ay</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Distillerie+Jean+Goyard/@49.0509395,4.0151529,18z/data=!4m8!1m2!2m1!1sDistillerie+GOYARD+51160+A%C3%BF!3m4!1s0x47e96b8a5ecc9d3f:0xe5be1394f4d22c63!8m2!3d49.0507947!4d4.0156264</t>
-  </si>
-  <si>
     <t>03 10 25 00 01</t>
   </si>
   <si>
@@ -952,9 +904,6 @@
   </si>
   <si>
     <t>2015_Autres cadres</t>
-  </si>
-  <si>
-    <t>https://www.google.fr/maps/place/eureau+SOURCES+Marolles/@49.159936,3.1017323,17z/data=!3m1!4b1!4m5!3m4!1s0x47e88e18056fe537:0xdcf364c58f8d1a08!8m2!3d49.159936!4d3.103921?hl=fr</t>
   </si>
   <si>
     <t>Plus Code</t>
@@ -1784,9 +1733,6 @@
     <t>Philippe Nguyen-Resp. Labo - 0326918342 - guyen@chu-reims.fr /Mme Gaël POITEVIN - 03 26 78 91 88 - gael.poitevin@univ-reims.fr</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Moulins+Bourgeois/@48.875163,3.365642,15z/data=!4m5!3m4!1s0x0:0x303649f0064e09f1!8m2!3d48.875163!4d3.365642?hl=fr</t>
-  </si>
-  <si>
     <t>V9G8+37 Verdelot</t>
   </si>
   <si>
@@ -1859,9 +1805,6 @@
     <t>03 26 85 45 35</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Champagne+Taittinger/@49.2448034,4.0462814,15z/data=!4m5!3m4!1s0x0:0x1c5b12972512e332!8m2!3d49.2448034!4d4.0462814?hl=fr</t>
-  </si>
-  <si>
     <t>62VW+WG Reims</t>
   </si>
   <si>
@@ -1875,9 +1818,6 @@
   </si>
   <si>
     <t>03 26 59 86 00</t>
-  </si>
-  <si>
-    <t>https://www.google.fr/maps/place/Coop%C3%A9rative+du+Syndicat+G%C3%A9n%C3%A9ral+des+Vignerons+(C.S.G.V.)/@49.0569587,3.9479026,17.5z/data=!4m21!1m15!4m14!1m6!1m2!1s0x47e9135199e22315:0x3658dc33e1a15116!2zQWxsw6llIGRlIEN1bWnDqHJlcywgw4lwZXJuYXk!2m2!1d3.9499708!2d49.0574368!1m6!1m2!1s0x47e96b340c53e03f:0x6a7bc7bfe3fa4648!2sCoop%C3%A9rative+du+Syndicat+G%C3%A9n%C3%A9ral+des+Vignerons+(CSGV+Epernay+Sud),+3+Rue+des+Joncs,+51200+%C3%89pernay!2m2!1d3.9514911!2d49.0258068!3m4!1s0x47e96cab296dce8d:0xf492193ac5e3bf57!8m2!3d49.0571819!4d3.9500678?hl=fr</t>
   </si>
   <si>
     <t>3X42+V2 Épernay</t>
@@ -1916,9 +1856,6 @@
     <t>03 25 29 29 10</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Oenologie+Conseil+Champagne+(O2C)/@48.1080606,4.3873546,18z/data=!4m8!1m2!2m1!1sOENOLOGIE+CONSEIL+CHAMPAGNE,+Av.+Bernard+Pieds+10110+Bar-sur-Seine+!3m4!1s0x0:0xa2f6ce190ccf382a!8m2!3d48.1085441!4d4.387995</t>
-  </si>
-  <si>
     <t>495Q+C5 Bar-sur-Seine</t>
   </si>
   <si>
@@ -1947,9 +1884,6 @@
     <t>03 26 59 55 50</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Centre+Vinicole+Champagne+Nicolas+Feuillatte/@49.0225428,3.9759807,16.25z/data=!4m5!3m4!1s0x47e96bbe9cc94193:0xf7daf444183a3368!8m2!3d49.0240937!4d3.9783864</t>
-  </si>
-  <si>
     <t>2XFH+J9 Chouilly</t>
   </si>
   <si>
@@ -1963,9 +1897,6 @@
     <t>Vins pétillants fruités</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Clair+de+Lorraine/@48.674377,5.6216053,17z/data=!3m1!4b1!4m5!3m4!1s0x47eb50dacdf1ae25:0x276178e8d0e1260c!8m2!3d48.674377!4d5.623794</t>
-  </si>
-  <si>
     <t>MJFF+QG Void-Vacon</t>
   </si>
   <si>
@@ -1982,9 +1913,6 @@
   </si>
   <si>
     <t>03 25 41 64 30</t>
-  </si>
-  <si>
-    <t>https://www.google.fr/maps/place/Dislaub/@48.2269876,4.129997,17z/data=!3m1!4b1!4m5!3m4!1s0x47ee9c3fd79b80ab:0x3185df5567b551e5!8m2!3d48.2269876!4d4.1321857</t>
   </si>
   <si>
     <t>64GJ+QV Buchères</t>
@@ -4182,6 +4110,141 @@
   </si>
   <si>
     <t>https://www.linkedin.com/company/kalizea/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>49.29312218720171, 4.018548943952702</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/biscuits-fossier-reims/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>49.26505649953078, 4.036877126579017</t>
+  </si>
+  <si>
+    <t>http://www.crvc.fr/</t>
+  </si>
+  <si>
+    <t>49.35093402480607, 4.164440719635132</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/adm/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>48.90776158911016, 4.023578059108555</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/champagne-duval-leroy/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>49.05087445813867, 4.015903918530405</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/distillerie-jean-goyard-sa/about/</t>
+  </si>
+  <si>
+    <t>48.97317348024, 4.013920397918917</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/union-champagne/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>48.73017009134304, 4.610731228608105</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/malteurop/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>49.25414372229568, 4.15973160938098</t>
+  </si>
+  <si>
+    <t>49.19022938276526, 4.154930051364863</t>
+  </si>
+  <si>
+    <t>48.98231977278168, 4.2772173884256715</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/mccainfoods/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>49.36586006766375, 4.474626536323952</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/vranken-pommery-monopole/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>48.6746199255123, 5.624025458433929</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/clairdelorraine/about/</t>
+  </si>
+  <si>
+    <t>48.56245199479235, 5.349574449804051</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/fromagerie-renard-gillard/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>50.672200861408605, 3.0829319068918912</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/lesaffre/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>49.16012190614292, 3.1044681689029527</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/eureau-sources/about/</t>
+  </si>
+  <si>
+    <t>48.620873298768224, 7.500216782574324</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/pates-grand-mere/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>48.875459366877436, 3.3699335344594554</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/moulins-bourgeois/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>50.16053773784718, 2.325855424673983</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/nutribio/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>47.838819440417964, 3.583057653445947</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/yoplait-france/about/</t>
+  </si>
+  <si>
+    <t>49.24520963551287, 4.048942151364862</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/champagne-taittinger/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>49.057285626318446, 3.9504775206756735</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/csgv/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>48.1084886437727, 4.388448941287162</t>
+  </si>
+  <si>
+    <t>49.02422427122001, 3.9798430810135104</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/cvc-nicolas-feuillatte/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>48.22678536341495, 4.134071100079478</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/dislaub/about/</t>
   </si>
 </sst>
 </file>
@@ -15152,9 +15215,9 @@
   <dimension ref="A1:CB274"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AD1" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="AK55" sqref="AK55"/>
+      <selection pane="bottomLeft" activeCell="AK81" sqref="AK81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15219,103 +15282,103 @@
         <v>70</v>
       </c>
       <c r="C1" s="150" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D1" s="151" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="E1" s="152" t="s">
-        <v>1002</v>
+        <v>978</v>
       </c>
       <c r="F1" s="152" t="s">
-        <v>1003</v>
+        <v>979</v>
       </c>
       <c r="G1" s="152" t="s">
-        <v>1004</v>
+        <v>980</v>
       </c>
       <c r="H1" s="152" t="s">
-        <v>1005</v>
+        <v>981</v>
       </c>
       <c r="I1" s="152" t="s">
-        <v>998</v>
+        <v>974</v>
       </c>
       <c r="J1" s="152" t="s">
-        <v>999</v>
+        <v>975</v>
       </c>
       <c r="K1" s="152" t="s">
-        <v>1000</v>
+        <v>976</v>
       </c>
       <c r="L1" s="152" t="s">
-        <v>1001</v>
+        <v>977</v>
       </c>
       <c r="M1" s="153" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="N1" s="150" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="O1" s="150" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="P1" s="150" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="Q1" s="150" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="R1" s="154" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="S1" s="150" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="T1" s="150" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="U1" s="150" t="s">
+        <v>247</v>
+      </c>
+      <c r="V1" s="150" t="s">
+        <v>248</v>
+      </c>
+      <c r="W1" s="150" t="s">
+        <v>249</v>
+      </c>
+      <c r="X1" s="150" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y1" s="150" t="s">
         <v>263</v>
       </c>
-      <c r="V1" s="150" t="s">
+      <c r="Z1" s="150" t="s">
         <v>264</v>
       </c>
-      <c r="W1" s="150" t="s">
+      <c r="AA1" s="150" t="s">
         <v>265</v>
       </c>
-      <c r="X1" s="150" t="s">
+      <c r="AB1" s="150" t="s">
         <v>266</v>
       </c>
-      <c r="Y1" s="150" t="s">
-        <v>279</v>
-      </c>
-      <c r="Z1" s="150" t="s">
-        <v>280</v>
-      </c>
-      <c r="AA1" s="150" t="s">
-        <v>281</v>
-      </c>
-      <c r="AB1" s="150" t="s">
-        <v>282</v>
-      </c>
       <c r="AC1" s="150" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="AD1" s="150" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="AE1" s="150" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="AF1" s="150" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="AG1" s="150" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="AH1" s="150" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="AI1" s="155" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="AJ1" s="150" t="s">
         <v>77</v>
@@ -15324,10 +15387,10 @@
         <v>81</v>
       </c>
       <c r="AL1" s="150" t="s">
-        <v>1210</v>
+        <v>1186</v>
       </c>
       <c r="AM1" s="150" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="AN1" s="150" t="s">
         <v>72</v>
@@ -15345,113 +15408,113 @@
         <v>76</v>
       </c>
       <c r="AS1" s="156" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="AT1" s="157" t="s">
-        <v>973</v>
+        <v>949</v>
       </c>
       <c r="AU1" s="158" t="s">
-        <v>976</v>
+        <v>952</v>
       </c>
       <c r="AV1" s="157" t="s">
-        <v>971</v>
+        <v>947</v>
       </c>
       <c r="AW1" s="158" t="s">
-        <v>974</v>
+        <v>950</v>
       </c>
       <c r="AX1" s="159" t="s">
-        <v>1009</v>
+        <v>985</v>
       </c>
       <c r="AY1" s="159" t="s">
-        <v>1010</v>
+        <v>986</v>
       </c>
       <c r="AZ1" s="159" t="s">
-        <v>1007</v>
+        <v>983</v>
       </c>
       <c r="BA1" s="159" t="s">
-        <v>1008</v>
+        <v>984</v>
       </c>
       <c r="BB1" s="159" t="s">
-        <v>977</v>
+        <v>953</v>
       </c>
       <c r="BC1" s="159" t="s">
-        <v>978</v>
+        <v>954</v>
       </c>
       <c r="BD1" s="159" t="s">
-        <v>979</v>
+        <v>955</v>
       </c>
       <c r="BE1" s="159" t="s">
-        <v>980</v>
+        <v>956</v>
       </c>
       <c r="BF1" s="159" t="s">
-        <v>981</v>
+        <v>957</v>
       </c>
       <c r="BG1" s="159" t="s">
-        <v>982</v>
+        <v>958</v>
       </c>
       <c r="BH1" s="159" t="s">
-        <v>983</v>
+        <v>959</v>
       </c>
       <c r="BI1" s="159" t="s">
-        <v>984</v>
+        <v>960</v>
       </c>
       <c r="BJ1" s="159" t="s">
-        <v>985</v>
+        <v>961</v>
       </c>
       <c r="BK1" s="159" t="s">
-        <v>986</v>
+        <v>962</v>
       </c>
       <c r="BL1" s="160" t="s">
-        <v>975</v>
+        <v>951</v>
       </c>
       <c r="BM1" s="160" t="s">
-        <v>970</v>
+        <v>946</v>
       </c>
       <c r="BN1" s="160"/>
       <c r="BO1" s="160"/>
       <c r="BP1" s="161" t="s">
-        <v>987</v>
+        <v>963</v>
       </c>
       <c r="BQ1" s="161" t="s">
-        <v>988</v>
+        <v>964</v>
       </c>
       <c r="BR1" s="161" t="s">
-        <v>989</v>
+        <v>965</v>
       </c>
       <c r="BS1" s="161" t="s">
-        <v>990</v>
+        <v>966</v>
       </c>
       <c r="BT1" s="161" t="s">
-        <v>991</v>
+        <v>967</v>
       </c>
       <c r="BU1" s="161"/>
       <c r="BV1" s="161"/>
       <c r="BW1" s="161" t="s">
-        <v>992</v>
+        <v>968</v>
       </c>
       <c r="BX1" s="161" t="s">
-        <v>993</v>
+        <v>969</v>
       </c>
       <c r="BY1" s="161" t="s">
-        <v>994</v>
+        <v>970</v>
       </c>
       <c r="BZ1" s="161" t="s">
-        <v>995</v>
+        <v>971</v>
       </c>
       <c r="CA1" s="161" t="s">
-        <v>996</v>
+        <v>972</v>
       </c>
       <c r="CB1" s="162"/>
     </row>
     <row r="2" spans="1:80" s="18" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>1219</v>
+        <v>1195</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1221</v>
+        <v>1197</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>1220</v>
+        <v>1196</v>
       </c>
       <c r="D2" s="99"/>
       <c r="E2" s="164"/>
@@ -15483,22 +15546,22 @@
       <c r="AE2" s="62"/>
       <c r="AF2" s="137"/>
       <c r="AG2" s="62" t="s">
-        <v>1222</v>
+        <v>1198</v>
       </c>
       <c r="AH2" s="62" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AI2" s="138">
         <v>51100</v>
       </c>
       <c r="AJ2" s="139" t="s">
-        <v>1223</v>
+        <v>1199</v>
       </c>
       <c r="AK2" s="67" t="s">
-        <v>1224</v>
+        <v>1200</v>
       </c>
       <c r="AL2" s="144" t="s">
-        <v>1225</v>
+        <v>1201</v>
       </c>
       <c r="AM2" s="67"/>
       <c r="AN2" s="140"/>
@@ -15527,89 +15590,89 @@
     </row>
     <row r="3" spans="1:80" s="18" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="D3" s="99" t="str">
         <f t="shared" ref="D3:D34" si="0">IF(AX3&lt;&gt;0,"2020_A="&amp;AX3," ")&amp;IF(AY3&lt;&gt;0," ; 2020_i="&amp;AY3," ")&amp;IF(AZ3&lt;&gt;0,"2019_A="&amp;AZ3," ")&amp;IF(BA3&lt;&gt;0," ; 2019_i="&amp;BA3," ")&amp;IF(BB3&lt;&gt;0,"2018_A="&amp;BB3," ")&amp;IF(BC3&lt;&gt;0," ; 2018_i="&amp;BC3," ")&amp;IF(BD3&lt;&gt;0," ; 2017_A="&amp;BD3," ")&amp;IF(BE3&lt;&gt;0," ; 2017_i="&amp;BE3," ")&amp;IF(BF3&lt;&gt;0," ; 2016_A="&amp;BF3," ")&amp;IF(BG3&lt;&gt;0," ; 2016_i="&amp;BG3," ")&amp;IF(BH3&lt;&gt;0," ; 2015_A="&amp;BH3," ")&amp;IF(BI3&lt;&gt;0," ; 2015_i="&amp;BI3," ")&amp;IF(BJ3&lt;&gt;0," ; 2014_A="&amp;BJ3," ")&amp;IF(BK3&lt;&gt;0," ; 2014_i="&amp;BK3," ")</f>
         <v xml:space="preserve">2020_A=2 2019_A=4 2018_A=7  ; 2017_A=5 ; 2017_i=1 ; 2016_A=6 ; 2016_i=1 ; 2015_A=3  ; 2014_A=3 </v>
       </c>
       <c r="E3" s="164" t="s">
-        <v>1025</v>
+        <v>1001</v>
       </c>
       <c r="F3" s="164" t="s">
-        <v>1024</v>
+        <v>1000</v>
       </c>
       <c r="G3" s="164" t="s">
-        <v>1193</v>
+        <v>1169</v>
       </c>
       <c r="H3" s="164"/>
       <c r="I3" s="74" t="s">
-        <v>1023</v>
+        <v>999</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>1022</v>
+        <v>998</v>
       </c>
       <c r="K3" s="62" t="s">
-        <v>1192</v>
+        <v>1168</v>
       </c>
       <c r="L3" s="164"/>
       <c r="M3" s="74" t="s">
-        <v>1021</v>
+        <v>997</v>
       </c>
       <c r="N3" s="62" t="s">
-        <v>1020</v>
+        <v>996</v>
       </c>
       <c r="O3" s="62" t="s">
-        <v>1191</v>
+        <v>1167</v>
       </c>
       <c r="P3" s="137"/>
       <c r="Q3" s="62" t="s">
-        <v>1141</v>
+        <v>1117</v>
       </c>
       <c r="R3" s="137" t="s">
-        <v>1142</v>
+        <v>1118</v>
       </c>
       <c r="S3" s="137" t="s">
-        <v>1143</v>
+        <v>1119</v>
       </c>
       <c r="T3" s="137"/>
       <c r="U3" s="62" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="V3" s="62" t="s">
-        <v>1162</v>
+        <v>1138</v>
       </c>
       <c r="W3" s="62" t="s">
-        <v>1039</v>
+        <v>1015</v>
       </c>
       <c r="X3" s="137"/>
       <c r="Y3" s="137"/>
       <c r="Z3" s="62" t="s">
-        <v>1038</v>
+        <v>1014</v>
       </c>
       <c r="AA3" s="62" t="s">
-        <v>1037</v>
+        <v>1013</v>
       </c>
       <c r="AB3" s="137"/>
       <c r="AC3" s="62"/>
       <c r="AD3" s="62" t="s">
-        <v>1036</v>
+        <v>1012</v>
       </c>
       <c r="AE3" s="62" t="s">
-        <v>1037</v>
+        <v>1013</v>
       </c>
       <c r="AF3" s="137"/>
       <c r="AG3" s="62" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="AH3" s="62" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AI3" s="138">
         <v>51100</v>
@@ -15618,13 +15681,13 @@
         <v>326888110</v>
       </c>
       <c r="AK3" s="67" t="s">
-        <v>1229</v>
+        <v>1205</v>
       </c>
       <c r="AL3" s="144" t="s">
-        <v>1217</v>
+        <v>1193</v>
       </c>
       <c r="AM3" s="67" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="AN3" s="140"/>
       <c r="AO3" s="141"/>
@@ -15748,91 +15811,91 @@
     </row>
     <row r="4" spans="1:80" s="1" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="D4" s="73" t="str">
         <f t="shared" si="0"/>
         <v>2020_A=1 2019_A=1 2018_A=2 ; 2018_i=1 ; 2017_A=1  ; 2016_A=2  ; 2015_A=1  ; 2014_A=2 ; 2014_i=1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>1016</v>
+        <v>992</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>1017</v>
+        <v>993</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>1016</v>
+        <v>992</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>1017</v>
+        <v>993</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="75" t="s">
-        <v>1015</v>
+        <v>991</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>1014</v>
+        <v>990</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>1018</v>
+        <v>994</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>1087</v>
+        <v>1063</v>
       </c>
       <c r="T4" s="17"/>
       <c r="U4" s="17" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>1041</v>
+        <v>1017</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>1086</v>
+        <v>1062</v>
       </c>
       <c r="X4" s="17"/>
       <c r="Y4" s="17"/>
       <c r="Z4" s="17" t="s">
-        <v>1169</v>
+        <v>1145</v>
       </c>
       <c r="AA4" s="17" t="s">
-        <v>1040</v>
+        <v>1016</v>
       </c>
       <c r="AB4" s="17"/>
       <c r="AC4" s="17" t="s">
-        <v>1072</v>
+        <v>1048</v>
       </c>
       <c r="AD4" s="17" t="s">
-        <v>1171</v>
+        <v>1147</v>
       </c>
       <c r="AE4" s="17" t="s">
-        <v>1073</v>
+        <v>1049</v>
       </c>
       <c r="AF4" s="17"/>
       <c r="AG4" s="11" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="AH4" s="11" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AI4" s="41">
         <v>51110</v>
@@ -15841,26 +15904,26 @@
         <v>326888410</v>
       </c>
       <c r="AK4" s="23" t="s">
-        <v>1211</v>
+        <v>1187</v>
       </c>
       <c r="AL4" s="145" t="s">
-        <v>1212</v>
+        <v>1188</v>
       </c>
       <c r="AM4" s="50"/>
       <c r="AN4" s="11" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="AO4" s="17" t="s">
-        <v>817</v>
+        <v>793</v>
       </c>
       <c r="AP4" s="17" t="s">
-        <v>818</v>
+        <v>794</v>
       </c>
       <c r="AQ4" s="11" t="s">
-        <v>819</v>
+        <v>795</v>
       </c>
       <c r="AR4" s="23" t="s">
-        <v>820</v>
+        <v>796</v>
       </c>
       <c r="AS4" s="25"/>
       <c r="AT4" s="1">
@@ -15982,10 +16045,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="D5" s="73" t="str">
         <f t="shared" si="0"/>
@@ -16000,70 +16063,70 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="75" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="P5" s="17"/>
       <c r="Q5" s="17" t="s">
-        <v>1146</v>
+        <v>1122</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>1147</v>
+        <v>1123</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>1151</v>
+        <v>1127</v>
       </c>
       <c r="T5" s="17"/>
       <c r="U5" s="17" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>1163</v>
+        <v>1139</v>
       </c>
       <c r="W5" s="17" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="X5" s="17"/>
       <c r="Y5" s="17" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="Z5" s="17" t="s">
-        <v>1071</v>
+        <v>1047</v>
       </c>
       <c r="AA5" s="17" t="s">
-        <v>1070</v>
+        <v>1046</v>
       </c>
       <c r="AB5" s="17"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="17" t="s">
-        <v>1069</v>
+        <v>1045</v>
       </c>
       <c r="AE5" s="17" t="s">
-        <v>1045</v>
+        <v>1021</v>
       </c>
       <c r="AF5" s="17"/>
       <c r="AG5" s="17" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="AH5" s="17" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="AI5" s="41">
         <v>2007</v>
       </c>
       <c r="AJ5" s="28" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="AK5" s="23" t="s">
-        <v>1230</v>
+        <v>1206</v>
       </c>
       <c r="AL5" s="146" t="s">
-        <v>1213</v>
+        <v>1189</v>
       </c>
       <c r="AM5" s="66"/>
       <c r="AN5" s="17"/>
@@ -16190,7 +16253,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D6" s="73" t="str">
         <f t="shared" si="0"/>
@@ -16201,53 +16264,53 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>1011</v>
+        <v>987</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="75" t="s">
-        <v>1188</v>
+        <v>1164</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>1187</v>
+        <v>1163</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>1189</v>
+        <v>1165</v>
       </c>
       <c r="P6" s="17"/>
       <c r="Q6" s="17" t="s">
-        <v>1138</v>
+        <v>1114</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>1139</v>
+        <v>1115</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>1140</v>
+        <v>1116</v>
       </c>
       <c r="T6" s="17"/>
       <c r="U6" s="17" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="W6" s="17" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="Z6" s="17" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="AA6" s="17" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="AB6" s="17"/>
       <c r="AC6" s="17"/>
@@ -16258,7 +16321,7 @@
         <v>45</v>
       </c>
       <c r="AH6" s="11" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="AI6" s="11">
         <v>51200</v>
@@ -16267,20 +16330,20 @@
         <v>33326512020</v>
       </c>
       <c r="AK6" s="23" t="s">
-        <v>1231</v>
+        <v>1207</v>
       </c>
       <c r="AL6" s="147" t="s">
-        <v>1214</v>
+        <v>1190</v>
       </c>
       <c r="AM6" s="25" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="AN6" s="17" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="AO6" s="17"/>
       <c r="AP6" s="17" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AQ6" s="44" t="s">
         <v>46</v>
@@ -16404,7 +16467,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>29</v>
@@ -16422,87 +16485,87 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="75" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>1027</v>
+        <v>1003</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>1026</v>
+        <v>1002</v>
       </c>
       <c r="T7" s="17"/>
       <c r="U7" s="17" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>1161</v>
+        <v>1137</v>
       </c>
       <c r="W7" s="17" t="s">
-        <v>1035</v>
+        <v>1011</v>
       </c>
       <c r="X7" s="17"/>
       <c r="Y7" s="17"/>
       <c r="Z7" s="17" t="s">
-        <v>1034</v>
+        <v>1010</v>
       </c>
       <c r="AA7" s="17" t="s">
-        <v>1033</v>
+        <v>1009</v>
       </c>
       <c r="AB7" s="17"/>
       <c r="AC7" s="17"/>
       <c r="AD7" s="17" t="s">
-        <v>1077</v>
+        <v>1053</v>
       </c>
       <c r="AE7" s="17" t="s">
-        <v>1078</v>
+        <v>1054</v>
       </c>
       <c r="AF7" s="17"/>
       <c r="AG7" s="11" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="AH7" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="AI7" s="41">
         <v>51530</v>
       </c>
       <c r="AJ7" s="28" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AK7" s="23" t="s">
-        <v>1232</v>
+        <v>1208</v>
       </c>
       <c r="AL7" s="147" t="s">
-        <v>1215</v>
+        <v>1191</v>
       </c>
       <c r="AM7" s="23"/>
       <c r="AN7" s="11" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="AO7" s="17" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="AP7" s="17"/>
       <c r="AQ7" s="11" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="AR7" s="50" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="AS7" s="25" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AT7" s="1">
         <f>RANK(BL7,$BL$3:$BL$122)+COUNTIF(BL$3:BL7,BL7)-1</f>
@@ -16619,10 +16682,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -16637,82 +16700,82 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="75" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>1084</v>
+        <v>1060</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="17" t="s">
-        <v>1112</v>
+        <v>1088</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>1113</v>
+        <v>1089</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>1114</v>
+        <v>1090</v>
       </c>
       <c r="T8" s="15"/>
       <c r="U8" s="17" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>1032</v>
+        <v>1008</v>
       </c>
       <c r="W8" s="17" t="s">
-        <v>1085</v>
+        <v>1061</v>
       </c>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="17" t="s">
-        <v>1031</v>
+        <v>1007</v>
       </c>
       <c r="AA8" s="17" t="s">
-        <v>1030</v>
+        <v>1006</v>
       </c>
       <c r="AB8" s="15"/>
       <c r="AC8" s="17"/>
       <c r="AD8" s="17" t="s">
-        <v>1029</v>
+        <v>1005</v>
       </c>
       <c r="AE8" s="17" t="s">
-        <v>1030</v>
+        <v>1006</v>
       </c>
       <c r="AF8" s="15"/>
       <c r="AG8" s="17" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="AH8" s="17" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="AI8" s="21">
         <v>2400</v>
       </c>
       <c r="AJ8" s="46" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="AK8" s="23" t="s">
-        <v>1233</v>
+        <v>1209</v>
       </c>
       <c r="AL8" s="23" t="s">
-        <v>1216</v>
+        <v>1192</v>
       </c>
       <c r="AM8" s="23"/>
       <c r="AN8" s="30"/>
       <c r="AO8" s="17" t="s">
-        <v>667</v>
+        <v>643</v>
       </c>
       <c r="AP8" s="17" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="AQ8" s="48" t="s">
-        <v>665</v>
+        <v>641</v>
       </c>
       <c r="AR8" s="42" t="s">
-        <v>668</v>
+        <v>644</v>
       </c>
       <c r="AS8" s="26"/>
       <c r="AT8" s="1">
@@ -16833,115 +16896,115 @@
         <v>4</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>1082</v>
+        <v>1058</v>
       </c>
       <c r="D9" s="99" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">    2018_A=1  ; 2017_A=1  ; 2016_A=1 ; 2016_i=1 ; 2015_A=2  ; 2014_A=1 </v>
       </c>
       <c r="E9" s="75" t="s">
-        <v>1199</v>
+        <v>1175</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>1198</v>
+        <v>1174</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>1195</v>
+        <v>1171</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="75" t="s">
-        <v>1199</v>
+        <v>1175</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>1198</v>
+        <v>1174</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>1195</v>
+        <v>1171</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="75" t="s">
-        <v>1197</v>
+        <v>1173</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>1194</v>
+        <v>1170</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>1196</v>
+        <v>1172</v>
       </c>
       <c r="P9" s="17"/>
       <c r="Q9" s="17" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="T9" s="17"/>
       <c r="U9" s="17" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>1165</v>
+        <v>1141</v>
       </c>
       <c r="W9" s="17" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="X9" s="17"/>
       <c r="Y9" s="17" t="s">
-        <v>1055</v>
+        <v>1031</v>
       </c>
       <c r="Z9" s="17" t="s">
-        <v>1042</v>
+        <v>1018</v>
       </c>
       <c r="AA9" s="17" t="s">
-        <v>1044</v>
+        <v>1020</v>
       </c>
       <c r="AB9" s="17"/>
       <c r="AC9" s="17" t="s">
-        <v>1056</v>
+        <v>1032</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>1043</v>
+        <v>1019</v>
       </c>
       <c r="AE9" s="17" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="AF9" s="17"/>
       <c r="AG9" s="11" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="AH9" s="11" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="AI9" s="41">
         <v>51110</v>
       </c>
       <c r="AJ9" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK9" s="23" t="s">
-        <v>1234</v>
+        <v>1210</v>
       </c>
       <c r="AL9" s="23" t="s">
-        <v>1218</v>
+        <v>1194</v>
       </c>
       <c r="AM9" s="23"/>
       <c r="AN9" s="25" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="AO9" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP9" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="AP9" s="17" t="s">
-        <v>92</v>
-      </c>
       <c r="AQ9" s="25" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="AR9" s="42" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="AS9" s="25"/>
       <c r="AT9" s="1">
@@ -17057,43 +17120,43 @@
         <v>0</v>
       </c>
       <c r="B10" s="143" t="s">
-        <v>1006</v>
+        <v>982</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>1235</v>
+        <v>1211</v>
       </c>
       <c r="D10" s="73" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">2020_A=1 2019_A=1 2018_A=1         </v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>1013</v>
+        <v>989</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>1012</v>
+        <v>988</v>
       </c>
       <c r="G10" s="142" t="s">
-        <v>1190</v>
+        <v>1166</v>
       </c>
       <c r="H10" s="126"/>
       <c r="I10" s="54" t="s">
-        <v>1013</v>
+        <v>989</v>
       </c>
       <c r="J10" s="54" t="s">
-        <v>1012</v>
+        <v>988</v>
       </c>
       <c r="K10" s="142" t="s">
-        <v>1190</v>
+        <v>1166</v>
       </c>
       <c r="L10" s="126"/>
       <c r="M10" s="97" t="s">
-        <v>1013</v>
+        <v>989</v>
       </c>
       <c r="N10" s="54" t="s">
-        <v>1012</v>
+        <v>988</v>
       </c>
       <c r="O10" s="142" t="s">
-        <v>1190</v>
+        <v>1166</v>
       </c>
       <c r="P10" s="122"/>
       <c r="Q10" s="54"/>
@@ -17113,10 +17176,10 @@
       <c r="AE10" s="54"/>
       <c r="AF10" s="122"/>
       <c r="AG10" s="54" t="s">
-        <v>1226</v>
+        <v>1202</v>
       </c>
       <c r="AH10" s="54" t="s">
-        <v>1227</v>
+        <v>1203</v>
       </c>
       <c r="AI10" s="128">
         <v>50890</v>
@@ -17125,10 +17188,10 @@
         <v>33233066500</v>
       </c>
       <c r="AK10" s="22" t="s">
-        <v>1236</v>
+        <v>1212</v>
       </c>
       <c r="AL10" s="23" t="s">
-        <v>1228</v>
+        <v>1204</v>
       </c>
       <c r="AM10" s="54"/>
       <c r="AN10" s="130"/>
@@ -17244,10 +17307,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>1258</v>
+        <v>1234</v>
       </c>
       <c r="D11" s="73" t="str">
         <f t="shared" si="0"/>
@@ -17262,73 +17325,73 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="75" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="O11" s="45" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="P11" s="15"/>
       <c r="Q11" s="17" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="R11" s="24" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="S11" s="45" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="T11" s="15"/>
       <c r="U11" s="15" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="V11" s="17" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="W11" s="45" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="X11" s="15"/>
       <c r="Y11" s="17" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="Z11" s="17" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="AA11" s="45" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="AB11" s="15"/>
       <c r="AC11" s="17"/>
       <c r="AD11" s="17" t="s">
-        <v>1074</v>
+        <v>1050</v>
       </c>
       <c r="AE11" s="45" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="AF11" s="26"/>
       <c r="AG11" s="17" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="AH11" s="17" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="AI11" s="21">
         <v>2350</v>
       </c>
       <c r="AJ11" s="46" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="AK11" s="23" t="s">
-        <v>1238</v>
+        <v>1214</v>
       </c>
       <c r="AL11" s="23" t="s">
-        <v>1237</v>
+        <v>1213</v>
       </c>
       <c r="AM11" s="23" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="AN11" s="47"/>
       <c r="AO11" s="26"/>
@@ -17447,7 +17510,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>22</v>
@@ -17465,33 +17528,33 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="75" t="s">
-        <v>1019</v>
+        <v>995</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>1156</v>
+        <v>1132</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="P12" s="17"/>
       <c r="Q12" s="17" t="s">
-        <v>1132</v>
+        <v>1108</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>1135</v>
+        <v>1111</v>
       </c>
       <c r="S12" s="17" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="T12" s="17"/>
       <c r="U12" s="17" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="V12" s="17" t="s">
-        <v>1158</v>
+        <v>1134</v>
       </c>
       <c r="W12" s="17" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
@@ -17503,22 +17566,22 @@
       <c r="AE12" s="17"/>
       <c r="AF12" s="17"/>
       <c r="AG12" s="11" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="AH12" s="11" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AI12" s="41">
         <v>51100</v>
       </c>
       <c r="AJ12" s="28" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AK12" s="23" t="s">
-        <v>1239</v>
+        <v>1215</v>
       </c>
       <c r="AL12" s="23" t="s">
-        <v>1240</v>
+        <v>1216</v>
       </c>
       <c r="AM12" s="23"/>
       <c r="AN12" s="25"/>
@@ -17526,7 +17589,7 @@
         <v>23</v>
       </c>
       <c r="AP12" s="17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AQ12" s="25" t="s">
         <v>24</v>
@@ -17535,7 +17598,7 @@
         <v>25</v>
       </c>
       <c r="AS12" s="25" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AT12" s="1">
         <f>RANK(BL12,$BL$3:$BL$122)+COUNTIF(BL$3:BL12,BL12)-1</f>
@@ -17644,7 +17707,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>19</v>
@@ -17662,33 +17725,33 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="75" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>1088</v>
+        <v>1064</v>
       </c>
       <c r="P13" s="17"/>
       <c r="Q13" s="17" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="R13" s="120" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>1088</v>
+        <v>1064</v>
       </c>
       <c r="T13" s="17"/>
       <c r="U13" s="17" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="V13" s="17" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="W13" s="17" t="s">
-        <v>1088</v>
+        <v>1064</v>
       </c>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
@@ -17700,25 +17763,25 @@
       <c r="AE13" s="17"/>
       <c r="AF13" s="17"/>
       <c r="AG13" s="11" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="AH13" s="11" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AI13" s="41">
         <v>10700</v>
       </c>
       <c r="AJ13" s="28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AK13" s="23" t="s">
-        <v>1242</v>
+        <v>1218</v>
       </c>
       <c r="AL13" s="23" t="s">
-        <v>1241</v>
+        <v>1217</v>
       </c>
       <c r="AM13" s="23" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="AN13" s="25" t="s">
         <v>20</v>
@@ -17728,7 +17791,7 @@
       </c>
       <c r="AP13" s="17"/>
       <c r="AQ13" s="25" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AR13" s="42" t="s">
         <v>21</v>
@@ -17841,10 +17904,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="D14" s="73" t="str">
         <f t="shared" si="0"/>
@@ -17859,33 +17922,33 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="75" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>1083</v>
+        <v>1059</v>
       </c>
       <c r="P14" s="15"/>
       <c r="Q14" s="17" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="R14" s="24" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="S14" s="17" t="s">
-        <v>1083</v>
+        <v>1059</v>
       </c>
       <c r="T14" s="15"/>
       <c r="U14" s="17" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="W14" s="17" t="s">
-        <v>1083</v>
+        <v>1059</v>
       </c>
       <c r="X14" s="15"/>
       <c r="Y14" s="17"/>
@@ -17897,25 +17960,25 @@
       <c r="AE14" s="17"/>
       <c r="AF14" s="26"/>
       <c r="AG14" s="15" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="AH14" s="17" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AI14" s="21">
         <v>51100</v>
       </c>
       <c r="AJ14" s="46" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="AK14" s="23" t="s">
-        <v>1244</v>
+        <v>1220</v>
       </c>
       <c r="AL14" s="23" t="s">
-        <v>1243</v>
+        <v>1219</v>
       </c>
       <c r="AM14" s="23" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="AN14" s="47"/>
       <c r="AO14" s="26"/>
@@ -18027,13 +18090,13 @@
     </row>
     <row r="15" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>1254</v>
+        <v>1230</v>
       </c>
       <c r="D15" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18052,26 +18115,26 @@
       <c r="O15" s="17"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="17" t="s">
-        <v>1132</v>
+        <v>1108</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>1136</v>
+        <v>1112</v>
       </c>
       <c r="S15" s="17" t="s">
-        <v>1137</v>
+        <v>1113</v>
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="17" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>1159</v>
+        <v>1135</v>
       </c>
       <c r="W15" s="17" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="X15" s="15" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
@@ -18082,23 +18145,23 @@
       <c r="AE15" s="17"/>
       <c r="AF15" s="15"/>
       <c r="AG15" s="17" t="s">
-        <v>1255</v>
+        <v>1231</v>
       </c>
       <c r="AH15" s="17" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AI15" s="21">
         <v>51100</v>
       </c>
       <c r="AJ15" s="15"/>
       <c r="AK15" s="22" t="s">
-        <v>1246</v>
+        <v>1222</v>
       </c>
       <c r="AL15" s="23" t="s">
-        <v>1271</v>
+        <v>1247</v>
       </c>
       <c r="AM15" s="23" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="AN15" s="30"/>
       <c r="AO15" s="26"/>
@@ -18208,13 +18271,13 @@
     </row>
     <row r="16" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>1256</v>
+        <v>1232</v>
       </c>
       <c r="D16" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18229,13 +18292,13 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="75" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>1157</v>
+        <v>1133</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>1095</v>
+        <v>1071</v>
       </c>
       <c r="P16" s="15"/>
       <c r="Q16" s="17"/>
@@ -18243,13 +18306,13 @@
       <c r="S16" s="15"/>
       <c r="T16" s="15"/>
       <c r="U16" s="17" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>1160</v>
+        <v>1136</v>
       </c>
       <c r="W16" s="17" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="X16" s="15"/>
       <c r="Y16" s="15"/>
@@ -18257,42 +18320,42 @@
       <c r="AA16" s="15"/>
       <c r="AB16" s="15"/>
       <c r="AC16" s="17" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="AD16" s="17" t="s">
-        <v>1170</v>
+        <v>1146</v>
       </c>
       <c r="AE16" s="17" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="AF16" s="15"/>
       <c r="AG16" s="17" t="s">
-        <v>1257</v>
+        <v>1233</v>
       </c>
       <c r="AH16" s="17" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AI16" s="21">
         <v>51100</v>
       </c>
       <c r="AJ16" s="15"/>
       <c r="AK16" s="22" t="s">
-        <v>1245</v>
+        <v>1221</v>
       </c>
       <c r="AL16" s="23" t="s">
-        <v>1270</v>
+        <v>1246</v>
       </c>
       <c r="AM16" s="23" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="AN16" s="30"/>
       <c r="AO16" s="17" t="s">
-        <v>766</v>
+        <v>742</v>
       </c>
       <c r="AP16" s="24"/>
       <c r="AQ16" s="26"/>
       <c r="AR16" s="42" t="s">
-        <v>765</v>
+        <v>741</v>
       </c>
       <c r="AS16" s="26"/>
       <c r="AT16" s="1">
@@ -18399,13 +18462,13 @@
     </row>
     <row r="17" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>847</v>
+        <v>823</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>849</v>
+        <v>825</v>
       </c>
       <c r="D17" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18420,23 +18483,23 @@
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
       <c r="M17" s="75" t="s">
-        <v>1089</v>
+        <v>1065</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>1090</v>
+        <v>1066</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>1091</v>
+        <v>1067</v>
       </c>
       <c r="P17" s="17"/>
       <c r="Q17" s="17" t="s">
-        <v>1145</v>
+        <v>1121</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>1152</v>
+        <v>1128</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>1153</v>
+        <v>1129</v>
       </c>
       <c r="T17" s="17"/>
       <c r="U17" s="17"/>
@@ -18452,37 +18515,37 @@
       <c r="AE17" s="17"/>
       <c r="AF17" s="17"/>
       <c r="AG17" s="17" t="s">
-        <v>848</v>
+        <v>824</v>
       </c>
       <c r="AH17" s="17" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AI17" s="21">
         <v>51100</v>
       </c>
       <c r="AJ17" s="28"/>
       <c r="AK17" s="22" t="s">
-        <v>1248</v>
+        <v>1224</v>
       </c>
       <c r="AL17" s="22" t="s">
-        <v>1247</v>
+        <v>1223</v>
       </c>
       <c r="AM17" s="23" t="s">
-        <v>850</v>
+        <v>826</v>
       </c>
       <c r="AN17" s="15"/>
       <c r="AO17" s="17" t="s">
-        <v>853</v>
+        <v>829</v>
       </c>
       <c r="AP17" s="24"/>
       <c r="AQ17" s="17" t="s">
-        <v>852</v>
+        <v>828</v>
       </c>
       <c r="AR17" s="60" t="s">
-        <v>851</v>
+        <v>827</v>
       </c>
       <c r="AS17" s="25" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AT17" s="1">
         <f>RANK(BL17,$BL$3:$BL$122)+COUNTIF(BL$3:BL17,BL17)-1</f>
@@ -18593,10 +18656,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>1144</v>
+        <v>1120</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>1252</v>
+        <v>1228</v>
       </c>
       <c r="D18" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18611,23 +18674,23 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="75" t="s">
-        <v>1184</v>
+        <v>1160</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>1185</v>
+        <v>1161</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>1186</v>
+        <v>1162</v>
       </c>
       <c r="P18" s="15"/>
       <c r="Q18" s="17" t="s">
-        <v>1150</v>
+        <v>1126</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>1148</v>
+        <v>1124</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>1149</v>
+        <v>1125</v>
       </c>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
@@ -18643,25 +18706,25 @@
       <c r="AE18" s="17"/>
       <c r="AF18" s="15"/>
       <c r="AG18" s="17" t="s">
-        <v>1253</v>
+        <v>1229</v>
       </c>
       <c r="AH18" s="17" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AI18" s="21">
         <v>51680</v>
       </c>
       <c r="AJ18" s="28" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
       <c r="AK18" s="22" t="s">
-        <v>1246</v>
+        <v>1222</v>
       </c>
       <c r="AL18" s="22" t="s">
-        <v>1249</v>
+        <v>1225</v>
       </c>
       <c r="AM18" s="23" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="AN18" s="30"/>
       <c r="AO18" s="26"/>
@@ -18774,10 +18837,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="D19" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18796,33 +18859,33 @@
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="17" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="R19" s="120" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="T19" s="17"/>
       <c r="U19" s="17" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="W19" s="17" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="X19" s="17"/>
       <c r="Y19" s="17" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="Z19" s="17" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="AA19" s="17" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="AB19" s="17"/>
       <c r="AC19" s="17"/>
@@ -18830,41 +18893,41 @@
       <c r="AE19" s="17"/>
       <c r="AF19" s="17"/>
       <c r="AG19" s="25" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="AH19" s="17" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="AI19" s="11">
         <v>51200</v>
       </c>
       <c r="AJ19" s="46" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="AK19" s="22" t="s">
-        <v>1251</v>
+        <v>1227</v>
       </c>
       <c r="AL19" s="52" t="s">
-        <v>1250</v>
+        <v>1226</v>
       </c>
       <c r="AM19" s="23" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="AN19" s="17"/>
       <c r="AO19" s="17" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
       <c r="AP19" s="25" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="AQ19" s="25" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="AR19" s="23" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="AS19" s="25" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AT19" s="1">
         <f>RANK(BL19,$BL$3:$BL$122)+COUNTIF(BL$3:BL19,BL19)-1</f>
@@ -18970,13 +19033,13 @@
     </row>
     <row r="20" spans="1:80" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="51" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="D20" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18995,33 +19058,33 @@
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="17" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="R20" s="120" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="T20" s="17"/>
       <c r="U20" s="17" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="V20" s="17" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="W20" s="17" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="X20" s="17"/>
       <c r="Y20" s="17" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="Z20" s="17" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="AA20" s="17" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="AB20" s="17"/>
       <c r="AC20" s="17"/>
@@ -19029,22 +19092,22 @@
       <c r="AE20" s="17"/>
       <c r="AF20" s="17"/>
       <c r="AG20" s="25" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="AH20" s="17" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="AI20" s="11">
         <v>10380</v>
       </c>
       <c r="AJ20" s="46" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="AK20" s="52" t="s">
-        <v>1262</v>
+        <v>1238</v>
       </c>
       <c r="AL20" s="52" t="s">
-        <v>1261</v>
+        <v>1237</v>
       </c>
       <c r="AM20" s="25"/>
       <c r="AN20" s="17"/>
@@ -19160,10 +19223,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>1092</v>
+        <v>1068</v>
       </c>
       <c r="D21" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19178,13 +19241,13 @@
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
       <c r="M21" s="75" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>1093</v>
+        <v>1069</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>1094</v>
+        <v>1070</v>
       </c>
       <c r="P21" s="15"/>
       <c r="Q21" s="17"/>
@@ -19204,34 +19267,34 @@
       <c r="AE21" s="17"/>
       <c r="AF21" s="15"/>
       <c r="AG21" s="11" t="s">
-        <v>672</v>
+        <v>648</v>
       </c>
       <c r="AH21" s="17" t="s">
-        <v>671</v>
+        <v>647</v>
       </c>
       <c r="AI21" s="21">
         <v>10000</v>
       </c>
       <c r="AJ21" s="28"/>
       <c r="AK21" s="56" t="s">
-        <v>674</v>
+        <v>650</v>
       </c>
       <c r="AL21" s="56"/>
       <c r="AM21" s="23" t="s">
-        <v>673</v>
+        <v>649</v>
       </c>
       <c r="AN21" s="17" t="s">
-        <v>677</v>
+        <v>653</v>
       </c>
       <c r="AO21" s="17" t="s">
-        <v>675</v>
+        <v>651</v>
       </c>
       <c r="AP21" s="17" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="AQ21" s="17"/>
       <c r="AR21" s="23" t="s">
-        <v>676</v>
+        <v>652</v>
       </c>
       <c r="AS21" s="25"/>
       <c r="AT21" s="1">
@@ -19337,10 +19400,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>680</v>
+        <v>656</v>
       </c>
       <c r="D22" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19355,13 +19418,13 @@
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
       <c r="M22" s="75" t="s">
-        <v>1097</v>
+        <v>1073</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>1096</v>
+        <v>1072</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>1098</v>
+        <v>1074</v>
       </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="17"/>
@@ -19381,32 +19444,32 @@
       <c r="AE22" s="17"/>
       <c r="AF22" s="15"/>
       <c r="AG22" s="11" t="s">
-        <v>682</v>
+        <v>658</v>
       </c>
       <c r="AH22" s="17" t="s">
-        <v>681</v>
+        <v>657</v>
       </c>
       <c r="AI22" s="21">
         <v>76100</v>
       </c>
       <c r="AJ22" s="28" t="s">
-        <v>683</v>
+        <v>659</v>
       </c>
       <c r="AK22" s="56"/>
       <c r="AL22" s="56" t="s">
-        <v>1263</v>
+        <v>1239</v>
       </c>
       <c r="AM22" s="23" t="s">
-        <v>684</v>
+        <v>660</v>
       </c>
       <c r="AN22" s="17"/>
       <c r="AO22" s="17"/>
       <c r="AP22" s="17"/>
       <c r="AQ22" s="17" t="s">
-        <v>685</v>
+        <v>661</v>
       </c>
       <c r="AR22" s="23" t="s">
-        <v>686</v>
+        <v>662</v>
       </c>
       <c r="AS22" s="25"/>
       <c r="AT22" s="1">
@@ -19512,10 +19575,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>606</v>
+        <v>582</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>1264</v>
+        <v>1240</v>
       </c>
       <c r="D23" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19530,13 +19593,13 @@
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
       <c r="M23" s="75" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="N23" s="17" t="s">
-        <v>1100</v>
+        <v>1076</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>1099</v>
+        <v>1075</v>
       </c>
       <c r="P23" s="15"/>
       <c r="Q23" s="17"/>
@@ -19556,35 +19619,35 @@
       <c r="AE23" s="17"/>
       <c r="AF23" s="15"/>
       <c r="AG23" s="11" t="s">
-        <v>608</v>
+        <v>584</v>
       </c>
       <c r="AH23" s="17" t="s">
-        <v>607</v>
+        <v>583</v>
       </c>
       <c r="AI23" s="21">
         <v>89150</v>
       </c>
       <c r="AJ23" s="28" t="s">
-        <v>609</v>
+        <v>585</v>
       </c>
       <c r="AK23" s="56" t="s">
-        <v>1266</v>
+        <v>1242</v>
       </c>
       <c r="AL23" s="56" t="s">
-        <v>1265</v>
+        <v>1241</v>
       </c>
       <c r="AM23" s="23" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="AN23" s="30"/>
       <c r="AO23" s="17" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="AP23" s="17" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="AQ23" s="25" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="AR23" s="23"/>
       <c r="AS23" s="25"/>
@@ -19688,13 +19751,13 @@
     </row>
     <row r="24" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>771</v>
+        <v>747</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="D24" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19713,13 +19776,13 @@
       <c r="O24" s="17"/>
       <c r="P24" s="15"/>
       <c r="Q24" s="17" t="s">
-        <v>1019</v>
+        <v>995</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>1154</v>
+        <v>1130</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>1155</v>
+        <v>1131</v>
       </c>
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
@@ -19731,48 +19794,48 @@
       <c r="AA24" s="15"/>
       <c r="AB24" s="15"/>
       <c r="AC24" s="17" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>1172</v>
+        <v>1148</v>
       </c>
       <c r="AE24" s="17" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="AF24" s="15" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="AG24" s="17" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="AH24" s="17" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AI24" s="21">
         <v>51110</v>
       </c>
       <c r="AJ24" s="28" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="AK24" s="23" t="s">
-        <v>1268</v>
+        <v>1244</v>
       </c>
       <c r="AL24" s="23" t="s">
-        <v>1267</v>
+        <v>1243</v>
       </c>
       <c r="AM24" s="23" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="AN24" s="15"/>
       <c r="AO24" s="24" t="s">
-        <v>769</v>
+        <v>745</v>
       </c>
       <c r="AP24" s="17" t="s">
-        <v>767</v>
+        <v>743</v>
       </c>
       <c r="AQ24" s="26"/>
       <c r="AR24" s="42" t="s">
-        <v>768</v>
+        <v>744</v>
       </c>
       <c r="AS24" s="26"/>
       <c r="AT24" s="1">
@@ -19880,10 +19943,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="D25" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19906,13 +19969,13 @@
       <c r="S25" s="17"/>
       <c r="T25" s="17"/>
       <c r="U25" s="17" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>1164</v>
+        <v>1140</v>
       </c>
       <c r="W25" s="17" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="X25" s="17"/>
       <c r="Y25" s="17"/>
@@ -19920,37 +19983,37 @@
       <c r="AA25" s="17"/>
       <c r="AB25" s="17"/>
       <c r="AC25" s="17" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="AD25" s="17" t="s">
-        <v>1173</v>
+        <v>1149</v>
       </c>
       <c r="AE25" s="17" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="AF25" s="17" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="AG25" s="11" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="AH25" s="11" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="AI25" s="41">
         <v>10110</v>
       </c>
       <c r="AJ25" s="28" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="AK25" s="23" t="s">
-        <v>1232</v>
+        <v>1208</v>
       </c>
       <c r="AL25" s="23" t="s">
-        <v>1269</v>
+        <v>1245</v>
       </c>
       <c r="AM25" s="23" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="AN25" s="11"/>
       <c r="AO25" s="17"/>
@@ -20063,7 +20126,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>65</v>
@@ -20085,13 +20148,13 @@
       <c r="O26" s="17"/>
       <c r="P26" s="17"/>
       <c r="Q26" s="17" t="s">
-        <v>1115</v>
+        <v>1091</v>
       </c>
       <c r="R26" s="17" t="s">
-        <v>1116</v>
+        <v>1092</v>
       </c>
       <c r="S26" s="17" t="s">
-        <v>1117</v>
+        <v>1093</v>
       </c>
       <c r="T26" s="17"/>
       <c r="U26" s="17"/>
@@ -20107,22 +20170,22 @@
       <c r="AE26" s="17"/>
       <c r="AF26" s="17"/>
       <c r="AG26" s="11" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="AH26" s="11" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="AI26" s="41">
         <v>52100</v>
       </c>
       <c r="AJ26" s="28" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="AK26" s="23" t="s">
-        <v>1273</v>
+        <v>1249</v>
       </c>
       <c r="AL26" s="23" t="s">
-        <v>1272</v>
+        <v>1248</v>
       </c>
       <c r="AM26" s="23"/>
       <c r="AN26" s="25" t="s">
@@ -20236,10 +20299,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>1312</v>
+        <v>1288</v>
       </c>
       <c r="D27" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20258,13 +20321,13 @@
       <c r="O27" s="17"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="17" t="s">
-        <v>1118</v>
+        <v>1094</v>
       </c>
       <c r="R27" s="17" t="s">
-        <v>1119</v>
+        <v>1095</v>
       </c>
       <c r="S27" s="17" t="s">
-        <v>1120</v>
+        <v>1096</v>
       </c>
       <c r="T27" s="15"/>
       <c r="U27" s="17"/>
@@ -20280,32 +20343,32 @@
       <c r="AE27" s="17"/>
       <c r="AF27" s="15"/>
       <c r="AG27" s="11" t="s">
-        <v>655</v>
+        <v>631</v>
       </c>
       <c r="AH27" s="17" t="s">
-        <v>654</v>
+        <v>630</v>
       </c>
       <c r="AI27" s="21">
         <v>8430</v>
       </c>
       <c r="AJ27" s="28" t="s">
-        <v>656</v>
+        <v>632</v>
       </c>
       <c r="AK27" s="56"/>
       <c r="AL27" s="56" t="s">
-        <v>1274</v>
+        <v>1250</v>
       </c>
       <c r="AM27" s="23" t="s">
-        <v>657</v>
+        <v>633</v>
       </c>
       <c r="AN27" s="30"/>
       <c r="AO27" s="17" t="s">
-        <v>659</v>
+        <v>635</v>
       </c>
       <c r="AP27" s="17"/>
       <c r="AQ27" s="17"/>
       <c r="AR27" s="23" t="s">
-        <v>660</v>
+        <v>636</v>
       </c>
       <c r="AS27" s="25"/>
       <c r="AT27" s="1">
@@ -20408,13 +20471,13 @@
     </row>
     <row r="28" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="125" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="B28" s="125" t="s">
-        <v>1121</v>
+        <v>1097</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="D28" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20433,13 +20496,13 @@
       <c r="O28" s="54"/>
       <c r="P28" s="122"/>
       <c r="Q28" s="54" t="s">
-        <v>1115</v>
+        <v>1091</v>
       </c>
       <c r="R28" s="54" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
       <c r="S28" s="20" t="s">
-        <v>1124</v>
+        <v>1100</v>
       </c>
       <c r="T28" s="122"/>
       <c r="U28" s="122"/>
@@ -20455,10 +20518,10 @@
       <c r="AE28" s="54"/>
       <c r="AF28" s="122"/>
       <c r="AG28" s="54" t="s">
-        <v>1125</v>
+        <v>1101</v>
       </c>
       <c r="AH28" s="54" t="s">
-        <v>1126</v>
+        <v>1102</v>
       </c>
       <c r="AI28" s="128">
         <v>45730</v>
@@ -20468,7 +20531,7 @@
       </c>
       <c r="AK28" s="122"/>
       <c r="AL28" s="56" t="s">
-        <v>1275</v>
+        <v>1251</v>
       </c>
       <c r="AM28" s="54"/>
       <c r="AN28" s="130"/>
@@ -20577,13 +20640,13 @@
     </row>
     <row r="29" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="125" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="B29" s="125" t="s">
-        <v>599</v>
+        <v>576</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>1127</v>
+        <v>1103</v>
       </c>
       <c r="D29" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20602,13 +20665,13 @@
       <c r="O29" s="54"/>
       <c r="P29" s="54"/>
       <c r="Q29" s="54" t="s">
-        <v>1128</v>
+        <v>1104</v>
       </c>
       <c r="R29" s="54" t="s">
-        <v>1129</v>
+        <v>1105</v>
       </c>
       <c r="S29" s="20" t="s">
-        <v>1130</v>
+        <v>1106</v>
       </c>
       <c r="T29" s="54"/>
       <c r="U29" s="54"/>
@@ -20624,10 +20687,10 @@
       <c r="AE29" s="54"/>
       <c r="AF29" s="54"/>
       <c r="AG29" s="54" t="s">
-        <v>1131</v>
+        <v>1107</v>
       </c>
       <c r="AH29" s="54" t="s">
-        <v>885</v>
+        <v>861</v>
       </c>
       <c r="AI29" s="128">
         <v>8000</v>
@@ -20637,7 +20700,7 @@
       </c>
       <c r="AK29" s="54"/>
       <c r="AL29" s="56" t="s">
-        <v>1276</v>
+        <v>1252</v>
       </c>
       <c r="AM29" s="54"/>
       <c r="AN29" s="54"/>
@@ -20749,10 +20812,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="D30" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20771,13 +20834,13 @@
       <c r="O30" s="17"/>
       <c r="P30" s="17"/>
       <c r="Q30" s="17" t="s">
-        <v>1132</v>
+        <v>1108</v>
       </c>
       <c r="R30" s="17" t="s">
-        <v>1133</v>
+        <v>1109</v>
       </c>
       <c r="S30" s="17" t="s">
-        <v>1134</v>
+        <v>1110</v>
       </c>
       <c r="T30" s="17"/>
       <c r="U30" s="17"/>
@@ -20793,37 +20856,37 @@
       <c r="AE30" s="17"/>
       <c r="AF30" s="48"/>
       <c r="AG30" s="54" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="AH30" s="17" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="AI30" s="21">
         <v>51500</v>
       </c>
       <c r="AJ30" s="46" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="AK30" s="23" t="s">
-        <v>1278</v>
+        <v>1254</v>
       </c>
       <c r="AL30" s="23" t="s">
-        <v>1277</v>
+        <v>1253</v>
       </c>
       <c r="AM30" s="23"/>
       <c r="AN30" s="45" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="AO30" s="17" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="AP30" s="17" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="AQ30" s="17"/>
       <c r="AR30" s="48"/>
       <c r="AS30" s="25" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AT30" s="1">
         <f>RANK(BL30,$BL$3:$BL$122)+COUNTIF(BL$3:BL30,BL30)-1</f>
@@ -20931,7 +20994,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D31" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20954,16 +21017,16 @@
       <c r="S31" s="17"/>
       <c r="T31" s="17"/>
       <c r="U31" s="17" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="V31" s="17" t="s">
-        <v>1166</v>
+        <v>1142</v>
       </c>
       <c r="W31" s="17" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="X31" s="17" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="Y31" s="17"/>
       <c r="Z31" s="17"/>
@@ -20977,7 +21040,7 @@
         <v>56</v>
       </c>
       <c r="AH31" s="11" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="AI31" s="41">
         <v>51053</v>
@@ -20986,10 +21049,10 @@
         <v>58</v>
       </c>
       <c r="AK31" s="23" t="s">
-        <v>1280</v>
+        <v>1256</v>
       </c>
       <c r="AL31" s="23" t="s">
-        <v>1279</v>
+        <v>1255</v>
       </c>
       <c r="AM31" s="23"/>
       <c r="AN31" s="25"/>
@@ -20998,13 +21061,13 @@
       </c>
       <c r="AP31" s="17"/>
       <c r="AQ31" s="11" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="AR31" s="23" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="AS31" s="25" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AT31" s="1">
         <f>RANK(BL31,$BL$3:$BL$122)+COUNTIF(BL$3:BL31,BL31)-1</f>
@@ -21109,10 +21172,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="D32" s="73" t="str">
         <f t="shared" si="0"/>
@@ -21135,13 +21198,13 @@
       <c r="S32" s="17"/>
       <c r="T32" s="17"/>
       <c r="U32" s="17" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="V32" s="17" t="s">
-        <v>1167</v>
+        <v>1143</v>
       </c>
       <c r="W32" s="17" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="X32" s="17"/>
       <c r="Y32" s="17"/>
@@ -21153,7 +21216,7 @@
       <c r="AE32" s="17"/>
       <c r="AF32" s="17"/>
       <c r="AG32" s="11" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="AH32" s="11" t="s">
         <v>69</v>
@@ -21162,19 +21225,19 @@
         <v>51100</v>
       </c>
       <c r="AJ32" s="28" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AK32" s="53" t="s">
-        <v>1282</v>
+        <v>1258</v>
       </c>
       <c r="AL32" s="53" t="s">
-        <v>1281</v>
+        <v>1257</v>
       </c>
       <c r="AM32" s="23" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="AN32" s="25" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="AO32" s="17"/>
       <c r="AP32" s="17"/>
@@ -21281,11 +21344,11 @@
     </row>
     <row r="33" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="17" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="D33" s="73" t="str">
         <f t="shared" si="0"/>
@@ -21308,13 +21371,13 @@
       <c r="S33" s="15"/>
       <c r="T33" s="15"/>
       <c r="U33" s="17" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="V33" s="17" t="s">
-        <v>1168</v>
+        <v>1144</v>
       </c>
       <c r="W33" s="17" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="X33" s="15"/>
       <c r="Y33" s="15"/>
@@ -21326,36 +21389,36 @@
       <c r="AE33" s="17"/>
       <c r="AF33" s="15"/>
       <c r="AG33" s="17" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="AH33" s="17" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AI33" s="21">
         <v>51100</v>
       </c>
       <c r="AJ33" s="28" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="AK33" s="23" t="s">
-        <v>1284</v>
+        <v>1260</v>
       </c>
       <c r="AL33" s="23" t="s">
-        <v>1283</v>
+        <v>1259</v>
       </c>
       <c r="AM33" s="23" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="AN33" s="30"/>
       <c r="AO33" s="15" t="s">
-        <v>763</v>
+        <v>739</v>
       </c>
       <c r="AP33" s="24"/>
       <c r="AQ33" s="17" t="s">
-        <v>762</v>
+        <v>738</v>
       </c>
       <c r="AR33" s="23" t="s">
-        <v>764</v>
+        <v>740</v>
       </c>
       <c r="AS33" s="26"/>
       <c r="AT33" s="1">
@@ -21492,25 +21555,25 @@
       <c r="X34" s="17"/>
       <c r="Y34" s="17"/>
       <c r="Z34" s="17" t="s">
-        <v>1068</v>
+        <v>1044</v>
       </c>
       <c r="AA34" s="17" t="s">
-        <v>1067</v>
+        <v>1043</v>
       </c>
       <c r="AB34" s="17"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="17" t="s">
-        <v>1066</v>
+        <v>1042</v>
       </c>
       <c r="AE34" s="17" t="s">
-        <v>1067</v>
+        <v>1043</v>
       </c>
       <c r="AF34" s="17"/>
       <c r="AG34" s="11" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="AH34" s="11" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="AI34" s="41">
         <v>10160</v>
@@ -21519,15 +21582,15 @@
         <v>78</v>
       </c>
       <c r="AK34" s="23" t="s">
-        <v>1286</v>
+        <v>1262</v>
       </c>
       <c r="AL34" s="23" t="s">
-        <v>1285</v>
+        <v>1261</v>
       </c>
       <c r="AM34" s="23"/>
       <c r="AN34" s="25"/>
       <c r="AO34" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP34" s="17" t="s">
         <v>2</v>
@@ -21647,7 +21710,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="69" t="s">
-        <v>1051</v>
+        <v>1027</v>
       </c>
       <c r="D35" s="73" t="str">
         <f t="shared" ref="D35:D66" si="19">IF(AX35&lt;&gt;0,"2020_A="&amp;AX35," ")&amp;IF(AY35&lt;&gt;0," ; 2020_i="&amp;AY35," ")&amp;IF(AZ35&lt;&gt;0,"2019_A="&amp;AZ35," ")&amp;IF(BA35&lt;&gt;0," ; 2019_i="&amp;BA35," ")&amp;IF(BB35&lt;&gt;0,"2018_A="&amp;BB35," ")&amp;IF(BC35&lt;&gt;0," ; 2018_i="&amp;BC35," ")&amp;IF(BD35&lt;&gt;0," ; 2017_A="&amp;BD35," ")&amp;IF(BE35&lt;&gt;0," ; 2017_i="&amp;BE35," ")&amp;IF(BF35&lt;&gt;0," ; 2016_A="&amp;BF35," ")&amp;IF(BG35&lt;&gt;0," ; 2016_i="&amp;BG35," ")&amp;IF(BH35&lt;&gt;0," ; 2015_A="&amp;BH35," ")&amp;IF(BI35&lt;&gt;0," ; 2015_i="&amp;BI35," ")&amp;IF(BJ35&lt;&gt;0," ; 2014_A="&amp;BJ35," ")&amp;IF(BK35&lt;&gt;0," ; 2014_i="&amp;BK35," ")</f>
@@ -21674,45 +21737,45 @@
       <c r="W35" s="69"/>
       <c r="X35" s="84"/>
       <c r="Y35" s="69" t="s">
-        <v>1019</v>
+        <v>995</v>
       </c>
       <c r="Z35" s="69" t="s">
-        <v>1054</v>
+        <v>1030</v>
       </c>
       <c r="AA35" s="69" t="s">
-        <v>1053</v>
+        <v>1029</v>
       </c>
       <c r="AB35" s="84"/>
       <c r="AC35" s="69" t="s">
-        <v>1019</v>
+        <v>995</v>
       </c>
       <c r="AD35" s="69" t="s">
-        <v>1052</v>
+        <v>1028</v>
       </c>
       <c r="AE35" s="69" t="s">
-        <v>1053</v>
+        <v>1029</v>
       </c>
       <c r="AF35" s="84"/>
       <c r="AG35" s="105" t="s">
-        <v>1047</v>
+        <v>1023</v>
       </c>
       <c r="AH35" s="69" t="s">
-        <v>1048</v>
+        <v>1024</v>
       </c>
       <c r="AI35" s="86">
         <v>10700</v>
       </c>
       <c r="AJ35" s="69" t="s">
-        <v>1049</v>
+        <v>1025</v>
       </c>
       <c r="AK35" s="23" t="s">
-        <v>1234</v>
+        <v>1210</v>
       </c>
       <c r="AL35" s="23" t="s">
-        <v>1287</v>
+        <v>1263</v>
       </c>
       <c r="AM35" s="69" t="s">
-        <v>1050</v>
+        <v>1026</v>
       </c>
       <c r="AN35" s="90"/>
       <c r="AO35" s="84"/>
@@ -21825,10 +21888,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="100" t="s">
-        <v>1057</v>
+        <v>1033</v>
       </c>
       <c r="C36" s="69" t="s">
-        <v>1058</v>
+        <v>1034</v>
       </c>
       <c r="D36" s="73" t="str">
         <f t="shared" si="19"/>
@@ -21856,40 +21919,40 @@
       <c r="X36" s="84"/>
       <c r="Y36" s="84"/>
       <c r="Z36" s="69" t="s">
-        <v>1065</v>
+        <v>1041</v>
       </c>
       <c r="AA36" s="69" t="s">
-        <v>1064</v>
+        <v>1040</v>
       </c>
       <c r="AB36" s="84"/>
       <c r="AC36" s="69"/>
       <c r="AD36" s="69" t="s">
-        <v>1063</v>
+        <v>1039</v>
       </c>
       <c r="AE36" s="69" t="s">
-        <v>1064</v>
+        <v>1040</v>
       </c>
       <c r="AF36" s="84"/>
       <c r="AG36" s="105" t="s">
-        <v>1059</v>
+        <v>1035</v>
       </c>
       <c r="AH36" s="69" t="s">
-        <v>1060</v>
+        <v>1036</v>
       </c>
       <c r="AI36" s="86">
         <v>45550</v>
       </c>
       <c r="AJ36" s="69" t="s">
-        <v>1061</v>
+        <v>1037</v>
       </c>
       <c r="AK36" s="22" t="s">
-        <v>1289</v>
+        <v>1265</v>
       </c>
       <c r="AL36" s="23" t="s">
-        <v>1288</v>
+        <v>1264</v>
       </c>
       <c r="AM36" s="69" t="s">
-        <v>1062</v>
+        <v>1038</v>
       </c>
       <c r="AN36" s="90"/>
       <c r="AO36" s="84"/>
@@ -22002,10 +22065,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="D37" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22036,37 +22099,37 @@
       <c r="AA37" s="15"/>
       <c r="AB37" s="15"/>
       <c r="AC37" s="17" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="AD37" s="17" t="s">
-        <v>1174</v>
+        <v>1150</v>
       </c>
       <c r="AE37" s="17" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="AF37" s="15" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="AG37" s="17" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="AH37" s="17" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="AI37" s="21">
         <v>8000</v>
       </c>
       <c r="AJ37" s="28" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="AK37" s="22" t="s">
-        <v>1291</v>
+        <v>1267</v>
       </c>
       <c r="AL37" s="22" t="s">
-        <v>1290</v>
+        <v>1266</v>
       </c>
       <c r="AM37" s="23" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="AN37" s="30"/>
       <c r="AO37" s="26"/>
@@ -22177,10 +22240,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="D38" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22211,35 +22274,35 @@
       <c r="AA38" s="15"/>
       <c r="AB38" s="15"/>
       <c r="AC38" s="17" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="AD38" s="17" t="s">
-        <v>1175</v>
+        <v>1151</v>
       </c>
       <c r="AE38" s="17" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="AF38" s="15"/>
       <c r="AG38" s="17" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="AH38" s="17" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="AI38" s="21">
         <v>8300</v>
       </c>
       <c r="AJ38" s="28" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="AK38" s="22" t="s">
-        <v>1293</v>
+        <v>1269</v>
       </c>
       <c r="AL38" s="22" t="s">
-        <v>1292</v>
+        <v>1268</v>
       </c>
       <c r="AM38" s="23" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="AN38" s="30"/>
       <c r="AO38" s="26"/>
@@ -22247,7 +22310,7 @@
       <c r="AQ38" s="26"/>
       <c r="AR38" s="26"/>
       <c r="AS38" s="48" t="s">
-        <v>688</v>
+        <v>664</v>
       </c>
       <c r="AT38" s="1">
         <f>RANK(BL38,$BL$3:$BL$122)+COUNTIF(BL$3:BL38,BL38)-1</f>
@@ -22349,13 +22412,13 @@
     </row>
     <row r="39" spans="1:80" s="1" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>1259</v>
+        <v>1235</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>835</v>
+        <v>811</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>1314</v>
+        <v>1290</v>
       </c>
       <c r="D39" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22386,47 +22449,47 @@
       <c r="AA39" s="15"/>
       <c r="AB39" s="15"/>
       <c r="AC39" s="17" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="AD39" s="17" t="s">
-        <v>1176</v>
+        <v>1152</v>
       </c>
       <c r="AE39" s="17" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="AF39" s="15" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="AG39" s="17" t="s">
-        <v>1313</v>
+        <v>1289</v>
       </c>
       <c r="AH39" s="17" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="AI39" s="21">
         <v>51096</v>
       </c>
       <c r="AJ39" s="15"/>
       <c r="AK39" s="23" t="s">
-        <v>1295</v>
+        <v>1271</v>
       </c>
       <c r="AL39" s="23" t="s">
-        <v>1294</v>
+        <v>1270</v>
       </c>
       <c r="AM39" s="17"/>
       <c r="AN39" s="25" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="AO39" s="26"/>
       <c r="AP39" s="24"/>
       <c r="AQ39" s="11" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="AR39" s="42" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="AS39" s="25" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AT39" s="1">
         <f>RANK(BL39,$BL$3:$BL$122)+COUNTIF(BL$3:BL39,BL39)-1</f>
@@ -22565,55 +22628,55 @@
       <c r="AA40" s="17"/>
       <c r="AB40" s="17"/>
       <c r="AC40" s="17" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="AD40" s="17" t="s">
-        <v>1177</v>
+        <v>1153</v>
       </c>
       <c r="AE40" s="17" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="AF40" s="17" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="AG40" s="11" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="AH40" s="11" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="AI40" s="41">
         <v>51110</v>
       </c>
       <c r="AJ40" s="28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AK40" s="23" t="s">
-        <v>1297</v>
+        <v>1273</v>
       </c>
       <c r="AL40" s="23" t="s">
-        <v>1296</v>
+        <v>1272</v>
       </c>
       <c r="AM40" s="23" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="AN40" s="25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AO40" s="17" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="AP40" s="17" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="AQ40" s="11" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="AR40" s="11" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="AS40" s="25" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AT40" s="1">
         <f>RANK(BL40,$BL$3:$BL$122)+COUNTIF(BL$3:BL40,BL40)-1</f>
@@ -22718,10 +22781,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="D41" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22752,22 +22815,22 @@
       <c r="AA41" s="15"/>
       <c r="AB41" s="15"/>
       <c r="AC41" s="17" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="AD41" s="17" t="s">
-        <v>1178</v>
+        <v>1154</v>
       </c>
       <c r="AE41" s="17" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="AF41" s="15" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="AG41" s="17" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="AH41" s="17" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="AI41" s="21">
         <v>51530</v>
@@ -22776,13 +22839,13 @@
         <v>44</v>
       </c>
       <c r="AK41" s="22" t="s">
-        <v>1299</v>
+        <v>1275</v>
       </c>
       <c r="AL41" s="22" t="s">
-        <v>1298</v>
+        <v>1274</v>
       </c>
       <c r="AM41" s="23" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="AN41" s="30"/>
       <c r="AO41" s="26"/>
@@ -22790,7 +22853,7 @@
       <c r="AQ41" s="26"/>
       <c r="AR41" s="26"/>
       <c r="AS41" s="25" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AT41" s="1">
         <f>RANK(BL41,$BL$3:$BL$122)+COUNTIF(BL$3:BL41,BL41)-1</f>
@@ -22892,13 +22955,13 @@
     </row>
     <row r="42" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>1259</v>
+        <v>1235</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>1301</v>
+        <v>1277</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="D42" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22929,50 +22992,50 @@
       <c r="AA42" s="15"/>
       <c r="AB42" s="15"/>
       <c r="AC42" s="17" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="AD42" s="17" t="s">
-        <v>1179</v>
+        <v>1155</v>
       </c>
       <c r="AE42" s="17" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="AF42" s="15" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="AG42" s="17" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="AH42" s="17" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="AI42" s="21">
         <v>51686</v>
       </c>
       <c r="AJ42" s="28" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="AK42" s="22" t="s">
-        <v>1302</v>
+        <v>1278</v>
       </c>
       <c r="AL42" s="22" t="s">
-        <v>1300</v>
+        <v>1276</v>
       </c>
       <c r="AM42" s="23" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="AN42" s="17" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="AO42" s="17" t="s">
-        <v>837</v>
+        <v>813</v>
       </c>
       <c r="AP42" s="24"/>
       <c r="AQ42" s="25" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="AR42" s="42" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="AS42" s="26"/>
       <c r="AT42" s="1">
@@ -23078,10 +23141,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="D43" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23112,38 +23175,38 @@
       <c r="AA43" s="15"/>
       <c r="AB43" s="15"/>
       <c r="AC43" s="17" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="AD43" s="17" t="s">
-        <v>1180</v>
+        <v>1156</v>
       </c>
       <c r="AE43" s="17" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="AF43" s="15" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="AG43" s="17" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="AH43" s="17" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="AI43" s="41">
         <v>67200</v>
       </c>
       <c r="AJ43" s="28" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="AK43" s="22"/>
       <c r="AL43" s="22" t="s">
-        <v>1303</v>
+        <v>1279</v>
       </c>
       <c r="AM43" s="23" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="AN43" s="17" t="s">
-        <v>687</v>
+        <v>663</v>
       </c>
       <c r="AO43" s="17"/>
       <c r="AP43" s="17"/>
@@ -23152,7 +23215,7 @@
       </c>
       <c r="AR43" s="26"/>
       <c r="AS43" s="25" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AT43" s="1">
         <f>RANK(BL43,$BL$3:$BL$122)+COUNTIF(BL$3:BL43,BL43)-1</f>
@@ -23257,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="D44" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23291,37 +23354,37 @@
       <c r="AA44" s="15"/>
       <c r="AB44" s="15"/>
       <c r="AC44" s="17" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="AD44" s="17" t="s">
-        <v>1181</v>
+        <v>1157</v>
       </c>
       <c r="AE44" s="17" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="AF44" s="15" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="AG44" s="17" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="AH44" s="17" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="AI44" s="21">
         <v>77440</v>
       </c>
       <c r="AJ44" s="28" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="AK44" s="22" t="s">
-        <v>1305</v>
+        <v>1281</v>
       </c>
       <c r="AL44" s="22" t="s">
-        <v>1304</v>
+        <v>1280</v>
       </c>
       <c r="AM44" s="23" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="AN44" s="30"/>
       <c r="AO44" s="26"/>
@@ -23435,7 +23498,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>1081</v>
+        <v>1057</v>
       </c>
       <c r="D45" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23466,48 +23529,48 @@
       <c r="AA45" s="17"/>
       <c r="AB45" s="17"/>
       <c r="AC45" s="17" t="s">
-        <v>1019</v>
+        <v>995</v>
       </c>
       <c r="AD45" s="17" t="s">
-        <v>1079</v>
+        <v>1055</v>
       </c>
       <c r="AE45" s="17" t="s">
-        <v>1080</v>
+        <v>1056</v>
       </c>
       <c r="AF45" s="17"/>
       <c r="AG45" s="11" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="AH45" s="11" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="AI45" s="41">
         <v>51230</v>
       </c>
       <c r="AJ45" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK45" s="23" t="s">
-        <v>1307</v>
+        <v>1283</v>
       </c>
       <c r="AL45" s="23" t="s">
-        <v>1306</v>
+        <v>1282</v>
       </c>
       <c r="AM45" s="23"/>
       <c r="AN45" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO45" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="AO45" s="17" t="s">
-        <v>95</v>
-      </c>
       <c r="AP45" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AQ45" s="25" t="s">
         <v>5</v>
       </c>
       <c r="AR45" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AS45" s="25"/>
       <c r="AT45" s="1">
@@ -23613,10 +23676,10 @@
         <v>0</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="D46" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23648,29 +23711,29 @@
       <c r="AB46" s="30"/>
       <c r="AC46" s="17"/>
       <c r="AD46" s="17" t="s">
-        <v>1075</v>
+        <v>1051</v>
       </c>
       <c r="AE46" s="17" t="s">
-        <v>1076</v>
+        <v>1052</v>
       </c>
       <c r="AF46" s="30"/>
       <c r="AG46" s="17" t="s">
-        <v>694</v>
+        <v>670</v>
       </c>
       <c r="AH46" s="17" t="s">
-        <v>695</v>
+        <v>671</v>
       </c>
       <c r="AI46" s="21">
         <v>45110</v>
       </c>
       <c r="AJ46" s="28" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="AK46" s="58" t="s">
-        <v>1309</v>
+        <v>1285</v>
       </c>
       <c r="AL46" s="58" t="s">
-        <v>1308</v>
+        <v>1284</v>
       </c>
       <c r="AM46" s="17"/>
       <c r="AN46" s="26"/>
@@ -23782,10 +23845,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="D47" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23820,30 +23883,30 @@
       <c r="AE47" s="17"/>
       <c r="AF47" s="17"/>
       <c r="AG47" s="11" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="AH47" s="11" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="AI47" s="41">
         <v>2220</v>
       </c>
       <c r="AJ47" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AK47" s="23" t="s">
-        <v>1311</v>
+        <v>1287</v>
       </c>
       <c r="AL47" s="23" t="s">
-        <v>1310</v>
+        <v>1286</v>
       </c>
       <c r="AM47" s="23"/>
       <c r="AN47" s="25"/>
       <c r="AO47" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AP47" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AQ47" s="25"/>
       <c r="AR47" s="42" t="s">
@@ -23951,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>6</v>
@@ -23989,22 +24052,22 @@
       <c r="AE48" s="17"/>
       <c r="AF48" s="17"/>
       <c r="AG48" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AH48" s="11" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="AI48" s="43" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="AJ48" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK48" s="23" t="s">
-        <v>1316</v>
+        <v>1292</v>
       </c>
       <c r="AL48" s="23" t="s">
-        <v>1315</v>
+        <v>1291</v>
       </c>
       <c r="AM48" s="23"/>
       <c r="AN48" s="25"/>
@@ -24012,7 +24075,7 @@
       <c r="AP48" s="17"/>
       <c r="AQ48" s="25"/>
       <c r="AR48" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AS48" s="25"/>
       <c r="AT48" s="1">
@@ -24116,10 +24179,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D49" s="73" t="str">
         <f t="shared" si="19"/>
@@ -24154,23 +24217,23 @@
       <c r="AE49" s="17"/>
       <c r="AF49" s="17"/>
       <c r="AG49" s="11" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="AH49" s="11" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="AI49" s="43" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="AJ49" s="28" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AK49" s="23"/>
       <c r="AL49" s="23" t="s">
-        <v>1317</v>
+        <v>1293</v>
       </c>
       <c r="AM49" s="23" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="AN49" s="25"/>
       <c r="AO49" s="17"/>
@@ -24279,7 +24342,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>34</v>
@@ -24317,30 +24380,30 @@
       <c r="AE50" s="17"/>
       <c r="AF50" s="17"/>
       <c r="AG50" s="11" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="AH50" s="11" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="AI50" s="43" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="AJ50" s="28" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="AK50" s="23" t="s">
-        <v>1319</v>
+        <v>1295</v>
       </c>
       <c r="AL50" s="23" t="s">
-        <v>1318</v>
+        <v>1294</v>
       </c>
       <c r="AM50" s="23"/>
       <c r="AN50" s="25"/>
       <c r="AO50" s="17" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AP50" s="17" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="AQ50" s="44" t="s">
         <v>35</v>
@@ -24450,10 +24513,10 @@
         <v>0</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>1322</v>
+        <v>1298</v>
       </c>
       <c r="D51" s="73" t="str">
         <f t="shared" si="19"/>
@@ -24488,37 +24551,37 @@
       <c r="AE51" s="17"/>
       <c r="AF51" s="17"/>
       <c r="AG51" s="11" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="AH51" s="11" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="AI51" s="41">
         <v>8150</v>
       </c>
       <c r="AJ51" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AK51" s="23" t="s">
-        <v>1321</v>
+        <v>1297</v>
       </c>
       <c r="AL51" s="23" t="s">
-        <v>1320</v>
+        <v>1296</v>
       </c>
       <c r="AM51" s="23"/>
       <c r="AN51" s="25"/>
       <c r="AO51" s="17" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="AP51" s="17" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="AQ51" s="25"/>
       <c r="AR51" s="23" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="AS51" s="25" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="AT51" s="1">
         <f>RANK(BL51,$BL$3:$BL$122)+COUNTIF(BL$3:BL51,BL51)-1</f>
@@ -24621,7 +24684,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>68</v>
@@ -24659,38 +24722,38 @@
       <c r="AE52" s="17"/>
       <c r="AF52" s="15"/>
       <c r="AG52" s="17" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="AH52" s="17" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="AI52" s="41">
         <v>8430</v>
       </c>
       <c r="AJ52" s="28" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="AK52" s="22" t="s">
-        <v>1324</v>
+        <v>1300</v>
       </c>
       <c r="AL52" s="22" t="s">
-        <v>1323</v>
+        <v>1299</v>
       </c>
       <c r="AM52" s="23" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="AN52" s="49"/>
       <c r="AO52" s="17" t="s">
-        <v>679</v>
+        <v>655</v>
       </c>
       <c r="AP52" s="17" t="s">
-        <v>678</v>
+        <v>654</v>
       </c>
       <c r="AQ52" s="23" t="s">
-        <v>669</v>
+        <v>645</v>
       </c>
       <c r="AR52" s="42" t="s">
-        <v>670</v>
+        <v>646</v>
       </c>
       <c r="AS52" s="26"/>
       <c r="AT52" s="1">
@@ -24794,7 +24857,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>38</v>
@@ -24832,26 +24895,26 @@
       <c r="AE53" s="17"/>
       <c r="AF53" s="17"/>
       <c r="AG53" s="11" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="AH53" s="11" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="AI53" s="41">
         <v>10800</v>
       </c>
       <c r="AJ53" s="28" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="AK53" s="23" t="s">
-        <v>1326</v>
+        <v>1302</v>
       </c>
       <c r="AL53" s="23" t="s">
-        <v>1325</v>
+        <v>1301</v>
       </c>
       <c r="AM53" s="23"/>
       <c r="AN53" s="25" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="AO53" s="17"/>
       <c r="AP53" s="17"/>
@@ -24959,7 +25022,7 @@
         <v>0</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>26</v>
@@ -24997,22 +25060,22 @@
       <c r="AE54" s="17"/>
       <c r="AF54" s="17"/>
       <c r="AG54" s="11" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AH54" s="11" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AI54" s="41">
         <v>51100</v>
       </c>
       <c r="AJ54" s="28" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK54" s="23" t="s">
-        <v>1328</v>
+        <v>1304</v>
       </c>
       <c r="AL54" s="23" t="s">
-        <v>1327</v>
+        <v>1303</v>
       </c>
       <c r="AM54" s="23"/>
       <c r="AN54" s="25"/>
@@ -25117,12 +25180,12 @@
       </c>
       <c r="CB54" s="35"/>
     </row>
-    <row r="55" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:80" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>27</v>
@@ -25160,37 +25223,39 @@
       <c r="AE55" s="17"/>
       <c r="AF55" s="17"/>
       <c r="AG55" s="11" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="AH55" s="11" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AI55" s="41">
         <v>51100</v>
       </c>
       <c r="AJ55" s="28" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AK55" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL55" s="23"/>
+        <v>1306</v>
+      </c>
+      <c r="AL55" s="23" t="s">
+        <v>1305</v>
+      </c>
       <c r="AM55" s="23"/>
       <c r="AN55" s="25" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="AO55" s="17" t="s">
         <v>28</v>
       </c>
       <c r="AP55" s="17" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="AQ55" s="25" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AR55" s="11"/>
       <c r="AS55" s="25" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AT55" s="1">
         <f>RANK(BL55,$BL$3:$BL$122)+COUNTIF(BL$3:BL55,BL55)-1</f>
@@ -25288,7 +25353,7 @@
       </c>
       <c r="CB55" s="35"/>
     </row>
-    <row r="56" spans="1:80" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:80" s="7" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
         <v>0</v>
       </c>
@@ -25331,32 +25396,34 @@
       <c r="AE56" s="17"/>
       <c r="AF56" s="17"/>
       <c r="AG56" s="11" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="AH56" s="11" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AI56" s="41">
         <v>51100</v>
       </c>
       <c r="AJ56" s="28" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="AK56" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="AL56" s="23"/>
+        <v>1308</v>
+      </c>
+      <c r="AL56" s="23" t="s">
+        <v>1307</v>
+      </c>
       <c r="AM56" s="23"/>
       <c r="AN56" s="25"/>
       <c r="AO56" s="17" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="AP56" s="17"/>
       <c r="AQ56" s="44" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="AR56" s="42" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="AS56" s="25"/>
       <c r="AT56" s="1">
@@ -25455,15 +25522,15 @@
       </c>
       <c r="CB56" s="35"/>
     </row>
-    <row r="57" spans="1:80" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:80" s="7" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D57" s="73" t="str">
         <f t="shared" si="19"/>
@@ -25498,10 +25565,10 @@
       <c r="AE57" s="17"/>
       <c r="AF57" s="17"/>
       <c r="AG57" s="11" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="AH57" s="11" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="AI57" s="41">
         <v>51110</v>
@@ -25510,25 +25577,27 @@
         <v>33</v>
       </c>
       <c r="AK57" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="AL57" s="23"/>
+        <v>1310</v>
+      </c>
+      <c r="AL57" s="23" t="s">
+        <v>1309</v>
+      </c>
       <c r="AM57" s="23"/>
       <c r="AN57" s="25"/>
       <c r="AO57" s="17" t="s">
-        <v>1200</v>
+        <v>1176</v>
       </c>
       <c r="AP57" s="17" t="s">
-        <v>1201</v>
+        <v>1177</v>
       </c>
       <c r="AQ57" s="11" t="s">
-        <v>1202</v>
+        <v>1178</v>
       </c>
       <c r="AR57" s="50" t="s">
-        <v>1203</v>
+        <v>1179</v>
       </c>
       <c r="AS57" s="11" t="s">
-        <v>1204</v>
+        <v>1180</v>
       </c>
       <c r="AT57" s="1">
         <f>RANK(BL57,$BL$3:$BL$122)+COUNTIF(BL$3:BL57,BL57)-1</f>
@@ -25626,7 +25695,7 @@
       </c>
       <c r="CB57" s="35"/>
     </row>
-    <row r="58" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:80" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
         <v>0</v>
       </c>
@@ -25669,26 +25738,28 @@
       <c r="AE58" s="17"/>
       <c r="AF58" s="17"/>
       <c r="AG58" s="11" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="AH58" s="11" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="AI58" s="41">
         <v>51130</v>
       </c>
       <c r="AJ58" s="28"/>
       <c r="AK58" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="AL58" s="23"/>
+        <v>1312</v>
+      </c>
+      <c r="AL58" s="23" t="s">
+        <v>1311</v>
+      </c>
       <c r="AM58" s="23"/>
       <c r="AN58" s="25"/>
       <c r="AO58" s="17" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="AP58" s="17" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="AQ58" s="44" t="s">
         <v>55</v>
@@ -25796,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>63</v>
@@ -25834,28 +25905,30 @@
       <c r="AE59" s="17"/>
       <c r="AF59" s="17"/>
       <c r="AG59" s="11" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="AH59" s="11" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="AI59" s="41">
         <v>51160</v>
       </c>
       <c r="AJ59" s="28" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="AK59" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="AL59" s="23"/>
+        <v>1314</v>
+      </c>
+      <c r="AL59" s="23" t="s">
+        <v>1313</v>
+      </c>
       <c r="AM59" s="23"/>
       <c r="AN59" s="25"/>
       <c r="AO59" s="17" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="AP59" s="17" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AQ59" s="44"/>
       <c r="AR59" s="23" t="s">
@@ -26001,21 +26074,23 @@
       <c r="AE60" s="17"/>
       <c r="AF60" s="17"/>
       <c r="AG60" s="11" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AH60" s="11" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="AI60" s="41">
         <v>51190</v>
       </c>
       <c r="AJ60" s="28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AK60" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL60" s="23"/>
+        <v>1316</v>
+      </c>
+      <c r="AL60" s="23" t="s">
+        <v>1315</v>
+      </c>
       <c r="AM60" s="23"/>
       <c r="AN60" s="25"/>
       <c r="AO60" s="25"/>
@@ -26162,10 +26237,10 @@
       <c r="AE61" s="17"/>
       <c r="AF61" s="17"/>
       <c r="AG61" s="11" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="AH61" s="11" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="AI61" s="41">
         <v>51200</v>
@@ -26174,7 +26249,7 @@
         <v>53</v>
       </c>
       <c r="AK61" s="23" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="AL61" s="23"/>
       <c r="AM61" s="23"/>
@@ -26288,7 +26363,7 @@
         <v>17</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D62" s="73" t="str">
         <f t="shared" si="19"/>
@@ -26326,7 +26401,7 @@
         <v>49</v>
       </c>
       <c r="AH62" s="11" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="AI62" s="41">
         <v>51204</v>
@@ -26335,7 +26410,7 @@
         <v>50</v>
       </c>
       <c r="AK62" s="23" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="AL62" s="23"/>
       <c r="AM62" s="23"/>
@@ -26448,7 +26523,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C63" s="17" t="s">
         <v>30</v>
@@ -26486,30 +26561,32 @@
       <c r="AE63" s="17"/>
       <c r="AF63" s="17"/>
       <c r="AG63" s="11" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AH63" s="11" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="AI63" s="41">
         <v>51300</v>
       </c>
       <c r="AJ63" s="28" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AK63" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL63" s="23"/>
+        <v>1318</v>
+      </c>
+      <c r="AL63" s="23" t="s">
+        <v>1317</v>
+      </c>
       <c r="AM63" s="23"/>
       <c r="AN63" s="25" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="AO63" s="17" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AP63" s="17" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AQ63" s="25" t="s">
         <v>31</v>
@@ -26518,7 +26595,7 @@
         <v>32</v>
       </c>
       <c r="AS63" s="25" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AT63" s="1">
         <f>RANK(BL63,$BL$3:$BL$122)+COUNTIF(BL$3:BL63,BL63)-1</f>
@@ -26624,7 +26701,7 @@
         <v>17</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D64" s="73" t="str">
         <f t="shared" si="19"/>
@@ -26662,7 +26739,7 @@
         <v>59</v>
       </c>
       <c r="AH64" s="11" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="AI64" s="41">
         <v>51420</v>
@@ -26670,12 +26747,12 @@
       <c r="AJ64" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="AK64" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="AL64" s="23"/>
+      <c r="AK64" s="23"/>
+      <c r="AL64" s="23" t="s">
+        <v>1319</v>
+      </c>
       <c r="AM64" s="23" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="AN64" s="25" t="s">
         <v>60</v>
@@ -26689,7 +26766,7 @@
         <v>62</v>
       </c>
       <c r="AS64" s="25" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AT64" s="1">
         <f>RANK(BL64,$BL$3:$BL$122)+COUNTIF(BL$3:BL64,BL64)-1</f>
@@ -26795,7 +26872,7 @@
         <v>83</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>1046</v>
+        <v>1022</v>
       </c>
       <c r="D65" s="73" t="str">
         <f t="shared" si="19"/>
@@ -26830,39 +26907,41 @@
       <c r="AE65" s="17"/>
       <c r="AF65" s="17"/>
       <c r="AG65" s="11" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="AH65" s="11" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AI65" s="41">
         <v>51500</v>
       </c>
       <c r="AJ65" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AK65" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL65" s="23"/>
+        <v>1210</v>
+      </c>
+      <c r="AL65" s="23" t="s">
+        <v>1320</v>
+      </c>
       <c r="AM65" s="23"/>
       <c r="AN65" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AO65" s="17" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AP65" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AQ65" s="25" t="s">
         <v>3</v>
       </c>
       <c r="AR65" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AS65" s="25" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AT65" s="1">
         <f>RANK(BL65,$BL$3:$BL$122)+COUNTIF(BL$3:BL65,BL65)-1</f>
@@ -26965,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C66" s="17" t="s">
         <v>39</v>
@@ -27006,21 +27085,23 @@
         <v>40</v>
       </c>
       <c r="AH66" s="11" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="AI66" s="41">
         <v>51510</v>
       </c>
       <c r="AJ66" s="28" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="AK66" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="AL66" s="23"/>
+        <v>1322</v>
+      </c>
+      <c r="AL66" s="23" t="s">
+        <v>1321</v>
+      </c>
       <c r="AM66" s="23"/>
       <c r="AN66" s="25" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="AO66" s="17"/>
       <c r="AP66" s="17"/>
@@ -27133,7 +27214,7 @@
         <v>17</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D67" s="73" t="str">
         <f t="shared" ref="D67:D98" si="38">IF(AX67&lt;&gt;0,"2020_A="&amp;AX67," ")&amp;IF(AY67&lt;&gt;0," ; 2020_i="&amp;AY67," ")&amp;IF(AZ67&lt;&gt;0,"2019_A="&amp;AZ67," ")&amp;IF(BA67&lt;&gt;0," ; 2019_i="&amp;BA67," ")&amp;IF(BB67&lt;&gt;0,"2018_A="&amp;BB67," ")&amp;IF(BC67&lt;&gt;0," ; 2018_i="&amp;BC67," ")&amp;IF(BD67&lt;&gt;0," ; 2017_A="&amp;BD67," ")&amp;IF(BE67&lt;&gt;0," ; 2017_i="&amp;BE67," ")&amp;IF(BF67&lt;&gt;0," ; 2016_A="&amp;BF67," ")&amp;IF(BG67&lt;&gt;0," ; 2016_i="&amp;BG67," ")&amp;IF(BH67&lt;&gt;0," ; 2015_A="&amp;BH67," ")&amp;IF(BI67&lt;&gt;0," ; 2015_i="&amp;BI67," ")&amp;IF(BJ67&lt;&gt;0," ; 2014_A="&amp;BJ67," ")&amp;IF(BK67&lt;&gt;0," ; 2014_i="&amp;BK67," ")</f>
@@ -27168,33 +27249,35 @@
       <c r="AE67" s="17"/>
       <c r="AF67" s="17"/>
       <c r="AG67" s="11" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="AH67" s="11" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="AI67" s="41">
         <v>51689</v>
       </c>
       <c r="AJ67" s="28"/>
       <c r="AK67" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="AL67" s="23"/>
+        <v>1324</v>
+      </c>
+      <c r="AL67" s="23" t="s">
+        <v>1323</v>
+      </c>
       <c r="AM67" s="23"/>
       <c r="AN67" s="25"/>
       <c r="AO67" s="17" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="AP67" s="17" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="AQ67" s="44" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="AR67" s="11"/>
       <c r="AS67" s="25" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AT67" s="1">
         <f>RANK(BL67,$BL$3:$BL$122)+COUNTIF(BL$3:BL67,BL67)-1</f>
@@ -27297,7 +27380,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>595</v>
+        <v>573</v>
       </c>
       <c r="C68" s="17" t="s">
         <v>66</v>
@@ -27335,23 +27418,25 @@
       <c r="AE68" s="17"/>
       <c r="AF68" s="17"/>
       <c r="AG68" s="11" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="AH68" s="11" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="AI68" s="41">
         <v>55190</v>
       </c>
       <c r="AJ68" s="28" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="AK68" s="23" t="s">
-        <v>596</v>
-      </c>
-      <c r="AL68" s="23"/>
+        <v>1326</v>
+      </c>
+      <c r="AL68" s="23" t="s">
+        <v>1325</v>
+      </c>
       <c r="AM68" s="23" t="s">
-        <v>597</v>
+        <v>574</v>
       </c>
       <c r="AN68" s="25"/>
       <c r="AO68" s="17"/>
@@ -27460,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C69" s="17" t="s">
         <v>10</v>
@@ -27498,28 +27583,30 @@
       <c r="AE69" s="17"/>
       <c r="AF69" s="17"/>
       <c r="AG69" s="11" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="AH69" s="11" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="AI69" s="41">
         <v>55290</v>
       </c>
       <c r="AJ69" s="28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AK69" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL69" s="23"/>
+        <v>1328</v>
+      </c>
+      <c r="AL69" s="23" t="s">
+        <v>1327</v>
+      </c>
       <c r="AM69" s="23"/>
       <c r="AN69" s="25"/>
       <c r="AO69" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AP69" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AQ69" s="25" t="s">
         <v>11</v>
@@ -27629,7 +27716,7 @@
         <v>0</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C70" s="17" t="s">
         <v>42</v>
@@ -27670,7 +27757,7 @@
         <v>43</v>
       </c>
       <c r="AH70" s="11" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="AI70" s="41">
         <v>59700</v>
@@ -27679,9 +27766,11 @@
         <v>320816100</v>
       </c>
       <c r="AK70" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="AL70" s="23"/>
+        <v>1330</v>
+      </c>
+      <c r="AL70" s="23" t="s">
+        <v>1329</v>
+      </c>
       <c r="AM70" s="23"/>
       <c r="AN70" s="25"/>
       <c r="AO70" s="17"/>
@@ -27790,7 +27879,7 @@
         <v>0</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>67</v>
@@ -27828,31 +27917,33 @@
       <c r="AE71" s="17"/>
       <c r="AF71" s="15"/>
       <c r="AG71" s="17" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="AH71" s="17" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="AI71" s="41">
         <v>60890</v>
       </c>
       <c r="AJ71" s="28" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="AK71" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="AL71" s="22"/>
+        <v>1332</v>
+      </c>
+      <c r="AL71" s="22" t="s">
+        <v>1331</v>
+      </c>
       <c r="AM71" s="23" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="AN71" s="30"/>
       <c r="AO71" s="17" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="AP71" s="24"/>
       <c r="AQ71" s="17" t="s">
-        <v>653</v>
+        <v>629</v>
       </c>
       <c r="AR71" s="26"/>
       <c r="AS71" s="26"/>
@@ -27957,10 +28048,10 @@
         <v>0</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D72" s="73" t="str">
         <f t="shared" si="38"/>
@@ -27995,24 +28086,26 @@
       <c r="AE72" s="17"/>
       <c r="AF72" s="17"/>
       <c r="AG72" s="11" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="AH72" s="11" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="AI72" s="41">
         <v>67520</v>
       </c>
       <c r="AJ72" s="28" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="AK72" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL72" s="23"/>
+        <v>1334</v>
+      </c>
+      <c r="AL72" s="23" t="s">
+        <v>1333</v>
+      </c>
       <c r="AM72" s="23"/>
       <c r="AN72" s="25" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="AO72" s="17"/>
       <c r="AP72" s="17"/>
@@ -28120,10 +28213,10 @@
         <v>0</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="D73" s="73" t="str">
         <f t="shared" si="38"/>
@@ -28158,33 +28251,35 @@
       <c r="AE73" s="17"/>
       <c r="AF73" s="48"/>
       <c r="AG73" s="54" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="AH73" s="17" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="AI73" s="21">
         <v>77510</v>
       </c>
       <c r="AJ73" s="46" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="AK73" s="23" t="s">
-        <v>541</v>
-      </c>
-      <c r="AL73" s="23"/>
+        <v>1336</v>
+      </c>
+      <c r="AL73" s="23" t="s">
+        <v>1335</v>
+      </c>
       <c r="AM73" s="23" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="AN73" s="45"/>
       <c r="AO73" s="48" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="AP73" s="17" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="AQ73" s="17" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="AR73" s="48"/>
       <c r="AS73" s="48"/>
@@ -28289,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>37</v>
@@ -28327,31 +28422,33 @@
       <c r="AE74" s="17"/>
       <c r="AF74" s="17"/>
       <c r="AG74" s="11" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="AH74" s="11" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="AI74" s="41">
         <v>80600</v>
       </c>
       <c r="AJ74" s="28" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="AK74" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL74" s="23"/>
+        <v>1338</v>
+      </c>
+      <c r="AL74" s="23" t="s">
+        <v>1337</v>
+      </c>
       <c r="AM74" s="23"/>
       <c r="AN74" s="25"/>
       <c r="AO74" s="17" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AP74" s="17" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AQ74" s="44" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="AR74" s="11"/>
       <c r="AS74" s="25"/>
@@ -28456,7 +28553,7 @@
         <v>0</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C75" s="17" t="s">
         <v>7</v>
@@ -28494,10 +28591,10 @@
       <c r="AE75" s="17"/>
       <c r="AF75" s="17"/>
       <c r="AG75" s="11" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AH75" s="11" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="AI75" s="41">
         <v>89470</v>
@@ -28506,18 +28603,20 @@
         <v>8</v>
       </c>
       <c r="AK75" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL75" s="23"/>
+        <v>1340</v>
+      </c>
+      <c r="AL75" s="23" t="s">
+        <v>1339</v>
+      </c>
       <c r="AM75" s="23"/>
       <c r="AN75" s="25" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AO75" s="17" t="s">
-        <v>664</v>
+        <v>640</v>
       </c>
       <c r="AP75" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AQ75" s="25" t="s">
         <v>8</v>
@@ -28630,7 +28729,7 @@
         <v>17</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="D76" s="73" t="str">
         <f t="shared" si="38"/>
@@ -28665,30 +28764,32 @@
       <c r="AE76" s="17"/>
       <c r="AF76" s="15"/>
       <c r="AG76" s="11" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
       <c r="AH76" s="17" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AI76" s="21">
         <v>51100</v>
       </c>
       <c r="AJ76" s="28" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="AK76" s="22" t="s">
-        <v>566</v>
-      </c>
-      <c r="AL76" s="22"/>
+        <v>1342</v>
+      </c>
+      <c r="AL76" s="22" t="s">
+        <v>1341</v>
+      </c>
       <c r="AM76" s="23" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="AN76" s="30"/>
       <c r="AO76" s="17" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="AP76" s="17" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="AQ76" s="26"/>
       <c r="AR76" s="26"/>
@@ -28797,7 +28898,7 @@
         <v>17</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="D77" s="73" t="str">
         <f t="shared" si="38"/>
@@ -28832,37 +28933,39 @@
       <c r="AE77" s="17"/>
       <c r="AF77" s="15"/>
       <c r="AG77" s="11" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="AH77" s="17" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="AI77" s="21">
         <v>51200</v>
       </c>
       <c r="AJ77" s="28" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="AK77" s="56" t="s">
-        <v>572</v>
-      </c>
-      <c r="AL77" s="56"/>
+        <v>1344</v>
+      </c>
+      <c r="AL77" s="56" t="s">
+        <v>1343</v>
+      </c>
       <c r="AM77" s="23" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="AN77" s="30"/>
       <c r="AO77" s="17" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
       <c r="AP77" s="48"/>
       <c r="AQ77" s="25" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="AR77" s="23" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="AS77" s="25" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AT77" s="1">
         <f>RANK(BL77,$BL$3:$BL$122)+COUNTIF(BL$3:BL77,BL77)-1</f>
@@ -28968,7 +29071,7 @@
         <v>17</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="D78" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29003,34 +29106,36 @@
       <c r="AE78" s="17"/>
       <c r="AF78" s="15"/>
       <c r="AG78" s="11" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="AH78" s="17" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="AI78" s="21">
         <v>10110</v>
       </c>
       <c r="AJ78" s="28" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="AK78" s="56" t="s">
-        <v>581</v>
-      </c>
-      <c r="AL78" s="56"/>
+        <v>1227</v>
+      </c>
+      <c r="AL78" s="56" t="s">
+        <v>1345</v>
+      </c>
       <c r="AM78" s="23" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
       <c r="AN78" s="30"/>
       <c r="AO78" s="17" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
       <c r="AP78" s="48"/>
       <c r="AQ78" s="25" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="AR78" s="23" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="AS78" s="25"/>
       <c r="AT78" s="1">
@@ -29129,7 +29234,7 @@
       </c>
       <c r="CB78" s="16"/>
     </row>
-    <row r="79" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:80" s="7" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
         <v>0</v>
       </c>
@@ -29137,7 +29242,7 @@
         <v>17</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>587</v>
+        <v>566</v>
       </c>
       <c r="D79" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29172,36 +29277,38 @@
       <c r="AE79" s="17"/>
       <c r="AF79" s="15"/>
       <c r="AG79" s="11" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="AH79" s="17" t="s">
-        <v>588</v>
+        <v>567</v>
       </c>
       <c r="AI79" s="21">
         <v>51530</v>
       </c>
       <c r="AJ79" s="28" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="AK79" s="56" t="s">
-        <v>591</v>
-      </c>
-      <c r="AL79" s="56"/>
+        <v>1347</v>
+      </c>
+      <c r="AL79" s="56" t="s">
+        <v>1346</v>
+      </c>
       <c r="AM79" s="23" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="AN79" s="30"/>
       <c r="AO79" s="17" t="s">
-        <v>662</v>
+        <v>638</v>
       </c>
       <c r="AP79" s="17" t="s">
-        <v>593</v>
+        <v>571</v>
       </c>
       <c r="AQ79" s="25" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="AR79" s="23" t="s">
-        <v>594</v>
+        <v>572</v>
       </c>
       <c r="AS79" s="25"/>
       <c r="AT79" s="1">
@@ -29300,15 +29407,15 @@
       </c>
       <c r="CB79" s="16"/>
     </row>
-    <row r="80" spans="1:80" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:80" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>599</v>
+        <v>576</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="D80" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29343,30 +29450,32 @@
       <c r="AE80" s="17"/>
       <c r="AF80" s="15"/>
       <c r="AG80" s="11" t="s">
-        <v>601</v>
+        <v>578</v>
       </c>
       <c r="AH80" s="17" t="s">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="AI80" s="21">
         <v>10800</v>
       </c>
       <c r="AJ80" s="28" t="s">
-        <v>602</v>
+        <v>579</v>
       </c>
       <c r="AK80" s="56" t="s">
-        <v>603</v>
-      </c>
-      <c r="AL80" s="56"/>
+        <v>1349</v>
+      </c>
+      <c r="AL80" s="56" t="s">
+        <v>1348</v>
+      </c>
       <c r="AM80" s="23" t="s">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="AN80" s="30"/>
       <c r="AO80" s="17"/>
       <c r="AP80" s="17"/>
       <c r="AQ80" s="25"/>
       <c r="AR80" s="23" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="AS80" s="25"/>
       <c r="AT80" s="1">
@@ -29467,13 +29576,13 @@
     </row>
     <row r="81" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="D81" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29508,31 +29617,31 @@
       <c r="AE81" s="17"/>
       <c r="AF81" s="15"/>
       <c r="AG81" s="11" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="AH81" s="17" t="s">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="AI81" s="21">
         <v>94200</v>
       </c>
       <c r="AJ81" s="28"/>
       <c r="AK81" s="56" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="AL81" s="56"/>
       <c r="AM81" s="23" t="s">
-        <v>617</v>
+        <v>593</v>
       </c>
       <c r="AN81" s="30"/>
       <c r="AO81" s="17" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="AP81" s="17" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="AQ81" s="11" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
       <c r="AR81" s="23"/>
       <c r="AS81" s="25"/>
@@ -29634,13 +29743,13 @@
     </row>
     <row r="82" spans="1:80" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>623</v>
+        <v>599</v>
       </c>
       <c r="D82" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29675,23 +29784,23 @@
       <c r="AE82" s="17"/>
       <c r="AF82" s="15"/>
       <c r="AG82" s="11" t="s">
-        <v>625</v>
+        <v>601</v>
       </c>
       <c r="AH82" s="17" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="AI82" s="21">
         <v>2220</v>
       </c>
       <c r="AJ82" s="28" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
       <c r="AK82" s="56" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="AL82" s="56"/>
       <c r="AM82" s="23" t="s">
-        <v>628</v>
+        <v>604</v>
       </c>
       <c r="AN82" s="30"/>
       <c r="AO82" s="17"/>
@@ -29699,7 +29808,7 @@
       <c r="AQ82" s="11"/>
       <c r="AR82" s="23"/>
       <c r="AS82" s="25" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AT82" s="1">
         <f>RANK(BL82,$BL$3:$BL$122)+COUNTIF(BL$3:BL82,BL82)-1</f>
@@ -29805,7 +29914,7 @@
         <v>4</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>629</v>
+        <v>605</v>
       </c>
       <c r="D83" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29840,38 +29949,38 @@
       <c r="AE83" s="17"/>
       <c r="AF83" s="15"/>
       <c r="AG83" s="11" t="s">
-        <v>631</v>
+        <v>607</v>
       </c>
       <c r="AH83" s="17" t="s">
-        <v>630</v>
+        <v>606</v>
       </c>
       <c r="AI83" s="21">
         <v>51320</v>
       </c>
       <c r="AJ83" s="28" t="s">
-        <v>632</v>
+        <v>608</v>
       </c>
       <c r="AK83" s="56" t="s">
-        <v>633</v>
+        <v>609</v>
       </c>
       <c r="AL83" s="56"/>
       <c r="AM83" s="23" t="s">
-        <v>634</v>
+        <v>610</v>
       </c>
       <c r="AN83" s="17" t="s">
-        <v>1205</v>
+        <v>1181</v>
       </c>
       <c r="AO83" s="17" t="s">
-        <v>1206</v>
+        <v>1182</v>
       </c>
       <c r="AP83" s="17" t="s">
-        <v>1207</v>
+        <v>1183</v>
       </c>
       <c r="AQ83" s="17" t="s">
-        <v>1208</v>
+        <v>1184</v>
       </c>
       <c r="AR83" s="23" t="s">
-        <v>1209</v>
+        <v>1185</v>
       </c>
       <c r="AS83" s="25"/>
       <c r="AT83" s="1">
@@ -29975,10 +30084,10 @@
         <v>0</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>636</v>
+        <v>612</v>
       </c>
       <c r="D84" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30013,36 +30122,36 @@
       <c r="AE84" s="17"/>
       <c r="AF84" s="15"/>
       <c r="AG84" s="11" t="s">
-        <v>638</v>
+        <v>614</v>
       </c>
       <c r="AH84" s="17" t="s">
-        <v>637</v>
+        <v>613</v>
       </c>
       <c r="AI84" s="21">
         <v>2450</v>
       </c>
       <c r="AJ84" s="28" t="s">
-        <v>639</v>
+        <v>615</v>
       </c>
       <c r="AK84" s="56" t="s">
-        <v>640</v>
+        <v>616</v>
       </c>
       <c r="AL84" s="56"/>
       <c r="AM84" s="23" t="s">
-        <v>641</v>
+        <v>617</v>
       </c>
       <c r="AN84" s="30"/>
       <c r="AO84" s="17" t="s">
-        <v>658</v>
+        <v>634</v>
       </c>
       <c r="AP84" s="17" t="s">
-        <v>642</v>
+        <v>618</v>
       </c>
       <c r="AQ84" s="17" t="s">
-        <v>644</v>
+        <v>620</v>
       </c>
       <c r="AR84" s="23" t="s">
-        <v>643</v>
+        <v>619</v>
       </c>
       <c r="AS84" s="25"/>
       <c r="AT84" s="1">
@@ -30146,10 +30255,10 @@
         <v>0</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="D85" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30184,23 +30293,23 @@
       <c r="AE85" s="17"/>
       <c r="AF85" s="15"/>
       <c r="AG85" s="11" t="s">
-        <v>647</v>
+        <v>623</v>
       </c>
       <c r="AH85" s="17" t="s">
-        <v>646</v>
+        <v>622</v>
       </c>
       <c r="AI85" s="21">
         <v>25300</v>
       </c>
       <c r="AJ85" s="28" t="s">
-        <v>648</v>
+        <v>624</v>
       </c>
       <c r="AK85" s="56" t="s">
-        <v>649</v>
+        <v>625</v>
       </c>
       <c r="AL85" s="56"/>
       <c r="AM85" s="23" t="s">
-        <v>650</v>
+        <v>626</v>
       </c>
       <c r="AN85" s="30"/>
       <c r="AO85" s="17"/>
@@ -30309,10 +30418,10 @@
         <v>0</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>689</v>
+        <v>665</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>709</v>
+        <v>685</v>
       </c>
       <c r="D86" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30347,30 +30456,30 @@
       <c r="AE86" s="17"/>
       <c r="AF86" s="15"/>
       <c r="AG86" s="17" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="AH86" s="17" t="s">
-        <v>691</v>
+        <v>667</v>
       </c>
       <c r="AI86" s="21">
         <v>10230</v>
       </c>
       <c r="AJ86" s="28" t="s">
-        <v>692</v>
+        <v>668</v>
       </c>
       <c r="AK86" s="56" t="s">
-        <v>708</v>
+        <v>684</v>
       </c>
       <c r="AL86" s="56"/>
       <c r="AM86" s="23" t="s">
-        <v>693</v>
+        <v>669</v>
       </c>
       <c r="AN86" s="30"/>
       <c r="AO86" s="26"/>
       <c r="AP86" s="24"/>
       <c r="AQ86" s="26"/>
       <c r="AR86" s="57" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="AS86" s="26"/>
       <c r="AT86" s="1">
@@ -30477,7 +30586,7 @@
         <v>15</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>696</v>
+        <v>672</v>
       </c>
       <c r="D87" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30512,31 +30621,31 @@
       <c r="AE87" s="17"/>
       <c r="AF87" s="15"/>
       <c r="AG87" s="17" t="s">
-        <v>697</v>
+        <v>673</v>
       </c>
       <c r="AH87" s="17" t="s">
-        <v>698</v>
+        <v>674</v>
       </c>
       <c r="AI87" s="21">
         <v>51130</v>
       </c>
       <c r="AJ87" s="28" t="s">
-        <v>699</v>
+        <v>675</v>
       </c>
       <c r="AK87" s="22" t="s">
-        <v>710</v>
+        <v>686</v>
       </c>
       <c r="AL87" s="22"/>
       <c r="AM87" s="23" t="s">
-        <v>700</v>
+        <v>676</v>
       </c>
       <c r="AN87" s="26"/>
       <c r="AO87" s="17" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="AP87" s="24"/>
       <c r="AQ87" s="59" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="AR87" s="26"/>
       <c r="AS87" s="26"/>
@@ -30641,10 +30750,10 @@
         <v>0</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="D88" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30679,31 +30788,31 @@
       <c r="AE88" s="17"/>
       <c r="AF88" s="15"/>
       <c r="AG88" s="17" t="s">
-        <v>701</v>
+        <v>677</v>
       </c>
       <c r="AH88" s="17" t="s">
-        <v>702</v>
+        <v>678</v>
       </c>
       <c r="AI88" s="21">
         <v>6823</v>
       </c>
       <c r="AJ88" s="28" t="s">
-        <v>703</v>
+        <v>679</v>
       </c>
       <c r="AK88" s="22" t="s">
-        <v>710</v>
+        <v>686</v>
       </c>
       <c r="AL88" s="22"/>
       <c r="AM88" s="23" t="s">
-        <v>704</v>
+        <v>680</v>
       </c>
       <c r="AN88" s="26"/>
       <c r="AO88" s="17" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="AP88" s="24"/>
       <c r="AQ88" s="17" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="AR88" s="26"/>
       <c r="AS88" s="26"/>
@@ -30808,10 +30917,10 @@
         <v>0</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>705</v>
+        <v>681</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>706</v>
+        <v>682</v>
       </c>
       <c r="D89" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30846,35 +30955,35 @@
       <c r="AE89" s="17"/>
       <c r="AF89" s="15"/>
       <c r="AG89" s="17" t="s">
-        <v>707</v>
+        <v>683</v>
       </c>
       <c r="AH89" s="17" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AI89" s="21">
         <v>51100</v>
       </c>
       <c r="AJ89" s="28" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="AK89" s="22" t="s">
-        <v>710</v>
+        <v>686</v>
       </c>
       <c r="AL89" s="22"/>
       <c r="AM89" s="17"/>
       <c r="AN89" s="26"/>
       <c r="AO89" s="17" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="AP89" s="24"/>
       <c r="AQ89" s="48" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="AR89" s="57" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="AS89" s="25" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AT89" s="1">
         <f>RANK(BL89,$BL$3:$BL$122)+COUNTIF(BL$3:BL89,BL89)-1</f>
@@ -30974,13 +31083,13 @@
     </row>
     <row r="90" spans="1:80" s="7" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="D90" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31015,26 +31124,26 @@
       <c r="AE90" s="17"/>
       <c r="AF90" s="15"/>
       <c r="AG90" s="17" t="s">
-        <v>711</v>
+        <v>687</v>
       </c>
       <c r="AH90" s="17" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AI90" s="21">
         <v>51100</v>
       </c>
       <c r="AJ90" s="28" t="s">
-        <v>712</v>
+        <v>688</v>
       </c>
       <c r="AK90" s="22" t="s">
-        <v>713</v>
+        <v>689</v>
       </c>
       <c r="AL90" s="22"/>
       <c r="AM90" s="23" t="s">
-        <v>714</v>
+        <v>690</v>
       </c>
       <c r="AN90" s="30" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="AO90" s="26"/>
       <c r="AP90" s="24"/>
@@ -31139,13 +31248,13 @@
     </row>
     <row r="91" spans="1:80" s="7" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>716</v>
+        <v>692</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>715</v>
+        <v>691</v>
       </c>
       <c r="D91" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31180,23 +31289,23 @@
       <c r="AE91" s="17"/>
       <c r="AF91" s="15"/>
       <c r="AG91" s="17" t="s">
-        <v>717</v>
+        <v>693</v>
       </c>
       <c r="AH91" s="17" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="AI91" s="21">
         <v>2000</v>
       </c>
       <c r="AJ91" s="28" t="s">
-        <v>718</v>
+        <v>694</v>
       </c>
       <c r="AK91" s="22" t="s">
-        <v>719</v>
+        <v>695</v>
       </c>
       <c r="AL91" s="22"/>
       <c r="AM91" s="23" t="s">
-        <v>720</v>
+        <v>696</v>
       </c>
       <c r="AN91" s="30"/>
       <c r="AO91" s="26"/>
@@ -31302,13 +31411,13 @@
     </row>
     <row r="92" spans="1:80" s="7" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>599</v>
+        <v>576</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>721</v>
+        <v>697</v>
       </c>
       <c r="D92" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31343,35 +31452,35 @@
       <c r="AE92" s="17"/>
       <c r="AF92" s="15"/>
       <c r="AG92" s="17" t="s">
-        <v>723</v>
+        <v>699</v>
       </c>
       <c r="AH92" s="17" t="s">
-        <v>722</v>
+        <v>698</v>
       </c>
       <c r="AI92" s="21">
         <v>51370</v>
       </c>
       <c r="AJ92" s="15"/>
       <c r="AK92" s="22" t="s">
-        <v>724</v>
+        <v>700</v>
       </c>
       <c r="AL92" s="22"/>
       <c r="AM92" s="23" t="s">
-        <v>725</v>
+        <v>701</v>
       </c>
       <c r="AN92" s="30"/>
       <c r="AO92" s="17" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="AP92" s="24"/>
       <c r="AQ92" s="30" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="AR92" s="49" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="AS92" s="25" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AT92" s="1">
         <f>RANK(BL92,$BL$3:$BL$122)+COUNTIF(BL$3:BL92,BL92)-1</f>
@@ -31471,13 +31580,13 @@
     </row>
     <row r="93" spans="1:80" s="7" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>726</v>
+        <v>702</v>
       </c>
       <c r="D93" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31512,31 +31621,31 @@
       <c r="AE93" s="17"/>
       <c r="AF93" s="15"/>
       <c r="AG93" s="17" t="s">
-        <v>727</v>
+        <v>703</v>
       </c>
       <c r="AH93" s="17" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="AI93" s="21">
         <v>51530</v>
       </c>
       <c r="AJ93" s="15"/>
       <c r="AK93" s="22" t="s">
-        <v>729</v>
+        <v>705</v>
       </c>
       <c r="AL93" s="22"/>
       <c r="AM93" s="23" t="s">
-        <v>728</v>
+        <v>704</v>
       </c>
       <c r="AN93" s="30"/>
       <c r="AO93" s="17" t="s">
-        <v>730</v>
+        <v>706</v>
       </c>
       <c r="AP93" s="17" t="s">
-        <v>731</v>
+        <v>707</v>
       </c>
       <c r="AQ93" s="30" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="AR93" s="26"/>
       <c r="AS93" s="26"/>
@@ -31638,13 +31747,13 @@
     </row>
     <row r="94" spans="1:80" s="7" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>733</v>
+        <v>709</v>
       </c>
       <c r="D94" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31679,35 +31788,35 @@
       <c r="AE94" s="17"/>
       <c r="AF94" s="15"/>
       <c r="AG94" s="17" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="AH94" s="17" t="s">
-        <v>732</v>
+        <v>708</v>
       </c>
       <c r="AI94" s="17">
         <v>51120</v>
       </c>
       <c r="AJ94" s="15"/>
       <c r="AK94" s="22" t="s">
-        <v>736</v>
+        <v>712</v>
       </c>
       <c r="AL94" s="22"/>
       <c r="AM94" s="17"/>
       <c r="AN94" s="30"/>
       <c r="AO94" s="48" t="s">
-        <v>734</v>
+        <v>710</v>
       </c>
       <c r="AP94" s="17" t="s">
-        <v>735</v>
+        <v>711</v>
       </c>
       <c r="AQ94" s="30" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="AR94" s="60" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="AS94" s="25" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AT94" s="1">
         <f>RANK(BL94,$BL$3:$BL$122)+COUNTIF(BL$3:BL94,BL94)-1</f>
@@ -31807,13 +31916,13 @@
     </row>
     <row r="95" spans="1:80" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>737</v>
+        <v>713</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>743</v>
+        <v>719</v>
       </c>
       <c r="D95" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31848,23 +31957,23 @@
       <c r="AE95" s="17"/>
       <c r="AF95" s="15"/>
       <c r="AG95" s="17" t="s">
-        <v>738</v>
+        <v>714</v>
       </c>
       <c r="AH95" s="17" t="s">
-        <v>739</v>
+        <v>715</v>
       </c>
       <c r="AI95" s="21">
         <v>51000</v>
       </c>
       <c r="AJ95" s="28" t="s">
-        <v>742</v>
+        <v>718</v>
       </c>
       <c r="AK95" s="22" t="s">
-        <v>741</v>
+        <v>717</v>
       </c>
       <c r="AL95" s="22"/>
       <c r="AM95" s="23" t="s">
-        <v>740</v>
+        <v>716</v>
       </c>
       <c r="AN95" s="15"/>
       <c r="AO95" s="26"/>
@@ -31970,13 +32079,13 @@
     </row>
     <row r="96" spans="1:80" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>737</v>
+        <v>713</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>744</v>
+        <v>720</v>
       </c>
       <c r="D96" s="73" t="str">
         <f t="shared" si="38"/>
@@ -32011,34 +32120,34 @@
       <c r="AE96" s="17"/>
       <c r="AF96" s="15"/>
       <c r="AG96" s="17" t="s">
-        <v>745</v>
+        <v>721</v>
       </c>
       <c r="AH96" s="17" t="s">
-        <v>746</v>
+        <v>722</v>
       </c>
       <c r="AI96" s="21">
         <v>60550</v>
       </c>
       <c r="AJ96" s="28" t="s">
-        <v>747</v>
+        <v>723</v>
       </c>
       <c r="AK96" s="22" t="s">
-        <v>748</v>
+        <v>724</v>
       </c>
       <c r="AL96" s="22"/>
       <c r="AM96" s="23" t="s">
-        <v>749</v>
+        <v>725</v>
       </c>
       <c r="AN96" s="15"/>
       <c r="AO96" s="17" t="s">
-        <v>751</v>
+        <v>727</v>
       </c>
       <c r="AP96" s="24"/>
       <c r="AQ96" s="48" t="s">
-        <v>750</v>
+        <v>726</v>
       </c>
       <c r="AR96" s="60" t="s">
-        <v>752</v>
+        <v>728</v>
       </c>
       <c r="AS96" s="26"/>
       <c r="AT96" s="1">
@@ -32139,13 +32248,13 @@
     </row>
     <row r="97" spans="1:80" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
-        <v>1259</v>
+        <v>1235</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>753</v>
+        <v>729</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>1260</v>
+        <v>1236</v>
       </c>
       <c r="D97" s="73" t="str">
         <f t="shared" si="38"/>
@@ -32180,34 +32289,34 @@
       <c r="AE97" s="17"/>
       <c r="AF97" s="15"/>
       <c r="AG97" s="17" t="s">
-        <v>754</v>
+        <v>730</v>
       </c>
       <c r="AH97" s="17" t="s">
-        <v>755</v>
+        <v>731</v>
       </c>
       <c r="AI97" s="21">
         <v>94700</v>
       </c>
       <c r="AJ97" s="28" t="s">
-        <v>756</v>
+        <v>732</v>
       </c>
       <c r="AK97" s="22" t="s">
-        <v>757</v>
+        <v>733</v>
       </c>
       <c r="AL97" s="22"/>
       <c r="AM97" s="23" t="s">
-        <v>758</v>
+        <v>734</v>
       </c>
       <c r="AN97" s="30"/>
       <c r="AO97" s="17" t="s">
-        <v>761</v>
+        <v>737</v>
       </c>
       <c r="AP97" s="24"/>
       <c r="AQ97" s="17" t="s">
-        <v>760</v>
+        <v>736</v>
       </c>
       <c r="AR97" s="60" t="s">
-        <v>759</v>
+        <v>735</v>
       </c>
       <c r="AS97" s="26"/>
       <c r="AT97" s="1">
@@ -32308,13 +32417,13 @@
     </row>
     <row r="98" spans="1:80" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
-        <v>771</v>
+        <v>747</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>772</v>
+        <v>748</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>770</v>
+        <v>746</v>
       </c>
       <c r="D98" s="73" t="str">
         <f t="shared" si="38"/>
@@ -32349,29 +32458,29 @@
       <c r="AE98" s="17"/>
       <c r="AF98" s="15"/>
       <c r="AG98" s="17" t="s">
-        <v>773</v>
+        <v>749</v>
       </c>
       <c r="AH98" s="17" t="s">
-        <v>774</v>
+        <v>750</v>
       </c>
       <c r="AI98" s="21">
         <v>10400</v>
       </c>
       <c r="AJ98" s="15"/>
       <c r="AK98" s="22" t="s">
-        <v>776</v>
+        <v>752</v>
       </c>
       <c r="AL98" s="22"/>
       <c r="AM98" s="23" t="s">
-        <v>775</v>
+        <v>751</v>
       </c>
       <c r="AN98" s="26"/>
       <c r="AO98" s="17" t="s">
-        <v>777</v>
+        <v>753</v>
       </c>
       <c r="AP98" s="24"/>
       <c r="AQ98" s="30" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="AR98" s="26"/>
       <c r="AS98" s="26"/>
@@ -32473,13 +32582,13 @@
     </row>
     <row r="99" spans="1:80" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
-        <v>771</v>
+        <v>747</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>779</v>
+        <v>755</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>778</v>
+        <v>754</v>
       </c>
       <c r="D99" s="73" t="str">
         <f t="shared" ref="D99:D128" si="57">IF(AX99&lt;&gt;0,"2020_A="&amp;AX99," ")&amp;IF(AY99&lt;&gt;0," ; 2020_i="&amp;AY99," ")&amp;IF(AZ99&lt;&gt;0,"2019_A="&amp;AZ99," ")&amp;IF(BA99&lt;&gt;0," ; 2019_i="&amp;BA99," ")&amp;IF(BB99&lt;&gt;0,"2018_A="&amp;BB99," ")&amp;IF(BC99&lt;&gt;0," ; 2018_i="&amp;BC99," ")&amp;IF(BD99&lt;&gt;0," ; 2017_A="&amp;BD99," ")&amp;IF(BE99&lt;&gt;0," ; 2017_i="&amp;BE99," ")&amp;IF(BF99&lt;&gt;0," ; 2016_A="&amp;BF99," ")&amp;IF(BG99&lt;&gt;0," ; 2016_i="&amp;BG99," ")&amp;IF(BH99&lt;&gt;0," ; 2015_A="&amp;BH99," ")&amp;IF(BI99&lt;&gt;0," ; 2015_i="&amp;BI99," ")&amp;IF(BJ99&lt;&gt;0," ; 2014_A="&amp;BJ99," ")&amp;IF(BK99&lt;&gt;0," ; 2014_i="&amp;BK99," ")</f>
@@ -32514,39 +32623,39 @@
       <c r="AE99" s="17"/>
       <c r="AF99" s="15"/>
       <c r="AG99" s="17" t="s">
-        <v>780</v>
+        <v>756</v>
       </c>
       <c r="AH99" s="17" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AI99" s="21">
         <v>51110</v>
       </c>
       <c r="AJ99" s="28" t="s">
-        <v>781</v>
+        <v>757</v>
       </c>
       <c r="AK99" s="22" t="s">
-        <v>782</v>
+        <v>758</v>
       </c>
       <c r="AL99" s="22"/>
       <c r="AM99" s="23" t="s">
-        <v>783</v>
+        <v>759</v>
       </c>
       <c r="AN99" s="26"/>
       <c r="AO99" s="17" t="s">
-        <v>787</v>
+        <v>763</v>
       </c>
       <c r="AP99" s="17" t="s">
-        <v>784</v>
+        <v>760</v>
       </c>
       <c r="AQ99" s="30" t="s">
-        <v>785</v>
+        <v>761</v>
       </c>
       <c r="AR99" s="23" t="s">
-        <v>786</v>
+        <v>762</v>
       </c>
       <c r="AS99" s="25" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AT99" s="1">
         <f>RANK(BL99,$BL$3:$BL$122)+COUNTIF(BL$3:BL99,BL99)-1</f>
@@ -32646,13 +32755,13 @@
     </row>
     <row r="100" spans="1:80" s="7" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>789</v>
+        <v>765</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>788</v>
+        <v>764</v>
       </c>
       <c r="D100" s="73" t="str">
         <f t="shared" si="57"/>
@@ -32687,35 +32796,35 @@
       <c r="AE100" s="17"/>
       <c r="AF100" s="15"/>
       <c r="AG100" s="17" t="s">
-        <v>790</v>
+        <v>766</v>
       </c>
       <c r="AH100" s="17" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="AI100" s="21">
         <v>51300</v>
       </c>
       <c r="AJ100" s="28" t="s">
-        <v>791</v>
+        <v>767</v>
       </c>
       <c r="AK100" s="22" t="s">
-        <v>792</v>
+        <v>768</v>
       </c>
       <c r="AL100" s="22"/>
       <c r="AM100" s="23" t="s">
-        <v>793</v>
+        <v>769</v>
       </c>
       <c r="AN100" s="26"/>
       <c r="AO100" s="17" t="s">
-        <v>794</v>
+        <v>770</v>
       </c>
       <c r="AP100" s="17"/>
       <c r="AQ100" s="30" t="s">
-        <v>795</v>
+        <v>771</v>
       </c>
       <c r="AR100" s="23"/>
       <c r="AS100" s="25" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AT100" s="1">
         <f>RANK(BL100,$BL$3:$BL$122)+COUNTIF(BL$3:BL100,BL100)-1</f>
@@ -32815,13 +32924,13 @@
     </row>
     <row r="101" spans="1:80" s="7" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>789</v>
+        <v>765</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="D101" s="73" t="str">
         <f t="shared" si="57"/>
@@ -32856,27 +32965,27 @@
       <c r="AE101" s="17"/>
       <c r="AF101" s="15"/>
       <c r="AG101" s="17" t="s">
-        <v>797</v>
+        <v>773</v>
       </c>
       <c r="AH101" s="17" t="s">
-        <v>796</v>
+        <v>772</v>
       </c>
       <c r="AI101" s="21">
         <v>77200</v>
       </c>
       <c r="AJ101" s="28" t="s">
-        <v>800</v>
+        <v>776</v>
       </c>
       <c r="AK101" s="22" t="s">
-        <v>799</v>
+        <v>775</v>
       </c>
       <c r="AL101" s="22"/>
       <c r="AM101" s="23" t="s">
-        <v>798</v>
+        <v>774</v>
       </c>
       <c r="AN101" s="15"/>
       <c r="AO101" s="48" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="AP101" s="24"/>
       <c r="AQ101" s="26"/>
@@ -32980,13 +33089,13 @@
     </row>
     <row r="102" spans="1:80" s="13" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>802</v>
+        <v>778</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>801</v>
+        <v>777</v>
       </c>
       <c r="D102" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33021,37 +33130,37 @@
       <c r="AE102" s="17"/>
       <c r="AF102" s="15"/>
       <c r="AG102" s="17" t="s">
-        <v>803</v>
+        <v>779</v>
       </c>
       <c r="AH102" s="17" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="AI102" s="21">
         <v>51689</v>
       </c>
       <c r="AJ102" s="28" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="AK102" s="22" t="s">
-        <v>804</v>
+        <v>780</v>
       </c>
       <c r="AL102" s="22"/>
       <c r="AM102" s="23" t="s">
-        <v>805</v>
+        <v>781</v>
       </c>
       <c r="AN102" s="17" t="s">
-        <v>806</v>
+        <v>782</v>
       </c>
       <c r="AO102" s="17" t="s">
-        <v>807</v>
+        <v>783</v>
       </c>
       <c r="AP102" s="24"/>
       <c r="AQ102" s="26"/>
       <c r="AR102" s="60" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="AS102" s="25" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AT102" s="1">
         <f>RANK(BL102,$BL$3:$BL$122)+COUNTIF(BL$3:BL102,BL102)-1</f>
@@ -33151,13 +33260,13 @@
     </row>
     <row r="103" spans="1:80" s="27" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>802</v>
+        <v>778</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>808</v>
+        <v>784</v>
       </c>
       <c r="D103" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33192,34 +33301,34 @@
       <c r="AE103" s="17"/>
       <c r="AF103" s="15"/>
       <c r="AG103" s="17" t="s">
-        <v>810</v>
+        <v>786</v>
       </c>
       <c r="AH103" s="17" t="s">
-        <v>811</v>
+        <v>787</v>
       </c>
       <c r="AI103" s="21">
         <v>60310</v>
       </c>
       <c r="AJ103" s="28" t="s">
-        <v>812</v>
+        <v>788</v>
       </c>
       <c r="AK103" s="22" t="s">
-        <v>813</v>
+        <v>789</v>
       </c>
       <c r="AL103" s="22"/>
       <c r="AM103" s="23" t="s">
-        <v>809</v>
+        <v>785</v>
       </c>
       <c r="AN103" s="17"/>
       <c r="AO103" s="17" t="s">
-        <v>816</v>
+        <v>792</v>
       </c>
       <c r="AP103" s="24"/>
       <c r="AQ103" s="48" t="s">
-        <v>815</v>
+        <v>791</v>
       </c>
       <c r="AR103" s="23" t="s">
-        <v>814</v>
+        <v>790</v>
       </c>
       <c r="AS103" s="25"/>
       <c r="AT103" s="1">
@@ -33320,13 +33429,13 @@
     </row>
     <row r="104" spans="1:80" s="26" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>830</v>
+        <v>806</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>821</v>
+        <v>797</v>
       </c>
       <c r="D104" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33353,30 +33462,30 @@
       <c r="AE104" s="17"/>
       <c r="AF104" s="15"/>
       <c r="AG104" s="17" t="s">
-        <v>822</v>
+        <v>798</v>
       </c>
       <c r="AH104" s="17" t="s">
-        <v>823</v>
+        <v>799</v>
       </c>
       <c r="AI104" s="21">
         <v>60610</v>
       </c>
       <c r="AJ104" s="28" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="AK104" s="22" t="s">
-        <v>825</v>
+        <v>801</v>
       </c>
       <c r="AL104" s="22"/>
       <c r="AM104" s="23" t="s">
-        <v>824</v>
+        <v>800</v>
       </c>
       <c r="AP104" s="24"/>
       <c r="AQ104" s="30" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="AR104" s="60" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="AT104" s="1">
         <f>RANK(BL104,$BL$3:$BL$122)+COUNTIF(BL$3:BL104,BL104)-1</f>
@@ -33476,13 +33585,13 @@
     </row>
     <row r="105" spans="1:80" s="13" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>830</v>
+        <v>806</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>826</v>
+        <v>802</v>
       </c>
       <c r="D105" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33520,18 +33629,18 @@
         <v>13</v>
       </c>
       <c r="AH105" s="17" t="s">
-        <v>827</v>
+        <v>803</v>
       </c>
       <c r="AI105" s="21">
         <v>45800</v>
       </c>
       <c r="AJ105" s="28"/>
       <c r="AK105" s="22" t="s">
-        <v>829</v>
+        <v>805</v>
       </c>
       <c r="AL105" s="22"/>
       <c r="AM105" s="23" t="s">
-        <v>828</v>
+        <v>804</v>
       </c>
       <c r="AN105" s="26"/>
       <c r="AO105" s="26"/>
@@ -33637,13 +33746,13 @@
     </row>
     <row r="106" spans="1:80" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>846</v>
+        <v>822</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>856</v>
+        <v>832</v>
       </c>
       <c r="D106" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33670,36 +33779,36 @@
       <c r="AE106" s="17"/>
       <c r="AF106" s="15"/>
       <c r="AG106" s="17" t="s">
-        <v>840</v>
+        <v>816</v>
       </c>
       <c r="AH106" s="17" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AI106" s="21">
         <v>51100</v>
       </c>
       <c r="AJ106" s="15"/>
       <c r="AK106" s="22" t="s">
-        <v>831</v>
+        <v>807</v>
       </c>
       <c r="AL106" s="22"/>
       <c r="AM106" s="23" t="s">
-        <v>832</v>
+        <v>808</v>
       </c>
       <c r="AN106" s="17" t="s">
-        <v>836</v>
+        <v>812</v>
       </c>
       <c r="AO106" s="17" t="s">
-        <v>833</v>
+        <v>809</v>
       </c>
       <c r="AP106" s="17" t="s">
-        <v>834</v>
+        <v>810</v>
       </c>
       <c r="AQ106" s="17" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="AR106" s="60" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="AT106" s="1">
         <f>RANK(BL106,$BL$3:$BL$122)+COUNTIF(BL$3:BL106,BL106)-1</f>
@@ -33799,13 +33908,13 @@
     </row>
     <row r="107" spans="1:80" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>838</v>
+        <v>814</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>839</v>
+        <v>815</v>
       </c>
       <c r="D107" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33840,29 +33949,29 @@
       <c r="AE107" s="17"/>
       <c r="AF107" s="15"/>
       <c r="AG107" s="17" t="s">
-        <v>841</v>
+        <v>817</v>
       </c>
       <c r="AH107" s="17" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AI107" s="21">
         <v>51100</v>
       </c>
       <c r="AJ107" s="28" t="s">
-        <v>842</v>
+        <v>818</v>
       </c>
       <c r="AK107" s="22" t="s">
-        <v>843</v>
+        <v>819</v>
       </c>
       <c r="AL107" s="22"/>
       <c r="AM107" s="23" t="s">
-        <v>844</v>
+        <v>820</v>
       </c>
       <c r="AN107" s="17"/>
       <c r="AO107" s="17"/>
       <c r="AP107" s="17"/>
       <c r="AQ107" s="17" t="s">
-        <v>845</v>
+        <v>821</v>
       </c>
       <c r="AR107" s="60"/>
       <c r="AS107" s="26"/>
@@ -33964,13 +34073,13 @@
     </row>
     <row r="108" spans="1:80" s="7" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>854</v>
+        <v>830</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="D108" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34005,35 +34114,35 @@
       <c r="AE108" s="17"/>
       <c r="AF108" s="17"/>
       <c r="AG108" s="17" t="s">
-        <v>840</v>
+        <v>816</v>
       </c>
       <c r="AH108" s="17" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AI108" s="21">
         <v>51100</v>
       </c>
       <c r="AJ108" s="15"/>
       <c r="AK108" s="22" t="s">
-        <v>831</v>
+        <v>807</v>
       </c>
       <c r="AL108" s="22"/>
       <c r="AM108" s="23" t="s">
-        <v>832</v>
+        <v>808</v>
       </c>
       <c r="AN108" s="15"/>
       <c r="AO108" s="17" t="s">
-        <v>858</v>
+        <v>834</v>
       </c>
       <c r="AP108" s="24"/>
       <c r="AQ108" s="17" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="AR108" s="23" t="s">
-        <v>857</v>
+        <v>833</v>
       </c>
       <c r="AS108" s="25" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AT108" s="1">
         <f>RANK(BL108,$BL$3:$BL$122)+COUNTIF(BL$3:BL108,BL108)-1</f>
@@ -34133,13 +34242,13 @@
     </row>
     <row r="109" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>865</v>
+        <v>841</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>859</v>
+        <v>835</v>
       </c>
       <c r="D109" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34174,33 +34283,33 @@
       <c r="AE109" s="17"/>
       <c r="AF109" s="17"/>
       <c r="AG109" s="17" t="s">
-        <v>860</v>
+        <v>836</v>
       </c>
       <c r="AH109" s="17" t="s">
-        <v>861</v>
+        <v>837</v>
       </c>
       <c r="AI109" s="21">
         <v>68490</v>
       </c>
       <c r="AJ109" s="28" t="s">
-        <v>862</v>
+        <v>838</v>
       </c>
       <c r="AK109" s="22" t="s">
-        <v>863</v>
+        <v>839</v>
       </c>
       <c r="AL109" s="22"/>
       <c r="AM109" s="23" t="s">
-        <v>864</v>
+        <v>840</v>
       </c>
       <c r="AN109" s="15"/>
       <c r="AO109" s="17" t="s">
-        <v>868</v>
+        <v>844</v>
       </c>
       <c r="AP109" s="17" t="s">
-        <v>866</v>
+        <v>842</v>
       </c>
       <c r="AQ109" s="29" t="s">
-        <v>867</v>
+        <v>843</v>
       </c>
       <c r="AR109" s="23"/>
       <c r="AS109" s="25"/>
@@ -34302,13 +34411,13 @@
     </row>
     <row r="110" spans="1:80" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>869</v>
+        <v>845</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>870</v>
+        <v>846</v>
       </c>
       <c r="D110" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34343,29 +34452,29 @@
       <c r="AE110" s="17"/>
       <c r="AF110" s="15"/>
       <c r="AG110" s="17" t="s">
-        <v>871</v>
+        <v>847</v>
       </c>
       <c r="AH110" s="17" t="s">
-        <v>872</v>
+        <v>848</v>
       </c>
       <c r="AI110" s="21">
         <v>51140</v>
       </c>
       <c r="AJ110" s="28" t="s">
-        <v>873</v>
+        <v>849</v>
       </c>
       <c r="AK110" s="22" t="s">
-        <v>874</v>
+        <v>850</v>
       </c>
       <c r="AL110" s="22"/>
       <c r="AM110" s="23" t="s">
-        <v>875</v>
+        <v>851</v>
       </c>
       <c r="AN110" s="30"/>
       <c r="AO110" s="26"/>
       <c r="AP110" s="24"/>
       <c r="AQ110" s="29" t="s">
-        <v>876</v>
+        <v>852</v>
       </c>
       <c r="AR110" s="26"/>
       <c r="AS110" s="26"/>
@@ -34467,13 +34576,13 @@
     </row>
     <row r="111" spans="1:80" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>878</v>
+        <v>854</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>877</v>
+        <v>853</v>
       </c>
       <c r="D111" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34508,23 +34617,23 @@
       <c r="AE111" s="17"/>
       <c r="AF111" s="15"/>
       <c r="AG111" s="17" t="s">
-        <v>880</v>
+        <v>856</v>
       </c>
       <c r="AH111" s="17" t="s">
-        <v>879</v>
+        <v>855</v>
       </c>
       <c r="AI111" s="21">
         <v>51140</v>
       </c>
       <c r="AJ111" s="28" t="s">
-        <v>881</v>
+        <v>857</v>
       </c>
       <c r="AK111" s="22" t="s">
-        <v>882</v>
+        <v>858</v>
       </c>
       <c r="AL111" s="22"/>
       <c r="AM111" s="23" t="s">
-        <v>883</v>
+        <v>859</v>
       </c>
       <c r="AN111" s="30"/>
       <c r="AO111" s="26"/>
@@ -34633,10 +34742,10 @@
         <v>0</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="D112" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34671,23 +34780,23 @@
       <c r="AE112" s="12"/>
       <c r="AF112" s="19"/>
       <c r="AG112" s="12" t="s">
-        <v>884</v>
+        <v>860</v>
       </c>
       <c r="AH112" s="12" t="s">
-        <v>885</v>
+        <v>861</v>
       </c>
       <c r="AI112" s="31">
         <v>8000</v>
       </c>
       <c r="AJ112" s="28" t="s">
-        <v>886</v>
+        <v>862</v>
       </c>
       <c r="AK112" s="22" t="s">
-        <v>887</v>
+        <v>863</v>
       </c>
       <c r="AL112" s="22"/>
       <c r="AM112" s="23" t="s">
-        <v>888</v>
+        <v>864</v>
       </c>
       <c r="AN112" s="32"/>
       <c r="AO112" s="33"/>
@@ -34793,13 +34902,13 @@
     </row>
     <row r="113" spans="1:80" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>889</v>
+        <v>865</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="D113" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34834,30 +34943,30 @@
       <c r="AE113" s="17"/>
       <c r="AF113" s="15"/>
       <c r="AG113" s="17" t="s">
-        <v>890</v>
+        <v>866</v>
       </c>
       <c r="AH113" s="17" t="s">
-        <v>891</v>
+        <v>867</v>
       </c>
       <c r="AI113" s="21">
         <v>60200</v>
       </c>
       <c r="AJ113" s="28" t="s">
-        <v>892</v>
+        <v>868</v>
       </c>
       <c r="AK113" s="22" t="s">
-        <v>893</v>
+        <v>869</v>
       </c>
       <c r="AL113" s="22"/>
       <c r="AM113" s="23" t="s">
-        <v>894</v>
+        <v>870</v>
       </c>
       <c r="AN113" s="26"/>
       <c r="AO113" s="26"/>
       <c r="AP113" s="24"/>
       <c r="AQ113" s="26"/>
       <c r="AR113" s="23" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="AS113" s="26"/>
       <c r="AT113" s="1">
@@ -34958,13 +35067,13 @@
     </row>
     <row r="114" spans="1:80" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>789</v>
+        <v>765</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="D114" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34999,23 +35108,23 @@
       <c r="AE114" s="17"/>
       <c r="AF114" s="15"/>
       <c r="AG114" s="17" t="s">
-        <v>896</v>
+        <v>872</v>
       </c>
       <c r="AH114" s="17" t="s">
-        <v>895</v>
+        <v>871</v>
       </c>
       <c r="AI114" s="21">
         <v>60000</v>
       </c>
       <c r="AJ114" s="28" t="s">
-        <v>897</v>
+        <v>873</v>
       </c>
       <c r="AK114" s="22" t="s">
-        <v>898</v>
+        <v>874</v>
       </c>
       <c r="AL114" s="22"/>
       <c r="AM114" s="23" t="s">
-        <v>899</v>
+        <v>875</v>
       </c>
       <c r="AN114" s="15"/>
       <c r="AO114" s="26"/>
@@ -35121,13 +35230,13 @@
     </row>
     <row r="115" spans="1:80" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>889</v>
+        <v>865</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>900</v>
+        <v>876</v>
       </c>
       <c r="D115" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35162,28 +35271,28 @@
       <c r="AE115" s="17"/>
       <c r="AF115" s="15"/>
       <c r="AG115" s="17" t="s">
-        <v>901</v>
+        <v>877</v>
       </c>
       <c r="AH115" s="17" t="s">
-        <v>895</v>
+        <v>871</v>
       </c>
       <c r="AI115" s="21">
         <v>60000</v>
       </c>
       <c r="AJ115" s="28"/>
       <c r="AK115" s="22" t="s">
-        <v>903</v>
+        <v>879</v>
       </c>
       <c r="AL115" s="22"/>
       <c r="AM115" s="23" t="s">
-        <v>902</v>
+        <v>878</v>
       </c>
       <c r="AN115" s="15"/>
       <c r="AO115" s="26"/>
       <c r="AP115" s="24"/>
       <c r="AQ115" s="26"/>
       <c r="AR115" s="42" t="s">
-        <v>904</v>
+        <v>880</v>
       </c>
       <c r="AS115" s="26"/>
       <c r="AT115" s="1">
@@ -35284,13 +35393,13 @@
     </row>
     <row r="116" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>889</v>
+        <v>865</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>906</v>
+        <v>882</v>
       </c>
       <c r="D116" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35325,23 +35434,23 @@
       <c r="AE116" s="17"/>
       <c r="AF116" s="15"/>
       <c r="AG116" s="17" t="s">
-        <v>907</v>
+        <v>883</v>
       </c>
       <c r="AH116" s="17" t="s">
-        <v>908</v>
+        <v>884</v>
       </c>
       <c r="AI116" s="21">
         <v>8090</v>
       </c>
       <c r="AJ116" s="28" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="AK116" s="22" t="s">
-        <v>909</v>
+        <v>885</v>
       </c>
       <c r="AL116" s="22"/>
       <c r="AM116" s="23" t="s">
-        <v>910</v>
+        <v>886</v>
       </c>
       <c r="AN116" s="15"/>
       <c r="AO116" s="26"/>
@@ -35447,13 +35556,13 @@
     </row>
     <row r="117" spans="1:80" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>802</v>
+        <v>778</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>911</v>
+        <v>887</v>
       </c>
       <c r="D117" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35488,23 +35597,23 @@
       <c r="AE117" s="17"/>
       <c r="AF117" s="15"/>
       <c r="AG117" s="17" t="s">
-        <v>913</v>
+        <v>889</v>
       </c>
       <c r="AH117" s="17" t="s">
-        <v>912</v>
+        <v>888</v>
       </c>
       <c r="AI117" s="21">
         <v>21000</v>
       </c>
       <c r="AJ117" s="28" t="s">
-        <v>914</v>
+        <v>890</v>
       </c>
       <c r="AK117" s="22" t="s">
-        <v>915</v>
+        <v>891</v>
       </c>
       <c r="AL117" s="22"/>
       <c r="AM117" s="23" t="s">
-        <v>916</v>
+        <v>892</v>
       </c>
       <c r="AN117" s="32"/>
       <c r="AO117" s="26"/>
@@ -35610,13 +35719,13 @@
     </row>
     <row r="118" spans="1:80" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>802</v>
+        <v>778</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>917</v>
+        <v>893</v>
       </c>
       <c r="D118" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35651,27 +35760,27 @@
       <c r="AE118" s="17"/>
       <c r="AF118" s="15"/>
       <c r="AG118" s="17" t="s">
-        <v>918</v>
+        <v>894</v>
       </c>
       <c r="AH118" s="17" t="s">
-        <v>891</v>
+        <v>867</v>
       </c>
       <c r="AI118" s="21">
         <v>60200</v>
       </c>
       <c r="AJ118" s="28" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="AK118" s="22" t="s">
-        <v>919</v>
+        <v>895</v>
       </c>
       <c r="AL118" s="22"/>
       <c r="AM118" s="23" t="s">
-        <v>920</v>
+        <v>896</v>
       </c>
       <c r="AN118" s="15"/>
       <c r="AO118" s="61" t="s">
-        <v>921</v>
+        <v>897</v>
       </c>
       <c r="AP118" s="24"/>
       <c r="AQ118" s="26"/>
@@ -35775,13 +35884,13 @@
     </row>
     <row r="119" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>737</v>
+        <v>713</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="D119" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35816,23 +35925,23 @@
       <c r="AE119" s="17"/>
       <c r="AF119" s="15"/>
       <c r="AG119" s="17" t="s">
-        <v>922</v>
+        <v>898</v>
       </c>
       <c r="AH119" s="17" t="s">
-        <v>891</v>
+        <v>867</v>
       </c>
       <c r="AI119" s="21">
         <v>60200</v>
       </c>
       <c r="AJ119" s="28" t="s">
-        <v>923</v>
+        <v>899</v>
       </c>
       <c r="AK119" s="22" t="s">
-        <v>924</v>
+        <v>900</v>
       </c>
       <c r="AL119" s="22"/>
       <c r="AM119" s="23" t="s">
-        <v>925</v>
+        <v>901</v>
       </c>
       <c r="AN119" s="15"/>
       <c r="AO119" s="61"/>
@@ -35938,13 +36047,13 @@
     </row>
     <row r="120" spans="1:80" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>905</v>
+        <v>881</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>926</v>
+        <v>902</v>
       </c>
       <c r="D120" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35979,23 +36088,23 @@
       <c r="AE120" s="17"/>
       <c r="AF120" s="15"/>
       <c r="AG120" s="17" t="s">
-        <v>927</v>
+        <v>903</v>
       </c>
       <c r="AH120" s="17" t="s">
-        <v>895</v>
+        <v>871</v>
       </c>
       <c r="AI120" s="21">
         <v>60000</v>
       </c>
       <c r="AJ120" s="28" t="s">
-        <v>928</v>
+        <v>904</v>
       </c>
       <c r="AK120" s="22" t="s">
-        <v>929</v>
+        <v>905</v>
       </c>
       <c r="AL120" s="22"/>
       <c r="AM120" s="23" t="s">
-        <v>930</v>
+        <v>906</v>
       </c>
       <c r="AN120" s="15"/>
       <c r="AO120" s="26"/>
@@ -36101,13 +36210,13 @@
     </row>
     <row r="121" spans="1:80" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>905</v>
+        <v>881</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="D121" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36142,23 +36251,23 @@
       <c r="AE121" s="17"/>
       <c r="AF121" s="15"/>
       <c r="AG121" s="17" t="s">
-        <v>931</v>
+        <v>907</v>
       </c>
       <c r="AH121" s="17" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="AI121" s="21">
         <v>67000</v>
       </c>
       <c r="AJ121" s="28" t="s">
-        <v>932</v>
+        <v>908</v>
       </c>
       <c r="AK121" s="22" t="s">
-        <v>933</v>
+        <v>909</v>
       </c>
       <c r="AL121" s="22"/>
       <c r="AM121" s="23" t="s">
-        <v>934</v>
+        <v>910</v>
       </c>
       <c r="AN121" s="15"/>
       <c r="AO121" s="26"/>
@@ -36264,13 +36373,13 @@
     </row>
     <row r="122" spans="1:80" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>905</v>
+        <v>881</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>935</v>
+        <v>911</v>
       </c>
       <c r="D122" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36305,23 +36414,23 @@
       <c r="AE122" s="17"/>
       <c r="AF122" s="15"/>
       <c r="AG122" s="17" t="s">
-        <v>936</v>
+        <v>912</v>
       </c>
       <c r="AH122" s="17" t="s">
-        <v>937</v>
+        <v>913</v>
       </c>
       <c r="AI122" s="21">
         <v>21121</v>
       </c>
       <c r="AJ122" s="28" t="s">
-        <v>938</v>
+        <v>914</v>
       </c>
       <c r="AK122" s="22" t="s">
-        <v>939</v>
+        <v>915</v>
       </c>
       <c r="AL122" s="22"/>
       <c r="AM122" s="23" t="s">
-        <v>940</v>
+        <v>916</v>
       </c>
       <c r="AN122" s="15"/>
       <c r="AO122" s="26"/>
@@ -36427,13 +36536,13 @@
     </row>
     <row r="123" spans="1:80" ht="105" x14ac:dyDescent="0.25">
       <c r="A123" s="80" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B123" s="80" t="s">
-        <v>905</v>
+        <v>881</v>
       </c>
       <c r="C123" s="81" t="s">
-        <v>941</v>
+        <v>917</v>
       </c>
       <c r="D123" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36468,23 +36577,23 @@
       <c r="AE123" s="81"/>
       <c r="AF123" s="83"/>
       <c r="AG123" s="81" t="s">
-        <v>942</v>
+        <v>918</v>
       </c>
       <c r="AH123" s="81" t="s">
-        <v>943</v>
+        <v>919</v>
       </c>
       <c r="AI123" s="85">
         <v>21800</v>
       </c>
       <c r="AJ123" s="87" t="s">
-        <v>944</v>
+        <v>920</v>
       </c>
       <c r="AK123" s="88" t="s">
-        <v>945</v>
+        <v>921</v>
       </c>
       <c r="AL123" s="88"/>
       <c r="AM123" s="89" t="s">
-        <v>946</v>
+        <v>922</v>
       </c>
       <c r="AN123" s="111"/>
       <c r="AO123" s="72"/>
@@ -36580,13 +36689,13 @@
     </row>
     <row r="124" spans="1:80" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="101" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B124" s="101" t="s">
-        <v>905</v>
+        <v>881</v>
       </c>
       <c r="C124" s="102" t="s">
-        <v>947</v>
+        <v>923</v>
       </c>
       <c r="D124" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36621,19 +36730,19 @@
       <c r="AE124" s="102"/>
       <c r="AF124" s="104"/>
       <c r="AG124" s="102" t="s">
-        <v>948</v>
+        <v>924</v>
       </c>
       <c r="AH124" s="102" t="s">
-        <v>912</v>
+        <v>888</v>
       </c>
       <c r="AI124" s="106">
         <v>21000</v>
       </c>
       <c r="AJ124" s="107" t="s">
-        <v>949</v>
+        <v>925</v>
       </c>
       <c r="AK124" s="108" t="s">
-        <v>950</v>
+        <v>926</v>
       </c>
       <c r="AL124" s="108"/>
       <c r="AM124" s="109"/>
@@ -36731,13 +36840,13 @@
     </row>
     <row r="125" spans="1:80" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="101" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B125" s="101" t="s">
-        <v>905</v>
+        <v>881</v>
       </c>
       <c r="C125" s="102" t="s">
-        <v>951</v>
+        <v>927</v>
       </c>
       <c r="D125" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36772,23 +36881,23 @@
       <c r="AE125" s="102"/>
       <c r="AF125" s="104"/>
       <c r="AG125" s="102" t="s">
-        <v>952</v>
+        <v>928</v>
       </c>
       <c r="AH125" s="102" t="s">
-        <v>953</v>
+        <v>929</v>
       </c>
       <c r="AI125" s="106">
         <v>21300</v>
       </c>
       <c r="AJ125" s="107" t="s">
-        <v>954</v>
+        <v>930</v>
       </c>
       <c r="AK125" s="108" t="s">
-        <v>955</v>
+        <v>931</v>
       </c>
       <c r="AL125" s="108"/>
       <c r="AM125" s="109" t="s">
-        <v>956</v>
+        <v>932</v>
       </c>
       <c r="AN125" s="110"/>
       <c r="AO125" s="7"/>
@@ -36884,13 +36993,13 @@
     </row>
     <row r="126" spans="1:80" ht="105" x14ac:dyDescent="0.25">
       <c r="A126" s="101" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B126" s="101" t="s">
-        <v>905</v>
+        <v>881</v>
       </c>
       <c r="C126" s="102" t="s">
-        <v>957</v>
+        <v>933</v>
       </c>
       <c r="D126" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36925,23 +37034,23 @@
       <c r="AE126" s="102"/>
       <c r="AF126" s="104"/>
       <c r="AG126" s="102" t="s">
-        <v>958</v>
+        <v>934</v>
       </c>
       <c r="AH126" s="102" t="s">
-        <v>943</v>
+        <v>919</v>
       </c>
       <c r="AI126" s="106">
         <v>21800</v>
       </c>
       <c r="AJ126" s="107" t="s">
-        <v>959</v>
+        <v>935</v>
       </c>
       <c r="AK126" s="108" t="s">
-        <v>960</v>
+        <v>936</v>
       </c>
       <c r="AL126" s="108"/>
       <c r="AM126" s="109" t="s">
-        <v>961</v>
+        <v>937</v>
       </c>
       <c r="AN126" s="110"/>
       <c r="AO126" s="7"/>
@@ -37037,13 +37146,13 @@
     </row>
     <row r="127" spans="1:80" s="123" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="101" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B127" s="101" t="s">
-        <v>962</v>
+        <v>938</v>
       </c>
       <c r="C127" s="102" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="D127" s="73" t="str">
         <f t="shared" si="57"/>
@@ -37078,23 +37187,23 @@
       <c r="AE127" s="102"/>
       <c r="AF127" s="104"/>
       <c r="AG127" s="102" t="s">
-        <v>964</v>
+        <v>940</v>
       </c>
       <c r="AH127" s="102" t="s">
-        <v>963</v>
+        <v>939</v>
       </c>
       <c r="AI127" s="106">
         <v>21600</v>
       </c>
       <c r="AJ127" s="107" t="s">
-        <v>965</v>
+        <v>941</v>
       </c>
       <c r="AK127" s="108" t="s">
-        <v>966</v>
+        <v>942</v>
       </c>
       <c r="AL127" s="108"/>
       <c r="AM127" s="109" t="s">
-        <v>967</v>
+        <v>943</v>
       </c>
       <c r="AN127" s="104"/>
       <c r="AO127" s="7"/>
@@ -37200,13 +37309,13 @@
     </row>
     <row r="128" spans="1:80" s="98" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="115" t="s">
-        <v>1102</v>
+        <v>1078</v>
       </c>
       <c r="B128" s="113" t="s">
-        <v>1103</v>
+        <v>1079</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>1101</v>
+        <v>1077</v>
       </c>
       <c r="D128" s="73" t="str">
         <f t="shared" si="57"/>
@@ -37221,13 +37330,13 @@
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
       <c r="M128" s="98" t="s">
-        <v>1104</v>
+        <v>1080</v>
       </c>
       <c r="N128" s="114" t="s">
-        <v>1105</v>
+        <v>1081</v>
       </c>
       <c r="O128" s="98" t="s">
-        <v>1106</v>
+        <v>1082</v>
       </c>
       <c r="P128" s="2"/>
       <c r="R128" s="119"/>
@@ -37246,23 +37355,23 @@
       <c r="AE128" s="8"/>
       <c r="AF128" s="2"/>
       <c r="AG128" s="116" t="s">
-        <v>1107</v>
+        <v>1083</v>
       </c>
       <c r="AH128" s="98" t="s">
-        <v>1108</v>
+        <v>1084</v>
       </c>
       <c r="AI128" s="117">
         <v>92390</v>
       </c>
       <c r="AJ128" s="107" t="s">
-        <v>1109</v>
+        <v>1085</v>
       </c>
       <c r="AK128" s="108" t="s">
-        <v>1110</v>
+        <v>1086</v>
       </c>
       <c r="AL128" s="108"/>
       <c r="AM128" s="109" t="s">
-        <v>1111</v>
+        <v>1087</v>
       </c>
       <c r="AN128" s="5"/>
       <c r="AO128" s="2"/>
@@ -42487,100 +42596,82 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="AJ34" r:id="rId1" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?q=bonduel+traiteur+saint+benoit+aubes&amp;spell=1&amp;sa=X&amp;ved=0ahUKEwieraex6dDaAhVJCsAKHa6QDkUQBQglKAA&amp;biw=1380&amp;bih=691" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="AK65" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="AK75" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="AJ75" r:id="rId4" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=mBPeWu3qBY74gQbJ96-oDw&amp;q=yoplait+89470+++MONETEAU%09&amp;oq=yoplait+89470+++MONETEAU%09&amp;gs_l=psy-ab.3...326368.328121.0.329148.9.7.0.2.2.0.239.710.0j2j2.4.0....0...1c.1.64.psy-ab..4.4.401...0j0i67k1.0.3xByPNYC4yY" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="AK69" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="AJ69" r:id="rId6" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=4hTeWv_kDeXXgAbotpyYAg&amp;q=Fromagerie+RENARD-GILLARD%0955290++BIENCOURT+SUR+ORGE&amp;oq=Fromagerie+RENARD-GILLARD%0955290++BIENCOURT+SUR+ORGE&amp;gs_l=psy-ab.3...307263.318025.0.319529.2.2.0.0.0.0.346.468.0j1j0j1.2.0....0...1c.1j2.64.psy-ab..0.1.345...38j0i22i30k1.0.IaaI2w9RkVg" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="AJ47" r:id="rId7" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=1hfeWp6TCMeQgAa5rKXYBg&amp;q=lactinov+Zone+industrielle+des+Waillons%2C&amp;oq=lactinov+Zone+industrielle+des+Waillons%2C&amp;gs_l=psy-ab.3...118248.121573.0.122713.8.8.0.0.0.0.270.856.0j4j1.5.0....0...1c.1.64.psy-ab..3.0.0....0.R_37DFVeIEk" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="AJ51" r:id="rId8" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=iRneWveTOoeXgAbxmIKoDQ&amp;q=Canelia+Rouvroy+Poudre%09&amp;oq=Canelia+Rouvroy+Poudre%09&amp;gs_l=psy-ab.3..0j0i22i30k1l2j38l2.729255.729255.0.729873.1.1.0.0.0.0.408.408.4-1.1.0....0...1c.1.64.psy-ab..0.1.408....0.v8RWG58iatQ" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="AJ40" r:id="rId9" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?source=hp&amp;ei=Wh_eWqnFK4H0gAby1rroAQ&amp;q=cristanol+bazancourt&amp;oq=cristanol+bazancourt&amp;gs_l=psy-ab.3..0l3j0i22i30k1l4.1078.6763.0.7247.25.20.0.0.0.0.397.2564.0j7j4j1.12.0....0...1c.1.64.psy-ab..13.11.2391.0..35i39k1j0i67k1j0i131k1j0i10i67k1j0i10k1j0i10i203k1j0i30k1j0i10i30k1.0.Ylb1TxZHSno" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="AJ60" r:id="rId10" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?ei=Yh_eWpDnMsnLgAaFvIzwAg&amp;q=union+champagne+avize&amp;oq=union+champagne+avize&amp;gs_l=psy-ab.3..0l3.239180.244298.0.244969.21.16.0.5.5.0.235.1850.0j11j1.12.0....0...1c.1.64.psy-ab..4.17.1902...0i131k1j0i22i30k1.0.4NZh1uYSY6I" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="AK60" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="AJ12" r:id="rId12" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?ei=hqjgWrf7D-WVgAaajqb4Bg&amp;q=vivescia%20reims&amp;oq=vivescia+reims&amp;gs_l=psy-ab.3..0l3j0i22i30k1l7.110048.112300.0.112635.14.13.0.1.1.0.181.1425.0j10.10.0....0...1c.1.64.psy-ab..3.11.1435...35i39k1j0i131k1.0.j8KcD_SAUYk&amp;npsic=0&amp;rflfq=1&amp;rlha=0&amp;rllag=49231434,4074548,460&amp;tbm=lcl&amp;rldimm=13708956538798387191&amp;ved=0ahUKEwjFh4up6dXaAhVMBsAKHTFkCAMQvS4IOzAC&amp;rldoc=1&amp;tbs=lrf:!3sIAE,lf:1,lf_ui:4&amp;rlst=f" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="AR12" r:id="rId13" display="mailto:maxime.françois@vivescia.com" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="AJ54" r:id="rId14" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?q=KALIZEA+reims&amp;sa=X&amp;ved=0ahUKEwjJ9dug6tXaAhWqD8AKHZiSDzYQuzEICigA&amp;biw=1467&amp;bih=703" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="AK55" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="AJ7" r:id="rId16" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=pavgWrGFM8-0gQbpwIbQCQ&amp;q=fofralab+magenta&amp;oq=fofralab+magenta&amp;gs_l=psy-ab.3..0i13k1.387029.391164.0.391634.16.16.0.0.0.0.329.1969.0j6j3j1.10.0....0...1c.1.64.psy-ab..6.10.1960...0j35i39k1j0i67k1j0i131k1j0i131i67k1j0i10k1j0i10i19k1j0i13i5i10i30i19k1j0i13i30k1.0.Mbr8qt9fctI" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="AK63" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="AJ63" r:id="rId18" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=ZrDgWrTvMJqvgAbRn67gDA&amp;q=malteurop+vitry+le+francois&amp;oq=malteurop+vitry+le+francois&amp;gs_l=psy-ab.3..0i71k1l8.5807.5807.0.5976.1.1.0.0.0.0.0.0..0.0....0...1c..64.psy-ab..1.0.0....0.jIvwkzJYj6k" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="AR63" r:id="rId19" display="mailto:stephanie.grosjean@malteurop.com" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="AK72" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="AJ72" r:id="rId21" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=sbLgWvDKBIPAgAb2hIOIAQ&amp;q=MARLENHEIM+p%C3%A2tes&amp;oq=MARLENHEIM+p%C3%A2tes&amp;gs_l=psy-ab.3..33i22i29i30k1.6854.9853.0.10011.6.6.0.0.0.0.215.723.0j4j1.5.0....0...1c.1.64.psy-ab..1.4.507...0j0i67k1j0i22i30k1j33i160k1.0.2DQBZ7EcKCc" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="AK57" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="AJ57" r:id="rId23" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=vLLgWurlG4LZgQbt-YOwDw&amp;q=chamtor+pomacle&amp;oq=chamtor+pomacle&amp;gs_l=psy-ab.3..0i22i30k1.568190.572873.0.573230.15.12.0.3.3.0.296.1174.0j5j2.7.0....0...1c.1.64.psy-ab..5.10.1204...0j35i39k1j0i10i67k1j0i131k1j0i20i263k1j0i10k1j0i203k1j0i30k1j0i10i30k1.0.BuriVhJD9fU" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="AR50" r:id="rId24" display="mailto:theret@babynov.fr" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="AK74" display="https://www.google.fr/maps/place/Nutribio+(Barres+C%C3%A9r%C3%A9ales)/@50.1617921,2.3213815,17z/data=!4m12!1m6!3m5!1s0x47dd7082a4a62a79:0xafc357a0aaaf722b!2sCofranlait!8m2!3d50.1606202!4d2.3240262!3m4!1s0x47dd709dcc850bc9:0x21cdef0b722c71c5!8m2!3d50.16256" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="AJ53" r:id="rId25" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=RsbgWsefAeuZgAbg567IAw&amp;q=bister+10800+SAINT-THIBAULT&amp;oq=bister+10800+SAINT-THIBAULT&amp;gs_l=psy-ab.3...45431.46651.0.47492.8.8.0.0.0.0.236.895.0j3j2.5.0....0...1c.1.64.psy-ab..3.4.755...0j35i39k1j0i131k1j0i67k1j0i10k1j0i203k1.0.j49N90zVObY" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="AK66" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="AQ66" r:id="rId27" display="http://03.26.67.16.45/" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="AK70" display="https://www.google.com/search?client=firefox-b-ab&amp;q=LESAFFRE+INTERNATIONAL+%09137+rue+gabriel+P%C3%A9ri%09MARCQ+EN+BAROEUL%0959700&amp;npsic=0&amp;rflfq=1&amp;rlha=0&amp;rllag=50672542,3079001,237&amp;tbm=lcl&amp;ved=0ahUKEwik1s3epOzaAhXkCsAKHXyYDl4QtgMIKg&amp;tbs=lrf:!2m1!1e2!3sIAE" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="AK67" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="AK62" display="https://www.google.fr/maps/place/5+Rue+Henri+Martin,+51200+%C3%89pernay/@49.03997,3.955612,18z/data=!3m1!4b1!4m8!1m2!2m1!1sCoop%C3%A9rative+R%C3%A9gionale+des+Vins+de+Champagne+5+rue+henri+martin!3m4!1s0x47e96b4f254c4b7f:0x2f30202f02c1afd2!8m2!3d49.039968" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="AK56" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="AR56" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="AJ62" r:id="rId31" display="http://03.26.51.19.30/" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="AK61" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="AK58" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="AR31" r:id="rId34" display="mailto:barbara.fromentin@pernod-ricard.com" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="AK64" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="AK59" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="AR59" r:id="rId37" display="mailto:f.pichard@distillerie-goyard.com" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="AR7" r:id="rId38" display="clebrishoual@sofralab.com" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="AK71" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="AR92" r:id="rId40" display="mailto:aurelie.gantet@reimsmetropole.fr" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="AR104" r:id="rId41" display="mailto:thor.hpc@thor.com" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="AR106" r:id="rId42" display="mailto:katia.savary@univ-reims.fr" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="AR9" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="AR51" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="AJ32" r:id="rId45" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?ei=WSDeWqjRLoPCgAao_rOACQ&amp;q=GRANDS+MOULINS+%28EUROMILL+NORD+REIMS%29&amp;oq=GRANDS+MOULINS+%28EUROMILL+NORD+REIMS%29&amp;gs_l=psy-ab.3...222844.222844.0.223869.1.1.0.0.0.0.361.361.3-1.1.0....0...1c.1.64.psy-ab..0.0.0....0.P1wqGInEwAU" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="AR77" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="AR78" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="AR6" r:id="rId48" display="mailto:mbertemes@mhws.fr" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="AR79" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="AK68" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="AR83" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="AR8" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="AQ52" r:id="rId53" display="Labo08@cq08.fr_x000a_03 24 59 61 53  _x000a_" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="AR52" r:id="rId54" display="mailto:Labo08@cq08.fr" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="AR21" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="AR22" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="AR86" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="AR89" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="AK87" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="AK88" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="AK89" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="AR33" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="AR4" r:id="rId63" display="m.lebrun@soliance.com / " xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="AR99" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="AR102" r:id="rId65" display="mailto:mickael.franchette@eugenemerma.fr" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="AR103" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="AR39" r:id="rId67" display="mailto:floriane.oszust@univ-reims;fr" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="AR42" r:id="rId68" display="mailto:v.verdonk@biotechjboy.com" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="AR108" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="AJ75" r:id="rId2" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=mBPeWu3qBY74gQbJ96-oDw&amp;q=yoplait+89470+++MONETEAU%09&amp;oq=yoplait+89470+++MONETEAU%09&amp;gs_l=psy-ab.3...326368.328121.0.329148.9.7.0.2.2.0.239.710.0j2j2.4.0....0...1c.1.64.psy-ab..4.4.401...0j0i67k1.0.3xByPNYC4yY" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="AJ69" r:id="rId3" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=4hTeWv_kDeXXgAbotpyYAg&amp;q=Fromagerie+RENARD-GILLARD%0955290++BIENCOURT+SUR+ORGE&amp;oq=Fromagerie+RENARD-GILLARD%0955290++BIENCOURT+SUR+ORGE&amp;gs_l=psy-ab.3...307263.318025.0.319529.2.2.0.0.0.0.346.468.0j1j0j1.2.0....0...1c.1j2.64.psy-ab..0.1.345...38j0i22i30k1.0.IaaI2w9RkVg" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="AJ47" r:id="rId4" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=1hfeWp6TCMeQgAa5rKXYBg&amp;q=lactinov+Zone+industrielle+des+Waillons%2C&amp;oq=lactinov+Zone+industrielle+des+Waillons%2C&amp;gs_l=psy-ab.3...118248.121573.0.122713.8.8.0.0.0.0.270.856.0j4j1.5.0....0...1c.1.64.psy-ab..3.0.0....0.R_37DFVeIEk" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="AJ51" r:id="rId5" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=iRneWveTOoeXgAbxmIKoDQ&amp;q=Canelia+Rouvroy+Poudre%09&amp;oq=Canelia+Rouvroy+Poudre%09&amp;gs_l=psy-ab.3..0j0i22i30k1l2j38l2.729255.729255.0.729873.1.1.0.0.0.0.408.408.4-1.1.0....0...1c.1.64.psy-ab..0.1.408....0.v8RWG58iatQ" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="AJ40" r:id="rId6" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?source=hp&amp;ei=Wh_eWqnFK4H0gAby1rroAQ&amp;q=cristanol+bazancourt&amp;oq=cristanol+bazancourt&amp;gs_l=psy-ab.3..0l3j0i22i30k1l4.1078.6763.0.7247.25.20.0.0.0.0.397.2564.0j7j4j1.12.0....0...1c.1.64.psy-ab..13.11.2391.0..35i39k1j0i67k1j0i131k1j0i10i67k1j0i10k1j0i10i203k1j0i30k1j0i10i30k1.0.Ylb1TxZHSno" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="AJ60" r:id="rId7" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?ei=Yh_eWpDnMsnLgAaFvIzwAg&amp;q=union+champagne+avize&amp;oq=union+champagne+avize&amp;gs_l=psy-ab.3..0l3.239180.244298.0.244969.21.16.0.5.5.0.235.1850.0j11j1.12.0....0...1c.1.64.psy-ab..4.17.1902...0i131k1j0i22i30k1.0.4NZh1uYSY6I" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="AJ12" r:id="rId8" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?ei=hqjgWrf7D-WVgAaajqb4Bg&amp;q=vivescia%20reims&amp;oq=vivescia+reims&amp;gs_l=psy-ab.3..0l3j0i22i30k1l7.110048.112300.0.112635.14.13.0.1.1.0.181.1425.0j10.10.0....0...1c.1.64.psy-ab..3.11.1435...35i39k1j0i131k1.0.j8KcD_SAUYk&amp;npsic=0&amp;rflfq=1&amp;rlha=0&amp;rllag=49231434,4074548,460&amp;tbm=lcl&amp;rldimm=13708956538798387191&amp;ved=0ahUKEwjFh4up6dXaAhVMBsAKHTFkCAMQvS4IOzAC&amp;rldoc=1&amp;tbs=lrf:!3sIAE,lf:1,lf_ui:4&amp;rlst=f" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="AR12" r:id="rId9" display="mailto:maxime.françois@vivescia.com" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="AJ54" r:id="rId10" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?q=KALIZEA+reims&amp;sa=X&amp;ved=0ahUKEwjJ9dug6tXaAhWqD8AKHZiSDzYQuzEICigA&amp;biw=1467&amp;bih=703" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="AJ7" r:id="rId11" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=pavgWrGFM8-0gQbpwIbQCQ&amp;q=fofralab+magenta&amp;oq=fofralab+magenta&amp;gs_l=psy-ab.3..0i13k1.387029.391164.0.391634.16.16.0.0.0.0.329.1969.0j6j3j1.10.0....0...1c.1.64.psy-ab..6.10.1960...0j35i39k1j0i67k1j0i131k1j0i131i67k1j0i10k1j0i10i19k1j0i13i5i10i30i19k1j0i13i30k1.0.Mbr8qt9fctI" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="AJ63" r:id="rId12" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=ZrDgWrTvMJqvgAbRn67gDA&amp;q=malteurop+vitry+le+francois&amp;oq=malteurop+vitry+le+francois&amp;gs_l=psy-ab.3..0i71k1l8.5807.5807.0.5976.1.1.0.0.0.0.0.0..0.0....0...1c..64.psy-ab..1.0.0....0.jIvwkzJYj6k" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="AR63" r:id="rId13" display="mailto:stephanie.grosjean@malteurop.com" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="AJ72" r:id="rId14" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=sbLgWvDKBIPAgAb2hIOIAQ&amp;q=MARLENHEIM+p%C3%A2tes&amp;oq=MARLENHEIM+p%C3%A2tes&amp;gs_l=psy-ab.3..33i22i29i30k1.6854.9853.0.10011.6.6.0.0.0.0.215.723.0j4j1.5.0....0...1c.1.64.psy-ab..1.4.507...0j0i67k1j0i22i30k1j33i160k1.0.2DQBZ7EcKCc" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="AJ57" r:id="rId15" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=vLLgWurlG4LZgQbt-YOwDw&amp;q=chamtor+pomacle&amp;oq=chamtor+pomacle&amp;gs_l=psy-ab.3..0i22i30k1.568190.572873.0.573230.15.12.0.3.3.0.296.1174.0j5j2.7.0....0...1c.1.64.psy-ab..5.10.1204...0j35i39k1j0i10i67k1j0i131k1j0i20i263k1j0i10k1j0i203k1j0i30k1j0i10i30k1.0.BuriVhJD9fU" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="AR50" r:id="rId16" display="mailto:theret@babynov.fr" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="AJ53" r:id="rId17" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?biw=1467&amp;bih=703&amp;ei=RsbgWsefAeuZgAbg567IAw&amp;q=bister+10800+SAINT-THIBAULT&amp;oq=bister+10800+SAINT-THIBAULT&amp;gs_l=psy-ab.3...45431.46651.0.47492.8.8.0.0.0.0.236.895.0j3j2.5.0....0...1c.1.64.psy-ab..3.4.755...0j35i39k1j0i131k1j0i67k1j0i10k1j0i203k1.0.j49N90zVObY" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="AQ66" r:id="rId18" display="http://03.26.67.16.45/" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="AK62" r:id="rId19" display="https://www.google.fr/maps/place/5+Rue+Henri+Martin,+51200+%C3%89pernay/@49.03997,3.955612,18z/data=!3m1!4b1!4m8!1m2!2m1!1sCoop%C3%A9rative+R%C3%A9gionale+des+Vins+de+Champagne+5+rue+henri+martin!3m4!1s0x47e96b4f254c4b7f:0x2f30202f02c1afd2!8m2!3d49.0399682!4d3.956709" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="AR56" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="AJ62" r:id="rId21" display="http://03.26.51.19.30/" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="AK61" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="AR31" r:id="rId23" display="mailto:barbara.fromentin@pernod-ricard.com" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="AR59" r:id="rId24" display="mailto:f.pichard@distillerie-goyard.com" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="AR7" r:id="rId25" display="clebrishoual@sofralab.com" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="AR92" r:id="rId26" display="mailto:aurelie.gantet@reimsmetropole.fr" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="AR104" r:id="rId27" display="mailto:thor.hpc@thor.com" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="AR106" r:id="rId28" display="mailto:katia.savary@univ-reims.fr" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="AR9" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="AR51" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="AJ32" r:id="rId31" tooltip="Appeler avec Hangouts" display="https://www.google.fr/search?ei=WSDeWqjRLoPCgAao_rOACQ&amp;q=GRANDS+MOULINS+%28EUROMILL+NORD+REIMS%29&amp;oq=GRANDS+MOULINS+%28EUROMILL+NORD+REIMS%29&amp;gs_l=psy-ab.3...222844.222844.0.223869.1.1.0.0.0.0.361.361.3-1.1.0....0...1c.1.64.psy-ab..0.0.0....0.P1wqGInEwAU" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="AR77" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="AR78" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="AR6" r:id="rId34" display="mailto:mbertemes@mhws.fr" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="AR79" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="AR83" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="AR8" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="AQ52" r:id="rId38" display="Labo08@cq08.fr_x000a_03 24 59 61 53  _x000a_" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="AR52" r:id="rId39" display="mailto:Labo08@cq08.fr" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="AR21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="AR22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="AR86" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="AR89" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="AK87" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="AK88" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="AK89" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="AR33" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="AR4" r:id="rId48" display="m.lebrun@soliance.com / " xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="AR99" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="AR102" r:id="rId50" display="mailto:mickael.franchette@eugenemerma.fr" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="AR103" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="AR39" r:id="rId52" display="mailto:floriane.oszust@univ-reims;fr" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="AR42" r:id="rId53" display="mailto:v.verdonk@biotechjboy.com" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="AR108" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
     <hyperlink ref="AK108" display="https://www.google.fr/maps/place/49%C2%B014'33.9%22N+4%C2%B003'41.6%22E/@49.242738,4.0606367,18z/data=!3m1!4b1!4m9!1m2!2m1!1sB%C3%A2timent+18+-+UFR+Sciences+Exactes+et+Naturelles,+Laboratoire+SIRMA++++CNRS+3481++!3m5!1s0x0:0x0!7e2!8m2!3d49.2427377!4d4.061" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="AR115" r:id="rId70" display="mailto:info@jnslabs.com" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="AR57" r:id="rId71" xr:uid="{120D4766-2804-834C-B350-0BE7FDA42D38}"/>
-    <hyperlink ref="AK4" r:id="rId72" xr:uid="{6622BBA6-6FF8-4152-B86B-419D1D3F91A2}"/>
-    <hyperlink ref="AK2" r:id="rId73" xr:uid="{CE6BB279-B22D-4886-BA43-EBC7C34ABC98}"/>
-    <hyperlink ref="AK3" r:id="rId74" xr:uid="{AD65CD47-7EFA-468A-823F-E339A9B6D149}"/>
-    <hyperlink ref="AK5" r:id="rId75" xr:uid="{867F9573-C524-43B1-B8BB-393613768702}"/>
-    <hyperlink ref="AK6" r:id="rId76" xr:uid="{BF5452CE-A4A7-4606-BC60-FF976F299AB7}"/>
-    <hyperlink ref="AK7" r:id="rId77" xr:uid="{D6C97649-73D2-49A8-8292-B639FCA92A26}"/>
-    <hyperlink ref="AK8" r:id="rId78" xr:uid="{06A1A36D-1C79-4DDD-8C3C-A29B3AB95216}"/>
-    <hyperlink ref="AK9" r:id="rId79" xr:uid="{E7287CB5-76AD-4369-BEC2-F6381C7644FC}"/>
-    <hyperlink ref="AK10" r:id="rId80" xr:uid="{9180D9EF-8163-43F1-B529-5EF7620CCC98}"/>
-    <hyperlink ref="AK12" r:id="rId81" xr:uid="{7B3178EE-8012-4045-ABA6-770304DA7A0A}"/>
-    <hyperlink ref="AK13" r:id="rId82" xr:uid="{6BF309E0-44F4-4801-A07F-B45D80DAD3B9}"/>
-    <hyperlink ref="AK15" r:id="rId83" xr:uid="{30B8E8AB-484D-4869-9DA7-C84D07A1DFD7}"/>
-    <hyperlink ref="AK17" r:id="rId84" xr:uid="{832F36F7-F6BA-46EB-A5E1-DB9BEB57D0DF}"/>
-    <hyperlink ref="AK18" r:id="rId85" xr:uid="{9154F617-C5AB-49D1-BA5E-806CE4EB594E}"/>
-    <hyperlink ref="AK19" r:id="rId86" xr:uid="{F3B7F5D3-98B0-43C8-A6A6-EFF45964F58D}"/>
-    <hyperlink ref="AK21" r:id="rId87" xr:uid="{8E4BF1A8-8EA1-4025-A588-AE88CCAA2C07}"/>
-    <hyperlink ref="AK23" r:id="rId88" xr:uid="{E24FB1E8-7D8A-43A4-B6D0-9E909F366FEE}"/>
+    <hyperlink ref="AR115" r:id="rId55" display="mailto:info@jnslabs.com" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="AR57" r:id="rId56" xr:uid="{120D4766-2804-834C-B350-0BE7FDA42D38}"/>
+    <hyperlink ref="AK4" r:id="rId57" xr:uid="{6622BBA6-6FF8-4152-B86B-419D1D3F91A2}"/>
+    <hyperlink ref="AK2" r:id="rId58" xr:uid="{CE6BB279-B22D-4886-BA43-EBC7C34ABC98}"/>
+    <hyperlink ref="AK3" r:id="rId59" xr:uid="{AD65CD47-7EFA-468A-823F-E339A9B6D149}"/>
+    <hyperlink ref="AK5" r:id="rId60" xr:uid="{867F9573-C524-43B1-B8BB-393613768702}"/>
+    <hyperlink ref="AK6" r:id="rId61" xr:uid="{BF5452CE-A4A7-4606-BC60-FF976F299AB7}"/>
+    <hyperlink ref="AK7" r:id="rId62" xr:uid="{D6C97649-73D2-49A8-8292-B639FCA92A26}"/>
+    <hyperlink ref="AK8" r:id="rId63" xr:uid="{06A1A36D-1C79-4DDD-8C3C-A29B3AB95216}"/>
+    <hyperlink ref="AK9" r:id="rId64" xr:uid="{E7287CB5-76AD-4369-BEC2-F6381C7644FC}"/>
+    <hyperlink ref="AK10" r:id="rId65" xr:uid="{9180D9EF-8163-43F1-B529-5EF7620CCC98}"/>
+    <hyperlink ref="AK12" r:id="rId66" xr:uid="{7B3178EE-8012-4045-ABA6-770304DA7A0A}"/>
+    <hyperlink ref="AK13" r:id="rId67" xr:uid="{6BF309E0-44F4-4801-A07F-B45D80DAD3B9}"/>
+    <hyperlink ref="AK15" r:id="rId68" xr:uid="{30B8E8AB-484D-4869-9DA7-C84D07A1DFD7}"/>
+    <hyperlink ref="AK17" r:id="rId69" xr:uid="{832F36F7-F6BA-46EB-A5E1-DB9BEB57D0DF}"/>
+    <hyperlink ref="AK18" r:id="rId70" xr:uid="{9154F617-C5AB-49D1-BA5E-806CE4EB594E}"/>
+    <hyperlink ref="AK19" r:id="rId71" xr:uid="{F3B7F5D3-98B0-43C8-A6A6-EFF45964F58D}"/>
+    <hyperlink ref="AK21" r:id="rId72" xr:uid="{8E4BF1A8-8EA1-4025-A588-AE88CCAA2C07}"/>
+    <hyperlink ref="AK23" r:id="rId73" xr:uid="{E24FB1E8-7D8A-43A4-B6D0-9E909F366FEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId89"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId74"/>
 </worksheet>
 </file>
 
@@ -42599,7 +42690,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="171" t="s">
-        <v>1028</v>
+        <v>1004</v>
       </c>
       <c r="B1" s="172"/>
       <c r="C1" s="172"/>
@@ -42616,14 +42707,14 @@
       <c r="F2" s="176"/>
       <c r="H2" s="68"/>
       <c r="I2" s="69" t="s">
-        <v>968</v>
+        <v>944</v>
       </c>
       <c r="K2" s="70"/>
       <c r="L2" s="69" t="s">
-        <v>969</v>
+        <v>945</v>
       </c>
       <c r="N2" s="167" t="s">
-        <v>997</v>
+        <v>973</v>
       </c>
       <c r="O2" s="168"/>
       <c r="P2" s="168"/>
@@ -42685,7 +42776,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="171" t="s">
-        <v>972</v>
+        <v>948</v>
       </c>
       <c r="B1" s="172"/>
       <c r="C1" s="172"/>
@@ -42704,14 +42795,14 @@
       <c r="G2" s="71"/>
       <c r="H2" s="68"/>
       <c r="I2" s="69" t="s">
-        <v>968</v>
+        <v>944</v>
       </c>
       <c r="K2" s="70"/>
       <c r="L2" s="69" t="s">
-        <v>969</v>
+        <v>945</v>
       </c>
       <c r="N2" s="180" t="s">
-        <v>997</v>
+        <v>973</v>
       </c>
       <c r="O2" s="181"/>
       <c r="P2" s="181"/>

--- a/Entreprises_Complet.xlsx
+++ b/Entreprises_Complet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfial\Documents\00_Stage_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{234E4734-844F-4F1B-8D19-BFD3E28DE518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6E1E070-025E-4A74-9990-722FD6B59618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="1350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="1359">
   <si>
     <t>Alimentaire</t>
   </si>
@@ -1959,9 +1959,6 @@
     <t>RC63+H7 Ivry-sur-Seine</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Eau+De+Paris/@48.8114465,2.4010236,17z/data=!3m1!4b1!4m5!3m4!1s0x47e673ab8e2b7641:0x3effdeb0d6497b65!8m2!3d48.8114465!4d2.4032123</t>
-  </si>
-  <si>
     <t>Resp. qualité</t>
   </si>
   <si>
@@ -1986,9 +1983,6 @@
     <t>03 23 54 51 50</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/FERTEMIS/@49.3001763,3.5738363,17z/data=!3m1!4b1!4m5!3m4!1s0x47e8ff8e424fab55:0x698c5afd6284d672!8m2!3d49.3001763!4d3.576025</t>
-  </si>
-  <si>
     <t>8H2G+3C Mont-Notre-Dame</t>
   </si>
   <si>
@@ -2004,9 +1998,6 @@
     <t>03 26 67 46 46</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Tereos+Starch+%26+Sweeteners+Europe/@48.7401143,4.1603852,17z/data=!3m1!4b1!4m5!3m4!1s0x47e94a199c03794b:0x43c72e11d6ee5a4!8m2!3d48.7401143!4d4.1625739</t>
-  </si>
-  <si>
     <t>P5R7+22 Haussimont</t>
   </si>
   <si>
@@ -2025,9 +2016,6 @@
     <t>03 23 60 34 00</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Nestl%C3%A9+France/@50.0079172,3.6878876,17z/data=!4m5!3m4!1s0x47c2808393973935:0x7669f5ffa84fd4b!8m2!3d50.0079172!4d3.6900763</t>
-  </si>
-  <si>
     <t>2M5R+52 Boué</t>
   </si>
   <si>
@@ -2050,9 +2038,6 @@
   </si>
   <si>
     <t>03 81 39 80 20</t>
-  </si>
-  <si>
-    <t>https://www.google.fr/maps/place/Fromagerie+Badoz/@46.9161251,6.3342298,18z/data=!4m13!1m7!3m6!1s0x478da32eb9d434e5:0x4a3da4ad33a76efd!2s4+Rue+Gustave+Eiffel,+25300+Pontarlier!3b1!8m2!3d46.9161251!4d6.3353241!3m4!1s0x478da31a1b5951bb:0x3dd68e10dd4a1018!8m2!3d46.9161251!4d6.3353241</t>
   </si>
   <si>
     <t>W88P+F4 Pontarlier</t>
@@ -2235,22 +2220,13 @@
     <t xml:space="preserve">5, Rue de Valmy </t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/Huguier+Freres/@48.6711665,4.1951421,17z/data=!4m8!1m2!2m1!1sHuguier+Freres,+Mailly-le-Camp!3m4!1s0x47e9548df765d667:0x8c5f540afa5b189b!8m2!3d48.6733675!4d4.1923816?hl=fr</t>
-  </si>
-  <si>
     <t>HUGUIER Frères</t>
   </si>
   <si>
-    <t>https://www.google.fr/maps/place/ANTARTIC+SAS/@48.4984023,1.4178183,8z/data=!4m8!1m2!2m1!1srue+des+Genêts,+ZI+des+genêts!3m4!1s0x47e51175d122cc55:0x449403c4b620d926!8m2!3d47.8578238!4d2.2701142?hl=fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">Centre de Recherches Agronomiques, 2, Espl. Roland Garros </t>
   </si>
   <si>
     <t>03 26 77 36 07</t>
-  </si>
-  <si>
-    <t>https://www.google.fr/maps/place/C.A.M.A+(Chaine+d'Analyses+Marne+Ardennes)/@49.2383,4.0609132,17z/data=!3m1!4b1!4m5!3m4!1s0x47e97423fbc6d089:0x9471ee46d157d28e!8m2!3d49.2383!4d4.0631019?hl=fr</t>
   </si>
   <si>
     <t>63Q7+86 Reims</t>
@@ -4245,6 +4221,57 @@
   </si>
   <si>
     <t>https://www.linkedin.com/company/dislaub/about/</t>
+  </si>
+  <si>
+    <t>48.81157695359929, 2.4038258247098945</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/eau-de-paris/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>49.30028472080546, 3.5764541517103527</t>
+  </si>
+  <si>
+    <t>48.73990232228516, 4.161691407509708</t>
+  </si>
+  <si>
+    <t>50.00803786632115, 3.690505436020268</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/nestl%C3%A9-france-s.a.s./?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>46.91614158918357, 6.335983964710303</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/fromagerie-badoz/about/</t>
+  </si>
+  <si>
+    <t>48.67351897726366, 4.193192689712427</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/huguier-freres/about/</t>
+  </si>
+  <si>
+    <t>48.81626779377453, 3.982087527376035</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/tereos/</t>
+  </si>
+  <si>
+    <t>49.638735744376284, 5.350156381894311</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/brasserie-d'orval/about/</t>
+  </si>
+  <si>
+    <t>49.265817608480354, 4.034248191664592</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/charbonneaux-brabant-s-a-/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>49.238513631724715, 4.063616882397323</t>
   </si>
 </sst>
 </file>
@@ -15214,10 +15241,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AD1" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="AK81" sqref="AK81"/>
+      <selection pane="bottomLeft" activeCell="AK91" sqref="AK91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15288,28 +15315,28 @@
         <v>303</v>
       </c>
       <c r="E1" s="152" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="F1" s="152" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="G1" s="152" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="H1" s="152" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="I1" s="152" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="J1" s="152" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="K1" s="152" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="L1" s="152" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="M1" s="153" t="s">
         <v>256</v>
@@ -15387,7 +15414,7 @@
         <v>81</v>
       </c>
       <c r="AL1" s="150" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
       <c r="AM1" s="150" t="s">
         <v>267</v>
@@ -15411,110 +15438,110 @@
         <v>234</v>
       </c>
       <c r="AT1" s="157" t="s">
+        <v>941</v>
+      </c>
+      <c r="AU1" s="158" t="s">
+        <v>944</v>
+      </c>
+      <c r="AV1" s="157" t="s">
+        <v>939</v>
+      </c>
+      <c r="AW1" s="158" t="s">
+        <v>942</v>
+      </c>
+      <c r="AX1" s="159" t="s">
+        <v>977</v>
+      </c>
+      <c r="AY1" s="159" t="s">
+        <v>978</v>
+      </c>
+      <c r="AZ1" s="159" t="s">
+        <v>975</v>
+      </c>
+      <c r="BA1" s="159" t="s">
+        <v>976</v>
+      </c>
+      <c r="BB1" s="159" t="s">
+        <v>945</v>
+      </c>
+      <c r="BC1" s="159" t="s">
+        <v>946</v>
+      </c>
+      <c r="BD1" s="159" t="s">
+        <v>947</v>
+      </c>
+      <c r="BE1" s="159" t="s">
+        <v>948</v>
+      </c>
+      <c r="BF1" s="159" t="s">
         <v>949</v>
       </c>
-      <c r="AU1" s="158" t="s">
+      <c r="BG1" s="159" t="s">
+        <v>950</v>
+      </c>
+      <c r="BH1" s="159" t="s">
+        <v>951</v>
+      </c>
+      <c r="BI1" s="159" t="s">
         <v>952</v>
       </c>
-      <c r="AV1" s="157" t="s">
-        <v>947</v>
-      </c>
-      <c r="AW1" s="158" t="s">
-        <v>950</v>
-      </c>
-      <c r="AX1" s="159" t="s">
-        <v>985</v>
-      </c>
-      <c r="AY1" s="159" t="s">
-        <v>986</v>
-      </c>
-      <c r="AZ1" s="159" t="s">
-        <v>983</v>
-      </c>
-      <c r="BA1" s="159" t="s">
-        <v>984</v>
-      </c>
-      <c r="BB1" s="159" t="s">
+      <c r="BJ1" s="159" t="s">
         <v>953</v>
       </c>
-      <c r="BC1" s="159" t="s">
+      <c r="BK1" s="159" t="s">
         <v>954</v>
       </c>
-      <c r="BD1" s="159" t="s">
-        <v>955</v>
-      </c>
-      <c r="BE1" s="159" t="s">
-        <v>956</v>
-      </c>
-      <c r="BF1" s="159" t="s">
-        <v>957</v>
-      </c>
-      <c r="BG1" s="159" t="s">
-        <v>958</v>
-      </c>
-      <c r="BH1" s="159" t="s">
-        <v>959</v>
-      </c>
-      <c r="BI1" s="159" t="s">
-        <v>960</v>
-      </c>
-      <c r="BJ1" s="159" t="s">
-        <v>961</v>
-      </c>
-      <c r="BK1" s="159" t="s">
-        <v>962</v>
-      </c>
       <c r="BL1" s="160" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="BM1" s="160" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="BN1" s="160"/>
       <c r="BO1" s="160"/>
       <c r="BP1" s="161" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="BQ1" s="161" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="BR1" s="161" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="BS1" s="161" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="BT1" s="161" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="BU1" s="161"/>
       <c r="BV1" s="161"/>
       <c r="BW1" s="161" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="BX1" s="161" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="BY1" s="161" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="BZ1" s="161" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="CA1" s="161" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="CB1" s="162"/>
     </row>
     <row r="2" spans="1:80" s="18" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="D2" s="99"/>
       <c r="E2" s="164"/>
@@ -15546,7 +15573,7 @@
       <c r="AE2" s="62"/>
       <c r="AF2" s="137"/>
       <c r="AG2" s="62" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="AH2" s="62" t="s">
         <v>176</v>
@@ -15555,13 +15582,13 @@
         <v>51100</v>
       </c>
       <c r="AJ2" s="139" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="AK2" s="67" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="AL2" s="144" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="AM2" s="67"/>
       <c r="AN2" s="140"/>
@@ -15603,69 +15630,69 @@
         <v xml:space="preserve">2020_A=2 2019_A=4 2018_A=7  ; 2017_A=5 ; 2017_i=1 ; 2016_A=6 ; 2016_i=1 ; 2015_A=3  ; 2014_A=3 </v>
       </c>
       <c r="E3" s="164" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="F3" s="164" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="G3" s="164" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="H3" s="164"/>
       <c r="I3" s="74" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="K3" s="62" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="L3" s="164"/>
       <c r="M3" s="74" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="N3" s="62" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="O3" s="62" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="P3" s="137"/>
       <c r="Q3" s="62" t="s">
-        <v>1117</v>
+        <v>1109</v>
       </c>
       <c r="R3" s="137" t="s">
-        <v>1118</v>
+        <v>1110</v>
       </c>
       <c r="S3" s="137" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
       <c r="T3" s="137"/>
       <c r="U3" s="62" t="s">
         <v>474</v>
       </c>
       <c r="V3" s="62" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="W3" s="62" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="X3" s="137"/>
       <c r="Y3" s="137"/>
       <c r="Z3" s="62" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="AA3" s="62" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="AB3" s="137"/>
       <c r="AC3" s="62"/>
       <c r="AD3" s="62" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="AE3" s="62" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="AF3" s="137"/>
       <c r="AG3" s="62" t="s">
@@ -15681,10 +15708,10 @@
         <v>326888110</v>
       </c>
       <c r="AK3" s="67" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="AL3" s="144" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
       <c r="AM3" s="67" t="s">
         <v>405</v>
@@ -15824,31 +15851,31 @@
         <v>2020_A=1 2019_A=1 2018_A=2 ; 2018_i=1 ; 2017_A=1  ; 2016_A=2  ; 2015_A=1  ; 2014_A=2 ; 2014_i=1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>469</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="75" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="P4" s="17" t="s">
         <v>500</v>
@@ -15860,35 +15887,35 @@
         <v>477</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
       <c r="T4" s="17"/>
       <c r="U4" s="17" t="s">
         <v>431</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
       <c r="X4" s="17"/>
       <c r="Y4" s="17"/>
       <c r="Z4" s="17" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="AA4" s="17" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="AB4" s="17"/>
       <c r="AC4" s="17" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
       <c r="AD4" s="17" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
       <c r="AE4" s="17" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="AF4" s="17"/>
       <c r="AG4" s="11" t="s">
@@ -15904,26 +15931,26 @@
         <v>326888410</v>
       </c>
       <c r="AK4" s="23" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
       <c r="AL4" s="145" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="AM4" s="50"/>
       <c r="AN4" s="11" t="s">
         <v>302</v>
       </c>
       <c r="AO4" s="17" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="AP4" s="17" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="AQ4" s="11" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="AR4" s="23" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="AS4" s="25"/>
       <c r="AT4" s="1">
@@ -16073,20 +16100,20 @@
       </c>
       <c r="P5" s="17"/>
       <c r="Q5" s="17" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="T5" s="17"/>
       <c r="U5" s="17" t="s">
         <v>262</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
       <c r="W5" s="17" t="s">
         <v>503</v>
@@ -16096,18 +16123,18 @@
         <v>242</v>
       </c>
       <c r="Z5" s="17" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
       <c r="AA5" s="17" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
       <c r="AB5" s="17"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="17" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="AE5" s="17" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="AF5" s="17"/>
       <c r="AG5" s="17" t="s">
@@ -16123,10 +16150,10 @@
         <v>255</v>
       </c>
       <c r="AK5" s="23" t="s">
-        <v>1206</v>
+        <v>1198</v>
       </c>
       <c r="AL5" s="146" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
       <c r="AM5" s="66"/>
       <c r="AN5" s="17"/>
@@ -16267,30 +16294,30 @@
         <v>438</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="K6" s="17" t="s">
         <v>501</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="75" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="P6" s="17"/>
       <c r="Q6" s="17" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="T6" s="17"/>
       <c r="U6" s="17" t="s">
@@ -16330,10 +16357,10 @@
         <v>33326512020</v>
       </c>
       <c r="AK6" s="23" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="AL6" s="147" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
       <c r="AM6" s="25" t="s">
         <v>201</v>
@@ -16491,7 +16518,7 @@
         <v>463</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="P7" s="17" t="s">
         <v>499</v>
@@ -16503,33 +16530,33 @@
         <v>465</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="T7" s="17"/>
       <c r="U7" s="17" t="s">
         <v>466</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="W7" s="17" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="X7" s="17"/>
       <c r="Y7" s="17"/>
       <c r="Z7" s="17" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="AA7" s="17" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="AB7" s="17"/>
       <c r="AC7" s="17"/>
       <c r="AD7" s="17" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="AE7" s="17" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="AF7" s="17"/>
       <c r="AG7" s="11" t="s">
@@ -16545,10 +16572,10 @@
         <v>124</v>
       </c>
       <c r="AK7" s="23" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
       <c r="AL7" s="147" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
       <c r="AM7" s="23"/>
       <c r="AN7" s="11" t="s">
@@ -16706,43 +16733,43 @@
         <v>475</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="17" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="T8" s="15"/>
       <c r="U8" s="17" t="s">
         <v>476</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="W8" s="17" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="17" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="AA8" s="17" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="AB8" s="15"/>
       <c r="AC8" s="17"/>
       <c r="AD8" s="17" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="AE8" s="17" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="AF8" s="15"/>
       <c r="AG8" s="17" t="s">
@@ -16758,24 +16785,24 @@
         <v>414</v>
       </c>
       <c r="AK8" s="23" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
       <c r="AL8" s="23" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="AM8" s="23"/>
       <c r="AN8" s="30"/>
       <c r="AO8" s="17" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="AP8" s="17" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="AQ8" s="48" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="AR8" s="42" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="AS8" s="26"/>
       <c r="AT8" s="1">
@@ -16896,40 +16923,40 @@
         <v>4</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="D9" s="99" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">    2018_A=1  ; 2017_A=1  ; 2016_A=1 ; 2016_i=1 ; 2015_A=2  ; 2014_A=1 </v>
       </c>
       <c r="E9" s="75" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="75" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="75" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="P9" s="17"/>
       <c r="Q9" s="17" t="s">
@@ -16946,27 +16973,27 @@
         <v>432</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
       <c r="W9" s="17" t="s">
         <v>460</v>
       </c>
       <c r="X9" s="17"/>
       <c r="Y9" s="17" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="Z9" s="17" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="AA9" s="17" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="AB9" s="17"/>
       <c r="AC9" s="17" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="AE9" s="17" t="s">
         <v>459</v>
@@ -16985,10 +17012,10 @@
         <v>88</v>
       </c>
       <c r="AK9" s="23" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
       <c r="AL9" s="23" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="AM9" s="23"/>
       <c r="AN9" s="25" t="s">
@@ -17120,43 +17147,43 @@
         <v>0</v>
       </c>
       <c r="B10" s="143" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>1211</v>
+        <v>1203</v>
       </c>
       <c r="D10" s="73" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">2020_A=1 2019_A=1 2018_A=1         </v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="G10" s="142" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="H10" s="126"/>
       <c r="I10" s="54" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="J10" s="54" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="K10" s="142" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="L10" s="126"/>
       <c r="M10" s="97" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="N10" s="54" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="O10" s="142" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="P10" s="122"/>
       <c r="Q10" s="54"/>
@@ -17176,10 +17203,10 @@
       <c r="AE10" s="54"/>
       <c r="AF10" s="122"/>
       <c r="AG10" s="54" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="AH10" s="54" t="s">
-        <v>1203</v>
+        <v>1195</v>
       </c>
       <c r="AI10" s="128">
         <v>50890</v>
@@ -17188,10 +17215,10 @@
         <v>33233066500</v>
       </c>
       <c r="AK10" s="22" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="AL10" s="23" t="s">
-        <v>1204</v>
+        <v>1196</v>
       </c>
       <c r="AM10" s="54"/>
       <c r="AN10" s="130"/>
@@ -17310,7 +17337,7 @@
         <v>453</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="D11" s="73" t="str">
         <f t="shared" si="0"/>
@@ -17366,7 +17393,7 @@
       <c r="AB11" s="15"/>
       <c r="AC11" s="17"/>
       <c r="AD11" s="17" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="AE11" s="45" t="s">
         <v>498</v>
@@ -17385,10 +17412,10 @@
         <v>456</v>
       </c>
       <c r="AK11" s="23" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="AL11" s="23" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
       <c r="AM11" s="23" t="s">
         <v>457</v>
@@ -17528,20 +17555,20 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="75" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="O12" s="17" t="s">
         <v>506</v>
       </c>
       <c r="P12" s="17"/>
       <c r="Q12" s="17" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="S12" s="17" t="s">
         <v>506</v>
@@ -17551,7 +17578,7 @@
         <v>242</v>
       </c>
       <c r="V12" s="17" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="W12" s="17" t="s">
         <v>506</v>
@@ -17578,10 +17605,10 @@
         <v>118</v>
       </c>
       <c r="AK12" s="23" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="AL12" s="23" t="s">
-        <v>1216</v>
+        <v>1208</v>
       </c>
       <c r="AM12" s="23"/>
       <c r="AN12" s="25"/>
@@ -17731,7 +17758,7 @@
         <v>479</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>1064</v>
+        <v>1056</v>
       </c>
       <c r="P13" s="17"/>
       <c r="Q13" s="17" t="s">
@@ -17741,7 +17768,7 @@
         <v>480</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>1064</v>
+        <v>1056</v>
       </c>
       <c r="T13" s="17"/>
       <c r="U13" s="17" t="s">
@@ -17751,7 +17778,7 @@
         <v>481</v>
       </c>
       <c r="W13" s="17" t="s">
-        <v>1064</v>
+        <v>1056</v>
       </c>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
@@ -17775,10 +17802,10 @@
         <v>115</v>
       </c>
       <c r="AK13" s="23" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="AL13" s="23" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="AM13" s="23" t="s">
         <v>478</v>
@@ -17928,7 +17955,7 @@
         <v>468</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="P14" s="15"/>
       <c r="Q14" s="17" t="s">
@@ -17938,7 +17965,7 @@
         <v>471</v>
       </c>
       <c r="S14" s="17" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="T14" s="15"/>
       <c r="U14" s="17" t="s">
@@ -17948,7 +17975,7 @@
         <v>470</v>
       </c>
       <c r="W14" s="17" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="X14" s="15"/>
       <c r="Y14" s="17"/>
@@ -17972,10 +17999,10 @@
         <v>472</v>
       </c>
       <c r="AK14" s="23" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="AL14" s="23" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="AM14" s="23" t="s">
         <v>473</v>
@@ -18096,7 +18123,7 @@
         <v>399</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
       <c r="D15" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18115,20 +18142,20 @@
       <c r="O15" s="17"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="17" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="S15" s="17" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="17" t="s">
         <v>401</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="W15" s="17" t="s">
         <v>509</v>
@@ -18145,7 +18172,7 @@
       <c r="AE15" s="17"/>
       <c r="AF15" s="15"/>
       <c r="AG15" s="17" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="AH15" s="17" t="s">
         <v>176</v>
@@ -18155,10 +18182,10 @@
       </c>
       <c r="AJ15" s="15"/>
       <c r="AK15" s="22" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
       <c r="AL15" s="23" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="AM15" s="23" t="s">
         <v>381</v>
@@ -18277,7 +18304,7 @@
         <v>380</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="D16" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18295,10 +18322,10 @@
         <v>366</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="P16" s="15"/>
       <c r="Q16" s="17"/>
@@ -18309,7 +18336,7 @@
         <v>242</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
       <c r="W16" s="17" t="s">
         <v>406</v>
@@ -18323,14 +18350,14 @@
         <v>242</v>
       </c>
       <c r="AD16" s="17" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="AE16" s="17" t="s">
         <v>516</v>
       </c>
       <c r="AF16" s="15"/>
       <c r="AG16" s="17" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="AH16" s="17" t="s">
         <v>176</v>
@@ -18340,22 +18367,22 @@
       </c>
       <c r="AJ16" s="15"/>
       <c r="AK16" s="22" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
       <c r="AL16" s="23" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="AM16" s="23" t="s">
         <v>381</v>
       </c>
       <c r="AN16" s="30"/>
       <c r="AO16" s="17" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="AP16" s="24"/>
       <c r="AQ16" s="26"/>
       <c r="AR16" s="42" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="AS16" s="26"/>
       <c r="AT16" s="1">
@@ -18465,10 +18492,10 @@
         <v>355</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="D17" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18483,23 +18510,23 @@
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
       <c r="M17" s="75" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="P17" s="17"/>
       <c r="Q17" s="17" t="s">
+        <v>1113</v>
+      </c>
+      <c r="R17" s="17" t="s">
+        <v>1120</v>
+      </c>
+      <c r="S17" s="17" t="s">
         <v>1121</v>
-      </c>
-      <c r="R17" s="17" t="s">
-        <v>1128</v>
-      </c>
-      <c r="S17" s="17" t="s">
-        <v>1129</v>
       </c>
       <c r="T17" s="17"/>
       <c r="U17" s="17"/>
@@ -18515,7 +18542,7 @@
       <c r="AE17" s="17"/>
       <c r="AF17" s="17"/>
       <c r="AG17" s="17" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="AH17" s="17" t="s">
         <v>176</v>
@@ -18525,24 +18552,24 @@
       </c>
       <c r="AJ17" s="28"/>
       <c r="AK17" s="22" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
       <c r="AL17" s="22" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
       <c r="AM17" s="23" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="AN17" s="15"/>
       <c r="AO17" s="17" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="AP17" s="24"/>
       <c r="AQ17" s="17" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="AR17" s="60" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="AS17" s="25" t="s">
         <v>417</v>
@@ -18656,10 +18683,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="D18" s="73" t="str">
         <f t="shared" si="0"/>
@@ -18674,23 +18701,23 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="75" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="P18" s="15"/>
       <c r="Q18" s="17" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
@@ -18706,7 +18733,7 @@
       <c r="AE18" s="17"/>
       <c r="AF18" s="15"/>
       <c r="AG18" s="17" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="AH18" s="17" t="s">
         <v>176</v>
@@ -18715,16 +18742,16 @@
         <v>51680</v>
       </c>
       <c r="AJ18" s="28" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="AK18" s="22" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
       <c r="AL18" s="22" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
       <c r="AM18" s="23" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
       <c r="AN18" s="30"/>
       <c r="AO18" s="26"/>
@@ -18905,10 +18932,10 @@
         <v>448</v>
       </c>
       <c r="AK19" s="22" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="AL19" s="52" t="s">
-        <v>1226</v>
+        <v>1218</v>
       </c>
       <c r="AM19" s="23" t="s">
         <v>449</v>
@@ -19104,10 +19131,10 @@
         <v>444</v>
       </c>
       <c r="AK20" s="52" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="AL20" s="52" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="AM20" s="25"/>
       <c r="AN20" s="17"/>
@@ -19226,7 +19253,7 @@
         <v>252</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
       <c r="D21" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19244,10 +19271,10 @@
         <v>251</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="P21" s="15"/>
       <c r="Q21" s="17"/>
@@ -19267,34 +19294,34 @@
       <c r="AE21" s="17"/>
       <c r="AF21" s="15"/>
       <c r="AG21" s="11" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="AH21" s="17" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="AI21" s="21">
         <v>10000</v>
       </c>
       <c r="AJ21" s="28"/>
       <c r="AK21" s="56" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="AL21" s="56"/>
       <c r="AM21" s="23" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AN21" s="17" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="AO21" s="17" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="AP21" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AQ21" s="17"/>
       <c r="AR21" s="23" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="AS21" s="25"/>
       <c r="AT21" s="1">
@@ -19403,7 +19430,7 @@
         <v>252</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D22" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19418,13 +19445,13 @@
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
       <c r="M22" s="75" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="17"/>
@@ -19444,32 +19471,32 @@
       <c r="AE22" s="17"/>
       <c r="AF22" s="15"/>
       <c r="AG22" s="11" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="AH22" s="17" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="AI22" s="21">
         <v>76100</v>
       </c>
       <c r="AJ22" s="28" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="AK22" s="56"/>
       <c r="AL22" s="56" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="AM22" s="23" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="AN22" s="17"/>
       <c r="AO22" s="17"/>
       <c r="AP22" s="17"/>
       <c r="AQ22" s="17" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AR22" s="23" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AS22" s="25"/>
       <c r="AT22" s="1">
@@ -19578,7 +19605,7 @@
         <v>582</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="D23" s="73" t="str">
         <f t="shared" si="0"/>
@@ -19596,10 +19623,10 @@
         <v>464</v>
       </c>
       <c r="N23" s="17" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="P23" s="15"/>
       <c r="Q23" s="17"/>
@@ -19631,10 +19658,10 @@
         <v>585</v>
       </c>
       <c r="AK23" s="56" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="AL23" s="56" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="AM23" s="23" t="s">
         <v>586</v>
@@ -19644,7 +19671,7 @@
         <v>588</v>
       </c>
       <c r="AP23" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AQ23" s="25" t="s">
         <v>587</v>
@@ -19751,7 +19778,7 @@
     </row>
     <row r="24" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>389</v>
@@ -19776,13 +19803,13 @@
       <c r="O24" s="17"/>
       <c r="P24" s="15"/>
       <c r="Q24" s="17" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
@@ -19797,7 +19824,7 @@
         <v>242</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
       <c r="AE24" s="17" t="s">
         <v>518</v>
@@ -19818,24 +19845,24 @@
         <v>391</v>
       </c>
       <c r="AK24" s="23" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="AL24" s="23" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
       <c r="AM24" s="23" t="s">
         <v>392</v>
       </c>
       <c r="AN24" s="15"/>
       <c r="AO24" s="24" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="AP24" s="17" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="AQ24" s="26"/>
       <c r="AR24" s="42" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="AS24" s="26"/>
       <c r="AT24" s="1">
@@ -19972,7 +19999,7 @@
         <v>242</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="W25" s="17" t="s">
         <v>507</v>
@@ -19986,7 +20013,7 @@
         <v>251</v>
       </c>
       <c r="AD25" s="17" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
       <c r="AE25" s="17" t="s">
         <v>293</v>
@@ -20007,10 +20034,10 @@
         <v>295</v>
       </c>
       <c r="AK25" s="23" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
       <c r="AL25" s="23" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="AM25" s="23" t="s">
         <v>296</v>
@@ -20148,13 +20175,13 @@
       <c r="O26" s="17"/>
       <c r="P26" s="17"/>
       <c r="Q26" s="17" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="R26" s="17" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
       <c r="S26" s="17" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="T26" s="17"/>
       <c r="U26" s="17"/>
@@ -20182,10 +20209,10 @@
         <v>228</v>
       </c>
       <c r="AK26" s="23" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="AL26" s="23" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="AM26" s="23"/>
       <c r="AN26" s="25" t="s">
@@ -20302,7 +20329,7 @@
         <v>436</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>1288</v>
+        <v>1280</v>
       </c>
       <c r="D27" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20321,13 +20348,13 @@
       <c r="O27" s="17"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="17" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="R27" s="17" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="S27" s="17" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="T27" s="15"/>
       <c r="U27" s="17"/>
@@ -20343,32 +20370,32 @@
       <c r="AE27" s="17"/>
       <c r="AF27" s="15"/>
       <c r="AG27" s="11" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="AH27" s="17" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="AI27" s="21">
         <v>8430</v>
       </c>
       <c r="AJ27" s="28" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="AK27" s="56"/>
       <c r="AL27" s="56" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="AM27" s="23" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="AN27" s="30"/>
       <c r="AO27" s="17" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="AP27" s="17"/>
       <c r="AQ27" s="17"/>
       <c r="AR27" s="23" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AS27" s="25"/>
       <c r="AT27" s="1">
@@ -20474,10 +20501,10 @@
         <v>317</v>
       </c>
       <c r="B28" s="125" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="D28" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20496,13 +20523,13 @@
       <c r="O28" s="54"/>
       <c r="P28" s="122"/>
       <c r="Q28" s="54" t="s">
+        <v>1083</v>
+      </c>
+      <c r="R28" s="54" t="s">
         <v>1091</v>
       </c>
-      <c r="R28" s="54" t="s">
-        <v>1099</v>
-      </c>
       <c r="S28" s="20" t="s">
-        <v>1100</v>
+        <v>1092</v>
       </c>
       <c r="T28" s="122"/>
       <c r="U28" s="122"/>
@@ -20518,10 +20545,10 @@
       <c r="AE28" s="54"/>
       <c r="AF28" s="122"/>
       <c r="AG28" s="54" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="AH28" s="54" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="AI28" s="128">
         <v>45730</v>
@@ -20531,7 +20558,7 @@
       </c>
       <c r="AK28" s="122"/>
       <c r="AL28" s="56" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="AM28" s="54"/>
       <c r="AN28" s="130"/>
@@ -20646,7 +20673,7 @@
         <v>576</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="D29" s="73" t="str">
         <f t="shared" si="0"/>
@@ -20665,13 +20692,13 @@
       <c r="O29" s="54"/>
       <c r="P29" s="54"/>
       <c r="Q29" s="54" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="R29" s="54" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="S29" s="20" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="T29" s="54"/>
       <c r="U29" s="54"/>
@@ -20687,10 +20714,10 @@
       <c r="AE29" s="54"/>
       <c r="AF29" s="54"/>
       <c r="AG29" s="54" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="AH29" s="54" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="AI29" s="128">
         <v>8000</v>
@@ -20700,7 +20727,7 @@
       </c>
       <c r="AK29" s="54"/>
       <c r="AL29" s="56" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="AM29" s="54"/>
       <c r="AN29" s="54"/>
@@ -20834,13 +20861,13 @@
       <c r="O30" s="17"/>
       <c r="P30" s="17"/>
       <c r="Q30" s="17" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="R30" s="17" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="S30" s="17" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
       <c r="T30" s="17"/>
       <c r="U30" s="17"/>
@@ -20868,10 +20895,10 @@
         <v>541</v>
       </c>
       <c r="AK30" s="23" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="AL30" s="23" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="AM30" s="23"/>
       <c r="AN30" s="45" t="s">
@@ -21020,7 +21047,7 @@
         <v>251</v>
       </c>
       <c r="V31" s="17" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
       <c r="W31" s="17" t="s">
         <v>508</v>
@@ -21049,10 +21076,10 @@
         <v>58</v>
       </c>
       <c r="AK31" s="23" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="AL31" s="23" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="AM31" s="23"/>
       <c r="AN31" s="25"/>
@@ -21201,7 +21228,7 @@
         <v>242</v>
       </c>
       <c r="V32" s="17" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="W32" s="17" t="s">
         <v>408</v>
@@ -21228,10 +21255,10 @@
         <v>112</v>
       </c>
       <c r="AK32" s="53" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="AL32" s="53" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="AM32" s="23" t="s">
         <v>490</v>
@@ -21374,7 +21401,7 @@
         <v>251</v>
       </c>
       <c r="V33" s="17" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="W33" s="17" t="s">
         <v>394</v>
@@ -21401,24 +21428,24 @@
         <v>397</v>
       </c>
       <c r="AK33" s="23" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="AL33" s="23" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="AM33" s="23" t="s">
         <v>398</v>
       </c>
       <c r="AN33" s="30"/>
       <c r="AO33" s="15" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="AP33" s="24"/>
       <c r="AQ33" s="17" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="AR33" s="23" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="AS33" s="26"/>
       <c r="AT33" s="1">
@@ -21555,18 +21582,18 @@
       <c r="X34" s="17"/>
       <c r="Y34" s="17"/>
       <c r="Z34" s="17" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="AA34" s="17" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="AB34" s="17"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="17" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="AE34" s="17" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="AF34" s="17"/>
       <c r="AG34" s="11" t="s">
@@ -21582,10 +21609,10 @@
         <v>78</v>
       </c>
       <c r="AK34" s="23" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="AL34" s="23" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="AM34" s="23"/>
       <c r="AN34" s="25"/>
@@ -21710,7 +21737,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="69" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="D35" s="73" t="str">
         <f t="shared" ref="D35:D66" si="19">IF(AX35&lt;&gt;0,"2020_A="&amp;AX35," ")&amp;IF(AY35&lt;&gt;0," ; 2020_i="&amp;AY35," ")&amp;IF(AZ35&lt;&gt;0,"2019_A="&amp;AZ35," ")&amp;IF(BA35&lt;&gt;0," ; 2019_i="&amp;BA35," ")&amp;IF(BB35&lt;&gt;0,"2018_A="&amp;BB35," ")&amp;IF(BC35&lt;&gt;0," ; 2018_i="&amp;BC35," ")&amp;IF(BD35&lt;&gt;0," ; 2017_A="&amp;BD35," ")&amp;IF(BE35&lt;&gt;0," ; 2017_i="&amp;BE35," ")&amp;IF(BF35&lt;&gt;0," ; 2016_A="&amp;BF35," ")&amp;IF(BG35&lt;&gt;0," ; 2016_i="&amp;BG35," ")&amp;IF(BH35&lt;&gt;0," ; 2015_A="&amp;BH35," ")&amp;IF(BI35&lt;&gt;0," ; 2015_i="&amp;BI35," ")&amp;IF(BJ35&lt;&gt;0," ; 2014_A="&amp;BJ35," ")&amp;IF(BK35&lt;&gt;0," ; 2014_i="&amp;BK35," ")</f>
@@ -21737,45 +21764,45 @@
       <c r="W35" s="69"/>
       <c r="X35" s="84"/>
       <c r="Y35" s="69" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="Z35" s="69" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="AA35" s="69" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="AB35" s="84"/>
       <c r="AC35" s="69" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="AD35" s="69" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="AE35" s="69" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="AF35" s="84"/>
       <c r="AG35" s="105" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="AH35" s="69" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="AI35" s="86">
         <v>10700</v>
       </c>
       <c r="AJ35" s="69" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="AK35" s="23" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
       <c r="AL35" s="23" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="AM35" s="69" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="AN35" s="90"/>
       <c r="AO35" s="84"/>
@@ -21888,10 +21915,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="100" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="C36" s="69" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="D36" s="73" t="str">
         <f t="shared" si="19"/>
@@ -21919,40 +21946,40 @@
       <c r="X36" s="84"/>
       <c r="Y36" s="84"/>
       <c r="Z36" s="69" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="AA36" s="69" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="AB36" s="84"/>
       <c r="AC36" s="69"/>
       <c r="AD36" s="69" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="AE36" s="69" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="AF36" s="84"/>
       <c r="AG36" s="105" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="AH36" s="69" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="AI36" s="86">
         <v>45550</v>
       </c>
       <c r="AJ36" s="69" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="AK36" s="22" t="s">
-        <v>1265</v>
+        <v>1257</v>
       </c>
       <c r="AL36" s="23" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
       <c r="AM36" s="69" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="AN36" s="90"/>
       <c r="AO36" s="84"/>
@@ -22102,7 +22129,7 @@
         <v>242</v>
       </c>
       <c r="AD37" s="17" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
       <c r="AE37" s="17" t="s">
         <v>514</v>
@@ -22123,10 +22150,10 @@
         <v>373</v>
       </c>
       <c r="AK37" s="22" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
       <c r="AL37" s="22" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="AM37" s="23" t="s">
         <v>374</v>
@@ -22277,7 +22304,7 @@
         <v>242</v>
       </c>
       <c r="AD38" s="17" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
       <c r="AE38" s="17" t="s">
         <v>513</v>
@@ -22296,10 +22323,10 @@
         <v>286</v>
       </c>
       <c r="AK38" s="22" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="AL38" s="22" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
       <c r="AM38" s="23" t="s">
         <v>285</v>
@@ -22310,7 +22337,7 @@
       <c r="AQ38" s="26"/>
       <c r="AR38" s="26"/>
       <c r="AS38" s="48" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="AT38" s="1">
         <f>RANK(BL38,$BL$3:$BL$122)+COUNTIF(BL$3:BL38,BL38)-1</f>
@@ -22412,13 +22439,13 @@
     </row>
     <row r="39" spans="1:80" s="1" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>1290</v>
+        <v>1282</v>
       </c>
       <c r="D39" s="73" t="str">
         <f t="shared" si="19"/>
@@ -22452,7 +22479,7 @@
         <v>251</v>
       </c>
       <c r="AD39" s="17" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="AE39" s="17" t="s">
         <v>519</v>
@@ -22461,7 +22488,7 @@
         <v>523</v>
       </c>
       <c r="AG39" s="17" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="AH39" s="17" t="s">
         <v>347</v>
@@ -22471,10 +22498,10 @@
       </c>
       <c r="AJ39" s="15"/>
       <c r="AK39" s="23" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="AL39" s="23" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="AM39" s="17"/>
       <c r="AN39" s="25" t="s">
@@ -22631,7 +22658,7 @@
         <v>251</v>
       </c>
       <c r="AD40" s="17" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="AE40" s="17" t="s">
         <v>291</v>
@@ -22652,10 +22679,10 @@
         <v>108</v>
       </c>
       <c r="AK40" s="23" t="s">
-        <v>1273</v>
+        <v>1265</v>
       </c>
       <c r="AL40" s="23" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
       <c r="AM40" s="23" t="s">
         <v>426</v>
@@ -22818,7 +22845,7 @@
         <v>242</v>
       </c>
       <c r="AD41" s="17" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
       <c r="AE41" s="17" t="s">
         <v>515</v>
@@ -22839,10 +22866,10 @@
         <v>44</v>
       </c>
       <c r="AK41" s="22" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="AL41" s="22" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
       <c r="AM41" s="23" t="s">
         <v>379</v>
@@ -22955,10 +22982,10 @@
     </row>
     <row r="42" spans="1:80" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>351</v>
@@ -22995,7 +23022,7 @@
         <v>251</v>
       </c>
       <c r="AD42" s="17" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="AE42" s="17" t="s">
         <v>520</v>
@@ -23016,10 +23043,10 @@
         <v>354</v>
       </c>
       <c r="AK42" s="22" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
       <c r="AL42" s="22" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
       <c r="AM42" s="23" t="s">
         <v>361</v>
@@ -23028,7 +23055,7 @@
         <v>352</v>
       </c>
       <c r="AO42" s="17" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="AP42" s="24"/>
       <c r="AQ42" s="25" t="s">
@@ -23178,7 +23205,7 @@
         <v>366</v>
       </c>
       <c r="AD43" s="17" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
       <c r="AE43" s="17" t="s">
         <v>512</v>
@@ -23200,13 +23227,13 @@
       </c>
       <c r="AK43" s="22"/>
       <c r="AL43" s="22" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="AM43" s="23" t="s">
         <v>277</v>
       </c>
       <c r="AN43" s="17" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="AO43" s="17"/>
       <c r="AP43" s="17"/>
@@ -23357,7 +23384,7 @@
         <v>242</v>
       </c>
       <c r="AD44" s="17" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="AE44" s="17" t="s">
         <v>517</v>
@@ -23378,10 +23405,10 @@
         <v>387</v>
       </c>
       <c r="AK44" s="22" t="s">
-        <v>1281</v>
+        <v>1273</v>
       </c>
       <c r="AL44" s="22" t="s">
-        <v>1280</v>
+        <v>1272</v>
       </c>
       <c r="AM44" s="23" t="s">
         <v>388</v>
@@ -23498,7 +23525,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="D45" s="73" t="str">
         <f t="shared" si="19"/>
@@ -23529,13 +23556,13 @@
       <c r="AA45" s="17"/>
       <c r="AB45" s="17"/>
       <c r="AC45" s="17" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="AD45" s="17" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="AE45" s="17" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="AF45" s="17"/>
       <c r="AG45" s="11" t="s">
@@ -23551,10 +23578,10 @@
         <v>92</v>
       </c>
       <c r="AK45" s="23" t="s">
-        <v>1283</v>
+        <v>1275</v>
       </c>
       <c r="AL45" s="23" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
       <c r="AM45" s="23"/>
       <c r="AN45" s="25" t="s">
@@ -23711,17 +23738,17 @@
       <c r="AB46" s="30"/>
       <c r="AC46" s="17"/>
       <c r="AD46" s="17" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="AE46" s="17" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="AF46" s="30"/>
       <c r="AG46" s="17" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="AH46" s="17" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AI46" s="21">
         <v>45110</v>
@@ -23730,10 +23757,10 @@
         <v>306</v>
       </c>
       <c r="AK46" s="58" t="s">
-        <v>1285</v>
+        <v>1277</v>
       </c>
       <c r="AL46" s="58" t="s">
-        <v>1284</v>
+        <v>1276</v>
       </c>
       <c r="AM46" s="17"/>
       <c r="AN46" s="26"/>
@@ -23895,10 +23922,10 @@
         <v>103</v>
       </c>
       <c r="AK47" s="23" t="s">
-        <v>1287</v>
+        <v>1279</v>
       </c>
       <c r="AL47" s="23" t="s">
-        <v>1286</v>
+        <v>1278</v>
       </c>
       <c r="AM47" s="23"/>
       <c r="AN47" s="25"/>
@@ -24064,10 +24091,10 @@
         <v>97</v>
       </c>
       <c r="AK48" s="23" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
       <c r="AL48" s="23" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="AM48" s="23"/>
       <c r="AN48" s="25"/>
@@ -24230,7 +24257,7 @@
       </c>
       <c r="AK49" s="23"/>
       <c r="AL49" s="23" t="s">
-        <v>1293</v>
+        <v>1285</v>
       </c>
       <c r="AM49" s="23" t="s">
         <v>300</v>
@@ -24392,10 +24419,10 @@
         <v>138</v>
       </c>
       <c r="AK50" s="23" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
       <c r="AL50" s="23" t="s">
-        <v>1294</v>
+        <v>1286</v>
       </c>
       <c r="AM50" s="23"/>
       <c r="AN50" s="25"/>
@@ -24516,7 +24543,7 @@
         <v>106</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>1298</v>
+        <v>1290</v>
       </c>
       <c r="D51" s="73" t="str">
         <f t="shared" si="19"/>
@@ -24563,10 +24590,10 @@
         <v>107</v>
       </c>
       <c r="AK51" s="23" t="s">
-        <v>1297</v>
+        <v>1289</v>
       </c>
       <c r="AL51" s="23" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="AM51" s="23"/>
       <c r="AN51" s="25"/>
@@ -24734,26 +24761,26 @@
         <v>273</v>
       </c>
       <c r="AK52" s="22" t="s">
-        <v>1300</v>
+        <v>1292</v>
       </c>
       <c r="AL52" s="22" t="s">
-        <v>1299</v>
+        <v>1291</v>
       </c>
       <c r="AM52" s="23" t="s">
         <v>272</v>
       </c>
       <c r="AN52" s="49"/>
       <c r="AO52" s="17" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="AP52" s="17" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="AQ52" s="23" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="AR52" s="42" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="AS52" s="26"/>
       <c r="AT52" s="1">
@@ -24907,10 +24934,10 @@
         <v>147</v>
       </c>
       <c r="AK53" s="23" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
       <c r="AL53" s="23" t="s">
-        <v>1301</v>
+        <v>1293</v>
       </c>
       <c r="AM53" s="23"/>
       <c r="AN53" s="25" t="s">
@@ -25072,10 +25099,10 @@
         <v>120</v>
       </c>
       <c r="AK54" s="23" t="s">
-        <v>1304</v>
+        <v>1296</v>
       </c>
       <c r="AL54" s="23" t="s">
-        <v>1303</v>
+        <v>1295</v>
       </c>
       <c r="AM54" s="23"/>
       <c r="AN54" s="25"/>
@@ -25235,10 +25262,10 @@
         <v>122</v>
       </c>
       <c r="AK55" s="23" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
       <c r="AL55" s="23" t="s">
-        <v>1305</v>
+        <v>1297</v>
       </c>
       <c r="AM55" s="23"/>
       <c r="AN55" s="25" t="s">
@@ -25408,10 +25435,10 @@
         <v>209</v>
       </c>
       <c r="AK56" s="23" t="s">
-        <v>1308</v>
+        <v>1300</v>
       </c>
       <c r="AL56" s="23" t="s">
-        <v>1307</v>
+        <v>1299</v>
       </c>
       <c r="AM56" s="23"/>
       <c r="AN56" s="25"/>
@@ -25577,27 +25604,27 @@
         <v>33</v>
       </c>
       <c r="AK57" s="23" t="s">
-        <v>1310</v>
+        <v>1302</v>
       </c>
       <c r="AL57" s="23" t="s">
-        <v>1309</v>
+        <v>1301</v>
       </c>
       <c r="AM57" s="23"/>
       <c r="AN57" s="25"/>
       <c r="AO57" s="17" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="AP57" s="17" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="AQ57" s="11" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
       <c r="AR57" s="50" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="AS57" s="11" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="AT57" s="1">
         <f>RANK(BL57,$BL$3:$BL$122)+COUNTIF(BL$3:BL57,BL57)-1</f>
@@ -25748,10 +25775,10 @@
       </c>
       <c r="AJ58" s="28"/>
       <c r="AK58" s="23" t="s">
-        <v>1312</v>
+        <v>1304</v>
       </c>
       <c r="AL58" s="23" t="s">
-        <v>1311</v>
+        <v>1303</v>
       </c>
       <c r="AM58" s="23"/>
       <c r="AN58" s="25"/>
@@ -25917,10 +25944,10 @@
         <v>224</v>
       </c>
       <c r="AK59" s="23" t="s">
-        <v>1314</v>
+        <v>1306</v>
       </c>
       <c r="AL59" s="23" t="s">
-        <v>1313</v>
+        <v>1305</v>
       </c>
       <c r="AM59" s="23"/>
       <c r="AN59" s="25"/>
@@ -26086,10 +26113,10 @@
         <v>110</v>
       </c>
       <c r="AK60" s="23" t="s">
-        <v>1316</v>
+        <v>1308</v>
       </c>
       <c r="AL60" s="23" t="s">
-        <v>1315</v>
+        <v>1307</v>
       </c>
       <c r="AM60" s="23"/>
       <c r="AN60" s="25"/>
@@ -26573,10 +26600,10 @@
         <v>128</v>
       </c>
       <c r="AK63" s="23" t="s">
-        <v>1318</v>
+        <v>1310</v>
       </c>
       <c r="AL63" s="23" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="AM63" s="23"/>
       <c r="AN63" s="25" t="s">
@@ -26749,7 +26776,7 @@
       </c>
       <c r="AK64" s="23"/>
       <c r="AL64" s="23" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
       <c r="AM64" s="23" t="s">
         <v>558</v>
@@ -26872,7 +26899,7 @@
         <v>83</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="D65" s="73" t="str">
         <f t="shared" si="19"/>
@@ -26919,10 +26946,10 @@
         <v>84</v>
       </c>
       <c r="AK65" s="23" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
       <c r="AL65" s="23" t="s">
-        <v>1320</v>
+        <v>1312</v>
       </c>
       <c r="AM65" s="23"/>
       <c r="AN65" s="25" t="s">
@@ -27094,10 +27121,10 @@
         <v>193</v>
       </c>
       <c r="AK66" s="23" t="s">
-        <v>1322</v>
+        <v>1314</v>
       </c>
       <c r="AL66" s="23" t="s">
-        <v>1321</v>
+        <v>1313</v>
       </c>
       <c r="AM66" s="23"/>
       <c r="AN66" s="25" t="s">
@@ -27259,10 +27286,10 @@
       </c>
       <c r="AJ67" s="28"/>
       <c r="AK67" s="23" t="s">
-        <v>1324</v>
+        <v>1316</v>
       </c>
       <c r="AL67" s="23" t="s">
-        <v>1323</v>
+        <v>1315</v>
       </c>
       <c r="AM67" s="23"/>
       <c r="AN67" s="25"/>
@@ -27430,10 +27457,10 @@
         <v>233</v>
       </c>
       <c r="AK68" s="23" t="s">
-        <v>1326</v>
+        <v>1318</v>
       </c>
       <c r="AL68" s="23" t="s">
-        <v>1325</v>
+        <v>1317</v>
       </c>
       <c r="AM68" s="23" t="s">
         <v>574</v>
@@ -27595,10 +27622,10 @@
         <v>100</v>
       </c>
       <c r="AK69" s="23" t="s">
-        <v>1328</v>
+        <v>1320</v>
       </c>
       <c r="AL69" s="23" t="s">
-        <v>1327</v>
+        <v>1319</v>
       </c>
       <c r="AM69" s="23"/>
       <c r="AN69" s="25"/>
@@ -27766,10 +27793,10 @@
         <v>320816100</v>
       </c>
       <c r="AK70" s="23" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
       <c r="AL70" s="23" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="AM70" s="23"/>
       <c r="AN70" s="25"/>
@@ -27929,21 +27956,21 @@
         <v>269</v>
       </c>
       <c r="AK71" s="22" t="s">
-        <v>1332</v>
+        <v>1324</v>
       </c>
       <c r="AL71" s="22" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
       <c r="AM71" s="23" t="s">
         <v>268</v>
       </c>
       <c r="AN71" s="30"/>
       <c r="AO71" s="17" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="AP71" s="24"/>
       <c r="AQ71" s="17" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="AR71" s="26"/>
       <c r="AS71" s="26"/>
@@ -28098,10 +28125,10 @@
         <v>132</v>
       </c>
       <c r="AK72" s="23" t="s">
-        <v>1334</v>
+        <v>1326</v>
       </c>
       <c r="AL72" s="23" t="s">
-        <v>1333</v>
+        <v>1325</v>
       </c>
       <c r="AM72" s="23"/>
       <c r="AN72" s="25" t="s">
@@ -28263,10 +28290,10 @@
         <v>497</v>
       </c>
       <c r="AK73" s="23" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="AL73" s="23" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="AM73" s="23" t="s">
         <v>524</v>
@@ -28434,10 +28461,10 @@
         <v>144</v>
       </c>
       <c r="AK74" s="23" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
       <c r="AL74" s="23" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
       <c r="AM74" s="23"/>
       <c r="AN74" s="25"/>
@@ -28603,17 +28630,17 @@
         <v>8</v>
       </c>
       <c r="AK75" s="23" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
       <c r="AL75" s="23" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
       <c r="AM75" s="23"/>
       <c r="AN75" s="25" t="s">
         <v>419</v>
       </c>
       <c r="AO75" s="17" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="AP75" s="17" t="s">
         <v>99</v>
@@ -28776,10 +28803,10 @@
         <v>547</v>
       </c>
       <c r="AK76" s="22" t="s">
-        <v>1342</v>
+        <v>1334</v>
       </c>
       <c r="AL76" s="22" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
       <c r="AM76" s="23" t="s">
         <v>548</v>
@@ -28945,17 +28972,17 @@
         <v>552</v>
       </c>
       <c r="AK77" s="56" t="s">
-        <v>1344</v>
+        <v>1336</v>
       </c>
       <c r="AL77" s="56" t="s">
-        <v>1343</v>
+        <v>1335</v>
       </c>
       <c r="AM77" s="23" t="s">
         <v>553</v>
       </c>
       <c r="AN77" s="30"/>
       <c r="AO77" s="17" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="AP77" s="48"/>
       <c r="AQ77" s="25" t="s">
@@ -29118,17 +29145,17 @@
         <v>560</v>
       </c>
       <c r="AK78" s="56" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="AL78" s="56" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="AM78" s="23" t="s">
         <v>561</v>
       </c>
       <c r="AN78" s="30"/>
       <c r="AO78" s="17" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="AP78" s="48"/>
       <c r="AQ78" s="25" t="s">
@@ -29289,17 +29316,17 @@
         <v>569</v>
       </c>
       <c r="AK79" s="56" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="AL79" s="56" t="s">
-        <v>1346</v>
+        <v>1338</v>
       </c>
       <c r="AM79" s="23" t="s">
         <v>570</v>
       </c>
       <c r="AN79" s="30"/>
       <c r="AO79" s="17" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="AP79" s="17" t="s">
         <v>571</v>
@@ -29462,10 +29489,10 @@
         <v>579</v>
       </c>
       <c r="AK80" s="56" t="s">
-        <v>1349</v>
+        <v>1341</v>
       </c>
       <c r="AL80" s="56" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="AM80" s="23" t="s">
         <v>580</v>
@@ -29574,7 +29601,7 @@
       </c>
       <c r="CB80" s="16"/>
     </row>
-    <row r="81" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:80" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="s">
         <v>319</v>
       </c>
@@ -29627,21 +29654,23 @@
       </c>
       <c r="AJ81" s="28"/>
       <c r="AK81" s="56" t="s">
-        <v>594</v>
-      </c>
-      <c r="AL81" s="56"/>
+        <v>1343</v>
+      </c>
+      <c r="AL81" s="56" t="s">
+        <v>1342</v>
+      </c>
       <c r="AM81" s="23" t="s">
         <v>593</v>
       </c>
       <c r="AN81" s="30"/>
       <c r="AO81" s="17" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="AP81" s="17" t="s">
+        <v>595</v>
+      </c>
+      <c r="AQ81" s="11" t="s">
         <v>596</v>
-      </c>
-      <c r="AQ81" s="11" t="s">
-        <v>597</v>
       </c>
       <c r="AR81" s="23"/>
       <c r="AS81" s="25"/>
@@ -29741,15 +29770,15 @@
       </c>
       <c r="CB81" s="16"/>
     </row>
-    <row r="82" spans="1:80" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:80" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
         <v>319</v>
       </c>
       <c r="B82" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="C82" s="17" t="s">
         <v>598</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>599</v>
       </c>
       <c r="D82" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29784,23 +29813,23 @@
       <c r="AE82" s="17"/>
       <c r="AF82" s="15"/>
       <c r="AG82" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AH82" s="17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AI82" s="21">
         <v>2220</v>
       </c>
       <c r="AJ82" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="AK82" s="56"/>
+      <c r="AL82" s="56" t="s">
+        <v>1344</v>
+      </c>
+      <c r="AM82" s="23" t="s">
         <v>602</v>
-      </c>
-      <c r="AK82" s="56" t="s">
-        <v>603</v>
-      </c>
-      <c r="AL82" s="56"/>
-      <c r="AM82" s="23" t="s">
-        <v>604</v>
       </c>
       <c r="AN82" s="30"/>
       <c r="AO82" s="17"/>
@@ -29906,7 +29935,7 @@
       </c>
       <c r="CB82" s="16"/>
     </row>
-    <row r="83" spans="1:80" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:80" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
         <v>0</v>
       </c>
@@ -29914,7 +29943,7 @@
         <v>4</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D83" s="73" t="str">
         <f t="shared" si="38"/>
@@ -29949,38 +29978,40 @@
       <c r="AE83" s="17"/>
       <c r="AF83" s="15"/>
       <c r="AG83" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AH83" s="17" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AI83" s="21">
         <v>51320</v>
       </c>
       <c r="AJ83" s="28" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AK83" s="56" t="s">
-        <v>609</v>
-      </c>
-      <c r="AL83" s="56"/>
+        <v>1275</v>
+      </c>
+      <c r="AL83" s="56" t="s">
+        <v>1345</v>
+      </c>
       <c r="AM83" s="23" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="AN83" s="17" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="AO83" s="17" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="AP83" s="17" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
       <c r="AQ83" s="17" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
       <c r="AR83" s="23" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="AS83" s="25"/>
       <c r="AT83" s="1">
@@ -30079,15 +30110,15 @@
       </c>
       <c r="CB83" s="16"/>
     </row>
-    <row r="84" spans="1:80" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:80" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D84" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30122,36 +30153,38 @@
       <c r="AE84" s="17"/>
       <c r="AF84" s="15"/>
       <c r="AG84" s="11" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AH84" s="17" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AI84" s="21">
         <v>2450</v>
       </c>
       <c r="AJ84" s="28" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="AK84" s="56" t="s">
-        <v>616</v>
-      </c>
-      <c r="AL84" s="56"/>
+        <v>1347</v>
+      </c>
+      <c r="AL84" s="56" t="s">
+        <v>1346</v>
+      </c>
       <c r="AM84" s="23" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="AN84" s="30"/>
       <c r="AO84" s="17" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="AP84" s="17" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="AQ84" s="17" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="AR84" s="23" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="AS84" s="25"/>
       <c r="AT84" s="1">
@@ -30255,10 +30288,10 @@
         <v>0</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D85" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30293,23 +30326,25 @@
       <c r="AE85" s="17"/>
       <c r="AF85" s="15"/>
       <c r="AG85" s="11" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="AH85" s="17" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="AI85" s="21">
         <v>25300</v>
       </c>
       <c r="AJ85" s="28" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="AK85" s="56" t="s">
-        <v>625</v>
-      </c>
-      <c r="AL85" s="56"/>
+        <v>1349</v>
+      </c>
+      <c r="AL85" s="56" t="s">
+        <v>1348</v>
+      </c>
       <c r="AM85" s="23" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="AN85" s="30"/>
       <c r="AO85" s="17"/>
@@ -30418,10 +30453,10 @@
         <v>0</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D86" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30456,23 +30491,25 @@
       <c r="AE86" s="17"/>
       <c r="AF86" s="15"/>
       <c r="AG86" s="17" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="AH86" s="17" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="AI86" s="21">
         <v>10230</v>
       </c>
       <c r="AJ86" s="28" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="AK86" s="56" t="s">
-        <v>684</v>
-      </c>
-      <c r="AL86" s="56"/>
+        <v>1351</v>
+      </c>
+      <c r="AL86" s="56" t="s">
+        <v>1350</v>
+      </c>
       <c r="AM86" s="23" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="AN86" s="30"/>
       <c r="AO86" s="26"/>
@@ -30578,7 +30615,7 @@
       </c>
       <c r="CB86" s="37"/>
     </row>
-    <row r="87" spans="1:80" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:80" s="7" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
         <v>0</v>
       </c>
@@ -30586,7 +30623,7 @@
         <v>15</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="D87" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30621,23 +30658,25 @@
       <c r="AE87" s="17"/>
       <c r="AF87" s="15"/>
       <c r="AG87" s="17" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="AH87" s="17" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="AI87" s="21">
         <v>51130</v>
       </c>
       <c r="AJ87" s="28" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="AK87" s="22" t="s">
-        <v>686</v>
-      </c>
-      <c r="AL87" s="22"/>
+        <v>1353</v>
+      </c>
+      <c r="AL87" s="22" t="s">
+        <v>1352</v>
+      </c>
       <c r="AM87" s="23" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="AN87" s="26"/>
       <c r="AO87" s="17" t="s">
@@ -30788,23 +30827,25 @@
       <c r="AE88" s="17"/>
       <c r="AF88" s="15"/>
       <c r="AG88" s="17" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="AH88" s="17" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="AI88" s="21">
         <v>6823</v>
       </c>
       <c r="AJ88" s="28" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AK88" s="22" t="s">
-        <v>686</v>
-      </c>
-      <c r="AL88" s="22"/>
+        <v>1355</v>
+      </c>
+      <c r="AL88" s="22" t="s">
+        <v>1354</v>
+      </c>
       <c r="AM88" s="23" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AN88" s="26"/>
       <c r="AO88" s="17" t="s">
@@ -30917,10 +30958,10 @@
         <v>0</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D89" s="73" t="str">
         <f t="shared" si="38"/>
@@ -30955,7 +30996,7 @@
       <c r="AE89" s="17"/>
       <c r="AF89" s="15"/>
       <c r="AG89" s="17" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="AH89" s="17" t="s">
         <v>176</v>
@@ -30967,9 +31008,11 @@
         <v>316</v>
       </c>
       <c r="AK89" s="22" t="s">
-        <v>686</v>
-      </c>
-      <c r="AL89" s="22"/>
+        <v>1357</v>
+      </c>
+      <c r="AL89" s="22" t="s">
+        <v>1356</v>
+      </c>
       <c r="AM89" s="17"/>
       <c r="AN89" s="26"/>
       <c r="AO89" s="17" t="s">
@@ -31124,7 +31167,7 @@
       <c r="AE90" s="17"/>
       <c r="AF90" s="15"/>
       <c r="AG90" s="17" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="AH90" s="17" t="s">
         <v>176</v>
@@ -31133,14 +31176,14 @@
         <v>51100</v>
       </c>
       <c r="AJ90" s="28" t="s">
-        <v>688</v>
-      </c>
-      <c r="AK90" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="AL90" s="22"/>
+        <v>681</v>
+      </c>
+      <c r="AK90" s="22"/>
+      <c r="AL90" s="22" t="s">
+        <v>1358</v>
+      </c>
       <c r="AM90" s="23" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="AN90" s="30" t="s">
         <v>321</v>
@@ -31251,10 +31294,10 @@
         <v>319</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="D91" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31289,7 +31332,7 @@
       <c r="AE91" s="17"/>
       <c r="AF91" s="15"/>
       <c r="AG91" s="17" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="AH91" s="17" t="s">
         <v>254</v>
@@ -31298,14 +31341,14 @@
         <v>2000</v>
       </c>
       <c r="AJ91" s="28" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="AK91" s="22" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="AL91" s="22"/>
       <c r="AM91" s="23" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="AN91" s="30"/>
       <c r="AO91" s="26"/>
@@ -31417,7 +31460,7 @@
         <v>576</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="D92" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31452,21 +31495,21 @@
       <c r="AE92" s="17"/>
       <c r="AF92" s="15"/>
       <c r="AG92" s="17" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="AH92" s="17" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="AI92" s="21">
         <v>51370</v>
       </c>
       <c r="AJ92" s="15"/>
       <c r="AK92" s="22" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="AL92" s="22"/>
       <c r="AM92" s="23" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="AN92" s="30"/>
       <c r="AO92" s="17" t="s">
@@ -31586,7 +31629,7 @@
         <v>326</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="D93" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31621,7 +31664,7 @@
       <c r="AE93" s="17"/>
       <c r="AF93" s="15"/>
       <c r="AG93" s="17" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="AH93" s="17" t="s">
         <v>197</v>
@@ -31631,18 +31674,18 @@
       </c>
       <c r="AJ93" s="15"/>
       <c r="AK93" s="22" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="AL93" s="22"/>
       <c r="AM93" s="23" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="AN93" s="30"/>
       <c r="AO93" s="17" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="AP93" s="17" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="AQ93" s="30" t="s">
         <v>327</v>
@@ -31753,7 +31796,7 @@
         <v>326</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="D94" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31791,23 +31834,23 @@
         <v>329</v>
       </c>
       <c r="AH94" s="17" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="AI94" s="17">
         <v>51120</v>
       </c>
       <c r="AJ94" s="15"/>
       <c r="AK94" s="22" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="AL94" s="22"/>
       <c r="AM94" s="17"/>
       <c r="AN94" s="30"/>
       <c r="AO94" s="48" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="AP94" s="17" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="AQ94" s="30" t="s">
         <v>328</v>
@@ -31919,10 +31962,10 @@
         <v>319</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="D95" s="73" t="str">
         <f t="shared" si="38"/>
@@ -31957,23 +32000,23 @@
       <c r="AE95" s="17"/>
       <c r="AF95" s="15"/>
       <c r="AG95" s="17" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="AH95" s="17" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="AI95" s="21">
         <v>51000</v>
       </c>
       <c r="AJ95" s="28" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="AK95" s="22" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="AL95" s="22"/>
       <c r="AM95" s="23" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="AN95" s="15"/>
       <c r="AO95" s="26"/>
@@ -32082,10 +32125,10 @@
         <v>319</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="D96" s="73" t="str">
         <f t="shared" si="38"/>
@@ -32120,34 +32163,34 @@
       <c r="AE96" s="17"/>
       <c r="AF96" s="15"/>
       <c r="AG96" s="17" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="AH96" s="17" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="AI96" s="21">
         <v>60550</v>
       </c>
       <c r="AJ96" s="28" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="AK96" s="22" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="AL96" s="22"/>
       <c r="AM96" s="23" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="AN96" s="15"/>
       <c r="AO96" s="17" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="AP96" s="24"/>
       <c r="AQ96" s="48" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="AR96" s="60" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="AS96" s="26"/>
       <c r="AT96" s="1">
@@ -32248,13 +32291,13 @@
     </row>
     <row r="97" spans="1:80" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
       <c r="D97" s="73" t="str">
         <f t="shared" si="38"/>
@@ -32289,34 +32332,34 @@
       <c r="AE97" s="17"/>
       <c r="AF97" s="15"/>
       <c r="AG97" s="17" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="AH97" s="17" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="AI97" s="21">
         <v>94700</v>
       </c>
       <c r="AJ97" s="28" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="AK97" s="22" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="AL97" s="22"/>
       <c r="AM97" s="23" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="AN97" s="30"/>
       <c r="AO97" s="17" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="AP97" s="24"/>
       <c r="AQ97" s="17" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="AR97" s="60" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="AS97" s="26"/>
       <c r="AT97" s="1">
@@ -32417,13 +32460,13 @@
     </row>
     <row r="98" spans="1:80" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="D98" s="73" t="str">
         <f t="shared" si="38"/>
@@ -32458,25 +32501,25 @@
       <c r="AE98" s="17"/>
       <c r="AF98" s="15"/>
       <c r="AG98" s="17" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="AH98" s="17" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="AI98" s="21">
         <v>10400</v>
       </c>
       <c r="AJ98" s="15"/>
       <c r="AK98" s="22" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="AL98" s="22"/>
       <c r="AM98" s="23" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="AN98" s="26"/>
       <c r="AO98" s="17" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="AP98" s="24"/>
       <c r="AQ98" s="30" t="s">
@@ -32582,13 +32625,13 @@
     </row>
     <row r="99" spans="1:80" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="B99" s="12" t="s">
         <v>747</v>
       </c>
-      <c r="B99" s="12" t="s">
-        <v>755</v>
-      </c>
       <c r="C99" s="17" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="D99" s="73" t="str">
         <f t="shared" ref="D99:D128" si="57">IF(AX99&lt;&gt;0,"2020_A="&amp;AX99," ")&amp;IF(AY99&lt;&gt;0," ; 2020_i="&amp;AY99," ")&amp;IF(AZ99&lt;&gt;0,"2019_A="&amp;AZ99," ")&amp;IF(BA99&lt;&gt;0," ; 2019_i="&amp;BA99," ")&amp;IF(BB99&lt;&gt;0,"2018_A="&amp;BB99," ")&amp;IF(BC99&lt;&gt;0," ; 2018_i="&amp;BC99," ")&amp;IF(BD99&lt;&gt;0," ; 2017_A="&amp;BD99," ")&amp;IF(BE99&lt;&gt;0," ; 2017_i="&amp;BE99," ")&amp;IF(BF99&lt;&gt;0," ; 2016_A="&amp;BF99," ")&amp;IF(BG99&lt;&gt;0," ; 2016_i="&amp;BG99," ")&amp;IF(BH99&lt;&gt;0," ; 2015_A="&amp;BH99," ")&amp;IF(BI99&lt;&gt;0," ; 2015_i="&amp;BI99," ")&amp;IF(BJ99&lt;&gt;0," ; 2014_A="&amp;BJ99," ")&amp;IF(BK99&lt;&gt;0," ; 2014_i="&amp;BK99," ")</f>
@@ -32623,7 +32666,7 @@
       <c r="AE99" s="17"/>
       <c r="AF99" s="15"/>
       <c r="AG99" s="17" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="AH99" s="17" t="s">
         <v>246</v>
@@ -32632,27 +32675,27 @@
         <v>51110</v>
       </c>
       <c r="AJ99" s="28" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="AK99" s="22" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="AL99" s="22"/>
       <c r="AM99" s="23" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="AN99" s="26"/>
       <c r="AO99" s="17" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="AP99" s="17" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="AQ99" s="30" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="AR99" s="23" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="AS99" s="25" t="s">
         <v>417</v>
@@ -32758,10 +32801,10 @@
         <v>243</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="D100" s="73" t="str">
         <f t="shared" si="57"/>
@@ -32796,7 +32839,7 @@
       <c r="AE100" s="17"/>
       <c r="AF100" s="15"/>
       <c r="AG100" s="17" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="AH100" s="17" t="s">
         <v>184</v>
@@ -32805,22 +32848,22 @@
         <v>51300</v>
       </c>
       <c r="AJ100" s="28" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="AK100" s="22" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="AL100" s="22"/>
       <c r="AM100" s="23" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="AN100" s="26"/>
       <c r="AO100" s="17" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="AP100" s="17"/>
       <c r="AQ100" s="30" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="AR100" s="23"/>
       <c r="AS100" s="25" t="s">
@@ -32927,7 +32970,7 @@
         <v>243</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="C101" s="17" t="s">
         <v>336</v>
@@ -32965,23 +33008,23 @@
       <c r="AE101" s="17"/>
       <c r="AF101" s="15"/>
       <c r="AG101" s="17" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="AH101" s="17" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="AI101" s="21">
         <v>77200</v>
       </c>
       <c r="AJ101" s="28" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="AK101" s="22" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="AL101" s="22"/>
       <c r="AM101" s="23" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="AN101" s="15"/>
       <c r="AO101" s="48" t="s">
@@ -33092,10 +33135,10 @@
         <v>243</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="D102" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33130,7 +33173,7 @@
       <c r="AE102" s="17"/>
       <c r="AF102" s="15"/>
       <c r="AG102" s="17" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="AH102" s="17" t="s">
         <v>362</v>
@@ -33142,17 +33185,17 @@
         <v>338</v>
       </c>
       <c r="AK102" s="22" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="AL102" s="22"/>
       <c r="AM102" s="23" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="AN102" s="17" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="AO102" s="17" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="AP102" s="24"/>
       <c r="AQ102" s="26"/>
@@ -33263,10 +33306,10 @@
         <v>243</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="D103" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33301,34 +33344,34 @@
       <c r="AE103" s="17"/>
       <c r="AF103" s="15"/>
       <c r="AG103" s="17" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="AH103" s="17" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="AI103" s="21">
         <v>60310</v>
       </c>
       <c r="AJ103" s="28" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="AK103" s="22" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="AL103" s="22"/>
       <c r="AM103" s="23" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="AN103" s="17"/>
       <c r="AO103" s="17" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="AP103" s="24"/>
       <c r="AQ103" s="48" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="AR103" s="23" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="AS103" s="25"/>
       <c r="AT103" s="1">
@@ -33432,10 +33475,10 @@
         <v>243</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="D104" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33462,10 +33505,10 @@
       <c r="AE104" s="17"/>
       <c r="AF104" s="15"/>
       <c r="AG104" s="17" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="AH104" s="17" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="AI104" s="21">
         <v>60610</v>
@@ -33474,11 +33517,11 @@
         <v>341</v>
       </c>
       <c r="AK104" s="22" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="AL104" s="22"/>
       <c r="AM104" s="23" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="AP104" s="24"/>
       <c r="AQ104" s="30" t="s">
@@ -33588,10 +33631,10 @@
         <v>243</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="D105" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33629,18 +33672,18 @@
         <v>13</v>
       </c>
       <c r="AH105" s="17" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="AI105" s="21">
         <v>45800</v>
       </c>
       <c r="AJ105" s="28"/>
       <c r="AK105" s="22" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="AL105" s="22"/>
       <c r="AM105" s="23" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="AN105" s="26"/>
       <c r="AO105" s="26"/>
@@ -33749,10 +33792,10 @@
         <v>344</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="D106" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33779,7 +33822,7 @@
       <c r="AE106" s="17"/>
       <c r="AF106" s="15"/>
       <c r="AG106" s="17" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="AH106" s="17" t="s">
         <v>176</v>
@@ -33789,20 +33832,20 @@
       </c>
       <c r="AJ106" s="15"/>
       <c r="AK106" s="22" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="AL106" s="22"/>
       <c r="AM106" s="23" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="AN106" s="17" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="AO106" s="17" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="AP106" s="17" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="AQ106" s="17" t="s">
         <v>345</v>
@@ -33911,10 +33954,10 @@
         <v>344</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="D107" s="73" t="str">
         <f t="shared" si="57"/>
@@ -33949,7 +33992,7 @@
       <c r="AE107" s="17"/>
       <c r="AF107" s="15"/>
       <c r="AG107" s="17" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="AH107" s="17" t="s">
         <v>176</v>
@@ -33958,20 +34001,20 @@
         <v>51100</v>
       </c>
       <c r="AJ107" s="28" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="AK107" s="22" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="AL107" s="22"/>
       <c r="AM107" s="23" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="AN107" s="17"/>
       <c r="AO107" s="17"/>
       <c r="AP107" s="17"/>
       <c r="AQ107" s="17" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="AR107" s="60"/>
       <c r="AS107" s="26"/>
@@ -34076,10 +34119,10 @@
         <v>355</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="D108" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34114,7 +34157,7 @@
       <c r="AE108" s="17"/>
       <c r="AF108" s="17"/>
       <c r="AG108" s="17" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="AH108" s="17" t="s">
         <v>176</v>
@@ -34124,22 +34167,22 @@
       </c>
       <c r="AJ108" s="15"/>
       <c r="AK108" s="22" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="AL108" s="22"/>
       <c r="AM108" s="23" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="AN108" s="15"/>
       <c r="AO108" s="17" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="AP108" s="24"/>
       <c r="AQ108" s="17" t="s">
         <v>357</v>
       </c>
       <c r="AR108" s="23" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="AS108" s="25" t="s">
         <v>417</v>
@@ -34245,10 +34288,10 @@
         <v>355</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="D109" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34283,33 +34326,33 @@
       <c r="AE109" s="17"/>
       <c r="AF109" s="17"/>
       <c r="AG109" s="17" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="AH109" s="17" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="AI109" s="21">
         <v>68490</v>
       </c>
       <c r="AJ109" s="28" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="AK109" s="22" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="AL109" s="22"/>
       <c r="AM109" s="23" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="AN109" s="15"/>
       <c r="AO109" s="17" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="AP109" s="17" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="AQ109" s="29" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="AR109" s="23"/>
       <c r="AS109" s="25"/>
@@ -34414,10 +34457,10 @@
         <v>355</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="D110" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34452,29 +34495,29 @@
       <c r="AE110" s="17"/>
       <c r="AF110" s="15"/>
       <c r="AG110" s="17" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="AH110" s="17" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="AI110" s="21">
         <v>51140</v>
       </c>
       <c r="AJ110" s="28" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="AK110" s="22" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="AL110" s="22"/>
       <c r="AM110" s="23" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="AN110" s="30"/>
       <c r="AO110" s="26"/>
       <c r="AP110" s="24"/>
       <c r="AQ110" s="29" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="AR110" s="26"/>
       <c r="AS110" s="26"/>
@@ -34579,10 +34622,10 @@
         <v>355</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="D111" s="73" t="str">
         <f t="shared" si="57"/>
@@ -34617,23 +34660,23 @@
       <c r="AE111" s="17"/>
       <c r="AF111" s="15"/>
       <c r="AG111" s="17" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="AH111" s="17" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="AI111" s="21">
         <v>51140</v>
       </c>
       <c r="AJ111" s="28" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="AK111" s="22" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="AL111" s="22"/>
       <c r="AM111" s="23" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="AN111" s="30"/>
       <c r="AO111" s="26"/>
@@ -34780,23 +34823,23 @@
       <c r="AE112" s="12"/>
       <c r="AF112" s="19"/>
       <c r="AG112" s="12" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="AH112" s="12" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="AI112" s="31">
         <v>8000</v>
       </c>
       <c r="AJ112" s="28" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="AK112" s="22" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="AL112" s="22"/>
       <c r="AM112" s="23" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="AN112" s="32"/>
       <c r="AO112" s="33"/>
@@ -34905,7 +34948,7 @@
         <v>243</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="C113" s="17" t="s">
         <v>334</v>
@@ -34943,23 +34986,23 @@
       <c r="AE113" s="17"/>
       <c r="AF113" s="15"/>
       <c r="AG113" s="17" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="AH113" s="17" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="AI113" s="21">
         <v>60200</v>
       </c>
       <c r="AJ113" s="28" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="AK113" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="AL113" s="22"/>
       <c r="AM113" s="23" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="AN113" s="26"/>
       <c r="AO113" s="26"/>
@@ -35070,7 +35113,7 @@
         <v>243</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="C114" s="17" t="s">
         <v>342</v>
@@ -35108,23 +35151,23 @@
       <c r="AE114" s="17"/>
       <c r="AF114" s="15"/>
       <c r="AG114" s="17" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="AH114" s="17" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="AI114" s="21">
         <v>60000</v>
       </c>
       <c r="AJ114" s="28" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="AK114" s="22" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="AL114" s="22"/>
       <c r="AM114" s="23" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="AN114" s="15"/>
       <c r="AO114" s="26"/>
@@ -35233,10 +35276,10 @@
         <v>243</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="D115" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35271,28 +35314,28 @@
       <c r="AE115" s="17"/>
       <c r="AF115" s="15"/>
       <c r="AG115" s="17" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="AH115" s="17" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="AI115" s="21">
         <v>60000</v>
       </c>
       <c r="AJ115" s="28"/>
       <c r="AK115" s="22" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="AL115" s="22"/>
       <c r="AM115" s="23" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="AN115" s="15"/>
       <c r="AO115" s="26"/>
       <c r="AP115" s="24"/>
       <c r="AQ115" s="26"/>
       <c r="AR115" s="42" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="AS115" s="26"/>
       <c r="AT115" s="1">
@@ -35396,10 +35439,10 @@
         <v>243</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="D116" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35434,10 +35477,10 @@
       <c r="AE116" s="17"/>
       <c r="AF116" s="15"/>
       <c r="AG116" s="17" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="AH116" s="17" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="AI116" s="21">
         <v>8090</v>
@@ -35446,11 +35489,11 @@
         <v>343</v>
       </c>
       <c r="AK116" s="22" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="AL116" s="22"/>
       <c r="AM116" s="23" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="AN116" s="15"/>
       <c r="AO116" s="26"/>
@@ -35559,10 +35602,10 @@
         <v>355</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="D117" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35597,23 +35640,23 @@
       <c r="AE117" s="17"/>
       <c r="AF117" s="15"/>
       <c r="AG117" s="17" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="AH117" s="17" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="AI117" s="21">
         <v>21000</v>
       </c>
       <c r="AJ117" s="28" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="AK117" s="22" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="AL117" s="22"/>
       <c r="AM117" s="23" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="AN117" s="32"/>
       <c r="AO117" s="26"/>
@@ -35722,10 +35765,10 @@
         <v>355</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="D118" s="73" t="str">
         <f t="shared" si="57"/>
@@ -35760,10 +35803,10 @@
       <c r="AE118" s="17"/>
       <c r="AF118" s="15"/>
       <c r="AG118" s="17" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="AH118" s="17" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="AI118" s="21">
         <v>60200</v>
@@ -35772,15 +35815,15 @@
         <v>356</v>
       </c>
       <c r="AK118" s="22" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="AL118" s="22"/>
       <c r="AM118" s="23" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="AN118" s="15"/>
       <c r="AO118" s="61" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="AP118" s="24"/>
       <c r="AQ118" s="26"/>
@@ -35887,7 +35930,7 @@
         <v>355</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="C119" s="17" t="s">
         <v>358</v>
@@ -35925,23 +35968,23 @@
       <c r="AE119" s="17"/>
       <c r="AF119" s="15"/>
       <c r="AG119" s="17" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="AH119" s="17" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="AI119" s="21">
         <v>60200</v>
       </c>
       <c r="AJ119" s="28" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="AK119" s="22" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="AL119" s="22"/>
       <c r="AM119" s="23" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="AN119" s="15"/>
       <c r="AO119" s="61"/>
@@ -36050,10 +36093,10 @@
         <v>355</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="D120" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36088,23 +36131,23 @@
       <c r="AE120" s="17"/>
       <c r="AF120" s="15"/>
       <c r="AG120" s="17" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="AH120" s="17" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="AI120" s="21">
         <v>60000</v>
       </c>
       <c r="AJ120" s="28" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="AK120" s="22" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="AL120" s="22"/>
       <c r="AM120" s="23" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="AN120" s="15"/>
       <c r="AO120" s="26"/>
@@ -36213,7 +36256,7 @@
         <v>355</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="C121" s="17" t="s">
         <v>359</v>
@@ -36251,7 +36294,7 @@
       <c r="AE121" s="17"/>
       <c r="AF121" s="15"/>
       <c r="AG121" s="17" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="AH121" s="17" t="s">
         <v>279</v>
@@ -36260,14 +36303,14 @@
         <v>67000</v>
       </c>
       <c r="AJ121" s="28" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="AK121" s="22" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="AL121" s="22"/>
       <c r="AM121" s="23" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="AN121" s="15"/>
       <c r="AO121" s="26"/>
@@ -36376,10 +36419,10 @@
         <v>355</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="D122" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36414,23 +36457,23 @@
       <c r="AE122" s="17"/>
       <c r="AF122" s="15"/>
       <c r="AG122" s="17" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="AH122" s="17" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="AI122" s="21">
         <v>21121</v>
       </c>
       <c r="AJ122" s="28" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="AK122" s="22" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="AL122" s="22"/>
       <c r="AM122" s="23" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="AN122" s="15"/>
       <c r="AO122" s="26"/>
@@ -36539,10 +36582,10 @@
         <v>355</v>
       </c>
       <c r="B123" s="80" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="C123" s="81" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="D123" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36577,23 +36620,23 @@
       <c r="AE123" s="81"/>
       <c r="AF123" s="83"/>
       <c r="AG123" s="81" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="AH123" s="81" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="AI123" s="85">
         <v>21800</v>
       </c>
       <c r="AJ123" s="87" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="AK123" s="88" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="AL123" s="88"/>
       <c r="AM123" s="89" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="AN123" s="111"/>
       <c r="AO123" s="72"/>
@@ -36692,10 +36735,10 @@
         <v>355</v>
       </c>
       <c r="B124" s="101" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="C124" s="102" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="D124" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36730,19 +36773,19 @@
       <c r="AE124" s="102"/>
       <c r="AF124" s="104"/>
       <c r="AG124" s="102" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="AH124" s="102" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="AI124" s="106">
         <v>21000</v>
       </c>
       <c r="AJ124" s="107" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="AK124" s="108" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="AL124" s="108"/>
       <c r="AM124" s="109"/>
@@ -36843,10 +36886,10 @@
         <v>355</v>
       </c>
       <c r="B125" s="101" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="C125" s="102" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="D125" s="73" t="str">
         <f t="shared" si="57"/>
@@ -36881,23 +36924,23 @@
       <c r="AE125" s="102"/>
       <c r="AF125" s="104"/>
       <c r="AG125" s="102" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="AH125" s="102" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="AI125" s="106">
         <v>21300</v>
       </c>
       <c r="AJ125" s="107" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="AK125" s="108" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="AL125" s="108"/>
       <c r="AM125" s="109" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="AN125" s="110"/>
       <c r="AO125" s="7"/>
@@ -36996,10 +37039,10 @@
         <v>355</v>
       </c>
       <c r="B126" s="101" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="C126" s="102" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="D126" s="73" t="str">
         <f t="shared" si="57"/>
@@ -37034,23 +37077,23 @@
       <c r="AE126" s="102"/>
       <c r="AF126" s="104"/>
       <c r="AG126" s="102" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="AH126" s="102" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="AI126" s="106">
         <v>21800</v>
       </c>
       <c r="AJ126" s="107" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="AK126" s="108" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="AL126" s="108"/>
       <c r="AM126" s="109" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="AN126" s="110"/>
       <c r="AO126" s="7"/>
@@ -37149,7 +37192,7 @@
         <v>355</v>
       </c>
       <c r="B127" s="101" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="C127" s="102" t="s">
         <v>360</v>
@@ -37187,23 +37230,23 @@
       <c r="AE127" s="102"/>
       <c r="AF127" s="104"/>
       <c r="AG127" s="102" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="AH127" s="102" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="AI127" s="106">
         <v>21600</v>
       </c>
       <c r="AJ127" s="107" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="AK127" s="108" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="AL127" s="108"/>
       <c r="AM127" s="109" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="AN127" s="104"/>
       <c r="AO127" s="7"/>
@@ -37309,13 +37352,13 @@
     </row>
     <row r="128" spans="1:80" s="98" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="115" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="B128" s="113" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="D128" s="73" t="str">
         <f t="shared" si="57"/>
@@ -37330,13 +37373,13 @@
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
       <c r="M128" s="98" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="N128" s="114" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="O128" s="98" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="P128" s="2"/>
       <c r="R128" s="119"/>
@@ -37355,23 +37398,23 @@
       <c r="AE128" s="8"/>
       <c r="AF128" s="2"/>
       <c r="AG128" s="116" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="AH128" s="98" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="AI128" s="117">
         <v>92390</v>
       </c>
       <c r="AJ128" s="107" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="AK128" s="108" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="AL128" s="108"/>
       <c r="AM128" s="109" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="AN128" s="5"/>
       <c r="AO128" s="2"/>
@@ -42638,40 +42681,37 @@
     <hyperlink ref="AR22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
     <hyperlink ref="AR86" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
     <hyperlink ref="AR89" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="AK87" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="AK88" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="AK89" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="AR33" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="AR4" r:id="rId48" display="m.lebrun@soliance.com / " xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="AR99" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="AR102" r:id="rId50" display="mailto:mickael.franchette@eugenemerma.fr" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="AR103" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="AR39" r:id="rId52" display="mailto:floriane.oszust@univ-reims;fr" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="AR42" r:id="rId53" display="mailto:v.verdonk@biotechjboy.com" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="AR108" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="AR33" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="AR4" r:id="rId45" display="m.lebrun@soliance.com / " xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="AR99" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="AR102" r:id="rId47" display="mailto:mickael.franchette@eugenemerma.fr" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="AR103" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="AR39" r:id="rId49" display="mailto:floriane.oszust@univ-reims;fr" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="AR42" r:id="rId50" display="mailto:v.verdonk@biotechjboy.com" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="AR108" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
     <hyperlink ref="AK108" display="https://www.google.fr/maps/place/49%C2%B014'33.9%22N+4%C2%B003'41.6%22E/@49.242738,4.0606367,18z/data=!3m1!4b1!4m9!1m2!2m1!1sB%C3%A2timent+18+-+UFR+Sciences+Exactes+et+Naturelles,+Laboratoire+SIRMA++++CNRS+3481++!3m5!1s0x0:0x0!7e2!8m2!3d49.2427377!4d4.061" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="AR115" r:id="rId55" display="mailto:info@jnslabs.com" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="AR57" r:id="rId56" xr:uid="{120D4766-2804-834C-B350-0BE7FDA42D38}"/>
-    <hyperlink ref="AK4" r:id="rId57" xr:uid="{6622BBA6-6FF8-4152-B86B-419D1D3F91A2}"/>
-    <hyperlink ref="AK2" r:id="rId58" xr:uid="{CE6BB279-B22D-4886-BA43-EBC7C34ABC98}"/>
-    <hyperlink ref="AK3" r:id="rId59" xr:uid="{AD65CD47-7EFA-468A-823F-E339A9B6D149}"/>
-    <hyperlink ref="AK5" r:id="rId60" xr:uid="{867F9573-C524-43B1-B8BB-393613768702}"/>
-    <hyperlink ref="AK6" r:id="rId61" xr:uid="{BF5452CE-A4A7-4606-BC60-FF976F299AB7}"/>
-    <hyperlink ref="AK7" r:id="rId62" xr:uid="{D6C97649-73D2-49A8-8292-B639FCA92A26}"/>
-    <hyperlink ref="AK8" r:id="rId63" xr:uid="{06A1A36D-1C79-4DDD-8C3C-A29B3AB95216}"/>
-    <hyperlink ref="AK9" r:id="rId64" xr:uid="{E7287CB5-76AD-4369-BEC2-F6381C7644FC}"/>
-    <hyperlink ref="AK10" r:id="rId65" xr:uid="{9180D9EF-8163-43F1-B529-5EF7620CCC98}"/>
-    <hyperlink ref="AK12" r:id="rId66" xr:uid="{7B3178EE-8012-4045-ABA6-770304DA7A0A}"/>
-    <hyperlink ref="AK13" r:id="rId67" xr:uid="{6BF309E0-44F4-4801-A07F-B45D80DAD3B9}"/>
-    <hyperlink ref="AK15" r:id="rId68" xr:uid="{30B8E8AB-484D-4869-9DA7-C84D07A1DFD7}"/>
-    <hyperlink ref="AK17" r:id="rId69" xr:uid="{832F36F7-F6BA-46EB-A5E1-DB9BEB57D0DF}"/>
-    <hyperlink ref="AK18" r:id="rId70" xr:uid="{9154F617-C5AB-49D1-BA5E-806CE4EB594E}"/>
-    <hyperlink ref="AK19" r:id="rId71" xr:uid="{F3B7F5D3-98B0-43C8-A6A6-EFF45964F58D}"/>
-    <hyperlink ref="AK21" r:id="rId72" xr:uid="{8E4BF1A8-8EA1-4025-A588-AE88CCAA2C07}"/>
-    <hyperlink ref="AK23" r:id="rId73" xr:uid="{E24FB1E8-7D8A-43A4-B6D0-9E909F366FEE}"/>
+    <hyperlink ref="AR115" r:id="rId52" display="mailto:info@jnslabs.com" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="AR57" r:id="rId53" xr:uid="{120D4766-2804-834C-B350-0BE7FDA42D38}"/>
+    <hyperlink ref="AK4" r:id="rId54" xr:uid="{6622BBA6-6FF8-4152-B86B-419D1D3F91A2}"/>
+    <hyperlink ref="AK2" r:id="rId55" xr:uid="{CE6BB279-B22D-4886-BA43-EBC7C34ABC98}"/>
+    <hyperlink ref="AK3" r:id="rId56" xr:uid="{AD65CD47-7EFA-468A-823F-E339A9B6D149}"/>
+    <hyperlink ref="AK5" r:id="rId57" xr:uid="{867F9573-C524-43B1-B8BB-393613768702}"/>
+    <hyperlink ref="AK6" r:id="rId58" xr:uid="{BF5452CE-A4A7-4606-BC60-FF976F299AB7}"/>
+    <hyperlink ref="AK7" r:id="rId59" xr:uid="{D6C97649-73D2-49A8-8292-B639FCA92A26}"/>
+    <hyperlink ref="AK8" r:id="rId60" xr:uid="{06A1A36D-1C79-4DDD-8C3C-A29B3AB95216}"/>
+    <hyperlink ref="AK9" r:id="rId61" xr:uid="{E7287CB5-76AD-4369-BEC2-F6381C7644FC}"/>
+    <hyperlink ref="AK10" r:id="rId62" xr:uid="{9180D9EF-8163-43F1-B529-5EF7620CCC98}"/>
+    <hyperlink ref="AK12" r:id="rId63" xr:uid="{7B3178EE-8012-4045-ABA6-770304DA7A0A}"/>
+    <hyperlink ref="AK13" r:id="rId64" xr:uid="{6BF309E0-44F4-4801-A07F-B45D80DAD3B9}"/>
+    <hyperlink ref="AK15" r:id="rId65" xr:uid="{30B8E8AB-484D-4869-9DA7-C84D07A1DFD7}"/>
+    <hyperlink ref="AK17" r:id="rId66" xr:uid="{832F36F7-F6BA-46EB-A5E1-DB9BEB57D0DF}"/>
+    <hyperlink ref="AK18" r:id="rId67" xr:uid="{9154F617-C5AB-49D1-BA5E-806CE4EB594E}"/>
+    <hyperlink ref="AK19" r:id="rId68" xr:uid="{F3B7F5D3-98B0-43C8-A6A6-EFF45964F58D}"/>
+    <hyperlink ref="AK21" r:id="rId69" xr:uid="{8E4BF1A8-8EA1-4025-A588-AE88CCAA2C07}"/>
+    <hyperlink ref="AK23" r:id="rId70" xr:uid="{E24FB1E8-7D8A-43A4-B6D0-9E909F366FEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId74"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId71"/>
 </worksheet>
 </file>
 
@@ -42690,7 +42730,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="171" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="B1" s="172"/>
       <c r="C1" s="172"/>
@@ -42707,14 +42747,14 @@
       <c r="F2" s="176"/>
       <c r="H2" s="68"/>
       <c r="I2" s="69" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="K2" s="70"/>
       <c r="L2" s="69" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="N2" s="167" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="O2" s="168"/>
       <c r="P2" s="168"/>
@@ -42776,7 +42816,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="171" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="B1" s="172"/>
       <c r="C1" s="172"/>
@@ -42795,14 +42835,14 @@
       <c r="G2" s="71"/>
       <c r="H2" s="68"/>
       <c r="I2" s="69" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="K2" s="70"/>
       <c r="L2" s="69" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="N2" s="180" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="O2" s="181"/>
       <c r="P2" s="181"/>

--- a/Entreprises_Complet.xlsx
+++ b/Entreprises_Complet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfial\Documents\00_Stage_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6E1E070-025E-4A74-9990-722FD6B59618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BB30B2D-5873-475D-9A39-63296AA1E043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="1359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="1358">
   <si>
     <t>Alimentaire</t>
   </si>
@@ -1078,9 +1078,6 @@
   </si>
   <si>
     <t xml:space="preserve">C.A.M.A (Chaine d'Analyses Marne Ardennes) </t>
-  </si>
-  <si>
-    <t>03 26 77 36 06</t>
   </si>
   <si>
     <t>laboratoire d'analyses agricoles et de biologie végétale Reims</t>
@@ -15241,10 +15238,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AD1" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="AK91" sqref="AK91"/>
+      <selection pane="bottomLeft" activeCell="AN87" sqref="AN87:AN90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15315,28 +15312,28 @@
         <v>303</v>
       </c>
       <c r="E1" s="152" t="s">
+        <v>969</v>
+      </c>
+      <c r="F1" s="152" t="s">
         <v>970</v>
       </c>
-      <c r="F1" s="152" t="s">
+      <c r="G1" s="152" t="s">
         <v>971</v>
       </c>
-      <c r="G1" s="152" t="s">
+      <c r="H1" s="152" t="s">
         <v>972</v>
       </c>
-      <c r="H1" s="152" t="s">
-        <v>973</v>
-      </c>
       <c r="I1" s="152" t="s">
+        <v>965</v>
+      </c>
+      <c r="J1" s="152" t="s">
         <v>966</v>
       </c>
-      <c r="J1" s="152" t="s">
+      <c r="K1" s="152" t="s">
         <v>967</v>
       </c>
-      <c r="K1" s="152" t="s">
+      <c r="L1" s="152" t="s">
         <v>968</v>
-      </c>
-      <c r="L1" s="152" t="s">
-        <v>969</v>
       </c>
       <c r="M1" s="153" t="s">
         <v>256</v>
@@ -15414,7 +15411,7 @@
         <v>81</v>
       </c>
       <c r="AL1" s="150" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="AM1" s="150" t="s">
         <v>267</v>
@@ -15438,110 +15435,110 @@
         <v>234</v>
       </c>
       <c r="AT1" s="157" t="s">
+        <v>940</v>
+      </c>
+      <c r="AU1" s="158" t="s">
+        <v>943</v>
+      </c>
+      <c r="AV1" s="157" t="s">
+        <v>938</v>
+      </c>
+      <c r="AW1" s="158" t="s">
         <v>941</v>
       </c>
-      <c r="AU1" s="158" t="s">
+      <c r="AX1" s="159" t="s">
+        <v>976</v>
+      </c>
+      <c r="AY1" s="159" t="s">
+        <v>977</v>
+      </c>
+      <c r="AZ1" s="159" t="s">
+        <v>974</v>
+      </c>
+      <c r="BA1" s="159" t="s">
+        <v>975</v>
+      </c>
+      <c r="BB1" s="159" t="s">
         <v>944</v>
       </c>
-      <c r="AV1" s="157" t="s">
-        <v>939</v>
-      </c>
-      <c r="AW1" s="158" t="s">
+      <c r="BC1" s="159" t="s">
+        <v>945</v>
+      </c>
+      <c r="BD1" s="159" t="s">
+        <v>946</v>
+      </c>
+      <c r="BE1" s="159" t="s">
+        <v>947</v>
+      </c>
+      <c r="BF1" s="159" t="s">
+        <v>948</v>
+      </c>
+      <c r="BG1" s="159" t="s">
+        <v>949</v>
+      </c>
+      <c r="BH1" s="159" t="s">
+        <v>950</v>
+      </c>
+      <c r="BI1" s="159" t="s">
+        <v>951</v>
+      </c>
+      <c r="BJ1" s="159" t="s">
+        <v>952</v>
+      </c>
+      <c r="BK1" s="159" t="s">
+        <v>953</v>
+      </c>
+      <c r="BL1" s="160" t="s">
         <v>942</v>
       </c>
-      <c r="AX1" s="159" t="s">
-        <v>977</v>
-      </c>
-      <c r="AY1" s="159" t="s">
-        <v>978</v>
-      </c>
-      <c r="AZ1" s="159" t="s">
-        <v>975</v>
-      </c>
-      <c r="BA1" s="159" t="s">
-        <v>976</v>
-      </c>
-      <c r="BB1" s="159" t="s">
-        <v>945</v>
-      </c>
-      <c r="BC1" s="159" t="s">
-        <v>946</v>
-      </c>
-      <c r="BD1" s="159" t="s">
-        <v>947</v>
-      </c>
-      <c r="BE1" s="159" t="s">
-        <v>948</v>
-      </c>
-      <c r="BF1" s="159" t="s">
-        <v>949</v>
-      </c>
-      <c r="BG1" s="159" t="s">
-        <v>950</v>
-      </c>
-      <c r="BH1" s="159" t="s">
-        <v>951</v>
-      </c>
-      <c r="BI1" s="159" t="s">
-        <v>952</v>
-      </c>
-      <c r="BJ1" s="159" t="s">
-        <v>953</v>
-      </c>
-      <c r="BK1" s="159" t="s">
-        <v>954</v>
-      </c>
-      <c r="BL1" s="160" t="s">
-        <v>943</v>
-      </c>
       <c r="BM1" s="160" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="BN1" s="160"/>
       <c r="BO1" s="160"/>
       <c r="BP1" s="161" t="s">
+        <v>954</v>
+      </c>
+      <c r="BQ1" s="161" t="s">
         <v>955</v>
       </c>
-      <c r="BQ1" s="161" t="s">
+      <c r="BR1" s="161" t="s">
         <v>956</v>
       </c>
-      <c r="BR1" s="161" t="s">
+      <c r="BS1" s="161" t="s">
         <v>957</v>
       </c>
-      <c r="BS1" s="161" t="s">
+      <c r="BT1" s="161" t="s">
         <v>958</v>
-      </c>
-      <c r="BT1" s="161" t="s">
-        <v>959</v>
       </c>
       <c r="BU1" s="161"/>
       <c r="BV1" s="161"/>
       <c r="BW1" s="161" t="s">
+        <v>959</v>
+      </c>
+      <c r="BX1" s="161" t="s">
         <v>960</v>
       </c>
-      <c r="BX1" s="161" t="s">
+      <c r="BY1" s="161" t="s">
         <v>961</v>
       </c>
-      <c r="BY1" s="161" t="s">
+      <c r="BZ1" s="161" t="s">
         <v>962</v>
       </c>
-      <c r="BZ1" s="161" t="s">
+      <c r="CA1" s="161" t="s">
         <v>963</v>
-      </c>
-      <c r="CA1" s="161" t="s">
-        <v>964</v>
       </c>
       <c r="CB1" s="162"/>
     </row>
     <row r="2" spans="1:80" s="18" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C2" s="62" t="s">
         <v>1187</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>1188</v>
       </c>
       <c r="D2" s="99"/>
       <c r="E2" s="164"/>
@@ -15573,7 +15570,7 @@
       <c r="AE2" s="62"/>
       <c r="AF2" s="137"/>
       <c r="AG2" s="62" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AH2" s="62" t="s">
         <v>176</v>
@@ -15582,13 +15579,13 @@
         <v>51100</v>
       </c>
       <c r="AJ2" s="139" t="s">
+        <v>1190</v>
+      </c>
+      <c r="AK2" s="67" t="s">
         <v>1191</v>
       </c>
-      <c r="AK2" s="67" t="s">
+      <c r="AL2" s="144" t="s">
         <v>1192</v>
-      </c>
-      <c r="AL2" s="144" t="s">
-        <v>1193</v>
       </c>
       <c r="AM2" s="67"/>
       <c r="AN2" s="140"/>
@@ -15617,86 +15614,86 @@
     </row>
     <row r="3" spans="1:80" s="18" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D3" s="99" t="str">
         <f t="shared" ref="D3:D34" si="0">IF(AX3&lt;&gt;0,"2020_A="&amp;AX3," ")&amp;IF(AY3&lt;&gt;0," ; 2020_i="&amp;AY3," ")&amp;IF(AZ3&lt;&gt;0,"2019_A="&amp;AZ3," ")&amp;IF(BA3&lt;&gt;0," ; 2019_i="&amp;BA3," ")&amp;IF(BB3&lt;&gt;0,"2018_A="&amp;BB3," ")&amp;IF(BC3&lt;&gt;0," ; 2018_i="&amp;BC3," ")&amp;IF(BD3&lt;&gt;0," ; 2017_A="&amp;BD3," ")&amp;IF(BE3&lt;&gt;0," ; 2017_i="&amp;BE3," ")&amp;IF(BF3&lt;&gt;0," ; 2016_A="&amp;BF3," ")&amp;IF(BG3&lt;&gt;0," ; 2016_i="&amp;BG3," ")&amp;IF(BH3&lt;&gt;0," ; 2015_A="&amp;BH3," ")&amp;IF(BI3&lt;&gt;0," ; 2015_i="&amp;BI3," ")&amp;IF(BJ3&lt;&gt;0," ; 2014_A="&amp;BJ3," ")&amp;IF(BK3&lt;&gt;0," ; 2014_i="&amp;BK3," ")</f>
         <v xml:space="preserve">2020_A=2 2019_A=4 2018_A=7  ; 2017_A=5 ; 2017_i=1 ; 2016_A=6 ; 2016_i=1 ; 2015_A=3  ; 2014_A=3 </v>
       </c>
       <c r="E3" s="164" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F3" s="164" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G3" s="164" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="H3" s="164"/>
       <c r="I3" s="74" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="K3" s="62" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="L3" s="164"/>
       <c r="M3" s="74" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="N3" s="62" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="O3" s="62" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="P3" s="137"/>
       <c r="Q3" s="62" t="s">
+        <v>1108</v>
+      </c>
+      <c r="R3" s="137" t="s">
         <v>1109</v>
       </c>
-      <c r="R3" s="137" t="s">
+      <c r="S3" s="137" t="s">
         <v>1110</v>
-      </c>
-      <c r="S3" s="137" t="s">
-        <v>1111</v>
       </c>
       <c r="T3" s="137"/>
       <c r="U3" s="62" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="V3" s="62" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="W3" s="62" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="X3" s="137"/>
       <c r="Y3" s="137"/>
       <c r="Z3" s="62" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AA3" s="62" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AB3" s="137"/>
       <c r="AC3" s="62"/>
       <c r="AD3" s="62" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AE3" s="62" t="s">
         <v>1004</v>
-      </c>
-      <c r="AE3" s="62" t="s">
-        <v>1005</v>
       </c>
       <c r="AF3" s="137"/>
       <c r="AG3" s="62" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AH3" s="62" t="s">
         <v>176</v>
@@ -15708,13 +15705,13 @@
         <v>326888110</v>
       </c>
       <c r="AK3" s="67" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="AL3" s="144" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AM3" s="67" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AN3" s="140"/>
       <c r="AO3" s="141"/>
@@ -15851,71 +15848,71 @@
         <v>2020_A=1 2019_A=1 2018_A=2 ; 2018_i=1 ; 2017_A=1  ; 2016_A=2  ; 2015_A=1  ; 2014_A=2 ; 2014_i=1</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>983</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>984</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>985</v>
-      </c>
       <c r="G4" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
+        <v>983</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>984</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>985</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="75" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="T4" s="17"/>
       <c r="U4" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="X4" s="17"/>
       <c r="Y4" s="17"/>
       <c r="Z4" s="17" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AA4" s="17" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="AB4" s="17"/>
       <c r="AC4" s="17" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AD4" s="17" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AE4" s="17" t="s">
         <v>1040</v>
-      </c>
-      <c r="AD4" s="17" t="s">
-        <v>1139</v>
-      </c>
-      <c r="AE4" s="17" t="s">
-        <v>1041</v>
       </c>
       <c r="AF4" s="17"/>
       <c r="AG4" s="11" t="s">
@@ -15931,26 +15928,26 @@
         <v>326888410</v>
       </c>
       <c r="AK4" s="23" t="s">
+        <v>1178</v>
+      </c>
+      <c r="AL4" s="145" t="s">
         <v>1179</v>
-      </c>
-      <c r="AL4" s="145" t="s">
-        <v>1180</v>
       </c>
       <c r="AM4" s="50"/>
       <c r="AN4" s="11" t="s">
         <v>302</v>
       </c>
       <c r="AO4" s="17" t="s">
+        <v>784</v>
+      </c>
+      <c r="AP4" s="17" t="s">
         <v>785</v>
       </c>
-      <c r="AP4" s="17" t="s">
+      <c r="AQ4" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="AQ4" s="11" t="s">
+      <c r="AR4" s="23" t="s">
         <v>787</v>
-      </c>
-      <c r="AR4" s="23" t="s">
-        <v>788</v>
       </c>
       <c r="AS4" s="25"/>
       <c r="AT4" s="1">
@@ -16096,45 +16093,45 @@
         <v>260</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="P5" s="17"/>
       <c r="Q5" s="17" t="s">
+        <v>1113</v>
+      </c>
+      <c r="R5" s="17" t="s">
         <v>1114</v>
       </c>
-      <c r="R5" s="17" t="s">
-        <v>1115</v>
-      </c>
       <c r="S5" s="17" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="T5" s="17"/>
       <c r="U5" s="17" t="s">
         <v>262</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="W5" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="X5" s="17"/>
       <c r="Y5" s="17" t="s">
         <v>242</v>
       </c>
       <c r="Z5" s="17" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="AA5" s="17" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="AB5" s="17"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="17" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="AE5" s="17" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AF5" s="17"/>
       <c r="AG5" s="17" t="s">
@@ -16150,10 +16147,10 @@
         <v>255</v>
       </c>
       <c r="AK5" s="23" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="AL5" s="146" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="AM5" s="66"/>
       <c r="AN5" s="17"/>
@@ -16280,7 +16277,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D6" s="73" t="str">
         <f t="shared" si="0"/>
@@ -16291,53 +16288,53 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="75" t="s">
+        <v>1155</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>1154</v>
+      </c>
+      <c r="O6" s="17" t="s">
         <v>1156</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>1155</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>1157</v>
       </c>
       <c r="P6" s="17"/>
       <c r="Q6" s="17" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R6" s="17" t="s">
         <v>1106</v>
       </c>
-      <c r="R6" s="17" t="s">
+      <c r="S6" s="17" t="s">
         <v>1107</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>1108</v>
       </c>
       <c r="T6" s="17"/>
       <c r="U6" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="W6" s="17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Z6" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AA6" s="17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AB6" s="17"/>
       <c r="AC6" s="17"/>
@@ -16357,10 +16354,10 @@
         <v>33326512020</v>
       </c>
       <c r="AK6" s="23" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="AL6" s="147" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AM6" s="25" t="s">
         <v>201</v>
@@ -16512,51 +16509,51 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="75" t="s">
+        <v>461</v>
+      </c>
+      <c r="N7" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="O7" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q7" s="17" t="s">
         <v>463</v>
       </c>
-      <c r="O7" s="17" t="s">
-        <v>995</v>
-      </c>
-      <c r="P7" s="17" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q7" s="17" t="s">
+      <c r="R7" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="R7" s="17" t="s">
-        <v>465</v>
-      </c>
       <c r="S7" s="17" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="T7" s="17"/>
       <c r="U7" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="W7" s="17" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="X7" s="17"/>
       <c r="Y7" s="17"/>
       <c r="Z7" s="17" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="AA7" s="17" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="AB7" s="17"/>
       <c r="AC7" s="17"/>
       <c r="AD7" s="17" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AE7" s="17" t="s">
         <v>1045</v>
-      </c>
-      <c r="AE7" s="17" t="s">
-        <v>1046</v>
       </c>
       <c r="AF7" s="17"/>
       <c r="AG7" s="11" t="s">
@@ -16572,27 +16569,27 @@
         <v>124</v>
       </c>
       <c r="AK7" s="23" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AL7" s="147" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="AM7" s="23"/>
       <c r="AN7" s="11" t="s">
         <v>237</v>
       </c>
       <c r="AO7" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AP7" s="17"/>
       <c r="AQ7" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="AR7" s="50" t="s">
         <v>529</v>
       </c>
-      <c r="AR7" s="50" t="s">
-        <v>530</v>
-      </c>
       <c r="AS7" s="25" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AT7" s="1">
         <f>RANK(BL7,$BL$3:$BL$122)+COUNTIF(BL$3:BL7,BL7)-1</f>
@@ -16709,10 +16706,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -16727,82 +16724,82 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="75" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="17" t="s">
+        <v>1079</v>
+      </c>
+      <c r="R8" s="17" t="s">
         <v>1080</v>
       </c>
-      <c r="R8" s="17" t="s">
+      <c r="S8" s="17" t="s">
         <v>1081</v>
-      </c>
-      <c r="S8" s="17" t="s">
-        <v>1082</v>
       </c>
       <c r="T8" s="15"/>
       <c r="U8" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="W8" s="17" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="17" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="AA8" s="17" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="AB8" s="15"/>
       <c r="AC8" s="17"/>
       <c r="AD8" s="17" t="s">
+        <v>996</v>
+      </c>
+      <c r="AE8" s="17" t="s">
         <v>997</v>
-      </c>
-      <c r="AE8" s="17" t="s">
-        <v>998</v>
       </c>
       <c r="AF8" s="15"/>
       <c r="AG8" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AH8" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AI8" s="21">
         <v>2400</v>
       </c>
       <c r="AJ8" s="46" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AK8" s="23" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="AL8" s="23" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AM8" s="23"/>
       <c r="AN8" s="30"/>
       <c r="AO8" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="AP8" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="AQ8" s="48" t="s">
+        <v>635</v>
+      </c>
+      <c r="AR8" s="42" t="s">
         <v>638</v>
-      </c>
-      <c r="AP8" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="AQ8" s="48" t="s">
-        <v>636</v>
-      </c>
-      <c r="AR8" s="42" t="s">
-        <v>639</v>
       </c>
       <c r="AS8" s="26"/>
       <c r="AT8" s="1">
@@ -16923,80 +16920,80 @@
         <v>4</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D9" s="99" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">    2018_A=1  ; 2017_A=1  ; 2016_A=1 ; 2016_i=1 ; 2015_A=2  ; 2014_A=1 </v>
       </c>
       <c r="E9" s="75" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="75" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="75" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="P9" s="17"/>
       <c r="Q9" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="T9" s="17"/>
       <c r="U9" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="W9" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="X9" s="17"/>
       <c r="Y9" s="17" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="Z9" s="17" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="AA9" s="17" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AB9" s="17"/>
       <c r="AC9" s="17" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="AE9" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AF9" s="17"/>
       <c r="AG9" s="11" t="s">
@@ -17012,14 +17009,14 @@
         <v>88</v>
       </c>
       <c r="AK9" s="23" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="AL9" s="23" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AM9" s="23"/>
       <c r="AN9" s="25" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AO9" s="17" t="s">
         <v>90</v>
@@ -17028,10 +17025,10 @@
         <v>91</v>
       </c>
       <c r="AQ9" s="25" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AR9" s="42" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AS9" s="25"/>
       <c r="AT9" s="1">
@@ -17147,43 +17144,43 @@
         <v>0</v>
       </c>
       <c r="B10" s="143" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D10" s="73" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">2020_A=1 2019_A=1 2018_A=1         </v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G10" s="142" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H10" s="126"/>
       <c r="I10" s="54" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J10" s="54" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K10" s="142" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="L10" s="126"/>
       <c r="M10" s="97" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="N10" s="54" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="O10" s="142" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P10" s="122"/>
       <c r="Q10" s="54"/>
@@ -17203,10 +17200,10 @@
       <c r="AE10" s="54"/>
       <c r="AF10" s="122"/>
       <c r="AG10" s="54" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AH10" s="54" t="s">
         <v>1194</v>
-      </c>
-      <c r="AH10" s="54" t="s">
-        <v>1195</v>
       </c>
       <c r="AI10" s="128">
         <v>50890</v>
@@ -17215,10 +17212,10 @@
         <v>33233066500</v>
       </c>
       <c r="AK10" s="22" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="AL10" s="23" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="AM10" s="54"/>
       <c r="AN10" s="130"/>
@@ -17334,10 +17331,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D11" s="73" t="str">
         <f t="shared" si="0"/>
@@ -17355,70 +17352,70 @@
         <v>242</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O11" s="45" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="P11" s="15"/>
       <c r="Q11" s="17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="R11" s="24" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="S11" s="45" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="T11" s="15"/>
       <c r="U11" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="V11" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="V11" s="17" t="s">
-        <v>486</v>
-      </c>
       <c r="W11" s="45" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="X11" s="15"/>
       <c r="Y11" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Z11" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AA11" s="45" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AB11" s="15"/>
       <c r="AC11" s="17"/>
       <c r="AD11" s="17" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AE11" s="45" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AF11" s="26"/>
       <c r="AG11" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="AH11" s="17" t="s">
         <v>454</v>
-      </c>
-      <c r="AH11" s="17" t="s">
-        <v>455</v>
       </c>
       <c r="AI11" s="21">
         <v>2350</v>
       </c>
       <c r="AJ11" s="46" t="s">
+        <v>455</v>
+      </c>
+      <c r="AK11" s="23" t="s">
+        <v>1205</v>
+      </c>
+      <c r="AL11" s="23" t="s">
+        <v>1204</v>
+      </c>
+      <c r="AM11" s="23" t="s">
         <v>456</v>
-      </c>
-      <c r="AK11" s="23" t="s">
-        <v>1206</v>
-      </c>
-      <c r="AL11" s="23" t="s">
-        <v>1205</v>
-      </c>
-      <c r="AM11" s="23" t="s">
-        <v>457</v>
       </c>
       <c r="AN11" s="47"/>
       <c r="AO11" s="26"/>
@@ -17555,33 +17552,33 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="75" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="P12" s="17"/>
       <c r="Q12" s="17" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="S12" s="17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="T12" s="17"/>
       <c r="U12" s="17" t="s">
         <v>242</v>
       </c>
       <c r="V12" s="17" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="W12" s="17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
@@ -17605,10 +17602,10 @@
         <v>118</v>
       </c>
       <c r="AK12" s="23" t="s">
+        <v>1206</v>
+      </c>
+      <c r="AL12" s="23" t="s">
         <v>1207</v>
-      </c>
-      <c r="AL12" s="23" t="s">
-        <v>1208</v>
       </c>
       <c r="AM12" s="23"/>
       <c r="AN12" s="25"/>
@@ -17625,7 +17622,7 @@
         <v>25</v>
       </c>
       <c r="AS12" s="25" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AT12" s="1">
         <f>RANK(BL12,$BL$3:$BL$122)+COUNTIF(BL$3:BL12,BL12)-1</f>
@@ -17752,33 +17749,33 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="75" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="P13" s="17"/>
       <c r="Q13" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="R13" s="120" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="T13" s="17"/>
       <c r="U13" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="V13" s="17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="W13" s="17" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
@@ -17802,13 +17799,13 @@
         <v>115</v>
       </c>
       <c r="AK13" s="23" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="AL13" s="23" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="AM13" s="23" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AN13" s="25" t="s">
         <v>20</v>
@@ -17931,10 +17928,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D14" s="73" t="str">
         <f t="shared" si="0"/>
@@ -17949,33 +17946,33 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="75" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="P14" s="15"/>
       <c r="Q14" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="R14" s="24" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="S14" s="17" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="T14" s="15"/>
       <c r="U14" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </